--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="303">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,6 +682,9 @@
     <t>['6']</t>
   </si>
   <si>
+    <t>['22', '25', '46']</t>
+  </si>
+  <si>
     <t>['40', '84']</t>
   </si>
   <si>
@@ -919,7 +922,7 @@
     <t>['1', '54']</t>
   </si>
   <si>
-    <t>['48', '65']</t>
+    <t>['47', '65']</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK197"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1907,7 +1910,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1994,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT4">
         <v>1.67</v>
@@ -2098,7 +2101,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2480,7 +2483,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2671,7 +2674,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3626,7 +3629,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3716,7 +3719,7 @@
         <v>1.89</v>
       </c>
       <c r="AT13">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4289,7 +4292,7 @@
         <v>2.63</v>
       </c>
       <c r="AT16">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4963,7 +4966,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5154,7 +5157,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5727,7 +5730,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5814,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT24">
         <v>1.86</v>
@@ -6300,7 +6303,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6578,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT28">
         <v>0.38</v>
@@ -6873,7 +6876,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7154,7 +7157,7 @@
         <v>1.67</v>
       </c>
       <c r="AT31">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU31">
         <v>1.58</v>
@@ -7637,7 +7640,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7828,7 +7831,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -8210,7 +8213,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8783,7 +8786,7 @@
         <v>121</v>
       </c>
       <c r="P40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8974,7 +8977,7 @@
         <v>122</v>
       </c>
       <c r="P41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9356,7 +9359,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9446,7 +9449,7 @@
         <v>1.78</v>
       </c>
       <c r="AT43">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU43">
         <v>0.76</v>
@@ -9547,7 +9550,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q44">
         <v>11</v>
@@ -9929,7 +9932,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q46">
         <v>2</v>
@@ -10311,7 +10314,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q48">
         <v>10</v>
@@ -10398,7 +10401,7 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT48">
         <v>0.75</v>
@@ -10502,7 +10505,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11075,7 +11078,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11266,7 +11269,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11356,7 +11359,7 @@
         <v>1.88</v>
       </c>
       <c r="AT53">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU53">
         <v>1.89</v>
@@ -11839,7 +11842,7 @@
         <v>133</v>
       </c>
       <c r="P56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12030,7 +12033,7 @@
         <v>134</v>
       </c>
       <c r="P57" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12221,7 +12224,7 @@
         <v>99</v>
       </c>
       <c r="P58" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12412,7 +12415,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12690,7 +12693,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT60">
         <v>0.44</v>
@@ -13072,10 +13075,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT62">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU62">
         <v>1.32</v>
@@ -13558,7 +13561,7 @@
         <v>98</v>
       </c>
       <c r="P65" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -14131,7 +14134,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14322,7 +14325,7 @@
         <v>99</v>
       </c>
       <c r="P69" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14895,7 +14898,7 @@
         <v>99</v>
       </c>
       <c r="P72" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15468,7 +15471,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -16232,7 +16235,7 @@
         <v>99</v>
       </c>
       <c r="P79" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16423,7 +16426,7 @@
         <v>147</v>
       </c>
       <c r="P80" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q80">
         <v>11</v>
@@ -16614,7 +16617,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q81">
         <v>8</v>
@@ -16805,7 +16808,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16996,7 +16999,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17187,7 +17190,7 @@
         <v>151</v>
       </c>
       <c r="P84" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17465,7 +17468,7 @@
         <v>1.67</v>
       </c>
       <c r="AS85">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT85">
         <v>1.13</v>
@@ -17659,7 +17662,7 @@
         <v>1.89</v>
       </c>
       <c r="AT86">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU86">
         <v>1.57</v>
@@ -17760,7 +17763,7 @@
         <v>154</v>
       </c>
       <c r="P87" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17847,7 +17850,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT87">
         <v>1.86</v>
@@ -17951,7 +17954,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18715,7 +18718,7 @@
         <v>157</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -19288,7 +19291,7 @@
         <v>99</v>
       </c>
       <c r="P95" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19479,7 +19482,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19569,7 +19572,7 @@
         <v>1.29</v>
       </c>
       <c r="AT96">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU96">
         <v>0.79</v>
@@ -19670,7 +19673,7 @@
         <v>99</v>
       </c>
       <c r="P97" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19861,7 +19864,7 @@
         <v>99</v>
       </c>
       <c r="P98" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20625,7 +20628,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>11</v>
@@ -21007,7 +21010,7 @@
         <v>99</v>
       </c>
       <c r="P104" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21771,7 +21774,7 @@
         <v>99</v>
       </c>
       <c r="P108" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q108">
         <v>7</v>
@@ -22052,7 +22055,7 @@
         <v>1.89</v>
       </c>
       <c r="AT109">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU109">
         <v>1.55</v>
@@ -22153,7 +22156,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -22344,7 +22347,7 @@
         <v>99</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22535,7 +22538,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22726,7 +22729,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -22917,7 +22920,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23490,7 +23493,7 @@
         <v>99</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23577,7 +23580,7 @@
         <v>2.5</v>
       </c>
       <c r="AS117">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT117">
         <v>2.43</v>
@@ -24063,7 +24066,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24254,7 +24257,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24445,7 +24448,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -24636,7 +24639,7 @@
         <v>156</v>
       </c>
       <c r="P123" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24914,7 +24917,7 @@
         <v>1.8</v>
       </c>
       <c r="AS124">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT124">
         <v>1.25</v>
@@ -25018,7 +25021,7 @@
         <v>153</v>
       </c>
       <c r="P125" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q125">
         <v>10</v>
@@ -25400,7 +25403,7 @@
         <v>175</v>
       </c>
       <c r="P127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25591,7 +25594,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25782,7 +25785,7 @@
         <v>177</v>
       </c>
       <c r="P129" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q129">
         <v>14</v>
@@ -26355,7 +26358,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26445,7 +26448,7 @@
         <v>1.38</v>
       </c>
       <c r="AT132">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU132">
         <v>1.31</v>
@@ -26546,7 +26549,7 @@
         <v>180</v>
       </c>
       <c r="P133" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -27501,7 +27504,7 @@
         <v>99</v>
       </c>
       <c r="P138" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27588,7 +27591,7 @@
         <v>1.5</v>
       </c>
       <c r="AS138">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT138">
         <v>1.5</v>
@@ -27692,7 +27695,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q139">
         <v>0</v>
@@ -28074,7 +28077,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28265,7 +28268,7 @@
         <v>99</v>
       </c>
       <c r="P142" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28355,7 +28358,7 @@
         <v>1.56</v>
       </c>
       <c r="AT142">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU142">
         <v>1.41</v>
@@ -28647,7 +28650,7 @@
         <v>186</v>
       </c>
       <c r="P144" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -29220,7 +29223,7 @@
         <v>99</v>
       </c>
       <c r="P147" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29411,7 +29414,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29880,7 +29883,7 @@
         <v>1.2</v>
       </c>
       <c r="AS150">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT150">
         <v>0.88</v>
@@ -29984,7 +29987,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30366,7 +30369,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30939,7 +30942,7 @@
         <v>120</v>
       </c>
       <c r="P156" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31220,7 +31223,7 @@
         <v>2.13</v>
       </c>
       <c r="AT157">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU157">
         <v>1.59</v>
@@ -31321,7 +31324,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q158">
         <v>2</v>
@@ -32085,7 +32088,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32276,7 +32279,7 @@
         <v>198</v>
       </c>
       <c r="P163" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -32467,7 +32470,7 @@
         <v>199</v>
       </c>
       <c r="P164" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q164">
         <v>4</v>
@@ -32658,7 +32661,7 @@
         <v>99</v>
       </c>
       <c r="P165" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32748,7 +32751,7 @@
         <v>1.38</v>
       </c>
       <c r="AT165">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU165">
         <v>1.44</v>
@@ -32849,7 +32852,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -33130,7 +33133,7 @@
         <v>0.88</v>
       </c>
       <c r="AT167">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AU167">
         <v>1.32</v>
@@ -33231,7 +33234,7 @@
         <v>183</v>
       </c>
       <c r="P168" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33613,7 +33616,7 @@
         <v>201</v>
       </c>
       <c r="P170" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -33995,7 +33998,7 @@
         <v>203</v>
       </c>
       <c r="P172" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34186,7 +34189,7 @@
         <v>204</v>
       </c>
       <c r="P173" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34377,7 +34380,7 @@
         <v>205</v>
       </c>
       <c r="P174" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34759,7 +34762,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q176">
         <v>6</v>
@@ -35037,7 +35040,7 @@
         <v>1</v>
       </c>
       <c r="AS177">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT177">
         <v>0.89</v>
@@ -35332,7 +35335,7 @@
         <v>99</v>
       </c>
       <c r="P179" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35523,7 +35526,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -36374,7 +36377,7 @@
         <v>2.29</v>
       </c>
       <c r="AS184">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT184">
         <v>1.78</v>
@@ -36478,7 +36481,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q185">
         <v>9</v>
@@ -37433,7 +37436,7 @@
         <v>216</v>
       </c>
       <c r="P190" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -37815,7 +37818,7 @@
         <v>99</v>
       </c>
       <c r="P192" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -37902,7 +37905,7 @@
         <v>1.29</v>
       </c>
       <c r="AS192">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT192">
         <v>1.5</v>
@@ -38197,7 +38200,7 @@
         <v>219</v>
       </c>
       <c r="P194" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38475,7 +38478,7 @@
         <v>1</v>
       </c>
       <c r="AS195">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT195">
         <v>0.88</v>
@@ -38912,6 +38915,388 @@
       </c>
       <c r="BK197">
         <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>2580744</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>44866.69791666666</v>
+      </c>
+      <c r="F198">
+        <v>8</v>
+      </c>
+      <c r="G198" t="s">
+        <v>67</v>
+      </c>
+      <c r="H198" t="s">
+        <v>71</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198" t="s">
+        <v>99</v>
+      </c>
+      <c r="P198" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q198">
+        <v>2</v>
+      </c>
+      <c r="R198">
+        <v>8</v>
+      </c>
+      <c r="S198">
+        <v>10</v>
+      </c>
+      <c r="T198">
+        <v>3.75</v>
+      </c>
+      <c r="U198">
+        <v>2</v>
+      </c>
+      <c r="V198">
+        <v>3.1</v>
+      </c>
+      <c r="W198">
+        <v>1.5</v>
+      </c>
+      <c r="X198">
+        <v>2.5</v>
+      </c>
+      <c r="Y198">
+        <v>3.4</v>
+      </c>
+      <c r="Z198">
+        <v>1.3</v>
+      </c>
+      <c r="AA198">
+        <v>10</v>
+      </c>
+      <c r="AB198">
+        <v>1.06</v>
+      </c>
+      <c r="AC198">
+        <v>2.1</v>
+      </c>
+      <c r="AD198">
+        <v>3.2</v>
+      </c>
+      <c r="AE198">
+        <v>3.6</v>
+      </c>
+      <c r="AF198">
+        <v>1.08</v>
+      </c>
+      <c r="AG198">
+        <v>8.5</v>
+      </c>
+      <c r="AH198">
+        <v>1.42</v>
+      </c>
+      <c r="AI198">
+        <v>2.85</v>
+      </c>
+      <c r="AJ198">
+        <v>2.1</v>
+      </c>
+      <c r="AK198">
+        <v>1.65</v>
+      </c>
+      <c r="AL198">
+        <v>1.91</v>
+      </c>
+      <c r="AM198">
+        <v>1.8</v>
+      </c>
+      <c r="AN198">
+        <v>1.63</v>
+      </c>
+      <c r="AO198">
+        <v>1.36</v>
+      </c>
+      <c r="AP198">
+        <v>1.4</v>
+      </c>
+      <c r="AQ198">
+        <v>1.63</v>
+      </c>
+      <c r="AR198">
+        <v>0.86</v>
+      </c>
+      <c r="AS198">
+        <v>1.56</v>
+      </c>
+      <c r="AT198">
+        <v>0.88</v>
+      </c>
+      <c r="AU198">
+        <v>1.5</v>
+      </c>
+      <c r="AV198">
+        <v>1.24</v>
+      </c>
+      <c r="AW198">
+        <v>2.74</v>
+      </c>
+      <c r="AX198">
+        <v>2.54</v>
+      </c>
+      <c r="AY198">
+        <v>8</v>
+      </c>
+      <c r="AZ198">
+        <v>1.69</v>
+      </c>
+      <c r="BA198">
+        <v>1.21</v>
+      </c>
+      <c r="BB198">
+        <v>1.4</v>
+      </c>
+      <c r="BC198">
+        <v>1.72</v>
+      </c>
+      <c r="BD198">
+        <v>2.2</v>
+      </c>
+      <c r="BE198">
+        <v>3</v>
+      </c>
+      <c r="BF198">
+        <v>2</v>
+      </c>
+      <c r="BG198">
+        <v>2</v>
+      </c>
+      <c r="BH198">
+        <v>4</v>
+      </c>
+      <c r="BI198">
+        <v>14</v>
+      </c>
+      <c r="BJ198">
+        <v>6</v>
+      </c>
+      <c r="BK198">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>2580735</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>44866.69791666666</v>
+      </c>
+      <c r="F199">
+        <v>8</v>
+      </c>
+      <c r="G199" t="s">
+        <v>87</v>
+      </c>
+      <c r="H199" t="s">
+        <v>86</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>2</v>
+      </c>
+      <c r="L199">
+        <v>3</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>4</v>
+      </c>
+      <c r="O199" t="s">
+        <v>222</v>
+      </c>
+      <c r="P199" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q199">
+        <v>8</v>
+      </c>
+      <c r="R199">
+        <v>3</v>
+      </c>
+      <c r="S199">
+        <v>11</v>
+      </c>
+      <c r="T199">
+        <v>2.63</v>
+      </c>
+      <c r="U199">
+        <v>2.1</v>
+      </c>
+      <c r="V199">
+        <v>4.33</v>
+      </c>
+      <c r="W199">
+        <v>1.4</v>
+      </c>
+      <c r="X199">
+        <v>2.75</v>
+      </c>
+      <c r="Y199">
+        <v>3</v>
+      </c>
+      <c r="Z199">
+        <v>1.36</v>
+      </c>
+      <c r="AA199">
+        <v>9</v>
+      </c>
+      <c r="AB199">
+        <v>1.07</v>
+      </c>
+      <c r="AC199">
+        <v>1.83</v>
+      </c>
+      <c r="AD199">
+        <v>3.3</v>
+      </c>
+      <c r="AE199">
+        <v>4.6</v>
+      </c>
+      <c r="AF199">
+        <v>1.06</v>
+      </c>
+      <c r="AG199">
+        <v>9.5</v>
+      </c>
+      <c r="AH199">
+        <v>1.36</v>
+      </c>
+      <c r="AI199">
+        <v>3.1</v>
+      </c>
+      <c r="AJ199">
+        <v>2.1</v>
+      </c>
+      <c r="AK199">
+        <v>1.65</v>
+      </c>
+      <c r="AL199">
+        <v>1.83</v>
+      </c>
+      <c r="AM199">
+        <v>1.83</v>
+      </c>
+      <c r="AN199">
+        <v>1.28</v>
+      </c>
+      <c r="AO199">
+        <v>1.33</v>
+      </c>
+      <c r="AP199">
+        <v>1.88</v>
+      </c>
+      <c r="AQ199">
+        <v>2.25</v>
+      </c>
+      <c r="AR199">
+        <v>0.14</v>
+      </c>
+      <c r="AS199">
+        <v>2.33</v>
+      </c>
+      <c r="AT199">
+        <v>0.13</v>
+      </c>
+      <c r="AU199">
+        <v>1.6</v>
+      </c>
+      <c r="AV199">
+        <v>0.78</v>
+      </c>
+      <c r="AW199">
+        <v>2.38</v>
+      </c>
+      <c r="AX199">
+        <v>1.64</v>
+      </c>
+      <c r="AY199">
+        <v>8</v>
+      </c>
+      <c r="AZ199">
+        <v>2.67</v>
+      </c>
+      <c r="BA199">
+        <v>1.26</v>
+      </c>
+      <c r="BB199">
+        <v>1.48</v>
+      </c>
+      <c r="BC199">
+        <v>1.88</v>
+      </c>
+      <c r="BD199">
+        <v>2.43</v>
+      </c>
+      <c r="BE199">
+        <v>3.35</v>
+      </c>
+      <c r="BF199">
+        <v>5</v>
+      </c>
+      <c r="BG199">
+        <v>2</v>
+      </c>
+      <c r="BH199">
+        <v>6</v>
+      </c>
+      <c r="BI199">
+        <v>5</v>
+      </c>
+      <c r="BJ199">
+        <v>11</v>
+      </c>
+      <c r="BK199">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="323">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -685,10 +685,40 @@
     <t>['22', '25', '46']</t>
   </si>
   <si>
-    <t>['40', '84']</t>
+    <t>['28', '60', '76']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['19', '35']</t>
+  </si>
+  <si>
+    <t>['14', '90+2']</t>
   </si>
   <si>
     <t>['38']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['5', '19', '45+3']</t>
+  </si>
+  <si>
+    <t>['45+1', '59', '89']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['4', '8', '21']</t>
+  </si>
+  <si>
+    <t>['43', '56']</t>
+  </si>
+  <si>
+    <t>['40', '84']</t>
   </si>
   <si>
     <t>['14', '22']</t>
@@ -710,9 +740,6 @@
   </si>
   <si>
     <t>['90+10']</t>
-  </si>
-  <si>
-    <t>['90+2']</t>
   </si>
   <si>
     <t>['45+4']</t>
@@ -923,6 +950,39 @@
   </si>
   <si>
     <t>['47', '65']</t>
+  </si>
+  <si>
+    <t>['12', '50', '90+3']</t>
+  </si>
+  <si>
+    <t>['30', '53']</t>
+  </si>
+  <si>
+    <t>['37', '51']</t>
+  </si>
+  <si>
+    <t>['54', '74']</t>
+  </si>
+  <si>
+    <t>['7', '24']</t>
+  </si>
+  <si>
+    <t>['27', '72']</t>
+  </si>
+  <si>
+    <t>['6', '51', '63']</t>
+  </si>
+  <si>
+    <t>['8', '82']</t>
+  </si>
+  <si>
+    <t>['20', '67']</t>
+  </si>
+  <si>
+    <t>['3', '67', '72', '80']</t>
+  </si>
+  <si>
+    <t>['29', '31', '59']</t>
   </si>
 </sst>
 </file>
@@ -1284,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK199"/>
+  <dimension ref="A1:BK227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1615,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT2">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1806,10 +1866,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT3">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1910,7 +1970,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -1997,10 +2057,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT4">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2101,7 +2161,7 @@
         <v>92</v>
       </c>
       <c r="P5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2188,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -2379,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT6">
         <v>1.5</v>
@@ -2483,7 +2543,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2570,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="AT7">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2674,7 +2734,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2761,10 +2821,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT8">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3143,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AT10">
         <v>1.44</v>
@@ -3334,10 +3394,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT11">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3525,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT12">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3629,7 +3689,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3719,7 +3779,7 @@
         <v>1.89</v>
       </c>
       <c r="AT13">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3910,7 +3970,7 @@
         <v>1.11</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4098,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AT15">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4289,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT16">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4480,10 +4540,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT17">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4671,10 +4731,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT18">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4862,10 +4922,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT19">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4966,7 +5026,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5053,10 +5113,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT20">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5157,7 +5217,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5435,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT22">
         <v>0.44</v>
@@ -5626,10 +5686,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT23">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5730,7 +5790,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -5817,10 +5877,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT24">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6008,10 +6068,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT25">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6199,10 +6259,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT26">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU26">
         <v>0.99</v>
@@ -6303,7 +6363,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6390,10 +6450,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT27">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU27">
         <v>2.54</v>
@@ -6581,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT28">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU28">
         <v>1.11</v>
@@ -6772,10 +6832,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT29">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU29">
         <v>1.47</v>
@@ -6876,7 +6936,7 @@
         <v>99</v>
       </c>
       <c r="P30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6963,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="AT30">
         <v>1.78</v>
@@ -7154,10 +7214,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT31">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU31">
         <v>1.58</v>
@@ -7536,10 +7596,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AT33">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU33">
         <v>1.64</v>
@@ -7640,7 +7700,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="Q34">
         <v>2</v>
@@ -7730,7 +7790,7 @@
         <v>1.89</v>
       </c>
       <c r="AT34">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU34">
         <v>1.34</v>
@@ -7831,7 +7891,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7918,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT35">
         <v>1.44</v>
@@ -8109,7 +8169,7 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT36">
         <v>1</v>
@@ -8213,7 +8273,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8300,10 +8360,10 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT37">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AU37">
         <v>1.21</v>
@@ -8491,10 +8551,10 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AT38">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="AU38">
         <v>0.95</v>
@@ -8682,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT39">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU39">
         <v>1.8</v>
@@ -8786,7 +8846,7 @@
         <v>121</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8873,10 +8933,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT40">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU40">
         <v>1.11</v>
@@ -8977,7 +9037,7 @@
         <v>122</v>
       </c>
       <c r="P41" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9064,10 +9124,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU41">
         <v>1.87</v>
@@ -9258,7 +9318,7 @@
         <v>1.11</v>
       </c>
       <c r="AT42">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU42">
         <v>1.39</v>
@@ -9359,7 +9419,7 @@
         <v>123</v>
       </c>
       <c r="P43" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Q43">
         <v>10</v>
@@ -9449,7 +9509,7 @@
         <v>1.78</v>
       </c>
       <c r="AT43">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU43">
         <v>0.76</v>
@@ -9550,7 +9610,7 @@
         <v>99</v>
       </c>
       <c r="P44" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="Q44">
         <v>11</v>
@@ -9637,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT44">
         <v>0.44</v>
@@ -9828,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="AS45">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT45">
         <v>0.5600000000000001</v>
@@ -9932,7 +9992,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="Q46">
         <v>2</v>
@@ -10019,10 +10079,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT46">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AU46">
         <v>0.01</v>
@@ -10210,10 +10270,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT47">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AU47">
         <v>1.27</v>
@@ -10314,7 +10374,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="Q48">
         <v>10</v>
@@ -10401,10 +10461,10 @@
         <v>3</v>
       </c>
       <c r="AS48">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT48">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU48">
         <v>1.63</v>
@@ -10505,7 +10565,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10595,7 +10655,7 @@
         <v>1.11</v>
       </c>
       <c r="AT49">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AU49">
         <v>1.19</v>
@@ -10783,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AT50">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU50">
         <v>0.99</v>
@@ -10974,10 +11034,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT51">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU51">
         <v>1.83</v>
@@ -11078,7 +11138,7 @@
         <v>131</v>
       </c>
       <c r="P52" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11165,10 +11225,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT52">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU52">
         <v>1.18</v>
@@ -11269,7 +11329,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11356,10 +11416,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT53">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU53">
         <v>1.89</v>
@@ -11547,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT54">
         <v>0.5600000000000001</v>
@@ -11738,10 +11798,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT55">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU55">
         <v>1.6</v>
@@ -11842,7 +11902,7 @@
         <v>133</v>
       </c>
       <c r="P56" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -11932,7 +11992,7 @@
         <v>1.78</v>
       </c>
       <c r="AT56">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU56">
         <v>1.57</v>
@@ -12033,7 +12093,7 @@
         <v>134</v>
       </c>
       <c r="P57" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12120,10 +12180,10 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT57">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AU57">
         <v>0.99</v>
@@ -12224,7 +12284,7 @@
         <v>99</v>
       </c>
       <c r="P58" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12311,10 +12371,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT58">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU58">
         <v>0.62</v>
@@ -12415,7 +12475,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12502,10 +12562,10 @@
         <v>2</v>
       </c>
       <c r="AS59">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT59">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="AU59">
         <v>1.34</v>
@@ -12693,7 +12753,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT60">
         <v>0.44</v>
@@ -12884,10 +12944,10 @@
         <v>2</v>
       </c>
       <c r="AS61">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT61">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU61">
         <v>1.47</v>
@@ -13075,10 +13135,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT62">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU62">
         <v>1.32</v>
@@ -13266,7 +13326,7 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT63">
         <v>1.5</v>
@@ -13457,7 +13517,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT64">
         <v>1.44</v>
@@ -13561,7 +13621,7 @@
         <v>98</v>
       </c>
       <c r="P65" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13648,7 +13708,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT65">
         <v>1.78</v>
@@ -13839,10 +13899,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="AT66">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU66">
         <v>1.59</v>
@@ -14033,7 +14093,7 @@
         <v>1.89</v>
       </c>
       <c r="AT67">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AU67">
         <v>1.68</v>
@@ -14134,7 +14194,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14224,7 +14284,7 @@
         <v>2.44</v>
       </c>
       <c r="AT68">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU68">
         <v>1.36</v>
@@ -14325,7 +14385,7 @@
         <v>99</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14412,7 +14472,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AT69">
         <v>1</v>
@@ -14603,10 +14663,10 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT70">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU70">
         <v>2.11</v>
@@ -14794,10 +14854,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT71">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU71">
         <v>1.84</v>
@@ -14898,7 +14958,7 @@
         <v>99</v>
       </c>
       <c r="P72" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14985,10 +15045,10 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT72">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU72">
         <v>1.39</v>
@@ -15176,7 +15236,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT73">
         <v>0.44</v>
@@ -15367,10 +15427,10 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT74">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU74">
         <v>1.86</v>
@@ -15471,7 +15531,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15558,10 +15618,10 @@
         <v>0.67</v>
       </c>
       <c r="AS75">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT75">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU75">
         <v>1.52</v>
@@ -15752,7 +15812,7 @@
         <v>1.89</v>
       </c>
       <c r="AT76">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU76">
         <v>1.56</v>
@@ -15943,7 +16003,7 @@
         <v>2.44</v>
       </c>
       <c r="AT77">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU77">
         <v>1.65</v>
@@ -16131,7 +16191,7 @@
         <v>0.67</v>
       </c>
       <c r="AS78">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT78">
         <v>1.44</v>
@@ -16235,7 +16295,7 @@
         <v>99</v>
       </c>
       <c r="P79" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -16322,7 +16382,7 @@
         <v>2</v>
       </c>
       <c r="AS79">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT79">
         <v>1.78</v>
@@ -16426,7 +16486,7 @@
         <v>147</v>
       </c>
       <c r="P80" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="Q80">
         <v>11</v>
@@ -16513,10 +16573,10 @@
         <v>1.33</v>
       </c>
       <c r="AS80">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT80">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU80">
         <v>0.97</v>
@@ -16617,7 +16677,7 @@
         <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q81">
         <v>8</v>
@@ -16704,10 +16764,10 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT81">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU81">
         <v>1.22</v>
@@ -16808,7 +16868,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16895,10 +16955,10 @@
         <v>0</v>
       </c>
       <c r="AS82">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT82">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU82">
         <v>1.74</v>
@@ -16999,7 +17059,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17086,10 +17146,10 @@
         <v>1.33</v>
       </c>
       <c r="AS83">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT83">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU83">
         <v>1.7</v>
@@ -17190,7 +17250,7 @@
         <v>151</v>
       </c>
       <c r="P84" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17468,10 +17528,10 @@
         <v>1.67</v>
       </c>
       <c r="AS85">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT85">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AU85">
         <v>1.57</v>
@@ -17659,10 +17719,10 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT86">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU86">
         <v>1.57</v>
@@ -17763,7 +17823,7 @@
         <v>154</v>
       </c>
       <c r="P87" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17850,10 +17910,10 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT87">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AU87">
         <v>1.35</v>
@@ -17954,7 +18014,7 @@
         <v>155</v>
       </c>
       <c r="P88" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="Q88">
         <v>8</v>
@@ -18041,7 +18101,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AT88">
         <v>0.5600000000000001</v>
@@ -18232,7 +18292,7 @@
         <v>1.33</v>
       </c>
       <c r="AS89">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT89">
         <v>1</v>
@@ -18423,10 +18483,10 @@
         <v>2.33</v>
       </c>
       <c r="AS90">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="AT90">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="AU90">
         <v>1.58</v>
@@ -18614,10 +18674,10 @@
         <v>0.5</v>
       </c>
       <c r="AS91">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT91">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU91">
         <v>1.79</v>
@@ -18718,7 +18778,7 @@
         <v>157</v>
       </c>
       <c r="P92" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -18808,7 +18868,7 @@
         <v>1.11</v>
       </c>
       <c r="AT92">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU92">
         <v>1.03</v>
@@ -18996,10 +19056,10 @@
         <v>1.33</v>
       </c>
       <c r="AS93">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AT93">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU93">
         <v>1.44</v>
@@ -19187,10 +19247,10 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT94">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU94">
         <v>1.86</v>
@@ -19291,7 +19351,7 @@
         <v>99</v>
       </c>
       <c r="P95" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19378,10 +19438,10 @@
         <v>1.67</v>
       </c>
       <c r="AS95">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT95">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AU95">
         <v>1.41</v>
@@ -19482,7 +19542,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -19569,10 +19629,10 @@
         <v>0</v>
       </c>
       <c r="AS96">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT96">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU96">
         <v>0.79</v>
@@ -19673,7 +19733,7 @@
         <v>99</v>
       </c>
       <c r="P97" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19864,7 +19924,7 @@
         <v>99</v>
       </c>
       <c r="P98" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -19951,7 +20011,7 @@
         <v>0.75</v>
       </c>
       <c r="AS98">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT98">
         <v>1.5</v>
@@ -20145,7 +20205,7 @@
         <v>1.89</v>
       </c>
       <c r="AT99">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU99">
         <v>1.58</v>
@@ -20333,10 +20393,10 @@
         <v>0.75</v>
       </c>
       <c r="AS100">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT100">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU100">
         <v>1.01</v>
@@ -20524,7 +20584,7 @@
         <v>2.25</v>
       </c>
       <c r="AS101">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT101">
         <v>1.78</v>
@@ -20628,7 +20688,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="Q102">
         <v>11</v>
@@ -20715,10 +20775,10 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT102">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU102">
         <v>1.78</v>
@@ -20906,10 +20966,10 @@
         <v>1.75</v>
       </c>
       <c r="AS103">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT103">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU103">
         <v>1.5</v>
@@ -21010,7 +21070,7 @@
         <v>99</v>
       </c>
       <c r="P104" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21097,10 +21157,10 @@
         <v>0.25</v>
       </c>
       <c r="AS104">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT104">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU104">
         <v>1.64</v>
@@ -21288,7 +21348,7 @@
         <v>0.75</v>
       </c>
       <c r="AS105">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT105">
         <v>0.44</v>
@@ -21482,7 +21542,7 @@
         <v>2.44</v>
       </c>
       <c r="AT106">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU106">
         <v>1.64</v>
@@ -21670,10 +21730,10 @@
         <v>0.25</v>
       </c>
       <c r="AS107">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT107">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU107">
         <v>1.51</v>
@@ -21774,7 +21834,7 @@
         <v>99</v>
       </c>
       <c r="P108" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="Q108">
         <v>7</v>
@@ -21861,10 +21921,10 @@
         <v>1.5</v>
       </c>
       <c r="AS108">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT108">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU108">
         <v>1.28</v>
@@ -22055,7 +22115,7 @@
         <v>1.89</v>
       </c>
       <c r="AT109">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU109">
         <v>1.55</v>
@@ -22156,7 +22216,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Q110">
         <v>8</v>
@@ -22243,10 +22303,10 @@
         <v>0.8</v>
       </c>
       <c r="AS110">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT110">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU110">
         <v>1.47</v>
@@ -22347,7 +22407,7 @@
         <v>99</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>8</v>
@@ -22434,10 +22494,10 @@
         <v>0.2</v>
       </c>
       <c r="AS111">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT111">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU111">
         <v>1.21</v>
@@ -22538,7 +22598,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="Q112">
         <v>4</v>
@@ -22625,7 +22685,7 @@
         <v>1.2</v>
       </c>
       <c r="AS112">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT112">
         <v>1.5</v>
@@ -22729,7 +22789,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q113">
         <v>7</v>
@@ -22819,7 +22879,7 @@
         <v>1.78</v>
       </c>
       <c r="AT113">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU113">
         <v>1.41</v>
@@ -22920,7 +22980,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -23007,7 +23067,7 @@
         <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT114">
         <v>1.44</v>
@@ -23201,7 +23261,7 @@
         <v>1.11</v>
       </c>
       <c r="AT115">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU115">
         <v>1.2</v>
@@ -23389,10 +23449,10 @@
         <v>0.67</v>
       </c>
       <c r="AS116">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT116">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU116">
         <v>1.32</v>
@@ -23493,7 +23553,7 @@
         <v>99</v>
       </c>
       <c r="P117" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="Q117">
         <v>7</v>
@@ -23580,10 +23640,10 @@
         <v>2.5</v>
       </c>
       <c r="AS117">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT117">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="AU117">
         <v>1.77</v>
@@ -23771,10 +23831,10 @@
         <v>0.8</v>
       </c>
       <c r="AS118">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT118">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU118">
         <v>1.49</v>
@@ -23962,7 +24022,7 @@
         <v>0.8</v>
       </c>
       <c r="AS119">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT119">
         <v>0.44</v>
@@ -24066,7 +24126,7 @@
         <v>172</v>
       </c>
       <c r="P120" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24153,10 +24213,10 @@
         <v>1.75</v>
       </c>
       <c r="AS120">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT120">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU120">
         <v>1.54</v>
@@ -24257,7 +24317,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24344,10 +24404,10 @@
         <v>0.75</v>
       </c>
       <c r="AS121">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT121">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU121">
         <v>1.53</v>
@@ -24448,7 +24508,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -24535,10 +24595,10 @@
         <v>0.2</v>
       </c>
       <c r="AS122">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT122">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU122">
         <v>1.67</v>
@@ -24639,7 +24699,7 @@
         <v>156</v>
       </c>
       <c r="P123" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -24726,10 +24786,10 @@
         <v>1.5</v>
       </c>
       <c r="AS123">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AT123">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AU123">
         <v>1.48</v>
@@ -24917,10 +24977,10 @@
         <v>1.8</v>
       </c>
       <c r="AS124">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT124">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU124">
         <v>1.31</v>
@@ -25021,7 +25081,7 @@
         <v>153</v>
       </c>
       <c r="P125" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q125">
         <v>10</v>
@@ -25108,10 +25168,10 @@
         <v>2</v>
       </c>
       <c r="AS125">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AT125">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AU125">
         <v>1.55</v>
@@ -25299,10 +25359,10 @@
         <v>0.8</v>
       </c>
       <c r="AS126">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT126">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU126">
         <v>1.87</v>
@@ -25403,7 +25463,7 @@
         <v>175</v>
       </c>
       <c r="P127" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q127">
         <v>4</v>
@@ -25490,7 +25550,7 @@
         <v>2.4</v>
       </c>
       <c r="AS127">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT127">
         <v>1.78</v>
@@ -25594,7 +25654,7 @@
         <v>176</v>
       </c>
       <c r="P128" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -25681,10 +25741,10 @@
         <v>1.25</v>
       </c>
       <c r="AS128">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="AT128">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AU128">
         <v>1.42</v>
@@ -25785,7 +25845,7 @@
         <v>177</v>
       </c>
       <c r="P129" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="Q129">
         <v>14</v>
@@ -26063,7 +26123,7 @@
         <v>0.25</v>
       </c>
       <c r="AS130">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT130">
         <v>0.5600000000000001</v>
@@ -26254,10 +26314,10 @@
         <v>1.25</v>
       </c>
       <c r="AS131">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT131">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU131">
         <v>1.81</v>
@@ -26358,7 +26418,7 @@
         <v>179</v>
       </c>
       <c r="P132" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26445,10 +26505,10 @@
         <v>0.25</v>
       </c>
       <c r="AS132">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT132">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU132">
         <v>1.31</v>
@@ -26549,7 +26609,7 @@
         <v>180</v>
       </c>
       <c r="P133" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26636,10 +26696,10 @@
         <v>1.4</v>
       </c>
       <c r="AS133">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT133">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU133">
         <v>0.84</v>
@@ -26827,7 +26887,7 @@
         <v>1.4</v>
       </c>
       <c r="AS134">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AT134">
         <v>1</v>
@@ -27018,7 +27078,7 @@
         <v>0.2</v>
       </c>
       <c r="AS135">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT135">
         <v>0.5600000000000001</v>
@@ -27212,7 +27272,7 @@
         <v>1.11</v>
       </c>
       <c r="AT136">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AU136">
         <v>1.16</v>
@@ -27400,10 +27460,10 @@
         <v>2.2</v>
       </c>
       <c r="AS137">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT137">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AU137">
         <v>1.44</v>
@@ -27504,7 +27564,7 @@
         <v>99</v>
       </c>
       <c r="P138" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="Q138">
         <v>4</v>
@@ -27591,7 +27651,7 @@
         <v>1.5</v>
       </c>
       <c r="AS138">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT138">
         <v>1.5</v>
@@ -27695,7 +27755,7 @@
         <v>184</v>
       </c>
       <c r="P139" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q139">
         <v>0</v>
@@ -27785,7 +27845,7 @@
         <v>1.78</v>
       </c>
       <c r="AT139">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="AU139">
         <v>1.46</v>
@@ -27973,10 +28033,10 @@
         <v>0.4</v>
       </c>
       <c r="AS140">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT140">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU140">
         <v>1.1</v>
@@ -28077,7 +28137,7 @@
         <v>185</v>
       </c>
       <c r="P141" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Q141">
         <v>5</v>
@@ -28164,7 +28224,7 @@
         <v>0.67</v>
       </c>
       <c r="AS141">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT141">
         <v>0.44</v>
@@ -28268,7 +28328,7 @@
         <v>99</v>
       </c>
       <c r="P142" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28355,10 +28415,10 @@
         <v>0</v>
       </c>
       <c r="AS142">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT142">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU142">
         <v>1.41</v>
@@ -28546,10 +28606,10 @@
         <v>0.67</v>
       </c>
       <c r="AS143">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT143">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU143">
         <v>1.22</v>
@@ -28650,7 +28710,7 @@
         <v>186</v>
       </c>
       <c r="P144" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q144">
         <v>3</v>
@@ -28740,7 +28800,7 @@
         <v>1.11</v>
       </c>
       <c r="AT144">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU144">
         <v>1.32</v>
@@ -28928,10 +28988,10 @@
         <v>0.5</v>
       </c>
       <c r="AS145">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT145">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU145">
         <v>1.64</v>
@@ -29119,7 +29179,7 @@
         <v>1.5</v>
       </c>
       <c r="AS146">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT146">
         <v>1.44</v>
@@ -29223,7 +29283,7 @@
         <v>99</v>
       </c>
       <c r="P147" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29310,10 +29370,10 @@
         <v>1.17</v>
       </c>
       <c r="AS147">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT147">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU147">
         <v>1.51</v>
@@ -29414,7 +29474,7 @@
         <v>189</v>
       </c>
       <c r="P148" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29501,10 +29561,10 @@
         <v>0.83</v>
       </c>
       <c r="AS148">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT148">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU148">
         <v>1.47</v>
@@ -29695,7 +29755,7 @@
         <v>1.89</v>
       </c>
       <c r="AT149">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU149">
         <v>1.48</v>
@@ -29883,10 +29943,10 @@
         <v>1.2</v>
       </c>
       <c r="AS150">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT150">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU150">
         <v>1.36</v>
@@ -29987,7 +30047,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30074,10 +30134,10 @@
         <v>0.33</v>
       </c>
       <c r="AS151">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AT151">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU151">
         <v>1.55</v>
@@ -30265,10 +30325,10 @@
         <v>0.83</v>
       </c>
       <c r="AS152">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT152">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU152">
         <v>1.77</v>
@@ -30369,7 +30429,7 @@
         <v>193</v>
       </c>
       <c r="P153" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30456,10 +30516,10 @@
         <v>1.5</v>
       </c>
       <c r="AS153">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="AT153">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU153">
         <v>1.33</v>
@@ -30650,7 +30710,7 @@
         <v>2.44</v>
       </c>
       <c r="AT154">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AU154">
         <v>1.67</v>
@@ -30838,10 +30898,10 @@
         <v>1.8</v>
       </c>
       <c r="AS155">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT155">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AU155">
         <v>1.54</v>
@@ -30942,7 +31002,7 @@
         <v>120</v>
       </c>
       <c r="P156" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31029,7 +31089,7 @@
         <v>2.17</v>
       </c>
       <c r="AS156">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT156">
         <v>1.78</v>
@@ -31220,10 +31280,10 @@
         <v>0.2</v>
       </c>
       <c r="AS157">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AT157">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU157">
         <v>1.59</v>
@@ -31324,7 +31384,7 @@
         <v>194</v>
       </c>
       <c r="P158" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q158">
         <v>2</v>
@@ -31411,10 +31471,10 @@
         <v>1.67</v>
       </c>
       <c r="AS158">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT158">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU158">
         <v>1.25</v>
@@ -31602,7 +31662,7 @@
         <v>1.17</v>
       </c>
       <c r="AS159">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT159">
         <v>1</v>
@@ -31793,10 +31853,10 @@
         <v>1.33</v>
       </c>
       <c r="AS160">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT160">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AU160">
         <v>1.68</v>
@@ -31984,7 +32044,7 @@
         <v>0.17</v>
       </c>
       <c r="AS161">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT161">
         <v>0.5600000000000001</v>
@@ -32088,7 +32148,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32175,10 +32235,10 @@
         <v>0.29</v>
       </c>
       <c r="AS162">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AT162">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU162">
         <v>1.62</v>
@@ -32279,7 +32339,7 @@
         <v>198</v>
       </c>
       <c r="P163" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -32366,10 +32426,10 @@
         <v>0.71</v>
       </c>
       <c r="AS163">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT163">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU163">
         <v>1.47</v>
@@ -32470,7 +32530,7 @@
         <v>199</v>
       </c>
       <c r="P164" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="Q164">
         <v>4</v>
@@ -32557,10 +32617,10 @@
         <v>1.71</v>
       </c>
       <c r="AS164">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT164">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AU164">
         <v>1.86</v>
@@ -32661,7 +32721,7 @@
         <v>99</v>
       </c>
       <c r="P165" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="Q165">
         <v>6</v>
@@ -32748,10 +32808,10 @@
         <v>0.5</v>
       </c>
       <c r="AS165">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AT165">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU165">
         <v>1.44</v>
@@ -32852,7 +32912,7 @@
         <v>200</v>
       </c>
       <c r="P166" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -32939,10 +32999,10 @@
         <v>0.71</v>
       </c>
       <c r="AS166">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="AT166">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU166">
         <v>1.36</v>
@@ -33130,10 +33190,10 @@
         <v>0.17</v>
       </c>
       <c r="AS167">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT167">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU167">
         <v>1.32</v>
@@ -33234,7 +33294,7 @@
         <v>183</v>
       </c>
       <c r="P168" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q168">
         <v>6</v>
@@ -33321,10 +33381,10 @@
         <v>1.43</v>
       </c>
       <c r="AS168">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AT168">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU168">
         <v>1.59</v>
@@ -33512,10 +33572,10 @@
         <v>2</v>
       </c>
       <c r="AS169">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT169">
-        <v>1.86</v>
+        <v>2.11</v>
       </c>
       <c r="AU169">
         <v>1.65</v>
@@ -33616,7 +33676,7 @@
         <v>201</v>
       </c>
       <c r="P170" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q170">
         <v>7</v>
@@ -33703,10 +33763,10 @@
         <v>1.14</v>
       </c>
       <c r="AS170">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT170">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AU170">
         <v>1.15</v>
@@ -33894,10 +33954,10 @@
         <v>1.29</v>
       </c>
       <c r="AS171">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT171">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU171">
         <v>1.22</v>
@@ -33998,7 +34058,7 @@
         <v>203</v>
       </c>
       <c r="P172" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34085,10 +34145,10 @@
         <v>2.33</v>
       </c>
       <c r="AS172">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT172">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="AU172">
         <v>1.74</v>
@@ -34189,7 +34249,7 @@
         <v>204</v>
       </c>
       <c r="P173" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -34276,7 +34336,7 @@
         <v>1.71</v>
       </c>
       <c r="AS173">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT173">
         <v>1.5</v>
@@ -34380,7 +34440,7 @@
         <v>205</v>
       </c>
       <c r="P174" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q174">
         <v>4</v>
@@ -34467,7 +34527,7 @@
         <v>1.29</v>
       </c>
       <c r="AS174">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT174">
         <v>1.44</v>
@@ -34661,7 +34721,7 @@
         <v>1.78</v>
       </c>
       <c r="AT175">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU175">
         <v>1.38</v>
@@ -34762,7 +34822,7 @@
         <v>206</v>
       </c>
       <c r="P176" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="Q176">
         <v>6</v>
@@ -34849,7 +34909,7 @@
         <v>0.57</v>
       </c>
       <c r="AS176">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT176">
         <v>0.44</v>
@@ -35040,10 +35100,10 @@
         <v>1</v>
       </c>
       <c r="AS177">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT177">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU177">
         <v>1.43</v>
@@ -35231,10 +35291,10 @@
         <v>1.5</v>
       </c>
       <c r="AS178">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT178">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU178">
         <v>1.84</v>
@@ -35335,7 +35395,7 @@
         <v>99</v>
       </c>
       <c r="P179" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="Q179">
         <v>5</v>
@@ -35425,7 +35485,7 @@
         <v>1.11</v>
       </c>
       <c r="AT179">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU179">
         <v>1.33</v>
@@ -35526,7 +35586,7 @@
         <v>209</v>
       </c>
       <c r="P180" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="Q180">
         <v>5</v>
@@ -35804,7 +35864,7 @@
         <v>1</v>
       </c>
       <c r="AS181">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT181">
         <v>1</v>
@@ -35998,7 +36058,7 @@
         <v>2.44</v>
       </c>
       <c r="AT182">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU182">
         <v>1.7</v>
@@ -36186,10 +36246,10 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT183">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU183">
         <v>1.24</v>
@@ -36377,7 +36437,7 @@
         <v>2.29</v>
       </c>
       <c r="AS184">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT184">
         <v>1.78</v>
@@ -36481,7 +36541,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="Q185">
         <v>9</v>
@@ -36568,10 +36628,10 @@
         <v>0.43</v>
       </c>
       <c r="AS185">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT185">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU185">
         <v>1.19</v>
@@ -36953,7 +37013,7 @@
         <v>1.78</v>
       </c>
       <c r="AT187">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU187">
         <v>1.38</v>
@@ -37335,7 +37395,7 @@
         <v>2.44</v>
       </c>
       <c r="AT189">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU189">
         <v>1.64</v>
@@ -37436,7 +37496,7 @@
         <v>216</v>
       </c>
       <c r="P190" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q190">
         <v>5</v>
@@ -37523,7 +37583,7 @@
         <v>1.25</v>
       </c>
       <c r="AS190">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT190">
         <v>1.44</v>
@@ -37714,7 +37774,7 @@
         <v>0.63</v>
       </c>
       <c r="AS191">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT191">
         <v>0.5600000000000001</v>
@@ -37818,7 +37878,7 @@
         <v>99</v>
       </c>
       <c r="P192" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="Q192">
         <v>7</v>
@@ -37905,10 +37965,10 @@
         <v>1.29</v>
       </c>
       <c r="AS192">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT192">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU192">
         <v>1.53</v>
@@ -38096,10 +38156,10 @@
         <v>1</v>
       </c>
       <c r="AS193">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT193">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU193">
         <v>1.48</v>
@@ -38200,7 +38260,7 @@
         <v>219</v>
       </c>
       <c r="P194" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38287,7 +38347,7 @@
         <v>0.5</v>
       </c>
       <c r="AS194">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT194">
         <v>0.44</v>
@@ -38478,10 +38538,10 @@
         <v>1</v>
       </c>
       <c r="AS195">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT195">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU195">
         <v>1.6</v>
@@ -38669,10 +38729,10 @@
         <v>0.5</v>
       </c>
       <c r="AS196">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT196">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU196">
         <v>1.28</v>
@@ -38860,10 +38920,10 @@
         <v>1.75</v>
       </c>
       <c r="AS197">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT197">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AU197">
         <v>1.16</v>
@@ -39051,10 +39111,10 @@
         <v>0.86</v>
       </c>
       <c r="AS198">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT198">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU198">
         <v>1.5</v>
@@ -39242,10 +39302,10 @@
         <v>0.14</v>
       </c>
       <c r="AS199">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT199">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AU199">
         <v>1.6</v>
@@ -39297,6 +39357,5354 @@
       </c>
       <c r="BK199">
         <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>2580738</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>44873.69791666666</v>
+      </c>
+      <c r="F200">
+        <v>8</v>
+      </c>
+      <c r="G200" t="s">
+        <v>73</v>
+      </c>
+      <c r="H200" t="s">
+        <v>74</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>3</v>
+      </c>
+      <c r="M200">
+        <v>3</v>
+      </c>
+      <c r="N200">
+        <v>6</v>
+      </c>
+      <c r="O200" t="s">
+        <v>223</v>
+      </c>
+      <c r="P200" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q200">
+        <v>6</v>
+      </c>
+      <c r="R200">
+        <v>8</v>
+      </c>
+      <c r="S200">
+        <v>14</v>
+      </c>
+      <c r="T200">
+        <v>3.2</v>
+      </c>
+      <c r="U200">
+        <v>2.05</v>
+      </c>
+      <c r="V200">
+        <v>3.6</v>
+      </c>
+      <c r="W200">
+        <v>1.44</v>
+      </c>
+      <c r="X200">
+        <v>2.63</v>
+      </c>
+      <c r="Y200">
+        <v>3.25</v>
+      </c>
+      <c r="Z200">
+        <v>1.33</v>
+      </c>
+      <c r="AA200">
+        <v>9</v>
+      </c>
+      <c r="AB200">
+        <v>1.07</v>
+      </c>
+      <c r="AC200">
+        <v>2.45</v>
+      </c>
+      <c r="AD200">
+        <v>3.32</v>
+      </c>
+      <c r="AE200">
+        <v>3.09</v>
+      </c>
+      <c r="AF200">
+        <v>1.07</v>
+      </c>
+      <c r="AG200">
+        <v>7.75</v>
+      </c>
+      <c r="AH200">
+        <v>1.35</v>
+      </c>
+      <c r="AI200">
+        <v>2.95</v>
+      </c>
+      <c r="AJ200">
+        <v>2.05</v>
+      </c>
+      <c r="AK200">
+        <v>1.68</v>
+      </c>
+      <c r="AL200">
+        <v>1.83</v>
+      </c>
+      <c r="AM200">
+        <v>1.83</v>
+      </c>
+      <c r="AN200">
+        <v>1.4</v>
+      </c>
+      <c r="AO200">
+        <v>1.34</v>
+      </c>
+      <c r="AP200">
+        <v>1.66</v>
+      </c>
+      <c r="AQ200">
+        <v>1.14</v>
+      </c>
+      <c r="AR200">
+        <v>1.5</v>
+      </c>
+      <c r="AS200">
+        <v>1.2</v>
+      </c>
+      <c r="AT200">
+        <v>1.6</v>
+      </c>
+      <c r="AU200">
+        <v>1.54</v>
+      </c>
+      <c r="AV200">
+        <v>1.15</v>
+      </c>
+      <c r="AW200">
+        <v>2.69</v>
+      </c>
+      <c r="AX200">
+        <v>2.1</v>
+      </c>
+      <c r="AY200">
+        <v>8</v>
+      </c>
+      <c r="AZ200">
+        <v>1.91</v>
+      </c>
+      <c r="BA200">
+        <v>1.26</v>
+      </c>
+      <c r="BB200">
+        <v>1.48</v>
+      </c>
+      <c r="BC200">
+        <v>1.9</v>
+      </c>
+      <c r="BD200">
+        <v>2.43</v>
+      </c>
+      <c r="BE200">
+        <v>3.35</v>
+      </c>
+      <c r="BF200">
+        <v>10</v>
+      </c>
+      <c r="BG200">
+        <v>5</v>
+      </c>
+      <c r="BH200">
+        <v>9</v>
+      </c>
+      <c r="BI200">
+        <v>10</v>
+      </c>
+      <c r="BJ200">
+        <v>19</v>
+      </c>
+      <c r="BK200">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>2580740</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>44873.69791666666</v>
+      </c>
+      <c r="F201">
+        <v>8</v>
+      </c>
+      <c r="G201" t="s">
+        <v>81</v>
+      </c>
+      <c r="H201" t="s">
+        <v>75</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>2</v>
+      </c>
+      <c r="N201">
+        <v>3</v>
+      </c>
+      <c r="O201" t="s">
+        <v>94</v>
+      </c>
+      <c r="P201" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q201">
+        <v>9</v>
+      </c>
+      <c r="R201">
+        <v>1</v>
+      </c>
+      <c r="S201">
+        <v>10</v>
+      </c>
+      <c r="T201">
+        <v>2.75</v>
+      </c>
+      <c r="U201">
+        <v>2.2</v>
+      </c>
+      <c r="V201">
+        <v>4</v>
+      </c>
+      <c r="W201">
+        <v>1.4</v>
+      </c>
+      <c r="X201">
+        <v>2.75</v>
+      </c>
+      <c r="Y201">
+        <v>3</v>
+      </c>
+      <c r="Z201">
+        <v>1.36</v>
+      </c>
+      <c r="AA201">
+        <v>8</v>
+      </c>
+      <c r="AB201">
+        <v>1.08</v>
+      </c>
+      <c r="AC201">
+        <v>1.89</v>
+      </c>
+      <c r="AD201">
+        <v>3.5</v>
+      </c>
+      <c r="AE201">
+        <v>4.02</v>
+      </c>
+      <c r="AF201">
+        <v>1.06</v>
+      </c>
+      <c r="AG201">
+        <v>8.75</v>
+      </c>
+      <c r="AH201">
+        <v>1.3</v>
+      </c>
+      <c r="AI201">
+        <v>3.2</v>
+      </c>
+      <c r="AJ201">
+        <v>1.95</v>
+      </c>
+      <c r="AK201">
+        <v>1.8</v>
+      </c>
+      <c r="AL201">
+        <v>1.8</v>
+      </c>
+      <c r="AM201">
+        <v>1.91</v>
+      </c>
+      <c r="AN201">
+        <v>1.3</v>
+      </c>
+      <c r="AO201">
+        <v>1.33</v>
+      </c>
+      <c r="AP201">
+        <v>1.86</v>
+      </c>
+      <c r="AQ201">
+        <v>1.88</v>
+      </c>
+      <c r="AR201">
+        <v>1.86</v>
+      </c>
+      <c r="AS201">
+        <v>1.67</v>
+      </c>
+      <c r="AT201">
+        <v>2.11</v>
+      </c>
+      <c r="AU201">
+        <v>1.64</v>
+      </c>
+      <c r="AV201">
+        <v>1.22</v>
+      </c>
+      <c r="AW201">
+        <v>2.86</v>
+      </c>
+      <c r="AX201">
+        <v>1.64</v>
+      </c>
+      <c r="AY201">
+        <v>8</v>
+      </c>
+      <c r="AZ201">
+        <v>2.67</v>
+      </c>
+      <c r="BA201">
+        <v>1.26</v>
+      </c>
+      <c r="BB201">
+        <v>1.48</v>
+      </c>
+      <c r="BC201">
+        <v>1.9</v>
+      </c>
+      <c r="BD201">
+        <v>2.43</v>
+      </c>
+      <c r="BE201">
+        <v>3.35</v>
+      </c>
+      <c r="BF201">
+        <v>3</v>
+      </c>
+      <c r="BG201">
+        <v>3</v>
+      </c>
+      <c r="BH201">
+        <v>3</v>
+      </c>
+      <c r="BI201">
+        <v>8</v>
+      </c>
+      <c r="BJ201">
+        <v>6</v>
+      </c>
+      <c r="BK201">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>2580741</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>44873.69791666666</v>
+      </c>
+      <c r="F202">
+        <v>8</v>
+      </c>
+      <c r="G202" t="s">
+        <v>70</v>
+      </c>
+      <c r="H202" t="s">
+        <v>69</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>1</v>
+      </c>
+      <c r="O202" t="s">
+        <v>224</v>
+      </c>
+      <c r="P202" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q202">
+        <v>5</v>
+      </c>
+      <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
+        <v>7</v>
+      </c>
+      <c r="T202">
+        <v>3.75</v>
+      </c>
+      <c r="U202">
+        <v>2.05</v>
+      </c>
+      <c r="V202">
+        <v>3.1</v>
+      </c>
+      <c r="W202">
+        <v>1.44</v>
+      </c>
+      <c r="X202">
+        <v>2.63</v>
+      </c>
+      <c r="Y202">
+        <v>3.25</v>
+      </c>
+      <c r="Z202">
+        <v>1.33</v>
+      </c>
+      <c r="AA202">
+        <v>10</v>
+      </c>
+      <c r="AB202">
+        <v>1.06</v>
+      </c>
+      <c r="AC202">
+        <v>2.61</v>
+      </c>
+      <c r="AD202">
+        <v>3.27</v>
+      </c>
+      <c r="AE202">
+        <v>2.91</v>
+      </c>
+      <c r="AF202">
+        <v>1.07</v>
+      </c>
+      <c r="AG202">
+        <v>7.75</v>
+      </c>
+      <c r="AH202">
+        <v>1.38</v>
+      </c>
+      <c r="AI202">
+        <v>2.8</v>
+      </c>
+      <c r="AJ202">
+        <v>2.05</v>
+      </c>
+      <c r="AK202">
+        <v>1.7</v>
+      </c>
+      <c r="AL202">
+        <v>1.83</v>
+      </c>
+      <c r="AM202">
+        <v>1.83</v>
+      </c>
+      <c r="AN202">
+        <v>1.67</v>
+      </c>
+      <c r="AO202">
+        <v>1.35</v>
+      </c>
+      <c r="AP202">
+        <v>1.38</v>
+      </c>
+      <c r="AQ202">
+        <v>0.57</v>
+      </c>
+      <c r="AR202">
+        <v>2</v>
+      </c>
+      <c r="AS202">
+        <v>0.78</v>
+      </c>
+      <c r="AT202">
+        <v>1.78</v>
+      </c>
+      <c r="AU202">
+        <v>1.33</v>
+      </c>
+      <c r="AV202">
+        <v>1.38</v>
+      </c>
+      <c r="AW202">
+        <v>2.71</v>
+      </c>
+      <c r="AX202">
+        <v>1.82</v>
+      </c>
+      <c r="AY202">
+        <v>8</v>
+      </c>
+      <c r="AZ202">
+        <v>2.33</v>
+      </c>
+      <c r="BA202">
+        <v>1.26</v>
+      </c>
+      <c r="BB202">
+        <v>1.48</v>
+      </c>
+      <c r="BC202">
+        <v>1.95</v>
+      </c>
+      <c r="BD202">
+        <v>2.43</v>
+      </c>
+      <c r="BE202">
+        <v>3.35</v>
+      </c>
+      <c r="BF202">
+        <v>4</v>
+      </c>
+      <c r="BG202">
+        <v>3</v>
+      </c>
+      <c r="BH202">
+        <v>7</v>
+      </c>
+      <c r="BI202">
+        <v>9</v>
+      </c>
+      <c r="BJ202">
+        <v>11</v>
+      </c>
+      <c r="BK202">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>2580734</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>44873.69791666666</v>
+      </c>
+      <c r="F203">
+        <v>8</v>
+      </c>
+      <c r="G203" t="s">
+        <v>65</v>
+      </c>
+      <c r="H203" t="s">
+        <v>72</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>2</v>
+      </c>
+      <c r="L203">
+        <v>2</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203" t="s">
+        <v>225</v>
+      </c>
+      <c r="P203" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q203">
+        <v>0</v>
+      </c>
+      <c r="R203">
+        <v>5</v>
+      </c>
+      <c r="S203">
+        <v>5</v>
+      </c>
+      <c r="T203">
+        <v>3.75</v>
+      </c>
+      <c r="U203">
+        <v>2.05</v>
+      </c>
+      <c r="V203">
+        <v>3.1</v>
+      </c>
+      <c r="W203">
+        <v>1.5</v>
+      </c>
+      <c r="X203">
+        <v>2.5</v>
+      </c>
+      <c r="Y203">
+        <v>3.4</v>
+      </c>
+      <c r="Z203">
+        <v>1.3</v>
+      </c>
+      <c r="AA203">
+        <v>10</v>
+      </c>
+      <c r="AB203">
+        <v>1.06</v>
+      </c>
+      <c r="AC203">
+        <v>3.18</v>
+      </c>
+      <c r="AD203">
+        <v>3.15</v>
+      </c>
+      <c r="AE203">
+        <v>2.34</v>
+      </c>
+      <c r="AF203">
+        <v>1.08</v>
+      </c>
+      <c r="AG203">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AH203">
+        <v>1.39</v>
+      </c>
+      <c r="AI203">
+        <v>2.93</v>
+      </c>
+      <c r="AJ203">
+        <v>2.05</v>
+      </c>
+      <c r="AK203">
+        <v>1.68</v>
+      </c>
+      <c r="AL203">
+        <v>1.91</v>
+      </c>
+      <c r="AM203">
+        <v>1.8</v>
+      </c>
+      <c r="AN203">
+        <v>1.6</v>
+      </c>
+      <c r="AO203">
+        <v>1.36</v>
+      </c>
+      <c r="AP203">
+        <v>1.42</v>
+      </c>
+      <c r="AQ203">
+        <v>1.38</v>
+      </c>
+      <c r="AR203">
+        <v>2.43</v>
+      </c>
+      <c r="AS203">
+        <v>1.56</v>
+      </c>
+      <c r="AT203">
+        <v>2.3</v>
+      </c>
+      <c r="AU203">
+        <v>1.33</v>
+      </c>
+      <c r="AV203">
+        <v>1.5</v>
+      </c>
+      <c r="AW203">
+        <v>2.83</v>
+      </c>
+      <c r="AX203">
+        <v>2.1</v>
+      </c>
+      <c r="AY203">
+        <v>7.5</v>
+      </c>
+      <c r="AZ203">
+        <v>1.91</v>
+      </c>
+      <c r="BA203">
+        <v>1.3</v>
+      </c>
+      <c r="BB203">
+        <v>1.57</v>
+      </c>
+      <c r="BC203">
+        <v>2</v>
+      </c>
+      <c r="BD203">
+        <v>2.7</v>
+      </c>
+      <c r="BE203">
+        <v>3.75</v>
+      </c>
+      <c r="BF203">
+        <v>4</v>
+      </c>
+      <c r="BG203">
+        <v>4</v>
+      </c>
+      <c r="BH203">
+        <v>2</v>
+      </c>
+      <c r="BI203">
+        <v>7</v>
+      </c>
+      <c r="BJ203">
+        <v>6</v>
+      </c>
+      <c r="BK203">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>2580873</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F204">
+        <v>18</v>
+      </c>
+      <c r="G204" t="s">
+        <v>78</v>
+      </c>
+      <c r="H204" t="s">
+        <v>67</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+      <c r="N204">
+        <v>2</v>
+      </c>
+      <c r="O204" t="s">
+        <v>171</v>
+      </c>
+      <c r="P204" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q204">
+        <v>4</v>
+      </c>
+      <c r="R204">
+        <v>0</v>
+      </c>
+      <c r="S204">
+        <v>4</v>
+      </c>
+      <c r="T204">
+        <v>2.88</v>
+      </c>
+      <c r="U204">
+        <v>2.05</v>
+      </c>
+      <c r="V204">
+        <v>3.8</v>
+      </c>
+      <c r="W204">
+        <v>1.39</v>
+      </c>
+      <c r="X204">
+        <v>2.75</v>
+      </c>
+      <c r="Y204">
+        <v>2.95</v>
+      </c>
+      <c r="Z204">
+        <v>1.35</v>
+      </c>
+      <c r="AA204">
+        <v>7.4</v>
+      </c>
+      <c r="AB204">
+        <v>1.06</v>
+      </c>
+      <c r="AC204">
+        <v>2.15</v>
+      </c>
+      <c r="AD204">
+        <v>3.42</v>
+      </c>
+      <c r="AE204">
+        <v>3.36</v>
+      </c>
+      <c r="AF204">
+        <v>1.05</v>
+      </c>
+      <c r="AG204">
+        <v>10</v>
+      </c>
+      <c r="AH204">
+        <v>1.33</v>
+      </c>
+      <c r="AI204">
+        <v>3.25</v>
+      </c>
+      <c r="AJ204">
+        <v>2.03</v>
+      </c>
+      <c r="AK204">
+        <v>1.78</v>
+      </c>
+      <c r="AL204">
+        <v>1.8</v>
+      </c>
+      <c r="AM204">
+        <v>1.95</v>
+      </c>
+      <c r="AN204">
+        <v>1.36</v>
+      </c>
+      <c r="AO204">
+        <v>1.25</v>
+      </c>
+      <c r="AP204">
+        <v>1.66</v>
+      </c>
+      <c r="AQ204">
+        <v>2.13</v>
+      </c>
+      <c r="AR204">
+        <v>1.38</v>
+      </c>
+      <c r="AS204">
+        <v>1.8</v>
+      </c>
+      <c r="AT204">
+        <v>1.33</v>
+      </c>
+      <c r="AU204">
+        <v>1.68</v>
+      </c>
+      <c r="AV204">
+        <v>1.26</v>
+      </c>
+      <c r="AW204">
+        <v>2.94</v>
+      </c>
+      <c r="AX204">
+        <v>1.67</v>
+      </c>
+      <c r="AY204">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ204">
+        <v>2.77</v>
+      </c>
+      <c r="BA204">
+        <v>1.21</v>
+      </c>
+      <c r="BB204">
+        <v>1.42</v>
+      </c>
+      <c r="BC204">
+        <v>1.74</v>
+      </c>
+      <c r="BD204">
+        <v>2.18</v>
+      </c>
+      <c r="BE204">
+        <v>2.84</v>
+      </c>
+      <c r="BF204">
+        <v>5</v>
+      </c>
+      <c r="BG204">
+        <v>4</v>
+      </c>
+      <c r="BH204">
+        <v>4</v>
+      </c>
+      <c r="BI204">
+        <v>5</v>
+      </c>
+      <c r="BJ204">
+        <v>9</v>
+      </c>
+      <c r="BK204">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2580872</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F205">
+        <v>18</v>
+      </c>
+      <c r="G205" t="s">
+        <v>68</v>
+      </c>
+      <c r="H205" t="s">
+        <v>75</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>2</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" t="s">
+        <v>99</v>
+      </c>
+      <c r="P205" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q205">
+        <v>5</v>
+      </c>
+      <c r="R205">
+        <v>2</v>
+      </c>
+      <c r="S205">
+        <v>7</v>
+      </c>
+      <c r="T205">
+        <v>3.1</v>
+      </c>
+      <c r="U205">
+        <v>2.05</v>
+      </c>
+      <c r="V205">
+        <v>3.75</v>
+      </c>
+      <c r="W205">
+        <v>1.42</v>
+      </c>
+      <c r="X205">
+        <v>2.65</v>
+      </c>
+      <c r="Y205">
+        <v>3.05</v>
+      </c>
+      <c r="Z205">
+        <v>1.34</v>
+      </c>
+      <c r="AA205">
+        <v>7.9</v>
+      </c>
+      <c r="AB205">
+        <v>1.05</v>
+      </c>
+      <c r="AC205">
+        <v>2.44</v>
+      </c>
+      <c r="AD205">
+        <v>3.32</v>
+      </c>
+      <c r="AE205">
+        <v>2.92</v>
+      </c>
+      <c r="AF205">
+        <v>1.06</v>
+      </c>
+      <c r="AG205">
+        <v>9.5</v>
+      </c>
+      <c r="AH205">
+        <v>1.36</v>
+      </c>
+      <c r="AI205">
+        <v>3.1</v>
+      </c>
+      <c r="AJ205">
+        <v>2.1</v>
+      </c>
+      <c r="AK205">
+        <v>1.74</v>
+      </c>
+      <c r="AL205">
+        <v>1.85</v>
+      </c>
+      <c r="AM205">
+        <v>1.9</v>
+      </c>
+      <c r="AN205">
+        <v>1.4</v>
+      </c>
+      <c r="AO205">
+        <v>1.28</v>
+      </c>
+      <c r="AP205">
+        <v>1.57</v>
+      </c>
+      <c r="AQ205">
+        <v>1.75</v>
+      </c>
+      <c r="AR205">
+        <v>2</v>
+      </c>
+      <c r="AS205">
+        <v>1.7</v>
+      </c>
+      <c r="AT205">
+        <v>2.11</v>
+      </c>
+      <c r="AU205">
+        <v>1.52</v>
+      </c>
+      <c r="AV205">
+        <v>1.23</v>
+      </c>
+      <c r="AW205">
+        <v>2.75</v>
+      </c>
+      <c r="AX205">
+        <v>2.09</v>
+      </c>
+      <c r="AY205">
+        <v>7.1</v>
+      </c>
+      <c r="AZ205">
+        <v>2.14</v>
+      </c>
+      <c r="BA205">
+        <v>1.24</v>
+      </c>
+      <c r="BB205">
+        <v>1.48</v>
+      </c>
+      <c r="BC205">
+        <v>1.86</v>
+      </c>
+      <c r="BD205">
+        <v>2.38</v>
+      </c>
+      <c r="BE205">
+        <v>3.18</v>
+      </c>
+      <c r="BF205">
+        <v>2</v>
+      </c>
+      <c r="BG205">
+        <v>4</v>
+      </c>
+      <c r="BH205">
+        <v>8</v>
+      </c>
+      <c r="BI205">
+        <v>7</v>
+      </c>
+      <c r="BJ205">
+        <v>10</v>
+      </c>
+      <c r="BK205">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>2580870</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F206">
+        <v>18</v>
+      </c>
+      <c r="G206" t="s">
+        <v>69</v>
+      </c>
+      <c r="H206" t="s">
+        <v>65</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206" t="s">
+        <v>99</v>
+      </c>
+      <c r="P206" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q206">
+        <v>7</v>
+      </c>
+      <c r="R206">
+        <v>2</v>
+      </c>
+      <c r="S206">
+        <v>9</v>
+      </c>
+      <c r="T206">
+        <v>2.85</v>
+      </c>
+      <c r="U206">
+        <v>2.1</v>
+      </c>
+      <c r="V206">
+        <v>4</v>
+      </c>
+      <c r="W206">
+        <v>1.41</v>
+      </c>
+      <c r="X206">
+        <v>2.7</v>
+      </c>
+      <c r="Y206">
+        <v>2.95</v>
+      </c>
+      <c r="Z206">
+        <v>1.35</v>
+      </c>
+      <c r="AA206">
+        <v>7.85</v>
+      </c>
+      <c r="AB206">
+        <v>1.05</v>
+      </c>
+      <c r="AC206">
+        <v>2.1</v>
+      </c>
+      <c r="AD206">
+        <v>3.46</v>
+      </c>
+      <c r="AE206">
+        <v>3.46</v>
+      </c>
+      <c r="AF206">
+        <v>1.06</v>
+      </c>
+      <c r="AG206">
+        <v>10</v>
+      </c>
+      <c r="AH206">
+        <v>1.35</v>
+      </c>
+      <c r="AI206">
+        <v>3.2</v>
+      </c>
+      <c r="AJ206">
+        <v>2.02</v>
+      </c>
+      <c r="AK206">
+        <v>1.79</v>
+      </c>
+      <c r="AL206">
+        <v>1.85</v>
+      </c>
+      <c r="AM206">
+        <v>1.9</v>
+      </c>
+      <c r="AN206">
+        <v>1.33</v>
+      </c>
+      <c r="AO206">
+        <v>1.25</v>
+      </c>
+      <c r="AP206">
+        <v>1.72</v>
+      </c>
+      <c r="AQ206">
+        <v>1.38</v>
+      </c>
+      <c r="AR206">
+        <v>1</v>
+      </c>
+      <c r="AS206">
+        <v>1.2</v>
+      </c>
+      <c r="AT206">
+        <v>1.2</v>
+      </c>
+      <c r="AU206">
+        <v>1.45</v>
+      </c>
+      <c r="AV206">
+        <v>1.12</v>
+      </c>
+      <c r="AW206">
+        <v>2.57</v>
+      </c>
+      <c r="AX206">
+        <v>1.56</v>
+      </c>
+      <c r="AY206">
+        <v>8.1</v>
+      </c>
+      <c r="AZ206">
+        <v>3.1</v>
+      </c>
+      <c r="BA206">
+        <v>1.24</v>
+      </c>
+      <c r="BB206">
+        <v>1.48</v>
+      </c>
+      <c r="BC206">
+        <v>1.86</v>
+      </c>
+      <c r="BD206">
+        <v>2.38</v>
+      </c>
+      <c r="BE206">
+        <v>3.2</v>
+      </c>
+      <c r="BF206">
+        <v>4</v>
+      </c>
+      <c r="BG206">
+        <v>0</v>
+      </c>
+      <c r="BH206">
+        <v>8</v>
+      </c>
+      <c r="BI206">
+        <v>9</v>
+      </c>
+      <c r="BJ206">
+        <v>12</v>
+      </c>
+      <c r="BK206">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2580869</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F207">
+        <v>18</v>
+      </c>
+      <c r="G207" t="s">
+        <v>70</v>
+      </c>
+      <c r="H207" t="s">
+        <v>81</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>99</v>
+      </c>
+      <c r="P207" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q207">
+        <v>2</v>
+      </c>
+      <c r="R207">
+        <v>5</v>
+      </c>
+      <c r="S207">
+        <v>7</v>
+      </c>
+      <c r="T207">
+        <v>3.76</v>
+      </c>
+      <c r="U207">
+        <v>2.1</v>
+      </c>
+      <c r="V207">
+        <v>2.96</v>
+      </c>
+      <c r="W207">
+        <v>1.43</v>
+      </c>
+      <c r="X207">
+        <v>2.74</v>
+      </c>
+      <c r="Y207">
+        <v>2.94</v>
+      </c>
+      <c r="Z207">
+        <v>1.38</v>
+      </c>
+      <c r="AA207">
+        <v>7.7</v>
+      </c>
+      <c r="AB207">
+        <v>1.07</v>
+      </c>
+      <c r="AC207">
+        <v>3.02</v>
+      </c>
+      <c r="AD207">
+        <v>3.36</v>
+      </c>
+      <c r="AE207">
+        <v>2.35</v>
+      </c>
+      <c r="AF207">
+        <v>1.06</v>
+      </c>
+      <c r="AG207">
+        <v>10</v>
+      </c>
+      <c r="AH207">
+        <v>1.33</v>
+      </c>
+      <c r="AI207">
+        <v>3.25</v>
+      </c>
+      <c r="AJ207">
+        <v>2.05</v>
+      </c>
+      <c r="AK207">
+        <v>1.77</v>
+      </c>
+      <c r="AL207">
+        <v>1.8</v>
+      </c>
+      <c r="AM207">
+        <v>1.9</v>
+      </c>
+      <c r="AN207">
+        <v>1.6</v>
+      </c>
+      <c r="AO207">
+        <v>1.28</v>
+      </c>
+      <c r="AP207">
+        <v>1.38</v>
+      </c>
+      <c r="AQ207">
+        <v>0.88</v>
+      </c>
+      <c r="AR207">
+        <v>1.5</v>
+      </c>
+      <c r="AS207">
+        <v>0.78</v>
+      </c>
+      <c r="AT207">
+        <v>1.5</v>
+      </c>
+      <c r="AU207">
+        <v>1.32</v>
+      </c>
+      <c r="AV207">
+        <v>1.47</v>
+      </c>
+      <c r="AW207">
+        <v>2.79</v>
+      </c>
+      <c r="AX207">
+        <v>2.61</v>
+      </c>
+      <c r="AY207">
+        <v>7.9</v>
+      </c>
+      <c r="AZ207">
+        <v>1.75</v>
+      </c>
+      <c r="BA207">
+        <v>1.24</v>
+      </c>
+      <c r="BB207">
+        <v>1.45</v>
+      </c>
+      <c r="BC207">
+        <v>1.8</v>
+      </c>
+      <c r="BD207">
+        <v>2.35</v>
+      </c>
+      <c r="BE207">
+        <v>3.2</v>
+      </c>
+      <c r="BF207">
+        <v>2</v>
+      </c>
+      <c r="BG207">
+        <v>4</v>
+      </c>
+      <c r="BH207">
+        <v>3</v>
+      </c>
+      <c r="BI207">
+        <v>10</v>
+      </c>
+      <c r="BJ207">
+        <v>5</v>
+      </c>
+      <c r="BK207">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>2580868</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F208">
+        <v>18</v>
+      </c>
+      <c r="G208" t="s">
+        <v>80</v>
+      </c>
+      <c r="H208" t="s">
+        <v>71</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>2</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208" t="s">
+        <v>116</v>
+      </c>
+      <c r="P208" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q208">
+        <v>4</v>
+      </c>
+      <c r="R208">
+        <v>4</v>
+      </c>
+      <c r="S208">
+        <v>8</v>
+      </c>
+      <c r="T208">
+        <v>3.89</v>
+      </c>
+      <c r="U208">
+        <v>2.09</v>
+      </c>
+      <c r="V208">
+        <v>3.17</v>
+      </c>
+      <c r="W208">
+        <v>1.44</v>
+      </c>
+      <c r="X208">
+        <v>2.6</v>
+      </c>
+      <c r="Y208">
+        <v>3.2</v>
+      </c>
+      <c r="Z208">
+        <v>1.31</v>
+      </c>
+      <c r="AA208">
+        <v>8.35</v>
+      </c>
+      <c r="AB208">
+        <v>1.05</v>
+      </c>
+      <c r="AC208">
+        <v>2.99</v>
+      </c>
+      <c r="AD208">
+        <v>3.32</v>
+      </c>
+      <c r="AE208">
+        <v>2.38</v>
+      </c>
+      <c r="AF208">
+        <v>1.07</v>
+      </c>
+      <c r="AG208">
+        <v>9</v>
+      </c>
+      <c r="AH208">
+        <v>1.4</v>
+      </c>
+      <c r="AI208">
+        <v>2.95</v>
+      </c>
+      <c r="AJ208">
+        <v>2.1</v>
+      </c>
+      <c r="AK208">
+        <v>1.74</v>
+      </c>
+      <c r="AL208">
+        <v>1.9</v>
+      </c>
+      <c r="AM208">
+        <v>1.87</v>
+      </c>
+      <c r="AN208">
+        <v>1.59</v>
+      </c>
+      <c r="AO208">
+        <v>1.35</v>
+      </c>
+      <c r="AP208">
+        <v>1.38</v>
+      </c>
+      <c r="AQ208">
+        <v>0.88</v>
+      </c>
+      <c r="AR208">
+        <v>0.88</v>
+      </c>
+      <c r="AS208">
+        <v>1</v>
+      </c>
+      <c r="AT208">
+        <v>1.11</v>
+      </c>
+      <c r="AU208">
+        <v>1.29</v>
+      </c>
+      <c r="AV208">
+        <v>1.29</v>
+      </c>
+      <c r="AW208">
+        <v>2.58</v>
+      </c>
+      <c r="AX208">
+        <v>2.27</v>
+      </c>
+      <c r="AY208">
+        <v>6.9</v>
+      </c>
+      <c r="AZ208">
+        <v>1.99</v>
+      </c>
+      <c r="BA208">
+        <v>1.28</v>
+      </c>
+      <c r="BB208">
+        <v>1.54</v>
+      </c>
+      <c r="BC208">
+        <v>1.95</v>
+      </c>
+      <c r="BD208">
+        <v>2.53</v>
+      </c>
+      <c r="BE208">
+        <v>3.42</v>
+      </c>
+      <c r="BF208">
+        <v>2</v>
+      </c>
+      <c r="BG208">
+        <v>4</v>
+      </c>
+      <c r="BH208">
+        <v>11</v>
+      </c>
+      <c r="BI208">
+        <v>8</v>
+      </c>
+      <c r="BJ208">
+        <v>13</v>
+      </c>
+      <c r="BK208">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>2580867</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F209">
+        <v>18</v>
+      </c>
+      <c r="G209" t="s">
+        <v>73</v>
+      </c>
+      <c r="H209" t="s">
+        <v>72</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>2</v>
+      </c>
+      <c r="K209">
+        <v>2</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209">
+        <v>2</v>
+      </c>
+      <c r="N209">
+        <v>2</v>
+      </c>
+      <c r="O209" t="s">
+        <v>99</v>
+      </c>
+      <c r="P209" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q209">
+        <v>7</v>
+      </c>
+      <c r="R209">
+        <v>3</v>
+      </c>
+      <c r="S209">
+        <v>10</v>
+      </c>
+      <c r="T209">
+        <v>4</v>
+      </c>
+      <c r="U209">
+        <v>2.1</v>
+      </c>
+      <c r="V209">
+        <v>2.9</v>
+      </c>
+      <c r="W209">
+        <v>1.41</v>
+      </c>
+      <c r="X209">
+        <v>2.7</v>
+      </c>
+      <c r="Y209">
+        <v>2.95</v>
+      </c>
+      <c r="Z209">
+        <v>1.35</v>
+      </c>
+      <c r="AA209">
+        <v>7.85</v>
+      </c>
+      <c r="AB209">
+        <v>1.05</v>
+      </c>
+      <c r="AC209">
+        <v>3.5</v>
+      </c>
+      <c r="AD209">
+        <v>3.44</v>
+      </c>
+      <c r="AE209">
+        <v>2.09</v>
+      </c>
+      <c r="AF209">
+        <v>1.06</v>
+      </c>
+      <c r="AG209">
+        <v>10</v>
+      </c>
+      <c r="AH209">
+        <v>1.35</v>
+      </c>
+      <c r="AI209">
+        <v>3.2</v>
+      </c>
+      <c r="AJ209">
+        <v>2.07</v>
+      </c>
+      <c r="AK209">
+        <v>1.75</v>
+      </c>
+      <c r="AL209">
+        <v>1.8</v>
+      </c>
+      <c r="AM209">
+        <v>1.95</v>
+      </c>
+      <c r="AN209">
+        <v>1.68</v>
+      </c>
+      <c r="AO209">
+        <v>1.28</v>
+      </c>
+      <c r="AP209">
+        <v>1.33</v>
+      </c>
+      <c r="AQ209">
+        <v>1.13</v>
+      </c>
+      <c r="AR209">
+        <v>2.13</v>
+      </c>
+      <c r="AS209">
+        <v>1.2</v>
+      </c>
+      <c r="AT209">
+        <v>2.3</v>
+      </c>
+      <c r="AU209">
+        <v>1.63</v>
+      </c>
+      <c r="AV209">
+        <v>1.47</v>
+      </c>
+      <c r="AW209">
+        <v>3.1</v>
+      </c>
+      <c r="AX209">
+        <v>2.28</v>
+      </c>
+      <c r="AY209">
+        <v>8</v>
+      </c>
+      <c r="AZ209">
+        <v>1.85</v>
+      </c>
+      <c r="BA209">
+        <v>1.27</v>
+      </c>
+      <c r="BB209">
+        <v>1.5</v>
+      </c>
+      <c r="BC209">
+        <v>1.98</v>
+      </c>
+      <c r="BD209">
+        <v>2.5</v>
+      </c>
+      <c r="BE209">
+        <v>3.5</v>
+      </c>
+      <c r="BF209">
+        <v>0</v>
+      </c>
+      <c r="BG209">
+        <v>8</v>
+      </c>
+      <c r="BH209">
+        <v>17</v>
+      </c>
+      <c r="BI209">
+        <v>10</v>
+      </c>
+      <c r="BJ209">
+        <v>17</v>
+      </c>
+      <c r="BK209">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>2580871</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F210">
+        <v>18</v>
+      </c>
+      <c r="G210" t="s">
+        <v>79</v>
+      </c>
+      <c r="H210" t="s">
+        <v>77</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>1</v>
+      </c>
+      <c r="O210" t="s">
+        <v>112</v>
+      </c>
+      <c r="P210" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q210">
+        <v>6</v>
+      </c>
+      <c r="R210">
+        <v>2</v>
+      </c>
+      <c r="S210">
+        <v>8</v>
+      </c>
+      <c r="T210">
+        <v>2.1</v>
+      </c>
+      <c r="U210">
+        <v>2.3</v>
+      </c>
+      <c r="V210">
+        <v>6</v>
+      </c>
+      <c r="W210">
+        <v>1.4</v>
+      </c>
+      <c r="X210">
+        <v>2.86</v>
+      </c>
+      <c r="Y210">
+        <v>2.86</v>
+      </c>
+      <c r="Z210">
+        <v>1.4</v>
+      </c>
+      <c r="AA210">
+        <v>7.3</v>
+      </c>
+      <c r="AB210">
+        <v>1.08</v>
+      </c>
+      <c r="AC210">
+        <v>1.54</v>
+      </c>
+      <c r="AD210">
+        <v>4.16</v>
+      </c>
+      <c r="AE210">
+        <v>6.1</v>
+      </c>
+      <c r="AF210">
+        <v>1.04</v>
+      </c>
+      <c r="AG210">
+        <v>12</v>
+      </c>
+      <c r="AH210">
+        <v>1.3</v>
+      </c>
+      <c r="AI210">
+        <v>3.5</v>
+      </c>
+      <c r="AJ210">
+        <v>1.94</v>
+      </c>
+      <c r="AK210">
+        <v>1.86</v>
+      </c>
+      <c r="AL210">
+        <v>2</v>
+      </c>
+      <c r="AM210">
+        <v>1.78</v>
+      </c>
+      <c r="AN210">
+        <v>1.11</v>
+      </c>
+      <c r="AO210">
+        <v>1.18</v>
+      </c>
+      <c r="AP210">
+        <v>2.5</v>
+      </c>
+      <c r="AQ210">
+        <v>2.63</v>
+      </c>
+      <c r="AR210">
+        <v>0.25</v>
+      </c>
+      <c r="AS210">
+        <v>2.67</v>
+      </c>
+      <c r="AT210">
+        <v>0.2</v>
+      </c>
+      <c r="AU210">
+        <v>1.77</v>
+      </c>
+      <c r="AV210">
+        <v>1.07</v>
+      </c>
+      <c r="AW210">
+        <v>2.84</v>
+      </c>
+      <c r="AX210">
+        <v>1.4</v>
+      </c>
+      <c r="AY210">
+        <v>8.9</v>
+      </c>
+      <c r="AZ210">
+        <v>3.94</v>
+      </c>
+      <c r="BA210">
+        <v>1.27</v>
+      </c>
+      <c r="BB210">
+        <v>1.52</v>
+      </c>
+      <c r="BC210">
+        <v>1.9</v>
+      </c>
+      <c r="BD210">
+        <v>2.45</v>
+      </c>
+      <c r="BE210">
+        <v>3.2</v>
+      </c>
+      <c r="BF210">
+        <v>5</v>
+      </c>
+      <c r="BG210">
+        <v>3</v>
+      </c>
+      <c r="BH210">
+        <v>7</v>
+      </c>
+      <c r="BI210">
+        <v>4</v>
+      </c>
+      <c r="BJ210">
+        <v>12</v>
+      </c>
+      <c r="BK210">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>2580865</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F211">
+        <v>18</v>
+      </c>
+      <c r="G211" t="s">
+        <v>88</v>
+      </c>
+      <c r="H211" t="s">
+        <v>76</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+      <c r="M211">
+        <v>2</v>
+      </c>
+      <c r="N211">
+        <v>2</v>
+      </c>
+      <c r="O211" t="s">
+        <v>99</v>
+      </c>
+      <c r="P211" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q211">
+        <v>3</v>
+      </c>
+      <c r="R211">
+        <v>1</v>
+      </c>
+      <c r="S211">
+        <v>4</v>
+      </c>
+      <c r="T211">
+        <v>3.75</v>
+      </c>
+      <c r="U211">
+        <v>1.95</v>
+      </c>
+      <c r="V211">
+        <v>3.4</v>
+      </c>
+      <c r="W211">
+        <v>1.53</v>
+      </c>
+      <c r="X211">
+        <v>2.44</v>
+      </c>
+      <c r="Y211">
+        <v>3.5</v>
+      </c>
+      <c r="Z211">
+        <v>1.29</v>
+      </c>
+      <c r="AA211">
+        <v>9.6</v>
+      </c>
+      <c r="AB211">
+        <v>1.04</v>
+      </c>
+      <c r="AC211">
+        <v>2.85</v>
+      </c>
+      <c r="AD211">
+        <v>3.18</v>
+      </c>
+      <c r="AE211">
+        <v>2.58</v>
+      </c>
+      <c r="AF211">
+        <v>1.09</v>
+      </c>
+      <c r="AG211">
+        <v>6</v>
+      </c>
+      <c r="AH211">
+        <v>1.47</v>
+      </c>
+      <c r="AI211">
+        <v>2.55</v>
+      </c>
+      <c r="AJ211">
+        <v>2.25</v>
+      </c>
+      <c r="AK211">
+        <v>1.57</v>
+      </c>
+      <c r="AL211">
+        <v>2</v>
+      </c>
+      <c r="AM211">
+        <v>1.73</v>
+      </c>
+      <c r="AN211">
+        <v>1.52</v>
+      </c>
+      <c r="AO211">
+        <v>1.3</v>
+      </c>
+      <c r="AP211">
+        <v>1.42</v>
+      </c>
+      <c r="AQ211">
+        <v>1.25</v>
+      </c>
+      <c r="AR211">
+        <v>1.88</v>
+      </c>
+      <c r="AS211">
+        <v>1.11</v>
+      </c>
+      <c r="AT211">
+        <v>2.1</v>
+      </c>
+      <c r="AU211">
+        <v>1.22</v>
+      </c>
+      <c r="AV211">
+        <v>1.28</v>
+      </c>
+      <c r="AW211">
+        <v>2.5</v>
+      </c>
+      <c r="AX211">
+        <v>1.89</v>
+      </c>
+      <c r="AY211">
+        <v>7.1</v>
+      </c>
+      <c r="AZ211">
+        <v>2.44</v>
+      </c>
+      <c r="BA211">
+        <v>1.28</v>
+      </c>
+      <c r="BB211">
+        <v>1.54</v>
+      </c>
+      <c r="BC211">
+        <v>1.95</v>
+      </c>
+      <c r="BD211">
+        <v>2.53</v>
+      </c>
+      <c r="BE211">
+        <v>3.42</v>
+      </c>
+      <c r="BF211">
+        <v>0</v>
+      </c>
+      <c r="BG211">
+        <v>5</v>
+      </c>
+      <c r="BH211">
+        <v>9</v>
+      </c>
+      <c r="BI211">
+        <v>7</v>
+      </c>
+      <c r="BJ211">
+        <v>9</v>
+      </c>
+      <c r="BK211">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>2580864</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F212">
+        <v>18</v>
+      </c>
+      <c r="G212" t="s">
+        <v>85</v>
+      </c>
+      <c r="H212" t="s">
+        <v>86</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212" t="s">
+        <v>224</v>
+      </c>
+      <c r="P212" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q212">
+        <v>1</v>
+      </c>
+      <c r="R212">
+        <v>7</v>
+      </c>
+      <c r="S212">
+        <v>8</v>
+      </c>
+      <c r="T212">
+        <v>3.1</v>
+      </c>
+      <c r="U212">
+        <v>2.05</v>
+      </c>
+      <c r="V212">
+        <v>3.75</v>
+      </c>
+      <c r="W212">
+        <v>1.46</v>
+      </c>
+      <c r="X212">
+        <v>2.76</v>
+      </c>
+      <c r="Y212">
+        <v>3.29</v>
+      </c>
+      <c r="Z212">
+        <v>1.34</v>
+      </c>
+      <c r="AA212">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB212">
+        <v>1.06</v>
+      </c>
+      <c r="AC212">
+        <v>2.31</v>
+      </c>
+      <c r="AD212">
+        <v>3.34</v>
+      </c>
+      <c r="AE212">
+        <v>3.11</v>
+      </c>
+      <c r="AF212">
+        <v>1.07</v>
+      </c>
+      <c r="AG212">
+        <v>9</v>
+      </c>
+      <c r="AH212">
+        <v>1.38</v>
+      </c>
+      <c r="AI212">
+        <v>3</v>
+      </c>
+      <c r="AJ212">
+        <v>2.07</v>
+      </c>
+      <c r="AK212">
+        <v>1.75</v>
+      </c>
+      <c r="AL212">
+        <v>1.89</v>
+      </c>
+      <c r="AM212">
+        <v>1.91</v>
+      </c>
+      <c r="AN212">
+        <v>1.36</v>
+      </c>
+      <c r="AO212">
+        <v>1.28</v>
+      </c>
+      <c r="AP212">
+        <v>1.63</v>
+      </c>
+      <c r="AQ212">
+        <v>1.5</v>
+      </c>
+      <c r="AR212">
+        <v>0.13</v>
+      </c>
+      <c r="AS212">
+        <v>1.67</v>
+      </c>
+      <c r="AT212">
+        <v>0.11</v>
+      </c>
+      <c r="AU212">
+        <v>1.26</v>
+      </c>
+      <c r="AV212">
+        <v>0.78</v>
+      </c>
+      <c r="AW212">
+        <v>2.04</v>
+      </c>
+      <c r="AX212">
+        <v>1.94</v>
+      </c>
+      <c r="AY212">
+        <v>7.1</v>
+      </c>
+      <c r="AZ212">
+        <v>2.36</v>
+      </c>
+      <c r="BA212">
+        <v>1.26</v>
+      </c>
+      <c r="BB212">
+        <v>1.51</v>
+      </c>
+      <c r="BC212">
+        <v>1.9</v>
+      </c>
+      <c r="BD212">
+        <v>2.45</v>
+      </c>
+      <c r="BE212">
+        <v>3.28</v>
+      </c>
+      <c r="BF212">
+        <v>5</v>
+      </c>
+      <c r="BG212">
+        <v>0</v>
+      </c>
+      <c r="BH212">
+        <v>5</v>
+      </c>
+      <c r="BI212">
+        <v>14</v>
+      </c>
+      <c r="BJ212">
+        <v>10</v>
+      </c>
+      <c r="BK212">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>2580863</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F213">
+        <v>18</v>
+      </c>
+      <c r="G213" t="s">
+        <v>83</v>
+      </c>
+      <c r="H213" t="s">
+        <v>87</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>1</v>
+      </c>
+      <c r="O213" t="s">
+        <v>221</v>
+      </c>
+      <c r="P213" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q213">
+        <v>2</v>
+      </c>
+      <c r="R213">
+        <v>12</v>
+      </c>
+      <c r="S213">
+        <v>14</v>
+      </c>
+      <c r="T213">
+        <v>3.75</v>
+      </c>
+      <c r="U213">
+        <v>2.1</v>
+      </c>
+      <c r="V213">
+        <v>3</v>
+      </c>
+      <c r="W213">
+        <v>1.43</v>
+      </c>
+      <c r="X213">
+        <v>2.74</v>
+      </c>
+      <c r="Y213">
+        <v>2.99</v>
+      </c>
+      <c r="Z213">
+        <v>1.37</v>
+      </c>
+      <c r="AA213">
+        <v>7.7</v>
+      </c>
+      <c r="AB213">
+        <v>1.07</v>
+      </c>
+      <c r="AC213">
+        <v>2.92</v>
+      </c>
+      <c r="AD213">
+        <v>3.34</v>
+      </c>
+      <c r="AE213">
+        <v>2.43</v>
+      </c>
+      <c r="AF213">
+        <v>1.05</v>
+      </c>
+      <c r="AG213">
+        <v>10</v>
+      </c>
+      <c r="AH213">
+        <v>1.33</v>
+      </c>
+      <c r="AI213">
+        <v>3.25</v>
+      </c>
+      <c r="AJ213">
+        <v>2.05</v>
+      </c>
+      <c r="AK213">
+        <v>1.77</v>
+      </c>
+      <c r="AL213">
+        <v>1.8</v>
+      </c>
+      <c r="AM213">
+        <v>1.95</v>
+      </c>
+      <c r="AN213">
+        <v>1.62</v>
+      </c>
+      <c r="AO213">
+        <v>1.28</v>
+      </c>
+      <c r="AP213">
+        <v>1.38</v>
+      </c>
+      <c r="AQ213">
+        <v>1.29</v>
+      </c>
+      <c r="AR213">
+        <v>1.25</v>
+      </c>
+      <c r="AS213">
+        <v>1.5</v>
+      </c>
+      <c r="AT213">
+        <v>1.11</v>
+      </c>
+      <c r="AU213">
+        <v>1.12</v>
+      </c>
+      <c r="AV213">
+        <v>1.38</v>
+      </c>
+      <c r="AW213">
+        <v>2.5</v>
+      </c>
+      <c r="AX213">
+        <v>2.18</v>
+      </c>
+      <c r="AY213">
+        <v>6.85</v>
+      </c>
+      <c r="AZ213">
+        <v>2.07</v>
+      </c>
+      <c r="BA213">
+        <v>1.32</v>
+      </c>
+      <c r="BB213">
+        <v>1.61</v>
+      </c>
+      <c r="BC213">
+        <v>2.07</v>
+      </c>
+      <c r="BD213">
+        <v>2.73</v>
+      </c>
+      <c r="BE213">
+        <v>3.74</v>
+      </c>
+      <c r="BF213">
+        <v>3</v>
+      </c>
+      <c r="BG213">
+        <v>5</v>
+      </c>
+      <c r="BH213">
+        <v>4</v>
+      </c>
+      <c r="BI213">
+        <v>14</v>
+      </c>
+      <c r="BJ213">
+        <v>7</v>
+      </c>
+      <c r="BK213">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>2580862</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F214">
+        <v>18</v>
+      </c>
+      <c r="G214" t="s">
+        <v>74</v>
+      </c>
+      <c r="H214" t="s">
+        <v>66</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214" t="s">
+        <v>99</v>
+      </c>
+      <c r="P214" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q214">
+        <v>11</v>
+      </c>
+      <c r="R214">
+        <v>4</v>
+      </c>
+      <c r="S214">
+        <v>15</v>
+      </c>
+      <c r="T214">
+        <v>3</v>
+      </c>
+      <c r="U214">
+        <v>2.05</v>
+      </c>
+      <c r="V214">
+        <v>4</v>
+      </c>
+      <c r="W214">
+        <v>1.45</v>
+      </c>
+      <c r="X214">
+        <v>2.6</v>
+      </c>
+      <c r="Y214">
+        <v>3.2</v>
+      </c>
+      <c r="Z214">
+        <v>1.31</v>
+      </c>
+      <c r="AA214">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB214">
+        <v>1.04</v>
+      </c>
+      <c r="AC214">
+        <v>2.19</v>
+      </c>
+      <c r="AD214">
+        <v>3.28</v>
+      </c>
+      <c r="AE214">
+        <v>3.4</v>
+      </c>
+      <c r="AF214">
+        <v>1.07</v>
+      </c>
+      <c r="AG214">
+        <v>9</v>
+      </c>
+      <c r="AH214">
+        <v>1.4</v>
+      </c>
+      <c r="AI214">
+        <v>3</v>
+      </c>
+      <c r="AJ214">
+        <v>2.2</v>
+      </c>
+      <c r="AK214">
+        <v>1.61</v>
+      </c>
+      <c r="AL214">
+        <v>1.9</v>
+      </c>
+      <c r="AM214">
+        <v>1.85</v>
+      </c>
+      <c r="AN214">
+        <v>1.33</v>
+      </c>
+      <c r="AO214">
+        <v>1.28</v>
+      </c>
+      <c r="AP214">
+        <v>1.65</v>
+      </c>
+      <c r="AQ214">
+        <v>1.88</v>
+      </c>
+      <c r="AR214">
+        <v>0.75</v>
+      </c>
+      <c r="AS214">
+        <v>1.78</v>
+      </c>
+      <c r="AT214">
+        <v>0.78</v>
+      </c>
+      <c r="AU214">
+        <v>1.72</v>
+      </c>
+      <c r="AV214">
+        <v>1.09</v>
+      </c>
+      <c r="AW214">
+        <v>2.81</v>
+      </c>
+      <c r="AX214">
+        <v>1.75</v>
+      </c>
+      <c r="AY214">
+        <v>7.3</v>
+      </c>
+      <c r="AZ214">
+        <v>2.69</v>
+      </c>
+      <c r="BA214">
+        <v>1.24</v>
+      </c>
+      <c r="BB214">
+        <v>1.48</v>
+      </c>
+      <c r="BC214">
+        <v>1.86</v>
+      </c>
+      <c r="BD214">
+        <v>2.38</v>
+      </c>
+      <c r="BE214">
+        <v>3.18</v>
+      </c>
+      <c r="BF214">
+        <v>3</v>
+      </c>
+      <c r="BG214">
+        <v>2</v>
+      </c>
+      <c r="BH214">
+        <v>8</v>
+      </c>
+      <c r="BI214">
+        <v>9</v>
+      </c>
+      <c r="BJ214">
+        <v>11</v>
+      </c>
+      <c r="BK214">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2580866</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44877.5</v>
+      </c>
+      <c r="F215">
+        <v>18</v>
+      </c>
+      <c r="G215" t="s">
+        <v>82</v>
+      </c>
+      <c r="H215" t="s">
+        <v>84</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>3</v>
+      </c>
+      <c r="N215">
+        <v>4</v>
+      </c>
+      <c r="O215" t="s">
+        <v>112</v>
+      </c>
+      <c r="P215" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q215">
+        <v>6</v>
+      </c>
+      <c r="R215">
+        <v>5</v>
+      </c>
+      <c r="S215">
+        <v>11</v>
+      </c>
+      <c r="T215">
+        <v>2.7</v>
+      </c>
+      <c r="U215">
+        <v>2.15</v>
+      </c>
+      <c r="V215">
+        <v>4.2</v>
+      </c>
+      <c r="W215">
+        <v>1.41</v>
+      </c>
+      <c r="X215">
+        <v>2.82</v>
+      </c>
+      <c r="Y215">
+        <v>2.9</v>
+      </c>
+      <c r="Z215">
+        <v>1.39</v>
+      </c>
+      <c r="AA215">
+        <v>7.4</v>
+      </c>
+      <c r="AB215">
+        <v>1.08</v>
+      </c>
+      <c r="AC215">
+        <v>1.98</v>
+      </c>
+      <c r="AD215">
+        <v>3.5</v>
+      </c>
+      <c r="AE215">
+        <v>3.78</v>
+      </c>
+      <c r="AF215">
+        <v>1.05</v>
+      </c>
+      <c r="AG215">
+        <v>10</v>
+      </c>
+      <c r="AH215">
+        <v>1.33</v>
+      </c>
+      <c r="AI215">
+        <v>3.25</v>
+      </c>
+      <c r="AJ215">
+        <v>2.07</v>
+      </c>
+      <c r="AK215">
+        <v>1.75</v>
+      </c>
+      <c r="AL215">
+        <v>1.83</v>
+      </c>
+      <c r="AM215">
+        <v>1.9</v>
+      </c>
+      <c r="AN215">
+        <v>1.28</v>
+      </c>
+      <c r="AO215">
+        <v>1.25</v>
+      </c>
+      <c r="AP215">
+        <v>1.83</v>
+      </c>
+      <c r="AQ215">
+        <v>1</v>
+      </c>
+      <c r="AR215">
+        <v>1.13</v>
+      </c>
+      <c r="AS215">
+        <v>0.89</v>
+      </c>
+      <c r="AT215">
+        <v>1.2</v>
+      </c>
+      <c r="AU215">
+        <v>1.64</v>
+      </c>
+      <c r="AV215">
+        <v>1.14</v>
+      </c>
+      <c r="AW215">
+        <v>2.78</v>
+      </c>
+      <c r="AX215">
+        <v>1.64</v>
+      </c>
+      <c r="AY215">
+        <v>8</v>
+      </c>
+      <c r="AZ215">
+        <v>2.67</v>
+      </c>
+      <c r="BA215">
+        <v>1.26</v>
+      </c>
+      <c r="BB215">
+        <v>1.48</v>
+      </c>
+      <c r="BC215">
+        <v>1.85</v>
+      </c>
+      <c r="BD215">
+        <v>2.43</v>
+      </c>
+      <c r="BE215">
+        <v>3.35</v>
+      </c>
+      <c r="BF215">
+        <v>3</v>
+      </c>
+      <c r="BG215">
+        <v>5</v>
+      </c>
+      <c r="BH215">
+        <v>6</v>
+      </c>
+      <c r="BI215">
+        <v>9</v>
+      </c>
+      <c r="BJ215">
+        <v>9</v>
+      </c>
+      <c r="BK215">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2580885</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F216">
+        <v>19</v>
+      </c>
+      <c r="G216" t="s">
+        <v>66</v>
+      </c>
+      <c r="H216" t="s">
+        <v>83</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>2</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+      <c r="N216">
+        <v>3</v>
+      </c>
+      <c r="O216" t="s">
+        <v>226</v>
+      </c>
+      <c r="P216" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q216">
+        <v>8</v>
+      </c>
+      <c r="R216">
+        <v>2</v>
+      </c>
+      <c r="S216">
+        <v>10</v>
+      </c>
+      <c r="T216">
+        <v>2.4</v>
+      </c>
+      <c r="U216">
+        <v>2.1</v>
+      </c>
+      <c r="V216">
+        <v>5.5</v>
+      </c>
+      <c r="W216">
+        <v>1.44</v>
+      </c>
+      <c r="X216">
+        <v>2.63</v>
+      </c>
+      <c r="Y216">
+        <v>3.4</v>
+      </c>
+      <c r="Z216">
+        <v>1.3</v>
+      </c>
+      <c r="AA216">
+        <v>10</v>
+      </c>
+      <c r="AB216">
+        <v>1.06</v>
+      </c>
+      <c r="AC216">
+        <v>1.8</v>
+      </c>
+      <c r="AD216">
+        <v>3.5</v>
+      </c>
+      <c r="AE216">
+        <v>4.5</v>
+      </c>
+      <c r="AF216">
+        <v>1.07</v>
+      </c>
+      <c r="AG216">
+        <v>7</v>
+      </c>
+      <c r="AH216">
+        <v>1.4</v>
+      </c>
+      <c r="AI216">
+        <v>2.7</v>
+      </c>
+      <c r="AJ216">
+        <v>2.25</v>
+      </c>
+      <c r="AK216">
+        <v>1.63</v>
+      </c>
+      <c r="AL216">
+        <v>2.1</v>
+      </c>
+      <c r="AM216">
+        <v>1.67</v>
+      </c>
+      <c r="AN216">
+        <v>1.22</v>
+      </c>
+      <c r="AO216">
+        <v>1.3</v>
+      </c>
+      <c r="AP216">
+        <v>1.95</v>
+      </c>
+      <c r="AQ216">
+        <v>1.89</v>
+      </c>
+      <c r="AR216">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS216">
+        <v>2</v>
+      </c>
+      <c r="AT216">
+        <v>0.5</v>
+      </c>
+      <c r="AU216">
+        <v>1.45</v>
+      </c>
+      <c r="AV216">
+        <v>1.15</v>
+      </c>
+      <c r="AW216">
+        <v>2.6</v>
+      </c>
+      <c r="AX216">
+        <v>1.47</v>
+      </c>
+      <c r="AY216">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ216">
+        <v>3.48</v>
+      </c>
+      <c r="BA216">
+        <v>1.27</v>
+      </c>
+      <c r="BB216">
+        <v>1.52</v>
+      </c>
+      <c r="BC216">
+        <v>1.93</v>
+      </c>
+      <c r="BD216">
+        <v>2.5</v>
+      </c>
+      <c r="BE216">
+        <v>3.42</v>
+      </c>
+      <c r="BF216">
+        <v>11</v>
+      </c>
+      <c r="BG216">
+        <v>4</v>
+      </c>
+      <c r="BH216">
+        <v>16</v>
+      </c>
+      <c r="BI216">
+        <v>4</v>
+      </c>
+      <c r="BJ216">
+        <v>27</v>
+      </c>
+      <c r="BK216">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>2580884</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F217">
+        <v>19</v>
+      </c>
+      <c r="G217" t="s">
+        <v>67</v>
+      </c>
+      <c r="H217" t="s">
+        <v>65</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>2</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217" t="s">
+        <v>99</v>
+      </c>
+      <c r="P217" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q217">
+        <v>7</v>
+      </c>
+      <c r="R217">
+        <v>4</v>
+      </c>
+      <c r="S217">
+        <v>11</v>
+      </c>
+      <c r="T217">
+        <v>2.63</v>
+      </c>
+      <c r="U217">
+        <v>2.05</v>
+      </c>
+      <c r="V217">
+        <v>4.5</v>
+      </c>
+      <c r="W217">
+        <v>1.44</v>
+      </c>
+      <c r="X217">
+        <v>2.63</v>
+      </c>
+      <c r="Y217">
+        <v>3.25</v>
+      </c>
+      <c r="Z217">
+        <v>1.33</v>
+      </c>
+      <c r="AA217">
+        <v>10</v>
+      </c>
+      <c r="AB217">
+        <v>1.06</v>
+      </c>
+      <c r="AC217">
+        <v>1.95</v>
+      </c>
+      <c r="AD217">
+        <v>3.5</v>
+      </c>
+      <c r="AE217">
+        <v>3.75</v>
+      </c>
+      <c r="AF217">
+        <v>1.06</v>
+      </c>
+      <c r="AG217">
+        <v>7.5</v>
+      </c>
+      <c r="AH217">
+        <v>1.36</v>
+      </c>
+      <c r="AI217">
+        <v>2.9</v>
+      </c>
+      <c r="AJ217">
+        <v>2.1</v>
+      </c>
+      <c r="AK217">
+        <v>1.72</v>
+      </c>
+      <c r="AL217">
+        <v>1.91</v>
+      </c>
+      <c r="AM217">
+        <v>1.8</v>
+      </c>
+      <c r="AN217">
+        <v>1.29</v>
+      </c>
+      <c r="AO217">
+        <v>1.33</v>
+      </c>
+      <c r="AP217">
+        <v>1.78</v>
+      </c>
+      <c r="AQ217">
+        <v>1.56</v>
+      </c>
+      <c r="AR217">
+        <v>1</v>
+      </c>
+      <c r="AS217">
+        <v>1.4</v>
+      </c>
+      <c r="AT217">
+        <v>1.2</v>
+      </c>
+      <c r="AU217">
+        <v>1.42</v>
+      </c>
+      <c r="AV217">
+        <v>1.1</v>
+      </c>
+      <c r="AW217">
+        <v>2.52</v>
+      </c>
+      <c r="AX217">
+        <v>1.45</v>
+      </c>
+      <c r="AY217">
+        <v>8.6</v>
+      </c>
+      <c r="AZ217">
+        <v>3.55</v>
+      </c>
+      <c r="BA217">
+        <v>1.22</v>
+      </c>
+      <c r="BB217">
+        <v>1.44</v>
+      </c>
+      <c r="BC217">
+        <v>1.79</v>
+      </c>
+      <c r="BD217">
+        <v>2.26</v>
+      </c>
+      <c r="BE217">
+        <v>3.04</v>
+      </c>
+      <c r="BF217">
+        <v>4</v>
+      </c>
+      <c r="BG217">
+        <v>3</v>
+      </c>
+      <c r="BH217">
+        <v>9</v>
+      </c>
+      <c r="BI217">
+        <v>6</v>
+      </c>
+      <c r="BJ217">
+        <v>13</v>
+      </c>
+      <c r="BK217">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>2580883</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
+      </c>
+      <c r="D218" t="s">
+        <v>64</v>
+      </c>
+      <c r="E218" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F218">
+        <v>19</v>
+      </c>
+      <c r="G218" t="s">
+        <v>78</v>
+      </c>
+      <c r="H218" t="s">
+        <v>85</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>1</v>
+      </c>
+      <c r="O218" t="s">
+        <v>99</v>
+      </c>
+      <c r="P218" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q218">
+        <v>9</v>
+      </c>
+      <c r="R218">
+        <v>3</v>
+      </c>
+      <c r="S218">
+        <v>12</v>
+      </c>
+      <c r="T218">
+        <v>2.3</v>
+      </c>
+      <c r="U218">
+        <v>2.25</v>
+      </c>
+      <c r="V218">
+        <v>5</v>
+      </c>
+      <c r="W218">
+        <v>1.36</v>
+      </c>
+      <c r="X218">
+        <v>3</v>
+      </c>
+      <c r="Y218">
+        <v>2.63</v>
+      </c>
+      <c r="Z218">
+        <v>1.44</v>
+      </c>
+      <c r="AA218">
+        <v>7</v>
+      </c>
+      <c r="AB218">
+        <v>1.1</v>
+      </c>
+      <c r="AC218">
+        <v>1.7</v>
+      </c>
+      <c r="AD218">
+        <v>3.92</v>
+      </c>
+      <c r="AE218">
+        <v>4.88</v>
+      </c>
+      <c r="AF218">
+        <v>1.04</v>
+      </c>
+      <c r="AG218">
+        <v>13</v>
+      </c>
+      <c r="AH218">
+        <v>1.29</v>
+      </c>
+      <c r="AI218">
+        <v>3.4</v>
+      </c>
+      <c r="AJ218">
+        <v>1.85</v>
+      </c>
+      <c r="AK218">
+        <v>1.99</v>
+      </c>
+      <c r="AL218">
+        <v>1.8</v>
+      </c>
+      <c r="AM218">
+        <v>1.91</v>
+      </c>
+      <c r="AN218">
+        <v>1.2</v>
+      </c>
+      <c r="AO218">
+        <v>1.29</v>
+      </c>
+      <c r="AP218">
+        <v>2.05</v>
+      </c>
+      <c r="AQ218">
+        <v>2</v>
+      </c>
+      <c r="AR218">
+        <v>0.88</v>
+      </c>
+      <c r="AS218">
+        <v>1.8</v>
+      </c>
+      <c r="AT218">
+        <v>1.11</v>
+      </c>
+      <c r="AU218">
+        <v>1.63</v>
+      </c>
+      <c r="AV218">
+        <v>0.95</v>
+      </c>
+      <c r="AW218">
+        <v>2.58</v>
+      </c>
+      <c r="AX218">
+        <v>1.28</v>
+      </c>
+      <c r="AY218">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ218">
+        <v>4.9</v>
+      </c>
+      <c r="BA218">
+        <v>1.19</v>
+      </c>
+      <c r="BB218">
+        <v>1.35</v>
+      </c>
+      <c r="BC218">
+        <v>1.65</v>
+      </c>
+      <c r="BD218">
+        <v>2.1</v>
+      </c>
+      <c r="BE218">
+        <v>2.77</v>
+      </c>
+      <c r="BF218">
+        <v>8</v>
+      </c>
+      <c r="BG218">
+        <v>3</v>
+      </c>
+      <c r="BH218">
+        <v>13</v>
+      </c>
+      <c r="BI218">
+        <v>9</v>
+      </c>
+      <c r="BJ218">
+        <v>21</v>
+      </c>
+      <c r="BK218">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>2580882</v>
+      </c>
+      <c r="C219" t="s">
+        <v>63</v>
+      </c>
+      <c r="D219" t="s">
+        <v>64</v>
+      </c>
+      <c r="E219" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F219">
+        <v>19</v>
+      </c>
+      <c r="G219" t="s">
+        <v>68</v>
+      </c>
+      <c r="H219" t="s">
+        <v>70</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>1</v>
+      </c>
+      <c r="O219" t="s">
+        <v>227</v>
+      </c>
+      <c r="P219" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q219">
+        <v>2</v>
+      </c>
+      <c r="R219">
+        <v>9</v>
+      </c>
+      <c r="S219">
+        <v>11</v>
+      </c>
+      <c r="T219">
+        <v>2.88</v>
+      </c>
+      <c r="U219">
+        <v>2.1</v>
+      </c>
+      <c r="V219">
+        <v>4</v>
+      </c>
+      <c r="W219">
+        <v>1.44</v>
+      </c>
+      <c r="X219">
+        <v>2.63</v>
+      </c>
+      <c r="Y219">
+        <v>3.25</v>
+      </c>
+      <c r="Z219">
+        <v>1.33</v>
+      </c>
+      <c r="AA219">
+        <v>9</v>
+      </c>
+      <c r="AB219">
+        <v>1.07</v>
+      </c>
+      <c r="AC219">
+        <v>2.15</v>
+      </c>
+      <c r="AD219">
+        <v>3.3</v>
+      </c>
+      <c r="AE219">
+        <v>3.4</v>
+      </c>
+      <c r="AF219">
+        <v>1.05</v>
+      </c>
+      <c r="AG219">
+        <v>7.5</v>
+      </c>
+      <c r="AH219">
+        <v>1.32</v>
+      </c>
+      <c r="AI219">
+        <v>3.1</v>
+      </c>
+      <c r="AJ219">
+        <v>2.05</v>
+      </c>
+      <c r="AK219">
+        <v>1.75</v>
+      </c>
+      <c r="AL219">
+        <v>1.83</v>
+      </c>
+      <c r="AM219">
+        <v>1.83</v>
+      </c>
+      <c r="AN219">
+        <v>1.33</v>
+      </c>
+      <c r="AO219">
+        <v>1.3</v>
+      </c>
+      <c r="AP219">
+        <v>1.73</v>
+      </c>
+      <c r="AQ219">
+        <v>1.56</v>
+      </c>
+      <c r="AR219">
+        <v>0.89</v>
+      </c>
+      <c r="AS219">
+        <v>1.7</v>
+      </c>
+      <c r="AT219">
+        <v>0.8</v>
+      </c>
+      <c r="AU219">
+        <v>1.5</v>
+      </c>
+      <c r="AV219">
+        <v>0.92</v>
+      </c>
+      <c r="AW219">
+        <v>2.42</v>
+      </c>
+      <c r="AX219">
+        <v>1.85</v>
+      </c>
+      <c r="AY219">
+        <v>7.7</v>
+      </c>
+      <c r="AZ219">
+        <v>2.4</v>
+      </c>
+      <c r="BA219">
+        <v>1.25</v>
+      </c>
+      <c r="BB219">
+        <v>1.49</v>
+      </c>
+      <c r="BC219">
+        <v>1.88</v>
+      </c>
+      <c r="BD219">
+        <v>2.42</v>
+      </c>
+      <c r="BE219">
+        <v>3.28</v>
+      </c>
+      <c r="BF219">
+        <v>5</v>
+      </c>
+      <c r="BG219">
+        <v>6</v>
+      </c>
+      <c r="BH219">
+        <v>7</v>
+      </c>
+      <c r="BI219">
+        <v>7</v>
+      </c>
+      <c r="BJ219">
+        <v>12</v>
+      </c>
+      <c r="BK219">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>2580881</v>
+      </c>
+      <c r="C220" t="s">
+        <v>63</v>
+      </c>
+      <c r="D220" t="s">
+        <v>64</v>
+      </c>
+      <c r="E220" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F220">
+        <v>19</v>
+      </c>
+      <c r="G220" t="s">
+        <v>71</v>
+      </c>
+      <c r="H220" t="s">
+        <v>72</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>2</v>
+      </c>
+      <c r="N220">
+        <v>3</v>
+      </c>
+      <c r="O220" t="s">
+        <v>98</v>
+      </c>
+      <c r="P220" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q220">
+        <v>2</v>
+      </c>
+      <c r="R220">
+        <v>2</v>
+      </c>
+      <c r="S220">
+        <v>4</v>
+      </c>
+      <c r="T220">
+        <v>2.88</v>
+      </c>
+      <c r="U220">
+        <v>2.05</v>
+      </c>
+      <c r="V220">
+        <v>4</v>
+      </c>
+      <c r="W220">
+        <v>1.44</v>
+      </c>
+      <c r="X220">
+        <v>2.63</v>
+      </c>
+      <c r="Y220">
+        <v>3.25</v>
+      </c>
+      <c r="Z220">
+        <v>1.33</v>
+      </c>
+      <c r="AA220">
+        <v>9</v>
+      </c>
+      <c r="AB220">
+        <v>1.07</v>
+      </c>
+      <c r="AC220">
+        <v>2.1</v>
+      </c>
+      <c r="AD220">
+        <v>3.4</v>
+      </c>
+      <c r="AE220">
+        <v>3.5</v>
+      </c>
+      <c r="AF220">
+        <v>1.06</v>
+      </c>
+      <c r="AG220">
+        <v>7.5</v>
+      </c>
+      <c r="AH220">
+        <v>1.36</v>
+      </c>
+      <c r="AI220">
+        <v>2.9</v>
+      </c>
+      <c r="AJ220">
+        <v>2.05</v>
+      </c>
+      <c r="AK220">
+        <v>1.75</v>
+      </c>
+      <c r="AL220">
+        <v>1.83</v>
+      </c>
+      <c r="AM220">
+        <v>1.83</v>
+      </c>
+      <c r="AN220">
+        <v>1.33</v>
+      </c>
+      <c r="AO220">
+        <v>1.28</v>
+      </c>
+      <c r="AP220">
+        <v>1.72</v>
+      </c>
+      <c r="AQ220">
+        <v>1.67</v>
+      </c>
+      <c r="AR220">
+        <v>2.22</v>
+      </c>
+      <c r="AS220">
+        <v>1.5</v>
+      </c>
+      <c r="AT220">
+        <v>2.3</v>
+      </c>
+      <c r="AU220">
+        <v>1.85</v>
+      </c>
+      <c r="AV220">
+        <v>1.53</v>
+      </c>
+      <c r="AW220">
+        <v>3.38</v>
+      </c>
+      <c r="AX220">
+        <v>1.57</v>
+      </c>
+      <c r="AY220">
+        <v>8.1</v>
+      </c>
+      <c r="AZ220">
+        <v>3.06</v>
+      </c>
+      <c r="BA220">
+        <v>1.25</v>
+      </c>
+      <c r="BB220">
+        <v>1.49</v>
+      </c>
+      <c r="BC220">
+        <v>1.88</v>
+      </c>
+      <c r="BD220">
+        <v>2.42</v>
+      </c>
+      <c r="BE220">
+        <v>3.28</v>
+      </c>
+      <c r="BF220">
+        <v>6</v>
+      </c>
+      <c r="BG220">
+        <v>4</v>
+      </c>
+      <c r="BH220">
+        <v>8</v>
+      </c>
+      <c r="BI220">
+        <v>2</v>
+      </c>
+      <c r="BJ220">
+        <v>14</v>
+      </c>
+      <c r="BK220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>2580880</v>
+      </c>
+      <c r="C221" t="s">
+        <v>63</v>
+      </c>
+      <c r="D221" t="s">
+        <v>64</v>
+      </c>
+      <c r="E221" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F221">
+        <v>19</v>
+      </c>
+      <c r="G221" t="s">
+        <v>69</v>
+      </c>
+      <c r="H221" t="s">
+        <v>74</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>4</v>
+      </c>
+      <c r="N221">
+        <v>5</v>
+      </c>
+      <c r="O221" t="s">
+        <v>228</v>
+      </c>
+      <c r="P221" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q221">
+        <v>8</v>
+      </c>
+      <c r="R221">
+        <v>6</v>
+      </c>
+      <c r="S221">
+        <v>14</v>
+      </c>
+      <c r="T221">
+        <v>2.88</v>
+      </c>
+      <c r="U221">
+        <v>2.05</v>
+      </c>
+      <c r="V221">
+        <v>4</v>
+      </c>
+      <c r="W221">
+        <v>1.44</v>
+      </c>
+      <c r="X221">
+        <v>2.63</v>
+      </c>
+      <c r="Y221">
+        <v>3.25</v>
+      </c>
+      <c r="Z221">
+        <v>1.33</v>
+      </c>
+      <c r="AA221">
+        <v>9</v>
+      </c>
+      <c r="AB221">
+        <v>1.07</v>
+      </c>
+      <c r="AC221">
+        <v>2.1</v>
+      </c>
+      <c r="AD221">
+        <v>3.4</v>
+      </c>
+      <c r="AE221">
+        <v>3.4</v>
+      </c>
+      <c r="AF221">
+        <v>1.06</v>
+      </c>
+      <c r="AG221">
+        <v>7.5</v>
+      </c>
+      <c r="AH221">
+        <v>1.36</v>
+      </c>
+      <c r="AI221">
+        <v>2.9</v>
+      </c>
+      <c r="AJ221">
+        <v>2.1</v>
+      </c>
+      <c r="AK221">
+        <v>1.72</v>
+      </c>
+      <c r="AL221">
+        <v>1.83</v>
+      </c>
+      <c r="AM221">
+        <v>1.83</v>
+      </c>
+      <c r="AN221">
+        <v>1.35</v>
+      </c>
+      <c r="AO221">
+        <v>1.3</v>
+      </c>
+      <c r="AP221">
+        <v>1.7</v>
+      </c>
+      <c r="AQ221">
+        <v>1.33</v>
+      </c>
+      <c r="AR221">
+        <v>1.44</v>
+      </c>
+      <c r="AS221">
+        <v>1.2</v>
+      </c>
+      <c r="AT221">
+        <v>1.6</v>
+      </c>
+      <c r="AU221">
+        <v>1.45</v>
+      </c>
+      <c r="AV221">
+        <v>1.19</v>
+      </c>
+      <c r="AW221">
+        <v>2.64</v>
+      </c>
+      <c r="AX221">
+        <v>2.09</v>
+      </c>
+      <c r="AY221">
+        <v>7.5</v>
+      </c>
+      <c r="AZ221">
+        <v>2.1</v>
+      </c>
+      <c r="BA221">
+        <v>1.26</v>
+      </c>
+      <c r="BB221">
+        <v>1.5</v>
+      </c>
+      <c r="BC221">
+        <v>1.9</v>
+      </c>
+      <c r="BD221">
+        <v>2.45</v>
+      </c>
+      <c r="BE221">
+        <v>3.34</v>
+      </c>
+      <c r="BF221">
+        <v>7</v>
+      </c>
+      <c r="BG221">
+        <v>6</v>
+      </c>
+      <c r="BH221">
+        <v>9</v>
+      </c>
+      <c r="BI221">
+        <v>12</v>
+      </c>
+      <c r="BJ221">
+        <v>16</v>
+      </c>
+      <c r="BK221">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>2580877</v>
+      </c>
+      <c r="C222" t="s">
+        <v>63</v>
+      </c>
+      <c r="D222" t="s">
+        <v>64</v>
+      </c>
+      <c r="E222" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F222">
+        <v>19</v>
+      </c>
+      <c r="G222" t="s">
+        <v>82</v>
+      </c>
+      <c r="H222" t="s">
+        <v>79</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>2</v>
+      </c>
+      <c r="O222" t="s">
+        <v>178</v>
+      </c>
+      <c r="P222" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q222">
+        <v>4</v>
+      </c>
+      <c r="R222">
+        <v>5</v>
+      </c>
+      <c r="S222">
+        <v>9</v>
+      </c>
+      <c r="T222">
+        <v>3.75</v>
+      </c>
+      <c r="U222">
+        <v>2</v>
+      </c>
+      <c r="V222">
+        <v>3.1</v>
+      </c>
+      <c r="W222">
+        <v>1.5</v>
+      </c>
+      <c r="X222">
+        <v>2.5</v>
+      </c>
+      <c r="Y222">
+        <v>3.4</v>
+      </c>
+      <c r="Z222">
+        <v>1.3</v>
+      </c>
+      <c r="AA222">
+        <v>10</v>
+      </c>
+      <c r="AB222">
+        <v>1.06</v>
+      </c>
+      <c r="AC222">
+        <v>2.8</v>
+      </c>
+      <c r="AD222">
+        <v>3.25</v>
+      </c>
+      <c r="AE222">
+        <v>2.55</v>
+      </c>
+      <c r="AF222">
+        <v>1.07</v>
+      </c>
+      <c r="AG222">
+        <v>7</v>
+      </c>
+      <c r="AH222">
+        <v>1.4</v>
+      </c>
+      <c r="AI222">
+        <v>2.7</v>
+      </c>
+      <c r="AJ222">
+        <v>2.25</v>
+      </c>
+      <c r="AK222">
+        <v>1.65</v>
+      </c>
+      <c r="AL222">
+        <v>1.91</v>
+      </c>
+      <c r="AM222">
+        <v>1.8</v>
+      </c>
+      <c r="AN222">
+        <v>1.57</v>
+      </c>
+      <c r="AO222">
+        <v>1.33</v>
+      </c>
+      <c r="AP222">
+        <v>1.4</v>
+      </c>
+      <c r="AQ222">
+        <v>0.88</v>
+      </c>
+      <c r="AR222">
+        <v>1.67</v>
+      </c>
+      <c r="AS222">
+        <v>0.89</v>
+      </c>
+      <c r="AT222">
+        <v>1.6</v>
+      </c>
+      <c r="AU222">
+        <v>1.56</v>
+      </c>
+      <c r="AV222">
+        <v>1.63</v>
+      </c>
+      <c r="AW222">
+        <v>3.19</v>
+      </c>
+      <c r="AX222">
+        <v>2.25</v>
+      </c>
+      <c r="AY222">
+        <v>7.7</v>
+      </c>
+      <c r="AZ222">
+        <v>1.95</v>
+      </c>
+      <c r="BA222">
+        <v>1.21</v>
+      </c>
+      <c r="BB222">
+        <v>1.42</v>
+      </c>
+      <c r="BC222">
+        <v>1.76</v>
+      </c>
+      <c r="BD222">
+        <v>2.22</v>
+      </c>
+      <c r="BE222">
+        <v>2.93</v>
+      </c>
+      <c r="BF222">
+        <v>7</v>
+      </c>
+      <c r="BG222">
+        <v>5</v>
+      </c>
+      <c r="BH222">
+        <v>11</v>
+      </c>
+      <c r="BI222">
+        <v>9</v>
+      </c>
+      <c r="BJ222">
+        <v>18</v>
+      </c>
+      <c r="BK222">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>2580878</v>
+      </c>
+      <c r="C223" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F223">
+        <v>19</v>
+      </c>
+      <c r="G223" t="s">
+        <v>73</v>
+      </c>
+      <c r="H223" t="s">
+        <v>81</v>
+      </c>
+      <c r="I223">
+        <v>3</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>3</v>
+      </c>
+      <c r="L223">
+        <v>3</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>3</v>
+      </c>
+      <c r="O223" t="s">
+        <v>229</v>
+      </c>
+      <c r="P223" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q223">
+        <v>4</v>
+      </c>
+      <c r="R223">
+        <v>9</v>
+      </c>
+      <c r="S223">
+        <v>13</v>
+      </c>
+      <c r="T223">
+        <v>4.5</v>
+      </c>
+      <c r="U223">
+        <v>2.2</v>
+      </c>
+      <c r="V223">
+        <v>2.5</v>
+      </c>
+      <c r="W223">
+        <v>1.4</v>
+      </c>
+      <c r="X223">
+        <v>2.75</v>
+      </c>
+      <c r="Y223">
+        <v>2.75</v>
+      </c>
+      <c r="Z223">
+        <v>1.4</v>
+      </c>
+      <c r="AA223">
+        <v>8</v>
+      </c>
+      <c r="AB223">
+        <v>1.08</v>
+      </c>
+      <c r="AC223">
+        <v>3.75</v>
+      </c>
+      <c r="AD223">
+        <v>3.6</v>
+      </c>
+      <c r="AE223">
+        <v>1.95</v>
+      </c>
+      <c r="AF223">
+        <v>1.04</v>
+      </c>
+      <c r="AG223">
+        <v>12</v>
+      </c>
+      <c r="AH223">
+        <v>1.29</v>
+      </c>
+      <c r="AI223">
+        <v>3.3</v>
+      </c>
+      <c r="AJ223">
+        <v>1.9</v>
+      </c>
+      <c r="AK223">
+        <v>1.9</v>
+      </c>
+      <c r="AL223">
+        <v>1.8</v>
+      </c>
+      <c r="AM223">
+        <v>1.91</v>
+      </c>
+      <c r="AN223">
+        <v>1.83</v>
+      </c>
+      <c r="AO223">
+        <v>1.3</v>
+      </c>
+      <c r="AP223">
+        <v>1.29</v>
+      </c>
+      <c r="AQ223">
+        <v>1</v>
+      </c>
+      <c r="AR223">
+        <v>1.67</v>
+      </c>
+      <c r="AS223">
+        <v>1.2</v>
+      </c>
+      <c r="AT223">
+        <v>1.5</v>
+      </c>
+      <c r="AU223">
+        <v>1.61</v>
+      </c>
+      <c r="AV223">
+        <v>1.48</v>
+      </c>
+      <c r="AW223">
+        <v>3.09</v>
+      </c>
+      <c r="AX223">
+        <v>3.92</v>
+      </c>
+      <c r="AY223">
+        <v>8.9</v>
+      </c>
+      <c r="AZ223">
+        <v>1.39</v>
+      </c>
+      <c r="BA223">
+        <v>1.2</v>
+      </c>
+      <c r="BB223">
+        <v>1.42</v>
+      </c>
+      <c r="BC223">
+        <v>1.76</v>
+      </c>
+      <c r="BD223">
+        <v>2.22</v>
+      </c>
+      <c r="BE223">
+        <v>2.93</v>
+      </c>
+      <c r="BF223">
+        <v>4</v>
+      </c>
+      <c r="BG223">
+        <v>5</v>
+      </c>
+      <c r="BH223">
+        <v>8</v>
+      </c>
+      <c r="BI223">
+        <v>12</v>
+      </c>
+      <c r="BJ223">
+        <v>12</v>
+      </c>
+      <c r="BK223">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>2580876</v>
+      </c>
+      <c r="C224" t="s">
+        <v>63</v>
+      </c>
+      <c r="D224" t="s">
+        <v>64</v>
+      </c>
+      <c r="E224" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F224">
+        <v>19</v>
+      </c>
+      <c r="G224" t="s">
+        <v>86</v>
+      </c>
+      <c r="H224" t="s">
+        <v>84</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>3</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>3</v>
+      </c>
+      <c r="O224" t="s">
+        <v>230</v>
+      </c>
+      <c r="P224" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q224">
+        <v>9</v>
+      </c>
+      <c r="R224">
+        <v>6</v>
+      </c>
+      <c r="S224">
+        <v>15</v>
+      </c>
+      <c r="T224">
+        <v>3</v>
+      </c>
+      <c r="U224">
+        <v>2.05</v>
+      </c>
+      <c r="V224">
+        <v>3.75</v>
+      </c>
+      <c r="W224">
+        <v>1.44</v>
+      </c>
+      <c r="X224">
+        <v>2.63</v>
+      </c>
+      <c r="Y224">
+        <v>3.25</v>
+      </c>
+      <c r="Z224">
+        <v>1.33</v>
+      </c>
+      <c r="AA224">
+        <v>10</v>
+      </c>
+      <c r="AB224">
+        <v>1.06</v>
+      </c>
+      <c r="AC224">
+        <v>2.3</v>
+      </c>
+      <c r="AD224">
+        <v>3.3</v>
+      </c>
+      <c r="AE224">
+        <v>3.1</v>
+      </c>
+      <c r="AF224">
+        <v>1.06</v>
+      </c>
+      <c r="AG224">
+        <v>7.5</v>
+      </c>
+      <c r="AH224">
+        <v>1.36</v>
+      </c>
+      <c r="AI224">
+        <v>2.9</v>
+      </c>
+      <c r="AJ224">
+        <v>2.1</v>
+      </c>
+      <c r="AK224">
+        <v>1.72</v>
+      </c>
+      <c r="AL224">
+        <v>1.83</v>
+      </c>
+      <c r="AM224">
+        <v>1.83</v>
+      </c>
+      <c r="AN224">
+        <v>1.4</v>
+      </c>
+      <c r="AO224">
+        <v>1.33</v>
+      </c>
+      <c r="AP224">
+        <v>1.57</v>
+      </c>
+      <c r="AQ224">
+        <v>1.11</v>
+      </c>
+      <c r="AR224">
+        <v>1.33</v>
+      </c>
+      <c r="AS224">
+        <v>1.3</v>
+      </c>
+      <c r="AT224">
+        <v>1.2</v>
+      </c>
+      <c r="AU224">
+        <v>1.13</v>
+      </c>
+      <c r="AV224">
+        <v>1.18</v>
+      </c>
+      <c r="AW224">
+        <v>2.31</v>
+      </c>
+      <c r="AX224">
+        <v>1.68</v>
+      </c>
+      <c r="AY224">
+        <v>7.9</v>
+      </c>
+      <c r="AZ224">
+        <v>2.74</v>
+      </c>
+      <c r="BA224">
+        <v>1.22</v>
+      </c>
+      <c r="BB224">
+        <v>1.45</v>
+      </c>
+      <c r="BC224">
+        <v>1.81</v>
+      </c>
+      <c r="BD224">
+        <v>2.3</v>
+      </c>
+      <c r="BE224">
+        <v>3.08</v>
+      </c>
+      <c r="BF224">
+        <v>4</v>
+      </c>
+      <c r="BG224">
+        <v>0</v>
+      </c>
+      <c r="BH224">
+        <v>8</v>
+      </c>
+      <c r="BI224">
+        <v>10</v>
+      </c>
+      <c r="BJ224">
+        <v>12</v>
+      </c>
+      <c r="BK224">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:63">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>2580875</v>
+      </c>
+      <c r="C225" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>64</v>
+      </c>
+      <c r="E225" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F225">
+        <v>19</v>
+      </c>
+      <c r="G225" t="s">
+        <v>75</v>
+      </c>
+      <c r="H225" t="s">
+        <v>76</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>2</v>
+      </c>
+      <c r="K225">
+        <v>2</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>3</v>
+      </c>
+      <c r="N225">
+        <v>4</v>
+      </c>
+      <c r="O225" t="s">
+        <v>231</v>
+      </c>
+      <c r="P225" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q225">
+        <v>3</v>
+      </c>
+      <c r="R225">
+        <v>4</v>
+      </c>
+      <c r="S225">
+        <v>7</v>
+      </c>
+      <c r="T225">
+        <v>2.88</v>
+      </c>
+      <c r="U225">
+        <v>2.05</v>
+      </c>
+      <c r="V225">
+        <v>4</v>
+      </c>
+      <c r="W225">
+        <v>1.5</v>
+      </c>
+      <c r="X225">
+        <v>2.5</v>
+      </c>
+      <c r="Y225">
+        <v>3.4</v>
+      </c>
+      <c r="Z225">
+        <v>1.3</v>
+      </c>
+      <c r="AA225">
+        <v>10</v>
+      </c>
+      <c r="AB225">
+        <v>1.06</v>
+      </c>
+      <c r="AC225">
+        <v>2.1</v>
+      </c>
+      <c r="AD225">
+        <v>3.4</v>
+      </c>
+      <c r="AE225">
+        <v>3.4</v>
+      </c>
+      <c r="AF225">
+        <v>1.06</v>
+      </c>
+      <c r="AG225">
+        <v>7</v>
+      </c>
+      <c r="AH225">
+        <v>1.37</v>
+      </c>
+      <c r="AI225">
+        <v>2.8</v>
+      </c>
+      <c r="AJ225">
+        <v>2.15</v>
+      </c>
+      <c r="AK225">
+        <v>1.7</v>
+      </c>
+      <c r="AL225">
+        <v>1.91</v>
+      </c>
+      <c r="AM225">
+        <v>1.8</v>
+      </c>
+      <c r="AN225">
+        <v>1.35</v>
+      </c>
+      <c r="AO225">
+        <v>1.3</v>
+      </c>
+      <c r="AP225">
+        <v>1.7</v>
+      </c>
+      <c r="AQ225">
+        <v>1.56</v>
+      </c>
+      <c r="AR225">
+        <v>2</v>
+      </c>
+      <c r="AS225">
+        <v>1.4</v>
+      </c>
+      <c r="AT225">
+        <v>2.1</v>
+      </c>
+      <c r="AU225">
+        <v>1.44</v>
+      </c>
+      <c r="AV225">
+        <v>1.29</v>
+      </c>
+      <c r="AW225">
+        <v>2.73</v>
+      </c>
+      <c r="AX225">
+        <v>1.7</v>
+      </c>
+      <c r="AY225">
+        <v>7.9</v>
+      </c>
+      <c r="AZ225">
+        <v>2.68</v>
+      </c>
+      <c r="BA225">
+        <v>1.2</v>
+      </c>
+      <c r="BB225">
+        <v>1.4</v>
+      </c>
+      <c r="BC225">
+        <v>1.74</v>
+      </c>
+      <c r="BD225">
+        <v>2.19</v>
+      </c>
+      <c r="BE225">
+        <v>2.88</v>
+      </c>
+      <c r="BF225">
+        <v>2</v>
+      </c>
+      <c r="BG225">
+        <v>7</v>
+      </c>
+      <c r="BH225">
+        <v>11</v>
+      </c>
+      <c r="BI225">
+        <v>9</v>
+      </c>
+      <c r="BJ225">
+        <v>13</v>
+      </c>
+      <c r="BK225">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:63">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>2580874</v>
+      </c>
+      <c r="C226" t="s">
+        <v>63</v>
+      </c>
+      <c r="D226" t="s">
+        <v>64</v>
+      </c>
+      <c r="E226" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F226">
+        <v>19</v>
+      </c>
+      <c r="G226" t="s">
+        <v>87</v>
+      </c>
+      <c r="H226" t="s">
+        <v>77</v>
+      </c>
+      <c r="I226">
+        <v>3</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>3</v>
+      </c>
+      <c r="L226">
+        <v>3</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+      <c r="N226">
+        <v>4</v>
+      </c>
+      <c r="O226" t="s">
+        <v>232</v>
+      </c>
+      <c r="P226" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q226">
+        <v>2</v>
+      </c>
+      <c r="R226">
+        <v>2</v>
+      </c>
+      <c r="S226">
+        <v>4</v>
+      </c>
+      <c r="T226">
+        <v>2.25</v>
+      </c>
+      <c r="U226">
+        <v>2.2</v>
+      </c>
+      <c r="V226">
+        <v>6</v>
+      </c>
+      <c r="W226">
+        <v>1.4</v>
+      </c>
+      <c r="X226">
+        <v>2.75</v>
+      </c>
+      <c r="Y226">
+        <v>3</v>
+      </c>
+      <c r="Z226">
+        <v>1.36</v>
+      </c>
+      <c r="AA226">
+        <v>9</v>
+      </c>
+      <c r="AB226">
+        <v>1.07</v>
+      </c>
+      <c r="AC226">
+        <v>1.68</v>
+      </c>
+      <c r="AD226">
+        <v>3.75</v>
+      </c>
+      <c r="AE226">
+        <v>5</v>
+      </c>
+      <c r="AF226">
+        <v>1.05</v>
+      </c>
+      <c r="AG226">
+        <v>8</v>
+      </c>
+      <c r="AH226">
+        <v>1.33</v>
+      </c>
+      <c r="AI226">
+        <v>3</v>
+      </c>
+      <c r="AJ226">
+        <v>2.1</v>
+      </c>
+      <c r="AK226">
+        <v>1.75</v>
+      </c>
+      <c r="AL226">
+        <v>2</v>
+      </c>
+      <c r="AM226">
+        <v>1.73</v>
+      </c>
+      <c r="AN226">
+        <v>1.17</v>
+      </c>
+      <c r="AO226">
+        <v>1.25</v>
+      </c>
+      <c r="AP226">
+        <v>2.25</v>
+      </c>
+      <c r="AQ226">
+        <v>2.33</v>
+      </c>
+      <c r="AR226">
+        <v>0.22</v>
+      </c>
+      <c r="AS226">
+        <v>2.4</v>
+      </c>
+      <c r="AT226">
+        <v>0.2</v>
+      </c>
+      <c r="AU226">
+        <v>1.58</v>
+      </c>
+      <c r="AV226">
+        <v>1.07</v>
+      </c>
+      <c r="AW226">
+        <v>2.65</v>
+      </c>
+      <c r="AX226">
+        <v>1.33</v>
+      </c>
+      <c r="AY226">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ226">
+        <v>4.4</v>
+      </c>
+      <c r="BA226">
+        <v>1.22</v>
+      </c>
+      <c r="BB226">
+        <v>1.44</v>
+      </c>
+      <c r="BC226">
+        <v>1.79</v>
+      </c>
+      <c r="BD226">
+        <v>2.28</v>
+      </c>
+      <c r="BE226">
+        <v>3.04</v>
+      </c>
+      <c r="BF226">
+        <v>6</v>
+      </c>
+      <c r="BG226">
+        <v>5</v>
+      </c>
+      <c r="BH226">
+        <v>5</v>
+      </c>
+      <c r="BI226">
+        <v>5</v>
+      </c>
+      <c r="BJ226">
+        <v>11</v>
+      </c>
+      <c r="BK226">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:63">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>2580879</v>
+      </c>
+      <c r="C227" t="s">
+        <v>63</v>
+      </c>
+      <c r="D227" t="s">
+        <v>64</v>
+      </c>
+      <c r="E227" s="2">
+        <v>44884.5</v>
+      </c>
+      <c r="F227">
+        <v>19</v>
+      </c>
+      <c r="G227" t="s">
+        <v>80</v>
+      </c>
+      <c r="H227" t="s">
+        <v>88</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>2</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>2</v>
+      </c>
+      <c r="O227" t="s">
+        <v>233</v>
+      </c>
+      <c r="P227" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q227">
+        <v>7</v>
+      </c>
+      <c r="R227">
+        <v>2</v>
+      </c>
+      <c r="S227">
+        <v>9</v>
+      </c>
+      <c r="T227">
+        <v>2.63</v>
+      </c>
+      <c r="U227">
+        <v>2.05</v>
+      </c>
+      <c r="V227">
+        <v>4.75</v>
+      </c>
+      <c r="W227">
+        <v>1.5</v>
+      </c>
+      <c r="X227">
+        <v>2.5</v>
+      </c>
+      <c r="Y227">
+        <v>3.4</v>
+      </c>
+      <c r="Z227">
+        <v>1.3</v>
+      </c>
+      <c r="AA227">
+        <v>10</v>
+      </c>
+      <c r="AB227">
+        <v>1.06</v>
+      </c>
+      <c r="AC227">
+        <v>1.95</v>
+      </c>
+      <c r="AD227">
+        <v>3.4</v>
+      </c>
+      <c r="AE227">
+        <v>4</v>
+      </c>
+      <c r="AF227">
+        <v>1.08</v>
+      </c>
+      <c r="AG227">
+        <v>6.5</v>
+      </c>
+      <c r="AH227">
+        <v>1.43</v>
+      </c>
+      <c r="AI227">
+        <v>2.63</v>
+      </c>
+      <c r="AJ227">
+        <v>2.3</v>
+      </c>
+      <c r="AK227">
+        <v>1.6</v>
+      </c>
+      <c r="AL227">
+        <v>2.1</v>
+      </c>
+      <c r="AM227">
+        <v>1.67</v>
+      </c>
+      <c r="AN227">
+        <v>1.22</v>
+      </c>
+      <c r="AO227">
+        <v>1.25</v>
+      </c>
+      <c r="AP227">
+        <v>1.87</v>
+      </c>
+      <c r="AQ227">
+        <v>0.78</v>
+      </c>
+      <c r="AR227">
+        <v>0.38</v>
+      </c>
+      <c r="AS227">
+        <v>1</v>
+      </c>
+      <c r="AT227">
+        <v>0.33</v>
+      </c>
+      <c r="AU227">
+        <v>1.29</v>
+      </c>
+      <c r="AV227">
+        <v>1.02</v>
+      </c>
+      <c r="AW227">
+        <v>2.31</v>
+      </c>
+      <c r="AX227">
+        <v>1.55</v>
+      </c>
+      <c r="AY227">
+        <v>8</v>
+      </c>
+      <c r="AZ227">
+        <v>3.15</v>
+      </c>
+      <c r="BA227">
+        <v>1.32</v>
+      </c>
+      <c r="BB227">
+        <v>1.62</v>
+      </c>
+      <c r="BC227">
+        <v>2.1</v>
+      </c>
+      <c r="BD227">
+        <v>2.77</v>
+      </c>
+      <c r="BE227">
+        <v>3.86</v>
+      </c>
+      <c r="BF227">
+        <v>4</v>
+      </c>
+      <c r="BG227">
+        <v>0</v>
+      </c>
+      <c r="BH227">
+        <v>6</v>
+      </c>
+      <c r="BI227">
+        <v>15</v>
+      </c>
+      <c r="BJ227">
+        <v>10</v>
+      </c>
+      <c r="BK227">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK228"/>
+  <dimension ref="A1:BK240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT2" t="n">
         <v>0.4</v>
@@ -1512,7 +1512,7 @@
         <v>1.7</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT7" t="n">
         <v>1.11</v>
@@ -2121,7 +2121,7 @@
         <v>1.5</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.2</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT11" t="n">
         <v>0.5</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>1.2</v>
@@ -3542,7 +3542,7 @@
         <v>1.8</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT20" t="n">
         <v>2.3</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>2.4</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
         <v>0.8</v>
@@ -6384,7 +6384,7 @@
         <v>1.7</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>1.47</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU30" t="n">
         <v>1.34</v>
@@ -6790,7 +6790,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU31" t="n">
         <v>1.58</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT32" t="n">
         <v>1.5</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT34" t="n">
         <v>0.2</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU35" t="n">
         <v>2.39</v>
@@ -7805,7 +7805,7 @@
         <v>1.4</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU36" t="n">
         <v>2.46</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT37" t="n">
         <v>1.2</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT39" t="n">
         <v>0.8</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU40" t="n">
         <v>1.11</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT41" t="n">
         <v>1.2</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU42" t="n">
         <v>1.39</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU43" t="n">
         <v>0.76</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU44" t="n">
         <v>1.61</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU45" t="n">
         <v>0.74</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT46" t="n">
         <v>2.1</v>
@@ -10038,7 +10038,7 @@
         <v>1.3</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU47" t="n">
         <v>1.27</v>
@@ -10241,7 +10241,7 @@
         <v>2.4</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.63</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU49" t="n">
         <v>1.19</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT51" t="n">
         <v>1.6</v>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU52" t="n">
         <v>1.18</v>
@@ -11253,10 +11253,10 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU53" t="n">
         <v>1.89</v>
@@ -11459,7 +11459,7 @@
         <v>0.89</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU54" t="n">
         <v>2.59</v>
@@ -11659,10 +11659,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.6</v>
@@ -11862,10 +11862,10 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU56" t="n">
         <v>1.57</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT57" t="n">
         <v>2.1</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT58" t="n">
         <v>1.2</v>
@@ -12677,7 +12677,7 @@
         <v>2.4</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU60" t="n">
         <v>1.6</v>
@@ -13083,7 +13083,7 @@
         <v>1.4</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.32</v>
@@ -13489,7 +13489,7 @@
         <v>1.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU64" t="n">
         <v>2</v>
@@ -13692,7 +13692,7 @@
         <v>2</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU65" t="n">
         <v>1.65</v>
@@ -13892,7 +13892,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT66" t="n">
         <v>0.5</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT67" t="n">
         <v>1.2</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT68" t="n">
         <v>0.2</v>
@@ -14504,7 +14504,7 @@
         <v>1.2</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU69" t="n">
         <v>1.76</v>
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT70" t="n">
         <v>0.4</v>
@@ -15110,10 +15110,10 @@
         <v>1.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU72" t="n">
         <v>1.39</v>
@@ -15316,7 +15316,7 @@
         <v>1.7</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU73" t="n">
         <v>1.27</v>
@@ -15922,10 +15922,10 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU76" t="n">
         <v>1.56</v>
@@ -16125,10 +16125,10 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU77" t="n">
         <v>1.65</v>
@@ -16328,10 +16328,10 @@
         <v>0.67</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU78" t="n">
         <v>1.39</v>
@@ -16534,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU79" t="n">
         <v>1.28</v>
@@ -16734,7 +16734,7 @@
         <v>1.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT80" t="n">
         <v>1.6</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT82" t="n">
         <v>0.8</v>
@@ -17346,7 +17346,7 @@
         <v>1.4</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.7</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT84" t="n">
         <v>1.5</v>
@@ -17955,7 +17955,7 @@
         <v>2</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU86" t="n">
         <v>1.57</v>
@@ -18158,7 +18158,7 @@
         <v>1.4</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU87" t="n">
         <v>1.35</v>
@@ -18361,7 +18361,7 @@
         <v>1.8</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU88" t="n">
         <v>1.35</v>
@@ -18561,10 +18561,10 @@
         <v>1.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT89" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU89" t="n">
         <v>1.95</v>
@@ -18764,7 +18764,7 @@
         <v>2.33</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT90" t="n">
         <v>2.3</v>
@@ -18967,7 +18967,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT91" t="n">
         <v>1.6</v>
@@ -19170,7 +19170,7 @@
         <v>1.33</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT92" t="n">
         <v>1.11</v>
@@ -19376,7 +19376,7 @@
         <v>1.2</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU93" t="n">
         <v>1.44</v>
@@ -19779,7 +19779,7 @@
         <v>1.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT95" t="n">
         <v>2.1</v>
@@ -19982,10 +19982,10 @@
         <v>0</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU96" t="n">
         <v>0.79</v>
@@ -20185,10 +20185,10 @@
         <v>0.75</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU97" t="n">
         <v>1.52</v>
@@ -20388,7 +20388,7 @@
         <v>0.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT98" t="n">
         <v>1.5</v>
@@ -20591,7 +20591,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT99" t="n">
         <v>0.8</v>
@@ -20794,7 +20794,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT100" t="n">
         <v>0.5</v>
@@ -21000,7 +21000,7 @@
         <v>1.3</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU101" t="n">
         <v>1.24</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT102" t="n">
         <v>1.2</v>
@@ -21609,7 +21609,7 @@
         <v>1.2</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU104" t="n">
         <v>1.64</v>
@@ -21812,7 +21812,7 @@
         <v>1.5</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU105" t="n">
         <v>1.98</v>
@@ -22012,10 +22012,10 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU106" t="n">
         <v>1.64</v>
@@ -22421,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU108" t="n">
         <v>1.28</v>
@@ -22621,10 +22621,10 @@
         <v>0</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU109" t="n">
         <v>1.55</v>
@@ -23230,7 +23230,7 @@
         <v>1.2</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT112" t="n">
         <v>1.5</v>
@@ -23433,7 +23433,7 @@
         <v>0.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT113" t="n">
         <v>0.5</v>
@@ -23639,7 +23639,7 @@
         <v>0.89</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU114" t="n">
         <v>1.79</v>
@@ -23839,7 +23839,7 @@
         <v>0.25</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT115" t="n">
         <v>0.4</v>
@@ -24451,7 +24451,7 @@
         <v>2</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU118" t="n">
         <v>1.49</v>
@@ -24651,10 +24651,10 @@
         <v>0.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU119" t="n">
         <v>1.82</v>
@@ -24857,7 +24857,7 @@
         <v>1.7</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU120" t="n">
         <v>1.54</v>
@@ -25260,7 +25260,7 @@
         <v>0.2</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT122" t="n">
         <v>0.2</v>
@@ -25466,7 +25466,7 @@
         <v>1.2</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU123" t="n">
         <v>1.48</v>
@@ -25669,7 +25669,7 @@
         <v>1.4</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU124" t="n">
         <v>1.31</v>
@@ -26075,7 +26075,7 @@
         <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU126" t="n">
         <v>1.87</v>
@@ -26278,7 +26278,7 @@
         <v>1.2</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU127" t="n">
         <v>1.51</v>
@@ -26478,7 +26478,7 @@
         <v>1.25</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT128" t="n">
         <v>1.2</v>
@@ -26681,10 +26681,10 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT129" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU129" t="n">
         <v>1.56</v>
@@ -26884,10 +26884,10 @@
         <v>0.25</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU130" t="n">
         <v>1.2</v>
@@ -27087,7 +27087,7 @@
         <v>1.25</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT131" t="n">
         <v>1.11</v>
@@ -27290,10 +27290,10 @@
         <v>0.25</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU132" t="n">
         <v>1.31</v>
@@ -27493,7 +27493,7 @@
         <v>1.4</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT133" t="n">
         <v>1.6</v>
@@ -27699,7 +27699,7 @@
         <v>1.8</v>
       </c>
       <c r="AT134" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU134" t="n">
         <v>1.47</v>
@@ -27899,10 +27899,10 @@
         <v>0.2</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU135" t="n">
         <v>1.95</v>
@@ -28102,7 +28102,7 @@
         <v>1.6</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT136" t="n">
         <v>1.2</v>
@@ -28711,7 +28711,7 @@
         <v>2.6</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT139" t="n">
         <v>2.3</v>
@@ -28914,7 +28914,7 @@
         <v>0.4</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT140" t="n">
         <v>0.4</v>
@@ -29120,7 +29120,7 @@
         <v>1.3</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU141" t="n">
         <v>1.13</v>
@@ -29323,7 +29323,7 @@
         <v>1.4</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU142" t="n">
         <v>1.41</v>
@@ -29726,7 +29726,7 @@
         <v>1.2</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT144" t="n">
         <v>1.6</v>
@@ -30132,10 +30132,10 @@
         <v>1.5</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU146" t="n">
         <v>1.88</v>
@@ -30338,7 +30338,7 @@
         <v>1.7</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU147" t="n">
         <v>1.51</v>
@@ -30741,10 +30741,10 @@
         <v>2</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU149" t="n">
         <v>1.48</v>
@@ -31350,10 +31350,10 @@
         <v>0.83</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU152" t="n">
         <v>1.77</v>
@@ -31553,10 +31553,10 @@
         <v>1.5</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU153" t="n">
         <v>1.33</v>
@@ -31756,7 +31756,7 @@
         <v>1.83</v>
       </c>
       <c r="AS154" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT154" t="n">
         <v>2.1</v>
@@ -31962,7 +31962,7 @@
         <v>1.2</v>
       </c>
       <c r="AT155" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU155" t="n">
         <v>1.54</v>
@@ -32165,7 +32165,7 @@
         <v>1.5</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU156" t="n">
         <v>1.91</v>
@@ -32368,7 +32368,7 @@
         <v>1.8</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU157" t="n">
         <v>1.59</v>
@@ -32568,7 +32568,7 @@
         <v>1.67</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT158" t="n">
         <v>1.6</v>
@@ -32771,10 +32771,10 @@
         <v>1.17</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT159" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU159" t="n">
         <v>1.02</v>
@@ -32974,7 +32974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT160" t="n">
         <v>1.2</v>
@@ -33177,10 +33177,10 @@
         <v>0.17</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU161" t="n">
         <v>1.33</v>
@@ -33586,7 +33586,7 @@
         <v>1.7</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU163" t="n">
         <v>1.47</v>
@@ -33786,7 +33786,7 @@
         <v>1.71</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT164" t="n">
         <v>2.1</v>
@@ -33992,7 +33992,7 @@
         <v>1.2</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU165" t="n">
         <v>1.44</v>
@@ -34192,7 +34192,7 @@
         <v>0.71</v>
       </c>
       <c r="AS166" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT166" t="n">
         <v>1.2</v>
@@ -34398,7 +34398,7 @@
         <v>1</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU167" t="n">
         <v>1.32</v>
@@ -34601,7 +34601,7 @@
         <v>1.2</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU168" t="n">
         <v>1.59</v>
@@ -34804,7 +34804,7 @@
         <v>0.89</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU169" t="n">
         <v>1.65</v>
@@ -35004,7 +35004,7 @@
         <v>1.14</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT170" t="n">
         <v>1.2</v>
@@ -35207,10 +35207,10 @@
         <v>1.29</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU171" t="n">
         <v>1.22</v>
@@ -35410,7 +35410,7 @@
         <v>2.33</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT172" t="n">
         <v>2.3</v>
@@ -35613,7 +35613,7 @@
         <v>1.71</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT173" t="n">
         <v>1.5</v>
@@ -35819,7 +35819,7 @@
         <v>1.4</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU174" t="n">
         <v>1.32</v>
@@ -36019,7 +36019,7 @@
         <v>1.57</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT175" t="n">
         <v>1.6</v>
@@ -36225,7 +36225,7 @@
         <v>2</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU176" t="n">
         <v>1.41</v>
@@ -36831,10 +36831,10 @@
         <v>2.17</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU179" t="n">
         <v>1.33</v>
@@ -37034,10 +37034,10 @@
         <v>0.57</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU180" t="n">
         <v>1.5</v>
@@ -37237,10 +37237,10 @@
         <v>1</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT181" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU181" t="n">
         <v>1.76</v>
@@ -37440,7 +37440,7 @@
         <v>0.5</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT182" t="n">
         <v>0.4</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT183" t="n">
         <v>1.11</v>
@@ -37849,7 +37849,7 @@
         <v>2.4</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU184" t="n">
         <v>1.6</v>
@@ -38252,10 +38252,10 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AT186" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU186" t="n">
         <v>1.44</v>
@@ -38455,7 +38455,7 @@
         <v>0.43</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT187" t="n">
         <v>0.4</v>
@@ -38658,10 +38658,10 @@
         <v>2</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU188" t="n">
         <v>1.37</v>
@@ -38861,10 +38861,10 @@
         <v>2.29</v>
       </c>
       <c r="AS189" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU189" t="n">
         <v>1.64</v>
@@ -39064,10 +39064,10 @@
         <v>1.25</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU190" t="n">
         <v>1.61</v>
@@ -39270,7 +39270,7 @@
         <v>1.5</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AU191" t="n">
         <v>1.85</v>
@@ -39876,10 +39876,10 @@
         <v>0.5</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU194" t="n">
         <v>1.29</v>
@@ -40691,7 +40691,7 @@
         <v>1.4</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU198" t="n">
         <v>1.5</v>
@@ -40894,7 +40894,7 @@
         <v>2.4</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU199" t="n">
         <v>1.6</v>
@@ -41297,10 +41297,10 @@
         <v>1.86</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT201" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU201" t="n">
         <v>1.64</v>
@@ -41500,10 +41500,10 @@
         <v>2</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU202" t="n">
         <v>1.33</v>
@@ -41703,7 +41703,7 @@
         <v>2.43</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT203" t="n">
         <v>2.3</v>
@@ -41909,7 +41909,7 @@
         <v>1.8</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AU204" t="n">
         <v>1.68</v>
@@ -42112,7 +42112,7 @@
         <v>1.7</v>
       </c>
       <c r="AT205" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU205" t="n">
         <v>1.52</v>
@@ -42515,7 +42515,7 @@
         <v>1.5</v>
       </c>
       <c r="AS207" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT207" t="n">
         <v>1.5</v>
@@ -42721,7 +42721,7 @@
         <v>1</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU208" t="n">
         <v>1.29</v>
@@ -43124,7 +43124,7 @@
         <v>0.25</v>
       </c>
       <c r="AS210" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AT210" t="n">
         <v>0.2</v>
@@ -43327,7 +43327,7 @@
         <v>1.88</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT211" t="n">
         <v>2.1</v>
@@ -43530,10 +43530,10 @@
         <v>0.13</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AU212" t="n">
         <v>1.26</v>
@@ -43733,10 +43733,10 @@
         <v>1.25</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU213" t="n">
         <v>1.12</v>
@@ -43936,10 +43936,10 @@
         <v>0.75</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AU214" t="n">
         <v>1.72</v>
@@ -46778,7 +46778,7 @@
         <v>0.33</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT228" t="n">
         <v>0.4</v>
@@ -46833,6 +46833,2442 @@
       </c>
       <c r="BK228" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2580897</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>44897.69791666666</v>
+      </c>
+      <c r="F229" t="n">
+        <v>20</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Barrow</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
+        <v>5</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>5</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['18', '50', '75', '78', '86']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>5</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2</v>
+      </c>
+      <c r="S229" t="n">
+        <v>7</v>
+      </c>
+      <c r="T229" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V229" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2580889</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>44897.69791666666</v>
+      </c>
+      <c r="F230" t="n">
+        <v>20</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Crewe Alexandra</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Newport County</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="n">
+        <v>2</v>
+      </c>
+      <c r="N230" t="n">
+        <v>3</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['62', '85']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>2</v>
+      </c>
+      <c r="R230" t="n">
+        <v>6</v>
+      </c>
+      <c r="S230" t="n">
+        <v>8</v>
+      </c>
+      <c r="T230" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U230" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2580890</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>44897.69791666666</v>
+      </c>
+      <c r="F231" t="n">
+        <v>20</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Walsall</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>2</v>
+      </c>
+      <c r="N231" t="n">
+        <v>2</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['52', '71']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>5</v>
+      </c>
+      <c r="R231" t="n">
+        <v>4</v>
+      </c>
+      <c r="S231" t="n">
+        <v>9</v>
+      </c>
+      <c r="T231" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2</v>
+      </c>
+      <c r="V231" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2580886</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>44898.39583333334</v>
+      </c>
+      <c r="F232" t="n">
+        <v>20</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Grimsby Town</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>5</v>
+      </c>
+      <c r="R232" t="n">
+        <v>4</v>
+      </c>
+      <c r="S232" t="n">
+        <v>9</v>
+      </c>
+      <c r="T232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2580891</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>44898.39583333334</v>
+      </c>
+      <c r="F233" t="n">
+        <v>20</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Gillingham</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Salford City</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>3</v>
+      </c>
+      <c r="N233" t="n">
+        <v>3</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['54', '61', '75']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>7</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2</v>
+      </c>
+      <c r="S233" t="n">
+        <v>9</v>
+      </c>
+      <c r="T233" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U233" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V233" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X233" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2580893</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>44898.39583333334</v>
+      </c>
+      <c r="F234" t="n">
+        <v>20</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>2</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>2</v>
+      </c>
+      <c r="L234" t="n">
+        <v>3</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>3</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['24', '32', '85']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>5</v>
+      </c>
+      <c r="R234" t="n">
+        <v>3</v>
+      </c>
+      <c r="S234" t="n">
+        <v>8</v>
+      </c>
+      <c r="T234" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U234" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V234" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X234" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2580887</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>44898.41666666666</v>
+      </c>
+      <c r="F235" t="n">
+        <v>20</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Carlisle United</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Sutton United</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>1</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
+      <c r="K235" t="n">
+        <v>2</v>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>2</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>8</v>
+      </c>
+      <c r="R235" t="n">
+        <v>8</v>
+      </c>
+      <c r="S235" t="n">
+        <v>16</v>
+      </c>
+      <c r="T235" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V235" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X235" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2580892</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>44898.5</v>
+      </c>
+      <c r="F236" t="n">
+        <v>20</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Hartlepool United</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>2</v>
+      </c>
+      <c r="K236" t="n">
+        <v>2</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>5</v>
+      </c>
+      <c r="N236" t="n">
+        <v>5</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['16', '20', '61', '67', '85']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>1</v>
+      </c>
+      <c r="R236" t="n">
+        <v>3</v>
+      </c>
+      <c r="S236" t="n">
+        <v>4</v>
+      </c>
+      <c r="T236" t="n">
+        <v>5</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V236" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X236" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2580894</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>44898.5</v>
+      </c>
+      <c r="F237" t="n">
+        <v>20</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Mansfield Town</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Colchester United</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="n">
+        <v>2</v>
+      </c>
+      <c r="L237" t="n">
+        <v>2</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="n">
+        <v>3</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['34', '90+2']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>1</v>
+      </c>
+      <c r="R237" t="n">
+        <v>2</v>
+      </c>
+      <c r="S237" t="n">
+        <v>3</v>
+      </c>
+      <c r="T237" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V237" t="n">
+        <v>5</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X237" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2580895</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>44898.5</v>
+      </c>
+      <c r="F238" t="n">
+        <v>20</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Tranmere Rovers</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>7</v>
+      </c>
+      <c r="R238" t="n">
+        <v>4</v>
+      </c>
+      <c r="S238" t="n">
+        <v>11</v>
+      </c>
+      <c r="T238" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2</v>
+      </c>
+      <c r="V238" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X238" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2580896</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>44898.5</v>
+      </c>
+      <c r="F239" t="n">
+        <v>20</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Harrogate Town</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="n">
+        <v>2</v>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="n">
+        <v>4</v>
+      </c>
+      <c r="N239" t="n">
+        <v>5</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['14', '53', '58', '70']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>6</v>
+      </c>
+      <c r="R239" t="n">
+        <v>5</v>
+      </c>
+      <c r="S239" t="n">
+        <v>11</v>
+      </c>
+      <c r="T239" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V239" t="n">
+        <v>4</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X239" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2580888</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>44898.5</v>
+      </c>
+      <c r="F240" t="n">
+        <v>20</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Crawley Town</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Swindon Town</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>2</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>2</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['79', '83']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>2</v>
+      </c>
+      <c r="R240" t="n">
+        <v>6</v>
+      </c>
+      <c r="S240" t="n">
+        <v>8</v>
+      </c>
+      <c r="T240" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V240" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X240" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -40953,7 +40953,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>2580738</v>
+        <v>2580734</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -40973,98 +40973,98 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>AFC Wimbledon</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Carlisle United</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200" t="n">
         <v>2</v>
       </c>
       <c r="L200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N200" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>['28', '60', '76']</t>
+          <t>['19', '35']</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>['12', '50', '90+3']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R200" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S200" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="T200" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="U200" t="n">
         <v>2.05</v>
       </c>
       <c r="V200" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="W200" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X200" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y200" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Z200" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA200" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB200" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC200" t="n">
-        <v>2.45</v>
+        <v>3.18</v>
       </c>
       <c r="AD200" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="AE200" t="n">
-        <v>3.09</v>
+        <v>2.34</v>
       </c>
       <c r="AF200" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG200" t="n">
-        <v>7.75</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="AH200" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AI200" t="n">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="AJ200" t="n">
         <v>2.05</v>
@@ -41073,82 +41073,82 @@
         <v>1.68</v>
       </c>
       <c r="AL200" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AM200" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AN200" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AO200" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AP200" t="n">
-        <v>1.66</v>
+        <v>1.42</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR200" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV200" t="n">
         <v>1.5</v>
       </c>
-      <c r="AS200" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AT200" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AU200" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AV200" t="n">
-        <v>1.15</v>
-      </c>
       <c r="AW200" t="n">
-        <v>2.69</v>
+        <v>2.83</v>
       </c>
       <c r="AX200" t="n">
         <v>2.1</v>
       </c>
       <c r="AY200" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ200" t="n">
         <v>1.91</v>
       </c>
       <c r="BA200" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BB200" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BC200" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BD200" t="n">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BE200" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="BF200" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BG200" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH200" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BI200" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BJ200" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="BK200" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201">
@@ -41156,7 +41156,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>2580740</v>
+        <v>2580738</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -41176,149 +41176,149 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Bradford City</t>
+          <t>Carlisle United</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="n">
         <v>1</v>
       </c>
       <c r="K201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L201" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M201" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N201" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>['69']</t>
+          <t>['28', '60', '76']</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>['30', '53']</t>
+          <t>['12', '50', '90+3']</t>
         </is>
       </c>
       <c r="Q201" t="n">
+        <v>6</v>
+      </c>
+      <c r="R201" t="n">
+        <v>8</v>
+      </c>
+      <c r="S201" t="n">
+        <v>14</v>
+      </c>
+      <c r="T201" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V201" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA201" t="n">
         <v>9</v>
       </c>
-      <c r="R201" t="n">
-        <v>1</v>
-      </c>
-      <c r="S201" t="n">
-        <v>10</v>
-      </c>
-      <c r="T201" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U201" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V201" t="n">
-        <v>4</v>
-      </c>
-      <c r="W201" t="n">
+      <c r="AB201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN201" t="n">
         <v>1.4</v>
       </c>
-      <c r="X201" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y201" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z201" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA201" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB201" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC201" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AD201" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE201" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="AF201" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG201" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AH201" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI201" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ201" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK201" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AL201" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM201" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AN201" t="n">
-        <v>1.3</v>
-      </c>
       <c r="AO201" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.88</v>
+        <v>1.14</v>
       </c>
       <c r="AR201" t="n">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AU201" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="AV201" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AW201" t="n">
-        <v>2.86</v>
+        <v>2.69</v>
       </c>
       <c r="AX201" t="n">
-        <v>1.64</v>
+        <v>2.1</v>
       </c>
       <c r="AY201" t="n">
         <v>8</v>
       </c>
       <c r="AZ201" t="n">
-        <v>2.67</v>
+        <v>1.91</v>
       </c>
       <c r="BA201" t="n">
         <v>1.26</v>
@@ -41336,22 +41336,22 @@
         <v>3.35</v>
       </c>
       <c r="BF201" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BG201" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH201" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BI201" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BJ201" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BK201" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202">
@@ -41359,7 +41359,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>2580741</v>
+        <v>2580740</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -41379,149 +41379,149 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Salford City</t>
+          <t>Bradford City</t>
         </is>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
       <c r="M202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N202" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>['80']</t>
+          <t>['69']</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['30', '53']</t>
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S202" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T202" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U202" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="V202" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="W202" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X202" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y202" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Z202" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO202" t="n">
         <v>1.33</v>
       </c>
-      <c r="AA202" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB202" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC202" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AD202" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="AE202" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AF202" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG202" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="AH202" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI202" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AJ202" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AK202" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AL202" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM202" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN202" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AO202" t="n">
-        <v>1.35</v>
-      </c>
       <c r="AP202" t="n">
-        <v>1.38</v>
+        <v>1.86</v>
       </c>
       <c r="AQ202" t="n">
-        <v>0.57</v>
+        <v>1.88</v>
       </c>
       <c r="AR202" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="AT202" t="n">
         <v>1.9</v>
       </c>
       <c r="AU202" t="n">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="AV202" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AW202" t="n">
-        <v>2.71</v>
+        <v>2.86</v>
       </c>
       <c r="AX202" t="n">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="AY202" t="n">
         <v>8</v>
       </c>
       <c r="AZ202" t="n">
-        <v>2.33</v>
+        <v>2.67</v>
       </c>
       <c r="BA202" t="n">
         <v>1.26</v>
@@ -41530,7 +41530,7 @@
         <v>1.48</v>
       </c>
       <c r="BC202" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="BD202" t="n">
         <v>2.43</v>
@@ -41539,22 +41539,22 @@
         <v>3.35</v>
       </c>
       <c r="BF202" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG202" t="n">
         <v>3</v>
       </c>
       <c r="BH202" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BI202" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ202" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK202" t="n">
         <v>11</v>
-      </c>
-      <c r="BK202" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="203">
@@ -41562,7 +41562,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>2580734</v>
+        <v>2580741</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -41582,35 +41582,35 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Salford City</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
       </c>
       <c r="K203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M203" t="n">
         <v>0</v>
       </c>
       <c r="N203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>['19', '35']</t>
+          <t>['80']</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -41619,13 +41619,13 @@
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R203" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S203" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T203" t="n">
         <v>3.75</v>
@@ -41637,16 +41637,16 @@
         <v>3.1</v>
       </c>
       <c r="W203" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X203" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y203" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z203" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA203" t="n">
         <v>10</v>
@@ -41655,109 +41655,109 @@
         <v>1.06</v>
       </c>
       <c r="AC203" t="n">
-        <v>3.18</v>
+        <v>2.61</v>
       </c>
       <c r="AD203" t="n">
-        <v>3.15</v>
+        <v>3.27</v>
       </c>
       <c r="AE203" t="n">
-        <v>2.34</v>
+        <v>2.91</v>
       </c>
       <c r="AF203" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG203" t="n">
-        <v>8.949999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="AH203" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AI203" t="n">
-        <v>2.93</v>
+        <v>2.8</v>
       </c>
       <c r="AJ203" t="n">
         <v>2.05</v>
       </c>
       <c r="AK203" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AL203" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AM203" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AN203" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AO203" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AQ203" t="n">
-        <v>1.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR203" t="n">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="AT203" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AU203" t="n">
         <v>1.33</v>
       </c>
       <c r="AV203" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AW203" t="n">
-        <v>2.83</v>
+        <v>2.71</v>
       </c>
       <c r="AX203" t="n">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="AY203" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ203" t="n">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
       <c r="BA203" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BB203" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BC203" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BD203" t="n">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="BE203" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="BF203" t="n">
         <v>4</v>
       </c>
       <c r="BG203" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH203" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BI203" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ203" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BK203" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204">
@@ -41968,7 +41968,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>2580872</v>
+        <v>2580871</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -41988,182 +41988,182 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Sutton United</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Bradford City</t>
+          <t>Hartlepool United</t>
         </is>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P205" t="inlineStr">
-        <is>
-          <t>['37', '51']</t>
-        </is>
-      </c>
       <c r="Q205" t="n">
+        <v>6</v>
+      </c>
+      <c r="R205" t="n">
+        <v>2</v>
+      </c>
+      <c r="S205" t="n">
+        <v>8</v>
+      </c>
+      <c r="T205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V205" t="n">
+        <v>6</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF205" t="n">
         <v>5</v>
       </c>
-      <c r="R205" t="n">
-        <v>2</v>
-      </c>
-      <c r="S205" t="n">
+      <c r="BG205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH205" t="n">
         <v>7</v>
       </c>
-      <c r="T205" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U205" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V205" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W205" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X205" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Y205" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Z205" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AA205" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AB205" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC205" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AD205" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AE205" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AF205" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG205" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH205" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI205" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ205" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK205" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AL205" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM205" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN205" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO205" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP205" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AQ205" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AR205" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS205" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AT205" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AU205" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AV205" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AW205" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AX205" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AY205" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AZ205" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BA205" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BB205" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC205" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="BD205" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="BE205" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="BF205" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG205" t="n">
+      <c r="BI205" t="n">
         <v>4</v>
       </c>
-      <c r="BH205" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI205" t="n">
+      <c r="BJ205" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK205" t="n">
         <v>7</v>
-      </c>
-      <c r="BJ205" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK205" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="206">
@@ -42983,7 +42983,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>2580871</v>
+        <v>2580872</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -43003,182 +43003,182 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Sutton United</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Hartlepool United</t>
+          <t>Bradford City</t>
         </is>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>['79']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['37', '51']</t>
         </is>
       </c>
       <c r="Q210" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R210" t="n">
         <v>2</v>
       </c>
       <c r="S210" t="n">
+        <v>7</v>
+      </c>
+      <c r="T210" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V210" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH210" t="n">
         <v>8</v>
       </c>
-      <c r="T210" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U210" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V210" t="n">
-        <v>6</v>
-      </c>
-      <c r="W210" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X210" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Y210" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Z210" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA210" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AB210" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC210" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AD210" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="AE210" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AF210" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG210" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH210" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI210" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ210" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AK210" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AL210" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM210" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AN210" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AO210" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP210" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AQ210" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AR210" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AS210" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AT210" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AU210" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AV210" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AW210" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AX210" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AY210" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AZ210" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="BA210" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB210" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="BC210" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BD210" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="BE210" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BF210" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG210" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH210" t="n">
+      <c r="BI210" t="n">
         <v>7</v>
       </c>
-      <c r="BI210" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ210" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BK210" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211">
@@ -45419,7 +45419,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>2580877</v>
+        <v>2580878</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -45439,152 +45439,152 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Grimsby Town</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J222" t="n">
         <v>0</v>
       </c>
       <c r="K222" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N222" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>['5', '19', '45+3']</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>['79']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q222" t="n">
         <v>4</v>
       </c>
       <c r="R222" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S222" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T222" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X222" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC222" t="n">
         <v>3.75</v>
       </c>
-      <c r="U222" t="n">
-        <v>2</v>
-      </c>
-      <c r="V222" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W222" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X222" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y222" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z222" t="n">
+      <c r="AD222" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO222" t="n">
         <v>1.3</v>
       </c>
-      <c r="AA222" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB222" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC222" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AD222" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE222" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AF222" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG222" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH222" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI222" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AJ222" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AK222" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AL222" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM222" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN222" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AO222" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AP222" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AQ222" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR222" t="n">
         <v>1.67</v>
       </c>
       <c r="AS222" t="n">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AU222" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AV222" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="AW222" t="n">
-        <v>3.19</v>
+        <v>3.09</v>
       </c>
       <c r="AX222" t="n">
-        <v>2.25</v>
+        <v>3.92</v>
       </c>
       <c r="AY222" t="n">
-        <v>7.7</v>
+        <v>8.9</v>
       </c>
       <c r="AZ222" t="n">
-        <v>1.95</v>
+        <v>1.39</v>
       </c>
       <c r="BA222" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="BB222" t="n">
         <v>1.42</v>
@@ -45599,22 +45599,22 @@
         <v>2.93</v>
       </c>
       <c r="BF222" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG222" t="n">
         <v>5</v>
       </c>
       <c r="BH222" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BI222" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BJ222" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BK222" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223">
@@ -45622,7 +45622,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>2580878</v>
+        <v>2580877</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -45642,152 +45642,152 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Grimsby Town</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J223" t="n">
         <v>0</v>
       </c>
       <c r="K223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>['5', '19', '45+3']</t>
+          <t>['90+1']</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['79']</t>
         </is>
       </c>
       <c r="Q223" t="n">
         <v>4</v>
       </c>
       <c r="R223" t="n">
+        <v>5</v>
+      </c>
+      <c r="S223" t="n">
         <v>9</v>
       </c>
-      <c r="S223" t="n">
-        <v>13</v>
-      </c>
       <c r="T223" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U223" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V223" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X223" t="n">
         <v>2.5</v>
       </c>
-      <c r="W223" t="n">
+      <c r="Y223" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH223" t="n">
         <v>1.4</v>
       </c>
-      <c r="X223" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y223" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z223" t="n">
+      <c r="AI223" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP223" t="n">
         <v>1.4</v>
       </c>
-      <c r="AA223" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB223" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC223" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AD223" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE223" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AF223" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG223" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH223" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI223" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AJ223" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AK223" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL223" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM223" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AN223" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AO223" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP223" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AQ223" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR223" t="n">
         <v>1.67</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.2</v>
+        <v>0.89</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU223" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AV223" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="AW223" t="n">
-        <v>3.09</v>
+        <v>3.19</v>
       </c>
       <c r="AX223" t="n">
-        <v>3.92</v>
+        <v>2.25</v>
       </c>
       <c r="AY223" t="n">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
       <c r="AZ223" t="n">
-        <v>1.39</v>
+        <v>1.95</v>
       </c>
       <c r="BA223" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BB223" t="n">
         <v>1.42</v>
@@ -45802,22 +45802,22 @@
         <v>2.93</v>
       </c>
       <c r="BF223" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG223" t="n">
         <v>5</v>
       </c>
       <c r="BH223" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BI223" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BJ223" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BK223" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224">
@@ -47043,7 +47043,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>2580889</v>
+        <v>2580890</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -47063,86 +47063,86 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Doncaster Rovers</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Walsall</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
       </c>
       <c r="K230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M230" t="n">
         <v>2</v>
       </c>
       <c r="N230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>['13']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>['62', '85']</t>
+          <t>['52', '71']</t>
         </is>
       </c>
       <c r="Q230" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R230" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S230" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T230" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="U230" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V230" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y230" t="n">
         <v>3.1</v>
       </c>
-      <c r="W230" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="X230" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Y230" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Z230" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AA230" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB230" t="n">
         <v>1.06</v>
       </c>
       <c r="AC230" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AD230" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AE230" t="n">
-        <v>2.42</v>
+        <v>2.7</v>
       </c>
       <c r="AF230" t="n">
         <v>1.08</v>
@@ -47154,7 +47154,7 @@
         <v>1.42</v>
       </c>
       <c r="AI230" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AJ230" t="n">
         <v>2.25</v>
@@ -47163,40 +47163,40 @@
         <v>1.58</v>
       </c>
       <c r="AL230" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AM230" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AN230" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AO230" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AR230" t="n">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU230" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AV230" t="n">
         <v>1.08</v>
       </c>
       <c r="AW230" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AX230" t="n">
         <v>2.1</v>
@@ -47205,19 +47205,19 @@
         <v>8</v>
       </c>
       <c r="AZ230" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BA230" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="BB230" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="BC230" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="BD230" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="BE230" t="n">
         <v>3.5</v>
@@ -47229,16 +47229,16 @@
         <v>3</v>
       </c>
       <c r="BH230" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BI230" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BJ230" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BK230" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231">
@@ -47246,7 +47246,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>2580890</v>
+        <v>2580889</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -47266,86 +47266,86 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Doncaster Rovers</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M231" t="n">
         <v>2</v>
       </c>
       <c r="N231" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13']</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>['52', '71']</t>
+          <t>['62', '85']</t>
         </is>
       </c>
       <c r="Q231" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R231" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S231" t="n">
+        <v>8</v>
+      </c>
+      <c r="T231" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U231" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V231" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA231" t="n">
         <v>9</v>
-      </c>
-      <c r="T231" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U231" t="n">
-        <v>2</v>
-      </c>
-      <c r="V231" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W231" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X231" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Y231" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Z231" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA231" t="n">
-        <v>8.5</v>
       </c>
       <c r="AB231" t="n">
         <v>1.06</v>
       </c>
       <c r="AC231" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="AD231" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AE231" t="n">
-        <v>2.7</v>
+        <v>2.42</v>
       </c>
       <c r="AF231" t="n">
         <v>1.08</v>
@@ -47357,7 +47357,7 @@
         <v>1.42</v>
       </c>
       <c r="AI231" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AJ231" t="n">
         <v>2.25</v>
@@ -47366,40 +47366,40 @@
         <v>1.58</v>
       </c>
       <c r="AL231" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AM231" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AN231" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AO231" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR231" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT231" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU231" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AV231" t="n">
         <v>1.08</v>
       </c>
       <c r="AW231" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AX231" t="n">
         <v>2.1</v>
@@ -47408,19 +47408,19 @@
         <v>8</v>
       </c>
       <c r="AZ231" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BA231" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="BB231" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="BC231" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="BD231" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="BE231" t="n">
         <v>3.5</v>
@@ -47432,16 +47432,16 @@
         <v>3</v>
       </c>
       <c r="BH231" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BI231" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BJ231" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BK231" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232">
@@ -47449,7 +47449,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>2580886</v>
+        <v>2580893</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -47469,35 +47469,35 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Grimsby Town</t>
+          <t>Bradford City</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M232" t="n">
         <v>0</v>
       </c>
       <c r="N232" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>['24', '32', '85']</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
@@ -47509,19 +47509,19 @@
         <v>5</v>
       </c>
       <c r="R232" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S232" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T232" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="U232" t="n">
         <v>2.05</v>
       </c>
       <c r="V232" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="W232" t="n">
         <v>1.44</v>
@@ -47542,13 +47542,13 @@
         <v>1.06</v>
       </c>
       <c r="AC232" t="n">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
       <c r="AD232" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AE232" t="n">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="AF232" t="n">
         <v>1.07</v>
@@ -47557,10 +47557,10 @@
         <v>9</v>
       </c>
       <c r="AH232" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AI232" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AJ232" t="n">
         <v>2.2</v>
@@ -47569,82 +47569,82 @@
         <v>1.62</v>
       </c>
       <c r="AL232" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AM232" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AN232" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AO232" t="n">
         <v>1.28</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AQ232" t="n">
-        <v>1.56</v>
+        <v>2.44</v>
       </c>
       <c r="AR232" t="n">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AU232" t="n">
-        <v>1.28</v>
+        <v>1.66</v>
       </c>
       <c r="AV232" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AW232" t="n">
-        <v>2.72</v>
+        <v>2.89</v>
       </c>
       <c r="AX232" t="n">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="AY232" t="n">
         <v>8</v>
       </c>
       <c r="AZ232" t="n">
-        <v>1.91</v>
+        <v>2.77</v>
       </c>
       <c r="BA232" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="BB232" t="n">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="BC232" t="n">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="BD232" t="n">
-        <v>2.03</v>
+        <v>2.45</v>
       </c>
       <c r="BE232" t="n">
-        <v>2.66</v>
+        <v>3.5</v>
       </c>
       <c r="BF232" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BG232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH232" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BI232" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ232" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK232" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233">
@@ -47855,7 +47855,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>2580893</v>
+        <v>2580886</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -47875,35 +47875,35 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>AFC Wimbledon</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Bradford City</t>
+          <t>Grimsby Town</t>
         </is>
       </c>
       <c r="I234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J234" t="n">
         <v>0</v>
       </c>
       <c r="K234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M234" t="n">
         <v>0</v>
       </c>
       <c r="N234" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>['24', '32', '85']</t>
+          <t>['60']</t>
         </is>
       </c>
       <c r="P234" t="inlineStr">
@@ -47915,19 +47915,19 @@
         <v>5</v>
       </c>
       <c r="R234" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S234" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T234" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="U234" t="n">
         <v>2.05</v>
       </c>
       <c r="V234" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="W234" t="n">
         <v>1.44</v>
@@ -47948,13 +47948,13 @@
         <v>1.06</v>
       </c>
       <c r="AC234" t="n">
-        <v>2.09</v>
+        <v>2.55</v>
       </c>
       <c r="AD234" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AE234" t="n">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="AF234" t="n">
         <v>1.07</v>
@@ -47963,10 +47963,10 @@
         <v>9</v>
       </c>
       <c r="AH234" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AI234" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AJ234" t="n">
         <v>2.2</v>
@@ -47975,82 +47975,82 @@
         <v>1.62</v>
       </c>
       <c r="AL234" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AM234" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AN234" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AO234" t="n">
         <v>1.28</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="AQ234" t="n">
-        <v>2.44</v>
+        <v>1.56</v>
       </c>
       <c r="AR234" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AU234" t="n">
-        <v>1.66</v>
+        <v>1.28</v>
       </c>
       <c r="AV234" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AW234" t="n">
-        <v>2.89</v>
+        <v>2.72</v>
       </c>
       <c r="AX234" t="n">
-        <v>1.64</v>
+        <v>2.2</v>
       </c>
       <c r="AY234" t="n">
         <v>8</v>
       </c>
       <c r="AZ234" t="n">
-        <v>2.77</v>
+        <v>1.91</v>
       </c>
       <c r="BA234" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="BB234" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="BC234" t="n">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="BD234" t="n">
-        <v>2.45</v>
+        <v>2.03</v>
       </c>
       <c r="BE234" t="n">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="BF234" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BG234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH234" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BI234" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ234" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK234" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235">

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK240"/>
+  <dimension ref="A1:BK246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT5" t="n">
         <v>1.2</v>
@@ -1715,7 +1715,7 @@
         <v>1.2</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.4</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.8</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT15" t="n">
         <v>1.9</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT16" t="n">
         <v>1.3</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT17" t="n">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>1.8</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT19" t="n">
         <v>2.1</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT20" t="n">
         <v>2.3</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -6790,7 +6790,7 @@
         <v>1.5</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AU31" t="n">
         <v>1.58</v>
@@ -6993,7 +6993,7 @@
         <v>2.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU32" t="n">
         <v>1.72</v>
@@ -7399,7 +7399,7 @@
         <v>1.8</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU34" t="n">
         <v>1.34</v>
@@ -8008,7 +8008,7 @@
         <v>1.7</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU37" t="n">
         <v>1.21</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT38" t="n">
         <v>2.3</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT39" t="n">
         <v>0.8</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT40" t="n">
         <v>1.9</v>
@@ -8820,7 +8820,7 @@
         <v>1.8</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU41" t="n">
         <v>1.87</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU42" t="n">
         <v>1.39</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT46" t="n">
         <v>2.1</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT50" t="n">
         <v>0.8</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT51" t="n">
         <v>1.6</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU52" t="n">
         <v>1.18</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT54" t="n">
         <v>0.6</v>
@@ -12268,10 +12268,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU58" t="n">
         <v>0.62</v>
@@ -13083,7 +13083,7 @@
         <v>1.4</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AU62" t="n">
         <v>1.32</v>
@@ -13283,10 +13283,10 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU63" t="n">
         <v>1.29</v>
@@ -14098,7 +14098,7 @@
         <v>1.8</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU67" t="n">
         <v>1.68</v>
@@ -14301,7 +14301,7 @@
         <v>2.5</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU68" t="n">
         <v>1.36</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT73" t="n">
         <v>0.7</v>
@@ -15519,7 +15519,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU74" t="n">
         <v>1.86</v>
@@ -16128,7 +16128,7 @@
         <v>2.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU77" t="n">
         <v>1.65</v>
@@ -16531,7 +16531,7 @@
         <v>2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT79" t="n">
         <v>1.6</v>
@@ -16940,7 +16940,7 @@
         <v>1.3</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU81" t="n">
         <v>1.22</v>
@@ -17549,7 +17549,7 @@
         <v>1.6</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU84" t="n">
         <v>1.51</v>
@@ -17752,7 +17752,7 @@
         <v>2.4</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU85" t="n">
         <v>1.57</v>
@@ -17955,7 +17955,7 @@
         <v>2</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AU86" t="n">
         <v>1.57</v>
@@ -18358,7 +18358,7 @@
         <v>0.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT88" t="n">
         <v>0.6</v>
@@ -18561,7 +18561,7 @@
         <v>1.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT89" t="n">
         <v>1.2</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT94" t="n">
         <v>0.4</v>
@@ -19982,7 +19982,7 @@
         <v>0</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT96" t="n">
         <v>1.3</v>
@@ -20391,7 +20391,7 @@
         <v>1</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU98" t="n">
         <v>1.26</v>
@@ -21203,7 +21203,7 @@
         <v>1.7</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU102" t="n">
         <v>1.78</v>
@@ -21609,7 +21609,7 @@
         <v>1.2</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU104" t="n">
         <v>1.64</v>
@@ -22215,10 +22215,10 @@
         <v>0.25</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU107" t="n">
         <v>1.51</v>
@@ -22418,7 +22418,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -22827,7 +22827,7 @@
         <v>1.4</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU110" t="n">
         <v>1.47</v>
@@ -23233,7 +23233,7 @@
         <v>1.5</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU112" t="n">
         <v>1.16</v>
@@ -23636,7 +23636,7 @@
         <v>1.2</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT114" t="n">
         <v>1.3</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT116" t="n">
         <v>1.6</v>
@@ -24451,7 +24451,7 @@
         <v>2</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU118" t="n">
         <v>1.49</v>
@@ -24651,7 +24651,7 @@
         <v>0.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT119" t="n">
         <v>0.7</v>
@@ -24854,7 +24854,7 @@
         <v>1.75</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT120" t="n">
         <v>1.9</v>
@@ -25057,7 +25057,7 @@
         <v>0.75</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT121" t="n">
         <v>1.6</v>
@@ -25263,7 +25263,7 @@
         <v>1.8</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU122" t="n">
         <v>1.67</v>
@@ -25869,7 +25869,7 @@
         <v>2</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT125" t="n">
         <v>2.1</v>
@@ -26481,7 +26481,7 @@
         <v>0.7</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU128" t="n">
         <v>1.42</v>
@@ -27293,7 +27293,7 @@
         <v>1.7</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AU132" t="n">
         <v>1.31</v>
@@ -27493,7 +27493,7 @@
         <v>1.4</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT133" t="n">
         <v>1.6</v>
@@ -27696,7 +27696,7 @@
         <v>1.4</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT134" t="n">
         <v>1.2</v>
@@ -27899,7 +27899,7 @@
         <v>0.2</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT135" t="n">
         <v>0.6</v>
@@ -28105,7 +28105,7 @@
         <v>1</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU136" t="n">
         <v>1.16</v>
@@ -28511,7 +28511,7 @@
         <v>2.4</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU138" t="n">
         <v>1.66</v>
@@ -29523,7 +29523,7 @@
         <v>0.67</v>
       </c>
       <c r="AS143" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT143" t="n">
         <v>0.8</v>
@@ -29929,7 +29929,7 @@
         <v>0.5</v>
       </c>
       <c r="AS145" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT145" t="n">
         <v>0.5</v>
@@ -30132,7 +30132,7 @@
         <v>1.5</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT146" t="n">
         <v>1.3</v>
@@ -30335,10 +30335,10 @@
         <v>1.17</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU147" t="n">
         <v>1.51</v>
@@ -30541,7 +30541,7 @@
         <v>2</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU148" t="n">
         <v>1.47</v>
@@ -31150,7 +31150,7 @@
         <v>1.2</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU151" t="n">
         <v>1.55</v>
@@ -32365,10 +32365,10 @@
         <v>0.2</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AU157" t="n">
         <v>1.59</v>
@@ -32771,7 +32771,7 @@
         <v>1.17</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT159" t="n">
         <v>1.2</v>
@@ -32977,7 +32977,7 @@
         <v>1.7</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU160" t="n">
         <v>1.68</v>
@@ -33380,10 +33380,10 @@
         <v>0.29</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU162" t="n">
         <v>1.62</v>
@@ -33583,7 +33583,7 @@
         <v>0.71</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT163" t="n">
         <v>1</v>
@@ -33786,7 +33786,7 @@
         <v>1.71</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT164" t="n">
         <v>2.1</v>
@@ -34195,7 +34195,7 @@
         <v>0.7</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU166" t="n">
         <v>1.36</v>
@@ -34395,10 +34395,10 @@
         <v>0.17</v>
       </c>
       <c r="AS167" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AU167" t="n">
         <v>1.32</v>
@@ -34601,7 +34601,7 @@
         <v>1.2</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU168" t="n">
         <v>1.59</v>
@@ -34801,7 +34801,7 @@
         <v>2</v>
       </c>
       <c r="AS169" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT169" t="n">
         <v>1.9</v>
@@ -35007,7 +35007,7 @@
         <v>1.5</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU170" t="n">
         <v>1.15</v>
@@ -35613,10 +35613,10 @@
         <v>1.71</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU173" t="n">
         <v>1.07</v>
@@ -40894,7 +40894,7 @@
         <v>2.4</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AU199" t="n">
         <v>1.6</v>
@@ -40953,7 +40953,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>2580734</v>
+        <v>2580738</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -40973,98 +40973,98 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Carlisle United</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K200" t="n">
         <v>2</v>
       </c>
       <c r="L200" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M200" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N200" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>['19', '35']</t>
+          <t>['28', '60', '76']</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['12', '50', '90+3']</t>
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R200" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S200" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T200" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="U200" t="n">
         <v>2.05</v>
       </c>
       <c r="V200" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="W200" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X200" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y200" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z200" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA200" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB200" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC200" t="n">
-        <v>3.18</v>
+        <v>2.45</v>
       </c>
       <c r="AD200" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="AE200" t="n">
-        <v>2.34</v>
+        <v>3.09</v>
       </c>
       <c r="AF200" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG200" t="n">
-        <v>8.949999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="AH200" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AI200" t="n">
-        <v>2.93</v>
+        <v>2.95</v>
       </c>
       <c r="AJ200" t="n">
         <v>2.05</v>
@@ -41073,82 +41073,82 @@
         <v>1.68</v>
       </c>
       <c r="AL200" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AM200" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AN200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT200" t="n">
         <v>1.6</v>
       </c>
-      <c r="AO200" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AP200" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AQ200" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AR200" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AS200" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AT200" t="n">
-        <v>2.3</v>
-      </c>
       <c r="AU200" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="AV200" t="n">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="AW200" t="n">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AX200" t="n">
         <v>2.1</v>
       </c>
       <c r="AY200" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ200" t="n">
         <v>1.91</v>
       </c>
       <c r="BA200" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BB200" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BC200" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BD200" t="n">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="BE200" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="BF200" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BG200" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH200" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BI200" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BJ200" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="BK200" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201">
@@ -41156,7 +41156,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>2580738</v>
+        <v>2580740</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -41176,149 +41176,149 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Carlisle United</t>
+          <t>Bradford City</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="n">
         <v>1</v>
       </c>
       <c r="K201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L201" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N201" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>['28', '60', '76']</t>
+          <t>['69']</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>['12', '50', '90+3']</t>
+          <t>['30', '53']</t>
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R201" t="n">
+        <v>1</v>
+      </c>
+      <c r="S201" t="n">
+        <v>10</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V201" t="n">
+        <v>4</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA201" t="n">
         <v>8</v>
       </c>
-      <c r="S201" t="n">
-        <v>14</v>
-      </c>
-      <c r="T201" t="n">
+      <c r="AB201" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI201" t="n">
         <v>3.2</v>
       </c>
-      <c r="U201" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V201" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W201" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X201" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y201" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z201" t="n">
+      <c r="AJ201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO201" t="n">
         <v>1.33</v>
       </c>
-      <c r="AA201" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB201" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC201" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AD201" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AE201" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AF201" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG201" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="AH201" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AI201" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AJ201" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AK201" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AL201" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM201" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN201" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO201" t="n">
-        <v>1.34</v>
-      </c>
       <c r="AP201" t="n">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR201" t="n">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AU201" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AV201" t="n">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AW201" t="n">
-        <v>2.69</v>
+        <v>2.86</v>
       </c>
       <c r="AX201" t="n">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="AY201" t="n">
         <v>8</v>
       </c>
       <c r="AZ201" t="n">
-        <v>1.91</v>
+        <v>2.67</v>
       </c>
       <c r="BA201" t="n">
         <v>1.26</v>
@@ -41336,22 +41336,22 @@
         <v>3.35</v>
       </c>
       <c r="BF201" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BG201" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH201" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BI201" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BJ201" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="BK201" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202">
@@ -41359,7 +41359,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>2580740</v>
+        <v>2580741</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -41379,149 +41379,149 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Bradford City</t>
+          <t>Salford City</t>
         </is>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
       <c r="M202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N202" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>['69']</t>
+          <t>['80']</t>
         </is>
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>['30', '53']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S202" t="n">
+        <v>7</v>
+      </c>
+      <c r="T202" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V202" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA202" t="n">
         <v>10</v>
       </c>
-      <c r="T202" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U202" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V202" t="n">
-        <v>4</v>
-      </c>
-      <c r="W202" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X202" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y202" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z202" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA202" t="n">
-        <v>8</v>
-      </c>
       <c r="AB202" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AC202" t="n">
-        <v>1.89</v>
+        <v>2.61</v>
       </c>
       <c r="AD202" t="n">
-        <v>3.5</v>
+        <v>3.27</v>
       </c>
       <c r="AE202" t="n">
-        <v>4.02</v>
+        <v>2.91</v>
       </c>
       <c r="AF202" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AG202" t="n">
-        <v>8.75</v>
+        <v>7.75</v>
       </c>
       <c r="AH202" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AI202" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AJ202" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AK202" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AL202" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AM202" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AN202" t="n">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="AO202" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.86</v>
+        <v>1.38</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.88</v>
+        <v>0.57</v>
       </c>
       <c r="AR202" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="AT202" t="n">
         <v>1.9</v>
       </c>
       <c r="AU202" t="n">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="AV202" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AW202" t="n">
-        <v>2.86</v>
+        <v>2.71</v>
       </c>
       <c r="AX202" t="n">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="AY202" t="n">
         <v>8</v>
       </c>
       <c r="AZ202" t="n">
-        <v>2.67</v>
+        <v>2.33</v>
       </c>
       <c r="BA202" t="n">
         <v>1.26</v>
@@ -41530,7 +41530,7 @@
         <v>1.48</v>
       </c>
       <c r="BC202" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BD202" t="n">
         <v>2.43</v>
@@ -41539,22 +41539,22 @@
         <v>3.35</v>
       </c>
       <c r="BF202" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG202" t="n">
         <v>3</v>
       </c>
       <c r="BH202" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI202" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ202" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BK202" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203">
@@ -41562,7 +41562,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>2580741</v>
+        <v>2580734</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -41582,35 +41582,35 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>AFC Wimbledon</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Salford City</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M203" t="n">
         <v>0</v>
       </c>
       <c r="N203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>['80']</t>
+          <t>['19', '35']</t>
         </is>
       </c>
       <c r="P203" t="inlineStr">
@@ -41619,13 +41619,13 @@
         </is>
       </c>
       <c r="Q203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R203" t="n">
         <v>5</v>
       </c>
-      <c r="R203" t="n">
-        <v>2</v>
-      </c>
       <c r="S203" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T203" t="n">
         <v>3.75</v>
@@ -41637,16 +41637,16 @@
         <v>3.1</v>
       </c>
       <c r="W203" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X203" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y203" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Z203" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA203" t="n">
         <v>10</v>
@@ -41655,109 +41655,109 @@
         <v>1.06</v>
       </c>
       <c r="AC203" t="n">
-        <v>2.61</v>
+        <v>3.18</v>
       </c>
       <c r="AD203" t="n">
-        <v>3.27</v>
+        <v>3.15</v>
       </c>
       <c r="AE203" t="n">
-        <v>2.91</v>
+        <v>2.34</v>
       </c>
       <c r="AF203" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG203" t="n">
-        <v>7.75</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="AH203" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AI203" t="n">
-        <v>2.8</v>
+        <v>2.93</v>
       </c>
       <c r="AJ203" t="n">
         <v>2.05</v>
       </c>
       <c r="AK203" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AS203" t="n">
         <v>1.7</v>
       </c>
-      <c r="AL203" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM203" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN203" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AO203" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP203" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AQ203" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AR203" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS203" t="n">
-        <v>0.7</v>
-      </c>
       <c r="AT203" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AU203" t="n">
         <v>1.33</v>
       </c>
       <c r="AV203" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AW203" t="n">
-        <v>2.71</v>
+        <v>2.83</v>
       </c>
       <c r="AX203" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="AY203" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ203" t="n">
-        <v>2.33</v>
+        <v>1.91</v>
       </c>
       <c r="BA203" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="BB203" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BC203" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BD203" t="n">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="BE203" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="BF203" t="n">
         <v>4</v>
       </c>
       <c r="BG203" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI203" t="n">
         <v>7</v>
       </c>
-      <c r="BI203" t="n">
-        <v>9</v>
-      </c>
       <c r="BJ203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK203" t="n">
         <v>11</v>
-      </c>
-      <c r="BK203" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="204">
@@ -41906,10 +41906,10 @@
         <v>1.38</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU204" t="n">
         <v>1.68</v>
@@ -41968,7 +41968,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>2580871</v>
+        <v>2580872</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -41988,182 +41988,182 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Sutton United</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Hartlepool United</t>
+          <t>Bradford City</t>
         </is>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>['79']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['37', '51']</t>
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R205" t="n">
         <v>2</v>
       </c>
       <c r="S205" t="n">
+        <v>7</v>
+      </c>
+      <c r="T205" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V205" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH205" t="n">
         <v>8</v>
       </c>
-      <c r="T205" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U205" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V205" t="n">
-        <v>6</v>
-      </c>
-      <c r="W205" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X205" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Y205" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Z205" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA205" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AB205" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC205" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AD205" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="AE205" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AF205" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG205" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH205" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI205" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ205" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AK205" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AL205" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM205" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AN205" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AO205" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP205" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AQ205" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AR205" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AS205" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AT205" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AU205" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AV205" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AW205" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AX205" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AY205" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AZ205" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="BA205" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB205" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="BC205" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BD205" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="BE205" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BF205" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG205" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH205" t="n">
+      <c r="BI205" t="n">
         <v>7</v>
       </c>
-      <c r="BI205" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ205" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BK205" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206">
@@ -42315,7 +42315,7 @@
         <v>1.2</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU206" t="n">
         <v>1.45</v>
@@ -42518,7 +42518,7 @@
         <v>0.7</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU207" t="n">
         <v>1.32</v>
@@ -42718,7 +42718,7 @@
         <v>0.88</v>
       </c>
       <c r="AS208" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT208" t="n">
         <v>1.3</v>
@@ -42983,7 +42983,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>2580872</v>
+        <v>2580871</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -43003,182 +43003,182 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Sutton United</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Bradford City</t>
+          <t>Hartlepool United</t>
         </is>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O210" t="inlineStr">
         <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P210" t="inlineStr">
-        <is>
-          <t>['37', '51']</t>
-        </is>
-      </c>
       <c r="Q210" t="n">
+        <v>6</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2</v>
+      </c>
+      <c r="S210" t="n">
+        <v>8</v>
+      </c>
+      <c r="T210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V210" t="n">
+        <v>6</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF210" t="n">
         <v>5</v>
       </c>
-      <c r="R210" t="n">
-        <v>2</v>
-      </c>
-      <c r="S210" t="n">
+      <c r="BG210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH210" t="n">
         <v>7</v>
       </c>
-      <c r="T210" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U210" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V210" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W210" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X210" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Y210" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Z210" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AA210" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AB210" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC210" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AD210" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="AE210" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AF210" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG210" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH210" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI210" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ210" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK210" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AL210" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM210" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN210" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AO210" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP210" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AQ210" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AR210" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS210" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AT210" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AU210" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AV210" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AW210" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AX210" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AY210" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AZ210" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BA210" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BB210" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC210" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="BD210" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="BE210" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="BF210" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG210" t="n">
+      <c r="BI210" t="n">
         <v>4</v>
       </c>
-      <c r="BH210" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI210" t="n">
+      <c r="BJ210" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK210" t="n">
         <v>7</v>
-      </c>
-      <c r="BJ210" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK210" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="211">
@@ -43533,7 +43533,7 @@
         <v>1.5</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AU212" t="n">
         <v>1.26</v>
@@ -43733,7 +43733,7 @@
         <v>1.25</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT213" t="n">
         <v>1</v>
@@ -44139,10 +44139,10 @@
         <v>1.13</v>
       </c>
       <c r="AS215" t="n">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU215" t="n">
         <v>1.64</v>
@@ -44548,7 +44548,7 @@
         <v>1.4</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU217" t="n">
         <v>1.42</v>
@@ -44748,7 +44748,7 @@
         <v>0.88</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT218" t="n">
         <v>1.11</v>
@@ -44951,7 +44951,7 @@
         <v>0.89</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT219" t="n">
         <v>0.8</v>
@@ -45419,7 +45419,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>2580878</v>
+        <v>2580877</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -45439,152 +45439,152 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Grimsby Town</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J222" t="n">
         <v>0</v>
       </c>
       <c r="K222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>['5', '19', '45+3']</t>
+          <t>['90+1']</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['79']</t>
         </is>
       </c>
       <c r="Q222" t="n">
         <v>4</v>
       </c>
       <c r="R222" t="n">
+        <v>5</v>
+      </c>
+      <c r="S222" t="n">
         <v>9</v>
       </c>
-      <c r="S222" t="n">
-        <v>13</v>
-      </c>
       <c r="T222" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="U222" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X222" t="n">
         <v>2.5</v>
       </c>
-      <c r="W222" t="n">
+      <c r="Y222" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH222" t="n">
         <v>1.4</v>
       </c>
-      <c r="X222" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y222" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z222" t="n">
+      <c r="AI222" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP222" t="n">
         <v>1.4</v>
       </c>
-      <c r="AA222" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB222" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC222" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AD222" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE222" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AF222" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG222" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH222" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI222" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AJ222" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AK222" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL222" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AM222" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AN222" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AO222" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP222" t="n">
-        <v>1.29</v>
-      </c>
       <c r="AQ222" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR222" t="n">
         <v>1.67</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AU222" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AV222" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="AW222" t="n">
-        <v>3.09</v>
+        <v>3.19</v>
       </c>
       <c r="AX222" t="n">
-        <v>3.92</v>
+        <v>2.25</v>
       </c>
       <c r="AY222" t="n">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
       <c r="AZ222" t="n">
-        <v>1.39</v>
+        <v>1.95</v>
       </c>
       <c r="BA222" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BB222" t="n">
         <v>1.42</v>
@@ -45599,22 +45599,22 @@
         <v>2.93</v>
       </c>
       <c r="BF222" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG222" t="n">
         <v>5</v>
       </c>
       <c r="BH222" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BI222" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BJ222" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BK222" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223">
@@ -45622,7 +45622,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>2580877</v>
+        <v>2580878</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -45642,152 +45642,152 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Grimsby Town</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J223" t="n">
         <v>0</v>
       </c>
       <c r="K223" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L223" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N223" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>['5', '19', '45+3']</t>
         </is>
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>['79']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q223" t="n">
         <v>4</v>
       </c>
       <c r="R223" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S223" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T223" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V223" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X223" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC223" t="n">
         <v>3.75</v>
       </c>
-      <c r="U223" t="n">
-        <v>2</v>
-      </c>
-      <c r="V223" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W223" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X223" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y223" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z223" t="n">
+      <c r="AD223" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO223" t="n">
         <v>1.3</v>
       </c>
-      <c r="AA223" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB223" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC223" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AD223" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE223" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AF223" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG223" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH223" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI223" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AJ223" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AK223" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AL223" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM223" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN223" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AO223" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AP223" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="AQ223" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR223" t="n">
         <v>1.67</v>
       </c>
       <c r="AS223" t="n">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU223" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AV223" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="AW223" t="n">
-        <v>3.19</v>
+        <v>3.09</v>
       </c>
       <c r="AX223" t="n">
-        <v>2.25</v>
+        <v>3.92</v>
       </c>
       <c r="AY223" t="n">
-        <v>7.7</v>
+        <v>8.9</v>
       </c>
       <c r="AZ223" t="n">
-        <v>1.95</v>
+        <v>1.39</v>
       </c>
       <c r="BA223" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="BB223" t="n">
         <v>1.42</v>
@@ -45802,22 +45802,22 @@
         <v>2.93</v>
       </c>
       <c r="BF223" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG223" t="n">
         <v>5</v>
       </c>
       <c r="BH223" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BI223" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BJ223" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BK223" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224">
@@ -45969,7 +45969,7 @@
         <v>1.3</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU224" t="n">
         <v>1.13</v>
@@ -46375,7 +46375,7 @@
         <v>2.4</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AU226" t="n">
         <v>1.58</v>
@@ -46575,7 +46575,7 @@
         <v>0.38</v>
       </c>
       <c r="AS227" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT227" t="n">
         <v>0.4</v>
@@ -46778,7 +46778,7 @@
         <v>0.33</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT228" t="n">
         <v>0.4</v>
@@ -46981,7 +46981,7 @@
         <v>1.11</v>
       </c>
       <c r="AS229" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AT229" t="n">
         <v>1</v>
@@ -47043,7 +47043,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>2580890</v>
+        <v>2580889</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -47063,86 +47063,86 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Doncaster Rovers</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
       </c>
       <c r="K230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M230" t="n">
         <v>2</v>
       </c>
       <c r="N230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13']</t>
         </is>
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>['52', '71']</t>
+          <t>['62', '85']</t>
         </is>
       </c>
       <c r="Q230" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R230" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S230" t="n">
+        <v>8</v>
+      </c>
+      <c r="T230" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U230" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA230" t="n">
         <v>9</v>
-      </c>
-      <c r="T230" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U230" t="n">
-        <v>2</v>
-      </c>
-      <c r="V230" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W230" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X230" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Y230" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Z230" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA230" t="n">
-        <v>8.5</v>
       </c>
       <c r="AB230" t="n">
         <v>1.06</v>
       </c>
       <c r="AC230" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="AD230" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AE230" t="n">
-        <v>2.7</v>
+        <v>2.42</v>
       </c>
       <c r="AF230" t="n">
         <v>1.08</v>
@@ -47154,7 +47154,7 @@
         <v>1.42</v>
       </c>
       <c r="AI230" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AJ230" t="n">
         <v>2.25</v>
@@ -47163,40 +47163,40 @@
         <v>1.58</v>
       </c>
       <c r="AL230" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AM230" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AN230" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AO230" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="AR230" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT230" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU230" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AV230" t="n">
         <v>1.08</v>
       </c>
       <c r="AW230" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AX230" t="n">
         <v>2.1</v>
@@ -47205,19 +47205,19 @@
         <v>8</v>
       </c>
       <c r="AZ230" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BA230" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="BB230" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="BC230" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="BD230" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="BE230" t="n">
         <v>3.5</v>
@@ -47229,16 +47229,16 @@
         <v>3</v>
       </c>
       <c r="BH230" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BI230" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BJ230" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BK230" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231">
@@ -47246,7 +47246,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>2580889</v>
+        <v>2580890</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -47266,86 +47266,86 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Doncaster Rovers</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Walsall</t>
         </is>
       </c>
       <c r="I231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
       </c>
       <c r="K231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M231" t="n">
         <v>2</v>
       </c>
       <c r="N231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>['13']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>['62', '85']</t>
+          <t>['52', '71']</t>
         </is>
       </c>
       <c r="Q231" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R231" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S231" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T231" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="U231" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V231" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y231" t="n">
         <v>3.1</v>
       </c>
-      <c r="W231" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="X231" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Y231" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Z231" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AA231" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB231" t="n">
         <v>1.06</v>
       </c>
       <c r="AC231" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AD231" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AE231" t="n">
-        <v>2.42</v>
+        <v>2.7</v>
       </c>
       <c r="AF231" t="n">
         <v>1.08</v>
@@ -47357,7 +47357,7 @@
         <v>1.42</v>
       </c>
       <c r="AI231" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AJ231" t="n">
         <v>2.25</v>
@@ -47366,40 +47366,40 @@
         <v>1.58</v>
       </c>
       <c r="AL231" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AM231" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AN231" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AO231" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="AQ231" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="AR231" t="n">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AU231" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AV231" t="n">
         <v>1.08</v>
       </c>
       <c r="AW231" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AX231" t="n">
         <v>2.1</v>
@@ -47408,19 +47408,19 @@
         <v>8</v>
       </c>
       <c r="AZ231" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BA231" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="BB231" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="BC231" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="BD231" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="BE231" t="n">
         <v>3.5</v>
@@ -47432,16 +47432,16 @@
         <v>3</v>
       </c>
       <c r="BH231" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BI231" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BJ231" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BK231" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232">
@@ -47449,7 +47449,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>2580893</v>
+        <v>2580886</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -47469,35 +47469,35 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>AFC Wimbledon</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Bradford City</t>
+          <t>Grimsby Town</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
       </c>
       <c r="K232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M232" t="n">
         <v>0</v>
       </c>
       <c r="N232" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>['24', '32', '85']</t>
+          <t>['60']</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
@@ -47509,19 +47509,19 @@
         <v>5</v>
       </c>
       <c r="R232" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S232" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T232" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="U232" t="n">
         <v>2.05</v>
       </c>
       <c r="V232" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="W232" t="n">
         <v>1.44</v>
@@ -47542,13 +47542,13 @@
         <v>1.06</v>
       </c>
       <c r="AC232" t="n">
-        <v>2.09</v>
+        <v>2.55</v>
       </c>
       <c r="AD232" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AE232" t="n">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="AF232" t="n">
         <v>1.07</v>
@@ -47557,10 +47557,10 @@
         <v>9</v>
       </c>
       <c r="AH232" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AI232" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AJ232" t="n">
         <v>2.2</v>
@@ -47569,82 +47569,82 @@
         <v>1.62</v>
       </c>
       <c r="AL232" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AM232" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AN232" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AO232" t="n">
         <v>1.28</v>
       </c>
       <c r="AP232" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="AQ232" t="n">
-        <v>2.44</v>
+        <v>1.56</v>
       </c>
       <c r="AR232" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="AS232" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AU232" t="n">
-        <v>1.66</v>
+        <v>1.28</v>
       </c>
       <c r="AV232" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AW232" t="n">
-        <v>2.89</v>
+        <v>2.72</v>
       </c>
       <c r="AX232" t="n">
-        <v>1.64</v>
+        <v>2.2</v>
       </c>
       <c r="AY232" t="n">
         <v>8</v>
       </c>
       <c r="AZ232" t="n">
-        <v>2.77</v>
+        <v>1.91</v>
       </c>
       <c r="BA232" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="BB232" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="BC232" t="n">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="BD232" t="n">
-        <v>2.45</v>
+        <v>2.03</v>
       </c>
       <c r="BE232" t="n">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="BF232" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BG232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH232" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BI232" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ232" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK232" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233">
@@ -47855,7 +47855,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>2580886</v>
+        <v>2580893</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -47875,35 +47875,35 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Grimsby Town</t>
+          <t>Bradford City</t>
         </is>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J234" t="n">
         <v>0</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L234" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M234" t="n">
         <v>0</v>
       </c>
       <c r="N234" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>['24', '32', '85']</t>
         </is>
       </c>
       <c r="P234" t="inlineStr">
@@ -47915,19 +47915,19 @@
         <v>5</v>
       </c>
       <c r="R234" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S234" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T234" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="U234" t="n">
         <v>2.05</v>
       </c>
       <c r="V234" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="W234" t="n">
         <v>1.44</v>
@@ -47948,13 +47948,13 @@
         <v>1.06</v>
       </c>
       <c r="AC234" t="n">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
       <c r="AD234" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AE234" t="n">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="AF234" t="n">
         <v>1.07</v>
@@ -47963,10 +47963,10 @@
         <v>9</v>
       </c>
       <c r="AH234" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AI234" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AJ234" t="n">
         <v>2.2</v>
@@ -47975,82 +47975,82 @@
         <v>1.62</v>
       </c>
       <c r="AL234" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AM234" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AN234" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AO234" t="n">
         <v>1.28</v>
       </c>
       <c r="AP234" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.56</v>
+        <v>2.44</v>
       </c>
       <c r="AR234" t="n">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AU234" t="n">
-        <v>1.28</v>
+        <v>1.66</v>
       </c>
       <c r="AV234" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AW234" t="n">
-        <v>2.72</v>
+        <v>2.89</v>
       </c>
       <c r="AX234" t="n">
-        <v>2.2</v>
+        <v>1.64</v>
       </c>
       <c r="AY234" t="n">
         <v>8</v>
       </c>
       <c r="AZ234" t="n">
-        <v>1.91</v>
+        <v>2.77</v>
       </c>
       <c r="BA234" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="BB234" t="n">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="BC234" t="n">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="BD234" t="n">
-        <v>2.03</v>
+        <v>2.45</v>
       </c>
       <c r="BE234" t="n">
-        <v>2.66</v>
+        <v>3.5</v>
       </c>
       <c r="BF234" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BG234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH234" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BI234" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ234" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK234" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235">
@@ -48608,7 +48608,7 @@
         <v>1.8</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AU237" t="n">
         <v>1.58</v>
@@ -48811,7 +48811,7 @@
         <v>1.8</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU238" t="n">
         <v>1.43</v>
@@ -49214,7 +49214,7 @@
         <v>1.44</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT240" t="n">
         <v>1.3</v>
@@ -49269,6 +49269,1224 @@
       </c>
       <c r="BK240" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2580899</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>44904.69791666666</v>
+      </c>
+      <c r="F241" t="n">
+        <v>21</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Crawley Town</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Hartlepool United</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>2</v>
+      </c>
+      <c r="N241" t="n">
+        <v>2</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['64', '81']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>3</v>
+      </c>
+      <c r="R241" t="n">
+        <v>3</v>
+      </c>
+      <c r="S241" t="n">
+        <v>6</v>
+      </c>
+      <c r="T241" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V241" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X241" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2580908</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>44905.5</v>
+      </c>
+      <c r="F242" t="n">
+        <v>21</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Sutton United</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Colchester United</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['45+9']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>5</v>
+      </c>
+      <c r="R242" t="n">
+        <v>2</v>
+      </c>
+      <c r="S242" t="n">
+        <v>7</v>
+      </c>
+      <c r="T242" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U242" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V242" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X242" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2580909</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>44905.5</v>
+      </c>
+      <c r="F243" t="n">
+        <v>21</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Swindon Town</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>6</v>
+      </c>
+      <c r="R243" t="n">
+        <v>7</v>
+      </c>
+      <c r="S243" t="n">
+        <v>13</v>
+      </c>
+      <c r="T243" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V243" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X243" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2580907</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>44905.5</v>
+      </c>
+      <c r="F244" t="n">
+        <v>21</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Mansfield Town</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>3</v>
+      </c>
+      <c r="R244" t="n">
+        <v>2</v>
+      </c>
+      <c r="S244" t="n">
+        <v>5</v>
+      </c>
+      <c r="T244" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V244" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X244" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2580902</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>44905.5</v>
+      </c>
+      <c r="F245" t="n">
+        <v>21</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Grimsby Town</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Tranmere Rovers</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="n">
+        <v>2</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="n">
+        <v>3</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['7', '58']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>9</v>
+      </c>
+      <c r="R245" t="n">
+        <v>3</v>
+      </c>
+      <c r="S245" t="n">
+        <v>12</v>
+      </c>
+      <c r="T245" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U245" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V245" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2580904</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>44905.5</v>
+      </c>
+      <c r="F246" t="n">
+        <v>21</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Newport County</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>6</v>
+      </c>
+      <c r="R246" t="n">
+        <v>6</v>
+      </c>
+      <c r="S246" t="n">
+        <v>12</v>
+      </c>
+      <c r="T246" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V246" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X246" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK246"/>
+  <dimension ref="A1:BK249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT9" t="n">
         <v>1.6</v>
@@ -2527,7 +2527,7 @@
         <v>1.2</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT13" t="n">
         <v>0.09</v>
@@ -4760,7 +4760,7 @@
         <v>1.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.3</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT24" t="n">
         <v>1.9</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT32" t="n">
         <v>1.45</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT34" t="n">
         <v>0.45</v>
@@ -7602,7 +7602,7 @@
         <v>1.7</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU35" t="n">
         <v>2.39</v>
@@ -9632,7 +9632,7 @@
         <v>1.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU45" t="n">
         <v>0.74</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT48" t="n">
         <v>1</v>
@@ -10850,7 +10850,7 @@
         <v>2.55</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU51" t="n">
         <v>1.83</v>
@@ -11459,7 +11459,7 @@
         <v>1.1</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU54" t="n">
         <v>2.59</v>
@@ -12674,7 +12674,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT60" t="n">
         <v>0.7</v>
@@ -13489,7 +13489,7 @@
         <v>1.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU64" t="n">
         <v>2</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT67" t="n">
         <v>1.36</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT68" t="n">
         <v>0.45</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT77" t="n">
         <v>1.18</v>
@@ -16331,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU78" t="n">
         <v>1.39</v>
@@ -17749,7 +17749,7 @@
         <v>1.67</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT85" t="n">
         <v>1.36</v>
@@ -18361,7 +18361,7 @@
         <v>1.73</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU88" t="n">
         <v>1.35</v>
@@ -18970,7 +18970,7 @@
         <v>1.8</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU91" t="n">
         <v>1.79</v>
@@ -20188,7 +20188,7 @@
         <v>1.6</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU97" t="n">
         <v>1.52</v>
@@ -20591,7 +20591,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT99" t="n">
         <v>0.8</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT106" t="n">
         <v>1</v>
@@ -22621,7 +22621,7 @@
         <v>0</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT109" t="n">
         <v>1.3</v>
@@ -23639,7 +23639,7 @@
         <v>1.1</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU114" t="n">
         <v>1.79</v>
@@ -24045,7 +24045,7 @@
         <v>0.91</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU116" t="n">
         <v>1.32</v>
@@ -24245,7 +24245,7 @@
         <v>2.5</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT117" t="n">
         <v>2.3</v>
@@ -25060,7 +25060,7 @@
         <v>1.1</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU121" t="n">
         <v>1.53</v>
@@ -26681,7 +26681,7 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT129" t="n">
         <v>1.2</v>
@@ -26887,7 +26887,7 @@
         <v>1</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU130" t="n">
         <v>1.2</v>
@@ -27902,7 +27902,7 @@
         <v>2.55</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU135" t="n">
         <v>1.95</v>
@@ -28508,7 +28508,7 @@
         <v>1.5</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT138" t="n">
         <v>1.45</v>
@@ -29729,7 +29729,7 @@
         <v>1</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU144" t="n">
         <v>1.32</v>
@@ -30132,7 +30132,7 @@
         <v>2</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT146" t="n">
         <v>1.9</v>
@@ -30338,7 +30338,7 @@
         <v>2.55</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU147" t="n">
         <v>1.88</v>
@@ -32365,7 +32365,7 @@
         <v>1.83</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT157" t="n">
         <v>2.1</v>
@@ -32977,7 +32977,7 @@
         <v>1.7</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU160" t="n">
         <v>1.33</v>
@@ -36225,7 +36225,7 @@
         <v>1.4</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU176" t="n">
         <v>1.32</v>
@@ -36425,7 +36425,7 @@
         <v>2.29</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT177" t="n">
         <v>1.6</v>
@@ -36831,7 +36831,7 @@
         <v>0.5</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT179" t="n">
         <v>0.4</v>
@@ -37037,7 +37037,7 @@
         <v>1.5</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU180" t="n">
         <v>1.84</v>
@@ -37440,10 +37440,10 @@
         <v>0.57</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU182" t="n">
         <v>1.5</v>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT186" t="n">
         <v>1.2</v>
@@ -38658,7 +38658,7 @@
         <v>1</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT188" t="n">
         <v>1.11</v>
@@ -38864,7 +38864,7 @@
         <v>1.8</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU189" t="n">
         <v>1.61</v>
@@ -39470,7 +39470,7 @@
         <v>2.29</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT192" t="n">
         <v>1.9</v>
@@ -39676,7 +39676,7 @@
         <v>1.5</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU193" t="n">
         <v>1.85</v>
@@ -39879,7 +39879,7 @@
         <v>1.4</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU194" t="n">
         <v>1.53</v>
@@ -40891,7 +40891,7 @@
         <v>0.14</v>
       </c>
       <c r="AS199" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT199" t="n">
         <v>0.09</v>
@@ -41097,7 +41097,7 @@
         <v>1.2</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU200" t="n">
         <v>1.54</v>
@@ -45360,7 +45360,7 @@
         <v>1.2</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU221" t="n">
         <v>1.45</v>
@@ -46372,7 +46372,7 @@
         <v>0.22</v>
       </c>
       <c r="AS226" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT226" t="n">
         <v>0.45</v>
@@ -47996,7 +47996,7 @@
         <v>2.11</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AT234" t="n">
         <v>1.9</v>
@@ -48202,7 +48202,7 @@
         <v>1.7</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AU235" t="n">
         <v>1.67</v>
@@ -48808,7 +48808,7 @@
         <v>1.33</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AT238" t="n">
         <v>1.18</v>
@@ -49217,7 +49217,7 @@
         <v>1.45</v>
       </c>
       <c r="AT240" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU240" t="n">
         <v>1.06</v>
@@ -50487,6 +50487,615 @@
       </c>
       <c r="BK246" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2580916</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F247" t="n">
+        <v>22</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Sutton United</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>2</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>2</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['62', '79']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>4</v>
+      </c>
+      <c r="R247" t="n">
+        <v>3</v>
+      </c>
+      <c r="S247" t="n">
+        <v>7</v>
+      </c>
+      <c r="T247" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V247" t="n">
+        <v>5</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X247" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2580911</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>44912.5</v>
+      </c>
+      <c r="F248" t="n">
+        <v>22</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Barrow</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Swindon Town</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>6</v>
+      </c>
+      <c r="R248" t="n">
+        <v>3</v>
+      </c>
+      <c r="S248" t="n">
+        <v>9</v>
+      </c>
+      <c r="T248" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U248" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V248" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X248" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2580918</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>44915.69791666666</v>
+      </c>
+      <c r="F249" t="n">
+        <v>22</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Carlisle United</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>2</v>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="n">
+        <v>3</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['53', '56']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>8</v>
+      </c>
+      <c r="R249" t="n">
+        <v>3</v>
+      </c>
+      <c r="S249" t="n">
+        <v>11</v>
+      </c>
+      <c r="T249" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U249" t="n">
+        <v>2</v>
+      </c>
+      <c r="V249" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X249" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK249"/>
+  <dimension ref="A1:BK260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT2" t="n">
         <v>0.4</v>
@@ -1106,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT4" t="n">
         <v>1.6</v>
@@ -1512,7 +1512,7 @@
         <v>1.82</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT6" t="n">
         <v>1.45</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2324,7 +2324,7 @@
         <v>2.55</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT10" t="n">
         <v>1.45</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT11" t="n">
         <v>0.5</v>
@@ -2933,7 +2933,7 @@
         <v>1.4</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.91</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT15" t="n">
         <v>1.9</v>
@@ -3948,7 +3948,7 @@
         <v>0.91</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT18" t="n">
         <v>1.18</v>
@@ -4354,7 +4354,7 @@
         <v>1.1</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT20" t="n">
         <v>2.3</v>
@@ -4760,7 +4760,7 @@
         <v>1.6</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>2.18</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT25" t="n">
         <v>0.8</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>0.99</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT28" t="n">
         <v>0.4</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU30" t="n">
         <v>1.34</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AU31" t="n">
         <v>1.58</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
@@ -7399,7 +7399,7 @@
         <v>1.91</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU34" t="n">
         <v>1.34</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT35" t="n">
         <v>1.45</v>
@@ -7805,7 +7805,7 @@
         <v>1.4</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU36" t="n">
         <v>2.46</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU37" t="n">
         <v>1.21</v>
@@ -8208,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT38" t="n">
         <v>2.3</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT41" t="n">
         <v>1.18</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT44" t="n">
         <v>0.7</v>
@@ -9632,7 +9632,7 @@
         <v>1.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU45" t="n">
         <v>0.74</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU46" t="n">
         <v>0.01</v>
@@ -10038,7 +10038,7 @@
         <v>1.3</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU47" t="n">
         <v>1.27</v>
@@ -10241,7 +10241,7 @@
         <v>2.18</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU48" t="n">
         <v>1.63</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU49" t="n">
         <v>1.19</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT50" t="n">
         <v>0.8</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT53" t="n">
         <v>1.3</v>
@@ -11459,7 +11459,7 @@
         <v>1.1</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU54" t="n">
         <v>2.59</v>
@@ -11659,10 +11659,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU55" t="n">
         <v>1.6</v>
@@ -12068,7 +12068,7 @@
         <v>1.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU57" t="n">
         <v>0.99</v>
@@ -12268,7 +12268,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT58" t="n">
         <v>1.18</v>
@@ -12877,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT61" t="n">
         <v>1.6</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AU62" t="n">
         <v>1.32</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT64" t="n">
         <v>1.45</v>
@@ -13692,7 +13692,7 @@
         <v>2</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU65" t="n">
         <v>1.65</v>
@@ -13892,7 +13892,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT66" t="n">
         <v>0.5</v>
@@ -14098,7 +14098,7 @@
         <v>1.91</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU67" t="n">
         <v>1.68</v>
@@ -14301,7 +14301,7 @@
         <v>2.55</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU68" t="n">
         <v>1.36</v>
@@ -14501,10 +14501,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU69" t="n">
         <v>1.76</v>
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT70" t="n">
         <v>0.4</v>
@@ -14910,7 +14910,7 @@
         <v>1.4</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.84</v>
@@ -15110,7 +15110,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT72" t="n">
         <v>1</v>
@@ -15516,7 +15516,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT74" t="n">
         <v>1.18</v>
@@ -15719,7 +15719,7 @@
         <v>0.67</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT75" t="n">
         <v>0.5</v>
@@ -16328,7 +16328,7 @@
         <v>0.67</v>
       </c>
       <c r="AS78" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT78" t="n">
         <v>1.45</v>
@@ -16534,7 +16534,7 @@
         <v>0.91</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU79" t="n">
         <v>1.28</v>
@@ -16940,7 +16940,7 @@
         <v>1.3</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU81" t="n">
         <v>1.22</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT82" t="n">
         <v>0.8</v>
@@ -17346,7 +17346,7 @@
         <v>1.4</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU83" t="n">
         <v>1.7</v>
@@ -17752,7 +17752,7 @@
         <v>2.18</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU85" t="n">
         <v>1.57</v>
@@ -17955,7 +17955,7 @@
         <v>2</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AU86" t="n">
         <v>1.57</v>
@@ -18155,10 +18155,10 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU87" t="n">
         <v>1.35</v>
@@ -18358,10 +18358,10 @@
         <v>0.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU88" t="n">
         <v>1.35</v>
@@ -18564,7 +18564,7 @@
         <v>2.55</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU89" t="n">
         <v>1.95</v>
@@ -18764,7 +18764,7 @@
         <v>2.33</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT90" t="n">
         <v>2.3</v>
@@ -18967,7 +18967,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT91" t="n">
         <v>1.45</v>
@@ -19173,7 +19173,7 @@
         <v>1</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU92" t="n">
         <v>1.03</v>
@@ -19373,7 +19373,7 @@
         <v>1.33</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT93" t="n">
         <v>1.9</v>
@@ -19779,10 +19779,10 @@
         <v>1.67</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU95" t="n">
         <v>1.41</v>
@@ -19982,7 +19982,7 @@
         <v>0</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT96" t="n">
         <v>1.3</v>
@@ -20388,7 +20388,7 @@
         <v>0.75</v>
       </c>
       <c r="AS98" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT98" t="n">
         <v>1.45</v>
@@ -21000,7 +21000,7 @@
         <v>1.3</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU101" t="n">
         <v>1.24</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT102" t="n">
         <v>1.18</v>
@@ -21606,7 +21606,7 @@
         <v>0.25</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT104" t="n">
         <v>1.18</v>
@@ -21809,7 +21809,7 @@
         <v>0.75</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT105" t="n">
         <v>0.7</v>
@@ -22015,7 +22015,7 @@
         <v>2.55</v>
       </c>
       <c r="AT106" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU106" t="n">
         <v>1.64</v>
@@ -22218,7 +22218,7 @@
         <v>1.82</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU107" t="n">
         <v>1.51</v>
@@ -25260,10 +25260,10 @@
         <v>0.2</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU122" t="n">
         <v>1.67</v>
@@ -25463,10 +25463,10 @@
         <v>1.5</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU123" t="n">
         <v>1.48</v>
@@ -25666,7 +25666,7 @@
         <v>1.8</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT124" t="n">
         <v>1</v>
@@ -25869,10 +25869,10 @@
         <v>2</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT125" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU125" t="n">
         <v>1.55</v>
@@ -26072,10 +26072,10 @@
         <v>0.8</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT126" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU126" t="n">
         <v>1.87</v>
@@ -26275,10 +26275,10 @@
         <v>2.4</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU127" t="n">
         <v>1.51</v>
@@ -26478,10 +26478,10 @@
         <v>1.25</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU128" t="n">
         <v>1.42</v>
@@ -26684,7 +26684,7 @@
         <v>2.55</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU129" t="n">
         <v>1.56</v>
@@ -26884,10 +26884,10 @@
         <v>0.25</v>
       </c>
       <c r="AS130" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU130" t="n">
         <v>1.2</v>
@@ -27087,7 +27087,7 @@
         <v>1.4</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT131" t="n">
         <v>1.6</v>
@@ -27290,10 +27290,10 @@
         <v>0.25</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AU132" t="n">
         <v>1.31</v>
@@ -27493,10 +27493,10 @@
         <v>1.25</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU133" t="n">
         <v>1.81</v>
@@ -27696,10 +27696,10 @@
         <v>1.4</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU134" t="n">
         <v>1.47</v>
@@ -27902,7 +27902,7 @@
         <v>2.55</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU135" t="n">
         <v>1.95</v>
@@ -28105,7 +28105,7 @@
         <v>1</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU136" t="n">
         <v>1.16</v>
@@ -28308,7 +28308,7 @@
         <v>2</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU137" t="n">
         <v>1.44</v>
@@ -30944,10 +30944,10 @@
         <v>1.2</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.36</v>
@@ -31147,10 +31147,10 @@
         <v>0.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU151" t="n">
         <v>1.55</v>
@@ -31350,10 +31350,10 @@
         <v>0.83</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT152" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU152" t="n">
         <v>1.77</v>
@@ -31553,7 +31553,7 @@
         <v>1.5</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT153" t="n">
         <v>1</v>
@@ -31756,10 +31756,10 @@
         <v>1.8</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU154" t="n">
         <v>1.54</v>
@@ -31959,10 +31959,10 @@
         <v>2.17</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU155" t="n">
         <v>1.91</v>
@@ -32162,10 +32162,10 @@
         <v>0.2</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AU156" t="n">
         <v>1.59</v>
@@ -32368,7 +32368,7 @@
         <v>2.55</v>
       </c>
       <c r="AT157" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU157" t="n">
         <v>1.67</v>
@@ -32568,10 +32568,10 @@
         <v>1.17</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU158" t="n">
         <v>1.02</v>
@@ -32771,7 +32771,7 @@
         <v>1.67</v>
       </c>
       <c r="AS159" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT159" t="n">
         <v>1.6</v>
@@ -32974,10 +32974,10 @@
         <v>0.17</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU160" t="n">
         <v>1.33</v>
@@ -33177,10 +33177,10 @@
         <v>1.33</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU161" t="n">
         <v>1.68</v>
@@ -33380,10 +33380,10 @@
         <v>0.29</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU162" t="n">
         <v>1.62</v>
@@ -33586,7 +33586,7 @@
         <v>1.82</v>
       </c>
       <c r="AT163" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU163" t="n">
         <v>1.47</v>
@@ -33789,7 +33789,7 @@
         <v>2.55</v>
       </c>
       <c r="AT164" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU164" t="n">
         <v>1.86</v>
@@ -33989,7 +33989,7 @@
         <v>0.5</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT165" t="n">
         <v>1.3</v>
@@ -34192,7 +34192,7 @@
         <v>0.71</v>
       </c>
       <c r="AS166" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT166" t="n">
         <v>1.18</v>
@@ -34398,7 +34398,7 @@
         <v>0.91</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AU167" t="n">
         <v>1.32</v>
@@ -34598,7 +34598,7 @@
         <v>1.43</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT168" t="n">
         <v>1.18</v>
@@ -34801,7 +34801,7 @@
         <v>1.29</v>
       </c>
       <c r="AS169" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT169" t="n">
         <v>1</v>
@@ -35007,7 +35007,7 @@
         <v>1.5</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU170" t="n">
         <v>1.15</v>
@@ -35210,7 +35210,7 @@
         <v>1.1</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU171" t="n">
         <v>1.65</v>
@@ -35410,7 +35410,7 @@
         <v>2.33</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT172" t="n">
         <v>2.3</v>
@@ -35613,7 +35613,7 @@
         <v>1.71</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT173" t="n">
         <v>1.45</v>
@@ -36428,7 +36428,7 @@
         <v>2.18</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU177" t="n">
         <v>1.6</v>
@@ -36628,10 +36628,10 @@
         <v>1</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU178" t="n">
         <v>1.24</v>
@@ -37034,7 +37034,7 @@
         <v>1.5</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT180" t="n">
         <v>1.45</v>
@@ -37443,7 +37443,7 @@
         <v>1.91</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU182" t="n">
         <v>1.5</v>
@@ -37846,7 +37846,7 @@
         <v>1</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT184" t="n">
         <v>0.8</v>
@@ -38049,10 +38049,10 @@
         <v>1</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU185" t="n">
         <v>1.76</v>
@@ -38255,7 +38255,7 @@
         <v>1.91</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU186" t="n">
         <v>1.44</v>
@@ -38455,7 +38455,7 @@
         <v>0.5</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT187" t="n">
         <v>0.7</v>
@@ -38661,7 +38661,7 @@
         <v>2.18</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU188" t="n">
         <v>1.6</v>
@@ -38861,7 +38861,7 @@
         <v>1.25</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT189" t="n">
         <v>1.45</v>
@@ -39270,7 +39270,7 @@
         <v>1</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU191" t="n">
         <v>1.37</v>
@@ -39673,10 +39673,10 @@
         <v>0.63</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU193" t="n">
         <v>1.85</v>
@@ -39876,7 +39876,7 @@
         <v>1.29</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT194" t="n">
         <v>1.45</v>
@@ -40688,7 +40688,7 @@
         <v>0.86</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT198" t="n">
         <v>1.3</v>
@@ -40894,7 +40894,7 @@
         <v>2.18</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AU199" t="n">
         <v>1.6</v>
@@ -41094,7 +41094,7 @@
         <v>1.5</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT200" t="n">
         <v>1.45</v>
@@ -41297,10 +41297,10 @@
         <v>1.86</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU201" t="n">
         <v>1.64</v>
@@ -41500,7 +41500,7 @@
         <v>2</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT202" t="n">
         <v>1.9</v>
@@ -41703,7 +41703,7 @@
         <v>2.43</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT203" t="n">
         <v>2.3</v>
@@ -41906,7 +41906,7 @@
         <v>1.38</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT204" t="n">
         <v>1.18</v>
@@ -42112,7 +42112,7 @@
         <v>1.82</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU205" t="n">
         <v>1.52</v>
@@ -42312,7 +42312,7 @@
         <v>1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT206" t="n">
         <v>1.18</v>
@@ -42515,7 +42515,7 @@
         <v>1.5</v>
       </c>
       <c r="AS207" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT207" t="n">
         <v>1.45</v>
@@ -42921,7 +42921,7 @@
         <v>2.13</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT209" t="n">
         <v>2.3</v>
@@ -43127,7 +43127,7 @@
         <v>2.55</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU210" t="n">
         <v>1.77</v>
@@ -43327,10 +43327,10 @@
         <v>1.88</v>
       </c>
       <c r="AS211" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT211" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU211" t="n">
         <v>1.22</v>
@@ -43533,7 +43533,7 @@
         <v>1.5</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AU212" t="n">
         <v>1.26</v>
@@ -43733,7 +43733,7 @@
         <v>1.25</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT213" t="n">
         <v>1</v>
@@ -43936,10 +43936,10 @@
         <v>0.75</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT214" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU214" t="n">
         <v>1.72</v>
@@ -44142,7 +44142,7 @@
         <v>1.1</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU215" t="n">
         <v>1.64</v>
@@ -44545,7 +44545,7 @@
         <v>1</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AT217" t="n">
         <v>1.18</v>
@@ -44748,10 +44748,10 @@
         <v>0.88</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU218" t="n">
         <v>1.63</v>
@@ -45154,7 +45154,7 @@
         <v>2.22</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT220" t="n">
         <v>2.3</v>
@@ -45357,7 +45357,7 @@
         <v>1.44</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT221" t="n">
         <v>1.45</v>
@@ -45763,7 +45763,7 @@
         <v>1.67</v>
       </c>
       <c r="AS223" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT223" t="n">
         <v>1.45</v>
@@ -45969,7 +45969,7 @@
         <v>1.3</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU224" t="n">
         <v>1.13</v>
@@ -46172,7 +46172,7 @@
         <v>1.4</v>
       </c>
       <c r="AT225" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU225" t="n">
         <v>1.44</v>
@@ -46375,7 +46375,7 @@
         <v>2.18</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU226" t="n">
         <v>1.58</v>
@@ -46778,7 +46778,7 @@
         <v>0.33</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT228" t="n">
         <v>0.4</v>
@@ -47187,7 +47187,7 @@
         <v>1.5</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU230" t="n">
         <v>1.25</v>
@@ -47390,7 +47390,7 @@
         <v>1.6</v>
       </c>
       <c r="AT231" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU231" t="n">
         <v>1.42</v>
@@ -47590,10 +47590,10 @@
         <v>1.78</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU232" t="n">
         <v>1.28</v>
@@ -47793,7 +47793,7 @@
         <v>1.78</v>
       </c>
       <c r="AS233" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AT233" t="n">
         <v>1.9</v>
@@ -47999,7 +47999,7 @@
         <v>2.55</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AU234" t="n">
         <v>1.66</v>
@@ -48199,10 +48199,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU235" t="n">
         <v>1.67</v>
@@ -48605,10 +48605,10 @@
         <v>0.11</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AU237" t="n">
         <v>1.58</v>
@@ -49011,7 +49011,7 @@
         <v>0.44</v>
       </c>
       <c r="AS239" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT239" t="n">
         <v>0.7</v>
@@ -49214,7 +49214,7 @@
         <v>1.44</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT240" t="n">
         <v>1.45</v>
@@ -49417,10 +49417,10 @@
         <v>0.2</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT241" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AU241" t="n">
         <v>1.12</v>
@@ -49620,7 +49620,7 @@
         <v>1.2</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT242" t="n">
         <v>1.18</v>
@@ -49826,7 +49826,7 @@
         <v>1.82</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.09</v>
+        <v>0.33</v>
       </c>
       <c r="AU243" t="n">
         <v>1.5</v>
@@ -50435,7 +50435,7 @@
         <v>0.91</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU246" t="n">
         <v>1.3</v>
@@ -50638,7 +50638,7 @@
         <v>2.55</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AU247" t="n">
         <v>1.66</v>
@@ -51096,6 +51096,2239 @@
       </c>
       <c r="BK249" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2580928</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F250" t="n">
+        <v>23</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Mansfield Town</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="n">
+        <v>2</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>2</v>
+      </c>
+      <c r="R250" t="n">
+        <v>5</v>
+      </c>
+      <c r="S250" t="n">
+        <v>7</v>
+      </c>
+      <c r="T250" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U250" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V250" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X250" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2580932</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F251" t="n">
+        <v>23</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Swindon Town</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Walsall</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
+      <c r="K251" t="n">
+        <v>2</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="n">
+        <v>2</v>
+      </c>
+      <c r="N251" t="n">
+        <v>3</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>['45+1', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>4</v>
+      </c>
+      <c r="R251" t="n">
+        <v>6</v>
+      </c>
+      <c r="S251" t="n">
+        <v>10</v>
+      </c>
+      <c r="T251" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V251" t="n">
+        <v>4</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X251" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2580931</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F252" t="n">
+        <v>23</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Crewe Alexandra</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>2</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>2</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['55', '68']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>5</v>
+      </c>
+      <c r="R252" t="n">
+        <v>5</v>
+      </c>
+      <c r="S252" t="n">
+        <v>10</v>
+      </c>
+      <c r="T252" t="n">
+        <v>2</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V252" t="n">
+        <v>7</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X252" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>18</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2580930</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F253" t="n">
+        <v>23</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Salford City</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Barrow</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>1</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>2</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>2</v>
+      </c>
+      <c r="R253" t="n">
+        <v>7</v>
+      </c>
+      <c r="S253" t="n">
+        <v>9</v>
+      </c>
+      <c r="T253" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V253" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X253" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>17</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>2580929</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F254" t="n">
+        <v>23</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Hartlepool United</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="n">
+        <v>2</v>
+      </c>
+      <c r="N254" t="n">
+        <v>3</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['39', '80']</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>6</v>
+      </c>
+      <c r="R254" t="n">
+        <v>9</v>
+      </c>
+      <c r="S254" t="n">
+        <v>15</v>
+      </c>
+      <c r="T254" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V254" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X254" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2580926</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F255" t="n">
+        <v>23</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Harrogate Town</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Grimsby Town</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>1</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
+      <c r="K255" t="n">
+        <v>2</v>
+      </c>
+      <c r="L255" t="n">
+        <v>3</v>
+      </c>
+      <c r="M255" t="n">
+        <v>2</v>
+      </c>
+      <c r="N255" t="n">
+        <v>5</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['12', '76', '90+1']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['29', '49']</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>3</v>
+      </c>
+      <c r="R255" t="n">
+        <v>2</v>
+      </c>
+      <c r="S255" t="n">
+        <v>5</v>
+      </c>
+      <c r="T255" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U255" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V255" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X255" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2580933</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F256" t="n">
+        <v>23</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Tranmere Rovers</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>1</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="n">
+        <v>3</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>3</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>['45', '59', '77']</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>2</v>
+      </c>
+      <c r="R256" t="n">
+        <v>5</v>
+      </c>
+      <c r="S256" t="n">
+        <v>7</v>
+      </c>
+      <c r="T256" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U256" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V256" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X256" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2580924</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F257" t="n">
+        <v>23</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Crawley Town</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Sutton United</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="n">
+        <v>2</v>
+      </c>
+      <c r="N257" t="n">
+        <v>3</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>['61', '70']</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>4</v>
+      </c>
+      <c r="R257" t="n">
+        <v>2</v>
+      </c>
+      <c r="S257" t="n">
+        <v>6</v>
+      </c>
+      <c r="T257" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U257" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V257" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X257" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>2580923</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F258" t="n">
+        <v>23</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Carlisle United</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>1</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>9</v>
+      </c>
+      <c r="R258" t="n">
+        <v>3</v>
+      </c>
+      <c r="S258" t="n">
+        <v>12</v>
+      </c>
+      <c r="T258" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U258" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V258" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X258" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2580922</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F259" t="n">
+        <v>23</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Newport County</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="n">
+        <v>1</v>
+      </c>
+      <c r="N259" t="n">
+        <v>2</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>4</v>
+      </c>
+      <c r="R259" t="n">
+        <v>3</v>
+      </c>
+      <c r="S259" t="n">
+        <v>7</v>
+      </c>
+      <c r="T259" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U259" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V259" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X259" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>2580925</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>44921.5</v>
+      </c>
+      <c r="F260" t="n">
+        <v>23</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Gillingham</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Colchester United</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1</v>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>1</v>
+      </c>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>6</v>
+      </c>
+      <c r="R260" t="n">
+        <v>1</v>
+      </c>
+      <c r="S260" t="n">
+        <v>7</v>
+      </c>
+      <c r="T260" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U260" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V260" t="n">
+        <v>4</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X260" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK271"/>
+  <dimension ref="A1:BK273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>1.82</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT16" t="n">
         <v>1.45</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT17" t="n">
         <v>1.18</v>
@@ -4557,7 +4557,7 @@
         <v>1.33</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>1.36</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU33" t="n">
         <v>1.64</v>
@@ -8211,7 +8211,7 @@
         <v>1.58</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AU38" t="n">
         <v>0.95</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT39" t="n">
         <v>0.73</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT40" t="n">
         <v>2</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT51" t="n">
         <v>1.58</v>
@@ -11050,7 +11050,7 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT52" t="n">
         <v>1.33</v>
@@ -12474,7 +12474,7 @@
         <v>1.18</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AU59" t="n">
         <v>1.34</v>
@@ -13895,7 +13895,7 @@
         <v>0.64</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU66" t="n">
         <v>1.59</v>
@@ -15722,7 +15722,7 @@
         <v>1.18</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU75" t="n">
         <v>1.52</v>
@@ -16531,7 +16531,7 @@
         <v>2</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT79" t="n">
         <v>1.45</v>
@@ -18561,7 +18561,7 @@
         <v>1.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT89" t="n">
         <v>1.18</v>
@@ -18767,7 +18767,7 @@
         <v>0.64</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AU90" t="n">
         <v>1.58</v>
@@ -20797,7 +20797,7 @@
         <v>1.36</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU100" t="n">
         <v>1.01</v>
@@ -22418,7 +22418,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT108" t="n">
         <v>1</v>
@@ -23436,7 +23436,7 @@
         <v>1.73</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU113" t="n">
         <v>1.41</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT116" t="n">
         <v>1.58</v>
@@ -24248,7 +24248,7 @@
         <v>2</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AU117" t="n">
         <v>1.77</v>
@@ -24651,7 +24651,7 @@
         <v>0.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT119" t="n">
         <v>0.64</v>
@@ -27899,7 +27899,7 @@
         <v>0.2</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT135" t="n">
         <v>0.75</v>
@@ -29726,7 +29726,7 @@
         <v>0.67</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT144" t="n">
         <v>0.73</v>
@@ -30132,7 +30132,7 @@
         <v>1.5</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT146" t="n">
         <v>1.58</v>
@@ -30541,7 +30541,7 @@
         <v>1.73</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AU148" t="n">
         <v>1.46</v>
@@ -30744,7 +30744,7 @@
         <v>1</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU149" t="n">
         <v>1.64</v>
@@ -34195,7 +34195,7 @@
         <v>1.82</v>
       </c>
       <c r="AT166" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AU166" t="n">
         <v>1.74</v>
@@ -34801,7 +34801,7 @@
         <v>1.71</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT169" t="n">
         <v>2</v>
@@ -35613,7 +35613,7 @@
         <v>0.17</v>
       </c>
       <c r="AS173" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT173" t="n">
         <v>0.33</v>
@@ -36428,7 +36428,7 @@
         <v>1.18</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU177" t="n">
         <v>1.19</v>
@@ -40082,7 +40082,7 @@
         <v>1.55</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU195" t="n">
         <v>1.28</v>
@@ -41097,7 +41097,7 @@
         <v>1.64</v>
       </c>
       <c r="AT200" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AU200" t="n">
         <v>1.33</v>
@@ -42109,7 +42109,7 @@
         <v>0.25</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT205" t="n">
         <v>0.67</v>
@@ -42718,7 +42718,7 @@
         <v>0.88</v>
       </c>
       <c r="AS208" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT208" t="n">
         <v>1.45</v>
@@ -42924,7 +42924,7 @@
         <v>1.36</v>
       </c>
       <c r="AT209" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AU209" t="n">
         <v>1.63</v>
@@ -44751,7 +44751,7 @@
         <v>1.64</v>
       </c>
       <c r="AT218" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AU218" t="n">
         <v>1.85</v>
@@ -45157,7 +45157,7 @@
         <v>1.82</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU220" t="n">
         <v>1.45</v>
@@ -45560,7 +45560,7 @@
         <v>0.38</v>
       </c>
       <c r="AS222" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT222" t="n">
         <v>0.36</v>
@@ -47387,7 +47387,7 @@
         <v>1.11</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT231" t="n">
         <v>1</v>
@@ -49823,7 +49823,7 @@
         <v>1.5</v>
       </c>
       <c r="AS243" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AT243" t="n">
         <v>1.58</v>
@@ -50026,7 +50026,7 @@
         <v>1.2</v>
       </c>
       <c r="AS244" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AT244" t="n">
         <v>1.25</v>
@@ -55562,6 +55562,412 @@
       </c>
       <c r="BK271" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>2580942</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>44925.69791666666</v>
+      </c>
+      <c r="F272" t="n">
+        <v>24</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Crawley Town</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>2</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>2</v>
+      </c>
+      <c r="L272" t="n">
+        <v>3</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1</v>
+      </c>
+      <c r="N272" t="n">
+        <v>4</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['10', '40', '83']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>7</v>
+      </c>
+      <c r="R272" t="n">
+        <v>5</v>
+      </c>
+      <c r="S272" t="n">
+        <v>12</v>
+      </c>
+      <c r="T272" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V272" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X272" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>2580940</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>44925.69791666666</v>
+      </c>
+      <c r="F273" t="n">
+        <v>24</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Newport County</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>3</v>
+      </c>
+      <c r="R273" t="n">
+        <v>6</v>
+      </c>
+      <c r="S273" t="n">
+        <v>9</v>
+      </c>
+      <c r="T273" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2</v>
+      </c>
+      <c r="V273" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X273" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK281"/>
+  <dimension ref="A1:BK285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.64</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.82</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT13" t="n">
         <v>0.33</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT16" t="n">
         <v>1.33</v>
@@ -4557,7 +4557,7 @@
         <v>1.33</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT24" t="n">
         <v>1.73</v>
@@ -5572,7 +5572,7 @@
         <v>0.91</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>1.55</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU28" t="n">
         <v>1.11</v>
@@ -7196,7 +7196,7 @@
         <v>1.36</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU33" t="n">
         <v>1.64</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT34" t="n">
         <v>0.67</v>
@@ -8211,7 +8211,7 @@
         <v>1.58</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU38" t="n">
         <v>0.95</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU39" t="n">
         <v>1.8</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT48" t="n">
         <v>1.18</v>
@@ -10647,7 +10647,7 @@
         <v>1.58</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU50" t="n">
         <v>0.99</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT51" t="n">
         <v>1.46</v>
@@ -12474,7 +12474,7 @@
         <v>1.33</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU59" t="n">
         <v>1.34</v>
@@ -12674,7 +12674,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT60" t="n">
         <v>0.67</v>
@@ -13895,7 +13895,7 @@
         <v>0.64</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.59</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT67" t="n">
         <v>1.25</v>
@@ -14707,7 +14707,7 @@
         <v>1.82</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU70" t="n">
         <v>2.11</v>
@@ -15722,7 +15722,7 @@
         <v>1.18</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU75" t="n">
         <v>1.52</v>
@@ -15922,7 +15922,7 @@
         <v>2</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT76" t="n">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>1.82</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU82" t="n">
         <v>1.74</v>
@@ -17749,7 +17749,7 @@
         <v>1.67</v>
       </c>
       <c r="AS85" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT85" t="n">
         <v>1.25</v>
@@ -18561,7 +18561,7 @@
         <v>1.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT89" t="n">
         <v>1.18</v>
@@ -18767,7 +18767,7 @@
         <v>0.64</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU90" t="n">
         <v>1.58</v>
@@ -19579,7 +19579,7 @@
         <v>1.17</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU94" t="n">
         <v>1.86</v>
@@ -20591,10 +20591,10 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU99" t="n">
         <v>1.58</v>
@@ -20797,7 +20797,7 @@
         <v>1.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU100" t="n">
         <v>1.01</v>
@@ -22621,7 +22621,7 @@
         <v>0</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT109" t="n">
         <v>1.33</v>
@@ -23030,7 +23030,7 @@
         <v>1.33</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU111" t="n">
         <v>1.21</v>
@@ -23436,7 +23436,7 @@
         <v>1.83</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.41</v>
@@ -23842,7 +23842,7 @@
         <v>0.92</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU115" t="n">
         <v>1.2</v>
@@ -24245,10 +24245,10 @@
         <v>2.5</v>
       </c>
       <c r="AS117" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU117" t="n">
         <v>1.77</v>
@@ -24651,7 +24651,7 @@
         <v>0.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT119" t="n">
         <v>0.67</v>
@@ -27899,7 +27899,7 @@
         <v>0.2</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT135" t="n">
         <v>0.75</v>
@@ -28508,7 +28508,7 @@
         <v>1.5</v>
       </c>
       <c r="AS138" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT138" t="n">
         <v>1.46</v>
@@ -28714,7 +28714,7 @@
         <v>1.5</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU139" t="n">
         <v>1.1</v>
@@ -29729,7 +29729,7 @@
         <v>0.92</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU144" t="n">
         <v>1.22</v>
@@ -29929,7 +29929,7 @@
         <v>2</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT145" t="n">
         <v>1.83</v>
@@ -30132,7 +30132,7 @@
         <v>1.5</v>
       </c>
       <c r="AS146" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT146" t="n">
         <v>1.46</v>
@@ -30541,7 +30541,7 @@
         <v>1.83</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU148" t="n">
         <v>1.46</v>
@@ -30744,7 +30744,7 @@
         <v>1.17</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU149" t="n">
         <v>1.64</v>
@@ -34195,7 +34195,7 @@
         <v>1.82</v>
       </c>
       <c r="AT166" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU166" t="n">
         <v>1.74</v>
@@ -34801,7 +34801,7 @@
         <v>1.71</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT169" t="n">
         <v>2</v>
@@ -36019,7 +36019,7 @@
         <v>2.29</v>
       </c>
       <c r="AS175" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT175" t="n">
         <v>1.45</v>
@@ -36428,7 +36428,7 @@
         <v>1.33</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU177" t="n">
         <v>1.19</v>
@@ -36834,7 +36834,7 @@
         <v>1.55</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU179" t="n">
         <v>1.43</v>
@@ -37240,7 +37240,7 @@
         <v>2.42</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU181" t="n">
         <v>1.7</v>
@@ -37440,7 +37440,7 @@
         <v>0.57</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT182" t="n">
         <v>0.75</v>
@@ -38252,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT186" t="n">
         <v>1.18</v>
@@ -38661,7 +38661,7 @@
         <v>1.83</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU188" t="n">
         <v>1.38</v>
@@ -39676,7 +39676,7 @@
         <v>1.92</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU193" t="n">
         <v>1.48</v>
@@ -40082,7 +40082,7 @@
         <v>1.67</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU195" t="n">
         <v>1.28</v>
@@ -40485,7 +40485,7 @@
         <v>1</v>
       </c>
       <c r="AS197" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT197" t="n">
         <v>1</v>
@@ -40688,7 +40688,7 @@
         <v>0.14</v>
       </c>
       <c r="AS198" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT198" t="n">
         <v>0.33</v>
@@ -41097,7 +41097,7 @@
         <v>1.64</v>
       </c>
       <c r="AT200" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU200" t="n">
         <v>1.33</v>
@@ -42109,7 +42109,7 @@
         <v>0.25</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT205" t="n">
         <v>0.67</v>
@@ -42924,7 +42924,7 @@
         <v>1.36</v>
       </c>
       <c r="AT209" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU209" t="n">
         <v>1.63</v>
@@ -44548,7 +44548,7 @@
         <v>2</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU217" t="n">
         <v>1.5</v>
@@ -44751,7 +44751,7 @@
         <v>1.64</v>
       </c>
       <c r="AT218" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU218" t="n">
         <v>1.85</v>
@@ -45157,7 +45157,7 @@
         <v>1.92</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU220" t="n">
         <v>1.45</v>
@@ -45563,7 +45563,7 @@
         <v>0.92</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU222" t="n">
         <v>1.29</v>
@@ -46372,7 +46372,7 @@
         <v>0.22</v>
       </c>
       <c r="AS226" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT226" t="n">
         <v>0.67</v>
@@ -46781,7 +46781,7 @@
         <v>1.33</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU228" t="n">
         <v>1.08</v>
@@ -47387,7 +47387,7 @@
         <v>1.11</v>
       </c>
       <c r="AS231" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT231" t="n">
         <v>1</v>
@@ -49011,7 +49011,7 @@
         <v>1.33</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT239" t="n">
         <v>1.23</v>
@@ -49823,7 +49823,7 @@
         <v>1.5</v>
       </c>
       <c r="AS243" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT243" t="n">
         <v>1.46</v>
@@ -50838,7 +50838,7 @@
         <v>1.3</v>
       </c>
       <c r="AS248" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT248" t="n">
         <v>1.46</v>
@@ -51041,7 +51041,7 @@
         <v>1.6</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT249" t="n">
         <v>1.46</v>
@@ -54089,7 +54089,7 @@
         <v>1.83</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU264" t="n">
         <v>1.43</v>
@@ -54495,7 +54495,7 @@
         <v>2</v>
       </c>
       <c r="AT266" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU266" t="n">
         <v>1.52</v>
@@ -54695,7 +54695,7 @@
         <v>1.45</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT267" t="n">
         <v>1.46</v>
@@ -55101,7 +55101,7 @@
         <v>1.18</v>
       </c>
       <c r="AS269" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT269" t="n">
         <v>1.23</v>
@@ -55710,10 +55710,10 @@
         <v>0.5</v>
       </c>
       <c r="AS272" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU272" t="n">
         <v>1.64</v>
@@ -55916,7 +55916,7 @@
         <v>0.92</v>
       </c>
       <c r="AT273" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU273" t="n">
         <v>1.3</v>
@@ -57592,6 +57592,818 @@
       </c>
       <c r="BK281" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>2580954</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F282" t="n">
+        <v>25</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" t="n">
+        <v>1</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q282" t="n">
+        <v>6</v>
+      </c>
+      <c r="R282" t="n">
+        <v>6</v>
+      </c>
+      <c r="S282" t="n">
+        <v>12</v>
+      </c>
+      <c r="T282" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U282" t="n">
+        <v>2</v>
+      </c>
+      <c r="V282" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W282" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X282" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD282" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE282" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF282" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG282" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ282" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK282" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>2580955</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F283" t="n">
+        <v>25</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Gillingham</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>1</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>1</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q283" t="n">
+        <v>2</v>
+      </c>
+      <c r="R283" t="n">
+        <v>2</v>
+      </c>
+      <c r="S283" t="n">
+        <v>4</v>
+      </c>
+      <c r="T283" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U283" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V283" t="n">
+        <v>7</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X283" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ283" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK283" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>2580953</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F284" t="n">
+        <v>25</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Newport County</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Crawley Town</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>1</v>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="n">
+        <v>2</v>
+      </c>
+      <c r="M284" t="n">
+        <v>2</v>
+      </c>
+      <c r="N284" t="n">
+        <v>4</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>['83', '90+2']</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>['36', '67']</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
+        <v>6</v>
+      </c>
+      <c r="R284" t="n">
+        <v>1</v>
+      </c>
+      <c r="S284" t="n">
+        <v>7</v>
+      </c>
+      <c r="T284" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U284" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V284" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X284" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH284" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>2580946</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>44928.5</v>
+      </c>
+      <c r="F285" t="n">
+        <v>25</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Barrow</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>3</v>
+      </c>
+      <c r="R285" t="n">
+        <v>2</v>
+      </c>
+      <c r="S285" t="n">
+        <v>5</v>
+      </c>
+      <c r="T285" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U285" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V285" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X285" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK285"/>
+  <dimension ref="A1:BK286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT6" t="n">
         <v>1.46</v>
@@ -4354,7 +4354,7 @@
         <v>1.17</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -9835,7 +9835,7 @@
         <v>1.33</v>
       </c>
       <c r="AT46" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU46" t="n">
         <v>0.01</v>
@@ -12068,7 +12068,7 @@
         <v>1.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU57" t="n">
         <v>0.99</v>
@@ -12877,7 +12877,7 @@
         <v>2</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT61" t="n">
         <v>1.55</v>
@@ -15719,7 +15719,7 @@
         <v>0.67</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT75" t="n">
         <v>0.5</v>
@@ -19782,7 +19782,7 @@
         <v>1.64</v>
       </c>
       <c r="AT95" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU95" t="n">
         <v>1.41</v>
@@ -21606,7 +21606,7 @@
         <v>0.25</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT104" t="n">
         <v>1.23</v>
@@ -25872,7 +25872,7 @@
         <v>1.58</v>
       </c>
       <c r="AT125" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU125" t="n">
         <v>1.55</v>
@@ -26275,7 +26275,7 @@
         <v>2.4</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT127" t="n">
         <v>1.45</v>
@@ -28308,7 +28308,7 @@
         <v>1.92</v>
       </c>
       <c r="AT137" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU137" t="n">
         <v>1.44</v>
@@ -31756,7 +31756,7 @@
         <v>1.8</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT154" t="n">
         <v>1.73</v>
@@ -32368,7 +32368,7 @@
         <v>2.42</v>
       </c>
       <c r="AT157" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU157" t="n">
         <v>1.67</v>
@@ -34598,7 +34598,7 @@
         <v>0.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT168" t="n">
         <v>1.33</v>
@@ -34804,7 +34804,7 @@
         <v>2.62</v>
       </c>
       <c r="AT169" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU169" t="n">
         <v>1.86</v>
@@ -41909,7 +41909,7 @@
         <v>0.91</v>
       </c>
       <c r="AT204" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU204" t="n">
         <v>1.22</v>
@@ -42312,7 +42312,7 @@
         <v>1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT206" t="n">
         <v>1.23</v>
@@ -45357,7 +45357,7 @@
         <v>1.44</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT221" t="n">
         <v>1.46</v>
@@ -46172,7 +46172,7 @@
         <v>1.67</v>
       </c>
       <c r="AT225" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU225" t="n">
         <v>1.44</v>
@@ -51653,7 +51653,7 @@
         <v>1.73</v>
       </c>
       <c r="AT252" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU252" t="n">
         <v>1.57</v>
@@ -52056,7 +52056,7 @@
         <v>1</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AT254" t="n">
         <v>1</v>
@@ -58404,6 +58404,209 @@
       </c>
       <c r="BK285" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2580966</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>44933.39583333334</v>
+      </c>
+      <c r="F286" t="n">
+        <v>26</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Salford City</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>2</v>
+      </c>
+      <c r="J286" t="n">
+        <v>1</v>
+      </c>
+      <c r="K286" t="n">
+        <v>3</v>
+      </c>
+      <c r="L286" t="n">
+        <v>2</v>
+      </c>
+      <c r="M286" t="n">
+        <v>1</v>
+      </c>
+      <c r="N286" t="n">
+        <v>3</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>['9', '33']</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q286" t="n">
+        <v>2</v>
+      </c>
+      <c r="R286" t="n">
+        <v>4</v>
+      </c>
+      <c r="S286" t="n">
+        <v>6</v>
+      </c>
+      <c r="T286" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U286" t="n">
+        <v>2</v>
+      </c>
+      <c r="V286" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X286" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK286"/>
+  <dimension ref="A1:BK292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT4" t="n">
         <v>1.55</v>
@@ -1512,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2121,7 +2121,7 @@
         <v>1.64</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT9" t="n">
         <v>1.45</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT10" t="n">
         <v>1.46</v>
@@ -2933,7 +2933,7 @@
         <v>1.67</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.85</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0.92</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT18" t="n">
         <v>1.23</v>
@@ -4760,7 +4760,7 @@
         <v>1.83</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT22" t="n">
         <v>0.67</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
         <v>0.33</v>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU29" t="n">
         <v>1.47</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT30" t="n">
         <v>1.45</v>
@@ -6790,7 +6790,7 @@
         <v>1.64</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU31" t="n">
         <v>1.58</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT32" t="n">
         <v>1.46</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT33" t="n">
         <v>0.5</v>
@@ -7805,7 +7805,7 @@
         <v>1.67</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU36" t="n">
         <v>2.46</v>
@@ -8008,7 +8008,7 @@
         <v>1.64</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU37" t="n">
         <v>1.21</v>
@@ -8817,10 +8817,10 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU41" t="n">
         <v>1.87</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU45" t="n">
         <v>0.74</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT53" t="n">
         <v>1.33</v>
@@ -11459,7 +11459,7 @@
         <v>1.17</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU54" t="n">
         <v>2.59</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT57" t="n">
         <v>1.83</v>
@@ -12271,7 +12271,7 @@
         <v>1.33</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU58" t="n">
         <v>0.62</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU62" t="n">
         <v>1.32</v>
@@ -13892,7 +13892,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT66" t="n">
         <v>0.5</v>
@@ -14098,7 +14098,7 @@
         <v>1.85</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU67" t="n">
         <v>1.68</v>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT68" t="n">
         <v>0.67</v>
@@ -14501,10 +14501,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU69" t="n">
         <v>1.76</v>
@@ -15113,7 +15113,7 @@
         <v>1.64</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU72" t="n">
         <v>1.39</v>
@@ -15519,7 +15519,7 @@
         <v>1.64</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU74" t="n">
         <v>1.86</v>
@@ -15925,7 +15925,7 @@
         <v>1.85</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU76" t="n">
         <v>1.56</v>
@@ -16125,7 +16125,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT77" t="n">
         <v>1.23</v>
@@ -16734,7 +16734,7 @@
         <v>1.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT80" t="n">
         <v>1.55</v>
@@ -17752,7 +17752,7 @@
         <v>1.92</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU85" t="n">
         <v>1.57</v>
@@ -17955,7 +17955,7 @@
         <v>1.92</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU86" t="n">
         <v>1.57</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT87" t="n">
         <v>1.73</v>
@@ -18361,7 +18361,7 @@
         <v>1.58</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU88" t="n">
         <v>1.35</v>
@@ -18564,7 +18564,7 @@
         <v>2.62</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU89" t="n">
         <v>1.95</v>
@@ -18764,7 +18764,7 @@
         <v>2.33</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT90" t="n">
         <v>2</v>
@@ -18967,7 +18967,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT91" t="n">
         <v>1.46</v>
@@ -19373,7 +19373,7 @@
         <v>1.33</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT93" t="n">
         <v>1.83</v>
@@ -20794,7 +20794,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT100" t="n">
         <v>0.5</v>
@@ -21203,7 +21203,7 @@
         <v>1.82</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU102" t="n">
         <v>1.78</v>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT106" t="n">
         <v>1.18</v>
@@ -22421,7 +22421,7 @@
         <v>0.92</v>
       </c>
       <c r="AT108" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU108" t="n">
         <v>1.28</v>
@@ -22827,7 +22827,7 @@
         <v>1.67</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU110" t="n">
         <v>1.47</v>
@@ -23230,7 +23230,7 @@
         <v>1.2</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT112" t="n">
         <v>1.46</v>
@@ -25260,7 +25260,7 @@
         <v>0.2</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT122" t="n">
         <v>0.67</v>
@@ -25463,7 +25463,7 @@
         <v>1.5</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT123" t="n">
         <v>1.73</v>
@@ -25666,10 +25666,10 @@
         <v>1.8</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT124" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU124" t="n">
         <v>1.31</v>
@@ -26478,10 +26478,10 @@
         <v>1.25</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU128" t="n">
         <v>1.42</v>
@@ -26681,10 +26681,10 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU129" t="n">
         <v>1.56</v>
@@ -26887,7 +26887,7 @@
         <v>0.91</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU130" t="n">
         <v>1.2</v>
@@ -27496,7 +27496,7 @@
         <v>1.64</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU133" t="n">
         <v>1.31</v>
@@ -27699,7 +27699,7 @@
         <v>1.58</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU134" t="n">
         <v>1.47</v>
@@ -27902,7 +27902,7 @@
         <v>2.62</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU135" t="n">
         <v>1.95</v>
@@ -28105,7 +28105,7 @@
         <v>0.92</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU136" t="n">
         <v>1.16</v>
@@ -28711,7 +28711,7 @@
         <v>0.4</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT139" t="n">
         <v>0.33</v>
@@ -29323,7 +29323,7 @@
         <v>1.92</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU142" t="n">
         <v>1.47</v>
@@ -30944,7 +30944,7 @@
         <v>1.2</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT150" t="n">
         <v>1</v>
@@ -31147,7 +31147,7 @@
         <v>0.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT151" t="n">
         <v>0.67</v>
@@ -31350,7 +31350,7 @@
         <v>0.83</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT152" t="n">
         <v>1.18</v>
@@ -31553,10 +31553,10 @@
         <v>1.5</v>
       </c>
       <c r="AS153" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT153" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU153" t="n">
         <v>1.33</v>
@@ -32165,7 +32165,7 @@
         <v>1.58</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU156" t="n">
         <v>1.59</v>
@@ -32365,7 +32365,7 @@
         <v>1.83</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT157" t="n">
         <v>1.83</v>
@@ -32774,7 +32774,7 @@
         <v>1.33</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU159" t="n">
         <v>1.02</v>
@@ -32977,7 +32977,7 @@
         <v>1.64</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU160" t="n">
         <v>1.33</v>
@@ -33180,7 +33180,7 @@
         <v>1.82</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU161" t="n">
         <v>1.68</v>
@@ -33383,7 +33383,7 @@
         <v>0.91</v>
       </c>
       <c r="AT162" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU162" t="n">
         <v>1.22</v>
@@ -33786,10 +33786,10 @@
         <v>1.14</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU164" t="n">
         <v>1.15</v>
@@ -34395,10 +34395,10 @@
         <v>0.71</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU167" t="n">
         <v>1.36</v>
@@ -35410,7 +35410,7 @@
         <v>1.43</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT172" t="n">
         <v>1.23</v>
@@ -35616,7 +35616,7 @@
         <v>0.92</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU173" t="n">
         <v>1.32</v>
@@ -36831,7 +36831,7 @@
         <v>1</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT179" t="n">
         <v>0.75</v>
@@ -37237,7 +37237,7 @@
         <v>0.5</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT181" t="n">
         <v>0.33</v>
@@ -37443,7 +37443,7 @@
         <v>1.85</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU182" t="n">
         <v>1.5</v>
@@ -37643,10 +37643,10 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU183" t="n">
         <v>1.76</v>
@@ -38255,7 +38255,7 @@
         <v>1.85</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU186" t="n">
         <v>1.44</v>
@@ -38455,7 +38455,7 @@
         <v>2.29</v>
       </c>
       <c r="AS187" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT187" t="n">
         <v>1.83</v>
@@ -39064,7 +39064,7 @@
         <v>1.25</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT190" t="n">
         <v>1.46</v>
@@ -39270,7 +39270,7 @@
         <v>1.64</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU191" t="n">
         <v>1.85</v>
@@ -39470,7 +39470,7 @@
         <v>1.29</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT192" t="n">
         <v>1.46</v>
@@ -40691,7 +40691,7 @@
         <v>1.92</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU198" t="n">
         <v>1.6</v>
@@ -40891,7 +40891,7 @@
         <v>0.86</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT199" t="n">
         <v>1.33</v>
@@ -41297,7 +41297,7 @@
         <v>1.5</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT201" t="n">
         <v>1.46</v>
@@ -41500,7 +41500,7 @@
         <v>1.86</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT202" t="n">
         <v>1.73</v>
@@ -41703,7 +41703,7 @@
         <v>2</v>
       </c>
       <c r="AS203" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT203" t="n">
         <v>1.83</v>
@@ -42315,7 +42315,7 @@
         <v>1.33</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU206" t="n">
         <v>1.45</v>
@@ -42515,7 +42515,7 @@
         <v>1.5</v>
       </c>
       <c r="AS207" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT207" t="n">
         <v>1.46</v>
@@ -42921,7 +42921,7 @@
         <v>2.13</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT209" t="n">
         <v>2</v>
@@ -43127,7 +43127,7 @@
         <v>1.33</v>
       </c>
       <c r="AT210" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU210" t="n">
         <v>1.12</v>
@@ -43327,10 +43327,10 @@
         <v>0.13</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU211" t="n">
         <v>1.26</v>
@@ -43939,7 +43939,7 @@
         <v>1.17</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU214" t="n">
         <v>1.64</v>
@@ -44951,10 +44951,10 @@
         <v>1</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU219" t="n">
         <v>1.42</v>
@@ -45969,7 +45969,7 @@
         <v>1.33</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU224" t="n">
         <v>1.13</v>
@@ -46575,7 +46575,7 @@
         <v>1.67</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT227" t="n">
         <v>1.46</v>
@@ -47184,10 +47184,10 @@
         <v>1</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU230" t="n">
         <v>1.25</v>
@@ -47390,7 +47390,7 @@
         <v>2.62</v>
       </c>
       <c r="AT231" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU231" t="n">
         <v>1.73</v>
@@ -47996,7 +47996,7 @@
         <v>2.11</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT234" t="n">
         <v>1.73</v>
@@ -48202,7 +48202,7 @@
         <v>1.82</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU235" t="n">
         <v>1.67</v>
@@ -48402,7 +48402,7 @@
         <v>0.44</v>
       </c>
       <c r="AS236" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT236" t="n">
         <v>0.67</v>
@@ -48808,10 +48808,10 @@
         <v>0.11</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU238" t="n">
         <v>1.58</v>
@@ -49623,7 +49623,7 @@
         <v>2</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU242" t="n">
         <v>1.5</v>
@@ -50029,7 +50029,7 @@
         <v>0.92</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU244" t="n">
         <v>1.3</v>
@@ -50232,7 +50232,7 @@
         <v>1.58</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU245" t="n">
         <v>1.71</v>
@@ -50635,10 +50635,10 @@
         <v>0.6</v>
       </c>
       <c r="AS247" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT247" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU247" t="n">
         <v>1.66</v>
@@ -51244,7 +51244,7 @@
         <v>1.6</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT250" t="n">
         <v>1.45</v>
@@ -51450,7 +51450,7 @@
         <v>0.91</v>
       </c>
       <c r="AT251" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU251" t="n">
         <v>1.23</v>
@@ -51650,7 +51650,7 @@
         <v>2.1</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AT252" t="n">
         <v>1.83</v>
@@ -51853,7 +51853,7 @@
         <v>0.45</v>
       </c>
       <c r="AS253" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AT253" t="n">
         <v>0.67</v>
@@ -52059,7 +52059,7 @@
         <v>1.33</v>
       </c>
       <c r="AT254" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU254" t="n">
         <v>1.5</v>
@@ -52668,7 +52668,7 @@
         <v>1.33</v>
       </c>
       <c r="AT257" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU257" t="n">
         <v>1.11</v>
@@ -53071,10 +53071,10 @@
         <v>1.36</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU259" t="n">
         <v>1.42</v>
@@ -53277,7 +53277,7 @@
         <v>1.64</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AU260" t="n">
         <v>1.3</v>
@@ -53477,7 +53477,7 @@
         <v>1.6</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT261" t="n">
         <v>1.55</v>
@@ -53680,7 +53680,7 @@
         <v>1.45</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT262" t="n">
         <v>1.46</v>
@@ -55510,7 +55510,7 @@
         <v>1.33</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU271" t="n">
         <v>1.15</v>
@@ -56931,7 +56931,7 @@
         <v>2</v>
       </c>
       <c r="AT278" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU278" t="n">
         <v>1.58</v>
@@ -57334,7 +57334,7 @@
         <v>1.33</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT280" t="n">
         <v>1.23</v>
@@ -58607,6 +58607,1224 @@
       </c>
       <c r="BK286" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>2581164</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="F287" t="n">
+        <v>43</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Crewe Alexandra</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>4</v>
+      </c>
+      <c r="R287" t="n">
+        <v>4</v>
+      </c>
+      <c r="S287" t="n">
+        <v>8</v>
+      </c>
+      <c r="T287" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U287" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V287" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X287" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>2580965</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="F288" t="n">
+        <v>26</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Newport County</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>1</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+      <c r="N288" t="n">
+        <v>2</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>3</v>
+      </c>
+      <c r="R288" t="n">
+        <v>4</v>
+      </c>
+      <c r="S288" t="n">
+        <v>7</v>
+      </c>
+      <c r="T288" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U288" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V288" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X288" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2580964</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="F289" t="n">
+        <v>26</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Mansfield Town</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Barrow</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>2</v>
+      </c>
+      <c r="J289" t="n">
+        <v>1</v>
+      </c>
+      <c r="K289" t="n">
+        <v>3</v>
+      </c>
+      <c r="L289" t="n">
+        <v>2</v>
+      </c>
+      <c r="M289" t="n">
+        <v>3</v>
+      </c>
+      <c r="N289" t="n">
+        <v>5</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>['9', '25']</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>['45+1', '49', '77']</t>
+        </is>
+      </c>
+      <c r="Q289" t="n">
+        <v>4</v>
+      </c>
+      <c r="R289" t="n">
+        <v>3</v>
+      </c>
+      <c r="S289" t="n">
+        <v>7</v>
+      </c>
+      <c r="T289" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V289" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W289" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X289" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ289" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA289" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD289" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE289" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF289" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG289" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH289" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI289" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ289" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK289" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>2580963</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="F290" t="n">
+        <v>26</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>1</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>6</v>
+      </c>
+      <c r="R290" t="n">
+        <v>3</v>
+      </c>
+      <c r="S290" t="n">
+        <v>9</v>
+      </c>
+      <c r="T290" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U290" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V290" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X290" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>2580962</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="F291" t="n">
+        <v>26</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Harrogate Town</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Colchester United</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" t="n">
+        <v>2</v>
+      </c>
+      <c r="K291" t="n">
+        <v>2</v>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="n">
+        <v>3</v>
+      </c>
+      <c r="N291" t="n">
+        <v>4</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['12', '17', '54']</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>9</v>
+      </c>
+      <c r="R291" t="n">
+        <v>4</v>
+      </c>
+      <c r="S291" t="n">
+        <v>13</v>
+      </c>
+      <c r="T291" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U291" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V291" t="n">
+        <v>4</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X291" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>2580969</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>44933.5</v>
+      </c>
+      <c r="F292" t="n">
+        <v>26</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Tranmere Rovers</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Sutton United</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>1</v>
+      </c>
+      <c r="K292" t="n">
+        <v>2</v>
+      </c>
+      <c r="L292" t="n">
+        <v>2</v>
+      </c>
+      <c r="M292" t="n">
+        <v>2</v>
+      </c>
+      <c r="N292" t="n">
+        <v>4</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>['39', '58']</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>['11', '61']</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>6</v>
+      </c>
+      <c r="R292" t="n">
+        <v>2</v>
+      </c>
+      <c r="S292" t="n">
+        <v>8</v>
+      </c>
+      <c r="T292" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U292" t="n">
+        <v>2</v>
+      </c>
+      <c r="V292" t="n">
+        <v>4</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X292" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK292"/>
+  <dimension ref="A1:BK293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT12" t="n">
         <v>1.15</v>
@@ -5572,7 +5572,7 @@
         <v>0.91</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT36" t="n">
         <v>1.17</v>
@@ -8414,7 +8414,7 @@
         <v>2.62</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU39" t="n">
         <v>1.8</v>
@@ -10647,7 +10647,7 @@
         <v>1.58</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU50" t="n">
         <v>0.99</v>
@@ -14907,7 +14907,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT71" t="n">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>1.82</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU82" t="n">
         <v>1.74</v>
@@ -17343,7 +17343,7 @@
         <v>1.33</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT83" t="n">
         <v>1.18</v>
@@ -20594,7 +20594,7 @@
         <v>1.85</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU99" t="n">
         <v>1.58</v>
@@ -21403,7 +21403,7 @@
         <v>1.75</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT103" t="n">
         <v>1.55</v>
@@ -22824,7 +22824,7 @@
         <v>0.8</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT110" t="n">
         <v>1.21</v>
@@ -23030,7 +23030,7 @@
         <v>1.33</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU111" t="n">
         <v>1.21</v>
@@ -29117,7 +29117,7 @@
         <v>0</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT141" t="n">
         <v>1.33</v>
@@ -29729,7 +29729,7 @@
         <v>0.92</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU144" t="n">
         <v>1.22</v>
@@ -36222,7 +36222,7 @@
         <v>1.29</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT176" t="n">
         <v>1.46</v>
@@ -36834,7 +36834,7 @@
         <v>1.5</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU179" t="n">
         <v>1.43</v>
@@ -39676,7 +39676,7 @@
         <v>1.92</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU193" t="n">
         <v>1.48</v>
@@ -40079,7 +40079,7 @@
         <v>0.5</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT195" t="n">
         <v>0.5</v>
@@ -44548,7 +44548,7 @@
         <v>2</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU217" t="n">
         <v>1.5</v>
@@ -46169,7 +46169,7 @@
         <v>2</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT225" t="n">
         <v>1.83</v>
@@ -53883,7 +53883,7 @@
         <v>0.7</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT263" t="n">
         <v>0.67</v>
@@ -54089,7 +54089,7 @@
         <v>1.83</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU264" t="n">
         <v>1.43</v>
@@ -56116,7 +56116,7 @@
         <v>2</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AT274" t="n">
         <v>1.83</v>
@@ -58352,7 +58352,7 @@
         <v>1.92</v>
       </c>
       <c r="AT285" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU285" t="n">
         <v>1.53</v>
@@ -59825,6 +59825,209 @@
       </c>
       <c r="BK292" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2580912</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>44936.69791666666</v>
+      </c>
+      <c r="F293" t="n">
+        <v>22</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Bradford City</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>1</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="n">
+        <v>2</v>
+      </c>
+      <c r="N293" t="n">
+        <v>3</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>['63', '70']</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>5</v>
+      </c>
+      <c r="R293" t="n">
+        <v>4</v>
+      </c>
+      <c r="S293" t="n">
+        <v>9</v>
+      </c>
+      <c r="T293" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U293" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V293" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X293" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA293" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD293" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE293" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BF293" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG293" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -60092,13 +60092,13 @@
         </is>
       </c>
       <c r="Q294" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R294" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="S294" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="T294" t="n">
         <v>2.5</v>
@@ -60215,22 +60215,22 @@
         <v>3.5</v>
       </c>
       <c r="BF294" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG294" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH294" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BI294" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ294" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK294" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295">
@@ -60295,13 +60295,13 @@
         </is>
       </c>
       <c r="Q295" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R295" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S295" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="T295" t="n">
         <v>2.05</v>
@@ -60418,22 +60418,22 @@
         <v>3.35</v>
       </c>
       <c r="BF295" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG295" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH295" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI295" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ295" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BK295" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296">
@@ -60498,13 +60498,13 @@
         </is>
       </c>
       <c r="Q296" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R296" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S296" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T296" t="n">
         <v>4.5</v>
@@ -60621,22 +60621,22 @@
         <v>3.2</v>
       </c>
       <c r="BF296" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG296" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH296" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI296" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BJ296" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK296" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="297">
@@ -60701,13 +60701,13 @@
         </is>
       </c>
       <c r="Q297" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R297" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S297" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T297" t="n">
         <v>3</v>
@@ -60824,22 +60824,22 @@
         <v>2.8</v>
       </c>
       <c r="BF297" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BG297" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH297" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI297" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BJ297" t="n">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BK297" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="298">
@@ -60904,13 +60904,13 @@
         </is>
       </c>
       <c r="Q298" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R298" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S298" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T298" t="n">
         <v>2.9</v>
@@ -61027,22 +61027,22 @@
         <v>3.75</v>
       </c>
       <c r="BF298" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG298" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH298" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI298" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ298" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK298" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299">
@@ -61107,13 +61107,13 @@
         </is>
       </c>
       <c r="Q299" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R299" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S299" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T299" t="n">
         <v>2.9</v>
@@ -61230,22 +61230,22 @@
         <v>3.35</v>
       </c>
       <c r="BF299" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG299" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH299" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI299" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BJ299" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK299" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300">
@@ -61310,13 +61310,13 @@
         </is>
       </c>
       <c r="Q300" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R300" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S300" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T300" t="n">
         <v>3.5</v>
@@ -61433,22 +61433,22 @@
         <v>3</v>
       </c>
       <c r="BF300" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG300" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH300" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BI300" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BJ300" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK300" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301">
@@ -61513,13 +61513,13 @@
         </is>
       </c>
       <c r="Q301" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R301" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S301" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T301" t="n">
         <v>2.65</v>
@@ -61636,22 +61636,22 @@
         <v>3.75</v>
       </c>
       <c r="BF301" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG301" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH301" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI301" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BJ301" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK301" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302">
@@ -61716,13 +61716,13 @@
         </is>
       </c>
       <c r="Q302" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R302" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S302" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T302" t="n">
         <v>2.9</v>
@@ -61839,22 +61839,22 @@
         <v>3.35</v>
       </c>
       <c r="BF302" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG302" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH302" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI302" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ302" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK302" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="303">
@@ -61919,13 +61919,13 @@
         </is>
       </c>
       <c r="Q303" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R303" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S303" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="T303" t="n">
         <v>2.9</v>
@@ -62042,22 +62042,22 @@
         <v>3.35</v>
       </c>
       <c r="BF303" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG303" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH303" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BI303" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BJ303" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BK303" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="304">
@@ -62122,13 +62122,13 @@
         </is>
       </c>
       <c r="Q304" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R304" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S304" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T304" t="n">
         <v>3.17</v>
@@ -62245,22 +62245,22 @@
         <v>3.35</v>
       </c>
       <c r="BF304" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG304" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH304" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI304" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ304" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BK304" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK304"/>
+  <dimension ref="A1:BK307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.58</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT14" t="n">
         <v>1.21</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT16" t="n">
         <v>1.33</v>
@@ -4557,7 +4557,7 @@
         <v>1.33</v>
       </c>
       <c r="AT20" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT23" t="n">
         <v>1.46</v>
@@ -5572,7 +5572,7 @@
         <v>1.08</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>1.46</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU28" t="n">
         <v>1.11</v>
@@ -8211,7 +8211,7 @@
         <v>1.69</v>
       </c>
       <c r="AT38" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU38" t="n">
         <v>0.95</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU39" t="n">
         <v>1.8</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT42" t="n">
         <v>1.23</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT46" t="n">
         <v>1.67</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT49" t="n">
         <v>1.67</v>
@@ -10850,7 +10850,7 @@
         <v>1.69</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU51" t="n">
         <v>0.99</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT55" t="n">
         <v>1.46</v>
@@ -12268,10 +12268,10 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT58" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU58" t="n">
         <v>1.34</v>
@@ -14707,7 +14707,7 @@
         <v>1.92</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU70" t="n">
         <v>2.11</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT81" t="n">
         <v>0.62</v>
@@ -17143,7 +17143,7 @@
         <v>1.92</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU82" t="n">
         <v>1.74</v>
@@ -17749,7 +17749,7 @@
         <v>1.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT85" t="n">
         <v>1</v>
@@ -18158,7 +18158,7 @@
         <v>1.17</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU87" t="n">
         <v>1.86</v>
@@ -18970,7 +18970,7 @@
         <v>0.62</v>
       </c>
       <c r="AT91" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU91" t="n">
         <v>1.58</v>
@@ -19170,7 +19170,7 @@
         <v>1.33</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT92" t="n">
         <v>1.08</v>
@@ -20388,7 +20388,7 @@
         <v>2.25</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT98" t="n">
         <v>1.33</v>
@@ -22218,7 +22218,7 @@
         <v>1.85</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU107" t="n">
         <v>1.58</v>
@@ -22827,7 +22827,7 @@
         <v>1.92</v>
       </c>
       <c r="AT110" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU110" t="n">
         <v>1.77</v>
@@ -23230,10 +23230,10 @@
         <v>0.2</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU112" t="n">
         <v>1.21</v>
@@ -24042,10 +24042,10 @@
         <v>0.25</v>
       </c>
       <c r="AS116" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU116" t="n">
         <v>1.2</v>
@@ -24854,7 +24854,7 @@
         <v>0.8</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT120" t="n">
         <v>0.67</v>
@@ -27696,7 +27696,7 @@
         <v>0.2</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT134" t="n">
         <v>0.71</v>
@@ -28102,7 +28102,7 @@
         <v>1.6</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT136" t="n">
         <v>1.15</v>
@@ -28511,7 +28511,7 @@
         <v>1.83</v>
       </c>
       <c r="AT138" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU138" t="n">
         <v>1.46</v>
@@ -28711,7 +28711,7 @@
         <v>1.2</v>
       </c>
       <c r="AS139" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT139" t="n">
         <v>1.46</v>
@@ -28917,7 +28917,7 @@
         <v>0.92</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU140" t="n">
         <v>1.22</v>
@@ -29320,7 +29320,7 @@
         <v>1.5</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT142" t="n">
         <v>1.46</v>
@@ -29526,7 +29526,7 @@
         <v>1.46</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU143" t="n">
         <v>1.1</v>
@@ -30132,7 +30132,7 @@
         <v>0.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT146" t="n">
         <v>0.67</v>
@@ -33583,7 +33583,7 @@
         <v>1.71</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT163" t="n">
         <v>1.69</v>
@@ -35413,7 +35413,7 @@
         <v>1.92</v>
       </c>
       <c r="AT172" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU172" t="n">
         <v>1.74</v>
@@ -36834,7 +36834,7 @@
         <v>2.36</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU179" t="n">
         <v>1.7</v>
@@ -37034,7 +37034,7 @@
         <v>2.17</v>
       </c>
       <c r="AS180" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT180" t="n">
         <v>1.83</v>
@@ -37237,7 +37237,7 @@
         <v>0.43</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT181" t="n">
         <v>0.5</v>
@@ -37646,7 +37646,7 @@
         <v>1.46</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU183" t="n">
         <v>1.43</v>
@@ -38661,7 +38661,7 @@
         <v>1.83</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU188" t="n">
         <v>1.38</v>
@@ -38861,7 +38861,7 @@
         <v>2</v>
       </c>
       <c r="AS189" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT189" t="n">
         <v>1.33</v>
@@ -39879,7 +39879,7 @@
         <v>1.92</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU194" t="n">
         <v>1.48</v>
@@ -40485,7 +40485,7 @@
         <v>1.75</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT197" t="n">
         <v>1.5</v>
@@ -41097,7 +41097,7 @@
         <v>1.58</v>
       </c>
       <c r="AT200" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU200" t="n">
         <v>1.33</v>
@@ -42312,7 +42312,7 @@
         <v>0.25</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT206" t="n">
         <v>0.62</v>
@@ -43127,7 +43127,7 @@
         <v>1.23</v>
       </c>
       <c r="AT210" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU210" t="n">
         <v>1.63</v>
@@ -44954,7 +44954,7 @@
         <v>2</v>
       </c>
       <c r="AT219" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU219" t="n">
         <v>1.5</v>
@@ -45157,7 +45157,7 @@
         <v>1.75</v>
       </c>
       <c r="AT220" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU220" t="n">
         <v>1.85</v>
@@ -45563,7 +45563,7 @@
         <v>0.92</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU222" t="n">
         <v>1.29</v>
@@ -45966,7 +45966,7 @@
         <v>1.33</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT224" t="n">
         <v>1.15</v>
@@ -46781,7 +46781,7 @@
         <v>1.33</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU228" t="n">
         <v>1.08</v>
@@ -47184,7 +47184,7 @@
         <v>1.11</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT230" t="n">
         <v>1.15</v>
@@ -48402,7 +48402,7 @@
         <v>1.11</v>
       </c>
       <c r="AS236" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT236" t="n">
         <v>1.33</v>
@@ -49620,7 +49620,7 @@
         <v>1.5</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT242" t="n">
         <v>1.46</v>
@@ -54086,7 +54086,7 @@
         <v>1.45</v>
       </c>
       <c r="AS264" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT264" t="n">
         <v>1.46</v>
@@ -54492,7 +54492,7 @@
         <v>1.18</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT266" t="n">
         <v>1.21</v>
@@ -55104,7 +55104,7 @@
         <v>2</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU269" t="n">
         <v>1.52</v>
@@ -55307,7 +55307,7 @@
         <v>1.83</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU270" t="n">
         <v>1.43</v>
@@ -55713,7 +55713,7 @@
         <v>0.92</v>
       </c>
       <c r="AT272" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU272" t="n">
         <v>1.3</v>
@@ -55913,7 +55913,7 @@
         <v>0.5</v>
       </c>
       <c r="AS273" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT273" t="n">
         <v>0.5</v>
@@ -56116,7 +56116,7 @@
         <v>1.58</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AT274" t="n">
         <v>1.46</v>
@@ -56928,7 +56928,7 @@
         <v>0.64</v>
       </c>
       <c r="AS278" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT278" t="n">
         <v>0.67</v>
@@ -57943,10 +57943,10 @@
         <v>0.36</v>
       </c>
       <c r="AS283" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AT283" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU283" t="n">
         <v>1.72</v>
@@ -58149,7 +58149,7 @@
         <v>1.92</v>
       </c>
       <c r="AT284" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU284" t="n">
         <v>1.53</v>
@@ -58352,7 +58352,7 @@
         <v>1.85</v>
       </c>
       <c r="AT285" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU285" t="n">
         <v>1.5</v>
@@ -59976,7 +59976,7 @@
         <v>1.54</v>
       </c>
       <c r="AT293" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AU293" t="n">
         <v>1.46</v>
@@ -62261,6 +62261,615 @@
       </c>
       <c r="BK304" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2580991</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F305" t="n">
+        <v>28</v>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Stevenage</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>2</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>2</v>
+      </c>
+      <c r="L305" t="n">
+        <v>3</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>3</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>['6', '11', '90+1']</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q305" t="n">
+        <v>5</v>
+      </c>
+      <c r="R305" t="n">
+        <v>4</v>
+      </c>
+      <c r="S305" t="n">
+        <v>9</v>
+      </c>
+      <c r="T305" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U305" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V305" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X305" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ305" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AR305" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS305" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT305" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU305" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV305" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW305" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX305" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ305" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA305" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB305" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC305" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD305" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE305" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF305" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG305" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH305" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI305" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ305" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK305" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>2580984</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F306" t="n">
+        <v>28</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Colchester United</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Gillingham</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>0</v>
+      </c>
+      <c r="J306" t="n">
+        <v>2</v>
+      </c>
+      <c r="K306" t="n">
+        <v>2</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>2</v>
+      </c>
+      <c r="N306" t="n">
+        <v>2</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>['36', '45+3']</t>
+        </is>
+      </c>
+      <c r="Q306" t="n">
+        <v>8</v>
+      </c>
+      <c r="R306" t="n">
+        <v>2</v>
+      </c>
+      <c r="S306" t="n">
+        <v>10</v>
+      </c>
+      <c r="T306" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U306" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V306" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W306" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X306" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL306" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM306" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW306" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AX306" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY306" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ306" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA306" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB306" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC306" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD306" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE306" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF306" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG306" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH306" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI306" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ306" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK306" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2580988</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>44947.5</v>
+      </c>
+      <c r="F307" t="n">
+        <v>28</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Hartlepool United</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="n">
+        <v>2</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>2</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>['54', '64']</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q307" t="n">
+        <v>8</v>
+      </c>
+      <c r="R307" t="n">
+        <v>4</v>
+      </c>
+      <c r="S307" t="n">
+        <v>12</v>
+      </c>
+      <c r="T307" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U307" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V307" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W307" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X307" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU307" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW307" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX307" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY307" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ307" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA307" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB307" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC307" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD307" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE307" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF307" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG307" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH307" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI307" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ307" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK307" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -53742,7 +53742,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>2580944</v>
+        <v>2580945</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -53762,104 +53762,104 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>Doncaster Rovers</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K263" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L263" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M263" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N263" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['7', '9', '37', '81']</t>
         </is>
       </c>
       <c r="P263" t="inlineStr">
         <is>
-          <t>['33', '65']</t>
+          <t>['14', '16', '77']</t>
         </is>
       </c>
       <c r="Q263" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R263" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S263" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T263" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="U263" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V263" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="W263" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X263" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y263" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z263" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA263" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB263" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF263" t="n">
         <v>1.06</v>
       </c>
-      <c r="AC263" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AD263" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AE263" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AF263" t="n">
-        <v>1.04</v>
-      </c>
       <c r="AG263" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AH263" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AI263" t="n">
         <v>3</v>
       </c>
       <c r="AJ263" t="n">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="AK263" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="AL263" t="n">
         <v>1.83</v>
@@ -53868,76 +53868,76 @@
         <v>1.83</v>
       </c>
       <c r="AN263" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO263" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AP263" t="n">
-        <v>1.32</v>
+        <v>1.72</v>
       </c>
       <c r="AQ263" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AR263" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.33</v>
+        <v>0.86</v>
       </c>
       <c r="AU263" t="n">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="AV263" t="n">
-        <v>1.33</v>
+        <v>0.99</v>
       </c>
       <c r="AW263" t="n">
-        <v>2.92</v>
+        <v>2.42</v>
       </c>
       <c r="AX263" t="n">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="AY263" t="n">
         <v>8</v>
       </c>
       <c r="AZ263" t="n">
-        <v>1.91</v>
+        <v>2.39</v>
       </c>
       <c r="BA263" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="BB263" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BC263" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BD263" t="n">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="BE263" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="BF263" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG263" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BH263" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BI263" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="BJ263" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BK263" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264">
@@ -53945,7 +53945,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>2580935</v>
+        <v>2580944</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -53965,182 +53965,182 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>Bradford City</t>
+          <t>Walsall</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="I264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K264" t="n">
         <v>1</v>
       </c>
       <c r="L264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>['1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P264" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['33', '65']</t>
         </is>
       </c>
       <c r="Q264" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R264" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S264" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T264" t="n">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="U264" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V264" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="W264" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X264" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y264" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Z264" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AA264" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG264" t="n">
         <v>8</v>
-      </c>
-      <c r="AB264" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC264" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AD264" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE264" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AF264" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG264" t="n">
-        <v>11</v>
       </c>
       <c r="AH264" t="n">
         <v>1.33</v>
       </c>
       <c r="AI264" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AJ264" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="AK264" t="n">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="AL264" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ264" t="n">
         <v>1.91</v>
       </c>
-      <c r="AM264" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN264" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AO264" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP264" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AQ264" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AR264" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AS264" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AT264" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU264" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AV264" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AW264" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AX264" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AY264" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ264" t="n">
-        <v>3.26</v>
-      </c>
       <c r="BA264" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="BB264" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="BC264" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="BD264" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="BE264" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="BF264" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG264" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BH264" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BI264" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BJ264" t="n">
         <v>15</v>
       </c>
       <c r="BK264" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265">
@@ -54148,7 +54148,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>2580934</v>
+        <v>2580943</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -54168,71 +54168,71 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Sutton United</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Tranmere Rovers</t>
+          <t>Gillingham</t>
         </is>
       </c>
       <c r="I265" t="n">
         <v>1</v>
       </c>
       <c r="J265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N265" t="n">
         <v>3</v>
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>['43', '90+3']</t>
         </is>
       </c>
       <c r="P265" t="inlineStr">
         <is>
-          <t>['6', '82']</t>
+          <t>['78']</t>
         </is>
       </c>
       <c r="Q265" t="n">
         <v>5</v>
       </c>
       <c r="R265" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S265" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T265" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="U265" t="n">
         <v>2.05</v>
       </c>
       <c r="V265" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W265" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X265" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y265" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Z265" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA265" t="n">
         <v>10</v>
@@ -54241,106 +54241,106 @@
         <v>1.06</v>
       </c>
       <c r="AC265" t="n">
-        <v>2.18</v>
+        <v>1.86</v>
       </c>
       <c r="AD265" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="AE265" t="n">
-        <v>3.3</v>
+        <v>4.25</v>
       </c>
       <c r="AF265" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG265" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH265" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AI265" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="AJ265" t="n">
-        <v>2.09</v>
+        <v>2.29</v>
       </c>
       <c r="AK265" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="AL265" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AM265" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AN265" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AO265" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AP265" t="n">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="AQ265" t="n">
-        <v>2.18</v>
+        <v>1.82</v>
       </c>
       <c r="AR265" t="n">
-        <v>1.18</v>
+        <v>0.4</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.23</v>
+        <v>0.54</v>
       </c>
       <c r="AU265" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB265" t="n">
         <v>1.5</v>
       </c>
-      <c r="AV265" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AW265" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AX265" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AY265" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ265" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="BA265" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="BB265" t="n">
-        <v>1.4</v>
-      </c>
       <c r="BC265" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="BD265" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="BE265" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BF265" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG265" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH265" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BI265" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ265" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BK265" t="n">
         <v>12</v>
@@ -54351,7 +54351,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>2580938</v>
+        <v>2580941</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -54371,92 +54371,92 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Grimsby Town</t>
+          <t>Northampton Town</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Salford City</t>
+          <t>Swindon Town</t>
         </is>
       </c>
       <c r="I266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J266" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K266" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
       <c r="M266" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N266" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>['21']</t>
+          <t>['90']</t>
         </is>
       </c>
       <c r="P266" t="inlineStr">
         <is>
-          <t>['1', '30', '34', '40']</t>
+          <t>['26', '56']</t>
         </is>
       </c>
       <c r="Q266" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="R266" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S266" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="T266" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="U266" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V266" t="n">
         <v>4</v>
       </c>
       <c r="W266" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X266" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y266" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z266" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA266" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB266" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC266" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AD266" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="AE266" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AF266" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG266" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH266" t="n">
         <v>1.36</v>
@@ -54465,10 +54465,10 @@
         <v>3.1</v>
       </c>
       <c r="AJ266" t="n">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="AK266" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AL266" t="n">
         <v>1.83</v>
@@ -54477,43 +54477,43 @@
         <v>1.83</v>
       </c>
       <c r="AN266" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AO266" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AP266" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AQ266" t="n">
-        <v>1.1</v>
+        <v>1.91</v>
       </c>
       <c r="AR266" t="n">
-        <v>1.9</v>
+        <v>1.45</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.17</v>
+        <v>1.85</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="AU266" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="AV266" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AW266" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AX266" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AY266" t="n">
         <v>8</v>
       </c>
       <c r="AZ266" t="n">
-        <v>2.67</v>
+        <v>2.1</v>
       </c>
       <c r="BA266" t="n">
         <v>1.26</v>
@@ -54522,7 +54522,7 @@
         <v>1.48</v>
       </c>
       <c r="BC266" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BD266" t="n">
         <v>2.43</v>
@@ -54531,22 +54531,22 @@
         <v>3.35</v>
       </c>
       <c r="BF266" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI266" t="n">
         <v>5</v>
-      </c>
-      <c r="BG266" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH266" t="n">
-        <v>12</v>
-      </c>
-      <c r="BI266" t="n">
-        <v>7</v>
       </c>
       <c r="BJ266" t="n">
         <v>17</v>
       </c>
       <c r="BK266" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267">
@@ -54757,7 +54757,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>2580943</v>
+        <v>2580938</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -54777,59 +54777,59 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Sutton United</t>
+          <t>Grimsby Town</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Gillingham</t>
+          <t>Salford City</t>
         </is>
       </c>
       <c r="I268" t="n">
         <v>1</v>
       </c>
       <c r="J268" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K268" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M268" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N268" t="n">
+        <v>5</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>['1', '30', '34', '40']</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>7</v>
+      </c>
+      <c r="R268" t="n">
+        <v>1</v>
+      </c>
+      <c r="S268" t="n">
+        <v>8</v>
+      </c>
+      <c r="T268" t="n">
         <v>3</v>
-      </c>
-      <c r="O268" t="inlineStr">
-        <is>
-          <t>['43', '90+3']</t>
-        </is>
-      </c>
-      <c r="P268" t="inlineStr">
-        <is>
-          <t>['78']</t>
-        </is>
-      </c>
-      <c r="Q268" t="n">
-        <v>5</v>
-      </c>
-      <c r="R268" t="n">
-        <v>1</v>
-      </c>
-      <c r="S268" t="n">
-        <v>6</v>
-      </c>
-      <c r="T268" t="n">
-        <v>2.6</v>
       </c>
       <c r="U268" t="n">
         <v>2.05</v>
       </c>
       <c r="V268" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W268" t="n">
         <v>1.5</v>
@@ -54850,67 +54850,67 @@
         <v>1.06</v>
       </c>
       <c r="AC268" t="n">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="AD268" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AE268" t="n">
-        <v>4.25</v>
+        <v>3.55</v>
       </c>
       <c r="AF268" t="n">
         <v>1.08</v>
       </c>
       <c r="AG268" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH268" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AI268" t="n">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="AJ268" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AK268" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AL268" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AM268" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AN268" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AO268" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AP268" t="n">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="AQ268" t="n">
-        <v>1.82</v>
+        <v>1.1</v>
       </c>
       <c r="AR268" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="AS268" t="n">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AT268" t="n">
-        <v>0.54</v>
+        <v>1.77</v>
       </c>
       <c r="AU268" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="AV268" t="n">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="AW268" t="n">
-        <v>2.57</v>
+        <v>3.05</v>
       </c>
       <c r="AX268" t="n">
         <v>1.64</v>
@@ -54919,40 +54919,40 @@
         <v>8</v>
       </c>
       <c r="AZ268" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="BA268" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="BB268" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BC268" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BD268" t="n">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="BE268" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="BF268" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG268" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH268" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI268" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ268" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BK268" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269">
@@ -55163,7 +55163,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>2580941</v>
+        <v>2580935</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -55183,19 +55183,19 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Northampton Town</t>
+          <t>Bradford City</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Swindon Town</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K270" t="n">
         <v>1</v>
@@ -55204,161 +55204,161 @@
         <v>1</v>
       </c>
       <c r="M270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N270" t="n">
+        <v>1</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
         <v>3</v>
       </c>
-      <c r="O270" t="inlineStr">
-        <is>
-          <t>['90']</t>
-        </is>
-      </c>
-      <c r="P270" t="inlineStr">
-        <is>
-          <t>['26', '56']</t>
-        </is>
-      </c>
-      <c r="Q270" t="n">
+      <c r="R270" t="n">
+        <v>6</v>
+      </c>
+      <c r="S270" t="n">
+        <v>9</v>
+      </c>
+      <c r="T270" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U270" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V270" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X270" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ270" t="n">
         <v>15</v>
       </c>
-      <c r="R270" t="n">
-        <v>3</v>
-      </c>
-      <c r="S270" t="n">
-        <v>18</v>
-      </c>
-      <c r="T270" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="U270" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V270" t="n">
-        <v>4</v>
-      </c>
-      <c r="W270" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X270" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y270" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z270" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA270" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB270" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC270" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AD270" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AE270" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AF270" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG270" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH270" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI270" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ270" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AK270" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AL270" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM270" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN270" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AO270" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP270" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AQ270" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AR270" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AS270" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AT270" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AU270" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AV270" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AW270" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AX270" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY270" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ270" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BA270" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB270" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC270" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BD270" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BE270" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BF270" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG270" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH270" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI270" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ270" t="n">
-        <v>17</v>
-      </c>
       <c r="BK270" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271">
@@ -55366,7 +55366,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>2580945</v>
+        <v>2580934</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -55386,47 +55386,47 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Doncaster Rovers</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Tranmere Rovers</t>
         </is>
       </c>
       <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>1</v>
+      </c>
+      <c r="K271" t="n">
+        <v>2</v>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="n">
+        <v>2</v>
+      </c>
+      <c r="N271" t="n">
         <v>3</v>
       </c>
-      <c r="J271" t="n">
-        <v>2</v>
-      </c>
-      <c r="K271" t="n">
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>['6', '82']</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
         <v>5</v>
       </c>
-      <c r="L271" t="n">
+      <c r="R271" t="n">
         <v>4</v>
-      </c>
-      <c r="M271" t="n">
-        <v>3</v>
-      </c>
-      <c r="N271" t="n">
-        <v>7</v>
-      </c>
-      <c r="O271" t="inlineStr">
-        <is>
-          <t>['7', '9', '37', '81']</t>
-        </is>
-      </c>
-      <c r="P271" t="inlineStr">
-        <is>
-          <t>['14', '16', '77']</t>
-        </is>
-      </c>
-      <c r="Q271" t="n">
-        <v>6</v>
-      </c>
-      <c r="R271" t="n">
-        <v>3</v>
       </c>
       <c r="S271" t="n">
         <v>9</v>
@@ -55435,7 +55435,7 @@
         <v>2.88</v>
       </c>
       <c r="U271" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V271" t="n">
         <v>4</v>
@@ -55453,37 +55453,37 @@
         <v>1.33</v>
       </c>
       <c r="AA271" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG271" t="n">
         <v>9</v>
       </c>
-      <c r="AB271" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC271" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AD271" t="n">
+      <c r="AH271" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI271" t="n">
         <v>3.2</v>
       </c>
-      <c r="AE271" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AF271" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG271" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH271" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI271" t="n">
-        <v>3</v>
-      </c>
       <c r="AJ271" t="n">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="AK271" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="AL271" t="n">
         <v>1.83</v>
@@ -55492,76 +55492,76 @@
         <v>1.83</v>
       </c>
       <c r="AN271" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AO271" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AP271" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC271" t="n">
         <v>1.72</v>
       </c>
-      <c r="AQ271" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AR271" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AS271" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AT271" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AU271" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AV271" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AW271" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AX271" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AY271" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ271" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="BA271" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB271" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC271" t="n">
-        <v>1.85</v>
-      </c>
       <c r="BD271" t="n">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="BE271" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="BF271" t="n">
         <v>5</v>
       </c>
       <c r="BG271" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH271" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BI271" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ271" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BK271" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="272">
@@ -55975,7 +55975,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>2580957</v>
+        <v>2580948</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -55995,12 +55995,12 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>Colchester United</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Swindon Town</t>
         </is>
       </c>
       <c r="I274" t="n">
@@ -56013,41 +56013,41 @@
         <v>1</v>
       </c>
       <c r="L274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N274" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>['43', '47']</t>
+          <t>['30']</t>
         </is>
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>['82']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q274" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R274" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S274" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T274" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="U274" t="n">
         <v>2.05</v>
       </c>
       <c r="V274" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="W274" t="n">
         <v>1.44</v>
@@ -56068,31 +56068,31 @@
         <v>1.06</v>
       </c>
       <c r="AC274" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AD274" t="n">
         <v>3.1</v>
       </c>
       <c r="AE274" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="AF274" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AG274" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH274" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AI274" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AJ274" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="AK274" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AL274" t="n">
         <v>1.83</v>
@@ -56101,76 +56101,76 @@
         <v>1.83</v>
       </c>
       <c r="AN274" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AO274" t="n">
         <v>1.28</v>
       </c>
       <c r="AP274" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ274" t="n">
-        <v>1.82</v>
+        <v>1.18</v>
       </c>
       <c r="AR274" t="n">
         <v>1.58</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.92</v>
+        <v>1.21</v>
       </c>
       <c r="AT274" t="n">
         <v>1.46</v>
       </c>
       <c r="AU274" t="n">
-        <v>1.6</v>
+        <v>1.13</v>
       </c>
       <c r="AV274" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AW274" t="n">
-        <v>3.08</v>
+        <v>2.59</v>
       </c>
       <c r="AX274" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AY274" t="n">
         <v>5.5</v>
       </c>
       <c r="AZ274" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="BA274" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="BB274" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BC274" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="BD274" t="n">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="BE274" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="BF274" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG274" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH274" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI274" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BJ274" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK274" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275">
@@ -56178,7 +56178,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>2580947</v>
+        <v>2580949</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -56198,182 +56198,182 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Bradford City</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Salford City</t>
+          <t>Tranmere Rovers</t>
         </is>
       </c>
       <c r="I275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L275" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N275" t="n">
+        <v>1</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
         <v>5</v>
       </c>
-      <c r="O275" t="inlineStr">
-        <is>
-          <t>['8', '27', '68']</t>
-        </is>
-      </c>
-      <c r="P275" t="inlineStr">
-        <is>
-          <t>['13', '60']</t>
-        </is>
-      </c>
-      <c r="Q275" t="n">
-        <v>4</v>
-      </c>
       <c r="R275" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="S275" t="n">
+        <v>18</v>
+      </c>
+      <c r="T275" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2</v>
+      </c>
+      <c r="V275" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X275" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA275" t="n">
         <v>10</v>
       </c>
-      <c r="T275" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U275" t="n">
+      <c r="AB275" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ275" t="n">
         <v>2.1</v>
       </c>
-      <c r="V275" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W275" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X275" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y275" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z275" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA275" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB275" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC275" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AD275" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE275" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AF275" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG275" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH275" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI275" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ275" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AK275" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AL275" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM275" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN275" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO275" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP275" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AQ275" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AR275" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS275" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AT275" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AU275" t="n">
+      <c r="BA275" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB275" t="n">
         <v>1.45</v>
       </c>
-      <c r="AV275" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AW275" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AX275" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AY275" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ275" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="BA275" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="BB275" t="n">
-        <v>1.4</v>
-      </c>
       <c r="BC275" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="BD275" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="BE275" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BF275" t="n">
         <v>5</v>
       </c>
       <c r="BG275" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BH275" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BI275" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="BJ275" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BK275" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="276">
@@ -56381,7 +56381,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>2580948</v>
+        <v>2580950</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -56401,12 +56401,12 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Colchester United</t>
+          <t>Doncaster Rovers</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Swindon Town</t>
+          <t>Carlisle United</t>
         </is>
       </c>
       <c r="I276" t="n">
@@ -56419,41 +56419,41 @@
         <v>1</v>
       </c>
       <c r="L276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N276" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>['30']</t>
+          <t>['5', '67']</t>
         </is>
       </c>
       <c r="P276" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['87']</t>
         </is>
       </c>
       <c r="Q276" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R276" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S276" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T276" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="U276" t="n">
         <v>2.05</v>
       </c>
       <c r="V276" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="W276" t="n">
         <v>1.44</v>
@@ -56468,37 +56468,37 @@
         <v>1.33</v>
       </c>
       <c r="AA276" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG276" t="n">
         <v>10</v>
       </c>
-      <c r="AB276" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC276" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AD276" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE276" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AF276" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG276" t="n">
-        <v>9</v>
-      </c>
       <c r="AH276" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AI276" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AJ276" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="AK276" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="AL276" t="n">
         <v>1.83</v>
@@ -56507,76 +56507,76 @@
         <v>1.83</v>
       </c>
       <c r="AN276" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AO276" t="n">
         <v>1.28</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1.18</v>
+        <v>1.73</v>
       </c>
       <c r="AR276" t="n">
         <v>1.58</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.21</v>
+        <v>1.83</v>
       </c>
       <c r="AT276" t="n">
         <v>1.46</v>
       </c>
       <c r="AU276" t="n">
-        <v>1.13</v>
+        <v>1.41</v>
       </c>
       <c r="AV276" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AW276" t="n">
-        <v>2.59</v>
+        <v>2.74</v>
       </c>
       <c r="AX276" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AY276" t="n">
         <v>5.5</v>
       </c>
       <c r="AZ276" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="BA276" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="BB276" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="BC276" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="BD276" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="BE276" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG276" t="n">
         <v>3</v>
       </c>
-      <c r="BF276" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG276" t="n">
-        <v>5</v>
-      </c>
       <c r="BH276" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK276" t="n">
         <v>9</v>
-      </c>
-      <c r="BI276" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ276" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK276" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="277">
@@ -56584,7 +56584,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>2580949</v>
+        <v>2580951</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -56604,22 +56604,22 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Grimsby Town</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Tranmere Rovers</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="I277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J277" t="n">
         <v>0</v>
       </c>
       <c r="K277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>1</v>
@@ -56632,7 +56632,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>['34']</t>
+          <t>['51']</t>
         </is>
       </c>
       <c r="P277" t="inlineStr">
@@ -56641,34 +56641,34 @@
         </is>
       </c>
       <c r="Q277" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R277" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S277" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T277" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U277" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V277" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="W277" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X277" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y277" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z277" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA277" t="n">
         <v>10</v>
@@ -56677,91 +56677,91 @@
         <v>1.06</v>
       </c>
       <c r="AC277" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AD277" t="n">
         <v>3.1</v>
       </c>
       <c r="AE277" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="AF277" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG277" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH277" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AI277" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AJ277" t="n">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AK277" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AL277" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AM277" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AN277" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AO277" t="n">
         <v>1.28</v>
       </c>
       <c r="AP277" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR277" t="n">
         <v>1.45</v>
       </c>
-      <c r="AQ277" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AR277" t="n">
+      <c r="AS277" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT277" t="n">
         <v>1.33</v>
       </c>
-      <c r="AS277" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AT277" t="n">
-        <v>1.23</v>
-      </c>
       <c r="AU277" t="n">
-        <v>1.2</v>
+        <v>1.66</v>
       </c>
       <c r="AV277" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="AW277" t="n">
-        <v>2.46</v>
+        <v>3.08</v>
       </c>
       <c r="AX277" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="AY277" t="n">
         <v>5.5</v>
       </c>
       <c r="AZ277" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="BA277" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="BB277" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="BC277" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="BD277" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="BE277" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="BF277" t="n">
         <v>5</v>
@@ -56770,16 +56770,16 @@
         <v>3</v>
       </c>
       <c r="BH277" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BI277" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BJ277" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BK277" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278">
@@ -56787,7 +56787,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>2580950</v>
+        <v>2580952</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -56807,182 +56807,182 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Doncaster Rovers</t>
+          <t>Hartlepool United</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Carlisle United</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="I278" t="n">
         <v>1</v>
       </c>
       <c r="J278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L278" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M278" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N278" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>['5', '67']</t>
+          <t>['45', '46', '63']</t>
         </is>
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>['87']</t>
+          <t>['4', '49', '73']</t>
         </is>
       </c>
       <c r="Q278" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R278" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S278" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T278" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V278" t="n">
         <v>3.25</v>
       </c>
-      <c r="U278" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V278" t="n">
-        <v>3.5</v>
-      </c>
       <c r="W278" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X278" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y278" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Z278" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AA278" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB278" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AC278" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="AD278" t="n">
         <v>3.25</v>
       </c>
       <c r="AE278" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="AF278" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AG278" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH278" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AI278" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AJ278" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="AK278" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AL278" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AM278" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AN278" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AO278" t="n">
         <v>1.28</v>
       </c>
       <c r="AP278" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AQ278" t="n">
-        <v>1.73</v>
+        <v>0.91</v>
       </c>
       <c r="AR278" t="n">
-        <v>1.58</v>
+        <v>0.64</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="AT278" t="n">
-        <v>1.46</v>
+        <v>0.67</v>
       </c>
       <c r="AU278" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="AV278" t="n">
-        <v>1.33</v>
+        <v>1.06</v>
       </c>
       <c r="AW278" t="n">
-        <v>2.74</v>
+        <v>2.37</v>
       </c>
       <c r="AX278" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="AY278" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="AZ278" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="BA278" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="BB278" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="BC278" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="BD278" t="n">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BE278" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="BF278" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG278" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH278" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BI278" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ278" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BK278" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279">
@@ -56990,7 +56990,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>2580952</v>
+        <v>2580956</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -57010,12 +57010,12 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>Hartlepool United</t>
+          <t>Sutton United</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>AFC Wimbledon</t>
         </is>
       </c>
       <c r="I279" t="n">
@@ -57028,164 +57028,164 @@
         <v>2</v>
       </c>
       <c r="L279" t="n">
+        <v>2</v>
+      </c>
+      <c r="M279" t="n">
+        <v>1</v>
+      </c>
+      <c r="N279" t="n">
         <v>3</v>
       </c>
-      <c r="M279" t="n">
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['13', '69']</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>2</v>
+      </c>
+      <c r="R279" t="n">
+        <v>2</v>
+      </c>
+      <c r="S279" t="n">
+        <v>4</v>
+      </c>
+      <c r="T279" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U279" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V279" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X279" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI279" t="n">
         <v>3</v>
       </c>
-      <c r="N279" t="n">
+      <c r="AJ279" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY279" t="n">
         <v>6</v>
       </c>
-      <c r="O279" t="inlineStr">
-        <is>
-          <t>['45', '46', '63']</t>
-        </is>
-      </c>
-      <c r="P279" t="inlineStr">
-        <is>
-          <t>['4', '49', '73']</t>
-        </is>
-      </c>
-      <c r="Q279" t="n">
-        <v>2</v>
-      </c>
-      <c r="R279" t="n">
+      <c r="AZ279" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI279" t="n">
         <v>4</v>
       </c>
-      <c r="S279" t="n">
+      <c r="BJ279" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK279" t="n">
         <v>6</v>
-      </c>
-      <c r="T279" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U279" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V279" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W279" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X279" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y279" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z279" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA279" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB279" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC279" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AD279" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE279" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AF279" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG279" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH279" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI279" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ279" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AK279" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL279" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AM279" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN279" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO279" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP279" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ279" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AR279" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AS279" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AT279" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU279" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AV279" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AW279" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AX279" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AY279" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AZ279" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="BA279" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB279" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC279" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BD279" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BE279" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BF279" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG279" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH279" t="n">
-        <v>13</v>
-      </c>
-      <c r="BI279" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ279" t="n">
-        <v>21</v>
-      </c>
-      <c r="BK279" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="280">
@@ -57193,7 +57193,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>2580956</v>
+        <v>2580957</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -57213,22 +57213,22 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Sutton United</t>
+          <t>Walsall</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="I280" t="n">
         <v>1</v>
       </c>
       <c r="J280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L280" t="n">
         <v>2</v>
@@ -57241,31 +57241,31 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>['13', '69']</t>
+          <t>['43', '47']</t>
         </is>
       </c>
       <c r="P280" t="inlineStr">
         <is>
-          <t>['40']</t>
+          <t>['82']</t>
         </is>
       </c>
       <c r="Q280" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R280" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S280" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T280" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="U280" t="n">
         <v>2.05</v>
       </c>
       <c r="V280" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="W280" t="n">
         <v>1.44</v>
@@ -57286,13 +57286,13 @@
         <v>1.06</v>
       </c>
       <c r="AC280" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AD280" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AE280" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="AF280" t="n">
         <v>1.06</v>
@@ -57313,82 +57313,82 @@
         <v>1.68</v>
       </c>
       <c r="AL280" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AM280" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AN280" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO280" t="n">
         <v>1.28</v>
       </c>
-      <c r="AO280" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AP280" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AQ280" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS280" t="n">
         <v>1.92</v>
       </c>
-      <c r="AR280" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS280" t="n">
-        <v>2</v>
-      </c>
       <c r="AT280" t="n">
-        <v>1.21</v>
+        <v>1.46</v>
       </c>
       <c r="AU280" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AV280" t="n">
-        <v>1.12</v>
+        <v>1.48</v>
       </c>
       <c r="AW280" t="n">
-        <v>2.7</v>
+        <v>3.08</v>
       </c>
       <c r="AX280" t="n">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="AY280" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AZ280" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="BA280" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="BB280" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="BC280" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BD280" t="n">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BE280" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="BF280" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BG280" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH280" t="n">
         <v>8</v>
       </c>
       <c r="BI280" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="BJ280" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BK280" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="281">
@@ -57396,7 +57396,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>2580951</v>
+        <v>2580947</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -57416,59 +57416,59 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Grimsby Town</t>
+          <t>Bradford City</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Salford City</t>
         </is>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K281" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L281" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N281" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>['51']</t>
+          <t>['8', '27', '68']</t>
         </is>
       </c>
       <c r="P281" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['13', '60']</t>
         </is>
       </c>
       <c r="Q281" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R281" t="n">
+        <v>6</v>
+      </c>
+      <c r="S281" t="n">
         <v>10</v>
       </c>
-      <c r="S281" t="n">
-        <v>12</v>
-      </c>
       <c r="T281" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U281" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V281" t="n">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="W281" t="n">
         <v>1.44</v>
@@ -57483,22 +57483,22 @@
         <v>1.33</v>
       </c>
       <c r="AA281" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB281" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF281" t="n">
         <v>1.06</v>
-      </c>
-      <c r="AC281" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AD281" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE281" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AF281" t="n">
-        <v>1.07</v>
       </c>
       <c r="AG281" t="n">
         <v>9.5</v>
@@ -57522,43 +57522,43 @@
         <v>1.83</v>
       </c>
       <c r="AN281" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX281" t="n">
         <v>1.6</v>
       </c>
-      <c r="AO281" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP281" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AQ281" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR281" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AS281" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AT281" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AU281" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AV281" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AW281" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AX281" t="n">
-        <v>2.3</v>
-      </c>
       <c r="AY281" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ281" t="n">
-        <v>1.8</v>
+        <v>2.65</v>
       </c>
       <c r="BA281" t="n">
         <v>1.21</v>
@@ -57579,19 +57579,19 @@
         <v>5</v>
       </c>
       <c r="BG281" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH281" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI281" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BJ281" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BK281" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282">
@@ -57599,7 +57599,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>2580946</v>
+        <v>2580953</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -57619,59 +57619,59 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Crawley Town</t>
         </is>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
       <c r="J282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N282" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['83', '90+2']</t>
         </is>
       </c>
       <c r="P282" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['36', '67']</t>
         </is>
       </c>
       <c r="Q282" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S282" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T282" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U282" t="n">
         <v>2.1</v>
       </c>
       <c r="V282" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="W282" t="n">
         <v>1.44</v>
@@ -57680,10 +57680,10 @@
         <v>2.63</v>
       </c>
       <c r="Y282" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Z282" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AA282" t="n">
         <v>9</v>
@@ -57692,31 +57692,31 @@
         <v>1.07</v>
       </c>
       <c r="AC282" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ282" t="n">
         <v>1.93</v>
       </c>
-      <c r="AD282" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="AE282" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="AF282" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG282" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH282" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AI282" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AJ282" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AK282" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AL282" t="n">
         <v>1.83</v>
@@ -57725,76 +57725,76 @@
         <v>1.83</v>
       </c>
       <c r="AN282" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AO282" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AP282" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="AQ282" t="n">
-        <v>2</v>
+        <v>0.92</v>
       </c>
       <c r="AR282" t="n">
-        <v>0.73</v>
+        <v>0.45</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.92</v>
+        <v>0.92</v>
       </c>
       <c r="AT282" t="n">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="AU282" t="n">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="AV282" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AW282" t="n">
-        <v>2.53</v>
+        <v>2.41</v>
       </c>
       <c r="AX282" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AY282" t="n">
-        <v>6.5</v>
+        <v>8.6</v>
       </c>
       <c r="AZ282" t="n">
-        <v>3.8</v>
+        <v>3.74</v>
       </c>
       <c r="BA282" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="BB282" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="BC282" t="n">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="BD282" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="BE282" t="n">
-        <v>2.84</v>
+        <v>3.42</v>
       </c>
       <c r="BF282" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BG282" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BH282" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BI282" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ282" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BK282" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283">
@@ -57802,7 +57802,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>2580955</v>
+        <v>2580954</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -57822,22 +57822,22 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Northampton Town</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Gillingham</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283" t="n">
         <v>0</v>
       </c>
       <c r="K283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>1</v>
@@ -57850,7 +57850,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>['23']</t>
+          <t>['51']</t>
         </is>
       </c>
       <c r="P283" t="inlineStr">
@@ -57859,49 +57859,49 @@
         </is>
       </c>
       <c r="Q283" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R283" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S283" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T283" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="U283" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V283" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="W283" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X283" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y283" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Z283" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA283" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB283" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC283" t="n">
-        <v>1.48</v>
+        <v>2.67</v>
       </c>
       <c r="AD283" t="n">
-        <v>4.34</v>
+        <v>3.14</v>
       </c>
       <c r="AE283" t="n">
-        <v>7.63</v>
+        <v>2.95</v>
       </c>
       <c r="AF283" t="n">
         <v>1.06</v>
@@ -57910,91 +57910,91 @@
         <v>8.75</v>
       </c>
       <c r="AH283" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="AI283" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="AJ283" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AK283" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB283" t="n">
         <v>1.67</v>
       </c>
-      <c r="AL283" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM283" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN283" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AO283" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP283" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AQ283" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AR283" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AS283" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AT283" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AU283" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AV283" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AW283" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AX283" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AY283" t="n">
+      <c r="BC283" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ283" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ283" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="BA283" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BB283" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BC283" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BD283" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BE283" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="BF283" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG283" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH283" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI283" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ283" t="n">
-        <v>12</v>
       </c>
       <c r="BK283" t="n">
         <v>7</v>
@@ -58005,7 +58005,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>2580954</v>
+        <v>2580955</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -58025,22 +58025,22 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Northampton Town</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Gillingham</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J284" t="n">
         <v>0</v>
       </c>
       <c r="K284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L284" t="n">
         <v>1</v>
@@ -58053,7 +58053,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>['51']</t>
+          <t>['23']</t>
         </is>
       </c>
       <c r="P284" t="inlineStr">
@@ -58062,49 +58062,49 @@
         </is>
       </c>
       <c r="Q284" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R284" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S284" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="T284" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="U284" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V284" t="n">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="W284" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X284" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y284" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z284" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA284" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB284" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC284" t="n">
-        <v>2.67</v>
+        <v>1.48</v>
       </c>
       <c r="AD284" t="n">
-        <v>3.14</v>
+        <v>4.34</v>
       </c>
       <c r="AE284" t="n">
-        <v>2.95</v>
+        <v>7.63</v>
       </c>
       <c r="AF284" t="n">
         <v>1.06</v>
@@ -58113,91 +58113,91 @@
         <v>8.75</v>
       </c>
       <c r="AH284" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="AI284" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="AJ284" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD284" t="n">
         <v>2.3</v>
       </c>
-      <c r="AK284" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AL284" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM284" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN284" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AO284" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AP284" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AQ284" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AR284" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AS284" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AT284" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AU284" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AV284" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AW284" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AX284" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AY284" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="AZ284" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="BA284" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BB284" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BC284" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD284" t="n">
-        <v>2.63</v>
-      </c>
       <c r="BE284" t="n">
-        <v>3.74</v>
+        <v>3.42</v>
       </c>
       <c r="BF284" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BG284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH284" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BI284" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ284" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BK284" t="n">
         <v>7</v>
@@ -58208,7 +58208,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>2580953</v>
+        <v>2580946</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -58228,59 +58228,59 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Crawley Town</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N285" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>['83', '90+2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P285" t="inlineStr">
         <is>
-          <t>['36', '67']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q285" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S285" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T285" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U285" t="n">
         <v>2.1</v>
       </c>
       <c r="V285" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="W285" t="n">
         <v>1.44</v>
@@ -58289,10 +58289,10 @@
         <v>2.63</v>
       </c>
       <c r="Y285" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z285" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA285" t="n">
         <v>9</v>
@@ -58301,31 +58301,31 @@
         <v>1.07</v>
       </c>
       <c r="AC285" t="n">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="AD285" t="n">
-        <v>3.87</v>
+        <v>3.44</v>
       </c>
       <c r="AE285" t="n">
-        <v>4.97</v>
+        <v>4.23</v>
       </c>
       <c r="AF285" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AG285" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH285" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AI285" t="n">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="AJ285" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AK285" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AL285" t="n">
         <v>1.83</v>
@@ -58334,76 +58334,76 @@
         <v>1.83</v>
       </c>
       <c r="AN285" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA285" t="n">
         <v>1.18</v>
       </c>
-      <c r="AO285" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP285" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AQ285" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AR285" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AS285" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AT285" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AU285" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AV285" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW285" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AX285" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AY285" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AZ285" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="BA285" t="n">
-        <v>1.29</v>
-      </c>
       <c r="BB285" t="n">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="BC285" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="BD285" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="BE285" t="n">
-        <v>3.42</v>
+        <v>2.84</v>
       </c>
       <c r="BF285" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BG285" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BH285" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BI285" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BJ285" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BK285" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286">
@@ -58614,7 +58614,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>2580964</v>
+        <v>2580962</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -58634,59 +58634,59 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Colchester United</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M287" t="n">
         <v>3</v>
       </c>
       <c r="N287" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>['9', '25']</t>
+          <t>['77']</t>
         </is>
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>['45+1', '49', '77']</t>
+          <t>['12', '17', '54']</t>
         </is>
       </c>
       <c r="Q287" t="n">
+        <v>9</v>
+      </c>
+      <c r="R287" t="n">
         <v>4</v>
       </c>
-      <c r="R287" t="n">
-        <v>3</v>
-      </c>
       <c r="S287" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T287" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="U287" t="n">
         <v>2.1</v>
       </c>
       <c r="V287" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="W287" t="n">
         <v>1.44</v>
@@ -58701,115 +58701,115 @@
         <v>1.33</v>
       </c>
       <c r="AA287" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF287" t="n">
         <v>10</v>
       </c>
-      <c r="AB287" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC287" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AD287" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE287" t="n">
+      <c r="BG287" t="n">
         <v>4</v>
       </c>
-      <c r="AF287" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG287" t="n">
+      <c r="BH287" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK287" t="n">
         <v>7</v>
-      </c>
-      <c r="AH287" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI287" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AJ287" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK287" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AL287" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM287" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN287" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO287" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP287" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AQ287" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AR287" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS287" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AT287" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AU287" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AV287" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AW287" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AX287" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AY287" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ287" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="BA287" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB287" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC287" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BD287" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BE287" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BF287" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG287" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH287" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI287" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ287" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK287" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="288">
@@ -58817,7 +58817,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>2580962</v>
+        <v>2580963</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -58837,59 +58837,59 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Colchester United</t>
+          <t>Doncaster Rovers</t>
         </is>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
       <c r="J288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
       <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>1</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>6</v>
+      </c>
+      <c r="R288" t="n">
         <v>3</v>
       </c>
-      <c r="N288" t="n">
-        <v>4</v>
-      </c>
-      <c r="O288" t="inlineStr">
-        <is>
-          <t>['77']</t>
-        </is>
-      </c>
-      <c r="P288" t="inlineStr">
-        <is>
-          <t>['12', '17', '54']</t>
-        </is>
-      </c>
-      <c r="Q288" t="n">
+      <c r="S288" t="n">
         <v>9</v>
       </c>
-      <c r="R288" t="n">
-        <v>4</v>
-      </c>
-      <c r="S288" t="n">
-        <v>13</v>
-      </c>
       <c r="T288" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="U288" t="n">
         <v>2.1</v>
       </c>
       <c r="V288" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="W288" t="n">
         <v>1.44</v>
@@ -58910,13 +58910,13 @@
         <v>1.07</v>
       </c>
       <c r="AC288" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="AD288" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AE288" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="AF288" t="n">
         <v>1.05</v>
@@ -58931,88 +58931,88 @@
         <v>3</v>
       </c>
       <c r="AJ288" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="AK288" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AL288" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AM288" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AN288" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="AO288" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AP288" t="n">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="AQ288" t="n">
-        <v>1.36</v>
+        <v>2.42</v>
       </c>
       <c r="AR288" t="n">
-        <v>0.33</v>
+        <v>1.25</v>
       </c>
       <c r="AS288" t="n">
-        <v>1.23</v>
+        <v>2.36</v>
       </c>
       <c r="AT288" t="n">
-        <v>0.71</v>
+        <v>1.15</v>
       </c>
       <c r="AU288" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AV288" t="n">
-        <v>0.85</v>
+        <v>1.18</v>
       </c>
       <c r="AW288" t="n">
-        <v>2.41</v>
+        <v>2.79</v>
       </c>
       <c r="AX288" t="n">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="AY288" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ288" t="n">
         <v>8</v>
       </c>
-      <c r="AZ288" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BA288" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BB288" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="BC288" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BD288" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="BE288" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BF288" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG288" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH288" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI288" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ288" t="n">
-        <v>18</v>
-      </c>
       <c r="BK288" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289">
@@ -59020,7 +59020,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>2580963</v>
+        <v>2580964</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -59040,59 +59040,59 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Doncaster Rovers</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M289" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N289" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>['68']</t>
+          <t>['9', '25']</t>
         </is>
       </c>
       <c r="P289" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['45+1', '49', '77']</t>
         </is>
       </c>
       <c r="Q289" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R289" t="n">
         <v>3</v>
       </c>
       <c r="S289" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T289" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="U289" t="n">
         <v>2.1</v>
       </c>
       <c r="V289" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="W289" t="n">
         <v>1.44</v>
@@ -59107,115 +59107,115 @@
         <v>1.33</v>
       </c>
       <c r="AA289" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB289" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF289" t="n">
         <v>1.07</v>
       </c>
-      <c r="AC289" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AD289" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AE289" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF289" t="n">
-        <v>1.05</v>
-      </c>
       <c r="AG289" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH289" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO289" t="n">
         <v>1.33</v>
       </c>
-      <c r="AI289" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ289" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK289" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AL289" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM289" t="n">
+      <c r="AP289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ289" t="n">
         <v>1.73</v>
       </c>
-      <c r="AN289" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO289" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP289" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AQ289" t="n">
-        <v>2.42</v>
-      </c>
       <c r="AR289" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AS289" t="n">
-        <v>2.36</v>
+        <v>1.54</v>
       </c>
       <c r="AT289" t="n">
         <v>1.15</v>
       </c>
       <c r="AU289" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AV289" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="AW289" t="n">
-        <v>2.79</v>
+        <v>2.98</v>
       </c>
       <c r="AX289" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AY289" t="n">
         <v>8.5</v>
       </c>
       <c r="AZ289" t="n">
-        <v>3.28</v>
+        <v>2.91</v>
       </c>
       <c r="BA289" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BB289" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BC289" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BD289" t="n">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="BE289" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="BF289" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG289" t="n">
         <v>5</v>
       </c>
-      <c r="BG289" t="n">
-        <v>0</v>
-      </c>
       <c r="BH289" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI289" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BJ289" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK289" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290">
@@ -60035,7 +60035,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>2580970</v>
+        <v>2580976</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -60055,182 +60055,182 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Bradford City</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J294" t="n">
         <v>0</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['42']</t>
         </is>
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['55']</t>
         </is>
       </c>
       <c r="Q294" t="n">
+        <v>9</v>
+      </c>
+      <c r="R294" t="n">
+        <v>6</v>
+      </c>
+      <c r="S294" t="n">
+        <v>15</v>
+      </c>
+      <c r="T294" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V294" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X294" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH294" t="n">
         <v>10</v>
       </c>
-      <c r="R294" t="n">
-        <v>3</v>
-      </c>
-      <c r="S294" t="n">
-        <v>13</v>
-      </c>
-      <c r="T294" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U294" t="n">
-        <v>2</v>
-      </c>
-      <c r="V294" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W294" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X294" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Y294" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Z294" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA294" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AB294" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC294" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AD294" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AE294" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AF294" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG294" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH294" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI294" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ294" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK294" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AL294" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AM294" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN294" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AO294" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP294" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AQ294" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AR294" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AS294" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AT294" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AU294" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AV294" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AW294" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AX294" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AY294" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ294" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BA294" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="BB294" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BC294" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="BD294" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="BE294" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF294" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG294" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH294" t="n">
-        <v>13</v>
-      </c>
       <c r="BI294" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BJ294" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BK294" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295">
@@ -60238,7 +60238,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>2580973</v>
+        <v>2580970</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -60258,35 +60258,35 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Gillingham</t>
+          <t>AFC Wimbledon</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Hartlepool United</t>
+          <t>Bradford City</t>
         </is>
       </c>
       <c r="I295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" t="n">
         <v>0</v>
       </c>
       <c r="K295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M295" t="n">
         <v>0</v>
       </c>
       <c r="N295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>['40', '59']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
@@ -60295,145 +60295,145 @@
         </is>
       </c>
       <c r="Q295" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R295" t="n">
         <v>3</v>
       </c>
       <c r="S295" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="T295" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="U295" t="n">
         <v>2</v>
       </c>
       <c r="V295" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="W295" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X295" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y295" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="Z295" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AA295" t="n">
-        <v>9.85</v>
+        <v>7.9</v>
       </c>
       <c r="AB295" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AC295" t="n">
-        <v>2.24</v>
+        <v>2.6</v>
       </c>
       <c r="AD295" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI295" t="n">
         <v>3</v>
       </c>
-      <c r="AE295" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AF295" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG295" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH295" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI295" t="n">
-        <v>2.5</v>
-      </c>
       <c r="AJ295" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="AK295" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AL295" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AM295" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="AN295" t="n">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="AO295" t="n">
         <v>1.3</v>
       </c>
       <c r="AP295" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC295" t="n">
         <v>1.72</v>
       </c>
-      <c r="AQ295" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AR295" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AS295" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AT295" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AU295" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AV295" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AW295" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AX295" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AY295" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ295" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="BA295" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BB295" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BC295" t="n">
-        <v>2</v>
-      </c>
       <c r="BD295" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="BE295" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="BF295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG295" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH295" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BI295" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BJ295" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BK295" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296">
@@ -60441,7 +60441,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>2580981</v>
+        <v>2580971</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -60461,149 +60461,149 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Tranmere Rovers</t>
+          <t>Carlisle United</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="I296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296" t="n">
         <v>0</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N296" t="n">
         <v>2</v>
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>['78']</t>
+          <t>['45+2', '57']</t>
         </is>
       </c>
       <c r="P296" t="inlineStr">
         <is>
-          <t>['72']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q296" t="n">
+        <v>4</v>
+      </c>
+      <c r="R296" t="n">
+        <v>2</v>
+      </c>
+      <c r="S296" t="n">
         <v>6</v>
       </c>
-      <c r="R296" t="n">
+      <c r="T296" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V296" t="n">
+        <v>4</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X296" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y296" t="n">
         <v>3</v>
       </c>
-      <c r="S296" t="n">
-        <v>9</v>
-      </c>
-      <c r="T296" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="U296" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V296" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="W296" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X296" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Y296" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Z296" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN296" t="n">
         <v>1.3</v>
       </c>
-      <c r="AA296" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AB296" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC296" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AD296" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE296" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AF296" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG296" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH296" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AI296" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AJ296" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AK296" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AL296" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM296" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AN296" t="n">
-        <v>1.42</v>
-      </c>
       <c r="AO296" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AP296" t="n">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="AQ296" t="n">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="AR296" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="AT296" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU296" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AV296" t="n">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AW296" t="n">
-        <v>2.52</v>
+        <v>2.8</v>
       </c>
       <c r="AX296" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="AY296" t="n">
         <v>8</v>
       </c>
       <c r="AZ296" t="n">
-        <v>2.05</v>
+        <v>2.67</v>
       </c>
       <c r="BA296" t="n">
         <v>1.26</v>
@@ -60612,7 +60612,7 @@
         <v>1.48</v>
       </c>
       <c r="BC296" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="BD296" t="n">
         <v>2.43</v>
@@ -60624,19 +60624,19 @@
         <v>4</v>
       </c>
       <c r="BG296" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH296" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI296" t="n">
         <v>8</v>
       </c>
-      <c r="BI296" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ296" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK296" t="n">
         <v>12</v>
-      </c>
-      <c r="BK296" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="297">
@@ -60644,7 +60644,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>2580980</v>
+        <v>2580973</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -60664,12 +60664,12 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Swindon Town</t>
+          <t>Gillingham</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Grimsby Town</t>
+          <t>Hartlepool United</t>
         </is>
       </c>
       <c r="I297" t="n">
@@ -60682,164 +60682,164 @@
         <v>1</v>
       </c>
       <c r="L297" t="n">
+        <v>2</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N297" t="n">
+        <v>2</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>['40', '59']</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>2</v>
+      </c>
+      <c r="R297" t="n">
+        <v>3</v>
+      </c>
+      <c r="S297" t="n">
         <v>5</v>
       </c>
-      <c r="M297" t="n">
-        <v>0</v>
-      </c>
-      <c r="N297" t="n">
-        <v>5</v>
-      </c>
-      <c r="O297" t="inlineStr">
-        <is>
-          <t>['25', '62', '66', '78', '88']</t>
-        </is>
-      </c>
-      <c r="P297" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q297" t="n">
+      <c r="T297" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2</v>
+      </c>
+      <c r="V297" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X297" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG297" t="n">
         <v>4</v>
       </c>
-      <c r="R297" t="n">
-        <v>5</v>
-      </c>
-      <c r="S297" t="n">
-        <v>9</v>
-      </c>
-      <c r="T297" t="n">
+      <c r="BH297" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI297" t="n">
         <v>3</v>
       </c>
-      <c r="U297" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V297" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W297" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X297" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Y297" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="Z297" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AA297" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="AB297" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC297" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AD297" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AE297" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AF297" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG297" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH297" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AI297" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ297" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK297" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AL297" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM297" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN297" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AO297" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP297" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AQ297" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AR297" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AS297" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AT297" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AU297" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AV297" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AW297" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AX297" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AY297" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ297" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="BA297" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="BB297" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BC297" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BD297" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BE297" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="BF297" t="n">
-        <v>9</v>
-      </c>
-      <c r="BG297" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH297" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI297" t="n">
-        <v>1</v>
-      </c>
       <c r="BJ297" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="BK297" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298">
@@ -60847,7 +60847,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>2580979</v>
+        <v>2580975</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -60867,35 +60867,35 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Northampton Town</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="I298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298" t="n">
         <v>0</v>
       </c>
       <c r="K298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M298" t="n">
         <v>0</v>
       </c>
       <c r="N298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>['33', '68']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P298" t="inlineStr">
@@ -60904,145 +60904,145 @@
         </is>
       </c>
       <c r="Q298" t="n">
+        <v>3</v>
+      </c>
+      <c r="R298" t="n">
+        <v>7</v>
+      </c>
+      <c r="S298" t="n">
+        <v>10</v>
+      </c>
+      <c r="T298" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U298" t="n">
+        <v>2</v>
+      </c>
+      <c r="V298" t="n">
         <v>5</v>
       </c>
-      <c r="R298" t="n">
-        <v>9</v>
-      </c>
-      <c r="S298" t="n">
-        <v>14</v>
-      </c>
-      <c r="T298" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U298" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V298" t="n">
-        <v>4.75</v>
-      </c>
       <c r="W298" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="X298" t="n">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="Y298" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="Z298" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AA298" t="n">
-        <v>7.9</v>
+        <v>9.85</v>
       </c>
       <c r="AB298" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC298" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="AD298" t="n">
         <v>3.25</v>
       </c>
       <c r="AE298" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="AF298" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AG298" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH298" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AI298" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AJ298" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="AK298" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM298" t="n">
         <v>1.65</v>
       </c>
-      <c r="AL298" t="n">
+      <c r="AN298" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP298" t="n">
         <v>1.95</v>
       </c>
-      <c r="AM298" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN298" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AO298" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP298" t="n">
-        <v>2</v>
-      </c>
       <c r="AQ298" t="n">
-        <v>1.64</v>
+        <v>2.46</v>
       </c>
       <c r="AR298" t="n">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="AS298" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX298" t="n">
         <v>1.69</v>
       </c>
-      <c r="AT298" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AU298" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AV298" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AW298" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AX298" t="n">
-        <v>1.41</v>
-      </c>
       <c r="AY298" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA298" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB298" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC298" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD298" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE298" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF298" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG298" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH298" t="n">
         <v>9</v>
       </c>
-      <c r="AZ298" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="BA298" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB298" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BC298" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD298" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BE298" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BF298" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG298" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH298" t="n">
-        <v>12</v>
-      </c>
       <c r="BI298" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BJ298" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BK298" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299">
@@ -61050,7 +61050,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>2580978</v>
+        <v>2580974</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -61070,104 +61070,104 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Salford City</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Sutton United</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J299" t="n">
         <v>0</v>
       </c>
       <c r="K299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N299" t="n">
         <v>2</v>
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>['9', '45+1']</t>
+          <t>['77']</t>
         </is>
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['60']</t>
         </is>
       </c>
       <c r="Q299" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R299" t="n">
         <v>8</v>
       </c>
       <c r="S299" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T299" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="U299" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V299" t="n">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="W299" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X299" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="Y299" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="Z299" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="AA299" t="n">
-        <v>8.35</v>
+        <v>7.85</v>
       </c>
       <c r="AB299" t="n">
         <v>1.05</v>
       </c>
       <c r="AC299" t="n">
-        <v>2.15</v>
+        <v>3.85</v>
       </c>
       <c r="AD299" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AE299" t="n">
-        <v>3.15</v>
+        <v>1.87</v>
       </c>
       <c r="AF299" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AG299" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AH299" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AI299" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AJ299" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AK299" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AL299" t="n">
         <v>1.9</v>
@@ -61176,76 +61176,76 @@
         <v>1.87</v>
       </c>
       <c r="AN299" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AO299" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AP299" t="n">
-        <v>1.57</v>
+        <v>1.22</v>
       </c>
       <c r="AQ299" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR299" t="n">
-        <v>0.77</v>
+        <v>1.55</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="AT299" t="n">
-        <v>0.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU299" t="n">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="AV299" t="n">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="AW299" t="n">
-        <v>2.64</v>
+        <v>3.24</v>
       </c>
       <c r="AX299" t="n">
-        <v>2</v>
+        <v>2.78</v>
       </c>
       <c r="AY299" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ299" t="n">
-        <v>2.05</v>
+        <v>1.59</v>
       </c>
       <c r="BA299" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="BB299" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="BC299" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="BD299" t="n">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="BE299" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="BF299" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BG299" t="n">
         <v>5</v>
       </c>
       <c r="BH299" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BI299" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BJ299" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK299" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="300">
@@ -61253,7 +61253,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>2580977</v>
+        <v>2580980</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -61273,182 +61273,182 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Swindon Town</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Colchester United</t>
+          <t>Grimsby Town</t>
         </is>
       </c>
       <c r="I300" t="n">
         <v>1</v>
       </c>
       <c r="J300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L300" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N300" t="n">
+        <v>5</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>['25', '62', '66', '78', '88']</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>4</v>
+      </c>
+      <c r="R300" t="n">
+        <v>5</v>
+      </c>
+      <c r="S300" t="n">
+        <v>9</v>
+      </c>
+      <c r="T300" t="n">
         <v>3</v>
       </c>
-      <c r="O300" t="inlineStr">
-        <is>
-          <t>['36']</t>
-        </is>
-      </c>
-      <c r="P300" t="inlineStr">
-        <is>
-          <t>['26', '87']</t>
-        </is>
-      </c>
-      <c r="Q300" t="n">
-        <v>6</v>
-      </c>
-      <c r="R300" t="n">
-        <v>2</v>
-      </c>
-      <c r="S300" t="n">
-        <v>8</v>
-      </c>
-      <c r="T300" t="n">
-        <v>2.9</v>
-      </c>
       <c r="U300" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="V300" t="n">
-        <v>4.12</v>
+        <v>3.75</v>
       </c>
       <c r="W300" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="X300" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="Y300" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="Z300" t="n">
         <v>1.35</v>
       </c>
       <c r="AA300" t="n">
-        <v>8.1</v>
+        <v>7.85</v>
       </c>
       <c r="AB300" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC300" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="AD300" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AE300" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AF300" t="n">
         <v>1.06</v>
       </c>
       <c r="AG300" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH300" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AI300" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AJ300" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AK300" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="AL300" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="AM300" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AN300" t="n">
         <v>1.36</v>
       </c>
       <c r="AO300" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB300" t="n">
         <v>1.36</v>
       </c>
-      <c r="AP300" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AQ300" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AR300" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AS300" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AT300" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AU300" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AV300" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AW300" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AX300" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AY300" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ300" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="BA300" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB300" t="n">
-        <v>1.48</v>
-      </c>
       <c r="BC300" t="n">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="BD300" t="n">
-        <v>2.43</v>
+        <v>2.1</v>
       </c>
       <c r="BE300" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="BF300" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG300" t="n">
         <v>5</v>
       </c>
-      <c r="BG300" t="n">
-        <v>3</v>
-      </c>
       <c r="BH300" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI300" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BJ300" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="BK300" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301">
@@ -61456,7 +61456,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>2580976</v>
+        <v>2580979</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -61476,12 +61476,12 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Northampton Town</t>
         </is>
       </c>
       <c r="I301" t="n">
@@ -61494,164 +61494,164 @@
         <v>1</v>
       </c>
       <c r="L301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N301" t="n">
         <v>2</v>
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>['42']</t>
+          <t>['33', '68']</t>
         </is>
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>['55']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q301" t="n">
+        <v>5</v>
+      </c>
+      <c r="R301" t="n">
         <v>9</v>
       </c>
-      <c r="R301" t="n">
-        <v>6</v>
-      </c>
       <c r="S301" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T301" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="U301" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="V301" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="W301" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X301" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y301" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z301" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA301" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB301" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC301" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE301" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF301" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG301" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH301" t="n">
         <v>1.36</v>
       </c>
-      <c r="X301" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Y301" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Z301" t="n">
+      <c r="AI301" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL301" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM301" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP301" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ301" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR301" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS301" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT301" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU301" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV301" t="n">
         <v>1.39</v>
       </c>
-      <c r="AA301" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="AB301" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC301" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AD301" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AE301" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AF301" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG301" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH301" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI301" t="n">
+      <c r="AW301" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX301" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ301" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BA301" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB301" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC301" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD301" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE301" t="n">
         <v>3.5</v>
       </c>
-      <c r="AJ301" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AK301" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AL301" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM301" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AN301" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AO301" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP301" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AQ301" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AR301" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS301" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AT301" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU301" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AV301" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AW301" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AX301" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AY301" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ301" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="BA301" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB301" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC301" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BD301" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BE301" t="n">
-        <v>3.35</v>
-      </c>
       <c r="BF301" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG301" t="n">
         <v>4</v>
       </c>
       <c r="BH301" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI301" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ301" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BK301" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302">
@@ -61659,7 +61659,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>2580975</v>
+        <v>2580978</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -61679,182 +61679,182 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Salford City</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Sutton United</t>
         </is>
       </c>
       <c r="I302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J302" t="n">
         <v>0</v>
       </c>
       <c r="K302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M302" t="n">
         <v>0</v>
       </c>
       <c r="N302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O302" t="inlineStr">
         <is>
+          <t>['9', '45+1']</t>
+        </is>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P302" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q302" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R302" t="n">
+        <v>8</v>
+      </c>
+      <c r="S302" t="n">
+        <v>13</v>
+      </c>
+      <c r="T302" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U302" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V302" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W302" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X302" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y302" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z302" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA302" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AB302" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC302" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD302" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE302" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF302" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG302" t="n">
         <v>7</v>
       </c>
-      <c r="S302" t="n">
-        <v>10</v>
-      </c>
-      <c r="T302" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="U302" t="n">
-        <v>2</v>
-      </c>
-      <c r="V302" t="n">
-        <v>5</v>
-      </c>
-      <c r="W302" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X302" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Y302" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Z302" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA302" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="AB302" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC302" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AD302" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE302" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AF302" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG302" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AH302" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI302" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ302" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK302" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL302" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM302" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN302" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP302" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ302" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR302" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS302" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT302" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU302" t="n">
         <v>1.47</v>
       </c>
-      <c r="AI302" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AJ302" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AK302" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL302" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM302" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN302" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO302" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP302" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AQ302" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AR302" t="n">
+      <c r="AV302" t="n">
         <v>1.17</v>
       </c>
-      <c r="AS302" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AT302" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AU302" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AV302" t="n">
-        <v>1.43</v>
-      </c>
       <c r="AW302" t="n">
-        <v>3.01</v>
+        <v>2.64</v>
       </c>
       <c r="AX302" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AY302" t="n">
         <v>8</v>
       </c>
       <c r="AZ302" t="n">
-        <v>2.65</v>
+        <v>2.05</v>
       </c>
       <c r="BA302" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BB302" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BC302" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BD302" t="n">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="BE302" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="BF302" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG302" t="n">
         <v>5</v>
       </c>
-      <c r="BG302" t="n">
-        <v>3</v>
-      </c>
       <c r="BH302" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI302" t="n">
         <v>9</v>
       </c>
-      <c r="BI302" t="n">
-        <v>8</v>
-      </c>
       <c r="BJ302" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK302" t="n">
         <v>14</v>
-      </c>
-      <c r="BK302" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="303">
@@ -61862,7 +61862,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>2580974</v>
+        <v>2580977</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -61882,182 +61882,182 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Colchester United</t>
         </is>
       </c>
       <c r="I303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
       <c r="M303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N303" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>['77']</t>
+          <t>['36']</t>
         </is>
       </c>
       <c r="P303" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>['26', '87']</t>
         </is>
       </c>
       <c r="Q303" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R303" t="n">
+        <v>2</v>
+      </c>
+      <c r="S303" t="n">
         <v>8</v>
       </c>
-      <c r="S303" t="n">
-        <v>10</v>
-      </c>
       <c r="T303" t="n">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="U303" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="V303" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="W303" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X303" t="n">
         <v>2.6</v>
       </c>
-      <c r="W303" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X303" t="n">
-        <v>2.65</v>
-      </c>
       <c r="Y303" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="Z303" t="n">
         <v>1.35</v>
       </c>
       <c r="AA303" t="n">
-        <v>7.85</v>
+        <v>8.1</v>
       </c>
       <c r="AB303" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC303" t="n">
-        <v>3.85</v>
+        <v>2.14</v>
       </c>
       <c r="AD303" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AE303" t="n">
-        <v>1.87</v>
+        <v>3.2</v>
       </c>
       <c r="AF303" t="n">
         <v>1.06</v>
       </c>
       <c r="AG303" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH303" t="n">
         <v>1.36</v>
       </c>
       <c r="AI303" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AJ303" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AK303" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AL303" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM303" t="n">
         <v>1.9</v>
       </c>
-      <c r="AM303" t="n">
-        <v>1.87</v>
-      </c>
       <c r="AN303" t="n">
-        <v>1.9</v>
+        <v>1.36</v>
       </c>
       <c r="AO303" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AP303" t="n">
-        <v>1.22</v>
+        <v>1.68</v>
       </c>
       <c r="AQ303" t="n">
-        <v>1.25</v>
+        <v>0.67</v>
       </c>
       <c r="AR303" t="n">
-        <v>1.55</v>
+        <v>0.54</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.23</v>
+        <v>0.62</v>
       </c>
       <c r="AT303" t="n">
-        <v>1.5</v>
+        <v>0.71</v>
       </c>
       <c r="AU303" t="n">
-        <v>1.61</v>
+        <v>1.29</v>
       </c>
       <c r="AV303" t="n">
-        <v>1.63</v>
+        <v>0.86</v>
       </c>
       <c r="AW303" t="n">
-        <v>3.24</v>
+        <v>2.15</v>
       </c>
       <c r="AX303" t="n">
-        <v>2.78</v>
+        <v>1.82</v>
       </c>
       <c r="AY303" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ303" t="n">
-        <v>1.59</v>
+        <v>2.39</v>
       </c>
       <c r="BA303" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="BB303" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="BC303" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="BD303" t="n">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BE303" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="BF303" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG303" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH303" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI303" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ303" t="n">
         <v>5</v>
       </c>
-      <c r="BH303" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI303" t="n">
+      <c r="BK303" t="n">
         <v>11</v>
-      </c>
-      <c r="BJ303" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK303" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="304">
@@ -62065,7 +62065,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>2580971</v>
+        <v>2580981</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -62085,149 +62085,149 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Carlisle United</t>
+          <t>Tranmere Rovers</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Walsall</t>
         </is>
       </c>
       <c r="I304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304" t="n">
         <v>0</v>
       </c>
       <c r="K304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N304" t="n">
         <v>2</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>['45+2', '57']</t>
+          <t>['78']</t>
         </is>
       </c>
       <c r="P304" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['72']</t>
         </is>
       </c>
       <c r="Q304" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R304" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S304" t="n">
+        <v>9</v>
+      </c>
+      <c r="T304" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U304" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V304" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="W304" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X304" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG304" t="n">
         <v>6</v>
       </c>
-      <c r="T304" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U304" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V304" t="n">
-        <v>4</v>
-      </c>
-      <c r="W304" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X304" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Y304" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z304" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA304" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB304" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC304" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AD304" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE304" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AF304" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG304" t="n">
-        <v>7</v>
-      </c>
       <c r="AH304" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AI304" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AJ304" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AK304" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AL304" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AM304" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AN304" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AO304" t="n">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AP304" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="AQ304" t="n">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="AR304" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS304" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT304" t="n">
         <v>1.17</v>
       </c>
-      <c r="AS304" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT304" t="n">
-        <v>1.08</v>
-      </c>
       <c r="AU304" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AV304" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AW304" t="n">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="AX304" t="n">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="AY304" t="n">
         <v>8</v>
       </c>
       <c r="AZ304" t="n">
-        <v>2.67</v>
+        <v>2.05</v>
       </c>
       <c r="BA304" t="n">
         <v>1.26</v>
@@ -62236,7 +62236,7 @@
         <v>1.48</v>
       </c>
       <c r="BC304" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="BD304" t="n">
         <v>2.43</v>
@@ -62248,19 +62248,19 @@
         <v>4</v>
       </c>
       <c r="BG304" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH304" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI304" t="n">
         <v>4</v>
       </c>
-      <c r="BH304" t="n">
+      <c r="BJ304" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK304" t="n">
         <v>6</v>
-      </c>
-      <c r="BI304" t="n">
-        <v>8</v>
-      </c>
-      <c r="BJ304" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK304" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="305">
@@ -62268,7 +62268,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>2580988</v>
+        <v>2580984</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -62288,149 +62288,149 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Hartlepool United</t>
+          <t>Colchester United</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Gillingham</t>
         </is>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
       <c r="J305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N305" t="n">
         <v>2</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>['54', '64']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P305" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['36', '45+3']</t>
         </is>
       </c>
       <c r="Q305" t="n">
         <v>8</v>
       </c>
       <c r="R305" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S305" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T305" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="U305" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V305" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="W305" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="X305" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="Y305" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Z305" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL305" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM305" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP305" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ305" t="n">
         <v>1.33</v>
       </c>
-      <c r="AA305" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB305" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC305" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AD305" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE305" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AF305" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG305" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH305" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI305" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ305" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AK305" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AL305" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM305" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN305" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AO305" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP305" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ305" t="n">
-        <v>0.92</v>
-      </c>
       <c r="AR305" t="n">
-        <v>0.92</v>
+        <v>0.33</v>
       </c>
       <c r="AS305" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT305" t="n">
-        <v>0.86</v>
+        <v>0.54</v>
       </c>
       <c r="AU305" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="AV305" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="AW305" t="n">
-        <v>2.38</v>
+        <v>2.17</v>
       </c>
       <c r="AX305" t="n">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="AY305" t="n">
         <v>8</v>
       </c>
       <c r="AZ305" t="n">
-        <v>2.39</v>
+        <v>2.67</v>
       </c>
       <c r="BA305" t="n">
         <v>1.27</v>
@@ -62448,22 +62448,22 @@
         <v>3.5</v>
       </c>
       <c r="BF305" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BG305" t="n">
         <v>4</v>
       </c>
       <c r="BH305" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BI305" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ305" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK305" t="n">
         <v>7</v>
-      </c>
-      <c r="BJ305" t="n">
-        <v>16</v>
-      </c>
-      <c r="BK305" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="306">
@@ -62471,7 +62471,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>2580984</v>
+        <v>2580991</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -62491,182 +62491,182 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Colchester United</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Gillingham</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K306" t="n">
         <v>2</v>
       </c>
       <c r="L306" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N306" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O306" t="inlineStr">
         <is>
+          <t>['6', '11', '90+1']</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P306" t="inlineStr">
-        <is>
-          <t>['36', '45+3']</t>
-        </is>
-      </c>
       <c r="Q306" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R306" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S306" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T306" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U306" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V306" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W306" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X306" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI306" t="n">
         <v>2.8</v>
       </c>
-      <c r="U306" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V306" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="W306" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X306" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Y306" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Z306" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA306" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB306" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC306" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AD306" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AE306" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="AF306" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG306" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AH306" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI306" t="n">
-        <v>2.4</v>
-      </c>
       <c r="AJ306" t="n">
-        <v>2.55</v>
+        <v>2.28</v>
       </c>
       <c r="AK306" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AL306" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AM306" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="AN306" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AO306" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AP306" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="AQ306" t="n">
-        <v>1.33</v>
+        <v>2.62</v>
       </c>
       <c r="AR306" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.21</v>
+        <v>2.64</v>
       </c>
       <c r="AT306" t="n">
-        <v>0.54</v>
+        <v>1.85</v>
       </c>
       <c r="AU306" t="n">
-        <v>1.13</v>
+        <v>1.69</v>
       </c>
       <c r="AV306" t="n">
-        <v>1.04</v>
+        <v>1.38</v>
       </c>
       <c r="AW306" t="n">
-        <v>2.17</v>
+        <v>3.07</v>
       </c>
       <c r="AX306" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AY306" t="n">
         <v>8</v>
       </c>
       <c r="AZ306" t="n">
-        <v>2.67</v>
+        <v>2.52</v>
       </c>
       <c r="BA306" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="BB306" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="BC306" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BD306" t="n">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="BE306" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BF306" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BG306" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH306" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BI306" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BJ306" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BK306" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307">
@@ -62674,7 +62674,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>2580991</v>
+        <v>2580988</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -62694,35 +62694,35 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Hartlepool United</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J307" t="n">
         <v>0</v>
       </c>
       <c r="K307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M307" t="n">
         <v>0</v>
       </c>
       <c r="N307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>['6', '11', '90+1']</t>
+          <t>['54', '64']</t>
         </is>
       </c>
       <c r="P307" t="inlineStr">
@@ -62731,49 +62731,49 @@
         </is>
       </c>
       <c r="Q307" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R307" t="n">
         <v>4</v>
       </c>
       <c r="S307" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T307" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="U307" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V307" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="W307" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="X307" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="Y307" t="n">
-        <v>3.32</v>
+        <v>3</v>
       </c>
       <c r="Z307" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AA307" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AB307" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AC307" t="n">
-        <v>2.24</v>
+        <v>2.72</v>
       </c>
       <c r="AD307" t="n">
-        <v>3.36</v>
+        <v>3.4</v>
       </c>
       <c r="AE307" t="n">
-        <v>3.46</v>
+        <v>2.68</v>
       </c>
       <c r="AF307" t="n">
         <v>1.07</v>
@@ -62782,91 +62782,91 @@
         <v>7</v>
       </c>
       <c r="AH307" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AI307" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AJ307" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="AK307" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AL307" t="n">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="AM307" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="AN307" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AO307" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AP307" t="n">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="AQ307" t="n">
-        <v>2.62</v>
+        <v>0.92</v>
       </c>
       <c r="AR307" t="n">
-        <v>2</v>
+        <v>0.92</v>
       </c>
       <c r="AS307" t="n">
-        <v>2.64</v>
+        <v>1.08</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU307" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="AV307" t="n">
-        <v>1.38</v>
+        <v>0.98</v>
       </c>
       <c r="AW307" t="n">
-        <v>3.07</v>
+        <v>2.38</v>
       </c>
       <c r="AX307" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AY307" t="n">
         <v>8</v>
       </c>
       <c r="AZ307" t="n">
-        <v>2.52</v>
+        <v>2.39</v>
       </c>
       <c r="BA307" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="BB307" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="BC307" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BD307" t="n">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="BE307" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF307" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG307" t="n">
         <v>4</v>
       </c>
-      <c r="BF307" t="n">
+      <c r="BH307" t="n">
         <v>9</v>
       </c>
-      <c r="BG307" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH307" t="n">
-        <v>12</v>
-      </c>
       <c r="BI307" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BJ307" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BK307" t="n">
         <v>11</v>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -53742,7 +53742,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>2580945</v>
+        <v>2580943</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -53762,182 +53762,182 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Doncaster Rovers</t>
+          <t>Sutton United</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Gillingham</t>
         </is>
       </c>
       <c r="I263" t="n">
+        <v>1</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="n">
+        <v>2</v>
+      </c>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="n">
         <v>3</v>
       </c>
-      <c r="J263" t="n">
-        <v>2</v>
-      </c>
-      <c r="K263" t="n">
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['43', '90+3']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
         <v>5</v>
       </c>
-      <c r="L263" t="n">
-        <v>4</v>
-      </c>
-      <c r="M263" t="n">
-        <v>3</v>
-      </c>
-      <c r="N263" t="n">
-        <v>7</v>
-      </c>
-      <c r="O263" t="inlineStr">
-        <is>
-          <t>['7', '9', '37', '81']</t>
-        </is>
-      </c>
-      <c r="P263" t="inlineStr">
-        <is>
-          <t>['14', '16', '77']</t>
-        </is>
-      </c>
-      <c r="Q263" t="n">
+      <c r="R263" t="n">
+        <v>1</v>
+      </c>
+      <c r="S263" t="n">
         <v>6</v>
       </c>
-      <c r="R263" t="n">
-        <v>3</v>
-      </c>
-      <c r="S263" t="n">
-        <v>9</v>
-      </c>
       <c r="T263" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="U263" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V263" t="n">
+        <v>5</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X263" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL263" t="n">
         <v>2.1</v>
       </c>
-      <c r="V263" t="n">
-        <v>4</v>
-      </c>
-      <c r="W263" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X263" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y263" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Z263" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA263" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB263" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC263" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AD263" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE263" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AF263" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG263" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH263" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI263" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ263" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AK263" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AL263" t="n">
-        <v>1.83</v>
-      </c>
       <c r="AM263" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AN263" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AO263" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AP263" t="n">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="AQ263" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="AR263" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT263" t="n">
-        <v>0.86</v>
+        <v>0.54</v>
       </c>
       <c r="AU263" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AV263" t="n">
-        <v>0.99</v>
+        <v>1.05</v>
       </c>
       <c r="AW263" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="AX263" t="n">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="AY263" t="n">
         <v>8</v>
       </c>
       <c r="AZ263" t="n">
-        <v>2.39</v>
+        <v>2.77</v>
       </c>
       <c r="BA263" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="BB263" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BC263" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BD263" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="BE263" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="BF263" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG263" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH263" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BI263" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BJ263" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BK263" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264">
@@ -53945,7 +53945,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>2580944</v>
+        <v>2580939</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -53965,182 +53965,182 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>Hartlepool United</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K264" t="n">
         <v>1</v>
       </c>
       <c r="L264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M264" t="n">
         <v>2</v>
       </c>
       <c r="N264" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['19']</t>
         </is>
       </c>
       <c r="P264" t="inlineStr">
         <is>
-          <t>['33', '65']</t>
+          <t>['47', '60']</t>
         </is>
       </c>
       <c r="Q264" t="n">
+        <v>3</v>
+      </c>
+      <c r="R264" t="n">
+        <v>6</v>
+      </c>
+      <c r="S264" t="n">
+        <v>9</v>
+      </c>
+      <c r="T264" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U264" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V264" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X264" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA264" t="n">
         <v>7</v>
       </c>
-      <c r="R264" t="n">
-        <v>5</v>
-      </c>
-      <c r="S264" t="n">
-        <v>12</v>
-      </c>
-      <c r="T264" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U264" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V264" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W264" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X264" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y264" t="n">
+      <c r="AB264" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AD264" t="n">
         <v>3.4</v>
       </c>
-      <c r="Z264" t="n">
+      <c r="AE264" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH264" t="n">
         <v>1.3</v>
       </c>
-      <c r="AA264" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB264" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC264" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AD264" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AE264" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AF264" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG264" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH264" t="n">
-        <v>1.33</v>
-      </c>
       <c r="AI264" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AJ264" t="n">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="AK264" t="n">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="AL264" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AM264" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AN264" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AO264" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AP264" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AQ264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR264" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.92</v>
+        <v>1.08</v>
       </c>
       <c r="AT264" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU264" t="n">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="AV264" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="AW264" t="n">
-        <v>2.92</v>
+        <v>2.81</v>
       </c>
       <c r="AX264" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="AY264" t="n">
         <v>8</v>
       </c>
       <c r="AZ264" t="n">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="BA264" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="BB264" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BC264" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="BD264" t="n">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="BE264" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="BF264" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG264" t="n">
         <v>7</v>
       </c>
       <c r="BH264" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BI264" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="BJ264" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BK264" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265">
@@ -54148,7 +54148,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>2580943</v>
+        <v>2580938</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -54168,59 +54168,59 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>Sutton United</t>
+          <t>Grimsby Town</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Gillingham</t>
+          <t>Salford City</t>
         </is>
       </c>
       <c r="I265" t="n">
         <v>1</v>
       </c>
       <c r="J265" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K265" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M265" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N265" t="n">
+        <v>5</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>['1', '30', '34', '40']</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>7</v>
+      </c>
+      <c r="R265" t="n">
+        <v>1</v>
+      </c>
+      <c r="S265" t="n">
+        <v>8</v>
+      </c>
+      <c r="T265" t="n">
         <v>3</v>
-      </c>
-      <c r="O265" t="inlineStr">
-        <is>
-          <t>['43', '90+3']</t>
-        </is>
-      </c>
-      <c r="P265" t="inlineStr">
-        <is>
-          <t>['78']</t>
-        </is>
-      </c>
-      <c r="Q265" t="n">
-        <v>5</v>
-      </c>
-      <c r="R265" t="n">
-        <v>1</v>
-      </c>
-      <c r="S265" t="n">
-        <v>6</v>
-      </c>
-      <c r="T265" t="n">
-        <v>2.6</v>
       </c>
       <c r="U265" t="n">
         <v>2.05</v>
       </c>
       <c r="V265" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W265" t="n">
         <v>1.5</v>
@@ -54241,67 +54241,67 @@
         <v>1.06</v>
       </c>
       <c r="AC265" t="n">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="AD265" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AE265" t="n">
-        <v>4.25</v>
+        <v>3.55</v>
       </c>
       <c r="AF265" t="n">
         <v>1.08</v>
       </c>
       <c r="AG265" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH265" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AI265" t="n">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="AJ265" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AK265" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AL265" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AM265" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AN265" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AO265" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AP265" t="n">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="AQ265" t="n">
-        <v>1.82</v>
+        <v>1.1</v>
       </c>
       <c r="AR265" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="AS265" t="n">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AT265" t="n">
-        <v>0.54</v>
+        <v>1.77</v>
       </c>
       <c r="AU265" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="AV265" t="n">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="AW265" t="n">
-        <v>2.57</v>
+        <v>3.05</v>
       </c>
       <c r="AX265" t="n">
         <v>1.64</v>
@@ -54310,40 +54310,40 @@
         <v>8</v>
       </c>
       <c r="AZ265" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="BA265" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="BB265" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BC265" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="BD265" t="n">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="BE265" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="BF265" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BG265" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH265" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI265" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ265" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BK265" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266">
@@ -54351,7 +54351,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>2580941</v>
+        <v>2580936</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -54371,22 +54371,22 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Northampton Town</t>
+          <t>Colchester United</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Swindon Town</t>
+          <t>AFC Wimbledon</t>
         </is>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
       <c r="J266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>1</v>
@@ -54399,31 +54399,31 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>['90']</t>
+          <t>['51']</t>
         </is>
       </c>
       <c r="P266" t="inlineStr">
         <is>
-          <t>['26', '56']</t>
+          <t>['67', '89']</t>
         </is>
       </c>
       <c r="Q266" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="R266" t="n">
         <v>3</v>
       </c>
       <c r="S266" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="T266" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="U266" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V266" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="W266" t="n">
         <v>1.44</v>
@@ -54438,19 +54438,19 @@
         <v>1.33</v>
       </c>
       <c r="AA266" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB266" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC266" t="n">
-        <v>2.05</v>
+        <v>2.44</v>
       </c>
       <c r="AD266" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AE266" t="n">
-        <v>3.5</v>
+        <v>2.78</v>
       </c>
       <c r="AF266" t="n">
         <v>1.07</v>
@@ -54459,16 +54459,16 @@
         <v>9</v>
       </c>
       <c r="AH266" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AI266" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AJ266" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AK266" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="AL266" t="n">
         <v>1.83</v>
@@ -54477,76 +54477,76 @@
         <v>1.83</v>
       </c>
       <c r="AN266" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AO266" t="n">
         <v>1.28</v>
       </c>
       <c r="AP266" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="AQ266" t="n">
-        <v>1.91</v>
+        <v>1.3</v>
       </c>
       <c r="AR266" t="n">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.85</v>
+        <v>1.21</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="AU266" t="n">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AV266" t="n">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="AW266" t="n">
-        <v>2.95</v>
+        <v>2.26</v>
       </c>
       <c r="AX266" t="n">
-        <v>2</v>
+        <v>1.51</v>
       </c>
       <c r="AY266" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ266" t="n">
-        <v>2.1</v>
+        <v>3.07</v>
       </c>
       <c r="BA266" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="BB266" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BC266" t="n">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="BD266" t="n">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="BE266" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="BF266" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BG266" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH266" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI266" t="n">
         <v>9</v>
       </c>
-      <c r="BI266" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ266" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BK266" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267">
@@ -54554,7 +54554,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>2580939</v>
+        <v>2580935</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -54574,12 +54574,12 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Hartlepool United</t>
+          <t>Bradford City</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="I267" t="n">
@@ -54595,19 +54595,19 @@
         <v>1</v>
       </c>
       <c r="M267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N267" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>['19']</t>
+          <t>['1']</t>
         </is>
       </c>
       <c r="P267" t="inlineStr">
         <is>
-          <t>['47', '60']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q267" t="n">
@@ -54620,40 +54620,40 @@
         <v>9</v>
       </c>
       <c r="T267" t="n">
-        <v>4.33</v>
+        <v>2.3</v>
       </c>
       <c r="U267" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V267" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="W267" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X267" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z267" t="n">
         <v>1.36</v>
       </c>
-      <c r="X267" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y267" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Z267" t="n">
-        <v>1.44</v>
-      </c>
       <c r="AA267" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB267" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AC267" t="n">
-        <v>4.15</v>
+        <v>1.65</v>
       </c>
       <c r="AD267" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AE267" t="n">
-        <v>1.8</v>
+        <v>4.85</v>
       </c>
       <c r="AF267" t="n">
         <v>1.05</v>
@@ -54662,94 +54662,94 @@
         <v>11</v>
       </c>
       <c r="AH267" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AI267" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AJ267" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AK267" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AL267" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AM267" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AN267" t="n">
-        <v>1.95</v>
+        <v>1.17</v>
       </c>
       <c r="AO267" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP267" t="n">
-        <v>1.22</v>
+        <v>2.2</v>
       </c>
       <c r="AQ267" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR267" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX267" t="n">
         <v>1.45</v>
       </c>
-      <c r="AS267" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AT267" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AU267" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AV267" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AW267" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AX267" t="n">
+      <c r="AY267" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE267" t="n">
         <v>2.8</v>
       </c>
-      <c r="AY267" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ267" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="BA267" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB267" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC267" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="BD267" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BE267" t="n">
-        <v>3.35</v>
-      </c>
       <c r="BF267" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG267" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BH267" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BI267" t="n">
         <v>7</v>
       </c>
       <c r="BJ267" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BK267" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
@@ -54757,7 +54757,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>2580938</v>
+        <v>2580934</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -54777,53 +54777,53 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Grimsby Town</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Salford City</t>
+          <t>Tranmere Rovers</t>
         </is>
       </c>
       <c r="I268" t="n">
         <v>1</v>
       </c>
       <c r="J268" t="n">
+        <v>1</v>
+      </c>
+      <c r="K268" t="n">
+        <v>2</v>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="n">
+        <v>2</v>
+      </c>
+      <c r="N268" t="n">
+        <v>3</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>['6', '82']</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>5</v>
+      </c>
+      <c r="R268" t="n">
         <v>4</v>
       </c>
-      <c r="K268" t="n">
-        <v>5</v>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="n">
-        <v>4</v>
-      </c>
-      <c r="N268" t="n">
-        <v>5</v>
-      </c>
-      <c r="O268" t="inlineStr">
-        <is>
-          <t>['21']</t>
-        </is>
-      </c>
-      <c r="P268" t="inlineStr">
-        <is>
-          <t>['1', '30', '34', '40']</t>
-        </is>
-      </c>
-      <c r="Q268" t="n">
-        <v>7</v>
-      </c>
-      <c r="R268" t="n">
-        <v>1</v>
-      </c>
       <c r="S268" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T268" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="U268" t="n">
         <v>2.05</v>
@@ -54832,16 +54832,16 @@
         <v>4</v>
       </c>
       <c r="W268" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X268" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y268" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z268" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA268" t="n">
         <v>10</v>
@@ -54850,31 +54850,31 @@
         <v>1.06</v>
       </c>
       <c r="AC268" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="AD268" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AE268" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="AF268" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG268" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH268" t="n">
         <v>1.36</v>
       </c>
       <c r="AI268" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AJ268" t="n">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AK268" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AL268" t="n">
         <v>1.83</v>
@@ -54883,58 +54883,58 @@
         <v>1.83</v>
       </c>
       <c r="AN268" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AO268" t="n">
         <v>1.3</v>
       </c>
       <c r="AP268" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AQ268" t="n">
-        <v>1.1</v>
+        <v>2.18</v>
       </c>
       <c r="AR268" t="n">
-        <v>1.9</v>
+        <v>1.18</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.17</v>
+        <v>1.92</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.77</v>
+        <v>1.23</v>
       </c>
       <c r="AU268" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AV268" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB268" t="n">
         <v>1.4</v>
       </c>
-      <c r="AW268" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AX268" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AY268" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ268" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="BA268" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB268" t="n">
-        <v>1.48</v>
-      </c>
       <c r="BC268" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="BD268" t="n">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="BE268" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="BF268" t="n">
         <v>5</v>
@@ -54943,16 +54943,16 @@
         <v>6</v>
       </c>
       <c r="BH268" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK268" t="n">
         <v>12</v>
-      </c>
-      <c r="BI268" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ268" t="n">
-        <v>17</v>
-      </c>
-      <c r="BK268" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="269">
@@ -54960,7 +54960,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>2580936</v>
+        <v>2580944</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -54980,71 +54980,71 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>Colchester United</t>
+          <t>Walsall</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
       <c r="J269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M269" t="n">
         <v>2</v>
       </c>
       <c r="N269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>['51']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>['67', '89']</t>
+          <t>['33', '65']</t>
         </is>
       </c>
       <c r="Q269" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R269" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S269" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T269" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U269" t="n">
         <v>2.05</v>
       </c>
       <c r="V269" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="W269" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X269" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y269" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Z269" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA269" t="n">
         <v>10</v>
@@ -55053,31 +55053,31 @@
         <v>1.06</v>
       </c>
       <c r="AC269" t="n">
-        <v>2.44</v>
+        <v>3.05</v>
       </c>
       <c r="AD269" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AE269" t="n">
-        <v>2.78</v>
+        <v>2.23</v>
       </c>
       <c r="AF269" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AG269" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH269" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AI269" t="n">
         <v>3</v>
       </c>
       <c r="AJ269" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="AK269" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AL269" t="n">
         <v>1.83</v>
@@ -55086,76 +55086,76 @@
         <v>1.83</v>
       </c>
       <c r="AN269" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AO269" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AP269" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="AQ269" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR269" t="n">
         <v>1.3</v>
       </c>
-      <c r="AR269" t="n">
-        <v>1.18</v>
-      </c>
       <c r="AS269" t="n">
-        <v>1.21</v>
+        <v>1.92</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU269" t="n">
-        <v>1.15</v>
+        <v>1.59</v>
       </c>
       <c r="AV269" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="AW269" t="n">
-        <v>2.26</v>
+        <v>2.92</v>
       </c>
       <c r="AX269" t="n">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="AY269" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ269" t="n">
-        <v>3.07</v>
+        <v>1.91</v>
       </c>
       <c r="BA269" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="BB269" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="BC269" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="BD269" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="BE269" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BF269" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG269" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH269" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BI269" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BJ269" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BK269" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="270">
@@ -55163,7 +55163,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>2580935</v>
+        <v>2580945</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -55183,182 +55183,182 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Bradford City</t>
+          <t>Doncaster Rovers</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I270" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K270" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L270" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M270" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N270" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>['1']</t>
+          <t>['7', '9', '37', '81']</t>
         </is>
       </c>
       <c r="P270" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['14', '16', '77']</t>
         </is>
       </c>
       <c r="Q270" t="n">
+        <v>6</v>
+      </c>
+      <c r="R270" t="n">
         <v>3</v>
-      </c>
-      <c r="R270" t="n">
-        <v>6</v>
       </c>
       <c r="S270" t="n">
         <v>9</v>
       </c>
       <c r="T270" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="U270" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V270" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="W270" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X270" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y270" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI270" t="n">
         <v>3</v>
       </c>
-      <c r="Z270" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA270" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB270" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC270" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AD270" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE270" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AF270" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG270" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH270" t="n">
+      <c r="AJ270" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN270" t="n">
         <v>1.33</v>
       </c>
-      <c r="AI270" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AJ270" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AK270" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AL270" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM270" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN270" t="n">
-        <v>1.17</v>
-      </c>
       <c r="AO270" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AP270" t="n">
-        <v>2.2</v>
+        <v>1.72</v>
       </c>
       <c r="AQ270" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AR270" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AU270" t="n">
         <v>1.43</v>
       </c>
       <c r="AV270" t="n">
-        <v>1.09</v>
+        <v>0.99</v>
       </c>
       <c r="AW270" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="AX270" t="n">
-        <v>1.45</v>
+        <v>1.82</v>
       </c>
       <c r="AY270" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ270" t="n">
-        <v>3.26</v>
+        <v>2.39</v>
       </c>
       <c r="BA270" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="BB270" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="BC270" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="BD270" t="n">
-        <v>2.1</v>
+        <v>2.43</v>
       </c>
       <c r="BE270" t="n">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="BF270" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI270" t="n">
         <v>3</v>
       </c>
-      <c r="BG270" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH270" t="n">
-        <v>12</v>
-      </c>
-      <c r="BI270" t="n">
-        <v>7</v>
-      </c>
       <c r="BJ270" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BK270" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="271">
@@ -55366,7 +55366,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>2580934</v>
+        <v>2580941</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -55386,22 +55386,22 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Northampton Town</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Tranmere Rovers</t>
+          <t>Swindon Town</t>
         </is>
       </c>
       <c r="I271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J271" t="n">
         <v>1</v>
       </c>
       <c r="K271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L271" t="n">
         <v>1</v>
@@ -55414,28 +55414,28 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>['90']</t>
         </is>
       </c>
       <c r="P271" t="inlineStr">
         <is>
-          <t>['6', '82']</t>
+          <t>['26', '56']</t>
         </is>
       </c>
       <c r="Q271" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="R271" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S271" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="T271" t="n">
         <v>2.88</v>
       </c>
       <c r="U271" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V271" t="n">
         <v>4</v>
@@ -55453,19 +55453,19 @@
         <v>1.33</v>
       </c>
       <c r="AA271" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB271" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC271" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="AD271" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="AE271" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AF271" t="n">
         <v>1.07</v>
@@ -55477,13 +55477,13 @@
         <v>1.36</v>
       </c>
       <c r="AI271" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AJ271" t="n">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="AK271" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="AL271" t="n">
         <v>1.83</v>
@@ -55495,73 +55495,73 @@
         <v>1.3</v>
       </c>
       <c r="AO271" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AP271" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="AQ271" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="AR271" t="n">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="AU271" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV271" t="n">
         <v>1.5</v>
       </c>
-      <c r="AV271" t="n">
-        <v>1.24</v>
-      </c>
       <c r="AW271" t="n">
-        <v>2.74</v>
+        <v>2.95</v>
       </c>
       <c r="AX271" t="n">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="AY271" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ271" t="n">
-        <v>2.78</v>
+        <v>2.1</v>
       </c>
       <c r="BA271" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="BB271" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="BC271" t="n">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="BD271" t="n">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="BE271" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="BF271" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI271" t="n">
         <v>5</v>
       </c>
-      <c r="BG271" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH271" t="n">
-        <v>13</v>
-      </c>
-      <c r="BI271" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ271" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BK271" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272">
@@ -55569,7 +55569,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>2580942</v>
+        <v>2580940</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -55589,182 +55589,182 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Crawley Town</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J272" t="n">
         <v>0</v>
       </c>
       <c r="K272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
         <v>3</v>
       </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="n">
-        <v>4</v>
-      </c>
-      <c r="O272" t="inlineStr">
-        <is>
-          <t>['10', '40', '83']</t>
-        </is>
-      </c>
-      <c r="P272" t="inlineStr">
-        <is>
-          <t>['89']</t>
-        </is>
-      </c>
-      <c r="Q272" t="n">
-        <v>7</v>
-      </c>
       <c r="R272" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S272" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T272" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="U272" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="V272" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="W272" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X272" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD272" t="n">
         <v>3</v>
       </c>
-      <c r="Y272" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z272" t="n">
+      <c r="AE272" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH272" t="n">
         <v>1.4</v>
       </c>
-      <c r="AA272" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB272" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC272" t="n">
+      <c r="AI272" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN272" t="n">
         <v>1.5</v>
       </c>
-      <c r="AD272" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AE272" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF272" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG272" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH272" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI272" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ272" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AK272" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AL272" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM272" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN272" t="n">
-        <v>1.14</v>
-      </c>
       <c r="AO272" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AP272" t="n">
-        <v>2.35</v>
+        <v>1.4</v>
       </c>
       <c r="AQ272" t="n">
-        <v>2.55</v>
+        <v>0.91</v>
       </c>
       <c r="AR272" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="AS272" t="n">
-        <v>2.64</v>
+        <v>0.92</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.5</v>
+        <v>1.85</v>
       </c>
       <c r="AU272" t="n">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="AV272" t="n">
-        <v>1.13</v>
+        <v>1.47</v>
       </c>
       <c r="AW272" t="n">
         <v>2.77</v>
       </c>
       <c r="AX272" t="n">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="AY272" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AZ272" t="n">
-        <v>4.42</v>
+        <v>2</v>
       </c>
       <c r="BA272" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="BB272" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="BC272" t="n">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="BD272" t="n">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="BE272" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="BF272" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BG272" t="n">
         <v>3</v>
       </c>
       <c r="BH272" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="BI272" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ272" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="BK272" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273">
@@ -55772,7 +55772,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>2580940</v>
+        <v>2580942</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -55792,182 +55792,182 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Crawley Town</t>
         </is>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J273" t="n">
         <v>0</v>
       </c>
       <c r="K273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L273" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N273" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['10', '40', '83']</t>
         </is>
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['89']</t>
         </is>
       </c>
       <c r="Q273" t="n">
+        <v>7</v>
+      </c>
+      <c r="R273" t="n">
+        <v>5</v>
+      </c>
+      <c r="S273" t="n">
+        <v>12</v>
+      </c>
+      <c r="T273" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U273" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V273" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W273" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X273" t="n">
         <v>3</v>
       </c>
-      <c r="R273" t="n">
+      <c r="Y273" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE273" t="n">
         <v>6</v>
       </c>
-      <c r="S273" t="n">
-        <v>9</v>
-      </c>
-      <c r="T273" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U273" t="n">
-        <v>2</v>
-      </c>
-      <c r="V273" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="W273" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X273" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y273" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z273" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA273" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB273" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC273" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AD273" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE273" t="n">
-        <v>2.4</v>
-      </c>
       <c r="AF273" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AG273" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AH273" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AI273" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="AJ273" t="n">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="AK273" t="n">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="AL273" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AM273" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AN273" t="n">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AO273" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AP273" t="n">
-        <v>1.4</v>
+        <v>2.35</v>
       </c>
       <c r="AQ273" t="n">
-        <v>0.91</v>
+        <v>2.55</v>
       </c>
       <c r="AR273" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="AS273" t="n">
-        <v>0.92</v>
+        <v>2.64</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.85</v>
+        <v>0.5</v>
       </c>
       <c r="AU273" t="n">
-        <v>1.3</v>
+        <v>1.64</v>
       </c>
       <c r="AV273" t="n">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="AW273" t="n">
         <v>2.77</v>
       </c>
       <c r="AX273" t="n">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="AY273" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AZ273" t="n">
-        <v>2</v>
+        <v>4.42</v>
       </c>
       <c r="BA273" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="BB273" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="BC273" t="n">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="BD273" t="n">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="BE273" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="BF273" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BG273" t="n">
         <v>3</v>
       </c>
       <c r="BH273" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="BI273" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ273" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="BK273" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274">
@@ -55975,7 +55975,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>2580948</v>
+        <v>2580949</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -55995,12 +55995,12 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Colchester United</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Swindon Town</t>
+          <t>Tranmere Rovers</t>
         </is>
       </c>
       <c r="I274" t="n">
@@ -56023,7 +56023,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>['30']</t>
+          <t>['34']</t>
         </is>
       </c>
       <c r="P274" t="inlineStr">
@@ -56032,34 +56032,34 @@
         </is>
       </c>
       <c r="Q274" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R274" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="S274" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T274" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="U274" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V274" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="W274" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X274" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y274" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Z274" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA274" t="n">
         <v>10</v>
@@ -56068,109 +56068,109 @@
         <v>1.06</v>
       </c>
       <c r="AC274" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AD274" t="n">
         <v>3.1</v>
       </c>
       <c r="AE274" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="AF274" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AG274" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH274" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AI274" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="AJ274" t="n">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="AK274" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AL274" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AM274" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AN274" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="AO274" t="n">
         <v>1.28</v>
       </c>
       <c r="AP274" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AQ274" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="AR274" t="n">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.21</v>
+        <v>1.46</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="AU274" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AV274" t="n">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="AW274" t="n">
-        <v>2.59</v>
+        <v>2.46</v>
       </c>
       <c r="AX274" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AY274" t="n">
         <v>5.5</v>
       </c>
       <c r="AZ274" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="BA274" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="BB274" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="BC274" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="BD274" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="BE274" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG274" t="n">
         <v>3</v>
       </c>
-      <c r="BF274" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG274" t="n">
-        <v>5</v>
-      </c>
       <c r="BH274" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BI274" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BJ274" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK274" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="275">
@@ -56178,7 +56178,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>2580949</v>
+        <v>2580950</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -56198,12 +56198,12 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Doncaster Rovers</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Tranmere Rovers</t>
+          <t>Carlisle United</t>
         </is>
       </c>
       <c r="I275" t="n">
@@ -56216,131 +56216,131 @@
         <v>1</v>
       </c>
       <c r="L275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N275" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>['34']</t>
+          <t>['5', '67']</t>
         </is>
       </c>
       <c r="P275" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['87']</t>
         </is>
       </c>
       <c r="Q275" t="n">
         <v>5</v>
       </c>
       <c r="R275" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S275" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="T275" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V275" t="n">
         <v>3.5</v>
       </c>
-      <c r="U275" t="n">
-        <v>2</v>
-      </c>
-      <c r="V275" t="n">
-        <v>3.4</v>
-      </c>
       <c r="W275" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X275" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC275" t="n">
         <v>2.5</v>
       </c>
-      <c r="Y275" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z275" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA275" t="n">
+      <c r="AD275" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG275" t="n">
         <v>10</v>
       </c>
-      <c r="AB275" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC275" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AD275" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE275" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AF275" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG275" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AH275" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN275" t="n">
         <v>1.44</v>
-      </c>
-      <c r="AI275" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AJ275" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AK275" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AL275" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM275" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN275" t="n">
-        <v>1.52</v>
       </c>
       <c r="AO275" t="n">
         <v>1.28</v>
       </c>
       <c r="AP275" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AQ275" t="n">
-        <v>1.36</v>
+        <v>1.73</v>
       </c>
       <c r="AR275" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV275" t="n">
         <v>1.33</v>
       </c>
-      <c r="AS275" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AT275" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AU275" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AV275" t="n">
-        <v>1.26</v>
-      </c>
       <c r="AW275" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="AX275" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AY275" t="n">
         <v>5.5</v>
       </c>
       <c r="AZ275" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="BA275" t="n">
         <v>1.24</v>
@@ -56349,7 +56349,7 @@
         <v>1.45</v>
       </c>
       <c r="BC275" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="BD275" t="n">
         <v>2.35</v>
@@ -56364,16 +56364,16 @@
         <v>3</v>
       </c>
       <c r="BH275" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BI275" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ275" t="n">
         <v>17</v>
       </c>
-      <c r="BJ275" t="n">
-        <v>12</v>
-      </c>
       <c r="BK275" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276">
@@ -56381,7 +56381,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>2580950</v>
+        <v>2580951</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -56401,59 +56401,59 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Doncaster Rovers</t>
+          <t>Grimsby Town</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Carlisle United</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="I276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" t="n">
         <v>0</v>
       </c>
       <c r="K276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>['5', '67']</t>
+          <t>['51']</t>
         </is>
       </c>
       <c r="P276" t="inlineStr">
         <is>
-          <t>['87']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q276" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R276" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S276" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T276" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U276" t="n">
         <v>2.05</v>
       </c>
       <c r="V276" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="W276" t="n">
         <v>1.44</v>
@@ -56468,37 +56468,37 @@
         <v>1.33</v>
       </c>
       <c r="AA276" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB276" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF276" t="n">
         <v>1.07</v>
       </c>
-      <c r="AC276" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AD276" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE276" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AF276" t="n">
-        <v>1.06</v>
-      </c>
       <c r="AG276" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH276" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AI276" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AJ276" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="AK276" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="AL276" t="n">
         <v>1.83</v>
@@ -56507,58 +56507,58 @@
         <v>1.83</v>
       </c>
       <c r="AN276" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AO276" t="n">
         <v>1.28</v>
       </c>
       <c r="AP276" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="AQ276" t="n">
-        <v>1.73</v>
+        <v>1</v>
       </c>
       <c r="AR276" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AU276" t="n">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="AV276" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AW276" t="n">
-        <v>2.74</v>
+        <v>3.08</v>
       </c>
       <c r="AX276" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="AY276" t="n">
         <v>5.5</v>
       </c>
       <c r="AZ276" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="BA276" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="BB276" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="BC276" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="BD276" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="BE276" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="BF276" t="n">
         <v>5</v>
@@ -56567,16 +56567,16 @@
         <v>3</v>
       </c>
       <c r="BH276" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BI276" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BJ276" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BK276" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277">
@@ -56584,7 +56584,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>2580951</v>
+        <v>2580952</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -56604,179 +56604,179 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Grimsby Town</t>
+          <t>Hartlepool United</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L277" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M277" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N277" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>['51']</t>
+          <t>['45', '46', '63']</t>
         </is>
       </c>
       <c r="P277" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['4', '49', '73']</t>
         </is>
       </c>
       <c r="Q277" t="n">
         <v>2</v>
       </c>
       <c r="R277" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S277" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T277" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="U277" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="V277" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="W277" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X277" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y277" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD277" t="n">
         <v>3.25</v>
       </c>
-      <c r="Z277" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA277" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB277" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC277" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AD277" t="n">
-        <v>3.1</v>
-      </c>
       <c r="AE277" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="AF277" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AG277" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH277" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AI277" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AJ277" t="n">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="AK277" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="AL277" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AM277" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AN277" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AO277" t="n">
         <v>1.28</v>
       </c>
       <c r="AP277" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AQ277" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR277" t="n">
-        <v>1.45</v>
+        <v>0.64</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AU277" t="n">
-        <v>1.66</v>
+        <v>1.31</v>
       </c>
       <c r="AV277" t="n">
-        <v>1.42</v>
+        <v>1.06</v>
       </c>
       <c r="AW277" t="n">
-        <v>3.08</v>
+        <v>2.37</v>
       </c>
       <c r="AX277" t="n">
-        <v>2.3</v>
+        <v>1.68</v>
       </c>
       <c r="AY277" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="AZ277" t="n">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="BA277" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="BB277" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="BC277" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="BD277" t="n">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="BE277" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="BF277" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG277" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH277" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BI277" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BJ277" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BK277" t="n">
         <v>13</v>
@@ -56787,7 +56787,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>2580952</v>
+        <v>2580956</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -56807,12 +56807,12 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Hartlepool United</t>
+          <t>Sutton United</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>AFC Wimbledon</t>
         </is>
       </c>
       <c r="I278" t="n">
@@ -56825,164 +56825,164 @@
         <v>2</v>
       </c>
       <c r="L278" t="n">
+        <v>2</v>
+      </c>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="n">
         <v>3</v>
       </c>
-      <c r="M278" t="n">
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['13', '69']</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>2</v>
+      </c>
+      <c r="R278" t="n">
+        <v>2</v>
+      </c>
+      <c r="S278" t="n">
+        <v>4</v>
+      </c>
+      <c r="T278" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V278" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X278" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI278" t="n">
         <v>3</v>
       </c>
-      <c r="N278" t="n">
+      <c r="AJ278" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY278" t="n">
         <v>6</v>
       </c>
-      <c r="O278" t="inlineStr">
-        <is>
-          <t>['45', '46', '63']</t>
-        </is>
-      </c>
-      <c r="P278" t="inlineStr">
-        <is>
-          <t>['4', '49', '73']</t>
-        </is>
-      </c>
-      <c r="Q278" t="n">
-        <v>2</v>
-      </c>
-      <c r="R278" t="n">
+      <c r="AZ278" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI278" t="n">
         <v>4</v>
       </c>
-      <c r="S278" t="n">
+      <c r="BJ278" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK278" t="n">
         <v>6</v>
-      </c>
-      <c r="T278" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U278" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V278" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W278" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X278" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y278" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z278" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA278" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB278" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC278" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AD278" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE278" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AF278" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG278" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH278" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI278" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ278" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AK278" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL278" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AM278" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AN278" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AO278" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP278" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ278" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AR278" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AS278" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AT278" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU278" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AV278" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AW278" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AX278" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AY278" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AZ278" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="BA278" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB278" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC278" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BD278" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BE278" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BF278" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG278" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH278" t="n">
-        <v>13</v>
-      </c>
-      <c r="BI278" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ278" t="n">
-        <v>21</v>
-      </c>
-      <c r="BK278" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="279">
@@ -56990,7 +56990,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>2580956</v>
+        <v>2580957</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -57010,22 +57010,22 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>Sutton United</t>
+          <t>Walsall</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="I279" t="n">
         <v>1</v>
       </c>
       <c r="J279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L279" t="n">
         <v>2</v>
@@ -57038,31 +57038,31 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>['13', '69']</t>
+          <t>['43', '47']</t>
         </is>
       </c>
       <c r="P279" t="inlineStr">
         <is>
-          <t>['40']</t>
+          <t>['82']</t>
         </is>
       </c>
       <c r="Q279" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R279" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S279" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T279" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="U279" t="n">
         <v>2.05</v>
       </c>
       <c r="V279" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="W279" t="n">
         <v>1.44</v>
@@ -57083,13 +57083,13 @@
         <v>1.06</v>
       </c>
       <c r="AC279" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AD279" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="AE279" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="AF279" t="n">
         <v>1.06</v>
@@ -57110,82 +57110,82 @@
         <v>1.68</v>
       </c>
       <c r="AL279" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AM279" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AN279" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO279" t="n">
         <v>1.28</v>
       </c>
-      <c r="AO279" t="n">
-        <v>1.25</v>
-      </c>
       <c r="AP279" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AQ279" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS279" t="n">
         <v>1.92</v>
       </c>
-      <c r="AR279" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS279" t="n">
-        <v>2</v>
-      </c>
       <c r="AT279" t="n">
-        <v>1.21</v>
+        <v>1.46</v>
       </c>
       <c r="AU279" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AV279" t="n">
-        <v>1.12</v>
+        <v>1.48</v>
       </c>
       <c r="AW279" t="n">
-        <v>2.7</v>
+        <v>3.08</v>
       </c>
       <c r="AX279" t="n">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="AY279" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AZ279" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="BA279" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="BB279" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="BC279" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BD279" t="n">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BE279" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="BF279" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BG279" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH279" t="n">
         <v>8</v>
       </c>
       <c r="BI279" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="BJ279" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BK279" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280">
@@ -57193,7 +57193,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>2580957</v>
+        <v>2580948</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -57213,12 +57213,12 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>Colchester United</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Swindon Town</t>
         </is>
       </c>
       <c r="I280" t="n">
@@ -57231,41 +57231,41 @@
         <v>1</v>
       </c>
       <c r="L280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N280" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>['43', '47']</t>
+          <t>['30']</t>
         </is>
       </c>
       <c r="P280" t="inlineStr">
         <is>
-          <t>['82']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q280" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R280" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S280" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T280" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="U280" t="n">
         <v>2.05</v>
       </c>
       <c r="V280" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="W280" t="n">
         <v>1.44</v>
@@ -57286,31 +57286,31 @@
         <v>1.06</v>
       </c>
       <c r="AC280" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AD280" t="n">
         <v>3.1</v>
       </c>
       <c r="AE280" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="AF280" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AG280" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH280" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AI280" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AJ280" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="AK280" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AL280" t="n">
         <v>1.83</v>
@@ -57319,76 +57319,76 @@
         <v>1.83</v>
       </c>
       <c r="AN280" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AO280" t="n">
         <v>1.28</v>
       </c>
       <c r="AP280" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ280" t="n">
-        <v>1.82</v>
+        <v>1.18</v>
       </c>
       <c r="AR280" t="n">
         <v>1.58</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.92</v>
+        <v>1.21</v>
       </c>
       <c r="AT280" t="n">
         <v>1.46</v>
       </c>
       <c r="AU280" t="n">
-        <v>1.6</v>
+        <v>1.13</v>
       </c>
       <c r="AV280" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AW280" t="n">
-        <v>3.08</v>
+        <v>2.59</v>
       </c>
       <c r="AX280" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AY280" t="n">
         <v>5.5</v>
       </c>
       <c r="AZ280" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="BA280" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="BB280" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BC280" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="BD280" t="n">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="BE280" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="BF280" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BG280" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH280" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI280" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="BJ280" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK280" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281">
@@ -57599,7 +57599,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>2580953</v>
+        <v>2580946</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -57619,59 +57619,59 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Crawley Town</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
       <c r="J282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N282" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>['83', '90+2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P282" t="inlineStr">
         <is>
-          <t>['36', '67']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q282" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S282" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T282" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U282" t="n">
         <v>2.1</v>
       </c>
       <c r="V282" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="W282" t="n">
         <v>1.44</v>
@@ -57680,10 +57680,10 @@
         <v>2.63</v>
       </c>
       <c r="Y282" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Z282" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA282" t="n">
         <v>9</v>
@@ -57692,31 +57692,31 @@
         <v>1.07</v>
       </c>
       <c r="AC282" t="n">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="AD282" t="n">
-        <v>3.87</v>
+        <v>3.44</v>
       </c>
       <c r="AE282" t="n">
-        <v>4.97</v>
+        <v>4.23</v>
       </c>
       <c r="AF282" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AG282" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH282" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AI282" t="n">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="AJ282" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="AK282" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AL282" t="n">
         <v>1.83</v>
@@ -57725,76 +57725,76 @@
         <v>1.83</v>
       </c>
       <c r="AN282" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA282" t="n">
         <v>1.18</v>
       </c>
-      <c r="AO282" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP282" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AQ282" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AR282" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AS282" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AT282" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AU282" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AV282" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW282" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AX282" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AY282" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AZ282" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="BA282" t="n">
-        <v>1.29</v>
-      </c>
       <c r="BB282" t="n">
-        <v>1.55</v>
+        <v>1.39</v>
       </c>
       <c r="BC282" t="n">
-        <v>1.9</v>
+        <v>1.74</v>
       </c>
       <c r="BD282" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="BE282" t="n">
-        <v>3.42</v>
+        <v>2.84</v>
       </c>
       <c r="BF282" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BG282" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BH282" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BI282" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BJ282" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BK282" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283">
@@ -57802,7 +57802,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>2580954</v>
+        <v>2580953</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -57822,182 +57822,182 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Northampton Town</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Crawley Town</t>
         </is>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
       <c r="J283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N283" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>['51']</t>
+          <t>['83', '90+2']</t>
         </is>
       </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['36', '67']</t>
         </is>
       </c>
       <c r="Q283" t="n">
         <v>6</v>
       </c>
       <c r="R283" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S283" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T283" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="U283" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V283" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="W283" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X283" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y283" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Z283" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AA283" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF283" t="n">
         <v>10</v>
       </c>
-      <c r="AB283" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC283" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AD283" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AE283" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AF283" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG283" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AH283" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AI283" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AJ283" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AK283" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AL283" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM283" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN283" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AO283" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AP283" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AQ283" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AR283" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AS283" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AT283" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AU283" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AV283" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AW283" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AX283" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AY283" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="AZ283" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="BA283" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BB283" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BC283" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BD283" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BE283" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="BF283" t="n">
-        <v>6</v>
-      </c>
       <c r="BG283" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH283" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BI283" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BJ283" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="BK283" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284">
@@ -58005,7 +58005,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>2580955</v>
+        <v>2580954</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -58025,22 +58025,22 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Northampton Town</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Gillingham</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J284" t="n">
         <v>0</v>
       </c>
       <c r="K284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L284" t="n">
         <v>1</v>
@@ -58053,7 +58053,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>['23']</t>
+          <t>['51']</t>
         </is>
       </c>
       <c r="P284" t="inlineStr">
@@ -58062,49 +58062,49 @@
         </is>
       </c>
       <c r="Q284" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R284" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S284" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T284" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="U284" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V284" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="W284" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X284" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y284" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Z284" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA284" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB284" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC284" t="n">
-        <v>1.48</v>
+        <v>2.67</v>
       </c>
       <c r="AD284" t="n">
-        <v>4.34</v>
+        <v>3.14</v>
       </c>
       <c r="AE284" t="n">
-        <v>7.63</v>
+        <v>2.95</v>
       </c>
       <c r="AF284" t="n">
         <v>1.06</v>
@@ -58113,91 +58113,91 @@
         <v>8.75</v>
       </c>
       <c r="AH284" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="AI284" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="AJ284" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AK284" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB284" t="n">
         <v>1.67</v>
       </c>
-      <c r="AL284" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM284" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN284" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AO284" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP284" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AQ284" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AR284" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AS284" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AT284" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AU284" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AV284" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AW284" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AX284" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AY284" t="n">
+      <c r="BC284" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH284" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ284" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ284" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="BA284" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BB284" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BC284" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BD284" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BE284" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="BF284" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG284" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH284" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI284" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ284" t="n">
-        <v>12</v>
       </c>
       <c r="BK284" t="n">
         <v>7</v>
@@ -58208,7 +58208,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>2580946</v>
+        <v>2580955</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -58228,59 +58228,59 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Gillingham</t>
         </is>
       </c>
       <c r="I285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J285" t="n">
         <v>0</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M285" t="n">
         <v>0</v>
       </c>
       <c r="N285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P285" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R285" t="n">
         <v>2</v>
       </c>
       <c r="S285" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T285" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="U285" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V285" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="W285" t="n">
         <v>1.44</v>
@@ -58301,109 +58301,109 @@
         <v>1.07</v>
       </c>
       <c r="AC285" t="n">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="AD285" t="n">
-        <v>3.44</v>
+        <v>4.34</v>
       </c>
       <c r="AE285" t="n">
-        <v>4.23</v>
+        <v>7.63</v>
       </c>
       <c r="AF285" t="n">
         <v>1.06</v>
       </c>
       <c r="AG285" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AH285" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="AI285" t="n">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
       <c r="AJ285" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AK285" t="n">
         <v>1.67</v>
       </c>
       <c r="AL285" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="AM285" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AN285" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="AO285" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX285" t="n">
         <v>1.33</v>
       </c>
-      <c r="AP285" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AQ285" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR285" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AS285" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AT285" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AU285" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AV285" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW285" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AX285" t="n">
-        <v>1.32</v>
-      </c>
       <c r="AY285" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AZ285" t="n">
-        <v>3.8</v>
+        <v>4.45</v>
       </c>
       <c r="BA285" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="BB285" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="BC285" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="BD285" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="BE285" t="n">
-        <v>2.84</v>
+        <v>3.42</v>
       </c>
       <c r="BF285" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG285" t="n">
         <v>0</v>
       </c>
       <c r="BH285" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BI285" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BJ285" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BK285" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286">
@@ -58614,7 +58614,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>2580962</v>
+        <v>2580964</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -58634,59 +58634,59 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Colchester United</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K287" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M287" t="n">
         <v>3</v>
       </c>
       <c r="N287" t="n">
+        <v>5</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>['9', '25']</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>['45+1', '49', '77']</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
         <v>4</v>
       </c>
-      <c r="O287" t="inlineStr">
-        <is>
-          <t>['77']</t>
-        </is>
-      </c>
-      <c r="P287" t="inlineStr">
-        <is>
-          <t>['12', '17', '54']</t>
-        </is>
-      </c>
-      <c r="Q287" t="n">
-        <v>9</v>
-      </c>
       <c r="R287" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S287" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T287" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="U287" t="n">
         <v>2.1</v>
       </c>
       <c r="V287" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="W287" t="n">
         <v>1.44</v>
@@ -58701,115 +58701,115 @@
         <v>1.33</v>
       </c>
       <c r="AA287" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK287" t="n">
         <v>9</v>
-      </c>
-      <c r="AB287" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC287" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AD287" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE287" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AF287" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG287" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH287" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI287" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ287" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AK287" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AL287" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM287" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN287" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AO287" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AP287" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AQ287" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AR287" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AS287" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AT287" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AU287" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AV287" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AW287" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AX287" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AY287" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ287" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BA287" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="BB287" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="BC287" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BD287" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="BE287" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BF287" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG287" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH287" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI287" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ287" t="n">
-        <v>18</v>
-      </c>
-      <c r="BK287" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="288">
@@ -59020,7 +59020,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>2580964</v>
+        <v>2580962</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -59040,59 +59040,59 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Colchester United</t>
         </is>
       </c>
       <c r="I289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M289" t="n">
         <v>3</v>
       </c>
       <c r="N289" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>['9', '25']</t>
+          <t>['77']</t>
         </is>
       </c>
       <c r="P289" t="inlineStr">
         <is>
-          <t>['45+1', '49', '77']</t>
+          <t>['12', '17', '54']</t>
         </is>
       </c>
       <c r="Q289" t="n">
+        <v>9</v>
+      </c>
+      <c r="R289" t="n">
         <v>4</v>
       </c>
-      <c r="R289" t="n">
-        <v>3</v>
-      </c>
       <c r="S289" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T289" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="U289" t="n">
         <v>2.1</v>
       </c>
       <c r="V289" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="W289" t="n">
         <v>1.44</v>
@@ -59107,115 +59107,115 @@
         <v>1.33</v>
       </c>
       <c r="AA289" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ289" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA289" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD289" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE289" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF289" t="n">
         <v>10</v>
       </c>
-      <c r="AB289" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC289" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AD289" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE289" t="n">
+      <c r="BG289" t="n">
         <v>4</v>
       </c>
-      <c r="AF289" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG289" t="n">
+      <c r="BH289" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI289" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ289" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK289" t="n">
         <v>7</v>
-      </c>
-      <c r="AH289" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI289" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AJ289" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AK289" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AL289" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM289" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN289" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AO289" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP289" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AQ289" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AR289" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS289" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AT289" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AU289" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AV289" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AW289" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AX289" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AY289" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ289" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="BA289" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB289" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC289" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BD289" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BE289" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BF289" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG289" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH289" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI289" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ289" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK289" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="290">
@@ -59223,7 +59223,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>2580965</v>
+        <v>2580969</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -59243,71 +59243,71 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Tranmere Rovers</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Newport County</t>
+          <t>Sutton United</t>
         </is>
       </c>
       <c r="I290" t="n">
         <v>1</v>
       </c>
       <c r="J290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N290" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>['34']</t>
+          <t>['39', '58']</t>
         </is>
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>['46']</t>
+          <t>['11', '61']</t>
         </is>
       </c>
       <c r="Q290" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R290" t="n">
+        <v>2</v>
+      </c>
+      <c r="S290" t="n">
+        <v>8</v>
+      </c>
+      <c r="T290" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U290" t="n">
+        <v>2</v>
+      </c>
+      <c r="V290" t="n">
         <v>4</v>
       </c>
-      <c r="S290" t="n">
-        <v>7</v>
-      </c>
-      <c r="T290" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U290" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V290" t="n">
-        <v>3.1</v>
-      </c>
       <c r="W290" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X290" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y290" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Z290" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA290" t="n">
         <v>10</v>
@@ -59316,109 +59316,109 @@
         <v>1.06</v>
       </c>
       <c r="AC290" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI290" t="n">
         <v>2.63</v>
       </c>
-      <c r="AD290" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE290" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AF290" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG290" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH290" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI290" t="n">
-        <v>2.8</v>
-      </c>
       <c r="AJ290" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="AK290" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AL290" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AM290" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AN290" t="n">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AO290" t="n">
         <v>1.36</v>
       </c>
       <c r="AP290" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB290" t="n">
         <v>1.4</v>
       </c>
-      <c r="AQ290" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AR290" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AS290" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AT290" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AU290" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AV290" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AW290" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AX290" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AY290" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ290" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="BA290" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BB290" t="n">
-        <v>1.57</v>
-      </c>
       <c r="BC290" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="BD290" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="BE290" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="BF290" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BG290" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BH290" t="n">
         <v>5</v>
       </c>
       <c r="BI290" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK290" t="n">
         <v>6</v>
-      </c>
-      <c r="BJ290" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK290" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="291">
@@ -59426,7 +59426,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>2580969</v>
+        <v>2581164</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -59442,75 +59442,75 @@
         <v>44933.5</v>
       </c>
       <c r="F291" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Tranmere Rovers</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Sutton United</t>
+          <t>AFC Wimbledon</t>
         </is>
       </c>
       <c r="I291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N291" t="n">
+        <v>0</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
         <v>4</v>
       </c>
-      <c r="O291" t="inlineStr">
-        <is>
-          <t>['39', '58']</t>
-        </is>
-      </c>
-      <c r="P291" t="inlineStr">
-        <is>
-          <t>['11', '61']</t>
-        </is>
-      </c>
-      <c r="Q291" t="n">
-        <v>6</v>
-      </c>
       <c r="R291" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S291" t="n">
         <v>8</v>
       </c>
       <c r="T291" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="U291" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V291" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="W291" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X291" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y291" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Z291" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA291" t="n">
         <v>10</v>
@@ -59519,67 +59519,67 @@
         <v>1.06</v>
       </c>
       <c r="AC291" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="AD291" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="AE291" t="n">
-        <v>3.5</v>
+        <v>2.93</v>
       </c>
       <c r="AF291" t="n">
         <v>1.08</v>
       </c>
       <c r="AG291" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH291" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AI291" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AJ291" t="n">
-        <v>2.3</v>
+        <v>2.11</v>
       </c>
       <c r="AK291" t="n">
         <v>1.62</v>
       </c>
       <c r="AL291" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AM291" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AN291" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO291" t="n">
         <v>1.33</v>
       </c>
-      <c r="AO291" t="n">
-        <v>1.36</v>
-      </c>
       <c r="AP291" t="n">
-        <v>1.73</v>
+        <v>1.44</v>
       </c>
       <c r="AQ291" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR291" t="n">
-        <v>0.75</v>
+        <v>1.23</v>
       </c>
       <c r="AS291" t="n">
         <v>1.46</v>
       </c>
       <c r="AT291" t="n">
-        <v>0.71</v>
+        <v>1.21</v>
       </c>
       <c r="AU291" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="AV291" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="AW291" t="n">
-        <v>2.61</v>
+        <v>2.31</v>
       </c>
       <c r="AX291" t="n">
         <v>1.82</v>
@@ -59591,37 +59591,37 @@
         <v>2.33</v>
       </c>
       <c r="BA291" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="BB291" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="BC291" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="BD291" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="BE291" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BF291" t="n">
         <v>3</v>
       </c>
       <c r="BG291" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH291" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI291" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BJ291" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK291" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292">
@@ -59629,7 +59629,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>2581164</v>
+        <v>2580965</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -59645,63 +59645,63 @@
         <v>44933.5</v>
       </c>
       <c r="F292" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Newport County</t>
         </is>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J292" t="n">
         <v>0</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['34']</t>
         </is>
       </c>
       <c r="P292" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['46']</t>
         </is>
       </c>
       <c r="Q292" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R292" t="n">
         <v>4</v>
       </c>
       <c r="S292" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T292" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="U292" t="n">
         <v>2.05</v>
       </c>
       <c r="V292" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="W292" t="n">
         <v>1.44</v>
@@ -59722,31 +59722,31 @@
         <v>1.06</v>
       </c>
       <c r="AC292" t="n">
-        <v>2.33</v>
+        <v>2.63</v>
       </c>
       <c r="AD292" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AE292" t="n">
-        <v>2.93</v>
+        <v>2.63</v>
       </c>
       <c r="AF292" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AG292" t="n">
         <v>7</v>
       </c>
       <c r="AH292" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AI292" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AJ292" t="n">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="AK292" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AL292" t="n">
         <v>1.83</v>
@@ -59755,76 +59755,76 @@
         <v>1.83</v>
       </c>
       <c r="AN292" t="n">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AO292" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AP292" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AQ292" t="n">
-        <v>1.5</v>
+        <v>0.64</v>
       </c>
       <c r="AR292" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.46</v>
+        <v>0.62</v>
       </c>
       <c r="AT292" t="n">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="AU292" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AV292" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AW292" t="n">
-        <v>2.31</v>
+        <v>2.43</v>
       </c>
       <c r="AX292" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="AY292" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ292" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="BA292" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="BB292" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="BC292" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="BD292" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="BE292" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="BF292" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG292" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH292" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BI292" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BJ292" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK292" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293">
@@ -60035,7 +60035,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>2580976</v>
+        <v>2580975</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -60055,182 +60055,182 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="I294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294" t="n">
         <v>0</v>
       </c>
       <c r="K294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>['42']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P294" t="inlineStr">
         <is>
-          <t>['55']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q294" t="n">
+        <v>3</v>
+      </c>
+      <c r="R294" t="n">
+        <v>7</v>
+      </c>
+      <c r="S294" t="n">
+        <v>10</v>
+      </c>
+      <c r="T294" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2</v>
+      </c>
+      <c r="V294" t="n">
+        <v>5</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X294" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH294" t="n">
         <v>9</v>
       </c>
-      <c r="R294" t="n">
-        <v>6</v>
-      </c>
-      <c r="S294" t="n">
-        <v>15</v>
-      </c>
-      <c r="T294" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U294" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V294" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="W294" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X294" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Y294" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Z294" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AA294" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="AB294" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC294" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AD294" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AE294" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AF294" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG294" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH294" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI294" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ294" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AK294" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AL294" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM294" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AN294" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AO294" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP294" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AQ294" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AR294" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS294" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AT294" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU294" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AV294" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AW294" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AX294" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AY294" t="n">
+      <c r="BI294" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK294" t="n">
         <v>11</v>
-      </c>
-      <c r="AZ294" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="BA294" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="BB294" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BC294" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BD294" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="BE294" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="BF294" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG294" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH294" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI294" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ294" t="n">
-        <v>16</v>
-      </c>
-      <c r="BK294" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="295">
@@ -60644,7 +60644,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>2580973</v>
+        <v>2580974</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -60664,182 +60664,182 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Gillingham</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Hartlepool United</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="I297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297" t="n">
         <v>0</v>
       </c>
       <c r="K297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N297" t="n">
         <v>2</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>['40', '59']</t>
+          <t>['77']</t>
         </is>
       </c>
       <c r="P297" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['60']</t>
         </is>
       </c>
       <c r="Q297" t="n">
         <v>2</v>
       </c>
       <c r="R297" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S297" t="n">
+        <v>10</v>
+      </c>
+      <c r="T297" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V297" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X297" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG297" t="n">
         <v>5</v>
       </c>
-      <c r="T297" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U297" t="n">
-        <v>2</v>
-      </c>
-      <c r="V297" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W297" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X297" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Y297" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Z297" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA297" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="AB297" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC297" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AD297" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE297" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AF297" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG297" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH297" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI297" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AJ297" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AK297" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AL297" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM297" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AN297" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AO297" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP297" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AQ297" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AR297" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AS297" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AT297" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AU297" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AV297" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AW297" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AX297" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AY297" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ297" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="BA297" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="BB297" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BC297" t="n">
-        <v>2</v>
-      </c>
-      <c r="BD297" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BE297" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="BF297" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG297" t="n">
-        <v>4</v>
-      </c>
       <c r="BH297" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI297" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BJ297" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BK297" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="298">
@@ -60847,7 +60847,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>2580975</v>
+        <v>2580973</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -60867,59 +60867,59 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Gillingham</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Hartlepool United</t>
         </is>
       </c>
       <c r="I298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J298" t="n">
         <v>0</v>
       </c>
       <c r="K298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M298" t="n">
         <v>0</v>
       </c>
       <c r="N298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
+          <t>['40', '59']</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P298" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q298" t="n">
+        <v>2</v>
+      </c>
+      <c r="R298" t="n">
         <v>3</v>
       </c>
-      <c r="R298" t="n">
-        <v>7</v>
-      </c>
       <c r="S298" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T298" t="n">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="U298" t="n">
         <v>2</v>
       </c>
       <c r="V298" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="W298" t="n">
         <v>1.5</v>
@@ -60940,76 +60940,76 @@
         <v>1.03</v>
       </c>
       <c r="AC298" t="n">
-        <v>1.79</v>
+        <v>2.24</v>
       </c>
       <c r="AD298" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AE298" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="AF298" t="n">
         <v>1.09</v>
       </c>
       <c r="AG298" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY298" t="n">
         <v>7.5</v>
       </c>
-      <c r="AH298" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AI298" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AJ298" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AK298" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AL298" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM298" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN298" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO298" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP298" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AQ298" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AR298" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AS298" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="AT298" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AU298" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AV298" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AW298" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AX298" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AY298" t="n">
-        <v>8</v>
-      </c>
       <c r="AZ298" t="n">
-        <v>2.65</v>
+        <v>2.34</v>
       </c>
       <c r="BA298" t="n">
         <v>1.3</v>
@@ -61027,22 +61027,22 @@
         <v>3.75</v>
       </c>
       <c r="BF298" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG298" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI298" t="n">
         <v>3</v>
       </c>
-      <c r="BH298" t="n">
-        <v>9</v>
-      </c>
-      <c r="BI298" t="n">
-        <v>8</v>
-      </c>
       <c r="BJ298" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BK298" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299">
@@ -61050,7 +61050,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>2580974</v>
+        <v>2580981</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -61070,12 +61070,12 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Tranmere Rovers</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Walsall</t>
         </is>
       </c>
       <c r="I299" t="n">
@@ -61098,154 +61098,154 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>['77']</t>
+          <t>['78']</t>
         </is>
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>['60']</t>
+          <t>['72']</t>
         </is>
       </c>
       <c r="Q299" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R299" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S299" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T299" t="n">
-        <v>4.5</v>
+        <v>3.17</v>
       </c>
       <c r="U299" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="V299" t="n">
-        <v>2.6</v>
+        <v>3.84</v>
       </c>
       <c r="W299" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="X299" t="n">
-        <v>2.65</v>
+        <v>2.46</v>
       </c>
       <c r="Y299" t="n">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="Z299" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AA299" t="n">
-        <v>7.85</v>
+        <v>9.4</v>
       </c>
       <c r="AB299" t="n">
         <v>1.05</v>
       </c>
       <c r="AC299" t="n">
-        <v>3.85</v>
+        <v>2.15</v>
       </c>
       <c r="AD299" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AE299" t="n">
-        <v>1.87</v>
+        <v>3.2</v>
       </c>
       <c r="AF299" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AG299" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AH299" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AI299" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="AJ299" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ299" t="n">
         <v>2.05</v>
       </c>
-      <c r="AK299" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AL299" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AM299" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AN299" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AO299" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP299" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AQ299" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AR299" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AS299" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AT299" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AU299" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AV299" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AW299" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AX299" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AY299" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ299" t="n">
-        <v>1.59</v>
-      </c>
       <c r="BA299" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="BB299" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="BC299" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="BD299" t="n">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BE299" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="BF299" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG299" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH299" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BI299" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BJ299" t="n">
         <v>12</v>
       </c>
       <c r="BK299" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300">
@@ -62065,7 +62065,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>2580981</v>
+        <v>2580976</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -62085,22 +62085,22 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Tranmere Rovers</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J304" t="n">
         <v>0</v>
       </c>
       <c r="K304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L304" t="n">
         <v>1</v>
@@ -62113,121 +62113,121 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>['78']</t>
+          <t>['42']</t>
         </is>
       </c>
       <c r="P304" t="inlineStr">
         <is>
-          <t>['72']</t>
+          <t>['55']</t>
         </is>
       </c>
       <c r="Q304" t="n">
+        <v>9</v>
+      </c>
+      <c r="R304" t="n">
         <v>6</v>
       </c>
-      <c r="R304" t="n">
-        <v>3</v>
-      </c>
       <c r="S304" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="T304" t="n">
-        <v>3.17</v>
+        <v>2.05</v>
       </c>
       <c r="U304" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="V304" t="n">
-        <v>3.84</v>
+        <v>6.5</v>
       </c>
       <c r="W304" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="X304" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y304" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z304" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA304" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB304" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC304" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD304" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE304" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF304" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG304" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH304" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ304" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK304" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL304" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM304" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN304" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO304" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP304" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AQ304" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR304" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS304" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT304" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU304" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV304" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW304" t="n">
         <v>2.46</v>
       </c>
-      <c r="Y304" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z304" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA304" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AB304" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC304" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AD304" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE304" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AF304" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG304" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH304" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AI304" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AJ304" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AK304" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AL304" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM304" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AN304" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AO304" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AP304" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AQ304" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR304" t="n">
+      <c r="AX304" t="n">
         <v>1.18</v>
       </c>
-      <c r="AS304" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AT304" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AU304" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AV304" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AW304" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AX304" t="n">
-        <v>2</v>
-      </c>
       <c r="AY304" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ304" t="n">
-        <v>2.05</v>
+        <v>6.15</v>
       </c>
       <c r="BA304" t="n">
         <v>1.26</v>
@@ -62236,7 +62236,7 @@
         <v>1.48</v>
       </c>
       <c r="BC304" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="BD304" t="n">
         <v>2.43</v>
@@ -62245,22 +62245,22 @@
         <v>3.35</v>
       </c>
       <c r="BF304" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG304" t="n">
         <v>4</v>
       </c>
-      <c r="BG304" t="n">
-        <v>2</v>
-      </c>
       <c r="BH304" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BI304" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ304" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BK304" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305">
@@ -62268,7 +62268,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>2580984</v>
+        <v>2580991</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -62288,182 +62288,182 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Colchester United</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Gillingham</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K305" t="n">
         <v>2</v>
       </c>
       <c r="L305" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N305" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
+          <t>['6', '11', '90+1']</t>
+        </is>
+      </c>
+      <c r="P305" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P305" t="inlineStr">
-        <is>
-          <t>['36', '45+3']</t>
-        </is>
-      </c>
       <c r="Q305" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R305" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S305" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T305" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U305" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V305" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W305" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X305" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Y305" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Z305" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA305" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB305" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC305" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD305" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE305" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AF305" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG305" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH305" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI305" t="n">
         <v>2.8</v>
       </c>
-      <c r="U305" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V305" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="W305" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X305" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Y305" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Z305" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AA305" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB305" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC305" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AD305" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AE305" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="AF305" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG305" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AH305" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI305" t="n">
-        <v>2.4</v>
-      </c>
       <c r="AJ305" t="n">
-        <v>2.55</v>
+        <v>2.28</v>
       </c>
       <c r="AK305" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AL305" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AM305" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="AN305" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AO305" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AP305" t="n">
-        <v>1.62</v>
+        <v>1.77</v>
       </c>
       <c r="AQ305" t="n">
-        <v>1.33</v>
+        <v>2.62</v>
       </c>
       <c r="AR305" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AS305" t="n">
-        <v>1.21</v>
+        <v>2.64</v>
       </c>
       <c r="AT305" t="n">
-        <v>0.54</v>
+        <v>1.85</v>
       </c>
       <c r="AU305" t="n">
-        <v>1.13</v>
+        <v>1.69</v>
       </c>
       <c r="AV305" t="n">
-        <v>1.04</v>
+        <v>1.38</v>
       </c>
       <c r="AW305" t="n">
-        <v>2.17</v>
+        <v>3.07</v>
       </c>
       <c r="AX305" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AY305" t="n">
         <v>8</v>
       </c>
       <c r="AZ305" t="n">
-        <v>2.67</v>
+        <v>2.52</v>
       </c>
       <c r="BA305" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="BB305" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="BC305" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BD305" t="n">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="BE305" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="BF305" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BG305" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH305" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BI305" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BJ305" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BK305" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306">
@@ -62471,7 +62471,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>2580991</v>
+        <v>2580988</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -62491,35 +62491,35 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>Hartlepool United</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="I306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J306" t="n">
         <v>0</v>
       </c>
       <c r="K306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M306" t="n">
         <v>0</v>
       </c>
       <c r="N306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>['6', '11', '90+1']</t>
+          <t>['54', '64']</t>
         </is>
       </c>
       <c r="P306" t="inlineStr">
@@ -62528,49 +62528,49 @@
         </is>
       </c>
       <c r="Q306" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R306" t="n">
         <v>4</v>
       </c>
       <c r="S306" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T306" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="U306" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="V306" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="W306" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="X306" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="Y306" t="n">
-        <v>3.32</v>
+        <v>3</v>
       </c>
       <c r="Z306" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AA306" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AB306" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AC306" t="n">
-        <v>2.24</v>
+        <v>2.72</v>
       </c>
       <c r="AD306" t="n">
-        <v>3.36</v>
+        <v>3.4</v>
       </c>
       <c r="AE306" t="n">
-        <v>3.46</v>
+        <v>2.68</v>
       </c>
       <c r="AF306" t="n">
         <v>1.07</v>
@@ -62579,91 +62579,91 @@
         <v>7</v>
       </c>
       <c r="AH306" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AI306" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AJ306" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="AK306" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AL306" t="n">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="AM306" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="AN306" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AO306" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AP306" t="n">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
       <c r="AQ306" t="n">
-        <v>2.62</v>
+        <v>0.92</v>
       </c>
       <c r="AR306" t="n">
-        <v>2</v>
+        <v>0.92</v>
       </c>
       <c r="AS306" t="n">
-        <v>2.64</v>
+        <v>1.08</v>
       </c>
       <c r="AT306" t="n">
-        <v>1.85</v>
+        <v>0.86</v>
       </c>
       <c r="AU306" t="n">
-        <v>1.69</v>
+        <v>1.4</v>
       </c>
       <c r="AV306" t="n">
-        <v>1.38</v>
+        <v>0.98</v>
       </c>
       <c r="AW306" t="n">
-        <v>3.07</v>
+        <v>2.38</v>
       </c>
       <c r="AX306" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AY306" t="n">
         <v>8</v>
       </c>
       <c r="AZ306" t="n">
-        <v>2.52</v>
+        <v>2.39</v>
       </c>
       <c r="BA306" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="BB306" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="BC306" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="BD306" t="n">
-        <v>2.85</v>
+        <v>2.5</v>
       </c>
       <c r="BE306" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF306" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG306" t="n">
         <v>4</v>
       </c>
-      <c r="BF306" t="n">
+      <c r="BH306" t="n">
         <v>9</v>
       </c>
-      <c r="BG306" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH306" t="n">
-        <v>12</v>
-      </c>
       <c r="BI306" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BJ306" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BK306" t="n">
         <v>11</v>
@@ -62674,7 +62674,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>2580988</v>
+        <v>2580984</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -62694,149 +62694,149 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Hartlepool United</t>
+          <t>Colchester United</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Gillingham</t>
         </is>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
       <c r="J307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N307" t="n">
         <v>2</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>['54', '64']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P307" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['36', '45+3']</t>
         </is>
       </c>
       <c r="Q307" t="n">
         <v>8</v>
       </c>
       <c r="R307" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S307" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T307" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="U307" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V307" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="W307" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="X307" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="Y307" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Z307" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ307" t="n">
         <v>1.33</v>
       </c>
-      <c r="AA307" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB307" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC307" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AD307" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AE307" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AF307" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG307" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH307" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AI307" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ307" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AK307" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AL307" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM307" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AN307" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AO307" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP307" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AQ307" t="n">
-        <v>0.92</v>
-      </c>
       <c r="AR307" t="n">
-        <v>0.92</v>
+        <v>0.33</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT307" t="n">
-        <v>0.86</v>
+        <v>0.54</v>
       </c>
       <c r="AU307" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="AV307" t="n">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="AW307" t="n">
-        <v>2.38</v>
+        <v>2.17</v>
       </c>
       <c r="AX307" t="n">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="AY307" t="n">
         <v>8</v>
       </c>
       <c r="AZ307" t="n">
-        <v>2.39</v>
+        <v>2.67</v>
       </c>
       <c r="BA307" t="n">
         <v>1.27</v>
@@ -62854,22 +62854,22 @@
         <v>3.5</v>
       </c>
       <c r="BF307" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BG307" t="n">
         <v>4</v>
       </c>
       <c r="BH307" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BI307" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ307" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK307" t="n">
         <v>7</v>
-      </c>
-      <c r="BJ307" t="n">
-        <v>16</v>
-      </c>
-      <c r="BK307" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="308">
@@ -62877,7 +62877,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>2580967</v>
+        <v>2580959</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -62897,86 +62897,86 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Carlisle United</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Bradford City</t>
+          <t>Hartlepool United</t>
         </is>
       </c>
       <c r="I308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L308" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N308" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6', '26', '66']</t>
         </is>
       </c>
       <c r="P308" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['28']</t>
         </is>
       </c>
       <c r="Q308" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R308" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S308" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T308" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U308" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V308" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W308" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X308" t="n">
         <v>2.6</v>
       </c>
-      <c r="U308" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V308" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W308" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X308" t="n">
-        <v>2.65</v>
-      </c>
       <c r="Y308" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Z308" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AA308" t="n">
-        <v>7.9</v>
+        <v>8.35</v>
       </c>
       <c r="AB308" t="n">
         <v>1.05</v>
       </c>
       <c r="AC308" t="n">
-        <v>1.85</v>
+        <v>1.51</v>
       </c>
       <c r="AD308" t="n">
-        <v>3.12</v>
+        <v>3.55</v>
       </c>
       <c r="AE308" t="n">
-        <v>3.84</v>
+        <v>5.75</v>
       </c>
       <c r="AF308" t="n">
         <v>1.06</v>
@@ -62985,94 +62985,94 @@
         <v>9</v>
       </c>
       <c r="AH308" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AI308" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AJ308" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AK308" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="AL308" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AM308" t="n">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="AN308" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AO308" t="n">
         <v>1.25</v>
       </c>
       <c r="AP308" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="AQ308" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="AR308" t="n">
-        <v>1.67</v>
+        <v>0.62</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AT308" t="n">
-        <v>1.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU308" t="n">
-        <v>1.86</v>
+        <v>1.57</v>
       </c>
       <c r="AV308" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AW308" t="n">
-        <v>3.01</v>
+        <v>2.71</v>
       </c>
       <c r="AX308" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AY308" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="AZ308" t="n">
-        <v>4.54</v>
+        <v>4.78</v>
       </c>
       <c r="BA308" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="BB308" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="BC308" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="BD308" t="n">
-        <v>2.19</v>
+        <v>2.41</v>
       </c>
       <c r="BE308" t="n">
-        <v>2.93</v>
+        <v>3.28</v>
       </c>
       <c r="BF308" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG308" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH308" t="n">
         <v>4</v>
       </c>
-      <c r="BG308" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH308" t="n">
-        <v>8</v>
-      </c>
       <c r="BI308" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ308" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BK308" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309">
@@ -63080,7 +63080,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>2580959</v>
+        <v>2580967</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -63100,86 +63100,86 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>Carlisle United</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Hartlepool United</t>
+          <t>Bradford City</t>
         </is>
       </c>
       <c r="I309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N309" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>['6', '26', '66']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P309" t="inlineStr">
         <is>
-          <t>['28']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q309" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R309" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S309" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T309" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="U309" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="V309" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="W309" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X309" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="Y309" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Z309" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AA309" t="n">
-        <v>8.35</v>
+        <v>7.9</v>
       </c>
       <c r="AB309" t="n">
         <v>1.05</v>
       </c>
       <c r="AC309" t="n">
-        <v>1.51</v>
+        <v>1.85</v>
       </c>
       <c r="AD309" t="n">
-        <v>3.55</v>
+        <v>3.12</v>
       </c>
       <c r="AE309" t="n">
-        <v>5.75</v>
+        <v>3.84</v>
       </c>
       <c r="AF309" t="n">
         <v>1.06</v>
@@ -63188,94 +63188,94 @@
         <v>9</v>
       </c>
       <c r="AH309" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AI309" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AJ309" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="AK309" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AL309" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AM309" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="AN309" t="n">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="AO309" t="n">
         <v>1.25</v>
       </c>
       <c r="AP309" t="n">
-        <v>2.38</v>
+        <v>1.9</v>
       </c>
       <c r="AQ309" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="AR309" t="n">
-        <v>0.62</v>
+        <v>1.67</v>
       </c>
       <c r="AS309" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AT309" t="n">
-        <v>0.57</v>
+        <v>1.62</v>
       </c>
       <c r="AU309" t="n">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="AV309" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AW309" t="n">
-        <v>2.71</v>
+        <v>3.01</v>
       </c>
       <c r="AX309" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AY309" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="AZ309" t="n">
-        <v>4.78</v>
+        <v>4.54</v>
       </c>
       <c r="BA309" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="BB309" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="BC309" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="BD309" t="n">
-        <v>2.41</v>
+        <v>2.19</v>
       </c>
       <c r="BE309" t="n">
-        <v>3.28</v>
+        <v>2.93</v>
       </c>
       <c r="BF309" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BG309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH309" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI309" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BJ309" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BK309" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="310">

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK310"/>
+  <dimension ref="A1:BK319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT4" t="n">
         <v>1.5</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT7" t="n">
         <v>1</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT10" t="n">
         <v>1.46</v>
@@ -2933,7 +2933,7 @@
         <v>1.54</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.85</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>1.21</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>2.64</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT18" t="n">
         <v>1.23</v>
@@ -4354,7 +4354,7 @@
         <v>1.17</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.83</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5166,7 +5166,7 @@
         <v>1.21</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT24" t="n">
         <v>1.62</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU28" t="n">
         <v>1.11</v>
@@ -6587,7 +6587,7 @@
         <v>1.69</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU30" t="n">
         <v>1.58</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT31" t="n">
         <v>1.33</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT34" t="n">
         <v>0.5</v>
@@ -7802,10 +7802,10 @@
         <v>1</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU36" t="n">
         <v>1.21</v>
@@ -8208,10 +8208,10 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU38" t="n">
         <v>0.95</v>
@@ -8617,7 +8617,7 @@
         <v>0.92</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU40" t="n">
         <v>1.11</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT41" t="n">
         <v>1.21</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
         <v>1.23</v>
@@ -9226,7 +9226,7 @@
         <v>1.46</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU43" t="n">
         <v>0.74</v>
@@ -9429,7 +9429,7 @@
         <v>1.83</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU44" t="n">
         <v>0.76</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU45" t="n">
         <v>0.01</v>
@@ -10035,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT47" t="n">
         <v>1.17</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT49" t="n">
         <v>1.62</v>
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU50" t="n">
         <v>1.89</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT51" t="n">
         <v>0.86</v>
@@ -11053,7 +11053,7 @@
         <v>1.17</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU52" t="n">
         <v>2.59</v>
@@ -11662,7 +11662,7 @@
         <v>2.64</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU55" t="n">
         <v>1.83</v>
@@ -11865,7 +11865,7 @@
         <v>1.46</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU56" t="n">
         <v>0.99</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT57" t="n">
         <v>1.21</v>
@@ -12271,7 +12271,7 @@
         <v>1.21</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU58" t="n">
         <v>1.34</v>
@@ -12471,7 +12471,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT59" t="n">
         <v>0.67</v>
@@ -12677,7 +12677,7 @@
         <v>1.83</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU60" t="n">
         <v>1.57</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU62" t="n">
         <v>1.32</v>
@@ -13892,7 +13892,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT66" t="n">
         <v>0.5</v>
@@ -14098,7 +14098,7 @@
         <v>1.85</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU67" t="n">
         <v>1.68</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT69" t="n">
         <v>1.08</v>
@@ -14707,7 +14707,7 @@
         <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU70" t="n">
         <v>2.11</v>
@@ -15110,7 +15110,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT72" t="n">
         <v>1.15</v>
@@ -17749,7 +17749,7 @@
         <v>1.33</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT85" t="n">
         <v>1</v>
@@ -17952,10 +17952,10 @@
         <v>1.33</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU86" t="n">
         <v>1.44</v>
@@ -18158,7 +18158,7 @@
         <v>1.17</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU87" t="n">
         <v>1.86</v>
@@ -18358,10 +18358,10 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU88" t="n">
         <v>0.79</v>
@@ -18561,10 +18561,10 @@
         <v>1.67</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU89" t="n">
         <v>1.57</v>
@@ -18764,10 +18764,10 @@
         <v>1.67</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU90" t="n">
         <v>1.41</v>
@@ -18967,10 +18967,10 @@
         <v>2.33</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU91" t="n">
         <v>1.58</v>
@@ -19373,10 +19373,10 @@
         <v>0.33</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU93" t="n">
         <v>1.35</v>
@@ -19576,10 +19576,10 @@
         <v>0.5</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU94" t="n">
         <v>1.79</v>
@@ -19782,7 +19782,7 @@
         <v>1.92</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU95" t="n">
         <v>1.57</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT96" t="n">
         <v>1.62</v>
@@ -22624,7 +22624,7 @@
         <v>1.85</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU109" t="n">
         <v>1.55</v>
@@ -22824,10 +22824,10 @@
         <v>2.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU110" t="n">
         <v>1.77</v>
@@ -24042,10 +24042,10 @@
         <v>0.25</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU116" t="n">
         <v>1.2</v>
@@ -24248,7 +24248,7 @@
         <v>0.92</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU117" t="n">
         <v>1.32</v>
@@ -24451,7 +24451,7 @@
         <v>2</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU118" t="n">
         <v>1.54</v>
@@ -25060,7 +25060,7 @@
         <v>1.17</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU121" t="n">
         <v>1.53</v>
@@ -25260,7 +25260,7 @@
         <v>0.2</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT122" t="n">
         <v>0.57</v>
@@ -25463,7 +25463,7 @@
         <v>1.5</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT123" t="n">
         <v>1.62</v>
@@ -25666,10 +25666,10 @@
         <v>0.25</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU124" t="n">
         <v>1.31</v>
@@ -25869,10 +25869,10 @@
         <v>2</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU125" t="n">
         <v>1.55</v>
@@ -26478,10 +26478,10 @@
         <v>1.25</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU128" t="n">
         <v>1.42</v>
@@ -26887,7 +26887,7 @@
         <v>1.08</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU130" t="n">
         <v>1.2</v>
@@ -27087,7 +27087,7 @@
         <v>1.4</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT131" t="n">
         <v>1.5</v>
@@ -27493,7 +27493,7 @@
         <v>1.8</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT133" t="n">
         <v>1.15</v>
@@ -27699,7 +27699,7 @@
         <v>2.64</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU134" t="n">
         <v>1.95</v>
@@ -27902,7 +27902,7 @@
         <v>1.92</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU135" t="n">
         <v>1.44</v>
@@ -28102,10 +28102,10 @@
         <v>1.6</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU136" t="n">
         <v>1.16</v>
@@ -28305,7 +28305,7 @@
         <v>1.4</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT137" t="n">
         <v>1.08</v>
@@ -28511,7 +28511,7 @@
         <v>1.83</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU138" t="n">
         <v>1.46</v>
@@ -28711,10 +28711,10 @@
         <v>1.2</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU139" t="n">
         <v>1.32</v>
@@ -29120,7 +29120,7 @@
         <v>1.85</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU141" t="n">
         <v>1.48</v>
@@ -29323,7 +29323,7 @@
         <v>1.46</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU142" t="n">
         <v>1.1</v>
@@ -30538,7 +30538,7 @@
         <v>1.5</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT148" t="n">
         <v>1.46</v>
@@ -30744,7 +30744,7 @@
         <v>1.54</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU149" t="n">
         <v>1.41</v>
@@ -30944,7 +30944,7 @@
         <v>1.2</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT150" t="n">
         <v>1</v>
@@ -31147,7 +31147,7 @@
         <v>0.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT151" t="n">
         <v>0.57</v>
@@ -31350,7 +31350,7 @@
         <v>0.83</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT152" t="n">
         <v>1.17</v>
@@ -31759,7 +31759,7 @@
         <v>2.36</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU154" t="n">
         <v>1.67</v>
@@ -31959,7 +31959,7 @@
         <v>1.5</v>
       </c>
       <c r="AS155" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT155" t="n">
         <v>1.15</v>
@@ -32568,10 +32568,10 @@
         <v>0.2</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU158" t="n">
         <v>1.59</v>
@@ -32771,7 +32771,7 @@
         <v>1.17</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT159" t="n">
         <v>1.08</v>
@@ -32977,7 +32977,7 @@
         <v>2</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU160" t="n">
         <v>1.68</v>
@@ -33177,10 +33177,10 @@
         <v>0.17</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU161" t="n">
         <v>1.33</v>
@@ -33586,7 +33586,7 @@
         <v>2.64</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU163" t="n">
         <v>1.86</v>
@@ -33789,7 +33789,7 @@
         <v>1.46</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU164" t="n">
         <v>1.44</v>
@@ -33989,7 +33989,7 @@
         <v>0.71</v>
       </c>
       <c r="AS165" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT165" t="n">
         <v>1.21</v>
@@ -34195,7 +34195,7 @@
         <v>0.92</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU166" t="n">
         <v>1.32</v>
@@ -34395,7 +34395,7 @@
         <v>1.43</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT167" t="n">
         <v>1.23</v>
@@ -35007,7 +35007,7 @@
         <v>1.46</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU170" t="n">
         <v>1.15</v>
@@ -35207,7 +35207,7 @@
         <v>1.71</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT171" t="n">
         <v>1.46</v>
@@ -35413,7 +35413,7 @@
         <v>2</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU172" t="n">
         <v>1.74</v>
@@ -35613,7 +35613,7 @@
         <v>0.29</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT173" t="n">
         <v>0.57</v>
@@ -36222,7 +36222,7 @@
         <v>1</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT176" t="n">
         <v>0.86</v>
@@ -36428,7 +36428,7 @@
         <v>1.85</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU177" t="n">
         <v>1.5</v>
@@ -36628,7 +36628,7 @@
         <v>1</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT178" t="n">
         <v>1.08</v>
@@ -36834,7 +36834,7 @@
         <v>2.36</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU179" t="n">
         <v>1.7</v>
@@ -37034,10 +37034,10 @@
         <v>2.17</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU180" t="n">
         <v>1.33</v>
@@ -37646,7 +37646,7 @@
         <v>1.69</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU183" t="n">
         <v>1.84</v>
@@ -37846,7 +37846,7 @@
         <v>1</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38049,7 +38049,7 @@
         <v>2.29</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT185" t="n">
         <v>1.33</v>
@@ -38661,7 +38661,7 @@
         <v>1.83</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU188" t="n">
         <v>1.38</v>
@@ -38861,7 +38861,7 @@
         <v>2</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT189" t="n">
         <v>1.33</v>
@@ -39067,7 +39067,7 @@
         <v>2.36</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU190" t="n">
         <v>1.64</v>
@@ -39267,7 +39267,7 @@
         <v>1.25</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT191" t="n">
         <v>1.46</v>
@@ -39473,7 +39473,7 @@
         <v>1.69</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU192" t="n">
         <v>1.85</v>
@@ -39673,10 +39673,10 @@
         <v>1.29</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU193" t="n">
         <v>1.53</v>
@@ -40079,7 +40079,7 @@
         <v>0.5</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT195" t="n">
         <v>0.67</v>
@@ -40282,7 +40282,7 @@
         <v>1</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT196" t="n">
         <v>1</v>
@@ -40688,10 +40688,10 @@
         <v>0.86</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU198" t="n">
         <v>1.5</v>
@@ -40891,10 +40891,10 @@
         <v>0.14</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU199" t="n">
         <v>1.6</v>
@@ -41094,10 +41094,10 @@
         <v>2.43</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU200" t="n">
         <v>1.33</v>
@@ -41297,10 +41297,10 @@
         <v>1.5</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU201" t="n">
         <v>1.54</v>
@@ -41500,7 +41500,7 @@
         <v>1.86</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT202" t="n">
         <v>1.62</v>
@@ -41703,10 +41703,10 @@
         <v>2</v>
       </c>
       <c r="AS203" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU203" t="n">
         <v>1.33</v>
@@ -41909,7 +41909,7 @@
         <v>1.17</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU204" t="n">
         <v>1.64</v>
@@ -42515,7 +42515,7 @@
         <v>1.5</v>
       </c>
       <c r="AS207" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT207" t="n">
         <v>1.46</v>
@@ -42721,7 +42721,7 @@
         <v>0.92</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU208" t="n">
         <v>1.29</v>
@@ -42921,10 +42921,10 @@
         <v>2.13</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU209" t="n">
         <v>1.63</v>
@@ -43127,7 +43127,7 @@
         <v>1.46</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU210" t="n">
         <v>1.26</v>
@@ -43330,7 +43330,7 @@
         <v>1.08</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU211" t="n">
         <v>1.22</v>
@@ -43733,7 +43733,7 @@
         <v>1.25</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT213" t="n">
         <v>1.15</v>
@@ -44139,7 +44139,7 @@
         <v>1.38</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT215" t="n">
         <v>1.23</v>
@@ -44545,7 +44545,7 @@
         <v>0.88</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT217" t="n">
         <v>1</v>
@@ -44951,7 +44951,7 @@
         <v>1</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT219" t="n">
         <v>1.21</v>
@@ -45157,7 +45157,7 @@
         <v>1.69</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU220" t="n">
         <v>1.85</v>
@@ -45360,7 +45360,7 @@
         <v>1.46</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU221" t="n">
         <v>1.45</v>
@@ -45563,7 +45563,7 @@
         <v>0.92</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU222" t="n">
         <v>1.29</v>
@@ -45969,7 +45969,7 @@
         <v>1.21</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU224" t="n">
         <v>1.13</v>
@@ -46172,7 +46172,7 @@
         <v>1.54</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU225" t="n">
         <v>1.44</v>
@@ -46372,7 +46372,7 @@
         <v>0.22</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT226" t="n">
         <v>0.57</v>
@@ -46575,7 +46575,7 @@
         <v>1.67</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT227" t="n">
         <v>1.46</v>
@@ -46778,10 +46778,10 @@
         <v>0.33</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU228" t="n">
         <v>1.08</v>
@@ -47796,7 +47796,7 @@
         <v>1.08</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU233" t="n">
         <v>1.18</v>
@@ -47996,7 +47996,7 @@
         <v>1.78</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT234" t="n">
         <v>1.33</v>
@@ -48202,7 +48202,7 @@
         <v>2</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU235" t="n">
         <v>1.67</v>
@@ -48402,7 +48402,7 @@
         <v>1.44</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT236" t="n">
         <v>1.46</v>
@@ -48605,10 +48605,10 @@
         <v>1.11</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU237" t="n">
         <v>1.39</v>
@@ -48808,10 +48808,10 @@
         <v>0.11</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT238" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU238" t="n">
         <v>1.58</v>
@@ -49214,7 +49214,7 @@
         <v>0.44</v>
       </c>
       <c r="AS240" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT240" t="n">
         <v>0.67</v>
@@ -49417,7 +49417,7 @@
         <v>0.2</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT241" t="n">
         <v>0.57</v>
@@ -49826,7 +49826,7 @@
         <v>2</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU243" t="n">
         <v>1.5</v>
@@ -50229,7 +50229,7 @@
         <v>1.2</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT245" t="n">
         <v>1.21</v>
@@ -50435,7 +50435,7 @@
         <v>0.92</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU246" t="n">
         <v>1.3</v>
@@ -50635,7 +50635,7 @@
         <v>1.3</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT247" t="n">
         <v>1.46</v>
@@ -50841,7 +50841,7 @@
         <v>2.36</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU248" t="n">
         <v>1.66</v>
@@ -51044,7 +51044,7 @@
         <v>1.85</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU249" t="n">
         <v>1.46</v>
@@ -51244,7 +51244,7 @@
         <v>1.6</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT250" t="n">
         <v>1.33</v>
@@ -51450,7 +51450,7 @@
         <v>1.08</v>
       </c>
       <c r="AT251" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU251" t="n">
         <v>1.23</v>
@@ -51650,7 +51650,7 @@
         <v>0.45</v>
       </c>
       <c r="AS252" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT252" t="n">
         <v>0.57</v>
@@ -52259,10 +52259,10 @@
         <v>0.55</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU255" t="n">
         <v>1.11</v>
@@ -52462,7 +52462,7 @@
         <v>1</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT256" t="n">
         <v>1.17</v>
@@ -52868,7 +52868,7 @@
         <v>1.2</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT258" t="n">
         <v>1.08</v>
@@ -53071,10 +53071,10 @@
         <v>2.1</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU259" t="n">
         <v>1.57</v>
@@ -53274,10 +53274,10 @@
         <v>1.36</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU260" t="n">
         <v>1.42</v>
@@ -53683,7 +53683,7 @@
         <v>1.46</v>
       </c>
       <c r="AT262" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU262" t="n">
         <v>1.23</v>
@@ -53886,7 +53886,7 @@
         <v>2</v>
       </c>
       <c r="AT263" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU263" t="n">
         <v>1.52</v>
@@ -54086,7 +54086,7 @@
         <v>1.45</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT264" t="n">
         <v>1.46</v>
@@ -54292,7 +54292,7 @@
         <v>1.17</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU265" t="n">
         <v>1.65</v>
@@ -54898,7 +54898,7 @@
         <v>1.18</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT268" t="n">
         <v>1.23</v>
@@ -55104,7 +55104,7 @@
         <v>1.92</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU269" t="n">
         <v>1.59</v>
@@ -55713,7 +55713,7 @@
         <v>0.92</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU272" t="n">
         <v>1.3</v>
@@ -56322,7 +56322,7 @@
         <v>1.83</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU275" t="n">
         <v>1.41</v>
@@ -56525,7 +56525,7 @@
         <v>1.17</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU276" t="n">
         <v>1.66</v>
@@ -56725,7 +56725,7 @@
         <v>0.64</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT277" t="n">
         <v>0.67</v>
@@ -57540,7 +57540,7 @@
         <v>1.54</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU281" t="n">
         <v>1.45</v>
@@ -57740,7 +57740,7 @@
         <v>0.73</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT282" t="n">
         <v>0.86</v>
@@ -58149,7 +58149,7 @@
         <v>1.85</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU284" t="n">
         <v>1.5</v>
@@ -58352,7 +58352,7 @@
         <v>2.64</v>
       </c>
       <c r="AT285" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU285" t="n">
         <v>1.72</v>
@@ -58555,7 +58555,7 @@
         <v>1.46</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU286" t="n">
         <v>1.47</v>
@@ -58755,7 +58755,7 @@
         <v>1</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT287" t="n">
         <v>1.15</v>
@@ -58961,7 +58961,7 @@
         <v>2.36</v>
       </c>
       <c r="AT288" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU288" t="n">
         <v>1.61</v>
@@ -59161,10 +59161,10 @@
         <v>0.33</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT289" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU289" t="n">
         <v>1.56</v>
@@ -59364,10 +59364,10 @@
         <v>0.75</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT290" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU290" t="n">
         <v>1.42</v>
@@ -59770,7 +59770,7 @@
         <v>1.18</v>
       </c>
       <c r="AS292" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT292" t="n">
         <v>1.08</v>
@@ -60379,7 +60379,7 @@
         <v>1.73</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT295" t="n">
         <v>1.62</v>
@@ -60785,7 +60785,7 @@
         <v>1.55</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT297" t="n">
         <v>1.5</v>
@@ -61191,7 +61191,7 @@
         <v>1.18</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT299" t="n">
         <v>1.17</v>
@@ -61394,7 +61394,7 @@
         <v>1.45</v>
       </c>
       <c r="AS300" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT300" t="n">
         <v>1.33</v>
@@ -61600,7 +61600,7 @@
         <v>1.69</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AU301" t="n">
         <v>1.91</v>
@@ -61803,7 +61803,7 @@
         <v>1.46</v>
       </c>
       <c r="AT302" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU302" t="n">
         <v>1.47</v>
@@ -62003,10 +62003,10 @@
         <v>0.54</v>
       </c>
       <c r="AS303" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AT303" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU303" t="n">
         <v>1.29</v>
@@ -62206,7 +62206,7 @@
         <v>1</v>
       </c>
       <c r="AS304" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT304" t="n">
         <v>1</v>
@@ -62412,7 +62412,7 @@
         <v>2.64</v>
       </c>
       <c r="AT305" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="AU305" t="n">
         <v>1.69</v>
@@ -62612,7 +62612,7 @@
         <v>0.92</v>
       </c>
       <c r="AS306" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AT306" t="n">
         <v>0.86</v>
@@ -62818,7 +62818,7 @@
         <v>1.21</v>
       </c>
       <c r="AT307" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AU307" t="n">
         <v>1.13</v>
@@ -63427,7 +63427,7 @@
         <v>1.21</v>
       </c>
       <c r="AT310" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU310" t="n">
         <v>1.16</v>
@@ -63479,6 +63479,1833 @@
       </c>
       <c r="BK310" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2581004</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F311" t="n">
+        <v>29</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Tranmere Rovers</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Leyton Orient</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>1</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q311" t="n">
+        <v>6</v>
+      </c>
+      <c r="R311" t="n">
+        <v>1</v>
+      </c>
+      <c r="S311" t="n">
+        <v>7</v>
+      </c>
+      <c r="T311" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U311" t="n">
+        <v>2</v>
+      </c>
+      <c r="V311" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W311" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X311" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX311" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY311" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AZ311" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA311" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB311" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC311" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD311" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE311" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF311" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG311" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH311" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI311" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ311" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK311" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2581003</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F312" t="n">
+        <v>29</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Swindon Town</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Gillingham</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>1</v>
+      </c>
+      <c r="J312" t="n">
+        <v>3</v>
+      </c>
+      <c r="K312" t="n">
+        <v>4</v>
+      </c>
+      <c r="L312" t="n">
+        <v>3</v>
+      </c>
+      <c r="M312" t="n">
+        <v>3</v>
+      </c>
+      <c r="N312" t="n">
+        <v>6</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>['1', '57', '78']</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>['3', '9', '13']</t>
+        </is>
+      </c>
+      <c r="Q312" t="n">
+        <v>7</v>
+      </c>
+      <c r="R312" t="n">
+        <v>1</v>
+      </c>
+      <c r="S312" t="n">
+        <v>8</v>
+      </c>
+      <c r="T312" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U312" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V312" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X312" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF312" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG312" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ312" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK312" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2581001</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F313" t="n">
+        <v>29</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Carlisle United</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>0</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1</v>
+      </c>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M313" t="n">
+        <v>1</v>
+      </c>
+      <c r="N313" t="n">
+        <v>1</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q313" t="n">
+        <v>1</v>
+      </c>
+      <c r="R313" t="n">
+        <v>6</v>
+      </c>
+      <c r="S313" t="n">
+        <v>7</v>
+      </c>
+      <c r="T313" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V313" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W313" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X313" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ313" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BA313" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB313" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC313" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD313" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE313" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF313" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG313" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH313" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI313" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ313" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK313" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>2581000</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F314" t="n">
+        <v>29</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>Mansfield Town</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Doncaster Rovers</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>2</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="n">
+        <v>2</v>
+      </c>
+      <c r="L314" t="n">
+        <v>4</v>
+      </c>
+      <c r="M314" t="n">
+        <v>1</v>
+      </c>
+      <c r="N314" t="n">
+        <v>5</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>['1', '26', '60', '86']</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q314" t="n">
+        <v>4</v>
+      </c>
+      <c r="R314" t="n">
+        <v>2</v>
+      </c>
+      <c r="S314" t="n">
+        <v>6</v>
+      </c>
+      <c r="T314" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U314" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V314" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W314" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X314" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM314" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP314" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ314" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR314" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS314" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT314" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU314" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW314" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX314" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY314" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ314" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA314" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB314" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC314" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD314" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE314" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF314" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG314" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH314" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI314" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ314" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK314" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2580999</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F315" t="n">
+        <v>29</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>Hartlepool United</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Colchester United</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>1</v>
+      </c>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="n">
+        <v>2</v>
+      </c>
+      <c r="N315" t="n">
+        <v>3</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>['5', '87']</t>
+        </is>
+      </c>
+      <c r="Q315" t="n">
+        <v>7</v>
+      </c>
+      <c r="R315" t="n">
+        <v>1</v>
+      </c>
+      <c r="S315" t="n">
+        <v>8</v>
+      </c>
+      <c r="T315" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U315" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V315" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W315" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X315" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ315" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA315" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB315" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC315" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD315" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE315" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF315" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG315" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH315" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI315" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ315" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK315" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="n">
+        <v>2580996</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F316" t="n">
+        <v>29</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>Crawley Town</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Salford City</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>2</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="n">
+        <v>2</v>
+      </c>
+      <c r="L316" t="n">
+        <v>3</v>
+      </c>
+      <c r="M316" t="n">
+        <v>2</v>
+      </c>
+      <c r="N316" t="n">
+        <v>5</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>['25', '34', '59']</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>['78', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q316" t="n">
+        <v>3</v>
+      </c>
+      <c r="R316" t="n">
+        <v>6</v>
+      </c>
+      <c r="S316" t="n">
+        <v>9</v>
+      </c>
+      <c r="T316" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U316" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V316" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="W316" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X316" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH316" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI316" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ316" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK316" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL316" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM316" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN316" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO316" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP316" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ316" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR316" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS316" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT316" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU316" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV316" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW316" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX316" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY316" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ316" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA316" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB316" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC316" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD316" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE316" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF316" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG316" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH316" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI316" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ316" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK316" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="n">
+        <v>2580995</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F317" t="n">
+        <v>29</v>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>Barrow</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Northampton Town</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M317" t="n">
+        <v>2</v>
+      </c>
+      <c r="N317" t="n">
+        <v>2</v>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P317" t="inlineStr">
+        <is>
+          <t>['54', '85']</t>
+        </is>
+      </c>
+      <c r="Q317" t="n">
+        <v>3</v>
+      </c>
+      <c r="R317" t="n">
+        <v>3</v>
+      </c>
+      <c r="S317" t="n">
+        <v>6</v>
+      </c>
+      <c r="T317" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U317" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V317" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W317" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X317" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y317" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z317" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA317" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AB317" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC317" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD317" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE317" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF317" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG317" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH317" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI317" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ317" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AK317" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL317" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM317" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN317" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO317" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP317" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ317" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR317" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS317" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT317" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU317" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV317" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW317" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX317" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY317" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ317" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA317" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB317" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC317" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD317" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE317" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF317" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG317" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH317" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI317" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ317" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK317" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="n">
+        <v>2580994</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F318" t="n">
+        <v>29</v>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>AFC Wimbledon</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N318" t="n">
+        <v>1</v>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P318" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q318" t="n">
+        <v>2</v>
+      </c>
+      <c r="R318" t="n">
+        <v>9</v>
+      </c>
+      <c r="S318" t="n">
+        <v>11</v>
+      </c>
+      <c r="T318" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="U318" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V318" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="W318" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X318" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y318" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z318" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA318" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB318" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC318" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AD318" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE318" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AF318" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG318" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH318" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI318" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ318" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK318" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL318" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM318" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN318" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO318" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP318" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ318" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR318" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS318" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT318" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU318" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV318" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW318" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX318" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AY318" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ318" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BA318" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB318" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC318" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD318" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE318" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF318" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG318" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH318" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI318" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ318" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK318" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="n">
+        <v>2580998</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E319" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F319" t="n">
+        <v>29</v>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>Harrogate Town</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Sutton United</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>1</v>
+      </c>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M319" t="n">
+        <v>1</v>
+      </c>
+      <c r="N319" t="n">
+        <v>1</v>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P319" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q319" t="n">
+        <v>7</v>
+      </c>
+      <c r="R319" t="n">
+        <v>7</v>
+      </c>
+      <c r="S319" t="n">
+        <v>14</v>
+      </c>
+      <c r="T319" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U319" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V319" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W319" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X319" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y319" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z319" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA319" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB319" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC319" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AD319" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE319" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AF319" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG319" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH319" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI319" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ319" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK319" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL319" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM319" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN319" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO319" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP319" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ319" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR319" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS319" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT319" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU319" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV319" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW319" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX319" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY319" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ319" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA319" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB319" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC319" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD319" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE319" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF319" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG319" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH319" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI319" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ319" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK319" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK319"/>
+  <dimension ref="A1:BK322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT6" t="n">
         <v>1.46</v>
@@ -2121,7 +2121,7 @@
         <v>1.69</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT11" t="n">
         <v>0.5</v>
@@ -3745,7 +3745,7 @@
         <v>2.64</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0.92</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT22" t="n">
         <v>0.67</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -6384,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU29" t="n">
         <v>1.47</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT32" t="n">
         <v>1.46</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT43" t="n">
         <v>0.87</v>
@@ -9429,7 +9429,7 @@
         <v>1.83</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU44" t="n">
         <v>0.76</v>
@@ -10038,7 +10038,7 @@
         <v>1.79</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU47" t="n">
         <v>1.63</v>
@@ -10647,7 +10647,7 @@
         <v>1.64</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU50" t="n">
         <v>1.89</v>
@@ -11459,7 +11459,7 @@
         <v>1.08</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU54" t="n">
         <v>1.6</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT56" t="n">
         <v>1.79</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT65" t="n">
         <v>1.5</v>
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT70" t="n">
         <v>0.57</v>
@@ -15113,7 +15113,7 @@
         <v>1.69</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU72" t="n">
         <v>1.39</v>
@@ -15719,7 +15719,7 @@
         <v>0.67</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT75" t="n">
         <v>0.5</v>
@@ -15925,7 +15925,7 @@
         <v>1.85</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU76" t="n">
         <v>1.56</v>
@@ -16734,7 +16734,7 @@
         <v>1.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="AS82" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT82" t="n">
         <v>0.86</v>
@@ -17346,7 +17346,7 @@
         <v>1.54</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU83" t="n">
         <v>1.7</v>
@@ -18361,7 +18361,7 @@
         <v>1.46</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU88" t="n">
         <v>0.79</v>
@@ -20185,7 +20185,7 @@
         <v>1</v>
       </c>
       <c r="AS97" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT97" t="n">
         <v>1.21</v>
@@ -20591,7 +20591,7 @@
         <v>0.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT99" t="n">
         <v>0.5</v>
@@ -21000,7 +21000,7 @@
         <v>0.92</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU101" t="n">
         <v>1.28</v>
@@ -21406,7 +21406,7 @@
         <v>2.36</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU103" t="n">
         <v>1.64</v>
@@ -21809,7 +21809,7 @@
         <v>0.25</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT105" t="n">
         <v>1.23</v>
@@ -22624,7 +22624,7 @@
         <v>1.85</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU109" t="n">
         <v>1.55</v>
@@ -23433,7 +23433,7 @@
         <v>1.2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT113" t="n">
         <v>1.46</v>
@@ -26075,7 +26075,7 @@
         <v>1.69</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU126" t="n">
         <v>1.87</v>
@@ -26275,7 +26275,7 @@
         <v>2.4</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT127" t="n">
         <v>1.33</v>
@@ -27290,7 +27290,7 @@
         <v>1.25</v>
       </c>
       <c r="AS132" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT132" t="n">
         <v>1</v>
@@ -27496,7 +27496,7 @@
         <v>1.57</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU133" t="n">
         <v>1.31</v>
@@ -29320,7 +29320,7 @@
         <v>0.4</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT142" t="n">
         <v>0.57</v>
@@ -30744,7 +30744,7 @@
         <v>1.54</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU149" t="n">
         <v>1.41</v>
@@ -31353,7 +31353,7 @@
         <v>1.64</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU152" t="n">
         <v>1.77</v>
@@ -31962,7 +31962,7 @@
         <v>0.57</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU155" t="n">
         <v>1.33</v>
@@ -32162,7 +32162,7 @@
         <v>1.8</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT156" t="n">
         <v>1.62</v>
@@ -32974,7 +32974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT160" t="n">
         <v>1.07</v>
@@ -33383,7 +33383,7 @@
         <v>2</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU162" t="n">
         <v>1.47</v>
@@ -33786,10 +33786,10 @@
         <v>0.5</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU164" t="n">
         <v>1.44</v>
@@ -34804,7 +34804,7 @@
         <v>1.08</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU169" t="n">
         <v>1.22</v>
@@ -35004,7 +35004,7 @@
         <v>1.14</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT170" t="n">
         <v>1.07</v>
@@ -35410,7 +35410,7 @@
         <v>2.33</v>
       </c>
       <c r="AS172" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT172" t="n">
         <v>1.71</v>
@@ -40691,7 +40691,7 @@
         <v>1.57</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU198" t="n">
         <v>1.5</v>
@@ -42312,7 +42312,7 @@
         <v>1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT206" t="n">
         <v>1.21</v>
@@ -42721,7 +42721,7 @@
         <v>0.92</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU208" t="n">
         <v>1.29</v>
@@ -43124,7 +43124,7 @@
         <v>0.13</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT210" t="n">
         <v>0.87</v>
@@ -43736,7 +43736,7 @@
         <v>1.46</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU213" t="n">
         <v>1.12</v>
@@ -43936,10 +43936,10 @@
         <v>0.75</v>
       </c>
       <c r="AS214" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU214" t="n">
         <v>1.72</v>
@@ -45357,7 +45357,7 @@
         <v>1.44</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT221" t="n">
         <v>1.57</v>
@@ -46981,7 +46981,7 @@
         <v>1</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT229" t="n">
         <v>1.08</v>
@@ -47187,7 +47187,7 @@
         <v>2.64</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU230" t="n">
         <v>1.73</v>
@@ -47390,7 +47390,7 @@
         <v>1.83</v>
       </c>
       <c r="AT231" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU231" t="n">
         <v>1.42</v>
@@ -48199,7 +48199,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS235" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT235" t="n">
         <v>0.87</v>
@@ -48608,7 +48608,7 @@
         <v>1</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU237" t="n">
         <v>1.39</v>
@@ -51853,10 +51853,10 @@
         <v>1</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU253" t="n">
         <v>1.5</v>
@@ -52465,7 +52465,7 @@
         <v>1.64</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU256" t="n">
         <v>1.68</v>
@@ -52665,7 +52665,7 @@
         <v>1.9</v>
       </c>
       <c r="AS257" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT257" t="n">
         <v>1.62</v>
@@ -53680,7 +53680,7 @@
         <v>1.45</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT262" t="n">
         <v>1.57</v>
@@ -55104,7 +55104,7 @@
         <v>1.92</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU269" t="n">
         <v>1.59</v>
@@ -56116,7 +56116,7 @@
         <v>1.33</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT274" t="n">
         <v>1.23</v>
@@ -56525,7 +56525,7 @@
         <v>1.17</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU276" t="n">
         <v>1.66</v>
@@ -58552,7 +58552,7 @@
         <v>2</v>
       </c>
       <c r="AS286" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT286" t="n">
         <v>1.79</v>
@@ -58758,7 +58758,7 @@
         <v>1.64</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU287" t="n">
         <v>1.53</v>
@@ -59567,7 +59567,7 @@
         <v>1.23</v>
       </c>
       <c r="AS291" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT291" t="n">
         <v>1.21</v>
@@ -60179,7 +60179,7 @@
         <v>2.36</v>
       </c>
       <c r="AT294" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AU294" t="n">
         <v>1.58</v>
@@ -60582,7 +60582,7 @@
         <v>1.17</v>
       </c>
       <c r="AS296" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT296" t="n">
         <v>1.08</v>
@@ -61194,7 +61194,7 @@
         <v>1.57</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU299" t="n">
         <v>1.4</v>
@@ -61800,7 +61800,7 @@
         <v>0.77</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT302" t="n">
         <v>0.87</v>
@@ -63018,7 +63018,7 @@
         <v>0.62</v>
       </c>
       <c r="AS308" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AT308" t="n">
         <v>0.57</v>
@@ -65051,7 +65051,7 @@
         <v>1.69</v>
       </c>
       <c r="AT318" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU318" t="n">
         <v>1.29</v>
@@ -65306,6 +65306,615 @@
       </c>
       <c r="BK319" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="n">
+        <v>2580898</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>44957.69791666666</v>
+      </c>
+      <c r="F320" t="n">
+        <v>21</v>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>Carlisle United</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Barrow</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>1</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="n">
+        <v>5</v>
+      </c>
+      <c r="M320" t="n">
+        <v>1</v>
+      </c>
+      <c r="N320" t="n">
+        <v>6</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>['44', '50', '67', '72', '89']</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q320" t="n">
+        <v>5</v>
+      </c>
+      <c r="R320" t="n">
+        <v>2</v>
+      </c>
+      <c r="S320" t="n">
+        <v>7</v>
+      </c>
+      <c r="T320" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U320" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V320" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W320" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X320" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y320" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z320" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA320" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB320" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC320" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD320" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE320" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF320" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG320" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH320" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ320" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK320" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL320" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM320" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP320" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ320" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR320" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS320" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT320" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU320" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV320" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW320" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX320" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY320" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ320" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BA320" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB320" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC320" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD320" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE320" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF320" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG320" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH320" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI320" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ320" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK320" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="n">
+        <v>2580906</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>44957.69791666666</v>
+      </c>
+      <c r="F321" t="n">
+        <v>21</v>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>Salford City</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Walsall</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>1</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N321" t="n">
+        <v>1</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P321" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q321" t="n">
+        <v>2</v>
+      </c>
+      <c r="R321" t="n">
+        <v>4</v>
+      </c>
+      <c r="S321" t="n">
+        <v>6</v>
+      </c>
+      <c r="T321" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U321" t="n">
+        <v>2</v>
+      </c>
+      <c r="V321" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W321" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X321" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y321" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z321" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH321" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI321" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ321" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK321" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL321" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM321" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN321" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO321" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP321" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ321" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR321" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS321" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT321" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU321" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV321" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW321" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX321" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AY321" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ321" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA321" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB321" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC321" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD321" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE321" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF321" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG321" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH321" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI321" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ321" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK321" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2580985</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>England EFL League Two</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="n">
+        <v>44957.69791666666</v>
+      </c>
+      <c r="F322" t="n">
+        <v>28</v>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>Crewe Alexandra</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Stockport County</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>1</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="n">
+        <v>1</v>
+      </c>
+      <c r="N322" t="n">
+        <v>2</v>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="P322" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q322" t="n">
+        <v>8</v>
+      </c>
+      <c r="R322" t="n">
+        <v>4</v>
+      </c>
+      <c r="S322" t="n">
+        <v>12</v>
+      </c>
+      <c r="T322" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U322" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V322" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W322" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X322" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ322" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK322" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL322" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM322" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN322" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO322" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP322" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ322" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR322" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS322" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT322" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU322" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV322" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW322" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX322" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AY322" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ322" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BA322" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB322" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC322" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD322" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE322" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF322" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG322" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH322" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI322" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ322" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK322" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -65313,7 +65313,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>2580898</v>
+        <v>2580906</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -65333,12 +65333,12 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>Carlisle United</t>
+          <t>Salford City</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Walsall</t>
         </is>
       </c>
       <c r="I320" t="n">
@@ -65351,164 +65351,164 @@
         <v>1</v>
       </c>
       <c r="L320" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N320" t="n">
+        <v>1</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P320" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q320" t="n">
+        <v>2</v>
+      </c>
+      <c r="R320" t="n">
+        <v>4</v>
+      </c>
+      <c r="S320" t="n">
         <v>6</v>
       </c>
-      <c r="O320" t="inlineStr">
-        <is>
-          <t>['44', '50', '67', '72', '89']</t>
-        </is>
-      </c>
-      <c r="P320" t="inlineStr">
-        <is>
-          <t>['84']</t>
-        </is>
-      </c>
-      <c r="Q320" t="n">
-        <v>5</v>
-      </c>
-      <c r="R320" t="n">
-        <v>2</v>
-      </c>
-      <c r="S320" t="n">
-        <v>7</v>
-      </c>
       <c r="T320" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="U320" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V320" t="n">
         <v>3.75</v>
       </c>
       <c r="W320" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X320" t="n">
         <v>2.5</v>
       </c>
       <c r="Y320" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Z320" t="n">
         <v>1.3</v>
       </c>
       <c r="AA320" t="n">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
       <c r="AB320" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AC320" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="AD320" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="AE320" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="AF320" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AG320" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH320" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AI320" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="AJ320" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AK320" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="AL320" t="n">
         <v>1.9</v>
       </c>
       <c r="AM320" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AN320" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AO320" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AP320" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ320" t="n">
-        <v>2</v>
+        <v>1.46</v>
       </c>
       <c r="AR320" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AS320" t="n">
-        <v>2.07</v>
+        <v>1.57</v>
       </c>
       <c r="AT320" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AU320" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="AV320" t="n">
-        <v>1.41</v>
+        <v>1.09</v>
       </c>
       <c r="AW320" t="n">
-        <v>3.01</v>
+        <v>2.55</v>
       </c>
       <c r="AX320" t="n">
-        <v>1.8</v>
+        <v>2.23</v>
       </c>
       <c r="AY320" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AZ320" t="n">
-        <v>2.49</v>
+        <v>2</v>
       </c>
       <c r="BA320" t="n">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="BB320" t="n">
-        <v>1.48</v>
+        <v>1.88</v>
       </c>
       <c r="BC320" t="n">
-        <v>1.88</v>
+        <v>2.48</v>
       </c>
       <c r="BD320" t="n">
-        <v>2.43</v>
+        <v>3.45</v>
       </c>
       <c r="BE320" t="n">
-        <v>3.35</v>
+        <v>3.64</v>
       </c>
       <c r="BF320" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BG320" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BH320" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BI320" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BJ320" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BK320" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="321">
@@ -65516,7 +65516,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>2580906</v>
+        <v>2580985</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -65532,16 +65532,16 @@
         <v>44957.69791666666</v>
       </c>
       <c r="F321" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>Salford City</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>Walsall</t>
+          <t>Stockport County</t>
         </is>
       </c>
       <c r="I321" t="n">
@@ -65557,161 +65557,161 @@
         <v>1</v>
       </c>
       <c r="M321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>['5']</t>
+          <t>['44']</t>
         </is>
       </c>
       <c r="P321" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="Q321" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R321" t="n">
         <v>4</v>
       </c>
       <c r="S321" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="T321" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="U321" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="V321" t="n">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="W321" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="X321" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y321" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Z321" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA321" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB321" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC321" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD321" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE321" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF321" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG321" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH321" t="n">
         <v>1.3</v>
       </c>
-      <c r="AA321" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="AB321" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC321" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AD321" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AE321" t="n">
+      <c r="AI321" t="n">
         <v>3.2</v>
       </c>
-      <c r="AF321" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG321" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH321" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI321" t="n">
-        <v>2.88</v>
-      </c>
       <c r="AJ321" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AK321" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="AL321" t="n">
         <v>1.9</v>
       </c>
       <c r="AM321" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AN321" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO321" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="AP321" t="n">
-        <v>1.55</v>
+        <v>1.13</v>
       </c>
       <c r="AQ321" t="n">
         <v>1.46</v>
       </c>
       <c r="AR321" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AS321" t="n">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AT321" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU321" t="n">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="AV321" t="n">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AW321" t="n">
-        <v>2.55</v>
+        <v>2.61</v>
       </c>
       <c r="AX321" t="n">
-        <v>2.23</v>
+        <v>3.48</v>
       </c>
       <c r="AY321" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="AZ321" t="n">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="BA321" t="n">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="BB321" t="n">
-        <v>1.88</v>
+        <v>1.4</v>
       </c>
       <c r="BC321" t="n">
-        <v>2.48</v>
+        <v>1.72</v>
       </c>
       <c r="BD321" t="n">
-        <v>3.45</v>
+        <v>2.2</v>
       </c>
       <c r="BE321" t="n">
-        <v>3.64</v>
+        <v>3</v>
       </c>
       <c r="BF321" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG321" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BH321" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BI321" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BJ321" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BK321" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322">
@@ -65719,7 +65719,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>2580985</v>
+        <v>2580898</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -65735,16 +65735,16 @@
         <v>44957.69791666666</v>
       </c>
       <c r="F322" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Carlisle United</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Stockport County</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="I322" t="n">
@@ -65757,164 +65757,164 @@
         <v>1</v>
       </c>
       <c r="L322" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
       <c r="N322" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>['44']</t>
+          <t>['44', '50', '67', '72', '89']</t>
         </is>
       </c>
       <c r="P322" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>['84']</t>
         </is>
       </c>
       <c r="Q322" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R322" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S322" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T322" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="U322" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V322" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W322" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X322" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y322" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z322" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA322" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB322" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC322" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD322" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE322" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF322" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG322" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH322" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ322" t="n">
         <v>2.15</v>
       </c>
-      <c r="V322" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W322" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X322" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Y322" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z322" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA322" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB322" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC322" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD322" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AE322" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AF322" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG322" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH322" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AI322" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ322" t="n">
-        <v>2</v>
-      </c>
       <c r="AK322" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="AL322" t="n">
         <v>1.9</v>
       </c>
       <c r="AM322" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AN322" t="n">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AO322" t="n">
         <v>1.28</v>
       </c>
       <c r="AP322" t="n">
-        <v>1.13</v>
+        <v>1.6</v>
       </c>
       <c r="AQ322" t="n">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="AR322" t="n">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="AS322" t="n">
-        <v>1.43</v>
+        <v>2.07</v>
       </c>
       <c r="AT322" t="n">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="AU322" t="n">
-        <v>1.21</v>
+        <v>1.6</v>
       </c>
       <c r="AV322" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AW322" t="n">
-        <v>2.61</v>
+        <v>3.01</v>
       </c>
       <c r="AX322" t="n">
-        <v>3.48</v>
+        <v>1.8</v>
       </c>
       <c r="AY322" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="AZ322" t="n">
-        <v>1.41</v>
+        <v>2.49</v>
       </c>
       <c r="BA322" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="BB322" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="BC322" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="BD322" t="n">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="BE322" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF322" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG322" t="n">
         <v>3</v>
       </c>
-      <c r="BF322" t="n">
+      <c r="BH322" t="n">
         <v>4</v>
       </c>
-      <c r="BG322" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH322" t="n">
-        <v>10</v>
-      </c>
       <c r="BI322" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ322" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BK322" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -66182,13 +66182,13 @@
         </is>
       </c>
       <c r="Q324" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R324" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S324" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T324" t="n">
         <v>4</v>
@@ -66305,22 +66305,22 @@
         <v>3.64</v>
       </c>
       <c r="BF324" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG324" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH324" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BI324" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ324" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK324" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325">
@@ -66385,13 +66385,13 @@
         </is>
       </c>
       <c r="Q325" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R325" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S325" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T325" t="n">
         <v>2.15</v>
@@ -66508,22 +66508,22 @@
         <v>2.88</v>
       </c>
       <c r="BF325" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG325" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH325" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI325" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ325" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK325" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326">
@@ -66588,13 +66588,13 @@
         </is>
       </c>
       <c r="Q326" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R326" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="S326" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T326" t="n">
         <v>2.6</v>
@@ -66711,22 +66711,22 @@
         <v>3.28</v>
       </c>
       <c r="BF326" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG326" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH326" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BI326" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ326" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK326" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327">
@@ -66791,13 +66791,13 @@
         </is>
       </c>
       <c r="Q327" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R327" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S327" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="T327" t="n">
         <v>2.43</v>
@@ -66914,22 +66914,22 @@
         <v>3.74</v>
       </c>
       <c r="BF327" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG327" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH327" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI327" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BJ327" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK327" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328">
@@ -66994,13 +66994,13 @@
         </is>
       </c>
       <c r="Q328" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R328" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S328" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T328" t="n">
         <v>3.25</v>
@@ -67117,22 +67117,22 @@
         <v>2.93</v>
       </c>
       <c r="BF328" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG328" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH328" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BI328" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ328" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK328" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329">
@@ -67197,13 +67197,13 @@
         </is>
       </c>
       <c r="Q329" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R329" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S329" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T329" t="n">
         <v>3.6</v>
@@ -67320,22 +67320,22 @@
         <v>2.76</v>
       </c>
       <c r="BF329" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG329" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BH329" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI329" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ329" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK329" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330">
@@ -67400,13 +67400,13 @@
         </is>
       </c>
       <c r="Q330" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R330" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S330" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="T330" t="n">
         <v>2.62</v>
@@ -67523,22 +67523,22 @@
         <v>3.28</v>
       </c>
       <c r="BF330" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG330" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH330" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI330" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ330" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BK330" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331">
@@ -67603,13 +67603,13 @@
         </is>
       </c>
       <c r="Q331" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="R331" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S331" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="T331" t="n">
         <v>3.2</v>
@@ -67726,22 +67726,22 @@
         <v>3.28</v>
       </c>
       <c r="BF331" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BG331" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH331" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI331" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BJ331" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BK331" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332">
@@ -67806,13 +67806,13 @@
         </is>
       </c>
       <c r="Q332" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R332" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S332" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T332" t="n">
         <v>2.45</v>
@@ -67929,22 +67929,22 @@
         <v>3.92</v>
       </c>
       <c r="BF332" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG332" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH332" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BI332" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ332" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK332" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333">
@@ -68009,13 +68009,13 @@
         </is>
       </c>
       <c r="Q333" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R333" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S333" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T333" t="n">
         <v>2.7</v>
@@ -68132,22 +68132,22 @@
         <v>3.2</v>
       </c>
       <c r="BF333" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG333" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH333" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI333" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BJ333" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK333" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334">
@@ -68212,13 +68212,13 @@
         </is>
       </c>
       <c r="Q334" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R334" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S334" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T334" t="n">
         <v>2.3</v>
@@ -68335,22 +68335,22 @@
         <v>2.84</v>
       </c>
       <c r="BF334" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG334" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BH334" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BI334" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BJ334" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="BK334" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="416">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -874,6 +874,24 @@
     <t>['62', '65']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['21', '35']</t>
+  </si>
+  <si>
+    <t>['43', '45+3']</t>
+  </si>
+  <si>
+    <t>['26', '73']</t>
+  </si>
+  <si>
+    <t>['19', '90+7']</t>
+  </si>
+  <si>
     <t>['40', '84']</t>
   </si>
   <si>
@@ -896,9 +914,6 @@
   </si>
   <si>
     <t>['90+10']</t>
-  </si>
-  <si>
-    <t>['22']</t>
   </si>
   <si>
     <t>['86', '90+4']</t>
@@ -1229,6 +1244,24 @@
   </si>
   <si>
     <t>['31', '59']</t>
+  </si>
+  <si>
+    <t>['18', '31']</t>
+  </si>
+  <si>
+    <t>['49', '56', '86']</t>
+  </si>
+  <si>
+    <t>['19', '35', '73']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['71', '73']</t>
+  </si>
+  <si>
+    <t>['51', '61']</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK336"/>
+  <dimension ref="A1:BK348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1921,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT2">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2112,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT3">
         <v>0.73</v>
@@ -2216,7 +2249,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2303,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT4">
         <v>1.46</v>
@@ -2497,7 +2530,7 @@
         <v>1.93</v>
       </c>
       <c r="AT5">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2789,7 +2822,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -2876,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -2980,7 +3013,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3449,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT10">
         <v>1.36</v>
@@ -3834,7 +3867,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3935,7 +3968,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4025,7 +4058,7 @@
         <v>1.79</v>
       </c>
       <c r="AT13">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -4404,10 +4437,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT15">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4595,10 +4628,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT16">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4977,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT18">
         <v>1.07</v>
@@ -5168,10 +5201,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT19">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5272,7 +5305,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5359,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT20">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5463,7 +5496,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5553,7 +5586,7 @@
         <v>1.79</v>
       </c>
       <c r="AT21">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5935,7 +5968,7 @@
         <v>1.2</v>
       </c>
       <c r="AT23">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6036,7 +6069,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6123,10 +6156,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT24">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6609,7 +6642,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6696,7 +6729,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT27">
         <v>1.46</v>
@@ -6887,10 +6920,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT28">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU28">
         <v>1.11</v>
@@ -7272,7 +7305,7 @@
         <v>1.79</v>
       </c>
       <c r="AT30">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>1.58</v>
@@ -7460,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT31">
         <v>1.46</v>
@@ -7564,7 +7597,7 @@
         <v>114</v>
       </c>
       <c r="P32" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8033,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT34">
         <v>0.46</v>
@@ -8227,7 +8260,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU35">
         <v>2.46</v>
@@ -8328,7 +8361,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8415,10 +8448,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT36">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU36">
         <v>1.21</v>
@@ -8519,7 +8552,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8797,10 +8830,10 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT38">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU38">
         <v>0.95</v>
@@ -8988,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT39">
         <v>0.8</v>
@@ -9092,7 +9125,7 @@
         <v>121</v>
       </c>
       <c r="P40" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9182,7 +9215,7 @@
         <v>1.07</v>
       </c>
       <c r="AT40">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU40">
         <v>1.11</v>
@@ -9283,7 +9316,7 @@
         <v>122</v>
       </c>
       <c r="P41" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9370,7 +9403,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT41">
         <v>1.13</v>
@@ -9755,7 +9788,7 @@
         <v>1.25</v>
       </c>
       <c r="AT43">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU43">
         <v>0.74</v>
@@ -9856,7 +9889,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q44">
         <v>10</v>
@@ -9946,7 +9979,7 @@
         <v>1.79</v>
       </c>
       <c r="AT44">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU44">
         <v>0.76</v>
@@ -10047,7 +10080,7 @@
         <v>125</v>
       </c>
       <c r="P45" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10134,10 +10167,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT45">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU45">
         <v>0.01</v>
@@ -10328,7 +10361,7 @@
         <v>1.2</v>
       </c>
       <c r="AT46">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU46">
         <v>1.27</v>
@@ -10429,7 +10462,7 @@
         <v>127</v>
       </c>
       <c r="P47" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -10516,7 +10549,7 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT47">
         <v>1.07</v>
@@ -10620,7 +10653,7 @@
         <v>99</v>
       </c>
       <c r="P48" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q48">
         <v>11</v>
@@ -10811,7 +10844,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10901,7 +10934,7 @@
         <v>1</v>
       </c>
       <c r="AT49">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU49">
         <v>1.19</v>
@@ -11002,7 +11035,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11089,10 +11122,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT50">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU50">
         <v>1.89</v>
@@ -11280,7 +11313,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT51">
         <v>0.8</v>
@@ -11471,10 +11504,10 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT52">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU52">
         <v>1.83</v>
@@ -11853,10 +11886,10 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT54">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU54">
         <v>2.59</v>
@@ -12148,7 +12181,7 @@
         <v>133</v>
       </c>
       <c r="P56" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12238,7 +12271,7 @@
         <v>1.79</v>
       </c>
       <c r="AT56">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU56">
         <v>1.57</v>
@@ -12339,7 +12372,7 @@
         <v>134</v>
       </c>
       <c r="P57" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12429,7 +12462,7 @@
         <v>1.25</v>
       </c>
       <c r="AT57">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU57">
         <v>0.99</v>
@@ -12530,7 +12563,7 @@
         <v>99</v>
       </c>
       <c r="P58" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12617,7 +12650,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT58">
         <v>1.13</v>
@@ -12721,7 +12754,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12811,7 +12844,7 @@
         <v>1.2</v>
       </c>
       <c r="AT59">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU59">
         <v>1.34</v>
@@ -12999,7 +13032,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT60">
         <v>0.85</v>
@@ -13103,7 +13136,7 @@
         <v>98</v>
       </c>
       <c r="P61" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13190,7 +13223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT61">
         <v>1.46</v>
@@ -13381,10 +13414,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT62">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>1.32</v>
@@ -14145,7 +14178,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT66">
         <v>0.46</v>
@@ -14339,7 +14372,7 @@
         <v>1.79</v>
       </c>
       <c r="AT67">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU67">
         <v>1.68</v>
@@ -14440,7 +14473,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14631,7 +14664,7 @@
         <v>99</v>
       </c>
       <c r="P69" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14718,10 +14751,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT69">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU69">
         <v>1.76</v>
@@ -14912,7 +14945,7 @@
         <v>1.93</v>
       </c>
       <c r="AT70">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU70">
         <v>2.11</v>
@@ -15204,7 +15237,7 @@
         <v>99</v>
       </c>
       <c r="P72" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15291,7 +15324,7 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT72">
         <v>1.07</v>
@@ -15777,7 +15810,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15968,7 +16001,7 @@
         <v>99</v>
       </c>
       <c r="P76" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -16732,7 +16765,7 @@
         <v>147</v>
       </c>
       <c r="P80" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q80">
         <v>11</v>
@@ -17114,7 +17147,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17305,7 +17338,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17496,7 +17529,7 @@
         <v>151</v>
       </c>
       <c r="P84" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17774,10 +17807,10 @@
         <v>1.33</v>
       </c>
       <c r="AS85">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT85">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU85">
         <v>1.95</v>
@@ -17965,10 +17998,10 @@
         <v>2.33</v>
       </c>
       <c r="AS86">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT86">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU86">
         <v>1.58</v>
@@ -18156,10 +18189,10 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT87">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU87">
         <v>1.79</v>
@@ -18260,7 +18293,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18538,10 +18571,10 @@
         <v>1.33</v>
       </c>
       <c r="AS89">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT89">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU89">
         <v>1.44</v>
@@ -18729,10 +18762,10 @@
         <v>0</v>
       </c>
       <c r="AS90">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT90">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU90">
         <v>1.86</v>
@@ -18833,7 +18866,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -18920,10 +18953,10 @@
         <v>0</v>
       </c>
       <c r="AS91">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT91">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU91">
         <v>0.79</v>
@@ -19111,10 +19144,10 @@
         <v>1.67</v>
       </c>
       <c r="AS92">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT92">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU92">
         <v>1.57</v>
@@ -19215,7 +19248,7 @@
         <v>99</v>
       </c>
       <c r="P93" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19302,10 +19335,10 @@
         <v>1.67</v>
       </c>
       <c r="AS93">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT93">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU93">
         <v>1.41</v>
@@ -19493,10 +19526,10 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT94">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU94">
         <v>1.57</v>
@@ -19597,7 +19630,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19684,10 +19717,10 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT95">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU95">
         <v>1.35</v>
@@ -19788,7 +19821,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19875,10 +19908,10 @@
         <v>0.33</v>
       </c>
       <c r="AS96">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT96">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU96">
         <v>1.35</v>
@@ -20361,7 +20394,7 @@
         <v>99</v>
       </c>
       <c r="P99" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20552,7 +20585,7 @@
         <v>99</v>
       </c>
       <c r="P100" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20934,7 +20967,7 @@
         <v>99</v>
       </c>
       <c r="P102" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -21889,7 +21922,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -22361,7 +22394,7 @@
         <v>1.79</v>
       </c>
       <c r="AT109">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU109">
         <v>1.55</v>
@@ -22552,7 +22585,7 @@
         <v>1</v>
       </c>
       <c r="AT110">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU110">
         <v>1.2</v>
@@ -22740,7 +22773,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT111">
         <v>0.85</v>
@@ -22934,7 +22967,7 @@
         <v>1.07</v>
       </c>
       <c r="AT112">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU112">
         <v>1.32</v>
@@ -23035,7 +23068,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -23122,7 +23155,7 @@
         <v>1.2</v>
       </c>
       <c r="AS113">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT113">
         <v>1.36</v>
@@ -23417,7 +23450,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23799,7 +23832,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23990,7 +24023,7 @@
         <v>99</v>
       </c>
       <c r="P118" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -24077,10 +24110,10 @@
         <v>2.5</v>
       </c>
       <c r="AS118">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT118">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU118">
         <v>1.77</v>
@@ -24181,7 +24214,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24271,7 +24304,7 @@
         <v>1.93</v>
       </c>
       <c r="AT119">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU119">
         <v>1.54</v>
@@ -24459,7 +24492,7 @@
         <v>0.8</v>
       </c>
       <c r="AS120">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT120">
         <v>1.07</v>
@@ -24563,7 +24596,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24650,10 +24683,10 @@
         <v>0.75</v>
       </c>
       <c r="AS121">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT121">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU121">
         <v>1.53</v>
@@ -24754,7 +24787,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -24841,7 +24874,7 @@
         <v>0.2</v>
       </c>
       <c r="AS122">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT122">
         <v>0.73</v>
@@ -24945,7 +24978,7 @@
         <v>152</v>
       </c>
       <c r="P123" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -25032,10 +25065,10 @@
         <v>1.5</v>
       </c>
       <c r="AS123">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT123">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU123">
         <v>1.48</v>
@@ -25136,7 +25169,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25223,7 +25256,7 @@
         <v>1.4</v>
       </c>
       <c r="AS124">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT124">
         <v>1.46</v>
@@ -25417,7 +25450,7 @@
         <v>1.23</v>
       </c>
       <c r="AT125">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU125">
         <v>1.2</v>
@@ -25518,7 +25551,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q126">
         <v>14</v>
@@ -25608,7 +25641,7 @@
         <v>2.4</v>
       </c>
       <c r="AT126">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU126">
         <v>1.56</v>
@@ -25709,7 +25742,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -25796,10 +25829,10 @@
         <v>1.25</v>
       </c>
       <c r="AS127">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT127">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU127">
         <v>1.42</v>
@@ -26178,7 +26211,7 @@
         <v>1.8</v>
       </c>
       <c r="AS129">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT129">
         <v>1.07</v>
@@ -26473,7 +26506,7 @@
         <v>180</v>
       </c>
       <c r="P131" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q131">
         <v>7</v>
@@ -26560,10 +26593,10 @@
         <v>0.25</v>
       </c>
       <c r="AS131">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT131">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU131">
         <v>1.31</v>
@@ -26664,7 +26697,7 @@
         <v>157</v>
       </c>
       <c r="P132" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q132">
         <v>10</v>
@@ -26751,10 +26784,10 @@
         <v>2</v>
       </c>
       <c r="AS132">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT132">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU132">
         <v>1.55</v>
@@ -27133,10 +27166,10 @@
         <v>2.2</v>
       </c>
       <c r="AS134">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT134">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU134">
         <v>1.44</v>
@@ -27327,7 +27360,7 @@
         <v>1</v>
       </c>
       <c r="AT135">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU135">
         <v>1.16</v>
@@ -27515,10 +27548,10 @@
         <v>0.2</v>
       </c>
       <c r="AS136">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT136">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU136">
         <v>1.95</v>
@@ -27706,10 +27739,10 @@
         <v>1.4</v>
       </c>
       <c r="AS137">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT137">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU137">
         <v>1.47</v>
@@ -27900,7 +27933,7 @@
         <v>1.79</v>
       </c>
       <c r="AT138">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU138">
         <v>1.46</v>
@@ -28088,7 +28121,7 @@
         <v>0.5</v>
       </c>
       <c r="AS139">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT139">
         <v>0.46</v>
@@ -28192,7 +28225,7 @@
         <v>186</v>
       </c>
       <c r="P140" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -28282,7 +28315,7 @@
         <v>1</v>
       </c>
       <c r="AT140">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU140">
         <v>1.32</v>
@@ -28473,7 +28506,7 @@
         <v>1.79</v>
       </c>
       <c r="AT141">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU141">
         <v>1.48</v>
@@ -28661,7 +28694,7 @@
         <v>1.5</v>
       </c>
       <c r="AS142">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT142">
         <v>1.36</v>
@@ -28765,7 +28798,7 @@
         <v>99</v>
       </c>
       <c r="P143" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -29043,7 +29076,7 @@
         <v>0.83</v>
       </c>
       <c r="AS144">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT144">
         <v>1.13</v>
@@ -29237,7 +29270,7 @@
         <v>1.25</v>
       </c>
       <c r="AT145">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU145">
         <v>1.1</v>
@@ -29338,7 +29371,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29720,7 +29753,7 @@
         <v>99</v>
       </c>
       <c r="P148" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29807,7 +29840,7 @@
         <v>1.5</v>
       </c>
       <c r="AS148">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT148">
         <v>1.43</v>
@@ -30001,7 +30034,7 @@
         <v>1.5</v>
       </c>
       <c r="AT149">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU149">
         <v>1.41</v>
@@ -30189,7 +30222,7 @@
         <v>1.2</v>
       </c>
       <c r="AS150">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT150">
         <v>1</v>
@@ -30293,7 +30326,7 @@
         <v>191</v>
       </c>
       <c r="P151" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30380,7 +30413,7 @@
         <v>0.33</v>
       </c>
       <c r="AS151">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT151">
         <v>0.73</v>
@@ -30571,7 +30604,7 @@
         <v>0.83</v>
       </c>
       <c r="AS152">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT152">
         <v>1.07</v>
@@ -30762,10 +30795,10 @@
         <v>0.2</v>
       </c>
       <c r="AS153">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT153">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU153">
         <v>1.59</v>
@@ -30866,7 +30899,7 @@
         <v>120</v>
       </c>
       <c r="P154" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -31147,7 +31180,7 @@
         <v>1.67</v>
       </c>
       <c r="AT155">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU155">
         <v>1.54</v>
@@ -31338,7 +31371,7 @@
         <v>2.4</v>
       </c>
       <c r="AT156">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU156">
         <v>1.67</v>
@@ -31439,7 +31472,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31717,10 +31750,10 @@
         <v>1.17</v>
       </c>
       <c r="AS158">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT158">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU158">
         <v>1.02</v>
@@ -31821,7 +31854,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -31908,7 +31941,7 @@
         <v>1.5</v>
       </c>
       <c r="AS159">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT159">
         <v>1.07</v>
@@ -32099,10 +32132,10 @@
         <v>0.17</v>
       </c>
       <c r="AS160">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT160">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU160">
         <v>1.33</v>
@@ -32293,7 +32326,7 @@
         <v>1.93</v>
       </c>
       <c r="AT161">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU161">
         <v>1.68</v>
@@ -32394,7 +32427,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32585,7 +32618,7 @@
         <v>198</v>
       </c>
       <c r="P163" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32672,10 +32705,10 @@
         <v>1.71</v>
       </c>
       <c r="AS163">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT163">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU163">
         <v>1.86</v>
@@ -32776,7 +32809,7 @@
         <v>99</v>
       </c>
       <c r="P164" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32866,7 +32899,7 @@
         <v>1.67</v>
       </c>
       <c r="AT164">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU164">
         <v>1.44</v>
@@ -32967,7 +33000,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -33054,7 +33087,7 @@
         <v>0.71</v>
       </c>
       <c r="AS165">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT165">
         <v>1.13</v>
@@ -33248,7 +33281,7 @@
         <v>1.07</v>
       </c>
       <c r="AT166">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU166">
         <v>1.32</v>
@@ -33349,7 +33382,7 @@
         <v>181</v>
       </c>
       <c r="P167" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33436,7 +33469,7 @@
         <v>1.43</v>
       </c>
       <c r="AS167">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT167">
         <v>1.07</v>
@@ -33627,10 +33660,10 @@
         <v>2</v>
       </c>
       <c r="AS168">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT168">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU168">
         <v>1.65</v>
@@ -34012,7 +34045,7 @@
         <v>1.25</v>
       </c>
       <c r="AT170">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU170">
         <v>1.15</v>
@@ -34113,7 +34146,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34200,7 +34233,7 @@
         <v>1.71</v>
       </c>
       <c r="AS171">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT171">
         <v>1.43</v>
@@ -34304,7 +34337,7 @@
         <v>203</v>
       </c>
       <c r="P172" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34394,7 +34427,7 @@
         <v>1.93</v>
       </c>
       <c r="AT172">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU172">
         <v>1.74</v>
@@ -34495,7 +34528,7 @@
         <v>204</v>
       </c>
       <c r="P173" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -34582,7 +34615,7 @@
         <v>0.29</v>
       </c>
       <c r="AS173">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT173">
         <v>0.73</v>
@@ -34686,7 +34719,7 @@
         <v>99</v>
       </c>
       <c r="P174" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34776,7 +34809,7 @@
         <v>1</v>
       </c>
       <c r="AT174">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU174">
         <v>1.33</v>
@@ -34967,7 +35000,7 @@
         <v>2.4</v>
       </c>
       <c r="AT175">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU175">
         <v>1.7</v>
@@ -35155,10 +35188,10 @@
         <v>1</v>
       </c>
       <c r="AS176">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT176">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU176">
         <v>1.76</v>
@@ -35259,7 +35292,7 @@
         <v>206</v>
       </c>
       <c r="P177" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35349,7 +35382,7 @@
         <v>1.79</v>
       </c>
       <c r="AT177">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU177">
         <v>1.5</v>
@@ -35450,7 +35483,7 @@
         <v>207</v>
       </c>
       <c r="P178" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q178">
         <v>9</v>
@@ -35731,7 +35764,7 @@
         <v>1.79</v>
       </c>
       <c r="AT179">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU179">
         <v>1.84</v>
@@ -35919,7 +35952,7 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT180">
         <v>0.8</v>
@@ -36023,7 +36056,7 @@
         <v>210</v>
       </c>
       <c r="P181" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36110,7 +36143,7 @@
         <v>0.57</v>
       </c>
       <c r="AS181">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT181">
         <v>0.85</v>
@@ -36683,7 +36716,7 @@
         <v>1</v>
       </c>
       <c r="AS184">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT184">
         <v>1</v>
@@ -36874,7 +36907,7 @@
         <v>2.29</v>
       </c>
       <c r="AS185">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT185">
         <v>1.46</v>
@@ -37068,7 +37101,7 @@
         <v>1.79</v>
       </c>
       <c r="AT186">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU186">
         <v>1.44</v>
@@ -37450,7 +37483,7 @@
         <v>1.79</v>
       </c>
       <c r="AT188">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU188">
         <v>1.38</v>
@@ -37832,7 +37865,7 @@
         <v>2.4</v>
       </c>
       <c r="AT190">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU190">
         <v>1.64</v>
@@ -37933,7 +37966,7 @@
         <v>216</v>
       </c>
       <c r="P191" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -38020,7 +38053,7 @@
         <v>1.25</v>
       </c>
       <c r="AS191">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT191">
         <v>1.36</v>
@@ -38214,7 +38247,7 @@
         <v>1.79</v>
       </c>
       <c r="AT192">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU192">
         <v>1.85</v>
@@ -38315,7 +38348,7 @@
         <v>99</v>
       </c>
       <c r="P193" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38402,10 +38435,10 @@
         <v>1.29</v>
       </c>
       <c r="AS193">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT193">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU193">
         <v>1.53</v>
@@ -38593,7 +38626,7 @@
         <v>1</v>
       </c>
       <c r="AS194">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT194">
         <v>0.8</v>
@@ -38697,7 +38730,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -38784,7 +38817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS195">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT195">
         <v>0.85</v>
@@ -38975,7 +39008,7 @@
         <v>1</v>
       </c>
       <c r="AS196">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT196">
         <v>1</v>
@@ -39357,10 +39390,10 @@
         <v>0.86</v>
       </c>
       <c r="AS198">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT198">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU198">
         <v>1.5</v>
@@ -39548,10 +39581,10 @@
         <v>0.14</v>
       </c>
       <c r="AS199">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT199">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU199">
         <v>1.6</v>
@@ -39739,10 +39772,10 @@
         <v>2.43</v>
       </c>
       <c r="AS200">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT200">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU200">
         <v>1.33</v>
@@ -39843,7 +39876,7 @@
         <v>224</v>
       </c>
       <c r="P201" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q201">
         <v>6</v>
@@ -39930,10 +39963,10 @@
         <v>1.5</v>
       </c>
       <c r="AS201">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT201">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU201">
         <v>1.54</v>
@@ -40034,7 +40067,7 @@
         <v>94</v>
       </c>
       <c r="P202" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q202">
         <v>9</v>
@@ -40121,10 +40154,10 @@
         <v>1.86</v>
       </c>
       <c r="AS202">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT202">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU202">
         <v>1.64</v>
@@ -40312,10 +40345,10 @@
         <v>2</v>
       </c>
       <c r="AS203">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT203">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU203">
         <v>1.33</v>
@@ -40503,7 +40536,7 @@
         <v>1.38</v>
       </c>
       <c r="AS204">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT204">
         <v>1.07</v>
@@ -40607,7 +40640,7 @@
         <v>99</v>
       </c>
       <c r="P205" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q205">
         <v>5</v>
@@ -40697,7 +40730,7 @@
         <v>1.93</v>
       </c>
       <c r="AT205">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU205">
         <v>1.52</v>
@@ -40885,7 +40918,7 @@
         <v>0.25</v>
       </c>
       <c r="AS206">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT206">
         <v>0.73</v>
@@ -41267,7 +41300,7 @@
         <v>1.5</v>
       </c>
       <c r="AS208">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT208">
         <v>1.43</v>
@@ -41371,7 +41404,7 @@
         <v>114</v>
       </c>
       <c r="P209" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41461,7 +41494,7 @@
         <v>1.07</v>
       </c>
       <c r="AT209">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU209">
         <v>1.29</v>
@@ -41562,7 +41595,7 @@
         <v>99</v>
       </c>
       <c r="P210" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q210">
         <v>7</v>
@@ -41649,10 +41682,10 @@
         <v>2.13</v>
       </c>
       <c r="AS210">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT210">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU210">
         <v>1.63</v>
@@ -41753,7 +41786,7 @@
         <v>112</v>
       </c>
       <c r="P211" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41840,10 +41873,10 @@
         <v>1.13</v>
       </c>
       <c r="AS211">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT211">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU211">
         <v>1.64</v>
@@ -41944,7 +41977,7 @@
         <v>99</v>
       </c>
       <c r="P212" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -42034,7 +42067,7 @@
         <v>1.23</v>
       </c>
       <c r="AT212">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU212">
         <v>1.22</v>
@@ -42225,7 +42258,7 @@
         <v>1.25</v>
       </c>
       <c r="AT213">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU213">
         <v>1.26</v>
@@ -42413,7 +42446,7 @@
         <v>1.25</v>
       </c>
       <c r="AS214">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT214">
         <v>1.07</v>
@@ -42795,7 +42828,7 @@
         <v>0.88</v>
       </c>
       <c r="AS216">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT216">
         <v>1</v>
@@ -42899,7 +42932,7 @@
         <v>99</v>
       </c>
       <c r="P217" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q217">
         <v>7</v>
@@ -42986,7 +43019,7 @@
         <v>1</v>
       </c>
       <c r="AS217">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT217">
         <v>1.13</v>
@@ -43281,7 +43314,7 @@
         <v>98</v>
       </c>
       <c r="P219" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q219">
         <v>2</v>
@@ -43371,7 +43404,7 @@
         <v>1.79</v>
       </c>
       <c r="AT219">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU219">
         <v>1.85</v>
@@ -43472,7 +43505,7 @@
         <v>227</v>
       </c>
       <c r="P220" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="Q220">
         <v>8</v>
@@ -43562,7 +43595,7 @@
         <v>1.67</v>
       </c>
       <c r="AT220">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU220">
         <v>1.45</v>
@@ -43753,7 +43786,7 @@
         <v>1.07</v>
       </c>
       <c r="AT221">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU221">
         <v>1.29</v>
@@ -43941,7 +43974,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS222">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT222">
         <v>0.46</v>
@@ -44132,7 +44165,7 @@
         <v>1.67</v>
       </c>
       <c r="AS223">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT223">
         <v>1.46</v>
@@ -44326,7 +44359,7 @@
         <v>1.2</v>
       </c>
       <c r="AT224">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU224">
         <v>1.13</v>
@@ -44427,7 +44460,7 @@
         <v>231</v>
       </c>
       <c r="P225" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -44517,7 +44550,7 @@
         <v>1.5</v>
       </c>
       <c r="AT225">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU225">
         <v>1.44</v>
@@ -44705,7 +44738,7 @@
         <v>0.22</v>
       </c>
       <c r="AS226">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT226">
         <v>0.73</v>
@@ -44896,7 +44929,7 @@
         <v>1.67</v>
       </c>
       <c r="AS227">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT227">
         <v>1.43</v>
@@ -45087,10 +45120,10 @@
         <v>0.33</v>
       </c>
       <c r="AS228">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT228">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU228">
         <v>1.08</v>
@@ -45191,7 +45224,7 @@
         <v>99</v>
       </c>
       <c r="P229" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="Q229">
         <v>5</v>
@@ -45382,7 +45415,7 @@
         <v>110</v>
       </c>
       <c r="P230" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q230">
         <v>2</v>
@@ -45472,7 +45505,7 @@
         <v>1.25</v>
       </c>
       <c r="AT230">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU230">
         <v>1.25</v>
@@ -45660,7 +45693,7 @@
         <v>1.11</v>
       </c>
       <c r="AS231">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT231">
         <v>1.07</v>
@@ -45851,7 +45884,7 @@
         <v>1.78</v>
       </c>
       <c r="AS232">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT232">
         <v>1.46</v>
@@ -45955,7 +45988,7 @@
         <v>99</v>
       </c>
       <c r="P233" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="Q233">
         <v>7</v>
@@ -46045,7 +46078,7 @@
         <v>1.23</v>
       </c>
       <c r="AT233">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU233">
         <v>1.18</v>
@@ -46236,7 +46269,7 @@
         <v>2.4</v>
       </c>
       <c r="AT234">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU234">
         <v>1.66</v>
@@ -46427,7 +46460,7 @@
         <v>1.93</v>
       </c>
       <c r="AT235">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU235">
         <v>1.67</v>
@@ -46615,7 +46648,7 @@
         <v>1.44</v>
       </c>
       <c r="AS236">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT236">
         <v>1.36</v>
@@ -46719,7 +46752,7 @@
         <v>99</v>
       </c>
       <c r="P237" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q237">
         <v>1</v>
@@ -46809,7 +46842,7 @@
         <v>1</v>
       </c>
       <c r="AT237">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU237">
         <v>1.39</v>
@@ -46910,7 +46943,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q238">
         <v>1</v>
@@ -46997,10 +47030,10 @@
         <v>0.11</v>
       </c>
       <c r="AS238">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT238">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU238">
         <v>1.58</v>
@@ -47292,7 +47325,7 @@
         <v>154</v>
       </c>
       <c r="P240" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q240">
         <v>6</v>
@@ -47379,7 +47412,7 @@
         <v>0.44</v>
       </c>
       <c r="AS240">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT240">
         <v>0.85</v>
@@ -47483,7 +47516,7 @@
         <v>99</v>
       </c>
       <c r="P241" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -47570,7 +47603,7 @@
         <v>0.2</v>
       </c>
       <c r="AS241">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT241">
         <v>0.73</v>
@@ -47761,7 +47794,7 @@
         <v>1.2</v>
       </c>
       <c r="AS242">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT242">
         <v>1.13</v>
@@ -47955,7 +47988,7 @@
         <v>1.93</v>
       </c>
       <c r="AT243">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU243">
         <v>1.5</v>
@@ -48143,7 +48176,7 @@
         <v>1.5</v>
       </c>
       <c r="AS244">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT244">
         <v>1.43</v>
@@ -48334,7 +48367,7 @@
         <v>1.3</v>
       </c>
       <c r="AS245">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT245">
         <v>1.07</v>
@@ -48528,7 +48561,7 @@
         <v>1.07</v>
       </c>
       <c r="AT246">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU246">
         <v>1.3</v>
@@ -48716,7 +48749,7 @@
         <v>1.3</v>
       </c>
       <c r="AS247">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT247">
         <v>1.36</v>
@@ -48910,7 +48943,7 @@
         <v>2.4</v>
       </c>
       <c r="AT248">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU248">
         <v>1.66</v>
@@ -49011,7 +49044,7 @@
         <v>241</v>
       </c>
       <c r="P249" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q249">
         <v>8</v>
@@ -49101,7 +49134,7 @@
         <v>1.79</v>
       </c>
       <c r="AT249">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU249">
         <v>1.46</v>
@@ -49202,7 +49235,7 @@
         <v>242</v>
       </c>
       <c r="P250" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q250">
         <v>3</v>
@@ -49289,7 +49322,7 @@
         <v>1.6</v>
       </c>
       <c r="AS250">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT250">
         <v>1.46</v>
@@ -49483,7 +49516,7 @@
         <v>1.23</v>
       </c>
       <c r="AT251">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU251">
         <v>1.23</v>
@@ -49966,7 +49999,7 @@
         <v>153</v>
       </c>
       <c r="P254" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q254">
         <v>4</v>
@@ -50053,7 +50086,7 @@
         <v>1</v>
       </c>
       <c r="AS254">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT254">
         <v>1.07</v>
@@ -50157,7 +50190,7 @@
         <v>245</v>
       </c>
       <c r="P255" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q255">
         <v>4</v>
@@ -50244,10 +50277,10 @@
         <v>0.55</v>
       </c>
       <c r="AS255">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT255">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU255">
         <v>1.11</v>
@@ -50438,7 +50471,7 @@
         <v>1.93</v>
       </c>
       <c r="AT256">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU256">
         <v>1.61</v>
@@ -50626,10 +50659,10 @@
         <v>1.2</v>
       </c>
       <c r="AS257">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT257">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU257">
         <v>1.3</v>
@@ -50817,10 +50850,10 @@
         <v>2.1</v>
       </c>
       <c r="AS258">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT258">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU258">
         <v>1.57</v>
@@ -50921,7 +50954,7 @@
         <v>102</v>
       </c>
       <c r="P259" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -51008,7 +51041,7 @@
         <v>0.45</v>
       </c>
       <c r="AS259">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT259">
         <v>0.73</v>
@@ -51199,10 +51232,10 @@
         <v>1.36</v>
       </c>
       <c r="AS260">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT260">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU260">
         <v>1.42</v>
@@ -51494,7 +51527,7 @@
         <v>99</v>
       </c>
       <c r="P262" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q262">
         <v>6</v>
@@ -51584,7 +51617,7 @@
         <v>1.25</v>
       </c>
       <c r="AT262">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU262">
         <v>1.23</v>
@@ -51685,7 +51718,7 @@
         <v>248</v>
       </c>
       <c r="P263" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q263">
         <v>7</v>
@@ -51772,10 +51805,10 @@
         <v>1.9</v>
       </c>
       <c r="AS263">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT263">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU263">
         <v>1.65</v>
@@ -51876,7 +51909,7 @@
         <v>106</v>
       </c>
       <c r="P264" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="Q264">
         <v>3</v>
@@ -52157,7 +52190,7 @@
         <v>1.93</v>
       </c>
       <c r="AT265">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU265">
         <v>1.52</v>
@@ -52258,7 +52291,7 @@
         <v>91</v>
       </c>
       <c r="P266" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Q266">
         <v>4</v>
@@ -52640,7 +52673,7 @@
         <v>226</v>
       </c>
       <c r="P268" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -52727,7 +52760,7 @@
         <v>1.18</v>
       </c>
       <c r="AS268">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT268">
         <v>1.07</v>
@@ -52831,7 +52864,7 @@
         <v>99</v>
       </c>
       <c r="P269" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="Q269">
         <v>7</v>
@@ -52918,10 +52951,10 @@
         <v>1.3</v>
       </c>
       <c r="AS269">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT269">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU269">
         <v>1.59</v>
@@ -53022,7 +53055,7 @@
         <v>251</v>
       </c>
       <c r="P270" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q270">
         <v>6</v>
@@ -53213,7 +53246,7 @@
         <v>139</v>
       </c>
       <c r="P271" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="Q271">
         <v>15</v>
@@ -53494,7 +53527,7 @@
         <v>1.07</v>
       </c>
       <c r="AT272">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU272">
         <v>1.3</v>
@@ -53595,7 +53628,7 @@
         <v>252</v>
       </c>
       <c r="P273" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q273">
         <v>7</v>
@@ -53682,7 +53715,7 @@
         <v>0.5</v>
       </c>
       <c r="AS273">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT273">
         <v>0.46</v>
@@ -53977,7 +54010,7 @@
         <v>253</v>
       </c>
       <c r="P275" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="Q275">
         <v>5</v>
@@ -54067,7 +54100,7 @@
         <v>1.79</v>
       </c>
       <c r="AT275">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU275">
         <v>1.41</v>
@@ -54255,10 +54288,10 @@
         <v>1.45</v>
       </c>
       <c r="AS276">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT276">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU276">
         <v>1.66</v>
@@ -54359,7 +54392,7 @@
         <v>254</v>
       </c>
       <c r="P277" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q277">
         <v>2</v>
@@ -54828,7 +54861,7 @@
         <v>1.58</v>
       </c>
       <c r="AS279">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT279">
         <v>1.43</v>
@@ -55123,7 +55156,7 @@
         <v>257</v>
       </c>
       <c r="P281" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q281">
         <v>4</v>
@@ -55213,7 +55246,7 @@
         <v>1.5</v>
       </c>
       <c r="AT281">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU281">
         <v>1.45</v>
@@ -55401,7 +55434,7 @@
         <v>0.73</v>
       </c>
       <c r="AS282">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT282">
         <v>0.8</v>
@@ -55505,7 +55538,7 @@
         <v>258</v>
       </c>
       <c r="P283" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="Q283">
         <v>6</v>
@@ -55786,7 +55819,7 @@
         <v>1.79</v>
       </c>
       <c r="AT284">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU284">
         <v>1.5</v>
@@ -55974,10 +56007,10 @@
         <v>0.36</v>
       </c>
       <c r="AS285">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT285">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU285">
         <v>1.72</v>
@@ -56078,7 +56111,7 @@
         <v>260</v>
       </c>
       <c r="P286" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Q286">
         <v>2</v>
@@ -56168,7 +56201,7 @@
         <v>1.67</v>
       </c>
       <c r="AT286">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU286">
         <v>1.47</v>
@@ -56269,7 +56302,7 @@
         <v>261</v>
       </c>
       <c r="P287" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q287">
         <v>4</v>
@@ -56356,7 +56389,7 @@
         <v>1</v>
       </c>
       <c r="AS287">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT287">
         <v>1.07</v>
@@ -56460,7 +56493,7 @@
         <v>246</v>
       </c>
       <c r="P288" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -56547,10 +56580,10 @@
         <v>1.18</v>
       </c>
       <c r="AS288">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT288">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU288">
         <v>1.27</v>
@@ -56842,7 +56875,7 @@
         <v>262</v>
       </c>
       <c r="P290" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="Q290">
         <v>6</v>
@@ -56929,10 +56962,10 @@
         <v>0.75</v>
       </c>
       <c r="AS290">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT290">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU290">
         <v>1.42</v>
@@ -57123,7 +57156,7 @@
         <v>2.4</v>
       </c>
       <c r="AT291">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU291">
         <v>1.61</v>
@@ -57224,7 +57257,7 @@
         <v>264</v>
       </c>
       <c r="P292" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="Q292">
         <v>9</v>
@@ -57311,10 +57344,10 @@
         <v>0.33</v>
       </c>
       <c r="AS292">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT292">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU292">
         <v>1.56</v>
@@ -57415,7 +57448,7 @@
         <v>265</v>
       </c>
       <c r="P293" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q293">
         <v>5</v>
@@ -57693,10 +57726,10 @@
         <v>1.73</v>
       </c>
       <c r="AS294">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT294">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU294">
         <v>1.27</v>
@@ -57887,7 +57920,7 @@
         <v>1.93</v>
       </c>
       <c r="AT295">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU295">
         <v>1.6</v>
@@ -58266,7 +58299,7 @@
         <v>1.55</v>
       </c>
       <c r="AS297">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT297">
         <v>1.46</v>
@@ -58648,7 +58681,7 @@
         <v>1</v>
       </c>
       <c r="AS299">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT299">
         <v>1</v>
@@ -58752,7 +58785,7 @@
         <v>269</v>
       </c>
       <c r="P300" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="Q300">
         <v>6</v>
@@ -58839,10 +58872,10 @@
         <v>0.54</v>
       </c>
       <c r="AS300">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT300">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU300">
         <v>1.29</v>
@@ -59033,7 +59066,7 @@
         <v>1.79</v>
       </c>
       <c r="AT301">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU301">
         <v>1.91</v>
@@ -59221,7 +59254,7 @@
         <v>1.45</v>
       </c>
       <c r="AS302">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT302">
         <v>1.46</v>
@@ -59412,7 +59445,7 @@
         <v>1.18</v>
       </c>
       <c r="AS303">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT303">
         <v>1.07</v>
@@ -59606,7 +59639,7 @@
         <v>1.67</v>
       </c>
       <c r="AT304">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU304">
         <v>1.47</v>
@@ -59794,10 +59827,10 @@
         <v>2</v>
       </c>
       <c r="AS305">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AT305">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU305">
         <v>1.69</v>
@@ -60089,7 +60122,7 @@
         <v>99</v>
       </c>
       <c r="P307" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q307">
         <v>8</v>
@@ -60179,7 +60212,7 @@
         <v>1.2</v>
       </c>
       <c r="AT307">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU307">
         <v>1.13</v>
@@ -60280,7 +60313,7 @@
         <v>276</v>
       </c>
       <c r="P308" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q308">
         <v>4</v>
@@ -60561,7 +60594,7 @@
         <v>1.2</v>
       </c>
       <c r="AT309">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU309">
         <v>1.16</v>
@@ -60752,7 +60785,7 @@
         <v>1.79</v>
       </c>
       <c r="AT310">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AU310">
         <v>1.86</v>
@@ -60853,7 +60886,7 @@
         <v>277</v>
       </c>
       <c r="P311" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q311">
         <v>4</v>
@@ -60940,10 +60973,10 @@
         <v>1.15</v>
       </c>
       <c r="AS311">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AT311">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AU311">
         <v>1.56</v>
@@ -61044,7 +61077,7 @@
         <v>99</v>
       </c>
       <c r="P312" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q312">
         <v>1</v>
@@ -61131,10 +61164,10 @@
         <v>1.46</v>
       </c>
       <c r="AS312">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AT312">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU312">
         <v>1.26</v>
@@ -61235,7 +61268,7 @@
         <v>278</v>
       </c>
       <c r="P313" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q313">
         <v>3</v>
@@ -61322,10 +61355,10 @@
         <v>1.77</v>
       </c>
       <c r="AS313">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT313">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AU313">
         <v>1.08</v>
@@ -61426,7 +61459,7 @@
         <v>279</v>
       </c>
       <c r="P314" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Q314">
         <v>7</v>
@@ -61513,10 +61546,10 @@
         <v>0.54</v>
       </c>
       <c r="AS314">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AT314">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="AU314">
         <v>1.7</v>
@@ -61704,10 +61737,10 @@
         <v>1.85</v>
       </c>
       <c r="AS315">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT315">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU315">
         <v>1.4</v>
@@ -61808,7 +61841,7 @@
         <v>99</v>
       </c>
       <c r="P316" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q316">
         <v>3</v>
@@ -61895,10 +61928,10 @@
         <v>1.69</v>
       </c>
       <c r="AS316">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="AT316">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AU316">
         <v>1.55</v>
@@ -61999,7 +62032,7 @@
         <v>280</v>
       </c>
       <c r="P317" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q317">
         <v>7</v>
@@ -62089,7 +62122,7 @@
         <v>1</v>
       </c>
       <c r="AT317">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AU317">
         <v>1.44</v>
@@ -62277,10 +62310,10 @@
         <v>1.33</v>
       </c>
       <c r="AS318">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="AT318">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU318">
         <v>1.29</v>
@@ -62381,7 +62414,7 @@
         <v>99</v>
       </c>
       <c r="P319" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q319">
         <v>7</v>
@@ -62468,10 +62501,10 @@
         <v>0.71</v>
       </c>
       <c r="AS319">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT319">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="AU319">
         <v>1.58</v>
@@ -62853,7 +62886,7 @@
         <v>1.25</v>
       </c>
       <c r="AT321">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU321">
         <v>1.21</v>
@@ -63336,7 +63369,7 @@
         <v>283</v>
       </c>
       <c r="P324" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="Q324">
         <v>3</v>
@@ -64291,7 +64324,7 @@
         <v>135</v>
       </c>
       <c r="P329" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q329">
         <v>8</v>
@@ -64482,7 +64515,7 @@
         <v>99</v>
       </c>
       <c r="P330" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q330">
         <v>8</v>
@@ -65055,7 +65088,7 @@
         <v>284</v>
       </c>
       <c r="P333" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q333">
         <v>4</v>
@@ -65628,7 +65661,7 @@
         <v>99</v>
       </c>
       <c r="P336" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q336">
         <v>4</v>
@@ -65718,7 +65751,7 @@
         <v>1.25</v>
       </c>
       <c r="AT336">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AU336">
         <v>1.22</v>
@@ -65769,6 +65802,2298 @@
         <v>5</v>
       </c>
       <c r="BK336">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:63">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>2581019</v>
+      </c>
+      <c r="C337" t="s">
+        <v>63</v>
+      </c>
+      <c r="D337" t="s">
+        <v>64</v>
+      </c>
+      <c r="E337" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F337">
+        <v>31</v>
+      </c>
+      <c r="G337" t="s">
+        <v>87</v>
+      </c>
+      <c r="H337" t="s">
+        <v>80</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+      <c r="L337">
+        <v>0</v>
+      </c>
+      <c r="M337">
+        <v>1</v>
+      </c>
+      <c r="N337">
+        <v>1</v>
+      </c>
+      <c r="O337" t="s">
+        <v>99</v>
+      </c>
+      <c r="P337" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q337">
+        <v>7</v>
+      </c>
+      <c r="R337">
+        <v>5</v>
+      </c>
+      <c r="S337">
+        <v>12</v>
+      </c>
+      <c r="T337">
+        <v>3</v>
+      </c>
+      <c r="U337">
+        <v>2</v>
+      </c>
+      <c r="V337">
+        <v>4</v>
+      </c>
+      <c r="W337">
+        <v>1.48</v>
+      </c>
+      <c r="X337">
+        <v>2.45</v>
+      </c>
+      <c r="Y337">
+        <v>3.35</v>
+      </c>
+      <c r="Z337">
+        <v>1.29</v>
+      </c>
+      <c r="AA337">
+        <v>9.4</v>
+      </c>
+      <c r="AB337">
+        <v>1.03</v>
+      </c>
+      <c r="AC337">
+        <v>2.15</v>
+      </c>
+      <c r="AD337">
+        <v>3.2</v>
+      </c>
+      <c r="AE337">
+        <v>3.4</v>
+      </c>
+      <c r="AF337">
+        <v>1.08</v>
+      </c>
+      <c r="AG337">
+        <v>8</v>
+      </c>
+      <c r="AH337">
+        <v>1.44</v>
+      </c>
+      <c r="AI337">
+        <v>2.75</v>
+      </c>
+      <c r="AJ337">
+        <v>2.3</v>
+      </c>
+      <c r="AK337">
+        <v>1.57</v>
+      </c>
+      <c r="AL337">
+        <v>2</v>
+      </c>
+      <c r="AM337">
+        <v>1.78</v>
+      </c>
+      <c r="AN337">
+        <v>1.35</v>
+      </c>
+      <c r="AO337">
+        <v>1.3</v>
+      </c>
+      <c r="AP337">
+        <v>1.63</v>
+      </c>
+      <c r="AQ337">
+        <v>1.79</v>
+      </c>
+      <c r="AR337">
+        <v>1.08</v>
+      </c>
+      <c r="AS337">
+        <v>1.67</v>
+      </c>
+      <c r="AT337">
+        <v>1.21</v>
+      </c>
+      <c r="AU337">
+        <v>1.51</v>
+      </c>
+      <c r="AV337">
+        <v>1.22</v>
+      </c>
+      <c r="AW337">
+        <v>2.73</v>
+      </c>
+      <c r="AX337">
+        <v>1.69</v>
+      </c>
+      <c r="AY337">
+        <v>8</v>
+      </c>
+      <c r="AZ337">
+        <v>2.63</v>
+      </c>
+      <c r="BA337">
+        <v>1.3</v>
+      </c>
+      <c r="BB337">
+        <v>1.57</v>
+      </c>
+      <c r="BC337">
+        <v>2</v>
+      </c>
+      <c r="BD337">
+        <v>2.7</v>
+      </c>
+      <c r="BE337">
+        <v>3.75</v>
+      </c>
+      <c r="BF337">
+        <v>4</v>
+      </c>
+      <c r="BG337">
+        <v>4</v>
+      </c>
+      <c r="BH337">
+        <v>4</v>
+      </c>
+      <c r="BI337">
+        <v>11</v>
+      </c>
+      <c r="BJ337">
+        <v>8</v>
+      </c>
+      <c r="BK337">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338" spans="1:63">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>2581028</v>
+      </c>
+      <c r="C338" t="s">
+        <v>63</v>
+      </c>
+      <c r="D338" t="s">
+        <v>64</v>
+      </c>
+      <c r="E338" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F338">
+        <v>31</v>
+      </c>
+      <c r="G338" t="s">
+        <v>67</v>
+      </c>
+      <c r="H338" t="s">
+        <v>69</v>
+      </c>
+      <c r="I338">
+        <v>1</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>1</v>
+      </c>
+      <c r="L338">
+        <v>1</v>
+      </c>
+      <c r="M338">
+        <v>0</v>
+      </c>
+      <c r="N338">
+        <v>1</v>
+      </c>
+      <c r="O338" t="s">
+        <v>286</v>
+      </c>
+      <c r="P338" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q338">
+        <v>7</v>
+      </c>
+      <c r="R338">
+        <v>5</v>
+      </c>
+      <c r="S338">
+        <v>12</v>
+      </c>
+      <c r="T338">
+        <v>3</v>
+      </c>
+      <c r="U338">
+        <v>2</v>
+      </c>
+      <c r="V338">
+        <v>4</v>
+      </c>
+      <c r="W338">
+        <v>1.5</v>
+      </c>
+      <c r="X338">
+        <v>2.4</v>
+      </c>
+      <c r="Y338">
+        <v>3.45</v>
+      </c>
+      <c r="Z338">
+        <v>1.27</v>
+      </c>
+      <c r="AA338">
+        <v>9.4</v>
+      </c>
+      <c r="AB338">
+        <v>1.03</v>
+      </c>
+      <c r="AC338">
+        <v>2.25</v>
+      </c>
+      <c r="AD338">
+        <v>2.88</v>
+      </c>
+      <c r="AE338">
+        <v>3.6</v>
+      </c>
+      <c r="AF338">
+        <v>1.09</v>
+      </c>
+      <c r="AG338">
+        <v>8</v>
+      </c>
+      <c r="AH338">
+        <v>1.47</v>
+      </c>
+      <c r="AI338">
+        <v>2.7</v>
+      </c>
+      <c r="AJ338">
+        <v>2.2</v>
+      </c>
+      <c r="AK338">
+        <v>1.62</v>
+      </c>
+      <c r="AL338">
+        <v>2.05</v>
+      </c>
+      <c r="AM338">
+        <v>1.75</v>
+      </c>
+      <c r="AN338">
+        <v>1.35</v>
+      </c>
+      <c r="AO338">
+        <v>1.3</v>
+      </c>
+      <c r="AP338">
+        <v>1.63</v>
+      </c>
+      <c r="AQ338">
+        <v>1.57</v>
+      </c>
+      <c r="AR338">
+        <v>1.64</v>
+      </c>
+      <c r="AS338">
+        <v>1.67</v>
+      </c>
+      <c r="AT338">
+        <v>1.53</v>
+      </c>
+      <c r="AU338">
+        <v>1.39</v>
+      </c>
+      <c r="AV338">
+        <v>1.46</v>
+      </c>
+      <c r="AW338">
+        <v>2.85</v>
+      </c>
+      <c r="AX338">
+        <v>1.69</v>
+      </c>
+      <c r="AY338">
+        <v>8</v>
+      </c>
+      <c r="AZ338">
+        <v>2.63</v>
+      </c>
+      <c r="BA338">
+        <v>1.24</v>
+      </c>
+      <c r="BB338">
+        <v>1.46</v>
+      </c>
+      <c r="BC338">
+        <v>1.88</v>
+      </c>
+      <c r="BD338">
+        <v>2.4</v>
+      </c>
+      <c r="BE338">
+        <v>3.3</v>
+      </c>
+      <c r="BF338">
+        <v>8</v>
+      </c>
+      <c r="BG338">
+        <v>0</v>
+      </c>
+      <c r="BH338">
+        <v>6</v>
+      </c>
+      <c r="BI338">
+        <v>12</v>
+      </c>
+      <c r="BJ338">
+        <v>14</v>
+      </c>
+      <c r="BK338">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:63">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>2581029</v>
+      </c>
+      <c r="C339" t="s">
+        <v>63</v>
+      </c>
+      <c r="D339" t="s">
+        <v>64</v>
+      </c>
+      <c r="E339" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F339">
+        <v>31</v>
+      </c>
+      <c r="G339" t="s">
+        <v>66</v>
+      </c>
+      <c r="H339" t="s">
+        <v>72</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>1</v>
+      </c>
+      <c r="L339">
+        <v>1</v>
+      </c>
+      <c r="M339">
+        <v>1</v>
+      </c>
+      <c r="N339">
+        <v>2</v>
+      </c>
+      <c r="O339" t="s">
+        <v>287</v>
+      </c>
+      <c r="P339" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q339">
+        <v>4</v>
+      </c>
+      <c r="R339">
+        <v>4</v>
+      </c>
+      <c r="S339">
+        <v>8</v>
+      </c>
+      <c r="T339">
+        <v>3.2</v>
+      </c>
+      <c r="U339">
+        <v>1.9</v>
+      </c>
+      <c r="V339">
+        <v>4.06</v>
+      </c>
+      <c r="W339">
+        <v>1.56</v>
+      </c>
+      <c r="X339">
+        <v>2.3</v>
+      </c>
+      <c r="Y339">
+        <v>3.7</v>
+      </c>
+      <c r="Z339">
+        <v>1.24</v>
+      </c>
+      <c r="AA339">
+        <v>10.5</v>
+      </c>
+      <c r="AB339">
+        <v>1.02</v>
+      </c>
+      <c r="AC339">
+        <v>2.45</v>
+      </c>
+      <c r="AD339">
+        <v>2.8</v>
+      </c>
+      <c r="AE339">
+        <v>3.3</v>
+      </c>
+      <c r="AF339">
+        <v>1.11</v>
+      </c>
+      <c r="AG339">
+        <v>7</v>
+      </c>
+      <c r="AH339">
+        <v>1.47</v>
+      </c>
+      <c r="AI339">
+        <v>2.5</v>
+      </c>
+      <c r="AJ339">
+        <v>2.48</v>
+      </c>
+      <c r="AK339">
+        <v>1.48</v>
+      </c>
+      <c r="AL339">
+        <v>2.14</v>
+      </c>
+      <c r="AM339">
+        <v>1.67</v>
+      </c>
+      <c r="AN339">
+        <v>1.36</v>
+      </c>
+      <c r="AO339">
+        <v>1.37</v>
+      </c>
+      <c r="AP339">
+        <v>1.55</v>
+      </c>
+      <c r="AQ339">
+        <v>1.92</v>
+      </c>
+      <c r="AR339">
+        <v>1.8</v>
+      </c>
+      <c r="AS339">
+        <v>1.85</v>
+      </c>
+      <c r="AT339">
+        <v>1.75</v>
+      </c>
+      <c r="AU339">
+        <v>1.59</v>
+      </c>
+      <c r="AV339">
+        <v>1.29</v>
+      </c>
+      <c r="AW339">
+        <v>2.88</v>
+      </c>
+      <c r="AX339">
+        <v>1.74</v>
+      </c>
+      <c r="AY339">
+        <v>7.7</v>
+      </c>
+      <c r="AZ339">
+        <v>2.63</v>
+      </c>
+      <c r="BA339">
+        <v>1.32</v>
+      </c>
+      <c r="BB339">
+        <v>1.6</v>
+      </c>
+      <c r="BC339">
+        <v>2.05</v>
+      </c>
+      <c r="BD339">
+        <v>2.8</v>
+      </c>
+      <c r="BE339">
+        <v>4</v>
+      </c>
+      <c r="BF339">
+        <v>3</v>
+      </c>
+      <c r="BG339">
+        <v>7</v>
+      </c>
+      <c r="BH339">
+        <v>5</v>
+      </c>
+      <c r="BI339">
+        <v>9</v>
+      </c>
+      <c r="BJ339">
+        <v>8</v>
+      </c>
+      <c r="BK339">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340" spans="1:63">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>2581025</v>
+      </c>
+      <c r="C340" t="s">
+        <v>63</v>
+      </c>
+      <c r="D340" t="s">
+        <v>64</v>
+      </c>
+      <c r="E340" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F340">
+        <v>31</v>
+      </c>
+      <c r="G340" t="s">
+        <v>70</v>
+      </c>
+      <c r="H340" t="s">
+        <v>76</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
+      <c r="L340">
+        <v>1</v>
+      </c>
+      <c r="M340">
+        <v>1</v>
+      </c>
+      <c r="N340">
+        <v>2</v>
+      </c>
+      <c r="O340" t="s">
+        <v>227</v>
+      </c>
+      <c r="P340" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q340">
+        <v>4</v>
+      </c>
+      <c r="R340">
+        <v>4</v>
+      </c>
+      <c r="S340">
+        <v>8</v>
+      </c>
+      <c r="T340">
+        <v>4.33</v>
+      </c>
+      <c r="U340">
+        <v>2.05</v>
+      </c>
+      <c r="V340">
+        <v>2.8</v>
+      </c>
+      <c r="W340">
+        <v>1.45</v>
+      </c>
+      <c r="X340">
+        <v>2.6</v>
+      </c>
+      <c r="Y340">
+        <v>3.2</v>
+      </c>
+      <c r="Z340">
+        <v>1.31</v>
+      </c>
+      <c r="AA340">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB340">
+        <v>1.04</v>
+      </c>
+      <c r="AC340">
+        <v>3.7</v>
+      </c>
+      <c r="AD340">
+        <v>3.25</v>
+      </c>
+      <c r="AE340">
+        <v>2.05</v>
+      </c>
+      <c r="AF340">
+        <v>1.07</v>
+      </c>
+      <c r="AG340">
+        <v>9</v>
+      </c>
+      <c r="AH340">
+        <v>1.4</v>
+      </c>
+      <c r="AI340">
+        <v>2.95</v>
+      </c>
+      <c r="AJ340">
+        <v>2.2</v>
+      </c>
+      <c r="AK340">
+        <v>1.62</v>
+      </c>
+      <c r="AL340">
+        <v>1.95</v>
+      </c>
+      <c r="AM340">
+        <v>1.83</v>
+      </c>
+      <c r="AN340">
+        <v>1.78</v>
+      </c>
+      <c r="AO340">
+        <v>1.25</v>
+      </c>
+      <c r="AP340">
+        <v>1.28</v>
+      </c>
+      <c r="AQ340">
+        <v>0.57</v>
+      </c>
+      <c r="AR340">
+        <v>1.79</v>
+      </c>
+      <c r="AS340">
+        <v>0.6</v>
+      </c>
+      <c r="AT340">
+        <v>1.73</v>
+      </c>
+      <c r="AU340">
+        <v>1.26</v>
+      </c>
+      <c r="AV340">
+        <v>1.37</v>
+      </c>
+      <c r="AW340">
+        <v>2.63</v>
+      </c>
+      <c r="AX340">
+        <v>2.28</v>
+      </c>
+      <c r="AY340">
+        <v>8</v>
+      </c>
+      <c r="AZ340">
+        <v>1.85</v>
+      </c>
+      <c r="BA340">
+        <v>1.26</v>
+      </c>
+      <c r="BB340">
+        <v>1.49</v>
+      </c>
+      <c r="BC340">
+        <v>1.98</v>
+      </c>
+      <c r="BD340">
+        <v>2.45</v>
+      </c>
+      <c r="BE340">
+        <v>3.5</v>
+      </c>
+      <c r="BF340">
+        <v>3</v>
+      </c>
+      <c r="BG340">
+        <v>6</v>
+      </c>
+      <c r="BH340">
+        <v>9</v>
+      </c>
+      <c r="BI340">
+        <v>7</v>
+      </c>
+      <c r="BJ340">
+        <v>12</v>
+      </c>
+      <c r="BK340">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341" spans="1:63">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>2581024</v>
+      </c>
+      <c r="C341" t="s">
+        <v>63</v>
+      </c>
+      <c r="D341" t="s">
+        <v>64</v>
+      </c>
+      <c r="E341" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F341">
+        <v>31</v>
+      </c>
+      <c r="G341" t="s">
+        <v>81</v>
+      </c>
+      <c r="H341" t="s">
+        <v>88</v>
+      </c>
+      <c r="I341">
+        <v>2</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>2</v>
+      </c>
+      <c r="L341">
+        <v>2</v>
+      </c>
+      <c r="M341">
+        <v>0</v>
+      </c>
+      <c r="N341">
+        <v>2</v>
+      </c>
+      <c r="O341" t="s">
+        <v>288</v>
+      </c>
+      <c r="P341" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q341">
+        <v>5</v>
+      </c>
+      <c r="R341">
+        <v>5</v>
+      </c>
+      <c r="S341">
+        <v>10</v>
+      </c>
+      <c r="T341">
+        <v>2.4</v>
+      </c>
+      <c r="U341">
+        <v>2.1</v>
+      </c>
+      <c r="V341">
+        <v>5.5</v>
+      </c>
+      <c r="W341">
+        <v>1.44</v>
+      </c>
+      <c r="X341">
+        <v>2.6</v>
+      </c>
+      <c r="Y341">
+        <v>3.15</v>
+      </c>
+      <c r="Z341">
+        <v>1.32</v>
+      </c>
+      <c r="AA341">
+        <v>8.35</v>
+      </c>
+      <c r="AB341">
+        <v>1.05</v>
+      </c>
+      <c r="AC341">
+        <v>1.57</v>
+      </c>
+      <c r="AD341">
+        <v>3.9</v>
+      </c>
+      <c r="AE341">
+        <v>5.5</v>
+      </c>
+      <c r="AF341">
+        <v>1.06</v>
+      </c>
+      <c r="AG341">
+        <v>9</v>
+      </c>
+      <c r="AH341">
+        <v>1.38</v>
+      </c>
+      <c r="AI341">
+        <v>3</v>
+      </c>
+      <c r="AJ341">
+        <v>2.3</v>
+      </c>
+      <c r="AK341">
+        <v>1.57</v>
+      </c>
+      <c r="AL341">
+        <v>2.05</v>
+      </c>
+      <c r="AM341">
+        <v>1.72</v>
+      </c>
+      <c r="AN341">
+        <v>1.17</v>
+      </c>
+      <c r="AO341">
+        <v>1.22</v>
+      </c>
+      <c r="AP341">
+        <v>2.15</v>
+      </c>
+      <c r="AQ341">
+        <v>1.64</v>
+      </c>
+      <c r="AR341">
+        <v>0.57</v>
+      </c>
+      <c r="AS341">
+        <v>1.73</v>
+      </c>
+      <c r="AT341">
+        <v>0.53</v>
+      </c>
+      <c r="AU341">
+        <v>1.56</v>
+      </c>
+      <c r="AV341">
+        <v>1.05</v>
+      </c>
+      <c r="AW341">
+        <v>2.61</v>
+      </c>
+      <c r="AX341">
+        <v>1.31</v>
+      </c>
+      <c r="AY341">
+        <v>9.5</v>
+      </c>
+      <c r="AZ341">
+        <v>4.4</v>
+      </c>
+      <c r="BA341">
+        <v>1.34</v>
+      </c>
+      <c r="BB341">
+        <v>1.63</v>
+      </c>
+      <c r="BC341">
+        <v>2.1</v>
+      </c>
+      <c r="BD341">
+        <v>2.85</v>
+      </c>
+      <c r="BE341">
+        <v>4</v>
+      </c>
+      <c r="BF341">
+        <v>8</v>
+      </c>
+      <c r="BG341">
+        <v>0</v>
+      </c>
+      <c r="BH341">
+        <v>11</v>
+      </c>
+      <c r="BI341">
+        <v>9</v>
+      </c>
+      <c r="BJ341">
+        <v>19</v>
+      </c>
+      <c r="BK341">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:63">
+      <c r="A342" s="1">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>2581018</v>
+      </c>
+      <c r="C342" t="s">
+        <v>63</v>
+      </c>
+      <c r="D342" t="s">
+        <v>64</v>
+      </c>
+      <c r="E342" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F342">
+        <v>31</v>
+      </c>
+      <c r="G342" t="s">
+        <v>65</v>
+      </c>
+      <c r="H342" t="s">
+        <v>74</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+      <c r="L342">
+        <v>0</v>
+      </c>
+      <c r="M342">
+        <v>0</v>
+      </c>
+      <c r="N342">
+        <v>0</v>
+      </c>
+      <c r="O342" t="s">
+        <v>99</v>
+      </c>
+      <c r="P342" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q342">
+        <v>2</v>
+      </c>
+      <c r="R342">
+        <v>7</v>
+      </c>
+      <c r="S342">
+        <v>9</v>
+      </c>
+      <c r="T342">
+        <v>3.6</v>
+      </c>
+      <c r="U342">
+        <v>2</v>
+      </c>
+      <c r="V342">
+        <v>3.3</v>
+      </c>
+      <c r="W342">
+        <v>1.46</v>
+      </c>
+      <c r="X342">
+        <v>2.55</v>
+      </c>
+      <c r="Y342">
+        <v>3.25</v>
+      </c>
+      <c r="Z342">
+        <v>1.3</v>
+      </c>
+      <c r="AA342">
+        <v>8.9</v>
+      </c>
+      <c r="AB342">
+        <v>1.04</v>
+      </c>
+      <c r="AC342">
+        <v>3</v>
+      </c>
+      <c r="AD342">
+        <v>3.1</v>
+      </c>
+      <c r="AE342">
+        <v>2.4</v>
+      </c>
+      <c r="AF342">
+        <v>1.07</v>
+      </c>
+      <c r="AG342">
+        <v>9</v>
+      </c>
+      <c r="AH342">
+        <v>1.42</v>
+      </c>
+      <c r="AI342">
+        <v>2.85</v>
+      </c>
+      <c r="AJ342">
+        <v>2.25</v>
+      </c>
+      <c r="AK342">
+        <v>1.6</v>
+      </c>
+      <c r="AL342">
+        <v>1.95</v>
+      </c>
+      <c r="AM342">
+        <v>1.83</v>
+      </c>
+      <c r="AN342">
+        <v>1.53</v>
+      </c>
+      <c r="AO342">
+        <v>1.28</v>
+      </c>
+      <c r="AP342">
+        <v>1.44</v>
+      </c>
+      <c r="AQ342">
+        <v>1.69</v>
+      </c>
+      <c r="AR342">
+        <v>1.57</v>
+      </c>
+      <c r="AS342">
+        <v>1.64</v>
+      </c>
+      <c r="AT342">
+        <v>1.53</v>
+      </c>
+      <c r="AU342">
+        <v>1.28</v>
+      </c>
+      <c r="AV342">
+        <v>1.32</v>
+      </c>
+      <c r="AW342">
+        <v>2.6</v>
+      </c>
+      <c r="AX342">
+        <v>2.44</v>
+      </c>
+      <c r="AY342">
+        <v>8</v>
+      </c>
+      <c r="AZ342">
+        <v>1.75</v>
+      </c>
+      <c r="BA342">
+        <v>1.21</v>
+      </c>
+      <c r="BB342">
+        <v>1.4</v>
+      </c>
+      <c r="BC342">
+        <v>1.72</v>
+      </c>
+      <c r="BD342">
+        <v>2.2</v>
+      </c>
+      <c r="BE342">
+        <v>3</v>
+      </c>
+      <c r="BF342">
+        <v>0</v>
+      </c>
+      <c r="BG342">
+        <v>5</v>
+      </c>
+      <c r="BH342">
+        <v>10</v>
+      </c>
+      <c r="BI342">
+        <v>9</v>
+      </c>
+      <c r="BJ342">
+        <v>10</v>
+      </c>
+      <c r="BK342">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343" spans="1:63">
+      <c r="A343" s="1">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>2581023</v>
+      </c>
+      <c r="C343" t="s">
+        <v>63</v>
+      </c>
+      <c r="D343" t="s">
+        <v>64</v>
+      </c>
+      <c r="E343" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F343">
+        <v>31</v>
+      </c>
+      <c r="G343" t="s">
+        <v>77</v>
+      </c>
+      <c r="H343" t="s">
+        <v>68</v>
+      </c>
+      <c r="I343">
+        <v>2</v>
+      </c>
+      <c r="J343">
+        <v>2</v>
+      </c>
+      <c r="K343">
+        <v>4</v>
+      </c>
+      <c r="L343">
+        <v>2</v>
+      </c>
+      <c r="M343">
+        <v>2</v>
+      </c>
+      <c r="N343">
+        <v>4</v>
+      </c>
+      <c r="O343" t="s">
+        <v>289</v>
+      </c>
+      <c r="P343" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q343">
+        <v>3</v>
+      </c>
+      <c r="R343">
+        <v>7</v>
+      </c>
+      <c r="S343">
+        <v>10</v>
+      </c>
+      <c r="T343">
+        <v>3.92</v>
+      </c>
+      <c r="U343">
+        <v>2.04</v>
+      </c>
+      <c r="V343">
+        <v>2.88</v>
+      </c>
+      <c r="W343">
+        <v>1.44</v>
+      </c>
+      <c r="X343">
+        <v>2.6</v>
+      </c>
+      <c r="Y343">
+        <v>3.05</v>
+      </c>
+      <c r="Z343">
+        <v>1.33</v>
+      </c>
+      <c r="AA343">
+        <v>7.9</v>
+      </c>
+      <c r="AB343">
+        <v>1.05</v>
+      </c>
+      <c r="AC343">
+        <v>3.2</v>
+      </c>
+      <c r="AD343">
+        <v>3.3</v>
+      </c>
+      <c r="AE343">
+        <v>2.25</v>
+      </c>
+      <c r="AF343">
+        <v>1.07</v>
+      </c>
+      <c r="AG343">
+        <v>9</v>
+      </c>
+      <c r="AH343">
+        <v>1.38</v>
+      </c>
+      <c r="AI343">
+        <v>3</v>
+      </c>
+      <c r="AJ343">
+        <v>2.1</v>
+      </c>
+      <c r="AK343">
+        <v>1.67</v>
+      </c>
+      <c r="AL343">
+        <v>1.88</v>
+      </c>
+      <c r="AM343">
+        <v>1.86</v>
+      </c>
+      <c r="AN343">
+        <v>1.64</v>
+      </c>
+      <c r="AO343">
+        <v>1.33</v>
+      </c>
+      <c r="AP343">
+        <v>1.34</v>
+      </c>
+      <c r="AQ343">
+        <v>1</v>
+      </c>
+      <c r="AR343">
+        <v>0.87</v>
+      </c>
+      <c r="AS343">
+        <v>1</v>
+      </c>
+      <c r="AT343">
+        <v>0.88</v>
+      </c>
+      <c r="AU343">
+        <v>1.48</v>
+      </c>
+      <c r="AV343">
+        <v>1.24</v>
+      </c>
+      <c r="AW343">
+        <v>2.72</v>
+      </c>
+      <c r="AX343">
+        <v>1.95</v>
+      </c>
+      <c r="AY343">
+        <v>7.5</v>
+      </c>
+      <c r="AZ343">
+        <v>2.1</v>
+      </c>
+      <c r="BA343">
+        <v>1.29</v>
+      </c>
+      <c r="BB343">
+        <v>1.55</v>
+      </c>
+      <c r="BC343">
+        <v>1.95</v>
+      </c>
+      <c r="BD343">
+        <v>2.65</v>
+      </c>
+      <c r="BE343">
+        <v>3.75</v>
+      </c>
+      <c r="BF343">
+        <v>7</v>
+      </c>
+      <c r="BG343">
+        <v>12</v>
+      </c>
+      <c r="BH343">
+        <v>7</v>
+      </c>
+      <c r="BI343">
+        <v>9</v>
+      </c>
+      <c r="BJ343">
+        <v>14</v>
+      </c>
+      <c r="BK343">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="344" spans="1:63">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>2581026</v>
+      </c>
+      <c r="C344" t="s">
+        <v>63</v>
+      </c>
+      <c r="D344" t="s">
+        <v>64</v>
+      </c>
+      <c r="E344" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F344">
+        <v>31</v>
+      </c>
+      <c r="G344" t="s">
+        <v>79</v>
+      </c>
+      <c r="H344" t="s">
+        <v>75</v>
+      </c>
+      <c r="I344">
+        <v>1</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>1</v>
+      </c>
+      <c r="L344">
+        <v>2</v>
+      </c>
+      <c r="M344">
+        <v>3</v>
+      </c>
+      <c r="N344">
+        <v>5</v>
+      </c>
+      <c r="O344" t="s">
+        <v>290</v>
+      </c>
+      <c r="P344" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q344">
+        <v>7</v>
+      </c>
+      <c r="R344">
+        <v>3</v>
+      </c>
+      <c r="S344">
+        <v>10</v>
+      </c>
+      <c r="T344">
+        <v>2.35</v>
+      </c>
+      <c r="U344">
+        <v>2.11</v>
+      </c>
+      <c r="V344">
+        <v>5.2</v>
+      </c>
+      <c r="W344">
+        <v>1.42</v>
+      </c>
+      <c r="X344">
+        <v>2.65</v>
+      </c>
+      <c r="Y344">
+        <v>3.05</v>
+      </c>
+      <c r="Z344">
+        <v>1.33</v>
+      </c>
+      <c r="AA344">
+        <v>7.9</v>
+      </c>
+      <c r="AB344">
+        <v>1.05</v>
+      </c>
+      <c r="AC344">
+        <v>1.75</v>
+      </c>
+      <c r="AD344">
+        <v>3.6</v>
+      </c>
+      <c r="AE344">
+        <v>4.6</v>
+      </c>
+      <c r="AF344">
+        <v>1.06</v>
+      </c>
+      <c r="AG344">
+        <v>9.5</v>
+      </c>
+      <c r="AH344">
+        <v>1.36</v>
+      </c>
+      <c r="AI344">
+        <v>3.1</v>
+      </c>
+      <c r="AJ344">
+        <v>2.1</v>
+      </c>
+      <c r="AK344">
+        <v>1.67</v>
+      </c>
+      <c r="AL344">
+        <v>1.97</v>
+      </c>
+      <c r="AM344">
+        <v>1.78</v>
+      </c>
+      <c r="AN344">
+        <v>1.19</v>
+      </c>
+      <c r="AO344">
+        <v>1.29</v>
+      </c>
+      <c r="AP344">
+        <v>2.04</v>
+      </c>
+      <c r="AQ344">
+        <v>2.64</v>
+      </c>
+      <c r="AR344">
+        <v>1.62</v>
+      </c>
+      <c r="AS344">
+        <v>2.47</v>
+      </c>
+      <c r="AT344">
+        <v>1.71</v>
+      </c>
+      <c r="AU344">
+        <v>1.74</v>
+      </c>
+      <c r="AV344">
+        <v>1.12</v>
+      </c>
+      <c r="AW344">
+        <v>2.86</v>
+      </c>
+      <c r="AX344">
+        <v>1.37</v>
+      </c>
+      <c r="AY344">
+        <v>9</v>
+      </c>
+      <c r="AZ344">
+        <v>3.7</v>
+      </c>
+      <c r="BA344">
+        <v>1.21</v>
+      </c>
+      <c r="BB344">
+        <v>1.4</v>
+      </c>
+      <c r="BC344">
+        <v>1.72</v>
+      </c>
+      <c r="BD344">
+        <v>2.2</v>
+      </c>
+      <c r="BE344">
+        <v>3</v>
+      </c>
+      <c r="BF344">
+        <v>8</v>
+      </c>
+      <c r="BG344">
+        <v>4</v>
+      </c>
+      <c r="BH344">
+        <v>7</v>
+      </c>
+      <c r="BI344">
+        <v>3</v>
+      </c>
+      <c r="BJ344">
+        <v>15</v>
+      </c>
+      <c r="BK344">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:63">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>2581022</v>
+      </c>
+      <c r="C345" t="s">
+        <v>63</v>
+      </c>
+      <c r="D345" t="s">
+        <v>64</v>
+      </c>
+      <c r="E345" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F345">
+        <v>31</v>
+      </c>
+      <c r="G345" t="s">
+        <v>73</v>
+      </c>
+      <c r="H345" t="s">
+        <v>71</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>2</v>
+      </c>
+      <c r="K345">
+        <v>2</v>
+      </c>
+      <c r="L345">
+        <v>1</v>
+      </c>
+      <c r="M345">
+        <v>3</v>
+      </c>
+      <c r="N345">
+        <v>4</v>
+      </c>
+      <c r="O345" t="s">
+        <v>115</v>
+      </c>
+      <c r="P345" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q345">
+        <v>5</v>
+      </c>
+      <c r="R345">
+        <v>6</v>
+      </c>
+      <c r="S345">
+        <v>11</v>
+      </c>
+      <c r="T345">
+        <v>4.75</v>
+      </c>
+      <c r="U345">
+        <v>2.2</v>
+      </c>
+      <c r="V345">
+        <v>2.4</v>
+      </c>
+      <c r="W345">
+        <v>1.37</v>
+      </c>
+      <c r="X345">
+        <v>2.85</v>
+      </c>
+      <c r="Y345">
+        <v>2.8</v>
+      </c>
+      <c r="Z345">
+        <v>1.39</v>
+      </c>
+      <c r="AA345">
+        <v>6.95</v>
+      </c>
+      <c r="AB345">
+        <v>1.07</v>
+      </c>
+      <c r="AC345">
+        <v>4.75</v>
+      </c>
+      <c r="AD345">
+        <v>3.5</v>
+      </c>
+      <c r="AE345">
+        <v>1.73</v>
+      </c>
+      <c r="AF345">
+        <v>1.05</v>
+      </c>
+      <c r="AG345">
+        <v>11</v>
+      </c>
+      <c r="AH345">
+        <v>1.3</v>
+      </c>
+      <c r="AI345">
+        <v>3.5</v>
+      </c>
+      <c r="AJ345">
+        <v>2.05</v>
+      </c>
+      <c r="AK345">
+        <v>1.7</v>
+      </c>
+      <c r="AL345">
+        <v>1.83</v>
+      </c>
+      <c r="AM345">
+        <v>1.9</v>
+      </c>
+      <c r="AN345">
+        <v>2.05</v>
+      </c>
+      <c r="AO345">
+        <v>1.22</v>
+      </c>
+      <c r="AP345">
+        <v>1.2</v>
+      </c>
+      <c r="AQ345">
+        <v>1.14</v>
+      </c>
+      <c r="AR345">
+        <v>1.21</v>
+      </c>
+      <c r="AS345">
+        <v>1.07</v>
+      </c>
+      <c r="AT345">
+        <v>1.33</v>
+      </c>
+      <c r="AU345">
+        <v>1.55</v>
+      </c>
+      <c r="AV345">
+        <v>1.39</v>
+      </c>
+      <c r="AW345">
+        <v>2.94</v>
+      </c>
+      <c r="AX345">
+        <v>3.2</v>
+      </c>
+      <c r="AY345">
+        <v>8.5</v>
+      </c>
+      <c r="AZ345">
+        <v>1.45</v>
+      </c>
+      <c r="BA345">
+        <v>1.2</v>
+      </c>
+      <c r="BB345">
+        <v>1.39</v>
+      </c>
+      <c r="BC345">
+        <v>1.7</v>
+      </c>
+      <c r="BD345">
+        <v>2.2</v>
+      </c>
+      <c r="BE345">
+        <v>3</v>
+      </c>
+      <c r="BF345">
+        <v>2</v>
+      </c>
+      <c r="BG345">
+        <v>10</v>
+      </c>
+      <c r="BH345">
+        <v>4</v>
+      </c>
+      <c r="BI345">
+        <v>8</v>
+      </c>
+      <c r="BJ345">
+        <v>6</v>
+      </c>
+      <c r="BK345">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="346" spans="1:63">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>2581021</v>
+      </c>
+      <c r="C346" t="s">
+        <v>63</v>
+      </c>
+      <c r="D346" t="s">
+        <v>64</v>
+      </c>
+      <c r="E346" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F346">
+        <v>31</v>
+      </c>
+      <c r="G346" t="s">
+        <v>82</v>
+      </c>
+      <c r="H346" t="s">
+        <v>86</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>1</v>
+      </c>
+      <c r="K346">
+        <v>1</v>
+      </c>
+      <c r="L346">
+        <v>0</v>
+      </c>
+      <c r="M346">
+        <v>1</v>
+      </c>
+      <c r="N346">
+        <v>1</v>
+      </c>
+      <c r="O346" t="s">
+        <v>99</v>
+      </c>
+      <c r="P346" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q346">
+        <v>2</v>
+      </c>
+      <c r="R346">
+        <v>3</v>
+      </c>
+      <c r="S346">
+        <v>5</v>
+      </c>
+      <c r="T346">
+        <v>2.75</v>
+      </c>
+      <c r="U346">
+        <v>2.1</v>
+      </c>
+      <c r="V346">
+        <v>4.2</v>
+      </c>
+      <c r="W346">
+        <v>1.42</v>
+      </c>
+      <c r="X346">
+        <v>2.65</v>
+      </c>
+      <c r="Y346">
+        <v>2.95</v>
+      </c>
+      <c r="Z346">
+        <v>1.35</v>
+      </c>
+      <c r="AA346">
+        <v>7.85</v>
+      </c>
+      <c r="AB346">
+        <v>1.05</v>
+      </c>
+      <c r="AC346">
+        <v>2</v>
+      </c>
+      <c r="AD346">
+        <v>3.3</v>
+      </c>
+      <c r="AE346">
+        <v>3.8</v>
+      </c>
+      <c r="AF346">
+        <v>1.06</v>
+      </c>
+      <c r="AG346">
+        <v>10</v>
+      </c>
+      <c r="AH346">
+        <v>1.36</v>
+      </c>
+      <c r="AI346">
+        <v>3.2</v>
+      </c>
+      <c r="AJ346">
+        <v>2.1</v>
+      </c>
+      <c r="AK346">
+        <v>1.7</v>
+      </c>
+      <c r="AL346">
+        <v>1.87</v>
+      </c>
+      <c r="AM346">
+        <v>1.9</v>
+      </c>
+      <c r="AN346">
+        <v>1.28</v>
+      </c>
+      <c r="AO346">
+        <v>1.25</v>
+      </c>
+      <c r="AP346">
+        <v>1.78</v>
+      </c>
+      <c r="AQ346">
+        <v>1.17</v>
+      </c>
+      <c r="AR346">
+        <v>0.87</v>
+      </c>
+      <c r="AS346">
+        <v>1.08</v>
+      </c>
+      <c r="AT346">
+        <v>1</v>
+      </c>
+      <c r="AU346">
+        <v>1.66</v>
+      </c>
+      <c r="AV346">
+        <v>0.91</v>
+      </c>
+      <c r="AW346">
+        <v>2.57</v>
+      </c>
+      <c r="AX346">
+        <v>1.69</v>
+      </c>
+      <c r="AY346">
+        <v>8</v>
+      </c>
+      <c r="AZ346">
+        <v>2.54</v>
+      </c>
+      <c r="BA346">
+        <v>1.2</v>
+      </c>
+      <c r="BB346">
+        <v>1.39</v>
+      </c>
+      <c r="BC346">
+        <v>1.7</v>
+      </c>
+      <c r="BD346">
+        <v>2.2</v>
+      </c>
+      <c r="BE346">
+        <v>2.95</v>
+      </c>
+      <c r="BF346">
+        <v>2</v>
+      </c>
+      <c r="BG346">
+        <v>2</v>
+      </c>
+      <c r="BH346">
+        <v>10</v>
+      </c>
+      <c r="BI346">
+        <v>5</v>
+      </c>
+      <c r="BJ346">
+        <v>12</v>
+      </c>
+      <c r="BK346">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:63">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>2581027</v>
+      </c>
+      <c r="C347" t="s">
+        <v>63</v>
+      </c>
+      <c r="D347" t="s">
+        <v>64</v>
+      </c>
+      <c r="E347" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F347">
+        <v>31</v>
+      </c>
+      <c r="G347" t="s">
+        <v>78</v>
+      </c>
+      <c r="H347" t="s">
+        <v>84</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+      <c r="L347">
+        <v>0</v>
+      </c>
+      <c r="M347">
+        <v>2</v>
+      </c>
+      <c r="N347">
+        <v>2</v>
+      </c>
+      <c r="O347" t="s">
+        <v>99</v>
+      </c>
+      <c r="P347" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q347">
+        <v>5</v>
+      </c>
+      <c r="R347">
+        <v>5</v>
+      </c>
+      <c r="S347">
+        <v>10</v>
+      </c>
+      <c r="T347">
+        <v>2.8</v>
+      </c>
+      <c r="U347">
+        <v>2.1</v>
+      </c>
+      <c r="V347">
+        <v>4</v>
+      </c>
+      <c r="W347">
+        <v>1.42</v>
+      </c>
+      <c r="X347">
+        <v>2.65</v>
+      </c>
+      <c r="Y347">
+        <v>2.95</v>
+      </c>
+      <c r="Z347">
+        <v>1.35</v>
+      </c>
+      <c r="AA347">
+        <v>7.85</v>
+      </c>
+      <c r="AB347">
+        <v>1.05</v>
+      </c>
+      <c r="AC347">
+        <v>2.05</v>
+      </c>
+      <c r="AD347">
+        <v>3.25</v>
+      </c>
+      <c r="AE347">
+        <v>3.75</v>
+      </c>
+      <c r="AF347">
+        <v>1.06</v>
+      </c>
+      <c r="AG347">
+        <v>10</v>
+      </c>
+      <c r="AH347">
+        <v>1.36</v>
+      </c>
+      <c r="AI347">
+        <v>3.2</v>
+      </c>
+      <c r="AJ347">
+        <v>1.9</v>
+      </c>
+      <c r="AK347">
+        <v>1.83</v>
+      </c>
+      <c r="AL347">
+        <v>1.85</v>
+      </c>
+      <c r="AM347">
+        <v>1.9</v>
+      </c>
+      <c r="AN347">
+        <v>1.3</v>
+      </c>
+      <c r="AO347">
+        <v>1.25</v>
+      </c>
+      <c r="AP347">
+        <v>1.75</v>
+      </c>
+      <c r="AQ347">
+        <v>1.64</v>
+      </c>
+      <c r="AR347">
+        <v>1.07</v>
+      </c>
+      <c r="AS347">
+        <v>1.53</v>
+      </c>
+      <c r="AT347">
+        <v>1.2</v>
+      </c>
+      <c r="AU347">
+        <v>1.73</v>
+      </c>
+      <c r="AV347">
+        <v>1.16</v>
+      </c>
+      <c r="AW347">
+        <v>2.89</v>
+      </c>
+      <c r="AX347">
+        <v>1.64</v>
+      </c>
+      <c r="AY347">
+        <v>8</v>
+      </c>
+      <c r="AZ347">
+        <v>2.67</v>
+      </c>
+      <c r="BA347">
+        <v>1.22</v>
+      </c>
+      <c r="BB347">
+        <v>1.43</v>
+      </c>
+      <c r="BC347">
+        <v>1.83</v>
+      </c>
+      <c r="BD347">
+        <v>2.3</v>
+      </c>
+      <c r="BE347">
+        <v>3.2</v>
+      </c>
+      <c r="BF347">
+        <v>2</v>
+      </c>
+      <c r="BG347">
+        <v>6</v>
+      </c>
+      <c r="BH347">
+        <v>8</v>
+      </c>
+      <c r="BI347">
+        <v>5</v>
+      </c>
+      <c r="BJ347">
+        <v>10</v>
+      </c>
+      <c r="BK347">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="348" spans="1:63">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>2581020</v>
+      </c>
+      <c r="C348" t="s">
+        <v>63</v>
+      </c>
+      <c r="D348" t="s">
+        <v>64</v>
+      </c>
+      <c r="E348" s="2">
+        <v>44968.5</v>
+      </c>
+      <c r="F348">
+        <v>31</v>
+      </c>
+      <c r="G348" t="s">
+        <v>83</v>
+      </c>
+      <c r="H348" t="s">
+        <v>85</v>
+      </c>
+      <c r="I348">
+        <v>1</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>1</v>
+      </c>
+      <c r="L348">
+        <v>2</v>
+      </c>
+      <c r="M348">
+        <v>2</v>
+      </c>
+      <c r="N348">
+        <v>4</v>
+      </c>
+      <c r="O348" t="s">
+        <v>291</v>
+      </c>
+      <c r="P348" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q348">
+        <v>7</v>
+      </c>
+      <c r="R348">
+        <v>3</v>
+      </c>
+      <c r="S348">
+        <v>10</v>
+      </c>
+      <c r="T348">
+        <v>3.1</v>
+      </c>
+      <c r="U348">
+        <v>2.05</v>
+      </c>
+      <c r="V348">
+        <v>3.75</v>
+      </c>
+      <c r="W348">
+        <v>1.42</v>
+      </c>
+      <c r="X348">
+        <v>2.65</v>
+      </c>
+      <c r="Y348">
+        <v>3.05</v>
+      </c>
+      <c r="Z348">
+        <v>1.34</v>
+      </c>
+      <c r="AA348">
+        <v>7.9</v>
+      </c>
+      <c r="AB348">
+        <v>1.05</v>
+      </c>
+      <c r="AC348">
+        <v>2.4</v>
+      </c>
+      <c r="AD348">
+        <v>3.2</v>
+      </c>
+      <c r="AE348">
+        <v>3</v>
+      </c>
+      <c r="AF348">
+        <v>1.06</v>
+      </c>
+      <c r="AG348">
+        <v>9.5</v>
+      </c>
+      <c r="AH348">
+        <v>1.36</v>
+      </c>
+      <c r="AI348">
+        <v>3.1</v>
+      </c>
+      <c r="AJ348">
+        <v>1.95</v>
+      </c>
+      <c r="AK348">
+        <v>1.78</v>
+      </c>
+      <c r="AL348">
+        <v>1.85</v>
+      </c>
+      <c r="AM348">
+        <v>1.9</v>
+      </c>
+      <c r="AN348">
+        <v>1.4</v>
+      </c>
+      <c r="AO348">
+        <v>1.28</v>
+      </c>
+      <c r="AP348">
+        <v>1.57</v>
+      </c>
+      <c r="AQ348">
+        <v>1.46</v>
+      </c>
+      <c r="AR348">
+        <v>1</v>
+      </c>
+      <c r="AS348">
+        <v>1.43</v>
+      </c>
+      <c r="AT348">
+        <v>1</v>
+      </c>
+      <c r="AU348">
+        <v>1.13</v>
+      </c>
+      <c r="AV348">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW348">
+        <v>2.07</v>
+      </c>
+      <c r="AX348">
+        <v>1.85</v>
+      </c>
+      <c r="AY348">
+        <v>8</v>
+      </c>
+      <c r="AZ348">
+        <v>2.28</v>
+      </c>
+      <c r="BA348">
+        <v>1.24</v>
+      </c>
+      <c r="BB348">
+        <v>1.46</v>
+      </c>
+      <c r="BC348">
+        <v>1.85</v>
+      </c>
+      <c r="BD348">
+        <v>2.4</v>
+      </c>
+      <c r="BE348">
+        <v>3.3</v>
+      </c>
+      <c r="BF348">
+        <v>5</v>
+      </c>
+      <c r="BG348">
+        <v>5</v>
+      </c>
+      <c r="BH348">
+        <v>9</v>
+      </c>
+      <c r="BI348">
+        <v>2</v>
+      </c>
+      <c r="BJ348">
+        <v>14</v>
+      </c>
+      <c r="BK348">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="448">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -937,6 +937,24 @@
     <t>['85']</t>
   </si>
   <si>
+    <t>['50', '84']</t>
+  </si>
+  <si>
+    <t>['58', '66']</t>
+  </si>
+  <si>
+    <t>['56', '90+1', '90+2']</t>
+  </si>
+  <si>
+    <t>['8', '40', '78']</t>
+  </si>
+  <si>
+    <t>['46', '52']</t>
+  </si>
+  <si>
+    <t>['36', '88']</t>
+  </si>
+  <si>
     <t>['40', '84']</t>
   </si>
   <si>
@@ -1323,6 +1341,24 @@
   <si>
     <t>['56', '58']</t>
   </si>
+  <si>
+    <t>['15', '20', '26', '38', '57']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['9', '65']</t>
+  </si>
+  <si>
+    <t>['33', '49', '72']</t>
+  </si>
+  <si>
+    <t>['25', '68']</t>
+  </si>
+  <si>
+    <t>['18', '21', '50', '56', '81']</t>
+  </si>
 </sst>
 </file>
 
@@ -1683,7 +1719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK376"/>
+  <dimension ref="A1:BK388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2309,7 +2345,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2882,7 +2918,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3073,7 +3109,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -4028,7 +4064,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4309,7 +4345,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT14">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4497,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT15">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4688,10 +4724,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT16">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4879,10 +4915,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT17">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -5070,10 +5106,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -5264,7 +5300,7 @@
         <v>1.07</v>
       </c>
       <c r="AT19">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5365,7 +5401,7 @@
         <v>99</v>
       </c>
       <c r="P20" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q20">
         <v>6</v>
@@ -5452,10 +5488,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT20">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5556,7 +5592,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5643,10 +5679,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT21">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5834,10 +5870,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT22">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -6025,10 +6061,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT23">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6129,7 +6165,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6216,10 +6252,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT24">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6407,10 +6443,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT25">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6702,7 +6738,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -8421,7 +8457,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8612,7 +8648,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8890,10 +8926,10 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT38">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU38">
         <v>0.95</v>
@@ -9081,10 +9117,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT39">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU39">
         <v>1.8</v>
@@ -9185,7 +9221,7 @@
         <v>121</v>
       </c>
       <c r="P40" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9272,10 +9308,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT40">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU40">
         <v>1.11</v>
@@ -9376,7 +9412,7 @@
         <v>122</v>
       </c>
       <c r="P41" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9463,10 +9499,10 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT41">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU41">
         <v>1.87</v>
@@ -9657,7 +9693,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT42">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU42">
         <v>1.39</v>
@@ -9845,10 +9881,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT43">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU43">
         <v>0.74</v>
@@ -9949,7 +9985,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q44">
         <v>10</v>
@@ -10036,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT44">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU44">
         <v>0.76</v>
@@ -10140,7 +10176,7 @@
         <v>125</v>
       </c>
       <c r="P45" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10227,10 +10263,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU45">
         <v>0.01</v>
@@ -10418,10 +10454,10 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT46">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU46">
         <v>1.27</v>
@@ -10522,7 +10558,7 @@
         <v>127</v>
       </c>
       <c r="P47" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -10609,10 +10645,10 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT47">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU47">
         <v>1.63</v>
@@ -10713,7 +10749,7 @@
         <v>99</v>
       </c>
       <c r="P48" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q48">
         <v>11</v>
@@ -10800,10 +10836,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT48">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU48">
         <v>1.61</v>
@@ -10904,7 +10940,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10994,7 +11030,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT49">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU49">
         <v>1.19</v>
@@ -11095,7 +11131,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11182,10 +11218,10 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT50">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU50">
         <v>1.89</v>
@@ -11373,10 +11409,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT51">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU51">
         <v>0.99</v>
@@ -11564,10 +11600,10 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT52">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU52">
         <v>1.83</v>
@@ -11755,10 +11791,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU53">
         <v>1.18</v>
@@ -11949,7 +11985,7 @@
         <v>1.07</v>
       </c>
       <c r="AT54">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>2.59</v>
@@ -12137,10 +12173,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT55">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU55">
         <v>1.6</v>
@@ -12241,7 +12277,7 @@
         <v>133</v>
       </c>
       <c r="P56" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12328,10 +12364,10 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT56">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU56">
         <v>1.57</v>
@@ -12432,7 +12468,7 @@
         <v>134</v>
       </c>
       <c r="P57" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12519,10 +12555,10 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT57">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU57">
         <v>0.99</v>
@@ -12623,7 +12659,7 @@
         <v>99</v>
       </c>
       <c r="P58" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12710,10 +12746,10 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT58">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU58">
         <v>0.62</v>
@@ -12814,7 +12850,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12901,10 +12937,10 @@
         <v>2</v>
       </c>
       <c r="AS59">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT59">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU59">
         <v>1.34</v>
@@ -13092,10 +13128,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT60">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU60">
         <v>1.6</v>
@@ -13196,7 +13232,7 @@
         <v>98</v>
       </c>
       <c r="P61" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14533,7 +14569,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14724,7 +14760,7 @@
         <v>99</v>
       </c>
       <c r="P69" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -15297,7 +15333,7 @@
         <v>99</v>
       </c>
       <c r="P72" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15578,7 +15614,7 @@
         <v>2.06</v>
       </c>
       <c r="AT73">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU73">
         <v>1.27</v>
@@ -15769,7 +15805,7 @@
         <v>1.94</v>
       </c>
       <c r="AT74">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU74">
         <v>1.86</v>
@@ -15870,7 +15906,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -16061,7 +16097,7 @@
         <v>99</v>
       </c>
       <c r="P76" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -16148,7 +16184,7 @@
         <v>2</v>
       </c>
       <c r="AS76">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT76">
         <v>1.47</v>
@@ -16342,7 +16378,7 @@
         <v>2.47</v>
       </c>
       <c r="AT77">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU77">
         <v>1.65</v>
@@ -16530,7 +16566,7 @@
         <v>0.67</v>
       </c>
       <c r="AS78">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT78">
         <v>1.38</v>
@@ -16825,7 +16861,7 @@
         <v>147</v>
       </c>
       <c r="P80" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q80">
         <v>11</v>
@@ -16912,7 +16948,7 @@
         <v>1.33</v>
       </c>
       <c r="AS80">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT80">
         <v>1.33</v>
@@ -17103,7 +17139,7 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT81">
         <v>0.71</v>
@@ -17207,7 +17243,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17297,7 +17333,7 @@
         <v>1.88</v>
       </c>
       <c r="AT82">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU82">
         <v>1.74</v>
@@ -17398,7 +17434,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17488,7 +17524,7 @@
         <v>1.5</v>
       </c>
       <c r="AT83">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU83">
         <v>1.7</v>
@@ -17589,7 +17625,7 @@
         <v>151</v>
       </c>
       <c r="P84" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17676,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="AS84">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT84">
         <v>1.63</v>
@@ -17867,7 +17903,7 @@
         <v>1.33</v>
       </c>
       <c r="AS85">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT85">
         <v>1.31</v>
@@ -18061,7 +18097,7 @@
         <v>0.53</v>
       </c>
       <c r="AT86">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU86">
         <v>1.58</v>
@@ -18249,10 +18285,10 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT87">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU87">
         <v>1.79</v>
@@ -18353,7 +18389,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18634,7 +18670,7 @@
         <v>1.06</v>
       </c>
       <c r="AT89">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU89">
         <v>1.44</v>
@@ -18926,7 +18962,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -19013,10 +19049,10 @@
         <v>0</v>
       </c>
       <c r="AS91">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT91">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU91">
         <v>0.79</v>
@@ -19204,7 +19240,7 @@
         <v>1.67</v>
       </c>
       <c r="AS92">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT92">
         <v>1.13</v>
@@ -19308,7 +19344,7 @@
         <v>99</v>
       </c>
       <c r="P93" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19398,7 +19434,7 @@
         <v>1.6</v>
       </c>
       <c r="AT93">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU93">
         <v>1.41</v>
@@ -19690,7 +19726,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19780,7 +19816,7 @@
         <v>1.56</v>
       </c>
       <c r="AT95">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU95">
         <v>1.35</v>
@@ -19881,7 +19917,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19968,10 +20004,10 @@
         <v>0.33</v>
       </c>
       <c r="AS96">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT96">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU96">
         <v>1.35</v>
@@ -20350,7 +20386,7 @@
         <v>0.75</v>
       </c>
       <c r="AS98">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT98">
         <v>0.4</v>
@@ -20454,7 +20490,7 @@
         <v>99</v>
       </c>
       <c r="P99" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20541,7 +20577,7 @@
         <v>0.75</v>
       </c>
       <c r="AS99">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT99">
         <v>1.38</v>
@@ -20645,7 +20681,7 @@
         <v>99</v>
       </c>
       <c r="P100" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20732,7 +20768,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT100">
         <v>1.63</v>
@@ -20926,7 +20962,7 @@
         <v>2.47</v>
       </c>
       <c r="AT101">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU101">
         <v>1.64</v>
@@ -21027,7 +21063,7 @@
         <v>99</v>
       </c>
       <c r="P102" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -21114,7 +21150,7 @@
         <v>1.5</v>
       </c>
       <c r="AS102">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT102">
         <v>1.12</v>
@@ -21308,7 +21344,7 @@
         <v>1.63</v>
       </c>
       <c r="AT103">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU103">
         <v>1.58</v>
@@ -21499,7 +21535,7 @@
         <v>1.53</v>
       </c>
       <c r="AT104">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU104">
         <v>1.64</v>
@@ -21690,7 +21726,7 @@
         <v>1.94</v>
       </c>
       <c r="AT105">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU105">
         <v>1.98</v>
@@ -21982,7 +22018,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -22072,7 +22108,7 @@
         <v>1.88</v>
       </c>
       <c r="AT107">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU107">
         <v>1.78</v>
@@ -22260,7 +22296,7 @@
         <v>2.25</v>
       </c>
       <c r="AS108">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT108">
         <v>1.47</v>
@@ -22454,7 +22490,7 @@
         <v>1.63</v>
       </c>
       <c r="AT109">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU109">
         <v>1.55</v>
@@ -22833,10 +22869,10 @@
         <v>0.8</v>
       </c>
       <c r="AS111">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT111">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU111">
         <v>1.82</v>
@@ -23024,10 +23060,10 @@
         <v>0.67</v>
       </c>
       <c r="AS112">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT112">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU112">
         <v>1.32</v>
@@ -23128,7 +23164,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -23406,7 +23442,7 @@
         <v>0.6</v>
       </c>
       <c r="AS114">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT114">
         <v>0.4</v>
@@ -23510,7 +23546,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23597,7 +23633,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT115">
         <v>1.63</v>
@@ -23788,10 +23824,10 @@
         <v>0.2</v>
       </c>
       <c r="AS116">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT116">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU116">
         <v>1.21</v>
@@ -23892,7 +23928,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -23982,7 +24018,7 @@
         <v>1.5</v>
       </c>
       <c r="AT117">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU117">
         <v>1.47</v>
@@ -24083,7 +24119,7 @@
         <v>99</v>
       </c>
       <c r="P118" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -24170,10 +24206,10 @@
         <v>2.5</v>
       </c>
       <c r="AS118">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT118">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU118">
         <v>1.77</v>
@@ -24274,7 +24310,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24364,7 +24400,7 @@
         <v>2.06</v>
       </c>
       <c r="AT119">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU119">
         <v>1.54</v>
@@ -24555,7 +24591,7 @@
         <v>1.73</v>
       </c>
       <c r="AT120">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU120">
         <v>1.49</v>
@@ -24656,7 +24692,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24746,7 +24782,7 @@
         <v>1.07</v>
       </c>
       <c r="AT121">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU121">
         <v>1.53</v>
@@ -24847,7 +24883,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -24934,7 +24970,7 @@
         <v>0.2</v>
       </c>
       <c r="AS122">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT122">
         <v>0.71</v>
@@ -25038,7 +25074,7 @@
         <v>152</v>
       </c>
       <c r="P123" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -25128,7 +25164,7 @@
         <v>1.06</v>
       </c>
       <c r="AT123">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU123">
         <v>1.48</v>
@@ -25229,7 +25265,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25316,7 +25352,7 @@
         <v>1.4</v>
       </c>
       <c r="AS124">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT124">
         <v>1.33</v>
@@ -25507,10 +25543,10 @@
         <v>0.25</v>
       </c>
       <c r="AS125">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT125">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>1.2</v>
@@ -25611,7 +25647,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q126">
         <v>14</v>
@@ -25802,7 +25838,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -26465,7 +26501,7 @@
         <v>1.94</v>
       </c>
       <c r="AT130">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU130">
         <v>1.87</v>
@@ -26757,7 +26793,7 @@
         <v>157</v>
       </c>
       <c r="P132" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q132">
         <v>10</v>
@@ -26844,10 +26880,10 @@
         <v>2</v>
       </c>
       <c r="AS132">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT132">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU132">
         <v>1.55</v>
@@ -27229,7 +27265,7 @@
         <v>1.73</v>
       </c>
       <c r="AT134">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU134">
         <v>1.44</v>
@@ -27608,10 +27644,10 @@
         <v>0.2</v>
       </c>
       <c r="AS136">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT136">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU136">
         <v>1.95</v>
@@ -27799,7 +27835,7 @@
         <v>1.4</v>
       </c>
       <c r="AS137">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT137">
         <v>1.31</v>
@@ -27990,10 +28026,10 @@
         <v>2.6</v>
       </c>
       <c r="AS138">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT138">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU138">
         <v>1.46</v>
@@ -28285,7 +28321,7 @@
         <v>186</v>
       </c>
       <c r="P140" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -28375,7 +28411,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT140">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU140">
         <v>1.32</v>
@@ -28566,7 +28602,7 @@
         <v>1.63</v>
       </c>
       <c r="AT141">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU141">
         <v>1.48</v>
@@ -28754,7 +28790,7 @@
         <v>1.5</v>
       </c>
       <c r="AS142">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT142">
         <v>1.38</v>
@@ -28858,7 +28894,7 @@
         <v>99</v>
       </c>
       <c r="P143" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28948,7 +28984,7 @@
         <v>2.06</v>
       </c>
       <c r="AT143">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU143">
         <v>1.51</v>
@@ -29139,7 +29175,7 @@
         <v>1.73</v>
       </c>
       <c r="AT144">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU144">
         <v>1.47</v>
@@ -29327,7 +29363,7 @@
         <v>0.4</v>
       </c>
       <c r="AS145">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT145">
         <v>0.6899999999999999</v>
@@ -29431,7 +29467,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29518,10 +29554,10 @@
         <v>0.67</v>
       </c>
       <c r="AS146">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT146">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU146">
         <v>1.13</v>
@@ -29709,10 +29745,10 @@
         <v>0.67</v>
       </c>
       <c r="AS147">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT147">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU147">
         <v>1.22</v>
@@ -29813,7 +29849,7 @@
         <v>99</v>
       </c>
       <c r="P148" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29900,7 +29936,7 @@
         <v>1.5</v>
       </c>
       <c r="AS148">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT148">
         <v>1.63</v>
@@ -30094,7 +30130,7 @@
         <v>1.5</v>
       </c>
       <c r="AT149">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU149">
         <v>1.41</v>
@@ -30664,10 +30700,10 @@
         <v>0.83</v>
       </c>
       <c r="AS152">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT152">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU152">
         <v>1.77</v>
@@ -30855,7 +30891,7 @@
         <v>0.2</v>
       </c>
       <c r="AS153">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT153">
         <v>0.9399999999999999</v>
@@ -30959,7 +30995,7 @@
         <v>120</v>
       </c>
       <c r="P154" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -31240,7 +31276,7 @@
         <v>1.53</v>
       </c>
       <c r="AT155">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU155">
         <v>1.54</v>
@@ -31431,7 +31467,7 @@
         <v>2.47</v>
       </c>
       <c r="AT156">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU156">
         <v>1.67</v>
@@ -31532,7 +31568,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31619,7 +31655,7 @@
         <v>1.67</v>
       </c>
       <c r="AS157">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT157">
         <v>1.33</v>
@@ -31810,7 +31846,7 @@
         <v>1.17</v>
       </c>
       <c r="AS158">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT158">
         <v>1.31</v>
@@ -31914,7 +31950,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -32195,7 +32231,7 @@
         <v>1.6</v>
       </c>
       <c r="AT160">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU160">
         <v>1.33</v>
@@ -32487,7 +32523,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32577,7 +32613,7 @@
         <v>2.06</v>
       </c>
       <c r="AT162">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU162">
         <v>1.47</v>
@@ -32678,7 +32714,7 @@
         <v>198</v>
       </c>
       <c r="P163" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32765,10 +32801,10 @@
         <v>1.71</v>
       </c>
       <c r="AS163">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT163">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU163">
         <v>1.86</v>
@@ -32869,7 +32905,7 @@
         <v>99</v>
       </c>
       <c r="P164" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32959,7 +32995,7 @@
         <v>1.53</v>
       </c>
       <c r="AT164">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU164">
         <v>1.44</v>
@@ -33060,7 +33096,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -33150,7 +33186,7 @@
         <v>0.53</v>
       </c>
       <c r="AT165">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU165">
         <v>1.36</v>
@@ -33338,7 +33374,7 @@
         <v>0.17</v>
       </c>
       <c r="AS166">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT166">
         <v>0.9399999999999999</v>
@@ -33442,7 +33478,7 @@
         <v>181</v>
       </c>
       <c r="P167" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33532,7 +33568,7 @@
         <v>1.06</v>
       </c>
       <c r="AT167">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU167">
         <v>1.59</v>
@@ -33723,7 +33759,7 @@
         <v>1.07</v>
       </c>
       <c r="AT168">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU168">
         <v>1.65</v>
@@ -33911,7 +33947,7 @@
         <v>1.29</v>
       </c>
       <c r="AS169">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT169">
         <v>1.12</v>
@@ -34102,7 +34138,7 @@
         <v>1.14</v>
       </c>
       <c r="AS170">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT170">
         <v>1.13</v>
@@ -34206,7 +34242,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34293,7 +34329,7 @@
         <v>1.71</v>
       </c>
       <c r="AS171">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT171">
         <v>1.63</v>
@@ -34397,7 +34433,7 @@
         <v>203</v>
       </c>
       <c r="P172" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34487,7 +34523,7 @@
         <v>1.88</v>
       </c>
       <c r="AT172">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU172">
         <v>1.74</v>
@@ -34588,7 +34624,7 @@
         <v>204</v>
       </c>
       <c r="P173" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -34675,7 +34711,7 @@
         <v>0.29</v>
       </c>
       <c r="AS173">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT173">
         <v>0.71</v>
@@ -34779,7 +34815,7 @@
         <v>99</v>
       </c>
       <c r="P174" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34869,7 +34905,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT174">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU174">
         <v>1.33</v>
@@ -35248,7 +35284,7 @@
         <v>1</v>
       </c>
       <c r="AS176">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT176">
         <v>1.31</v>
@@ -35352,7 +35388,7 @@
         <v>206</v>
       </c>
       <c r="P177" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35442,7 +35478,7 @@
         <v>1.63</v>
       </c>
       <c r="AT177">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU177">
         <v>1.5</v>
@@ -35543,7 +35579,7 @@
         <v>207</v>
       </c>
       <c r="P178" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q178">
         <v>9</v>
@@ -35630,7 +35666,7 @@
         <v>0.43</v>
       </c>
       <c r="AS178">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT178">
         <v>0.4</v>
@@ -35824,7 +35860,7 @@
         <v>1.94</v>
       </c>
       <c r="AT179">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU179">
         <v>1.84</v>
@@ -36015,7 +36051,7 @@
         <v>1.56</v>
       </c>
       <c r="AT180">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU180">
         <v>1.43</v>
@@ -36116,7 +36152,7 @@
         <v>210</v>
       </c>
       <c r="P181" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36206,7 +36242,7 @@
         <v>1.73</v>
       </c>
       <c r="AT181">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU181">
         <v>1.41</v>
@@ -36394,7 +36430,7 @@
         <v>1.57</v>
       </c>
       <c r="AS182">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT182">
         <v>1.33</v>
@@ -36967,7 +37003,7 @@
         <v>2.29</v>
       </c>
       <c r="AS185">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT185">
         <v>1.47</v>
@@ -37540,7 +37576,7 @@
         <v>0.43</v>
       </c>
       <c r="AS188">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT188">
         <v>0.6899999999999999</v>
@@ -37925,7 +37961,7 @@
         <v>2.47</v>
       </c>
       <c r="AT190">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU190">
         <v>1.64</v>
@@ -38026,7 +38062,7 @@
         <v>216</v>
       </c>
       <c r="P191" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -38113,7 +38149,7 @@
         <v>1.25</v>
       </c>
       <c r="AS191">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT191">
         <v>1.38</v>
@@ -38307,7 +38343,7 @@
         <v>1.94</v>
       </c>
       <c r="AT192">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU192">
         <v>1.85</v>
@@ -38408,7 +38444,7 @@
         <v>99</v>
       </c>
       <c r="P193" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38498,7 +38534,7 @@
         <v>1.56</v>
       </c>
       <c r="AT193">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU193">
         <v>1.53</v>
@@ -38689,7 +38725,7 @@
         <v>1.73</v>
       </c>
       <c r="AT194">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU194">
         <v>1.48</v>
@@ -38790,7 +38826,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -38880,7 +38916,7 @@
         <v>1.6</v>
       </c>
       <c r="AT195">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU195">
         <v>1.29</v>
@@ -39068,7 +39104,7 @@
         <v>1</v>
       </c>
       <c r="AS196">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT196">
         <v>1</v>
@@ -39259,7 +39295,7 @@
         <v>1.75</v>
       </c>
       <c r="AS197">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT197">
         <v>1.33</v>
@@ -39453,7 +39489,7 @@
         <v>1.56</v>
       </c>
       <c r="AT198">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU198">
         <v>1.5</v>
@@ -39641,7 +39677,7 @@
         <v>0.14</v>
       </c>
       <c r="AS199">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT199">
         <v>0.9399999999999999</v>
@@ -39835,7 +39871,7 @@
         <v>1.6</v>
       </c>
       <c r="AT200">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU200">
         <v>1.33</v>
@@ -39936,7 +39972,7 @@
         <v>224</v>
       </c>
       <c r="P201" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="Q201">
         <v>6</v>
@@ -40026,7 +40062,7 @@
         <v>1.06</v>
       </c>
       <c r="AT201">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU201">
         <v>1.54</v>
@@ -40127,7 +40163,7 @@
         <v>94</v>
       </c>
       <c r="P202" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q202">
         <v>9</v>
@@ -40214,10 +40250,10 @@
         <v>1.86</v>
       </c>
       <c r="AS202">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT202">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU202">
         <v>1.64</v>
@@ -40408,7 +40444,7 @@
         <v>0.53</v>
       </c>
       <c r="AT203">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU203">
         <v>1.33</v>
@@ -40596,10 +40632,10 @@
         <v>1.38</v>
       </c>
       <c r="AS204">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT204">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU204">
         <v>1.68</v>
@@ -40700,7 +40736,7 @@
         <v>99</v>
       </c>
       <c r="P205" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q205">
         <v>5</v>
@@ -40790,7 +40826,7 @@
         <v>2.06</v>
       </c>
       <c r="AT205">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU205">
         <v>1.52</v>
@@ -40978,7 +41014,7 @@
         <v>0.25</v>
       </c>
       <c r="AS206">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT206">
         <v>0.71</v>
@@ -41172,7 +41208,7 @@
         <v>1.53</v>
       </c>
       <c r="AT207">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU207">
         <v>1.45</v>
@@ -41464,7 +41500,7 @@
         <v>114</v>
       </c>
       <c r="P209" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41551,10 +41587,10 @@
         <v>0.88</v>
       </c>
       <c r="AS209">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT209">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU209">
         <v>1.29</v>
@@ -41655,7 +41691,7 @@
         <v>99</v>
       </c>
       <c r="P210" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q210">
         <v>7</v>
@@ -41745,7 +41781,7 @@
         <v>1.06</v>
       </c>
       <c r="AT210">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU210">
         <v>1.63</v>
@@ -41846,7 +41882,7 @@
         <v>112</v>
       </c>
       <c r="P211" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -42037,7 +42073,7 @@
         <v>99</v>
       </c>
       <c r="P212" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -42124,10 +42160,10 @@
         <v>1.88</v>
       </c>
       <c r="AS212">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT212">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU212">
         <v>1.22</v>
@@ -42315,7 +42351,7 @@
         <v>0.13</v>
       </c>
       <c r="AS213">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT213">
         <v>0.9399999999999999</v>
@@ -42506,7 +42542,7 @@
         <v>1.25</v>
       </c>
       <c r="AS214">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT214">
         <v>1.12</v>
@@ -42700,7 +42736,7 @@
         <v>1.88</v>
       </c>
       <c r="AT215">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU215">
         <v>1.72</v>
@@ -42888,7 +42924,7 @@
         <v>0.88</v>
       </c>
       <c r="AS216">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT216">
         <v>1</v>
@@ -42992,7 +43028,7 @@
         <v>99</v>
       </c>
       <c r="P217" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="Q217">
         <v>7</v>
@@ -43082,7 +43118,7 @@
         <v>1.56</v>
       </c>
       <c r="AT217">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU217">
         <v>1.42</v>
@@ -43273,7 +43309,7 @@
         <v>2.06</v>
       </c>
       <c r="AT218">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU218">
         <v>1.5</v>
@@ -43374,7 +43410,7 @@
         <v>98</v>
       </c>
       <c r="P219" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="Q219">
         <v>2</v>
@@ -43464,7 +43500,7 @@
         <v>1.94</v>
       </c>
       <c r="AT219">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU219">
         <v>1.85</v>
@@ -43565,7 +43601,7 @@
         <v>227</v>
       </c>
       <c r="P220" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="Q220">
         <v>8</v>
@@ -43655,7 +43691,7 @@
         <v>1.53</v>
       </c>
       <c r="AT220">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU220">
         <v>1.45</v>
@@ -43843,7 +43879,7 @@
         <v>0.38</v>
       </c>
       <c r="AS221">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT221">
         <v>0.6899999999999999</v>
@@ -44416,7 +44452,7 @@
         <v>1.33</v>
       </c>
       <c r="AS224">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT224">
         <v>1.13</v>
@@ -44520,7 +44556,7 @@
         <v>231</v>
       </c>
       <c r="P225" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -44610,7 +44646,7 @@
         <v>1.5</v>
       </c>
       <c r="AT225">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU225">
         <v>1.44</v>
@@ -44798,7 +44834,7 @@
         <v>0.22</v>
       </c>
       <c r="AS226">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT226">
         <v>0.71</v>
@@ -45180,7 +45216,7 @@
         <v>0.33</v>
       </c>
       <c r="AS228">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT228">
         <v>0.6899999999999999</v>
@@ -45284,7 +45320,7 @@
         <v>99</v>
       </c>
       <c r="P229" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q229">
         <v>5</v>
@@ -45371,10 +45407,10 @@
         <v>0.78</v>
       </c>
       <c r="AS229">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT229">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU229">
         <v>1.42</v>
@@ -45475,7 +45511,7 @@
         <v>110</v>
       </c>
       <c r="P230" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q230">
         <v>2</v>
@@ -45562,7 +45598,7 @@
         <v>1</v>
       </c>
       <c r="AS230">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT230">
         <v>1.31</v>
@@ -45753,7 +45789,7 @@
         <v>1.11</v>
       </c>
       <c r="AS231">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT231">
         <v>1.12</v>
@@ -46048,7 +46084,7 @@
         <v>99</v>
       </c>
       <c r="P233" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q233">
         <v>7</v>
@@ -46135,10 +46171,10 @@
         <v>1.78</v>
       </c>
       <c r="AS233">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT233">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU233">
         <v>1.18</v>
@@ -46329,7 +46365,7 @@
         <v>2.47</v>
       </c>
       <c r="AT234">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU234">
         <v>1.66</v>
@@ -46520,7 +46556,7 @@
         <v>1.88</v>
       </c>
       <c r="AT235">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU235">
         <v>1.67</v>
@@ -46708,7 +46744,7 @@
         <v>1.44</v>
       </c>
       <c r="AS236">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT236">
         <v>1.38</v>
@@ -46812,7 +46848,7 @@
         <v>99</v>
       </c>
       <c r="P237" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q237">
         <v>1</v>
@@ -46902,7 +46938,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT237">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU237">
         <v>1.39</v>
@@ -47003,7 +47039,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q238">
         <v>1</v>
@@ -47090,7 +47126,7 @@
         <v>0.11</v>
       </c>
       <c r="AS238">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT238">
         <v>0.9399999999999999</v>
@@ -47284,7 +47320,7 @@
         <v>1.63</v>
       </c>
       <c r="AT239">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU239">
         <v>1.43</v>
@@ -47385,7 +47421,7 @@
         <v>154</v>
       </c>
       <c r="P240" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="Q240">
         <v>6</v>
@@ -47475,7 +47511,7 @@
         <v>0.53</v>
       </c>
       <c r="AT240">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU240">
         <v>1.25</v>
@@ -47576,7 +47612,7 @@
         <v>99</v>
       </c>
       <c r="P241" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -47663,7 +47699,7 @@
         <v>0.2</v>
       </c>
       <c r="AS241">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT241">
         <v>0.71</v>
@@ -47854,10 +47890,10 @@
         <v>1.2</v>
       </c>
       <c r="AS242">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT242">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU242">
         <v>1.71</v>
@@ -48236,7 +48272,7 @@
         <v>1.5</v>
       </c>
       <c r="AS244">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT244">
         <v>1.63</v>
@@ -48430,7 +48466,7 @@
         <v>1.07</v>
       </c>
       <c r="AT245">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU245">
         <v>1.61</v>
@@ -48618,7 +48654,7 @@
         <v>1.2</v>
       </c>
       <c r="AS246">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT246">
         <v>1.13</v>
@@ -48809,7 +48845,7 @@
         <v>1.3</v>
       </c>
       <c r="AS247">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT247">
         <v>1.38</v>
@@ -49003,7 +49039,7 @@
         <v>2.47</v>
       </c>
       <c r="AT248">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU248">
         <v>1.66</v>
@@ -49104,7 +49140,7 @@
         <v>241</v>
       </c>
       <c r="P249" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q249">
         <v>8</v>
@@ -49194,7 +49230,7 @@
         <v>1.63</v>
       </c>
       <c r="AT249">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU249">
         <v>1.46</v>
@@ -49295,7 +49331,7 @@
         <v>242</v>
       </c>
       <c r="P250" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="Q250">
         <v>3</v>
@@ -49573,7 +49609,7 @@
         <v>0.09</v>
       </c>
       <c r="AS251">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT251">
         <v>0.9399999999999999</v>
@@ -50059,7 +50095,7 @@
         <v>153</v>
       </c>
       <c r="P254" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="Q254">
         <v>4</v>
@@ -50146,10 +50182,10 @@
         <v>1</v>
       </c>
       <c r="AS254">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT254">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU254">
         <v>1.68</v>
@@ -50250,7 +50286,7 @@
         <v>245</v>
       </c>
       <c r="P255" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Q255">
         <v>4</v>
@@ -50337,10 +50373,10 @@
         <v>0.55</v>
       </c>
       <c r="AS255">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT255">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU255">
         <v>1.11</v>
@@ -50531,7 +50567,7 @@
         <v>1.88</v>
       </c>
       <c r="AT256">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU256">
         <v>1.61</v>
@@ -50910,10 +50946,10 @@
         <v>2.1</v>
       </c>
       <c r="AS258">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT258">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU258">
         <v>1.57</v>
@@ -51014,7 +51050,7 @@
         <v>102</v>
       </c>
       <c r="P259" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -51587,7 +51623,7 @@
         <v>99</v>
       </c>
       <c r="P262" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q262">
         <v>6</v>
@@ -51674,10 +51710,10 @@
         <v>1.45</v>
       </c>
       <c r="AS262">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT262">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU262">
         <v>1.23</v>
@@ -51778,7 +51814,7 @@
         <v>248</v>
       </c>
       <c r="P263" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q263">
         <v>7</v>
@@ -51868,7 +51904,7 @@
         <v>1.07</v>
       </c>
       <c r="AT263">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU263">
         <v>1.65</v>
@@ -51969,7 +52005,7 @@
         <v>106</v>
       </c>
       <c r="P264" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q264">
         <v>3</v>
@@ -52351,7 +52387,7 @@
         <v>91</v>
       </c>
       <c r="P266" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="Q266">
         <v>4</v>
@@ -52438,10 +52474,10 @@
         <v>1.18</v>
       </c>
       <c r="AS266">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT266">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU266">
         <v>1.15</v>
@@ -52632,7 +52668,7 @@
         <v>1.5</v>
       </c>
       <c r="AT267">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU267">
         <v>1.43</v>
@@ -52733,7 +52769,7 @@
         <v>226</v>
       </c>
       <c r="P268" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -52820,10 +52856,10 @@
         <v>1.18</v>
       </c>
       <c r="AS268">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT268">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU268">
         <v>1.5</v>
@@ -52924,7 +52960,7 @@
         <v>99</v>
       </c>
       <c r="P269" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="Q269">
         <v>7</v>
@@ -53014,7 +53050,7 @@
         <v>1.73</v>
       </c>
       <c r="AT269">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU269">
         <v>1.59</v>
@@ -53115,7 +53151,7 @@
         <v>251</v>
       </c>
       <c r="P270" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q270">
         <v>6</v>
@@ -53202,10 +53238,10 @@
         <v>0.8</v>
       </c>
       <c r="AS270">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT270">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU270">
         <v>1.43</v>
@@ -53306,7 +53342,7 @@
         <v>139</v>
       </c>
       <c r="P271" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="Q271">
         <v>15</v>
@@ -53584,10 +53620,10 @@
         <v>2.3</v>
       </c>
       <c r="AS272">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT272">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU272">
         <v>1.3</v>
@@ -53688,7 +53724,7 @@
         <v>252</v>
       </c>
       <c r="P273" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q273">
         <v>7</v>
@@ -53775,7 +53811,7 @@
         <v>0.5</v>
       </c>
       <c r="AS273">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT273">
         <v>0.4</v>
@@ -53966,10 +54002,10 @@
         <v>1.33</v>
       </c>
       <c r="AS274">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT274">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU274">
         <v>1.2</v>
@@ -54070,7 +54106,7 @@
         <v>253</v>
       </c>
       <c r="P275" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q275">
         <v>5</v>
@@ -54157,10 +54193,10 @@
         <v>1.58</v>
       </c>
       <c r="AS275">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT275">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU275">
         <v>1.41</v>
@@ -54351,7 +54387,7 @@
         <v>1.07</v>
       </c>
       <c r="AT276">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU276">
         <v>1.66</v>
@@ -54452,7 +54488,7 @@
         <v>254</v>
       </c>
       <c r="P277" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="Q277">
         <v>2</v>
@@ -54542,7 +54578,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT277">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU277">
         <v>1.31</v>
@@ -54733,7 +54769,7 @@
         <v>2.06</v>
       </c>
       <c r="AT278">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU278">
         <v>1.58</v>
@@ -55112,7 +55148,7 @@
         <v>1.58</v>
       </c>
       <c r="AS280">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT280">
         <v>1.38</v>
@@ -55216,7 +55252,7 @@
         <v>257</v>
       </c>
       <c r="P281" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q281">
         <v>4</v>
@@ -55306,7 +55342,7 @@
         <v>1.5</v>
       </c>
       <c r="AT281">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU281">
         <v>1.45</v>
@@ -55494,10 +55530,10 @@
         <v>0.73</v>
       </c>
       <c r="AS282">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT282">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU282">
         <v>1.53</v>
@@ -55598,7 +55634,7 @@
         <v>258</v>
       </c>
       <c r="P283" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Q283">
         <v>6</v>
@@ -55685,7 +55721,7 @@
         <v>0.45</v>
       </c>
       <c r="AS283">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT283">
         <v>0.4</v>
@@ -55879,7 +55915,7 @@
         <v>1.63</v>
       </c>
       <c r="AT284">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU284">
         <v>1.5</v>
@@ -56067,7 +56103,7 @@
         <v>0.36</v>
       </c>
       <c r="AS285">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT285">
         <v>0.6899999999999999</v>
@@ -56261,7 +56297,7 @@
         <v>1.53</v>
       </c>
       <c r="AT286">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU286">
         <v>1.47</v>
@@ -56362,7 +56398,7 @@
         <v>261</v>
       </c>
       <c r="P287" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="Q287">
         <v>4</v>
@@ -56449,7 +56485,7 @@
         <v>1</v>
       </c>
       <c r="AS287">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT287">
         <v>1.12</v>
@@ -56553,7 +56589,7 @@
         <v>246</v>
       </c>
       <c r="P288" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -56831,10 +56867,10 @@
         <v>1.23</v>
       </c>
       <c r="AS289">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT289">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU289">
         <v>1.21</v>
@@ -56935,7 +56971,7 @@
         <v>262</v>
       </c>
       <c r="P290" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="Q290">
         <v>6</v>
@@ -57025,7 +57061,7 @@
         <v>1.56</v>
       </c>
       <c r="AT290">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU290">
         <v>1.42</v>
@@ -57317,7 +57353,7 @@
         <v>264</v>
       </c>
       <c r="P292" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q292">
         <v>9</v>
@@ -57508,7 +57544,7 @@
         <v>265</v>
       </c>
       <c r="P293" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="Q293">
         <v>5</v>
@@ -57598,7 +57634,7 @@
         <v>1.5</v>
       </c>
       <c r="AT293">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU293">
         <v>1.46</v>
@@ -57789,7 +57825,7 @@
         <v>1.6</v>
       </c>
       <c r="AT294">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU294">
         <v>1.27</v>
@@ -58168,7 +58204,7 @@
         <v>0.67</v>
       </c>
       <c r="AS296">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT296">
         <v>0.71</v>
@@ -58741,7 +58777,7 @@
         <v>1</v>
       </c>
       <c r="AS299">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT299">
         <v>1</v>
@@ -58845,7 +58881,7 @@
         <v>269</v>
       </c>
       <c r="P300" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="Q300">
         <v>6</v>
@@ -59126,7 +59162,7 @@
         <v>1.94</v>
       </c>
       <c r="AT301">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU301">
         <v>1.91</v>
@@ -59314,7 +59350,7 @@
         <v>1.45</v>
       </c>
       <c r="AS302">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT302">
         <v>1.47</v>
@@ -59508,7 +59544,7 @@
         <v>1.56</v>
       </c>
       <c r="AT303">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU303">
         <v>1.4</v>
@@ -59699,7 +59735,7 @@
         <v>1.53</v>
       </c>
       <c r="AT304">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU304">
         <v>1.47</v>
@@ -59887,10 +59923,10 @@
         <v>2</v>
       </c>
       <c r="AS305">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT305">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU305">
         <v>1.69</v>
@@ -60081,7 +60117,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT306">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU306">
         <v>1.4</v>
@@ -60182,7 +60218,7 @@
         <v>99</v>
       </c>
       <c r="P307" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="Q307">
         <v>8</v>
@@ -60269,7 +60305,7 @@
         <v>0.33</v>
       </c>
       <c r="AS307">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT307">
         <v>0.6899999999999999</v>
@@ -60373,7 +60409,7 @@
         <v>276</v>
       </c>
       <c r="P308" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q308">
         <v>4</v>
@@ -60651,10 +60687,10 @@
         <v>1.83</v>
       </c>
       <c r="AS309">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT309">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU309">
         <v>1.16</v>
@@ -60845,7 +60881,7 @@
         <v>1.94</v>
       </c>
       <c r="AT310">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU310">
         <v>1.86</v>
@@ -60946,7 +60982,7 @@
         <v>277</v>
       </c>
       <c r="P311" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q311">
         <v>4</v>
@@ -61033,7 +61069,7 @@
         <v>1.15</v>
       </c>
       <c r="AS311">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT311">
         <v>1.13</v>
@@ -61137,7 +61173,7 @@
         <v>99</v>
       </c>
       <c r="P312" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="Q312">
         <v>1</v>
@@ -61227,7 +61263,7 @@
         <v>0.53</v>
       </c>
       <c r="AT312">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU312">
         <v>1.26</v>
@@ -61328,7 +61364,7 @@
         <v>278</v>
       </c>
       <c r="P313" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q313">
         <v>3</v>
@@ -61415,10 +61451,10 @@
         <v>1.77</v>
       </c>
       <c r="AS313">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT313">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU313">
         <v>1.08</v>
@@ -61519,7 +61555,7 @@
         <v>279</v>
       </c>
       <c r="P314" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Q314">
         <v>7</v>
@@ -61606,7 +61642,7 @@
         <v>0.54</v>
       </c>
       <c r="AS314">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT314">
         <v>0.6899999999999999</v>
@@ -61800,7 +61836,7 @@
         <v>1.56</v>
       </c>
       <c r="AT315">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU315">
         <v>1.4</v>
@@ -61901,7 +61937,7 @@
         <v>99</v>
       </c>
       <c r="P316" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="Q316">
         <v>3</v>
@@ -61988,10 +62024,10 @@
         <v>1.69</v>
       </c>
       <c r="AS316">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT316">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU316">
         <v>1.55</v>
@@ -62092,7 +62128,7 @@
         <v>280</v>
       </c>
       <c r="P317" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q317">
         <v>7</v>
@@ -62373,7 +62409,7 @@
         <v>1.6</v>
       </c>
       <c r="AT318">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU318">
         <v>1.29</v>
@@ -62474,7 +62510,7 @@
         <v>99</v>
       </c>
       <c r="P319" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="Q319">
         <v>7</v>
@@ -62564,7 +62600,7 @@
         <v>1.06</v>
       </c>
       <c r="AT319">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU319">
         <v>1.58</v>
@@ -62755,7 +62791,7 @@
         <v>1.53</v>
       </c>
       <c r="AT320">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU320">
         <v>1.46</v>
@@ -62943,10 +62979,10 @@
         <v>1.23</v>
       </c>
       <c r="AS321">
+        <v>1.33</v>
+      </c>
+      <c r="AT321">
         <v>1.35</v>
-      </c>
-      <c r="AT321">
-        <v>1.44</v>
       </c>
       <c r="AU321">
         <v>1.21</v>
@@ -63325,7 +63361,7 @@
         <v>1.46</v>
       </c>
       <c r="AS323">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT323">
         <v>1.38</v>
@@ -63429,7 +63465,7 @@
         <v>283</v>
       </c>
       <c r="P324" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q324">
         <v>3</v>
@@ -63519,7 +63555,7 @@
         <v>1.94</v>
       </c>
       <c r="AT324">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU324">
         <v>1.84</v>
@@ -63710,7 +63746,7 @@
         <v>2.47</v>
       </c>
       <c r="AT325">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU325">
         <v>1.58</v>
@@ -64283,7 +64319,7 @@
         <v>1.88</v>
       </c>
       <c r="AT328">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU328">
         <v>1.6</v>
@@ -64384,7 +64420,7 @@
         <v>135</v>
       </c>
       <c r="P329" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="Q329">
         <v>8</v>
@@ -64471,7 +64507,7 @@
         <v>1.07</v>
       </c>
       <c r="AS329">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT329">
         <v>1.12</v>
@@ -64575,7 +64611,7 @@
         <v>99</v>
       </c>
       <c r="P330" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="Q330">
         <v>8</v>
@@ -64662,7 +64698,7 @@
         <v>1.33</v>
       </c>
       <c r="AS330">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT330">
         <v>1.47</v>
@@ -64853,7 +64889,7 @@
         <v>0.5</v>
       </c>
       <c r="AS331">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT331">
         <v>0.4</v>
@@ -65044,7 +65080,7 @@
         <v>0.57</v>
       </c>
       <c r="AS332">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT332">
         <v>0.71</v>
@@ -65238,7 +65274,7 @@
         <v>1.53</v>
       </c>
       <c r="AT333">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU333">
         <v>1.46</v>
@@ -65429,7 +65465,7 @@
         <v>1.63</v>
       </c>
       <c r="AT334">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU334">
         <v>1.48</v>
@@ -65617,10 +65653,10 @@
         <v>1.14</v>
       </c>
       <c r="AS335">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT335">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU335">
         <v>1.42</v>
@@ -65721,7 +65757,7 @@
         <v>99</v>
       </c>
       <c r="P336" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="Q336">
         <v>4</v>
@@ -65808,10 +65844,10 @@
         <v>1.71</v>
       </c>
       <c r="AS336">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT336">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU336">
         <v>1.22</v>
@@ -65999,7 +66035,7 @@
         <v>1.08</v>
       </c>
       <c r="AS337">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AT337">
         <v>1.31</v>
@@ -66193,7 +66229,7 @@
         <v>1.56</v>
       </c>
       <c r="AT338">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU338">
         <v>1.39</v>
@@ -66294,7 +66330,7 @@
         <v>287</v>
       </c>
       <c r="P339" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q339">
         <v>4</v>
@@ -66384,7 +66420,7 @@
         <v>1.73</v>
       </c>
       <c r="AT339">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AU339">
         <v>1.59</v>
@@ -66485,7 +66521,7 @@
         <v>227</v>
       </c>
       <c r="P340" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q340">
         <v>4</v>
@@ -66575,7 +66611,7 @@
         <v>0.53</v>
       </c>
       <c r="AT340">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AU340">
         <v>1.26</v>
@@ -66763,7 +66799,7 @@
         <v>0.57</v>
       </c>
       <c r="AS341">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT341">
         <v>0.6899999999999999</v>
@@ -66957,7 +66993,7 @@
         <v>1.6</v>
       </c>
       <c r="AT342">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AU342">
         <v>1.28</v>
@@ -67058,7 +67094,7 @@
         <v>289</v>
       </c>
       <c r="P343" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Q343">
         <v>3</v>
@@ -67148,7 +67184,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT343">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AU343">
         <v>1.48</v>
@@ -67249,7 +67285,7 @@
         <v>290</v>
       </c>
       <c r="P344" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="Q344">
         <v>7</v>
@@ -67336,10 +67372,10 @@
         <v>1.62</v>
       </c>
       <c r="AS344">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AT344">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AU344">
         <v>1.74</v>
@@ -67440,7 +67476,7 @@
         <v>115</v>
       </c>
       <c r="P345" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q345">
         <v>5</v>
@@ -67530,7 +67566,7 @@
         <v>1.06</v>
       </c>
       <c r="AT345">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU345">
         <v>1.55</v>
@@ -67822,7 +67858,7 @@
         <v>99</v>
       </c>
       <c r="P347" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q347">
         <v>5</v>
@@ -67909,7 +67945,7 @@
         <v>1.07</v>
       </c>
       <c r="AS347">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT347">
         <v>1.13</v>
@@ -68013,7 +68049,7 @@
         <v>291</v>
       </c>
       <c r="P348" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q348">
         <v>7</v>
@@ -68100,7 +68136,7 @@
         <v>1</v>
       </c>
       <c r="AS348">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AT348">
         <v>1</v>
@@ -68291,7 +68327,7 @@
         <v>1.46</v>
       </c>
       <c r="AS349">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="AT349">
         <v>1.47</v>
@@ -68395,7 +68431,7 @@
         <v>293</v>
       </c>
       <c r="P350" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Q350">
         <v>3</v>
@@ -68482,7 +68518,7 @@
         <v>1.46</v>
       </c>
       <c r="AS350">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT350">
         <v>1.33</v>
@@ -68673,10 +68709,10 @@
         <v>1.07</v>
       </c>
       <c r="AS351">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="AT351">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AU351">
         <v>1.17</v>
@@ -68867,7 +68903,7 @@
         <v>1.63</v>
       </c>
       <c r="AT352">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AU352">
         <v>1.43</v>
@@ -68968,7 +69004,7 @@
         <v>99</v>
       </c>
       <c r="P353" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="Q353">
         <v>5</v>
@@ -69249,7 +69285,7 @@
         <v>1.5</v>
       </c>
       <c r="AT354">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU354">
         <v>1.45</v>
@@ -69350,7 +69386,7 @@
         <v>295</v>
       </c>
       <c r="P355" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="Q355">
         <v>6</v>
@@ -69440,7 +69476,7 @@
         <v>2.47</v>
       </c>
       <c r="AT355">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AU355">
         <v>1.58</v>
@@ -69628,7 +69664,7 @@
         <v>0.73</v>
       </c>
       <c r="AS356">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT356">
         <v>0.71</v>
@@ -70010,7 +70046,7 @@
         <v>1.07</v>
       </c>
       <c r="AS358">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AT358">
         <v>1.12</v>
@@ -70305,7 +70341,7 @@
         <v>300</v>
       </c>
       <c r="P360" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q360">
         <v>10</v>
@@ -70395,7 +70431,7 @@
         <v>1.53</v>
       </c>
       <c r="AT360">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU360">
         <v>1.47</v>
@@ -70496,7 +70532,7 @@
         <v>298</v>
       </c>
       <c r="P361" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="Q361">
         <v>6</v>
@@ -70687,7 +70723,7 @@
         <v>99</v>
       </c>
       <c r="P362" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="Q362">
         <v>4</v>
@@ -71069,7 +71105,7 @@
         <v>119</v>
       </c>
       <c r="P364" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="Q364">
         <v>6</v>
@@ -71260,7 +71296,7 @@
         <v>99</v>
       </c>
       <c r="P365" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="Q365">
         <v>5</v>
@@ -71833,7 +71869,7 @@
         <v>303</v>
       </c>
       <c r="P368" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="Q368">
         <v>11</v>
@@ -72406,7 +72442,7 @@
         <v>304</v>
       </c>
       <c r="P371" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q371">
         <v>3</v>
@@ -72979,7 +73015,7 @@
         <v>306</v>
       </c>
       <c r="P374" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="Q374">
         <v>5</v>
@@ -73069,7 +73105,7 @@
         <v>0.53</v>
       </c>
       <c r="AT374">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU374">
         <v>1.27</v>
@@ -73451,7 +73487,7 @@
         <v>1.07</v>
       </c>
       <c r="AT376">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU376">
         <v>1.63</v>
@@ -73503,6 +73539,2298 @@
       </c>
       <c r="BK376">
         <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:63">
+      <c r="A377" s="1">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>2581054</v>
+      </c>
+      <c r="C377" t="s">
+        <v>63</v>
+      </c>
+      <c r="D377" t="s">
+        <v>64</v>
+      </c>
+      <c r="E377" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F377">
+        <v>34</v>
+      </c>
+      <c r="G377" t="s">
+        <v>87</v>
+      </c>
+      <c r="H377" t="s">
+        <v>71</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>0</v>
+      </c>
+      <c r="L377">
+        <v>1</v>
+      </c>
+      <c r="M377">
+        <v>0</v>
+      </c>
+      <c r="N377">
+        <v>1</v>
+      </c>
+      <c r="O377" t="s">
+        <v>94</v>
+      </c>
+      <c r="P377" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q377">
+        <v>3</v>
+      </c>
+      <c r="R377">
+        <v>3</v>
+      </c>
+      <c r="S377">
+        <v>6</v>
+      </c>
+      <c r="T377">
+        <v>3.9</v>
+      </c>
+      <c r="U377">
+        <v>2.11</v>
+      </c>
+      <c r="V377">
+        <v>2.76</v>
+      </c>
+      <c r="W377">
+        <v>1.39</v>
+      </c>
+      <c r="X377">
+        <v>2.75</v>
+      </c>
+      <c r="Y377">
+        <v>2.95</v>
+      </c>
+      <c r="Z377">
+        <v>1.35</v>
+      </c>
+      <c r="AA377">
+        <v>7.4</v>
+      </c>
+      <c r="AB377">
+        <v>1.06</v>
+      </c>
+      <c r="AC377">
+        <v>3</v>
+      </c>
+      <c r="AD377">
+        <v>3.1</v>
+      </c>
+      <c r="AE377">
+        <v>2.1</v>
+      </c>
+      <c r="AF377">
+        <v>1.05</v>
+      </c>
+      <c r="AG377">
+        <v>10</v>
+      </c>
+      <c r="AH377">
+        <v>1.33</v>
+      </c>
+      <c r="AI377">
+        <v>3.25</v>
+      </c>
+      <c r="AJ377">
+        <v>1.92</v>
+      </c>
+      <c r="AK377">
+        <v>1.73</v>
+      </c>
+      <c r="AL377">
+        <v>1.8</v>
+      </c>
+      <c r="AM377">
+        <v>1.95</v>
+      </c>
+      <c r="AN377">
+        <v>1.68</v>
+      </c>
+      <c r="AO377">
+        <v>1.32</v>
+      </c>
+      <c r="AP377">
+        <v>1.33</v>
+      </c>
+      <c r="AQ377">
+        <v>1.67</v>
+      </c>
+      <c r="AR377">
+        <v>1.44</v>
+      </c>
+      <c r="AS377">
+        <v>1.75</v>
+      </c>
+      <c r="AT377">
+        <v>1.35</v>
+      </c>
+      <c r="AU377">
+        <v>1.48</v>
+      </c>
+      <c r="AV377">
+        <v>1.45</v>
+      </c>
+      <c r="AW377">
+        <v>2.93</v>
+      </c>
+      <c r="AX377">
+        <v>2.39</v>
+      </c>
+      <c r="AY377">
+        <v>8</v>
+      </c>
+      <c r="AZ377">
+        <v>1.82</v>
+      </c>
+      <c r="BA377">
+        <v>1.24</v>
+      </c>
+      <c r="BB377">
+        <v>1.45</v>
+      </c>
+      <c r="BC377">
+        <v>1.8</v>
+      </c>
+      <c r="BD377">
+        <v>2.35</v>
+      </c>
+      <c r="BE377">
+        <v>3.2</v>
+      </c>
+      <c r="BF377">
+        <v>3</v>
+      </c>
+      <c r="BG377">
+        <v>2</v>
+      </c>
+      <c r="BH377">
+        <v>7</v>
+      </c>
+      <c r="BI377">
+        <v>6</v>
+      </c>
+      <c r="BJ377">
+        <v>10</v>
+      </c>
+      <c r="BK377">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:63">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>2581056</v>
+      </c>
+      <c r="C378" t="s">
+        <v>63</v>
+      </c>
+      <c r="D378" t="s">
+        <v>64</v>
+      </c>
+      <c r="E378" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F378">
+        <v>34</v>
+      </c>
+      <c r="G378" t="s">
+        <v>83</v>
+      </c>
+      <c r="H378" t="s">
+        <v>74</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>4</v>
+      </c>
+      <c r="K378">
+        <v>4</v>
+      </c>
+      <c r="L378">
+        <v>2</v>
+      </c>
+      <c r="M378">
+        <v>5</v>
+      </c>
+      <c r="N378">
+        <v>7</v>
+      </c>
+      <c r="O378" t="s">
+        <v>307</v>
+      </c>
+      <c r="P378" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q378">
+        <v>3</v>
+      </c>
+      <c r="R378">
+        <v>9</v>
+      </c>
+      <c r="S378">
+        <v>12</v>
+      </c>
+      <c r="T378">
+        <v>4.5</v>
+      </c>
+      <c r="U378">
+        <v>2.1</v>
+      </c>
+      <c r="V378">
+        <v>2.65</v>
+      </c>
+      <c r="W378">
+        <v>1.42</v>
+      </c>
+      <c r="X378">
+        <v>2.65</v>
+      </c>
+      <c r="Y378">
+        <v>3.05</v>
+      </c>
+      <c r="Z378">
+        <v>1.33</v>
+      </c>
+      <c r="AA378">
+        <v>7.9</v>
+      </c>
+      <c r="AB378">
+        <v>1.05</v>
+      </c>
+      <c r="AC378">
+        <v>3.5</v>
+      </c>
+      <c r="AD378">
+        <v>3.15</v>
+      </c>
+      <c r="AE378">
+        <v>1.9</v>
+      </c>
+      <c r="AF378">
+        <v>1.06</v>
+      </c>
+      <c r="AG378">
+        <v>9.5</v>
+      </c>
+      <c r="AH378">
+        <v>1.38</v>
+      </c>
+      <c r="AI378">
+        <v>3</v>
+      </c>
+      <c r="AJ378">
+        <v>1.97</v>
+      </c>
+      <c r="AK378">
+        <v>1.83</v>
+      </c>
+      <c r="AL378">
+        <v>1.95</v>
+      </c>
+      <c r="AM378">
+        <v>1.83</v>
+      </c>
+      <c r="AN378">
+        <v>1.87</v>
+      </c>
+      <c r="AO378">
+        <v>1.25</v>
+      </c>
+      <c r="AP378">
+        <v>1.25</v>
+      </c>
+      <c r="AQ378">
+        <v>1.43</v>
+      </c>
+      <c r="AR378">
+        <v>1.53</v>
+      </c>
+      <c r="AS378">
+        <v>1.33</v>
+      </c>
+      <c r="AT378">
+        <v>1.63</v>
+      </c>
+      <c r="AU378">
+        <v>1.16</v>
+      </c>
+      <c r="AV378">
+        <v>1.34</v>
+      </c>
+      <c r="AW378">
+        <v>2.5</v>
+      </c>
+      <c r="AX378">
+        <v>2.63</v>
+      </c>
+      <c r="AY378">
+        <v>8</v>
+      </c>
+      <c r="AZ378">
+        <v>1.69</v>
+      </c>
+      <c r="BA378">
+        <v>1.3</v>
+      </c>
+      <c r="BB378">
+        <v>1.57</v>
+      </c>
+      <c r="BC378">
+        <v>2</v>
+      </c>
+      <c r="BD378">
+        <v>2.7</v>
+      </c>
+      <c r="BE378">
+        <v>3.75</v>
+      </c>
+      <c r="BF378">
+        <v>5</v>
+      </c>
+      <c r="BG378">
+        <v>8</v>
+      </c>
+      <c r="BH378">
+        <v>9</v>
+      </c>
+      <c r="BI378">
+        <v>13</v>
+      </c>
+      <c r="BJ378">
+        <v>14</v>
+      </c>
+      <c r="BK378">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="379" spans="1:63">
+      <c r="A379" s="1">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>2581057</v>
+      </c>
+      <c r="C379" t="s">
+        <v>63</v>
+      </c>
+      <c r="D379" t="s">
+        <v>64</v>
+      </c>
+      <c r="E379" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F379">
+        <v>34</v>
+      </c>
+      <c r="G379" t="s">
+        <v>85</v>
+      </c>
+      <c r="H379" t="s">
+        <v>70</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>0</v>
+      </c>
+      <c r="L379">
+        <v>1</v>
+      </c>
+      <c r="M379">
+        <v>1</v>
+      </c>
+      <c r="N379">
+        <v>2</v>
+      </c>
+      <c r="O379" t="s">
+        <v>170</v>
+      </c>
+      <c r="P379" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q379">
+        <v>3</v>
+      </c>
+      <c r="R379">
+        <v>7</v>
+      </c>
+      <c r="S379">
+        <v>10</v>
+      </c>
+      <c r="T379">
+        <v>2.75</v>
+      </c>
+      <c r="U379">
+        <v>2.15</v>
+      </c>
+      <c r="V379">
+        <v>3.78</v>
+      </c>
+      <c r="W379">
+        <v>1.36</v>
+      </c>
+      <c r="X379">
+        <v>2.9</v>
+      </c>
+      <c r="Y379">
+        <v>2.75</v>
+      </c>
+      <c r="Z379">
+        <v>1.4</v>
+      </c>
+      <c r="AA379">
+        <v>6.95</v>
+      </c>
+      <c r="AB379">
+        <v>1.07</v>
+      </c>
+      <c r="AC379">
+        <v>2.05</v>
+      </c>
+      <c r="AD379">
+        <v>3.35</v>
+      </c>
+      <c r="AE379">
+        <v>3</v>
+      </c>
+      <c r="AF379">
+        <v>1.04</v>
+      </c>
+      <c r="AG379">
+        <v>11</v>
+      </c>
+      <c r="AH379">
+        <v>1.3</v>
+      </c>
+      <c r="AI379">
+        <v>3.5</v>
+      </c>
+      <c r="AJ379">
+        <v>1.83</v>
+      </c>
+      <c r="AK379">
+        <v>1.81</v>
+      </c>
+      <c r="AL379">
+        <v>1.73</v>
+      </c>
+      <c r="AM379">
+        <v>2.04</v>
+      </c>
+      <c r="AN379">
+        <v>1.35</v>
+      </c>
+      <c r="AO379">
+        <v>1.3</v>
+      </c>
+      <c r="AP379">
+        <v>1.68</v>
+      </c>
+      <c r="AQ379">
+        <v>1.35</v>
+      </c>
+      <c r="AR379">
+        <v>0.75</v>
+      </c>
+      <c r="AS379">
+        <v>1.33</v>
+      </c>
+      <c r="AT379">
+        <v>0.76</v>
+      </c>
+      <c r="AU379">
+        <v>1.18</v>
+      </c>
+      <c r="AV379">
+        <v>1.03</v>
+      </c>
+      <c r="AW379">
+        <v>2.21</v>
+      </c>
+      <c r="AX379">
+        <v>1.91</v>
+      </c>
+      <c r="AY379">
+        <v>8</v>
+      </c>
+      <c r="AZ379">
+        <v>2.2</v>
+      </c>
+      <c r="BA379">
+        <v>1.21</v>
+      </c>
+      <c r="BB379">
+        <v>1.4</v>
+      </c>
+      <c r="BC379">
+        <v>1.72</v>
+      </c>
+      <c r="BD379">
+        <v>2.2</v>
+      </c>
+      <c r="BE379">
+        <v>3</v>
+      </c>
+      <c r="BF379">
+        <v>6</v>
+      </c>
+      <c r="BG379">
+        <v>6</v>
+      </c>
+      <c r="BH379">
+        <v>13</v>
+      </c>
+      <c r="BI379">
+        <v>13</v>
+      </c>
+      <c r="BJ379">
+        <v>19</v>
+      </c>
+      <c r="BK379">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="380" spans="1:63">
+      <c r="A380" s="1">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>2581058</v>
+      </c>
+      <c r="C380" t="s">
+        <v>63</v>
+      </c>
+      <c r="D380" t="s">
+        <v>64</v>
+      </c>
+      <c r="E380" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F380">
+        <v>34</v>
+      </c>
+      <c r="G380" t="s">
+        <v>84</v>
+      </c>
+      <c r="H380" t="s">
+        <v>75</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+      <c r="L380">
+        <v>0</v>
+      </c>
+      <c r="M380">
+        <v>1</v>
+      </c>
+      <c r="N380">
+        <v>1</v>
+      </c>
+      <c r="O380" t="s">
+        <v>99</v>
+      </c>
+      <c r="P380" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q380">
+        <v>3</v>
+      </c>
+      <c r="R380">
+        <v>1</v>
+      </c>
+      <c r="S380">
+        <v>4</v>
+      </c>
+      <c r="T380">
+        <v>3.22</v>
+      </c>
+      <c r="U380">
+        <v>2.13</v>
+      </c>
+      <c r="V380">
+        <v>3.22</v>
+      </c>
+      <c r="W380">
+        <v>1.36</v>
+      </c>
+      <c r="X380">
+        <v>2.9</v>
+      </c>
+      <c r="Y380">
+        <v>2.75</v>
+      </c>
+      <c r="Z380">
+        <v>1.4</v>
+      </c>
+      <c r="AA380">
+        <v>6.95</v>
+      </c>
+      <c r="AB380">
+        <v>1.07</v>
+      </c>
+      <c r="AC380">
+        <v>2.5</v>
+      </c>
+      <c r="AD380">
+        <v>3.3</v>
+      </c>
+      <c r="AE380">
+        <v>2.35</v>
+      </c>
+      <c r="AF380">
+        <v>1.04</v>
+      </c>
+      <c r="AG380">
+        <v>12</v>
+      </c>
+      <c r="AH380">
+        <v>1.3</v>
+      </c>
+      <c r="AI380">
+        <v>3.5</v>
+      </c>
+      <c r="AJ380">
+        <v>1.81</v>
+      </c>
+      <c r="AK380">
+        <v>1.83</v>
+      </c>
+      <c r="AL380">
+        <v>1.72</v>
+      </c>
+      <c r="AM380">
+        <v>2.05</v>
+      </c>
+      <c r="AN380">
+        <v>1.49</v>
+      </c>
+      <c r="AO380">
+        <v>1.31</v>
+      </c>
+      <c r="AP380">
+        <v>1.49</v>
+      </c>
+      <c r="AQ380">
+        <v>1.87</v>
+      </c>
+      <c r="AR380">
+        <v>1.71</v>
+      </c>
+      <c r="AS380">
+        <v>1.75</v>
+      </c>
+      <c r="AT380">
+        <v>1.8</v>
+      </c>
+      <c r="AU380">
+        <v>1.36</v>
+      </c>
+      <c r="AV380">
+        <v>1.1</v>
+      </c>
+      <c r="AW380">
+        <v>2.46</v>
+      </c>
+      <c r="AX380">
+        <v>1.75</v>
+      </c>
+      <c r="AY380">
+        <v>8</v>
+      </c>
+      <c r="AZ380">
+        <v>2.44</v>
+      </c>
+      <c r="BA380">
+        <v>1.26</v>
+      </c>
+      <c r="BB380">
+        <v>1.48</v>
+      </c>
+      <c r="BC380">
+        <v>1.95</v>
+      </c>
+      <c r="BD380">
+        <v>2.43</v>
+      </c>
+      <c r="BE380">
+        <v>3.35</v>
+      </c>
+      <c r="BF380">
+        <v>3</v>
+      </c>
+      <c r="BG380">
+        <v>6</v>
+      </c>
+      <c r="BH380">
+        <v>4</v>
+      </c>
+      <c r="BI380">
+        <v>6</v>
+      </c>
+      <c r="BJ380">
+        <v>7</v>
+      </c>
+      <c r="BK380">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="381" spans="1:63">
+      <c r="A381" s="1">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>2581059</v>
+      </c>
+      <c r="C381" t="s">
+        <v>63</v>
+      </c>
+      <c r="D381" t="s">
+        <v>64</v>
+      </c>
+      <c r="E381" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F381">
+        <v>34</v>
+      </c>
+      <c r="G381" t="s">
+        <v>88</v>
+      </c>
+      <c r="H381" t="s">
+        <v>65</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381">
+        <v>2</v>
+      </c>
+      <c r="M381">
+        <v>1</v>
+      </c>
+      <c r="N381">
+        <v>3</v>
+      </c>
+      <c r="O381" t="s">
+        <v>308</v>
+      </c>
+      <c r="P381" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q381">
+        <v>6</v>
+      </c>
+      <c r="R381">
+        <v>6</v>
+      </c>
+      <c r="S381">
+        <v>12</v>
+      </c>
+      <c r="T381">
+        <v>2.88</v>
+      </c>
+      <c r="U381">
+        <v>2</v>
+      </c>
+      <c r="V381">
+        <v>3.6</v>
+      </c>
+      <c r="W381">
+        <v>1.5</v>
+      </c>
+      <c r="X381">
+        <v>2.4</v>
+      </c>
+      <c r="Y381">
+        <v>3.45</v>
+      </c>
+      <c r="Z381">
+        <v>1.27</v>
+      </c>
+      <c r="AA381">
+        <v>9.4</v>
+      </c>
+      <c r="AB381">
+        <v>1.03</v>
+      </c>
+      <c r="AC381">
+        <v>2.3</v>
+      </c>
+      <c r="AD381">
+        <v>2.8</v>
+      </c>
+      <c r="AE381">
+        <v>3</v>
+      </c>
+      <c r="AF381">
+        <v>1.09</v>
+      </c>
+      <c r="AG381">
+        <v>8</v>
+      </c>
+      <c r="AH381">
+        <v>1.47</v>
+      </c>
+      <c r="AI381">
+        <v>2.75</v>
+      </c>
+      <c r="AJ381">
+        <v>2.3</v>
+      </c>
+      <c r="AK381">
+        <v>1.57</v>
+      </c>
+      <c r="AL381">
+        <v>1.91</v>
+      </c>
+      <c r="AM381">
+        <v>1.8</v>
+      </c>
+      <c r="AN381">
+        <v>1.33</v>
+      </c>
+      <c r="AO381">
+        <v>1.4</v>
+      </c>
+      <c r="AP381">
+        <v>1.53</v>
+      </c>
+      <c r="AQ381">
+        <v>1.36</v>
+      </c>
+      <c r="AR381">
+        <v>1.13</v>
+      </c>
+      <c r="AS381">
+        <v>1.47</v>
+      </c>
+      <c r="AT381">
+        <v>1.06</v>
+      </c>
+      <c r="AU381">
+        <v>1.21</v>
+      </c>
+      <c r="AV381">
+        <v>1.07</v>
+      </c>
+      <c r="AW381">
+        <v>2.28</v>
+      </c>
+      <c r="AX381">
+        <v>1.64</v>
+      </c>
+      <c r="AY381">
+        <v>8</v>
+      </c>
+      <c r="AZ381">
+        <v>2.77</v>
+      </c>
+      <c r="BA381">
+        <v>1.27</v>
+      </c>
+      <c r="BB381">
+        <v>1.5</v>
+      </c>
+      <c r="BC381">
+        <v>2</v>
+      </c>
+      <c r="BD381">
+        <v>2.5</v>
+      </c>
+      <c r="BE381">
+        <v>3.5</v>
+      </c>
+      <c r="BF381">
+        <v>6</v>
+      </c>
+      <c r="BG381">
+        <v>4</v>
+      </c>
+      <c r="BH381">
+        <v>7</v>
+      </c>
+      <c r="BI381">
+        <v>13</v>
+      </c>
+      <c r="BJ381">
+        <v>13</v>
+      </c>
+      <c r="BK381">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="382" spans="1:63">
+      <c r="A382" s="1">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>2581055</v>
+      </c>
+      <c r="C382" t="s">
+        <v>63</v>
+      </c>
+      <c r="D382" t="s">
+        <v>64</v>
+      </c>
+      <c r="E382" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F382">
+        <v>34</v>
+      </c>
+      <c r="G382" t="s">
+        <v>86</v>
+      </c>
+      <c r="H382" t="s">
+        <v>76</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>1</v>
+      </c>
+      <c r="K382">
+        <v>1</v>
+      </c>
+      <c r="L382">
+        <v>0</v>
+      </c>
+      <c r="M382">
+        <v>1</v>
+      </c>
+      <c r="N382">
+        <v>1</v>
+      </c>
+      <c r="O382" t="s">
+        <v>99</v>
+      </c>
+      <c r="P382" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q382">
+        <v>9</v>
+      </c>
+      <c r="R382">
+        <v>5</v>
+      </c>
+      <c r="S382">
+        <v>14</v>
+      </c>
+      <c r="T382">
+        <v>4.05</v>
+      </c>
+      <c r="U382">
+        <v>1.89</v>
+      </c>
+      <c r="V382">
+        <v>3.16</v>
+      </c>
+      <c r="W382">
+        <v>1.47</v>
+      </c>
+      <c r="X382">
+        <v>2.5</v>
+      </c>
+      <c r="Y382">
+        <v>3.25</v>
+      </c>
+      <c r="Z382">
+        <v>1.3</v>
+      </c>
+      <c r="AA382">
+        <v>8.9</v>
+      </c>
+      <c r="AB382">
+        <v>1.04</v>
+      </c>
+      <c r="AC382">
+        <v>2.9</v>
+      </c>
+      <c r="AD382">
+        <v>2.9</v>
+      </c>
+      <c r="AE382">
+        <v>2.25</v>
+      </c>
+      <c r="AF382">
+        <v>1.08</v>
+      </c>
+      <c r="AG382">
+        <v>8.5</v>
+      </c>
+      <c r="AH382">
+        <v>1.42</v>
+      </c>
+      <c r="AI382">
+        <v>2.8</v>
+      </c>
+      <c r="AJ382">
+        <v>2.3</v>
+      </c>
+      <c r="AK382">
+        <v>1.57</v>
+      </c>
+      <c r="AL382">
+        <v>1.98</v>
+      </c>
+      <c r="AM382">
+        <v>1.77</v>
+      </c>
+      <c r="AN382">
+        <v>1.55</v>
+      </c>
+      <c r="AO382">
+        <v>1.39</v>
+      </c>
+      <c r="AP382">
+        <v>1.36</v>
+      </c>
+      <c r="AQ382">
+        <v>1.19</v>
+      </c>
+      <c r="AR382">
+        <v>1.73</v>
+      </c>
+      <c r="AS382">
+        <v>1.12</v>
+      </c>
+      <c r="AT382">
+        <v>1.81</v>
+      </c>
+      <c r="AU382">
+        <v>1.15</v>
+      </c>
+      <c r="AV382">
+        <v>1.4</v>
+      </c>
+      <c r="AW382">
+        <v>2.55</v>
+      </c>
+      <c r="AX382">
+        <v>2.05</v>
+      </c>
+      <c r="AY382">
+        <v>8</v>
+      </c>
+      <c r="AZ382">
+        <v>2.05</v>
+      </c>
+      <c r="BA382">
+        <v>1.26</v>
+      </c>
+      <c r="BB382">
+        <v>1.48</v>
+      </c>
+      <c r="BC382">
+        <v>1.95</v>
+      </c>
+      <c r="BD382">
+        <v>2.43</v>
+      </c>
+      <c r="BE382">
+        <v>3.35</v>
+      </c>
+      <c r="BF382">
+        <v>5</v>
+      </c>
+      <c r="BG382">
+        <v>7</v>
+      </c>
+      <c r="BH382">
+        <v>10</v>
+      </c>
+      <c r="BI382">
+        <v>9</v>
+      </c>
+      <c r="BJ382">
+        <v>15</v>
+      </c>
+      <c r="BK382">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="383" spans="1:63">
+      <c r="A383" s="1">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>2581063</v>
+      </c>
+      <c r="C383" t="s">
+        <v>63</v>
+      </c>
+      <c r="D383" t="s">
+        <v>64</v>
+      </c>
+      <c r="E383" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F383">
+        <v>34</v>
+      </c>
+      <c r="G383" t="s">
+        <v>80</v>
+      </c>
+      <c r="H383" t="s">
+        <v>68</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>1</v>
+      </c>
+      <c r="K383">
+        <v>1</v>
+      </c>
+      <c r="L383">
+        <v>0</v>
+      </c>
+      <c r="M383">
+        <v>2</v>
+      </c>
+      <c r="N383">
+        <v>2</v>
+      </c>
+      <c r="O383" t="s">
+        <v>99</v>
+      </c>
+      <c r="P383" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q383">
+        <v>6</v>
+      </c>
+      <c r="R383">
+        <v>2</v>
+      </c>
+      <c r="S383">
+        <v>8</v>
+      </c>
+      <c r="T383">
+        <v>2.78</v>
+      </c>
+      <c r="U383">
+        <v>2.06</v>
+      </c>
+      <c r="V383">
+        <v>4.05</v>
+      </c>
+      <c r="W383">
+        <v>1.43</v>
+      </c>
+      <c r="X383">
+        <v>2.65</v>
+      </c>
+      <c r="Y383">
+        <v>3.05</v>
+      </c>
+      <c r="Z383">
+        <v>1.34</v>
+      </c>
+      <c r="AA383">
+        <v>7.9</v>
+      </c>
+      <c r="AB383">
+        <v>1.05</v>
+      </c>
+      <c r="AC383">
+        <v>2.1</v>
+      </c>
+      <c r="AD383">
+        <v>3.15</v>
+      </c>
+      <c r="AE383">
+        <v>3</v>
+      </c>
+      <c r="AF383">
+        <v>1.06</v>
+      </c>
+      <c r="AG383">
+        <v>9.5</v>
+      </c>
+      <c r="AH383">
+        <v>1.36</v>
+      </c>
+      <c r="AI383">
+        <v>3.1</v>
+      </c>
+      <c r="AJ383">
+        <v>2.15</v>
+      </c>
+      <c r="AK383">
+        <v>1.67</v>
+      </c>
+      <c r="AL383">
+        <v>1.87</v>
+      </c>
+      <c r="AM383">
+        <v>1.87</v>
+      </c>
+      <c r="AN383">
+        <v>1.32</v>
+      </c>
+      <c r="AO383">
+        <v>1.32</v>
+      </c>
+      <c r="AP383">
+        <v>1.69</v>
+      </c>
+      <c r="AQ383">
+        <v>1.07</v>
+      </c>
+      <c r="AR383">
+        <v>0.88</v>
+      </c>
+      <c r="AS383">
+        <v>1</v>
+      </c>
+      <c r="AT383">
+        <v>1</v>
+      </c>
+      <c r="AU383">
+        <v>1.41</v>
+      </c>
+      <c r="AV383">
+        <v>1.32</v>
+      </c>
+      <c r="AW383">
+        <v>2.73</v>
+      </c>
+      <c r="AX383">
+        <v>1.75</v>
+      </c>
+      <c r="AY383">
+        <v>8</v>
+      </c>
+      <c r="AZ383">
+        <v>2.42</v>
+      </c>
+      <c r="BA383">
+        <v>1.26</v>
+      </c>
+      <c r="BB383">
+        <v>1.48</v>
+      </c>
+      <c r="BC383">
+        <v>1.9</v>
+      </c>
+      <c r="BD383">
+        <v>2.43</v>
+      </c>
+      <c r="BE383">
+        <v>3.35</v>
+      </c>
+      <c r="BF383">
+        <v>6</v>
+      </c>
+      <c r="BG383">
+        <v>6</v>
+      </c>
+      <c r="BH383">
+        <v>15</v>
+      </c>
+      <c r="BI383">
+        <v>6</v>
+      </c>
+      <c r="BJ383">
+        <v>21</v>
+      </c>
+      <c r="BK383">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="384" spans="1:63">
+      <c r="A384" s="1">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>2581061</v>
+      </c>
+      <c r="C384" t="s">
+        <v>63</v>
+      </c>
+      <c r="D384" t="s">
+        <v>64</v>
+      </c>
+      <c r="E384" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F384">
+        <v>34</v>
+      </c>
+      <c r="G384" t="s">
+        <v>77</v>
+      </c>
+      <c r="H384" t="s">
+        <v>66</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>1</v>
+      </c>
+      <c r="K384">
+        <v>1</v>
+      </c>
+      <c r="L384">
+        <v>3</v>
+      </c>
+      <c r="M384">
+        <v>3</v>
+      </c>
+      <c r="N384">
+        <v>6</v>
+      </c>
+      <c r="O384" t="s">
+        <v>309</v>
+      </c>
+      <c r="P384" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q384">
+        <v>5</v>
+      </c>
+      <c r="R384">
+        <v>5</v>
+      </c>
+      <c r="S384">
+        <v>10</v>
+      </c>
+      <c r="T384">
+        <v>3.75</v>
+      </c>
+      <c r="U384">
+        <v>2.1</v>
+      </c>
+      <c r="V384">
+        <v>3</v>
+      </c>
+      <c r="W384">
+        <v>1.44</v>
+      </c>
+      <c r="X384">
+        <v>2.6</v>
+      </c>
+      <c r="Y384">
+        <v>3.2</v>
+      </c>
+      <c r="Z384">
+        <v>1.31</v>
+      </c>
+      <c r="AA384">
+        <v>8.35</v>
+      </c>
+      <c r="AB384">
+        <v>1.05</v>
+      </c>
+      <c r="AC384">
+        <v>2.85</v>
+      </c>
+      <c r="AD384">
+        <v>3</v>
+      </c>
+      <c r="AE384">
+        <v>2.25</v>
+      </c>
+      <c r="AF384">
+        <v>1.07</v>
+      </c>
+      <c r="AG384">
+        <v>9.5</v>
+      </c>
+      <c r="AH384">
+        <v>1.4</v>
+      </c>
+      <c r="AI384">
+        <v>2.95</v>
+      </c>
+      <c r="AJ384">
+        <v>2.2</v>
+      </c>
+      <c r="AK384">
+        <v>1.61</v>
+      </c>
+      <c r="AL384">
+        <v>1.85</v>
+      </c>
+      <c r="AM384">
+        <v>1.85</v>
+      </c>
+      <c r="AN384">
+        <v>1.61</v>
+      </c>
+      <c r="AO384">
+        <v>1.36</v>
+      </c>
+      <c r="AP384">
+        <v>1.33</v>
+      </c>
+      <c r="AQ384">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR384">
+        <v>1.07</v>
+      </c>
+      <c r="AS384">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT384">
+        <v>1.06</v>
+      </c>
+      <c r="AU384">
+        <v>1.44</v>
+      </c>
+      <c r="AV384">
+        <v>1.12</v>
+      </c>
+      <c r="AW384">
+        <v>2.56</v>
+      </c>
+      <c r="AX384">
+        <v>2.2</v>
+      </c>
+      <c r="AY384">
+        <v>8</v>
+      </c>
+      <c r="AZ384">
+        <v>1.91</v>
+      </c>
+      <c r="BA384">
+        <v>1.27</v>
+      </c>
+      <c r="BB384">
+        <v>1.5</v>
+      </c>
+      <c r="BC384">
+        <v>2</v>
+      </c>
+      <c r="BD384">
+        <v>2.5</v>
+      </c>
+      <c r="BE384">
+        <v>3.5</v>
+      </c>
+      <c r="BF384">
+        <v>5</v>
+      </c>
+      <c r="BG384">
+        <v>8</v>
+      </c>
+      <c r="BH384">
+        <v>4</v>
+      </c>
+      <c r="BI384">
+        <v>4</v>
+      </c>
+      <c r="BJ384">
+        <v>9</v>
+      </c>
+      <c r="BK384">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="385" spans="1:63">
+      <c r="A385" s="1">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>2581064</v>
+      </c>
+      <c r="C385" t="s">
+        <v>63</v>
+      </c>
+      <c r="D385" t="s">
+        <v>64</v>
+      </c>
+      <c r="E385" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F385">
+        <v>34</v>
+      </c>
+      <c r="G385" t="s">
+        <v>79</v>
+      </c>
+      <c r="H385" t="s">
+        <v>67</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>0</v>
+      </c>
+      <c r="L385">
+        <v>0</v>
+      </c>
+      <c r="M385">
+        <v>1</v>
+      </c>
+      <c r="N385">
+        <v>1</v>
+      </c>
+      <c r="O385" t="s">
+        <v>99</v>
+      </c>
+      <c r="P385" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q385">
+        <v>5</v>
+      </c>
+      <c r="R385">
+        <v>3</v>
+      </c>
+      <c r="S385">
+        <v>8</v>
+      </c>
+      <c r="T385">
+        <v>2.4</v>
+      </c>
+      <c r="U385">
+        <v>2.05</v>
+      </c>
+      <c r="V385">
+        <v>4.4</v>
+      </c>
+      <c r="W385">
+        <v>1.44</v>
+      </c>
+      <c r="X385">
+        <v>2.6</v>
+      </c>
+      <c r="Y385">
+        <v>3.15</v>
+      </c>
+      <c r="Z385">
+        <v>1.32</v>
+      </c>
+      <c r="AA385">
+        <v>8.35</v>
+      </c>
+      <c r="AB385">
+        <v>1.05</v>
+      </c>
+      <c r="AC385">
+        <v>1.83</v>
+      </c>
+      <c r="AD385">
+        <v>3</v>
+      </c>
+      <c r="AE385">
+        <v>4.05</v>
+      </c>
+      <c r="AF385">
+        <v>1.06</v>
+      </c>
+      <c r="AG385">
+        <v>9.5</v>
+      </c>
+      <c r="AH385">
+        <v>1.38</v>
+      </c>
+      <c r="AI385">
+        <v>3</v>
+      </c>
+      <c r="AJ385">
+        <v>2.15</v>
+      </c>
+      <c r="AK385">
+        <v>1.67</v>
+      </c>
+      <c r="AL385">
+        <v>1.91</v>
+      </c>
+      <c r="AM385">
+        <v>1.8</v>
+      </c>
+      <c r="AN385">
+        <v>1.18</v>
+      </c>
+      <c r="AO385">
+        <v>1.3</v>
+      </c>
+      <c r="AP385">
+        <v>1.91</v>
+      </c>
+      <c r="AQ385">
+        <v>2.47</v>
+      </c>
+      <c r="AR385">
+        <v>1</v>
+      </c>
+      <c r="AS385">
+        <v>2.31</v>
+      </c>
+      <c r="AT385">
+        <v>1.12</v>
+      </c>
+      <c r="AU385">
+        <v>1.77</v>
+      </c>
+      <c r="AV385">
+        <v>1.29</v>
+      </c>
+      <c r="AW385">
+        <v>3.06</v>
+      </c>
+      <c r="AX385">
+        <v>1.55</v>
+      </c>
+      <c r="AY385">
+        <v>8.5</v>
+      </c>
+      <c r="AZ385">
+        <v>2.91</v>
+      </c>
+      <c r="BA385">
+        <v>1.26</v>
+      </c>
+      <c r="BB385">
+        <v>1.48</v>
+      </c>
+      <c r="BC385">
+        <v>1.85</v>
+      </c>
+      <c r="BD385">
+        <v>2.43</v>
+      </c>
+      <c r="BE385">
+        <v>3.35</v>
+      </c>
+      <c r="BF385">
+        <v>6</v>
+      </c>
+      <c r="BG385">
+        <v>5</v>
+      </c>
+      <c r="BH385">
+        <v>10</v>
+      </c>
+      <c r="BI385">
+        <v>5</v>
+      </c>
+      <c r="BJ385">
+        <v>16</v>
+      </c>
+      <c r="BK385">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="386" spans="1:63">
+      <c r="A386" s="1">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>2581065</v>
+      </c>
+      <c r="C386" t="s">
+        <v>63</v>
+      </c>
+      <c r="D386" t="s">
+        <v>64</v>
+      </c>
+      <c r="E386" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F386">
+        <v>34</v>
+      </c>
+      <c r="G386" t="s">
+        <v>78</v>
+      </c>
+      <c r="H386" t="s">
+        <v>73</v>
+      </c>
+      <c r="I386">
+        <v>2</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386">
+        <v>2</v>
+      </c>
+      <c r="L386">
+        <v>3</v>
+      </c>
+      <c r="M386">
+        <v>0</v>
+      </c>
+      <c r="N386">
+        <v>3</v>
+      </c>
+      <c r="O386" t="s">
+        <v>310</v>
+      </c>
+      <c r="P386" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q386">
+        <v>4</v>
+      </c>
+      <c r="R386">
+        <v>1</v>
+      </c>
+      <c r="S386">
+        <v>5</v>
+      </c>
+      <c r="T386">
+        <v>2.4</v>
+      </c>
+      <c r="U386">
+        <v>2.12</v>
+      </c>
+      <c r="V386">
+        <v>4.9</v>
+      </c>
+      <c r="W386">
+        <v>1.41</v>
+      </c>
+      <c r="X386">
+        <v>2.7</v>
+      </c>
+      <c r="Y386">
+        <v>2.95</v>
+      </c>
+      <c r="Z386">
+        <v>1.35</v>
+      </c>
+      <c r="AA386">
+        <v>7.85</v>
+      </c>
+      <c r="AB386">
+        <v>1.05</v>
+      </c>
+      <c r="AC386">
+        <v>1.8</v>
+      </c>
+      <c r="AD386">
+        <v>3.5</v>
+      </c>
+      <c r="AE386">
+        <v>3.55</v>
+      </c>
+      <c r="AF386">
+        <v>1.06</v>
+      </c>
+      <c r="AG386">
+        <v>10</v>
+      </c>
+      <c r="AH386">
+        <v>1.36</v>
+      </c>
+      <c r="AI386">
+        <v>3.2</v>
+      </c>
+      <c r="AJ386">
+        <v>2.1</v>
+      </c>
+      <c r="AK386">
+        <v>1.67</v>
+      </c>
+      <c r="AL386">
+        <v>1.91</v>
+      </c>
+      <c r="AM386">
+        <v>1.83</v>
+      </c>
+      <c r="AN386">
+        <v>1.22</v>
+      </c>
+      <c r="AO386">
+        <v>1.29</v>
+      </c>
+      <c r="AP386">
+        <v>1.98</v>
+      </c>
+      <c r="AQ386">
+        <v>1.53</v>
+      </c>
+      <c r="AR386">
+        <v>0.87</v>
+      </c>
+      <c r="AS386">
+        <v>1.63</v>
+      </c>
+      <c r="AT386">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AU386">
+        <v>1.68</v>
+      </c>
+      <c r="AV386">
+        <v>1.05</v>
+      </c>
+      <c r="AW386">
+        <v>2.73</v>
+      </c>
+      <c r="AX386">
+        <v>1.45</v>
+      </c>
+      <c r="AY386">
+        <v>9</v>
+      </c>
+      <c r="AZ386">
+        <v>3.44</v>
+      </c>
+      <c r="BA386">
+        <v>1.21</v>
+      </c>
+      <c r="BB386">
+        <v>1.4</v>
+      </c>
+      <c r="BC386">
+        <v>1.72</v>
+      </c>
+      <c r="BD386">
+        <v>2.2</v>
+      </c>
+      <c r="BE386">
+        <v>3</v>
+      </c>
+      <c r="BF386">
+        <v>8</v>
+      </c>
+      <c r="BG386">
+        <v>4</v>
+      </c>
+      <c r="BH386">
+        <v>5</v>
+      </c>
+      <c r="BI386">
+        <v>5</v>
+      </c>
+      <c r="BJ386">
+        <v>13</v>
+      </c>
+      <c r="BK386">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:63">
+      <c r="A387" s="1">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>2581060</v>
+      </c>
+      <c r="C387" t="s">
+        <v>63</v>
+      </c>
+      <c r="D387" t="s">
+        <v>64</v>
+      </c>
+      <c r="E387" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F387">
+        <v>34</v>
+      </c>
+      <c r="G387" t="s">
+        <v>82</v>
+      </c>
+      <c r="H387" t="s">
+        <v>72</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>1</v>
+      </c>
+      <c r="K387">
+        <v>1</v>
+      </c>
+      <c r="L387">
+        <v>2</v>
+      </c>
+      <c r="M387">
+        <v>2</v>
+      </c>
+      <c r="N387">
+        <v>4</v>
+      </c>
+      <c r="O387" t="s">
+        <v>311</v>
+      </c>
+      <c r="P387" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q387">
+        <v>1</v>
+      </c>
+      <c r="R387">
+        <v>1</v>
+      </c>
+      <c r="S387">
+        <v>2</v>
+      </c>
+      <c r="T387">
+        <v>3.92</v>
+      </c>
+      <c r="U387">
+        <v>1.96</v>
+      </c>
+      <c r="V387">
+        <v>3.05</v>
+      </c>
+      <c r="W387">
+        <v>1.49</v>
+      </c>
+      <c r="X387">
+        <v>2.45</v>
+      </c>
+      <c r="Y387">
+        <v>3.45</v>
+      </c>
+      <c r="Z387">
+        <v>1.27</v>
+      </c>
+      <c r="AA387">
+        <v>9.4</v>
+      </c>
+      <c r="AB387">
+        <v>1.03</v>
+      </c>
+      <c r="AC387">
+        <v>2.8</v>
+      </c>
+      <c r="AD387">
+        <v>3</v>
+      </c>
+      <c r="AE387">
+        <v>2.25</v>
+      </c>
+      <c r="AF387">
+        <v>1.08</v>
+      </c>
+      <c r="AG387">
+        <v>8</v>
+      </c>
+      <c r="AH387">
+        <v>1.47</v>
+      </c>
+      <c r="AI387">
+        <v>2.75</v>
+      </c>
+      <c r="AJ387">
+        <v>2.35</v>
+      </c>
+      <c r="AK387">
+        <v>1.53</v>
+      </c>
+      <c r="AL387">
+        <v>2.01</v>
+      </c>
+      <c r="AM387">
+        <v>1.75</v>
+      </c>
+      <c r="AN387">
+        <v>1.58</v>
+      </c>
+      <c r="AO387">
+        <v>1.36</v>
+      </c>
+      <c r="AP387">
+        <v>1.36</v>
+      </c>
+      <c r="AQ387">
+        <v>1.07</v>
+      </c>
+      <c r="AR387">
+        <v>1.75</v>
+      </c>
+      <c r="AS387">
+        <v>1.07</v>
+      </c>
+      <c r="AT387">
+        <v>1.71</v>
+      </c>
+      <c r="AU387">
+        <v>1.69</v>
+      </c>
+      <c r="AV387">
+        <v>1.33</v>
+      </c>
+      <c r="AW387">
+        <v>3.02</v>
+      </c>
+      <c r="AX387">
+        <v>2.1</v>
+      </c>
+      <c r="AY387">
+        <v>7.5</v>
+      </c>
+      <c r="AZ387">
+        <v>1.91</v>
+      </c>
+      <c r="BA387">
+        <v>1.3</v>
+      </c>
+      <c r="BB387">
+        <v>1.62</v>
+      </c>
+      <c r="BC387">
+        <v>2</v>
+      </c>
+      <c r="BD387">
+        <v>2.5</v>
+      </c>
+      <c r="BE387">
+        <v>3.75</v>
+      </c>
+      <c r="BF387">
+        <v>7</v>
+      </c>
+      <c r="BG387">
+        <v>4</v>
+      </c>
+      <c r="BH387">
+        <v>7</v>
+      </c>
+      <c r="BI387">
+        <v>2</v>
+      </c>
+      <c r="BJ387">
+        <v>14</v>
+      </c>
+      <c r="BK387">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:63">
+      <c r="A388" s="1">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>2581062</v>
+      </c>
+      <c r="C388" t="s">
+        <v>63</v>
+      </c>
+      <c r="D388" t="s">
+        <v>64</v>
+      </c>
+      <c r="E388" s="2">
+        <v>44982.5</v>
+      </c>
+      <c r="F388">
+        <v>34</v>
+      </c>
+      <c r="G388" t="s">
+        <v>81</v>
+      </c>
+      <c r="H388" t="s">
+        <v>69</v>
+      </c>
+      <c r="I388">
+        <v>1</v>
+      </c>
+      <c r="J388">
+        <v>2</v>
+      </c>
+      <c r="K388">
+        <v>3</v>
+      </c>
+      <c r="L388">
+        <v>2</v>
+      </c>
+      <c r="M388">
+        <v>5</v>
+      </c>
+      <c r="N388">
+        <v>7</v>
+      </c>
+      <c r="O388" t="s">
+        <v>312</v>
+      </c>
+      <c r="P388" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q388">
+        <v>6</v>
+      </c>
+      <c r="R388">
+        <v>6</v>
+      </c>
+      <c r="S388">
+        <v>12</v>
+      </c>
+      <c r="T388">
+        <v>2.8</v>
+      </c>
+      <c r="U388">
+        <v>2.05</v>
+      </c>
+      <c r="V388">
+        <v>3.6</v>
+      </c>
+      <c r="W388">
+        <v>1.41</v>
+      </c>
+      <c r="X388">
+        <v>2.7</v>
+      </c>
+      <c r="Y388">
+        <v>2.95</v>
+      </c>
+      <c r="Z388">
+        <v>1.35</v>
+      </c>
+      <c r="AA388">
+        <v>7.85</v>
+      </c>
+      <c r="AB388">
+        <v>1.05</v>
+      </c>
+      <c r="AC388">
+        <v>2</v>
+      </c>
+      <c r="AD388">
+        <v>3.1</v>
+      </c>
+      <c r="AE388">
+        <v>3.25</v>
+      </c>
+      <c r="AF388">
+        <v>1.06</v>
+      </c>
+      <c r="AG388">
+        <v>10</v>
+      </c>
+      <c r="AH388">
+        <v>1.36</v>
+      </c>
+      <c r="AI388">
+        <v>3.2</v>
+      </c>
+      <c r="AJ388">
+        <v>1.94</v>
+      </c>
+      <c r="AK388">
+        <v>1.72</v>
+      </c>
+      <c r="AL388">
+        <v>1.85</v>
+      </c>
+      <c r="AM388">
+        <v>1.85</v>
+      </c>
+      <c r="AN388">
+        <v>1.25</v>
+      </c>
+      <c r="AO388">
+        <v>1.3</v>
+      </c>
+      <c r="AP388">
+        <v>1.73</v>
+      </c>
+      <c r="AQ388">
+        <v>1.73</v>
+      </c>
+      <c r="AR388">
+        <v>1.53</v>
+      </c>
+      <c r="AS388">
+        <v>1.63</v>
+      </c>
+      <c r="AT388">
+        <v>1.63</v>
+      </c>
+      <c r="AU388">
+        <v>1.6</v>
+      </c>
+      <c r="AV388">
+        <v>1.44</v>
+      </c>
+      <c r="AW388">
+        <v>3.04</v>
+      </c>
+      <c r="AX388">
+        <v>1.41</v>
+      </c>
+      <c r="AY388">
+        <v>9</v>
+      </c>
+      <c r="AZ388">
+        <v>3.56</v>
+      </c>
+      <c r="BA388">
+        <v>1.27</v>
+      </c>
+      <c r="BB388">
+        <v>1.5</v>
+      </c>
+      <c r="BC388">
+        <v>2</v>
+      </c>
+      <c r="BD388">
+        <v>2.5</v>
+      </c>
+      <c r="BE388">
+        <v>3.5</v>
+      </c>
+      <c r="BF388">
+        <v>7</v>
+      </c>
+      <c r="BG388">
+        <v>9</v>
+      </c>
+      <c r="BH388">
+        <v>13</v>
+      </c>
+      <c r="BI388">
+        <v>6</v>
+      </c>
+      <c r="BJ388">
+        <v>20</v>
+      </c>
+      <c r="BK388">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="456">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -961,6 +961,18 @@
     <t>['50']</t>
   </si>
   <si>
+    <t>['45+1', '46', '90+5']</t>
+  </si>
+  <si>
+    <t>['7', '28']</t>
+  </si>
+  <si>
+    <t>['90+3', '90+6']</t>
+  </si>
+  <si>
+    <t>['36', '44']</t>
+  </si>
+  <si>
     <t>['40', '84']</t>
   </si>
   <si>
@@ -1368,6 +1380,9 @@
   <si>
     <t>['27', '49']</t>
   </si>
+  <si>
+    <t>['30', '66', '77']</t>
+  </si>
 </sst>
 </file>
 
@@ -1728,7 +1743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK393"/>
+  <dimension ref="A1:BK405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2059,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT2">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2250,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT3">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2354,7 +2369,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2441,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT4">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2632,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT5">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2823,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT6">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2927,7 +2942,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3014,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT7">
         <v>1</v>
@@ -3118,7 +3133,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3205,10 +3220,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT8">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3396,10 +3411,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT9">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3590,7 +3605,7 @@
         <v>1.06</v>
       </c>
       <c r="AT10">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3778,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT11">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3969,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT12">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4073,7 +4088,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -4160,10 +4175,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT13">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -5601,7 +5616,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -6174,7 +6189,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6643,7 +6658,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -6747,7 +6762,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6834,10 +6849,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT27">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU27">
         <v>2.54</v>
@@ -7025,10 +7040,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT28">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU28">
         <v>1.11</v>
@@ -7216,10 +7231,10 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT29">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU29">
         <v>1.47</v>
@@ -7407,10 +7422,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT30">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU30">
         <v>1.58</v>
@@ -7598,10 +7613,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT31">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU31">
         <v>1.34</v>
@@ -7789,10 +7804,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT32">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU32">
         <v>2.39</v>
@@ -7980,10 +7995,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT33">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AU33">
         <v>1.72</v>
@@ -8174,7 +8189,7 @@
         <v>1.06</v>
       </c>
       <c r="AT34">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU34">
         <v>1.64</v>
@@ -8362,10 +8377,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT35">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU35">
         <v>2.46</v>
@@ -8466,7 +8481,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8553,10 +8568,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT36">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU36">
         <v>1.21</v>
@@ -8657,7 +8672,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8744,10 +8759,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT37">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU37">
         <v>1.34</v>
@@ -9230,7 +9245,7 @@
         <v>121</v>
       </c>
       <c r="P40" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9421,7 +9436,7 @@
         <v>122</v>
       </c>
       <c r="P41" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -9994,7 +10009,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q44">
         <v>10</v>
@@ -10185,7 +10200,7 @@
         <v>125</v>
       </c>
       <c r="P45" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10567,7 +10582,7 @@
         <v>127</v>
       </c>
       <c r="P47" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -10758,7 +10773,7 @@
         <v>99</v>
       </c>
       <c r="P48" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q48">
         <v>11</v>
@@ -10949,7 +10964,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11140,7 +11155,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -12286,7 +12301,7 @@
         <v>133</v>
       </c>
       <c r="P56" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12477,7 +12492,7 @@
         <v>134</v>
       </c>
       <c r="P57" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12668,7 +12683,7 @@
         <v>99</v>
       </c>
       <c r="P58" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12859,7 +12874,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13241,7 +13256,7 @@
         <v>98</v>
       </c>
       <c r="P61" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13328,10 +13343,10 @@
         <v>1.5</v>
       </c>
       <c r="AS61">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT61">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU61">
         <v>1.65</v>
@@ -13519,10 +13534,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT62">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU62">
         <v>1.32</v>
@@ -13710,10 +13725,10 @@
         <v>0</v>
       </c>
       <c r="AS63">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT63">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AU63">
         <v>1.29</v>
@@ -13901,10 +13916,10 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT64">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU64">
         <v>2</v>
@@ -14092,10 +14107,10 @@
         <v>2</v>
       </c>
       <c r="AS65">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT65">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU65">
         <v>1.47</v>
@@ -14283,10 +14298,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT66">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU66">
         <v>1.59</v>
@@ -14474,10 +14489,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT67">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU67">
         <v>1.68</v>
@@ -14578,7 +14593,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14665,10 +14680,10 @@
         <v>0</v>
       </c>
       <c r="AS68">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT68">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU68">
         <v>1.36</v>
@@ -14769,7 +14784,7 @@
         <v>99</v>
       </c>
       <c r="P69" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -14859,7 +14874,7 @@
         <v>1.06</v>
       </c>
       <c r="AT69">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU69">
         <v>1.76</v>
@@ -15047,10 +15062,10 @@
         <v>0</v>
       </c>
       <c r="AS70">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT70">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU70">
         <v>2.11</v>
@@ -15238,7 +15253,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT71">
         <v>1</v>
@@ -15342,7 +15357,7 @@
         <v>99</v>
       </c>
       <c r="P72" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15429,10 +15444,10 @@
         <v>1.5</v>
       </c>
       <c r="AS72">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT72">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU72">
         <v>1.39</v>
@@ -15620,7 +15635,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT73">
         <v>0.8100000000000001</v>
@@ -15811,7 +15826,7 @@
         <v>1.33</v>
       </c>
       <c r="AS74">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT74">
         <v>1.06</v>
@@ -15915,7 +15930,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -16002,10 +16017,10 @@
         <v>0.67</v>
       </c>
       <c r="AS75">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT75">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU75">
         <v>1.52</v>
@@ -16106,7 +16121,7 @@
         <v>99</v>
       </c>
       <c r="P76" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -16196,7 +16211,7 @@
         <v>1</v>
       </c>
       <c r="AT76">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU76">
         <v>1.28</v>
@@ -16384,7 +16399,7 @@
         <v>0.33</v>
       </c>
       <c r="AS77">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT77">
         <v>1.12</v>
@@ -16578,7 +16593,7 @@
         <v>1.38</v>
       </c>
       <c r="AT78">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU78">
         <v>1.39</v>
@@ -16766,10 +16781,10 @@
         <v>2</v>
       </c>
       <c r="AS79">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT79">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU79">
         <v>1.56</v>
@@ -16870,7 +16885,7 @@
         <v>147</v>
       </c>
       <c r="P80" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q80">
         <v>11</v>
@@ -16960,7 +16975,7 @@
         <v>1.33</v>
       </c>
       <c r="AT80">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU80">
         <v>0.97</v>
@@ -17151,7 +17166,7 @@
         <v>1.12</v>
       </c>
       <c r="AT81">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU81">
         <v>1.22</v>
@@ -17252,7 +17267,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17339,7 +17354,7 @@
         <v>0</v>
       </c>
       <c r="AS82">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT82">
         <v>0.76</v>
@@ -17443,7 +17458,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17530,7 +17545,7 @@
         <v>1.33</v>
       </c>
       <c r="AS83">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT83">
         <v>1.06</v>
@@ -17634,7 +17649,7 @@
         <v>151</v>
       </c>
       <c r="P84" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17724,7 +17739,7 @@
         <v>1.75</v>
       </c>
       <c r="AT84">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AU84">
         <v>1.51</v>
@@ -17915,7 +17930,7 @@
         <v>2.31</v>
       </c>
       <c r="AT85">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU85">
         <v>1.95</v>
@@ -18103,7 +18118,7 @@
         <v>2.33</v>
       </c>
       <c r="AS86">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT86">
         <v>1.71</v>
@@ -18398,7 +18413,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18870,7 +18885,7 @@
         <v>1.07</v>
       </c>
       <c r="AT90">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU90">
         <v>1.86</v>
@@ -18971,7 +18986,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -19252,7 +19267,7 @@
         <v>1.71</v>
       </c>
       <c r="AT92">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU92">
         <v>1.57</v>
@@ -19353,7 +19368,7 @@
         <v>99</v>
       </c>
       <c r="P93" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19440,7 +19455,7 @@
         <v>1.67</v>
       </c>
       <c r="AS93">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT93">
         <v>1.76</v>
@@ -19631,10 +19646,10 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT94">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU94">
         <v>1.57</v>
@@ -19735,7 +19750,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19822,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="AS95">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT95">
         <v>1.88</v>
@@ -19926,7 +19941,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -20204,10 +20219,10 @@
         <v>1.75</v>
       </c>
       <c r="AS97">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT97">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU97">
         <v>1.5</v>
@@ -20398,7 +20413,7 @@
         <v>1.33</v>
       </c>
       <c r="AT98">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU98">
         <v>1.01</v>
@@ -20499,7 +20514,7 @@
         <v>99</v>
       </c>
       <c r="P99" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20589,7 +20604,7 @@
         <v>1.75</v>
       </c>
       <c r="AT99">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU99">
         <v>1.52</v>
@@ -20690,7 +20705,7 @@
         <v>99</v>
       </c>
       <c r="P100" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20780,7 +20795,7 @@
         <v>1.38</v>
       </c>
       <c r="AT100">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AU100">
         <v>1.26</v>
@@ -20968,7 +20983,7 @@
         <v>1</v>
       </c>
       <c r="AS101">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT101">
         <v>1.06</v>
@@ -21072,7 +21087,7 @@
         <v>99</v>
       </c>
       <c r="P102" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -21162,7 +21177,7 @@
         <v>1</v>
       </c>
       <c r="AT102">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU102">
         <v>1.28</v>
@@ -21350,7 +21365,7 @@
         <v>0.25</v>
       </c>
       <c r="AS103">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT103">
         <v>0.76</v>
@@ -21541,7 +21556,7 @@
         <v>0.25</v>
       </c>
       <c r="AS104">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT104">
         <v>1.12</v>
@@ -21732,7 +21747,7 @@
         <v>0.75</v>
       </c>
       <c r="AS105">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT105">
         <v>0.8100000000000001</v>
@@ -21923,10 +21938,10 @@
         <v>0.25</v>
       </c>
       <c r="AS106">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT106">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU106">
         <v>1.51</v>
@@ -22027,7 +22042,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -22114,7 +22129,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT107">
         <v>1.06</v>
@@ -22308,7 +22323,7 @@
         <v>1.12</v>
       </c>
       <c r="AT108">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU108">
         <v>1.24</v>
@@ -22496,7 +22511,7 @@
         <v>0</v>
       </c>
       <c r="AS109">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT109">
         <v>1.35</v>
@@ -22690,7 +22705,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT110">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU110">
         <v>1.2</v>
@@ -23173,7 +23188,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -23263,7 +23278,7 @@
         <v>1.07</v>
       </c>
       <c r="AT113">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU113">
         <v>1.79</v>
@@ -23454,7 +23469,7 @@
         <v>1.75</v>
       </c>
       <c r="AT114">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU114">
         <v>1.41</v>
@@ -23555,7 +23570,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23645,7 +23660,7 @@
         <v>1.33</v>
       </c>
       <c r="AT115">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AU115">
         <v>1.16</v>
@@ -23937,7 +23952,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -24024,7 +24039,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT117">
         <v>1.06</v>
@@ -24128,7 +24143,7 @@
         <v>99</v>
       </c>
       <c r="P118" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -24319,7 +24334,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24406,7 +24421,7 @@
         <v>1.75</v>
       </c>
       <c r="AS119">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT119">
         <v>1.59</v>
@@ -24597,7 +24612,7 @@
         <v>0.8</v>
       </c>
       <c r="AS120">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT120">
         <v>1.12</v>
@@ -24701,7 +24716,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24892,7 +24907,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -24982,7 +24997,7 @@
         <v>1.63</v>
       </c>
       <c r="AT122">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU122">
         <v>1.67</v>
@@ -25083,7 +25098,7 @@
         <v>152</v>
       </c>
       <c r="P123" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -25274,7 +25289,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25364,7 +25379,7 @@
         <v>1.33</v>
       </c>
       <c r="AT124">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU124">
         <v>0.84</v>
@@ -25656,7 +25671,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q126">
         <v>14</v>
@@ -25743,10 +25758,10 @@
         <v>1</v>
       </c>
       <c r="AS126">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT126">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU126">
         <v>1.56</v>
@@ -25847,7 +25862,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -25934,10 +25949,10 @@
         <v>1.25</v>
       </c>
       <c r="AS127">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT127">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU127">
         <v>1.42</v>
@@ -26125,10 +26140,10 @@
         <v>2.4</v>
       </c>
       <c r="AS128">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT128">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU128">
         <v>1.51</v>
@@ -26316,10 +26331,10 @@
         <v>1.8</v>
       </c>
       <c r="AS129">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT129">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU129">
         <v>1.31</v>
@@ -26507,7 +26522,7 @@
         <v>0.8</v>
       </c>
       <c r="AS130">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT130">
         <v>1.06</v>
@@ -26698,10 +26713,10 @@
         <v>0.25</v>
       </c>
       <c r="AS131">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT131">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU131">
         <v>1.31</v>
@@ -26802,7 +26817,7 @@
         <v>157</v>
       </c>
       <c r="P132" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q132">
         <v>10</v>
@@ -27080,7 +27095,7 @@
         <v>1.25</v>
       </c>
       <c r="AS133">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT133">
         <v>1</v>
@@ -27271,7 +27286,7 @@
         <v>2.2</v>
       </c>
       <c r="AS134">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT134">
         <v>1.76</v>
@@ -27465,7 +27480,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT135">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU135">
         <v>1.16</v>
@@ -27847,7 +27862,7 @@
         <v>1.63</v>
       </c>
       <c r="AT137">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU137">
         <v>1.47</v>
@@ -28229,7 +28244,7 @@
         <v>1.07</v>
       </c>
       <c r="AT139">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU139">
         <v>1.64</v>
@@ -28330,7 +28345,7 @@
         <v>186</v>
       </c>
       <c r="P140" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -28608,7 +28623,7 @@
         <v>2</v>
       </c>
       <c r="AS141">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT141">
         <v>1.59</v>
@@ -28802,7 +28817,7 @@
         <v>2.31</v>
       </c>
       <c r="AT142">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU142">
         <v>1.88</v>
@@ -28903,7 +28918,7 @@
         <v>99</v>
       </c>
       <c r="P143" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28990,7 +29005,7 @@
         <v>1.17</v>
       </c>
       <c r="AS143">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT143">
         <v>1.12</v>
@@ -29181,7 +29196,7 @@
         <v>0.83</v>
       </c>
       <c r="AS144">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT144">
         <v>1.06</v>
@@ -29375,7 +29390,7 @@
         <v>1.33</v>
       </c>
       <c r="AT145">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU145">
         <v>1.1</v>
@@ -29476,7 +29491,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29948,7 +29963,7 @@
         <v>1.71</v>
       </c>
       <c r="AT148">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AU148">
         <v>1.66</v>
@@ -30136,7 +30151,7 @@
         <v>0</v>
       </c>
       <c r="AS149">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT149">
         <v>1.35</v>
@@ -30327,7 +30342,7 @@
         <v>1.2</v>
       </c>
       <c r="AS150">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT150">
         <v>1</v>
@@ -30521,7 +30536,7 @@
         <v>1.06</v>
       </c>
       <c r="AT151">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU151">
         <v>1.55</v>
@@ -30903,7 +30918,7 @@
         <v>1.63</v>
       </c>
       <c r="AT153">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU153">
         <v>1.59</v>
@@ -31004,7 +31019,7 @@
         <v>120</v>
       </c>
       <c r="P154" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -31091,10 +31106,10 @@
         <v>2.17</v>
       </c>
       <c r="AS154">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT154">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU154">
         <v>1.91</v>
@@ -31282,7 +31297,7 @@
         <v>1.8</v>
       </c>
       <c r="AS155">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT155">
         <v>1.88</v>
@@ -31473,7 +31488,7 @@
         <v>1.83</v>
       </c>
       <c r="AS156">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT156">
         <v>1.76</v>
@@ -31577,7 +31592,7 @@
         <v>193</v>
       </c>
       <c r="P157" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31667,7 +31682,7 @@
         <v>1.38</v>
       </c>
       <c r="AT157">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU157">
         <v>1.25</v>
@@ -31858,7 +31873,7 @@
         <v>1.33</v>
       </c>
       <c r="AT158">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU158">
         <v>1.02</v>
@@ -31959,7 +31974,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -32046,10 +32061,10 @@
         <v>1.5</v>
       </c>
       <c r="AS159">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT159">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU159">
         <v>1.33</v>
@@ -32237,7 +32252,7 @@
         <v>0.17</v>
       </c>
       <c r="AS160">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT160">
         <v>1</v>
@@ -32428,10 +32443,10 @@
         <v>1.33</v>
       </c>
       <c r="AS161">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT161">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU161">
         <v>1.68</v>
@@ -32532,7 +32547,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32619,7 +32634,7 @@
         <v>0.71</v>
       </c>
       <c r="AS162">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT162">
         <v>1.06</v>
@@ -32723,7 +32738,7 @@
         <v>198</v>
       </c>
       <c r="P163" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32914,7 +32929,7 @@
         <v>99</v>
       </c>
       <c r="P164" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -33001,7 +33016,7 @@
         <v>0.5</v>
       </c>
       <c r="AS164">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT164">
         <v>1.35</v>
@@ -33105,7 +33120,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -33192,7 +33207,7 @@
         <v>0.71</v>
       </c>
       <c r="AS165">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT165">
         <v>1.06</v>
@@ -33386,7 +33401,7 @@
         <v>1</v>
       </c>
       <c r="AT166">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU166">
         <v>1.32</v>
@@ -33487,7 +33502,7 @@
         <v>181</v>
       </c>
       <c r="P167" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -33959,7 +33974,7 @@
         <v>1.38</v>
       </c>
       <c r="AT169">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU169">
         <v>1.22</v>
@@ -34150,7 +34165,7 @@
         <v>1.33</v>
       </c>
       <c r="AT170">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU170">
         <v>1.15</v>
@@ -34251,7 +34266,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34341,7 +34356,7 @@
         <v>1.33</v>
       </c>
       <c r="AT171">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AU171">
         <v>1.07</v>
@@ -34442,7 +34457,7 @@
         <v>203</v>
       </c>
       <c r="P172" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34529,7 +34544,7 @@
         <v>2.33</v>
       </c>
       <c r="AS172">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT172">
         <v>1.71</v>
@@ -34633,7 +34648,7 @@
         <v>204</v>
       </c>
       <c r="P173" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -34723,7 +34738,7 @@
         <v>1.63</v>
       </c>
       <c r="AT173">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU173">
         <v>1.62</v>
@@ -34824,7 +34839,7 @@
         <v>99</v>
       </c>
       <c r="P174" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -35102,10 +35117,10 @@
         <v>0.5</v>
       </c>
       <c r="AS175">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT175">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU175">
         <v>1.7</v>
@@ -35296,7 +35311,7 @@
         <v>1.63</v>
       </c>
       <c r="AT176">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU176">
         <v>1.76</v>
@@ -35397,7 +35412,7 @@
         <v>206</v>
       </c>
       <c r="P177" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35484,7 +35499,7 @@
         <v>0.57</v>
       </c>
       <c r="AS177">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT177">
         <v>1</v>
@@ -35588,7 +35603,7 @@
         <v>207</v>
       </c>
       <c r="P178" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q178">
         <v>9</v>
@@ -35678,7 +35693,7 @@
         <v>1.12</v>
       </c>
       <c r="AT178">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU178">
         <v>1.19</v>
@@ -35866,7 +35881,7 @@
         <v>1.5</v>
       </c>
       <c r="AS179">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT179">
         <v>1.63</v>
@@ -36057,7 +36072,7 @@
         <v>1</v>
       </c>
       <c r="AS180">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT180">
         <v>0.76</v>
@@ -36161,7 +36176,7 @@
         <v>210</v>
       </c>
       <c r="P181" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36248,7 +36263,7 @@
         <v>0.57</v>
       </c>
       <c r="AS181">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT181">
         <v>0.8100000000000001</v>
@@ -36442,7 +36457,7 @@
         <v>1.75</v>
       </c>
       <c r="AT182">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU182">
         <v>1.38</v>
@@ -36630,10 +36645,10 @@
         <v>1.29</v>
       </c>
       <c r="AS183">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT183">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU183">
         <v>1.32</v>
@@ -36821,7 +36836,7 @@
         <v>1</v>
       </c>
       <c r="AS184">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT184">
         <v>1</v>
@@ -37015,7 +37030,7 @@
         <v>1.71</v>
       </c>
       <c r="AT185">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU185">
         <v>1.6</v>
@@ -37203,10 +37218,10 @@
         <v>1</v>
       </c>
       <c r="AS186">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT186">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU186">
         <v>1.44</v>
@@ -37394,10 +37409,10 @@
         <v>0.5</v>
       </c>
       <c r="AS187">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT187">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU187">
         <v>1.28</v>
@@ -37588,7 +37603,7 @@
         <v>1.75</v>
       </c>
       <c r="AT188">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU188">
         <v>1.38</v>
@@ -37779,7 +37794,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT189">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU189">
         <v>1.37</v>
@@ -37967,7 +37982,7 @@
         <v>2.29</v>
       </c>
       <c r="AS190">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT190">
         <v>1.59</v>
@@ -38071,7 +38086,7 @@
         <v>216</v>
       </c>
       <c r="P191" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -38161,7 +38176,7 @@
         <v>1.63</v>
       </c>
       <c r="AT191">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU191">
         <v>1.61</v>
@@ -38349,7 +38364,7 @@
         <v>0.63</v>
       </c>
       <c r="AS192">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT192">
         <v>1</v>
@@ -38453,7 +38468,7 @@
         <v>99</v>
       </c>
       <c r="P193" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38540,7 +38555,7 @@
         <v>1.29</v>
       </c>
       <c r="AS193">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT193">
         <v>1.63</v>
@@ -38731,7 +38746,7 @@
         <v>1</v>
       </c>
       <c r="AS194">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT194">
         <v>0.76</v>
@@ -38835,7 +38850,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -38922,7 +38937,7 @@
         <v>0.5</v>
       </c>
       <c r="AS195">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT195">
         <v>0.8100000000000001</v>
@@ -39307,7 +39322,7 @@
         <v>1.12</v>
       </c>
       <c r="AT197">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU197">
         <v>1.16</v>
@@ -39495,7 +39510,7 @@
         <v>0.86</v>
       </c>
       <c r="AS198">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT198">
         <v>1.35</v>
@@ -39689,7 +39704,7 @@
         <v>1.71</v>
       </c>
       <c r="AT199">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU199">
         <v>1.6</v>
@@ -39877,7 +39892,7 @@
         <v>2.43</v>
       </c>
       <c r="AS200">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT200">
         <v>1.71</v>
@@ -39981,7 +39996,7 @@
         <v>224</v>
       </c>
       <c r="P201" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q201">
         <v>6</v>
@@ -40172,7 +40187,7 @@
         <v>94</v>
       </c>
       <c r="P202" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q202">
         <v>9</v>
@@ -40450,7 +40465,7 @@
         <v>2</v>
       </c>
       <c r="AS203">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT203">
         <v>1.59</v>
@@ -40745,7 +40760,7 @@
         <v>99</v>
       </c>
       <c r="P205" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q205">
         <v>5</v>
@@ -40832,7 +40847,7 @@
         <v>2</v>
       </c>
       <c r="AS205">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT205">
         <v>1.88</v>
@@ -41026,7 +41041,7 @@
         <v>2.31</v>
       </c>
       <c r="AT206">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU206">
         <v>1.77</v>
@@ -41214,7 +41229,7 @@
         <v>1</v>
       </c>
       <c r="AS207">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT207">
         <v>1.06</v>
@@ -41405,10 +41420,10 @@
         <v>1.5</v>
       </c>
       <c r="AS208">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT208">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AU208">
         <v>1.32</v>
@@ -41509,7 +41524,7 @@
         <v>114</v>
       </c>
       <c r="P209" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41700,7 +41715,7 @@
         <v>99</v>
       </c>
       <c r="P210" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="Q210">
         <v>7</v>
@@ -41891,7 +41906,7 @@
         <v>112</v>
       </c>
       <c r="P211" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -41981,7 +41996,7 @@
         <v>1.07</v>
       </c>
       <c r="AT211">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU211">
         <v>1.64</v>
@@ -42082,7 +42097,7 @@
         <v>99</v>
       </c>
       <c r="P212" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -42363,7 +42378,7 @@
         <v>1.33</v>
       </c>
       <c r="AT213">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU213">
         <v>1.26</v>
@@ -42554,7 +42569,7 @@
         <v>1.33</v>
       </c>
       <c r="AT214">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU214">
         <v>1.12</v>
@@ -42742,7 +42757,7 @@
         <v>0.75</v>
       </c>
       <c r="AS215">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT215">
         <v>1.06</v>
@@ -43037,7 +43052,7 @@
         <v>99</v>
       </c>
       <c r="P217" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q217">
         <v>7</v>
@@ -43124,7 +43139,7 @@
         <v>1</v>
       </c>
       <c r="AS217">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT217">
         <v>1.06</v>
@@ -43315,7 +43330,7 @@
         <v>0.89</v>
       </c>
       <c r="AS218">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT218">
         <v>0.76</v>
@@ -43419,7 +43434,7 @@
         <v>98</v>
       </c>
       <c r="P219" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q219">
         <v>2</v>
@@ -43506,7 +43521,7 @@
         <v>2.22</v>
       </c>
       <c r="AS219">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT219">
         <v>1.71</v>
@@ -43610,7 +43625,7 @@
         <v>227</v>
       </c>
       <c r="P220" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q220">
         <v>8</v>
@@ -43697,7 +43712,7 @@
         <v>1.44</v>
       </c>
       <c r="AS220">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT220">
         <v>1.63</v>
@@ -43891,7 +43906,7 @@
         <v>1</v>
       </c>
       <c r="AT221">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU221">
         <v>1.29</v>
@@ -44079,10 +44094,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS222">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT222">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU222">
         <v>1.45</v>
@@ -44273,7 +44288,7 @@
         <v>1.07</v>
       </c>
       <c r="AT223">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU223">
         <v>1.56</v>
@@ -44464,7 +44479,7 @@
         <v>1.12</v>
       </c>
       <c r="AT224">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU224">
         <v>1.13</v>
@@ -44565,7 +44580,7 @@
         <v>231</v>
       </c>
       <c r="P225" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -44652,7 +44667,7 @@
         <v>2</v>
       </c>
       <c r="AS225">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT225">
         <v>1.76</v>
@@ -44846,7 +44861,7 @@
         <v>1.71</v>
       </c>
       <c r="AT226">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU226">
         <v>1.58</v>
@@ -45037,7 +45052,7 @@
         <v>1.06</v>
       </c>
       <c r="AT227">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AU227">
         <v>1.61</v>
@@ -45228,7 +45243,7 @@
         <v>1.33</v>
       </c>
       <c r="AT228">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU228">
         <v>1.08</v>
@@ -45329,7 +45344,7 @@
         <v>99</v>
       </c>
       <c r="P229" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q229">
         <v>5</v>
@@ -45520,7 +45535,7 @@
         <v>110</v>
       </c>
       <c r="P230" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q230">
         <v>2</v>
@@ -45610,7 +45625,7 @@
         <v>1.33</v>
       </c>
       <c r="AT230">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU230">
         <v>1.25</v>
@@ -45801,7 +45816,7 @@
         <v>2.31</v>
       </c>
       <c r="AT231">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU231">
         <v>1.73</v>
@@ -45989,10 +46004,10 @@
         <v>1.78</v>
       </c>
       <c r="AS232">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT232">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU232">
         <v>1.28</v>
@@ -46093,7 +46108,7 @@
         <v>99</v>
       </c>
       <c r="P233" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="Q233">
         <v>7</v>
@@ -46371,7 +46386,7 @@
         <v>2.11</v>
       </c>
       <c r="AS234">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT234">
         <v>1.88</v>
@@ -46562,7 +46577,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS235">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT235">
         <v>1</v>
@@ -46756,7 +46771,7 @@
         <v>1.33</v>
       </c>
       <c r="AT236">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU236">
         <v>1.06</v>
@@ -46857,7 +46872,7 @@
         <v>99</v>
       </c>
       <c r="P237" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q237">
         <v>1</v>
@@ -47048,7 +47063,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q238">
         <v>1</v>
@@ -47138,7 +47153,7 @@
         <v>1.63</v>
       </c>
       <c r="AT238">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU238">
         <v>1.58</v>
@@ -47326,7 +47341,7 @@
         <v>1.33</v>
       </c>
       <c r="AS239">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT239">
         <v>1.12</v>
@@ -47430,7 +47445,7 @@
         <v>154</v>
       </c>
       <c r="P240" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q240">
         <v>6</v>
@@ -47517,7 +47532,7 @@
         <v>0.44</v>
       </c>
       <c r="AS240">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT240">
         <v>0.8100000000000001</v>
@@ -47621,7 +47636,7 @@
         <v>99</v>
       </c>
       <c r="P241" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -47711,7 +47726,7 @@
         <v>1.33</v>
       </c>
       <c r="AT241">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU241">
         <v>1.12</v>
@@ -48090,10 +48105,10 @@
         <v>0.1</v>
       </c>
       <c r="AS243">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT243">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU243">
         <v>1.5</v>
@@ -48284,7 +48299,7 @@
         <v>2.31</v>
       </c>
       <c r="AT244">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AU244">
         <v>1.7</v>
@@ -48666,7 +48681,7 @@
         <v>1</v>
       </c>
       <c r="AT246">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU246">
         <v>1.3</v>
@@ -48857,7 +48872,7 @@
         <v>1.71</v>
       </c>
       <c r="AT247">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU247">
         <v>1.56</v>
@@ -49045,7 +49060,7 @@
         <v>0.6</v>
       </c>
       <c r="AS248">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT248">
         <v>1</v>
@@ -49236,7 +49251,7 @@
         <v>1.6</v>
       </c>
       <c r="AS249">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT249">
         <v>1.63</v>
@@ -49340,7 +49355,7 @@
         <v>242</v>
       </c>
       <c r="P250" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q250">
         <v>3</v>
@@ -49430,7 +49445,7 @@
         <v>1.06</v>
       </c>
       <c r="AT250">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU250">
         <v>1.58</v>
@@ -49621,7 +49636,7 @@
         <v>1.38</v>
       </c>
       <c r="AT251">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU251">
         <v>1.23</v>
@@ -49809,10 +49824,10 @@
         <v>1</v>
       </c>
       <c r="AS252">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT252">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU252">
         <v>1.5</v>
@@ -50000,7 +50015,7 @@
         <v>1.11</v>
       </c>
       <c r="AS253">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT253">
         <v>1</v>
@@ -50104,7 +50119,7 @@
         <v>153</v>
       </c>
       <c r="P254" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q254">
         <v>4</v>
@@ -50295,7 +50310,7 @@
         <v>245</v>
       </c>
       <c r="P255" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q255">
         <v>4</v>
@@ -50573,7 +50588,7 @@
         <v>1.9</v>
       </c>
       <c r="AS256">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT256">
         <v>1.88</v>
@@ -50764,10 +50779,10 @@
         <v>1.2</v>
       </c>
       <c r="AS257">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT257">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU257">
         <v>1.3</v>
@@ -51059,7 +51074,7 @@
         <v>102</v>
       </c>
       <c r="P259" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -51146,10 +51161,10 @@
         <v>0.45</v>
       </c>
       <c r="AS259">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT259">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU259">
         <v>1.27</v>
@@ -51337,10 +51352,10 @@
         <v>1.36</v>
       </c>
       <c r="AS260">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT260">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU260">
         <v>1.42</v>
@@ -51528,10 +51543,10 @@
         <v>1.6</v>
       </c>
       <c r="AS261">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT261">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU261">
         <v>1.61</v>
@@ -51632,7 +51647,7 @@
         <v>99</v>
       </c>
       <c r="P262" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q262">
         <v>6</v>
@@ -51823,7 +51838,7 @@
         <v>248</v>
       </c>
       <c r="P263" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q263">
         <v>7</v>
@@ -52014,7 +52029,7 @@
         <v>106</v>
       </c>
       <c r="P264" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q264">
         <v>3</v>
@@ -52104,7 +52119,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT264">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AU264">
         <v>1.34</v>
@@ -52292,10 +52307,10 @@
         <v>0.4</v>
       </c>
       <c r="AS265">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT265">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU265">
         <v>1.52</v>
@@ -52396,7 +52411,7 @@
         <v>91</v>
       </c>
       <c r="P266" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="Q266">
         <v>4</v>
@@ -52674,7 +52689,7 @@
         <v>0.7</v>
       </c>
       <c r="AS267">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT267">
         <v>0.8100000000000001</v>
@@ -52778,7 +52793,7 @@
         <v>226</v>
       </c>
       <c r="P268" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q268">
         <v>5</v>
@@ -52969,7 +52984,7 @@
         <v>99</v>
       </c>
       <c r="P269" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q269">
         <v>7</v>
@@ -53056,7 +53071,7 @@
         <v>1.3</v>
       </c>
       <c r="AS269">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT269">
         <v>1.35</v>
@@ -53160,7 +53175,7 @@
         <v>251</v>
       </c>
       <c r="P270" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q270">
         <v>6</v>
@@ -53351,7 +53366,7 @@
         <v>139</v>
       </c>
       <c r="P271" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="Q271">
         <v>15</v>
@@ -53438,10 +53453,10 @@
         <v>1.45</v>
       </c>
       <c r="AS271">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT271">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU271">
         <v>1.45</v>
@@ -53733,7 +53748,7 @@
         <v>252</v>
       </c>
       <c r="P273" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q273">
         <v>7</v>
@@ -53823,7 +53838,7 @@
         <v>2.31</v>
       </c>
       <c r="AT273">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU273">
         <v>1.64</v>
@@ -54115,7 +54130,7 @@
         <v>253</v>
       </c>
       <c r="P275" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="Q275">
         <v>5</v>
@@ -54497,7 +54512,7 @@
         <v>254</v>
       </c>
       <c r="P277" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="Q277">
         <v>2</v>
@@ -54775,7 +54790,7 @@
         <v>1.33</v>
       </c>
       <c r="AS278">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT278">
         <v>1.06</v>
@@ -54966,10 +54981,10 @@
         <v>1.58</v>
       </c>
       <c r="AS279">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT279">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AU279">
         <v>1.6</v>
@@ -55160,7 +55175,7 @@
         <v>1.12</v>
       </c>
       <c r="AT280">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU280">
         <v>1.13</v>
@@ -55261,7 +55276,7 @@
         <v>257</v>
       </c>
       <c r="P281" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q281">
         <v>4</v>
@@ -55348,7 +55363,7 @@
         <v>2</v>
       </c>
       <c r="AS281">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT281">
         <v>1.59</v>
@@ -55643,7 +55658,7 @@
         <v>258</v>
       </c>
       <c r="P283" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q283">
         <v>6</v>
@@ -55733,7 +55748,7 @@
         <v>1</v>
       </c>
       <c r="AT283">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU283">
         <v>1.28</v>
@@ -55921,7 +55936,7 @@
         <v>2.18</v>
       </c>
       <c r="AS284">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT284">
         <v>1.71</v>
@@ -56115,7 +56130,7 @@
         <v>2.31</v>
       </c>
       <c r="AT285">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU285">
         <v>1.72</v>
@@ -56303,7 +56318,7 @@
         <v>2</v>
       </c>
       <c r="AS286">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT286">
         <v>1.76</v>
@@ -56407,7 +56422,7 @@
         <v>261</v>
       </c>
       <c r="P287" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="Q287">
         <v>4</v>
@@ -56497,7 +56512,7 @@
         <v>1.63</v>
       </c>
       <c r="AT287">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU287">
         <v>1.53</v>
@@ -56598,7 +56613,7 @@
         <v>246</v>
       </c>
       <c r="P288" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q288">
         <v>3</v>
@@ -56685,10 +56700,10 @@
         <v>1.18</v>
       </c>
       <c r="AS288">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT288">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU288">
         <v>1.27</v>
@@ -56980,7 +56995,7 @@
         <v>262</v>
       </c>
       <c r="P290" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="Q290">
         <v>6</v>
@@ -57067,7 +57082,7 @@
         <v>0.75</v>
       </c>
       <c r="AS290">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT290">
         <v>1</v>
@@ -57258,10 +57273,10 @@
         <v>1.25</v>
       </c>
       <c r="AS291">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT291">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU291">
         <v>1.61</v>
@@ -57362,7 +57377,7 @@
         <v>264</v>
       </c>
       <c r="P292" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q292">
         <v>9</v>
@@ -57452,7 +57467,7 @@
         <v>1.06</v>
       </c>
       <c r="AT292">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU292">
         <v>1.56</v>
@@ -57553,7 +57568,7 @@
         <v>265</v>
       </c>
       <c r="P293" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Q293">
         <v>5</v>
@@ -57640,7 +57655,7 @@
         <v>0.75</v>
       </c>
       <c r="AS293">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT293">
         <v>0.76</v>
@@ -57831,7 +57846,7 @@
         <v>1.73</v>
       </c>
       <c r="AS294">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT294">
         <v>1.88</v>
@@ -58022,10 +58037,10 @@
         <v>1.17</v>
       </c>
       <c r="AS295">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT295">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU295">
         <v>1.6</v>
@@ -58216,7 +58231,7 @@
         <v>1.38</v>
       </c>
       <c r="AT296">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU296">
         <v>1.2</v>
@@ -58407,7 +58422,7 @@
         <v>1.06</v>
       </c>
       <c r="AT297">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU297">
         <v>1.61</v>
@@ -58595,10 +58610,10 @@
         <v>1.17</v>
       </c>
       <c r="AS298">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT298">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU298">
         <v>1.58</v>
@@ -58890,7 +58905,7 @@
         <v>269</v>
       </c>
       <c r="P300" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q300">
         <v>6</v>
@@ -58977,10 +58992,10 @@
         <v>0.54</v>
       </c>
       <c r="AS300">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT300">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU300">
         <v>1.29</v>
@@ -59168,7 +59183,7 @@
         <v>1.83</v>
       </c>
       <c r="AS301">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT301">
         <v>1.76</v>
@@ -59362,7 +59377,7 @@
         <v>1.63</v>
       </c>
       <c r="AT302">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU302">
         <v>1.66</v>
@@ -59550,7 +59565,7 @@
         <v>1.18</v>
       </c>
       <c r="AS303">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT303">
         <v>1.06</v>
@@ -59741,7 +59756,7 @@
         <v>0.77</v>
       </c>
       <c r="AS304">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT304">
         <v>1</v>
@@ -60227,7 +60242,7 @@
         <v>99</v>
       </c>
       <c r="P307" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q307">
         <v>8</v>
@@ -60317,7 +60332,7 @@
         <v>1.12</v>
       </c>
       <c r="AT307">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU307">
         <v>1.13</v>
@@ -60418,7 +60433,7 @@
         <v>276</v>
       </c>
       <c r="P308" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q308">
         <v>4</v>
@@ -60505,10 +60520,10 @@
         <v>0.62</v>
       </c>
       <c r="AS308">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT308">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU308">
         <v>1.57</v>
@@ -60887,7 +60902,7 @@
         <v>1.67</v>
       </c>
       <c r="AS310">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT310">
         <v>1.88</v>
@@ -60991,7 +61006,7 @@
         <v>277</v>
       </c>
       <c r="P311" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q311">
         <v>4</v>
@@ -61081,7 +61096,7 @@
         <v>1.63</v>
       </c>
       <c r="AT311">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU311">
         <v>1.56</v>
@@ -61182,7 +61197,7 @@
         <v>99</v>
       </c>
       <c r="P312" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q312">
         <v>1</v>
@@ -61269,7 +61284,7 @@
         <v>1.46</v>
       </c>
       <c r="AS312">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT312">
         <v>1.63</v>
@@ -61373,7 +61388,7 @@
         <v>278</v>
       </c>
       <c r="P313" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q313">
         <v>3</v>
@@ -61564,7 +61579,7 @@
         <v>279</v>
       </c>
       <c r="P314" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q314">
         <v>7</v>
@@ -61654,7 +61669,7 @@
         <v>1.63</v>
       </c>
       <c r="AT314">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU314">
         <v>1.7</v>
@@ -61842,7 +61857,7 @@
         <v>1.85</v>
       </c>
       <c r="AS315">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT315">
         <v>1.71</v>
@@ -61946,7 +61961,7 @@
         <v>99</v>
       </c>
       <c r="P316" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q316">
         <v>3</v>
@@ -62137,7 +62152,7 @@
         <v>280</v>
       </c>
       <c r="P317" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q317">
         <v>7</v>
@@ -62227,7 +62242,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT317">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU317">
         <v>1.44</v>
@@ -62415,7 +62430,7 @@
         <v>1.33</v>
       </c>
       <c r="AS318">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT318">
         <v>1.35</v>
@@ -62519,7 +62534,7 @@
         <v>99</v>
       </c>
       <c r="P319" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q319">
         <v>7</v>
@@ -62797,7 +62812,7 @@
         <v>1.17</v>
       </c>
       <c r="AS320">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT320">
         <v>1.06</v>
@@ -63179,10 +63194,10 @@
         <v>1.15</v>
       </c>
       <c r="AS322">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT322">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU322">
         <v>1.6</v>
@@ -63373,7 +63388,7 @@
         <v>1</v>
       </c>
       <c r="AT323">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU323">
         <v>1.37</v>
@@ -63474,7 +63489,7 @@
         <v>283</v>
       </c>
       <c r="P324" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q324">
         <v>3</v>
@@ -63561,7 +63576,7 @@
         <v>1.23</v>
       </c>
       <c r="AS324">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT324">
         <v>1.12</v>
@@ -63752,7 +63767,7 @@
         <v>1.21</v>
       </c>
       <c r="AS325">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT325">
         <v>1.06</v>
@@ -63943,10 +63958,10 @@
         <v>1.5</v>
       </c>
       <c r="AS326">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT326">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU326">
         <v>1.65</v>
@@ -64134,10 +64149,10 @@
         <v>1.46</v>
       </c>
       <c r="AS327">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT327">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AU327">
         <v>1.46</v>
@@ -64325,7 +64340,7 @@
         <v>0.67</v>
       </c>
       <c r="AS328">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT328">
         <v>0.8100000000000001</v>
@@ -64429,7 +64444,7 @@
         <v>135</v>
       </c>
       <c r="P329" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q329">
         <v>8</v>
@@ -64519,7 +64534,7 @@
         <v>1.12</v>
       </c>
       <c r="AT329">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU329">
         <v>1.2</v>
@@ -64620,7 +64635,7 @@
         <v>99</v>
       </c>
       <c r="P330" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q330">
         <v>8</v>
@@ -64710,7 +64725,7 @@
         <v>1.33</v>
       </c>
       <c r="AT330">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU330">
         <v>1.23</v>
@@ -64901,7 +64916,7 @@
         <v>1.38</v>
       </c>
       <c r="AT331">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU331">
         <v>1.21</v>
@@ -65092,7 +65107,7 @@
         <v>1.75</v>
       </c>
       <c r="AT332">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU332">
         <v>1.43</v>
@@ -65280,7 +65295,7 @@
         <v>0.86</v>
       </c>
       <c r="AS333">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT333">
         <v>0.76</v>
@@ -65471,7 +65486,7 @@
         <v>1.08</v>
       </c>
       <c r="AS334">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT334">
         <v>1.06</v>
@@ -65766,7 +65781,7 @@
         <v>99</v>
       </c>
       <c r="P336" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q336">
         <v>4</v>
@@ -66047,7 +66062,7 @@
         <v>1.71</v>
       </c>
       <c r="AT337">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU337">
         <v>1.51</v>
@@ -66235,7 +66250,7 @@
         <v>1.64</v>
       </c>
       <c r="AS338">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT338">
         <v>1.59</v>
@@ -66339,7 +66354,7 @@
         <v>287</v>
       </c>
       <c r="P339" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q339">
         <v>4</v>
@@ -66426,7 +66441,7 @@
         <v>1.8</v>
       </c>
       <c r="AS339">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT339">
         <v>1.71</v>
@@ -66530,7 +66545,7 @@
         <v>227</v>
       </c>
       <c r="P340" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q340">
         <v>4</v>
@@ -66617,7 +66632,7 @@
         <v>1.79</v>
       </c>
       <c r="AS340">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT340">
         <v>1.76</v>
@@ -66811,7 +66826,7 @@
         <v>1.63</v>
       </c>
       <c r="AT341">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU341">
         <v>1.56</v>
@@ -66999,7 +67014,7 @@
         <v>1.57</v>
       </c>
       <c r="AS342">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT342">
         <v>1.63</v>
@@ -67103,7 +67118,7 @@
         <v>289</v>
       </c>
       <c r="P343" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q343">
         <v>3</v>
@@ -67294,7 +67309,7 @@
         <v>290</v>
       </c>
       <c r="P344" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q344">
         <v>7</v>
@@ -67485,7 +67500,7 @@
         <v>115</v>
       </c>
       <c r="P345" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q345">
         <v>5</v>
@@ -67766,7 +67781,7 @@
         <v>1.07</v>
       </c>
       <c r="AT346">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU346">
         <v>1.66</v>
@@ -67867,7 +67882,7 @@
         <v>99</v>
       </c>
       <c r="P347" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q347">
         <v>5</v>
@@ -67957,7 +67972,7 @@
         <v>1.63</v>
       </c>
       <c r="AT347">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU347">
         <v>1.73</v>
@@ -68058,7 +68073,7 @@
         <v>291</v>
       </c>
       <c r="P348" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Q348">
         <v>7</v>
@@ -68339,7 +68354,7 @@
         <v>1.38</v>
       </c>
       <c r="AT349">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU349">
         <v>1.22</v>
@@ -68440,7 +68455,7 @@
         <v>293</v>
       </c>
       <c r="P350" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="Q350">
         <v>3</v>
@@ -68530,7 +68545,7 @@
         <v>1</v>
       </c>
       <c r="AT350">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU350">
         <v>1.39</v>
@@ -68909,7 +68924,7 @@
         <v>1.13</v>
       </c>
       <c r="AS352">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT352">
         <v>1.06</v>
@@ -69013,7 +69028,7 @@
         <v>99</v>
       </c>
       <c r="P353" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q353">
         <v>5</v>
@@ -69100,10 +69115,10 @@
         <v>1.43</v>
       </c>
       <c r="AS353">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT353">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AU353">
         <v>1.64</v>
@@ -69291,7 +69306,7 @@
         <v>1.07</v>
       </c>
       <c r="AS354">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT354">
         <v>1.12</v>
@@ -69395,7 +69410,7 @@
         <v>295</v>
       </c>
       <c r="P355" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q355">
         <v>6</v>
@@ -69482,7 +69497,7 @@
         <v>0.8</v>
       </c>
       <c r="AS355">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT355">
         <v>0.76</v>
@@ -69676,7 +69691,7 @@
         <v>1.33</v>
       </c>
       <c r="AT356">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU356">
         <v>1.17</v>
@@ -69864,10 +69879,10 @@
         <v>0.46</v>
       </c>
       <c r="AS357">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT357">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU357">
         <v>1.81</v>
@@ -70058,7 +70073,7 @@
         <v>1.75</v>
       </c>
       <c r="AT358">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU358">
         <v>1.37</v>
@@ -70246,10 +70261,10 @@
         <v>1.36</v>
       </c>
       <c r="AS359">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT359">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU359">
         <v>1.6</v>
@@ -70437,7 +70452,7 @@
         <v>0.85</v>
       </c>
       <c r="AS360">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT360">
         <v>0.8100000000000001</v>
@@ -70541,7 +70556,7 @@
         <v>298</v>
       </c>
       <c r="P361" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Q361">
         <v>6</v>
@@ -70628,10 +70643,10 @@
         <v>1.36</v>
       </c>
       <c r="AS361">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AT361">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="AU361">
         <v>1.46</v>
@@ -70732,7 +70747,7 @@
         <v>99</v>
       </c>
       <c r="P362" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q362">
         <v>4</v>
@@ -70819,10 +70834,10 @@
         <v>1.53</v>
       </c>
       <c r="AS362">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT362">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AU362">
         <v>1.42</v>
@@ -71010,10 +71025,10 @@
         <v>1.2</v>
       </c>
       <c r="AS363">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AT363">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU363">
         <v>1.64</v>
@@ -71114,7 +71129,7 @@
         <v>119</v>
       </c>
       <c r="P364" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q364">
         <v>6</v>
@@ -71201,10 +71216,10 @@
         <v>1.27</v>
       </c>
       <c r="AS364">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT364">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AU364">
         <v>1.51</v>
@@ -71305,7 +71320,7 @@
         <v>99</v>
       </c>
       <c r="P365" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q365">
         <v>5</v>
@@ -71392,10 +71407,10 @@
         <v>0.53</v>
       </c>
       <c r="AS365">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT365">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU365">
         <v>1.25</v>
@@ -71583,10 +71598,10 @@
         <v>1.43</v>
       </c>
       <c r="AS366">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AT366">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU366">
         <v>1.77</v>
@@ -71774,10 +71789,10 @@
         <v>0.43</v>
       </c>
       <c r="AS367">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AT367">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU367">
         <v>1.63</v>
@@ -71878,7 +71893,7 @@
         <v>303</v>
       </c>
       <c r="P368" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q368">
         <v>11</v>
@@ -72156,10 +72171,10 @@
         <v>1</v>
       </c>
       <c r="AS369">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AT369">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU369">
         <v>1.63</v>
@@ -72347,10 +72362,10 @@
         <v>1</v>
       </c>
       <c r="AS370">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="AT370">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU370">
         <v>1.44</v>
@@ -72451,7 +72466,7 @@
         <v>304</v>
       </c>
       <c r="P371" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="Q371">
         <v>3</v>
@@ -72538,10 +72553,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS371">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT371">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="AU371">
         <v>1.26</v>
@@ -72729,10 +72744,10 @@
         <v>1.21</v>
       </c>
       <c r="AS372">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT372">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU372">
         <v>1.55</v>
@@ -72920,7 +72935,7 @@
         <v>1</v>
       </c>
       <c r="AS373">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT373">
         <v>1</v>
@@ -73024,7 +73039,7 @@
         <v>306</v>
       </c>
       <c r="P374" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="Q374">
         <v>5</v>
@@ -73111,7 +73126,7 @@
         <v>1.33</v>
       </c>
       <c r="AS374">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="AT374">
         <v>1.35</v>
@@ -73305,7 +73320,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT375">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AU375">
         <v>1.49</v>
@@ -73788,7 +73803,7 @@
         <v>307</v>
       </c>
       <c r="P378" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="Q378">
         <v>3</v>
@@ -74170,7 +74185,7 @@
         <v>99</v>
       </c>
       <c r="P380" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q380">
         <v>3</v>
@@ -74743,7 +74758,7 @@
         <v>99</v>
       </c>
       <c r="P383" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q383">
         <v>6</v>
@@ -74934,7 +74949,7 @@
         <v>309</v>
       </c>
       <c r="P384" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="Q384">
         <v>5</v>
@@ -75507,7 +75522,7 @@
         <v>311</v>
       </c>
       <c r="P387" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Q387">
         <v>1</v>
@@ -75698,7 +75713,7 @@
         <v>312</v>
       </c>
       <c r="P388" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q388">
         <v>6</v>
@@ -75976,10 +75991,10 @@
         <v>0.4</v>
       </c>
       <c r="AS389">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="AT389">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AU389">
         <v>1.38</v>
@@ -76271,7 +76286,7 @@
         <v>313</v>
       </c>
       <c r="P391" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="Q391">
         <v>3</v>
@@ -76358,10 +76373,10 @@
         <v>1.33</v>
       </c>
       <c r="AS391">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT391">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AU391">
         <v>1.29</v>
@@ -76653,7 +76668,7 @@
         <v>99</v>
       </c>
       <c r="P393" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q393">
         <v>3</v>
@@ -76795,6 +76810,2298 @@
       </c>
       <c r="BK393">
         <v>15</v>
+      </c>
+    </row>
+    <row r="394" spans="1:63">
+      <c r="A394" s="1">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>2581077</v>
+      </c>
+      <c r="C394" t="s">
+        <v>63</v>
+      </c>
+      <c r="D394" t="s">
+        <v>64</v>
+      </c>
+      <c r="E394" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F394">
+        <v>35</v>
+      </c>
+      <c r="G394" t="s">
+        <v>66</v>
+      </c>
+      <c r="H394" t="s">
+        <v>87</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+      <c r="J394">
+        <v>1</v>
+      </c>
+      <c r="K394">
+        <v>1</v>
+      </c>
+      <c r="L394">
+        <v>0</v>
+      </c>
+      <c r="M394">
+        <v>1</v>
+      </c>
+      <c r="N394">
+        <v>1</v>
+      </c>
+      <c r="O394" t="s">
+        <v>99</v>
+      </c>
+      <c r="P394" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q394">
+        <v>2</v>
+      </c>
+      <c r="R394">
+        <v>1</v>
+      </c>
+      <c r="S394">
+        <v>3</v>
+      </c>
+      <c r="T394">
+        <v>3</v>
+      </c>
+      <c r="U394">
+        <v>2</v>
+      </c>
+      <c r="V394">
+        <v>4</v>
+      </c>
+      <c r="W394">
+        <v>1.53</v>
+      </c>
+      <c r="X394">
+        <v>2.38</v>
+      </c>
+      <c r="Y394">
+        <v>3.5</v>
+      </c>
+      <c r="Z394">
+        <v>1.29</v>
+      </c>
+      <c r="AA394">
+        <v>11</v>
+      </c>
+      <c r="AB394">
+        <v>1.05</v>
+      </c>
+      <c r="AC394">
+        <v>2.15</v>
+      </c>
+      <c r="AD394">
+        <v>2.95</v>
+      </c>
+      <c r="AE394">
+        <v>3.4</v>
+      </c>
+      <c r="AF394">
+        <v>1.09</v>
+      </c>
+      <c r="AG394">
+        <v>7.75</v>
+      </c>
+      <c r="AH394">
+        <v>1.45</v>
+      </c>
+      <c r="AI394">
+        <v>2.5</v>
+      </c>
+      <c r="AJ394">
+        <v>2.45</v>
+      </c>
+      <c r="AK394">
+        <v>1.47</v>
+      </c>
+      <c r="AL394">
+        <v>2</v>
+      </c>
+      <c r="AM394">
+        <v>1.73</v>
+      </c>
+      <c r="AN394">
+        <v>1.32</v>
+      </c>
+      <c r="AO394">
+        <v>1.3</v>
+      </c>
+      <c r="AP394">
+        <v>1.62</v>
+      </c>
+      <c r="AQ394">
+        <v>1.73</v>
+      </c>
+      <c r="AR394">
+        <v>1.12</v>
+      </c>
+      <c r="AS394">
+        <v>1.63</v>
+      </c>
+      <c r="AT394">
+        <v>1.22</v>
+      </c>
+      <c r="AU394">
+        <v>1.55</v>
+      </c>
+      <c r="AV394">
+        <v>1.31</v>
+      </c>
+      <c r="AW394">
+        <v>2.86</v>
+      </c>
+      <c r="AX394">
+        <v>1.82</v>
+      </c>
+      <c r="AY394">
+        <v>8</v>
+      </c>
+      <c r="AZ394">
+        <v>2.39</v>
+      </c>
+      <c r="BA394">
+        <v>1.27</v>
+      </c>
+      <c r="BB394">
+        <v>1.52</v>
+      </c>
+      <c r="BC394">
+        <v>2</v>
+      </c>
+      <c r="BD394">
+        <v>2.49</v>
+      </c>
+      <c r="BE394">
+        <v>3.42</v>
+      </c>
+      <c r="BF394">
+        <v>5</v>
+      </c>
+      <c r="BG394">
+        <v>6</v>
+      </c>
+      <c r="BH394">
+        <v>5</v>
+      </c>
+      <c r="BI394">
+        <v>4</v>
+      </c>
+      <c r="BJ394">
+        <v>10</v>
+      </c>
+      <c r="BK394">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="395" spans="1:63">
+      <c r="A395" s="1">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>2581076</v>
+      </c>
+      <c r="C395" t="s">
+        <v>63</v>
+      </c>
+      <c r="D395" t="s">
+        <v>64</v>
+      </c>
+      <c r="E395" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F395">
+        <v>35</v>
+      </c>
+      <c r="G395" t="s">
+        <v>67</v>
+      </c>
+      <c r="H395" t="s">
+        <v>77</v>
+      </c>
+      <c r="I395">
+        <v>0</v>
+      </c>
+      <c r="J395">
+        <v>1</v>
+      </c>
+      <c r="K395">
+        <v>1</v>
+      </c>
+      <c r="L395">
+        <v>1</v>
+      </c>
+      <c r="M395">
+        <v>1</v>
+      </c>
+      <c r="N395">
+        <v>2</v>
+      </c>
+      <c r="O395" t="s">
+        <v>263</v>
+      </c>
+      <c r="P395" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q395">
+        <v>7</v>
+      </c>
+      <c r="R395">
+        <v>6</v>
+      </c>
+      <c r="S395">
+        <v>13</v>
+      </c>
+      <c r="T395">
+        <v>2.38</v>
+      </c>
+      <c r="U395">
+        <v>2.2</v>
+      </c>
+      <c r="V395">
+        <v>5</v>
+      </c>
+      <c r="W395">
+        <v>1.4</v>
+      </c>
+      <c r="X395">
+        <v>2.75</v>
+      </c>
+      <c r="Y395">
+        <v>3</v>
+      </c>
+      <c r="Z395">
+        <v>1.36</v>
+      </c>
+      <c r="AA395">
+        <v>8</v>
+      </c>
+      <c r="AB395">
+        <v>1.08</v>
+      </c>
+      <c r="AC395">
+        <v>1.73</v>
+      </c>
+      <c r="AD395">
+        <v>3.4</v>
+      </c>
+      <c r="AE395">
+        <v>4.6</v>
+      </c>
+      <c r="AF395">
+        <v>1.05</v>
+      </c>
+      <c r="AG395">
+        <v>11</v>
+      </c>
+      <c r="AH395">
+        <v>1.33</v>
+      </c>
+      <c r="AI395">
+        <v>3.4</v>
+      </c>
+      <c r="AJ395">
+        <v>2</v>
+      </c>
+      <c r="AK395">
+        <v>1.7</v>
+      </c>
+      <c r="AL395">
+        <v>1.83</v>
+      </c>
+      <c r="AM395">
+        <v>1.83</v>
+      </c>
+      <c r="AN395">
+        <v>1.18</v>
+      </c>
+      <c r="AO395">
+        <v>1.22</v>
+      </c>
+      <c r="AP395">
+        <v>2.1</v>
+      </c>
+      <c r="AQ395">
+        <v>1.65</v>
+      </c>
+      <c r="AR395">
+        <v>0.71</v>
+      </c>
+      <c r="AS395">
+        <v>1.61</v>
+      </c>
+      <c r="AT395">
+        <v>0.72</v>
+      </c>
+      <c r="AU395">
+        <v>1.37</v>
+      </c>
+      <c r="AV395">
+        <v>1.12</v>
+      </c>
+      <c r="AW395">
+        <v>2.49</v>
+      </c>
+      <c r="AX395">
+        <v>1.59</v>
+      </c>
+      <c r="AY395">
+        <v>8</v>
+      </c>
+      <c r="AZ395">
+        <v>2.8</v>
+      </c>
+      <c r="BA395">
+        <v>1.31</v>
+      </c>
+      <c r="BB395">
+        <v>1.58</v>
+      </c>
+      <c r="BC395">
+        <v>2.04</v>
+      </c>
+      <c r="BD395">
+        <v>2.69</v>
+      </c>
+      <c r="BE395">
+        <v>3.65</v>
+      </c>
+      <c r="BF395">
+        <v>6</v>
+      </c>
+      <c r="BG395">
+        <v>6</v>
+      </c>
+      <c r="BH395">
+        <v>7</v>
+      </c>
+      <c r="BI395">
+        <v>5</v>
+      </c>
+      <c r="BJ395">
+        <v>13</v>
+      </c>
+      <c r="BK395">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="396" spans="1:63">
+      <c r="A396" s="1">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>2581075</v>
+      </c>
+      <c r="C396" t="s">
+        <v>63</v>
+      </c>
+      <c r="D396" t="s">
+        <v>64</v>
+      </c>
+      <c r="E396" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F396">
+        <v>35</v>
+      </c>
+      <c r="G396" t="s">
+        <v>68</v>
+      </c>
+      <c r="H396" t="s">
+        <v>85</v>
+      </c>
+      <c r="I396">
+        <v>0</v>
+      </c>
+      <c r="J396">
+        <v>1</v>
+      </c>
+      <c r="K396">
+        <v>1</v>
+      </c>
+      <c r="L396">
+        <v>1</v>
+      </c>
+      <c r="M396">
+        <v>1</v>
+      </c>
+      <c r="N396">
+        <v>2</v>
+      </c>
+      <c r="O396" t="s">
+        <v>214</v>
+      </c>
+      <c r="P396" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q396">
+        <v>11</v>
+      </c>
+      <c r="R396">
+        <v>1</v>
+      </c>
+      <c r="S396">
+        <v>12</v>
+      </c>
+      <c r="T396">
+        <v>2.25</v>
+      </c>
+      <c r="U396">
+        <v>2.15</v>
+      </c>
+      <c r="V396">
+        <v>5.25</v>
+      </c>
+      <c r="W396">
+        <v>1.44</v>
+      </c>
+      <c r="X396">
+        <v>2.6</v>
+      </c>
+      <c r="Y396">
+        <v>3</v>
+      </c>
+      <c r="Z396">
+        <v>1.33</v>
+      </c>
+      <c r="AA396">
+        <v>7</v>
+      </c>
+      <c r="AB396">
+        <v>1.07</v>
+      </c>
+      <c r="AC396">
+        <v>1.67</v>
+      </c>
+      <c r="AD396">
+        <v>3.4</v>
+      </c>
+      <c r="AE396">
+        <v>5.25</v>
+      </c>
+      <c r="AF396">
+        <v>1.05</v>
+      </c>
+      <c r="AG396">
+        <v>8</v>
+      </c>
+      <c r="AH396">
+        <v>1.36</v>
+      </c>
+      <c r="AI396">
+        <v>2.9</v>
+      </c>
+      <c r="AJ396">
+        <v>2.03</v>
+      </c>
+      <c r="AK396">
+        <v>1.67</v>
+      </c>
+      <c r="AL396">
+        <v>2</v>
+      </c>
+      <c r="AM396">
+        <v>1.73</v>
+      </c>
+      <c r="AN396">
+        <v>1.17</v>
+      </c>
+      <c r="AO396">
+        <v>1.29</v>
+      </c>
+      <c r="AP396">
+        <v>2.15</v>
+      </c>
+      <c r="AQ396">
+        <v>2.06</v>
+      </c>
+      <c r="AR396">
+        <v>1</v>
+      </c>
+      <c r="AS396">
+        <v>2</v>
+      </c>
+      <c r="AT396">
+        <v>1</v>
+      </c>
+      <c r="AU396">
+        <v>1.64</v>
+      </c>
+      <c r="AV396">
+        <v>0.97</v>
+      </c>
+      <c r="AW396">
+        <v>2.61</v>
+      </c>
+      <c r="AX396">
+        <v>1.51</v>
+      </c>
+      <c r="AY396">
+        <v>8.5</v>
+      </c>
+      <c r="AZ396">
+        <v>3.16</v>
+      </c>
+      <c r="BA396">
+        <v>1.25</v>
+      </c>
+      <c r="BB396">
+        <v>1.48</v>
+      </c>
+      <c r="BC396">
+        <v>1.9</v>
+      </c>
+      <c r="BD396">
+        <v>2.41</v>
+      </c>
+      <c r="BE396">
+        <v>3.28</v>
+      </c>
+      <c r="BF396">
+        <v>6</v>
+      </c>
+      <c r="BG396">
+        <v>5</v>
+      </c>
+      <c r="BH396">
+        <v>7</v>
+      </c>
+      <c r="BI396">
+        <v>1</v>
+      </c>
+      <c r="BJ396">
+        <v>13</v>
+      </c>
+      <c r="BK396">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:63">
+      <c r="A397" s="1">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>2581073</v>
+      </c>
+      <c r="C397" t="s">
+        <v>63</v>
+      </c>
+      <c r="D397" t="s">
+        <v>64</v>
+      </c>
+      <c r="E397" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F397">
+        <v>35</v>
+      </c>
+      <c r="G397" t="s">
+        <v>69</v>
+      </c>
+      <c r="H397" t="s">
+        <v>80</v>
+      </c>
+      <c r="I397">
+        <v>1</v>
+      </c>
+      <c r="J397">
+        <v>1</v>
+      </c>
+      <c r="K397">
+        <v>2</v>
+      </c>
+      <c r="L397">
+        <v>3</v>
+      </c>
+      <c r="M397">
+        <v>1</v>
+      </c>
+      <c r="N397">
+        <v>4</v>
+      </c>
+      <c r="O397" t="s">
+        <v>315</v>
+      </c>
+      <c r="P397" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q397">
+        <v>6</v>
+      </c>
+      <c r="R397">
+        <v>1</v>
+      </c>
+      <c r="S397">
+        <v>7</v>
+      </c>
+      <c r="T397">
+        <v>3</v>
+      </c>
+      <c r="U397">
+        <v>2</v>
+      </c>
+      <c r="V397">
+        <v>4</v>
+      </c>
+      <c r="W397">
+        <v>1.5</v>
+      </c>
+      <c r="X397">
+        <v>2.5</v>
+      </c>
+      <c r="Y397">
+        <v>3.4</v>
+      </c>
+      <c r="Z397">
+        <v>1.3</v>
+      </c>
+      <c r="AA397">
+        <v>10</v>
+      </c>
+      <c r="AB397">
+        <v>1.06</v>
+      </c>
+      <c r="AC397">
+        <v>2.25</v>
+      </c>
+      <c r="AD397">
+        <v>3.1</v>
+      </c>
+      <c r="AE397">
+        <v>3.1</v>
+      </c>
+      <c r="AF397">
+        <v>1.07</v>
+      </c>
+      <c r="AG397">
+        <v>9</v>
+      </c>
+      <c r="AH397">
+        <v>1.42</v>
+      </c>
+      <c r="AI397">
+        <v>2.85</v>
+      </c>
+      <c r="AJ397">
+        <v>2.01</v>
+      </c>
+      <c r="AK397">
+        <v>1.69</v>
+      </c>
+      <c r="AL397">
+        <v>1.91</v>
+      </c>
+      <c r="AM397">
+        <v>1.8</v>
+      </c>
+      <c r="AN397">
+        <v>1.36</v>
+      </c>
+      <c r="AO397">
+        <v>1.28</v>
+      </c>
+      <c r="AP397">
+        <v>1.63</v>
+      </c>
+      <c r="AQ397">
+        <v>1.53</v>
+      </c>
+      <c r="AR397">
+        <v>1.31</v>
+      </c>
+      <c r="AS397">
+        <v>1.61</v>
+      </c>
+      <c r="AT397">
+        <v>1.24</v>
+      </c>
+      <c r="AU397">
+        <v>1.5</v>
+      </c>
+      <c r="AV397">
+        <v>1.28</v>
+      </c>
+      <c r="AW397">
+        <v>2.78</v>
+      </c>
+      <c r="AX397">
+        <v>2</v>
+      </c>
+      <c r="AY397">
+        <v>8</v>
+      </c>
+      <c r="AZ397">
+        <v>2.05</v>
+      </c>
+      <c r="BA397">
+        <v>1.27</v>
+      </c>
+      <c r="BB397">
+        <v>1.52</v>
+      </c>
+      <c r="BC397">
+        <v>1.98</v>
+      </c>
+      <c r="BD397">
+        <v>2.49</v>
+      </c>
+      <c r="BE397">
+        <v>3.42</v>
+      </c>
+      <c r="BF397">
+        <v>8</v>
+      </c>
+      <c r="BG397">
+        <v>4</v>
+      </c>
+      <c r="BH397">
+        <v>8</v>
+      </c>
+      <c r="BI397">
+        <v>4</v>
+      </c>
+      <c r="BJ397">
+        <v>16</v>
+      </c>
+      <c r="BK397">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:63">
+      <c r="A398" s="1">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>2581072</v>
+      </c>
+      <c r="C398" t="s">
+        <v>63</v>
+      </c>
+      <c r="D398" t="s">
+        <v>64</v>
+      </c>
+      <c r="E398" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F398">
+        <v>35</v>
+      </c>
+      <c r="G398" t="s">
+        <v>70</v>
+      </c>
+      <c r="H398" t="s">
+        <v>79</v>
+      </c>
+      <c r="I398">
+        <v>2</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398">
+        <v>2</v>
+      </c>
+      <c r="L398">
+        <v>2</v>
+      </c>
+      <c r="M398">
+        <v>0</v>
+      </c>
+      <c r="N398">
+        <v>2</v>
+      </c>
+      <c r="O398" t="s">
+        <v>316</v>
+      </c>
+      <c r="P398" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q398">
+        <v>0</v>
+      </c>
+      <c r="R398">
+        <v>10</v>
+      </c>
+      <c r="S398">
+        <v>10</v>
+      </c>
+      <c r="T398">
+        <v>5</v>
+      </c>
+      <c r="U398">
+        <v>2.1</v>
+      </c>
+      <c r="V398">
+        <v>2.5</v>
+      </c>
+      <c r="W398">
+        <v>1.44</v>
+      </c>
+      <c r="X398">
+        <v>2.63</v>
+      </c>
+      <c r="Y398">
+        <v>3.25</v>
+      </c>
+      <c r="Z398">
+        <v>1.33</v>
+      </c>
+      <c r="AA398">
+        <v>10</v>
+      </c>
+      <c r="AB398">
+        <v>1.06</v>
+      </c>
+      <c r="AC398">
+        <v>4.4</v>
+      </c>
+      <c r="AD398">
+        <v>3.25</v>
+      </c>
+      <c r="AE398">
+        <v>1.83</v>
+      </c>
+      <c r="AF398">
+        <v>1.07</v>
+      </c>
+      <c r="AG398">
+        <v>8.5</v>
+      </c>
+      <c r="AH398">
+        <v>1.38</v>
+      </c>
+      <c r="AI398">
+        <v>3</v>
+      </c>
+      <c r="AJ398">
+        <v>2.05</v>
+      </c>
+      <c r="AK398">
+        <v>1.66</v>
+      </c>
+      <c r="AL398">
+        <v>1.91</v>
+      </c>
+      <c r="AM398">
+        <v>1.8</v>
+      </c>
+      <c r="AN398">
+        <v>1.95</v>
+      </c>
+      <c r="AO398">
+        <v>1.25</v>
+      </c>
+      <c r="AP398">
+        <v>1.22</v>
+      </c>
+      <c r="AQ398">
+        <v>0.53</v>
+      </c>
+      <c r="AR398">
+        <v>1.44</v>
+      </c>
+      <c r="AS398">
+        <v>0.67</v>
+      </c>
+      <c r="AT398">
+        <v>1.35</v>
+      </c>
+      <c r="AU398">
+        <v>1.26</v>
+      </c>
+      <c r="AV398">
+        <v>1.62</v>
+      </c>
+      <c r="AW398">
+        <v>2.88</v>
+      </c>
+      <c r="AX398">
+        <v>2.67</v>
+      </c>
+      <c r="AY398">
+        <v>8</v>
+      </c>
+      <c r="AZ398">
+        <v>1.64</v>
+      </c>
+      <c r="BA398">
+        <v>1.27</v>
+      </c>
+      <c r="BB398">
+        <v>1.52</v>
+      </c>
+      <c r="BC398">
+        <v>1.98</v>
+      </c>
+      <c r="BD398">
+        <v>2.49</v>
+      </c>
+      <c r="BE398">
+        <v>3.42</v>
+      </c>
+      <c r="BF398">
+        <v>3</v>
+      </c>
+      <c r="BG398">
+        <v>5</v>
+      </c>
+      <c r="BH398">
+        <v>3</v>
+      </c>
+      <c r="BI398">
+        <v>13</v>
+      </c>
+      <c r="BJ398">
+        <v>6</v>
+      </c>
+      <c r="BK398">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="399" spans="1:63">
+      <c r="A399" s="1">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>2581071</v>
+      </c>
+      <c r="C399" t="s">
+        <v>63</v>
+      </c>
+      <c r="D399" t="s">
+        <v>64</v>
+      </c>
+      <c r="E399" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F399">
+        <v>35</v>
+      </c>
+      <c r="G399" t="s">
+        <v>76</v>
+      </c>
+      <c r="H399" t="s">
+        <v>83</v>
+      </c>
+      <c r="I399">
+        <v>0</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <v>0</v>
+      </c>
+      <c r="L399">
+        <v>1</v>
+      </c>
+      <c r="M399">
+        <v>0</v>
+      </c>
+      <c r="N399">
+        <v>1</v>
+      </c>
+      <c r="O399" t="s">
+        <v>112</v>
+      </c>
+      <c r="P399" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q399">
+        <v>7</v>
+      </c>
+      <c r="R399">
+        <v>5</v>
+      </c>
+      <c r="S399">
+        <v>12</v>
+      </c>
+      <c r="T399">
+        <v>2.1</v>
+      </c>
+      <c r="U399">
+        <v>2.25</v>
+      </c>
+      <c r="V399">
+        <v>6.5</v>
+      </c>
+      <c r="W399">
+        <v>1.4</v>
+      </c>
+      <c r="X399">
+        <v>2.75</v>
+      </c>
+      <c r="Y399">
+        <v>3</v>
+      </c>
+      <c r="Z399">
+        <v>1.36</v>
+      </c>
+      <c r="AA399">
+        <v>8</v>
+      </c>
+      <c r="AB399">
+        <v>1.08</v>
+      </c>
+      <c r="AC399">
+        <v>1.53</v>
+      </c>
+      <c r="AD399">
+        <v>3.8</v>
+      </c>
+      <c r="AE399">
+        <v>6</v>
+      </c>
+      <c r="AF399">
+        <v>1.04</v>
+      </c>
+      <c r="AG399">
+        <v>11</v>
+      </c>
+      <c r="AH399">
+        <v>1.33</v>
+      </c>
+      <c r="AI399">
+        <v>3.3</v>
+      </c>
+      <c r="AJ399">
+        <v>1.82</v>
+      </c>
+      <c r="AK399">
+        <v>1.85</v>
+      </c>
+      <c r="AL399">
+        <v>2.1</v>
+      </c>
+      <c r="AM399">
+        <v>1.67</v>
+      </c>
+      <c r="AN399">
+        <v>1.1</v>
+      </c>
+      <c r="AO399">
+        <v>1.17</v>
+      </c>
+      <c r="AP399">
+        <v>2.65</v>
+      </c>
+      <c r="AQ399">
+        <v>1.63</v>
+      </c>
+      <c r="AR399">
+        <v>0.38</v>
+      </c>
+      <c r="AS399">
+        <v>1.71</v>
+      </c>
+      <c r="AT399">
+        <v>0.35</v>
+      </c>
+      <c r="AU399">
+        <v>1.44</v>
+      </c>
+      <c r="AV399">
+        <v>1.07</v>
+      </c>
+      <c r="AW399">
+        <v>2.51</v>
+      </c>
+      <c r="AX399">
+        <v>1.31</v>
+      </c>
+      <c r="AY399">
+        <v>9.5</v>
+      </c>
+      <c r="AZ399">
+        <v>4.12</v>
+      </c>
+      <c r="BA399">
+        <v>1.25</v>
+      </c>
+      <c r="BB399">
+        <v>1.48</v>
+      </c>
+      <c r="BC399">
+        <v>1.88</v>
+      </c>
+      <c r="BD399">
+        <v>2.41</v>
+      </c>
+      <c r="BE399">
+        <v>3.28</v>
+      </c>
+      <c r="BF399">
+        <v>7</v>
+      </c>
+      <c r="BG399">
+        <v>2</v>
+      </c>
+      <c r="BH399">
+        <v>2</v>
+      </c>
+      <c r="BI399">
+        <v>3</v>
+      </c>
+      <c r="BJ399">
+        <v>9</v>
+      </c>
+      <c r="BK399">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:63">
+      <c r="A400" s="1">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>2581070</v>
+      </c>
+      <c r="C400" t="s">
+        <v>63</v>
+      </c>
+      <c r="D400" t="s">
+        <v>64</v>
+      </c>
+      <c r="E400" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F400">
+        <v>35</v>
+      </c>
+      <c r="G400" t="s">
+        <v>72</v>
+      </c>
+      <c r="H400" t="s">
+        <v>78</v>
+      </c>
+      <c r="I400">
+        <v>1</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>1</v>
+      </c>
+      <c r="L400">
+        <v>1</v>
+      </c>
+      <c r="M400">
+        <v>1</v>
+      </c>
+      <c r="N400">
+        <v>2</v>
+      </c>
+      <c r="O400" t="s">
+        <v>123</v>
+      </c>
+      <c r="P400" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q400">
+        <v>12</v>
+      </c>
+      <c r="R400">
+        <v>2</v>
+      </c>
+      <c r="S400">
+        <v>14</v>
+      </c>
+      <c r="T400">
+        <v>2.7</v>
+      </c>
+      <c r="U400">
+        <v>2</v>
+      </c>
+      <c r="V400">
+        <v>4.4</v>
+      </c>
+      <c r="W400">
+        <v>1.44</v>
+      </c>
+      <c r="X400">
+        <v>2.55</v>
+      </c>
+      <c r="Y400">
+        <v>3.4</v>
+      </c>
+      <c r="Z400">
+        <v>1.27</v>
+      </c>
+      <c r="AA400">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB400">
+        <v>1.03</v>
+      </c>
+      <c r="AC400">
+        <v>1.9</v>
+      </c>
+      <c r="AD400">
+        <v>3.1</v>
+      </c>
+      <c r="AE400">
+        <v>4.2</v>
+      </c>
+      <c r="AF400">
+        <v>1.06</v>
+      </c>
+      <c r="AG400">
+        <v>7.5</v>
+      </c>
+      <c r="AH400">
+        <v>1.38</v>
+      </c>
+      <c r="AI400">
+        <v>2.88</v>
+      </c>
+      <c r="AJ400">
+        <v>2.15</v>
+      </c>
+      <c r="AK400">
+        <v>1.6</v>
+      </c>
+      <c r="AL400">
+        <v>1.98</v>
+      </c>
+      <c r="AM400">
+        <v>1.75</v>
+      </c>
+      <c r="AN400">
+        <v>1.22</v>
+      </c>
+      <c r="AO400">
+        <v>1.3</v>
+      </c>
+      <c r="AP400">
+        <v>1.75</v>
+      </c>
+      <c r="AQ400">
+        <v>2.47</v>
+      </c>
+      <c r="AR400">
+        <v>1.38</v>
+      </c>
+      <c r="AS400">
+        <v>2.39</v>
+      </c>
+      <c r="AT400">
+        <v>1.35</v>
+      </c>
+      <c r="AU400">
+        <v>1.61</v>
+      </c>
+      <c r="AV400">
+        <v>1.39</v>
+      </c>
+      <c r="AW400">
+        <v>3</v>
+      </c>
+      <c r="AX400">
+        <v>1.64</v>
+      </c>
+      <c r="AY400">
+        <v>8</v>
+      </c>
+      <c r="AZ400">
+        <v>2.67</v>
+      </c>
+      <c r="BA400">
+        <v>1.27</v>
+      </c>
+      <c r="BB400">
+        <v>1.52</v>
+      </c>
+      <c r="BC400">
+        <v>2</v>
+      </c>
+      <c r="BD400">
+        <v>2.49</v>
+      </c>
+      <c r="BE400">
+        <v>3.42</v>
+      </c>
+      <c r="BF400">
+        <v>5</v>
+      </c>
+      <c r="BG400">
+        <v>5</v>
+      </c>
+      <c r="BH400">
+        <v>5</v>
+      </c>
+      <c r="BI400">
+        <v>4</v>
+      </c>
+      <c r="BJ400">
+        <v>10</v>
+      </c>
+      <c r="BK400">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="401" spans="1:63">
+      <c r="A401" s="1">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>2581069</v>
+      </c>
+      <c r="C401" t="s">
+        <v>63</v>
+      </c>
+      <c r="D401" t="s">
+        <v>64</v>
+      </c>
+      <c r="E401" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F401">
+        <v>35</v>
+      </c>
+      <c r="G401" t="s">
+        <v>73</v>
+      </c>
+      <c r="H401" t="s">
+        <v>88</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>0</v>
+      </c>
+      <c r="L401">
+        <v>0</v>
+      </c>
+      <c r="M401">
+        <v>0</v>
+      </c>
+      <c r="N401">
+        <v>0</v>
+      </c>
+      <c r="O401" t="s">
+        <v>99</v>
+      </c>
+      <c r="P401" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q401">
+        <v>4</v>
+      </c>
+      <c r="R401">
+        <v>6</v>
+      </c>
+      <c r="S401">
+        <v>10</v>
+      </c>
+      <c r="T401">
+        <v>3.4</v>
+      </c>
+      <c r="U401">
+        <v>2</v>
+      </c>
+      <c r="V401">
+        <v>3.5</v>
+      </c>
+      <c r="W401">
+        <v>1.5</v>
+      </c>
+      <c r="X401">
+        <v>2.5</v>
+      </c>
+      <c r="Y401">
+        <v>3.4</v>
+      </c>
+      <c r="Z401">
+        <v>1.3</v>
+      </c>
+      <c r="AA401">
+        <v>10</v>
+      </c>
+      <c r="AB401">
+        <v>1.06</v>
+      </c>
+      <c r="AC401">
+        <v>2.75</v>
+      </c>
+      <c r="AD401">
+        <v>2.95</v>
+      </c>
+      <c r="AE401">
+        <v>2.5</v>
+      </c>
+      <c r="AF401">
+        <v>1.08</v>
+      </c>
+      <c r="AG401">
+        <v>8</v>
+      </c>
+      <c r="AH401">
+        <v>1.42</v>
+      </c>
+      <c r="AI401">
+        <v>2.9</v>
+      </c>
+      <c r="AJ401">
+        <v>2.15</v>
+      </c>
+      <c r="AK401">
+        <v>1.6</v>
+      </c>
+      <c r="AL401">
+        <v>1.83</v>
+      </c>
+      <c r="AM401">
+        <v>1.83</v>
+      </c>
+      <c r="AN401">
+        <v>1.45</v>
+      </c>
+      <c r="AO401">
+        <v>1.3</v>
+      </c>
+      <c r="AP401">
+        <v>1.47</v>
+      </c>
+      <c r="AQ401">
+        <v>1.06</v>
+      </c>
+      <c r="AR401">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS401">
+        <v>1.06</v>
+      </c>
+      <c r="AT401">
+        <v>0.71</v>
+      </c>
+      <c r="AU401">
+        <v>1.47</v>
+      </c>
+      <c r="AV401">
+        <v>1.08</v>
+      </c>
+      <c r="AW401">
+        <v>2.55</v>
+      </c>
+      <c r="AX401">
+        <v>1.91</v>
+      </c>
+      <c r="AY401">
+        <v>8</v>
+      </c>
+      <c r="AZ401">
+        <v>2.1</v>
+      </c>
+      <c r="BA401">
+        <v>1.25</v>
+      </c>
+      <c r="BB401">
+        <v>1.48</v>
+      </c>
+      <c r="BC401">
+        <v>1.9</v>
+      </c>
+      <c r="BD401">
+        <v>2.39</v>
+      </c>
+      <c r="BE401">
+        <v>3.28</v>
+      </c>
+      <c r="BF401">
+        <v>9</v>
+      </c>
+      <c r="BG401">
+        <v>3</v>
+      </c>
+      <c r="BH401">
+        <v>3</v>
+      </c>
+      <c r="BI401">
+        <v>5</v>
+      </c>
+      <c r="BJ401">
+        <v>12</v>
+      </c>
+      <c r="BK401">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:63">
+      <c r="A402" s="1">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>2581067</v>
+      </c>
+      <c r="C402" t="s">
+        <v>63</v>
+      </c>
+      <c r="D402" t="s">
+        <v>64</v>
+      </c>
+      <c r="E402" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F402">
+        <v>35</v>
+      </c>
+      <c r="G402" t="s">
+        <v>75</v>
+      </c>
+      <c r="H402" t="s">
+        <v>86</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>0</v>
+      </c>
+      <c r="L402">
+        <v>2</v>
+      </c>
+      <c r="M402">
+        <v>0</v>
+      </c>
+      <c r="N402">
+        <v>2</v>
+      </c>
+      <c r="O402" t="s">
+        <v>317</v>
+      </c>
+      <c r="P402" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q402">
+        <v>5</v>
+      </c>
+      <c r="R402">
+        <v>5</v>
+      </c>
+      <c r="S402">
+        <v>10</v>
+      </c>
+      <c r="T402">
+        <v>2.63</v>
+      </c>
+      <c r="U402">
+        <v>2.05</v>
+      </c>
+      <c r="V402">
+        <v>4.75</v>
+      </c>
+      <c r="W402">
+        <v>1.5</v>
+      </c>
+      <c r="X402">
+        <v>2.5</v>
+      </c>
+      <c r="Y402">
+        <v>3.4</v>
+      </c>
+      <c r="Z402">
+        <v>1.3</v>
+      </c>
+      <c r="AA402">
+        <v>10</v>
+      </c>
+      <c r="AB402">
+        <v>1.06</v>
+      </c>
+      <c r="AC402">
+        <v>1.9</v>
+      </c>
+      <c r="AD402">
+        <v>3.1</v>
+      </c>
+      <c r="AE402">
+        <v>4.3</v>
+      </c>
+      <c r="AF402">
+        <v>1.08</v>
+      </c>
+      <c r="AG402">
+        <v>8</v>
+      </c>
+      <c r="AH402">
+        <v>1.44</v>
+      </c>
+      <c r="AI402">
+        <v>2.8</v>
+      </c>
+      <c r="AJ402">
+        <v>2.09</v>
+      </c>
+      <c r="AK402">
+        <v>1.64</v>
+      </c>
+      <c r="AL402">
+        <v>2</v>
+      </c>
+      <c r="AM402">
+        <v>1.73</v>
+      </c>
+      <c r="AN402">
+        <v>1.22</v>
+      </c>
+      <c r="AO402">
+        <v>1.28</v>
+      </c>
+      <c r="AP402">
+        <v>1.87</v>
+      </c>
+      <c r="AQ402">
+        <v>1.5</v>
+      </c>
+      <c r="AR402">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS402">
+        <v>1.59</v>
+      </c>
+      <c r="AT402">
+        <v>0.89</v>
+      </c>
+      <c r="AU402">
+        <v>1.4</v>
+      </c>
+      <c r="AV402">
+        <v>0.89</v>
+      </c>
+      <c r="AW402">
+        <v>2.29</v>
+      </c>
+      <c r="AX402">
+        <v>1.75</v>
+      </c>
+      <c r="AY402">
+        <v>8</v>
+      </c>
+      <c r="AZ402">
+        <v>2.44</v>
+      </c>
+      <c r="BA402">
+        <v>1.21</v>
+      </c>
+      <c r="BB402">
+        <v>1.41</v>
+      </c>
+      <c r="BC402">
+        <v>1.75</v>
+      </c>
+      <c r="BD402">
+        <v>2.19</v>
+      </c>
+      <c r="BE402">
+        <v>2.93</v>
+      </c>
+      <c r="BF402">
+        <v>4</v>
+      </c>
+      <c r="BG402">
+        <v>5</v>
+      </c>
+      <c r="BH402">
+        <v>7</v>
+      </c>
+      <c r="BI402">
+        <v>2</v>
+      </c>
+      <c r="BJ402">
+        <v>11</v>
+      </c>
+      <c r="BK402">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:63">
+      <c r="A403" s="1">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>2581066</v>
+      </c>
+      <c r="C403" t="s">
+        <v>63</v>
+      </c>
+      <c r="D403" t="s">
+        <v>64</v>
+      </c>
+      <c r="E403" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F403">
+        <v>35</v>
+      </c>
+      <c r="G403" t="s">
+        <v>65</v>
+      </c>
+      <c r="H403" t="s">
+        <v>81</v>
+      </c>
+      <c r="I403">
+        <v>1</v>
+      </c>
+      <c r="J403">
+        <v>1</v>
+      </c>
+      <c r="K403">
+        <v>2</v>
+      </c>
+      <c r="L403">
+        <v>1</v>
+      </c>
+      <c r="M403">
+        <v>3</v>
+      </c>
+      <c r="N403">
+        <v>4</v>
+      </c>
+      <c r="O403" t="s">
+        <v>168</v>
+      </c>
+      <c r="P403" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q403">
+        <v>2</v>
+      </c>
+      <c r="R403">
+        <v>4</v>
+      </c>
+      <c r="S403">
+        <v>6</v>
+      </c>
+      <c r="T403">
+        <v>3.75</v>
+      </c>
+      <c r="U403">
+        <v>2.05</v>
+      </c>
+      <c r="V403">
+        <v>3.1</v>
+      </c>
+      <c r="W403">
+        <v>1.5</v>
+      </c>
+      <c r="X403">
+        <v>2.5</v>
+      </c>
+      <c r="Y403">
+        <v>3.4</v>
+      </c>
+      <c r="Z403">
+        <v>1.3</v>
+      </c>
+      <c r="AA403">
+        <v>10</v>
+      </c>
+      <c r="AB403">
+        <v>1.06</v>
+      </c>
+      <c r="AC403">
+        <v>3</v>
+      </c>
+      <c r="AD403">
+        <v>3.05</v>
+      </c>
+      <c r="AE403">
+        <v>2.3</v>
+      </c>
+      <c r="AF403">
+        <v>1.07</v>
+      </c>
+      <c r="AG403">
+        <v>9</v>
+      </c>
+      <c r="AH403">
+        <v>1.4</v>
+      </c>
+      <c r="AI403">
+        <v>3</v>
+      </c>
+      <c r="AJ403">
+        <v>2.06</v>
+      </c>
+      <c r="AK403">
+        <v>1.65</v>
+      </c>
+      <c r="AL403">
+        <v>1.83</v>
+      </c>
+      <c r="AM403">
+        <v>1.83</v>
+      </c>
+      <c r="AN403">
+        <v>1.63</v>
+      </c>
+      <c r="AO403">
+        <v>1.28</v>
+      </c>
+      <c r="AP403">
+        <v>1.36</v>
+      </c>
+      <c r="AQ403">
+        <v>1.5</v>
+      </c>
+      <c r="AR403">
+        <v>1.63</v>
+      </c>
+      <c r="AS403">
+        <v>1.41</v>
+      </c>
+      <c r="AT403">
+        <v>1.71</v>
+      </c>
+      <c r="AU403">
+        <v>1.31</v>
+      </c>
+      <c r="AV403">
+        <v>1.55</v>
+      </c>
+      <c r="AW403">
+        <v>2.86</v>
+      </c>
+      <c r="AX403">
+        <v>2.8</v>
+      </c>
+      <c r="AY403">
+        <v>8</v>
+      </c>
+      <c r="AZ403">
+        <v>1.59</v>
+      </c>
+      <c r="BA403">
+        <v>1.25</v>
+      </c>
+      <c r="BB403">
+        <v>1.48</v>
+      </c>
+      <c r="BC403">
+        <v>1.93</v>
+      </c>
+      <c r="BD403">
+        <v>2.41</v>
+      </c>
+      <c r="BE403">
+        <v>3.28</v>
+      </c>
+      <c r="BF403">
+        <v>3</v>
+      </c>
+      <c r="BG403">
+        <v>5</v>
+      </c>
+      <c r="BH403">
+        <v>5</v>
+      </c>
+      <c r="BI403">
+        <v>6</v>
+      </c>
+      <c r="BJ403">
+        <v>8</v>
+      </c>
+      <c r="BK403">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="404" spans="1:63">
+      <c r="A404" s="1">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>2581074</v>
+      </c>
+      <c r="C404" t="s">
+        <v>63</v>
+      </c>
+      <c r="D404" t="s">
+        <v>64</v>
+      </c>
+      <c r="E404" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F404">
+        <v>35</v>
+      </c>
+      <c r="G404" t="s">
+        <v>71</v>
+      </c>
+      <c r="H404" t="s">
+        <v>84</v>
+      </c>
+      <c r="I404">
+        <v>0</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>0</v>
+      </c>
+      <c r="L404">
+        <v>0</v>
+      </c>
+      <c r="M404">
+        <v>0</v>
+      </c>
+      <c r="N404">
+        <v>0</v>
+      </c>
+      <c r="O404" t="s">
+        <v>99</v>
+      </c>
+      <c r="P404" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q404">
+        <v>8</v>
+      </c>
+      <c r="R404">
+        <v>0</v>
+      </c>
+      <c r="S404">
+        <v>8</v>
+      </c>
+      <c r="T404">
+        <v>2.2</v>
+      </c>
+      <c r="U404">
+        <v>2.15</v>
+      </c>
+      <c r="V404">
+        <v>5.5</v>
+      </c>
+      <c r="W404">
+        <v>1.43</v>
+      </c>
+      <c r="X404">
+        <v>2.63</v>
+      </c>
+      <c r="Y404">
+        <v>3</v>
+      </c>
+      <c r="Z404">
+        <v>1.33</v>
+      </c>
+      <c r="AA404">
+        <v>7</v>
+      </c>
+      <c r="AB404">
+        <v>1.07</v>
+      </c>
+      <c r="AC404">
+        <v>1.63</v>
+      </c>
+      <c r="AD404">
+        <v>3.55</v>
+      </c>
+      <c r="AE404">
+        <v>5.5</v>
+      </c>
+      <c r="AF404">
+        <v>1.05</v>
+      </c>
+      <c r="AG404">
+        <v>8</v>
+      </c>
+      <c r="AH404">
+        <v>1.33</v>
+      </c>
+      <c r="AI404">
+        <v>3</v>
+      </c>
+      <c r="AJ404">
+        <v>2</v>
+      </c>
+      <c r="AK404">
+        <v>1.69</v>
+      </c>
+      <c r="AL404">
+        <v>2.05</v>
+      </c>
+      <c r="AM404">
+        <v>1.7</v>
+      </c>
+      <c r="AN404">
+        <v>1.15</v>
+      </c>
+      <c r="AO404">
+        <v>1.25</v>
+      </c>
+      <c r="AP404">
+        <v>2.3</v>
+      </c>
+      <c r="AQ404">
+        <v>1.94</v>
+      </c>
+      <c r="AR404">
+        <v>1.13</v>
+      </c>
+      <c r="AS404">
+        <v>1.88</v>
+      </c>
+      <c r="AT404">
+        <v>1.12</v>
+      </c>
+      <c r="AU404">
+        <v>1.73</v>
+      </c>
+      <c r="AV404">
+        <v>1.17</v>
+      </c>
+      <c r="AW404">
+        <v>2.9</v>
+      </c>
+      <c r="AX404">
+        <v>1.37</v>
+      </c>
+      <c r="AY404">
+        <v>9</v>
+      </c>
+      <c r="AZ404">
+        <v>3.7</v>
+      </c>
+      <c r="BA404">
+        <v>1.23</v>
+      </c>
+      <c r="BB404">
+        <v>1.45</v>
+      </c>
+      <c r="BC404">
+        <v>1.83</v>
+      </c>
+      <c r="BD404">
+        <v>2.32</v>
+      </c>
+      <c r="BE404">
+        <v>3.14</v>
+      </c>
+      <c r="BF404">
+        <v>6</v>
+      </c>
+      <c r="BG404">
+        <v>3</v>
+      </c>
+      <c r="BH404">
+        <v>5</v>
+      </c>
+      <c r="BI404">
+        <v>2</v>
+      </c>
+      <c r="BJ404">
+        <v>11</v>
+      </c>
+      <c r="BK404">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:63">
+      <c r="A405" s="1">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>2581068</v>
+      </c>
+      <c r="C405" t="s">
+        <v>63</v>
+      </c>
+      <c r="D405" t="s">
+        <v>64</v>
+      </c>
+      <c r="E405" s="2">
+        <v>44989.5</v>
+      </c>
+      <c r="F405">
+        <v>35</v>
+      </c>
+      <c r="G405" t="s">
+        <v>74</v>
+      </c>
+      <c r="H405" t="s">
+        <v>82</v>
+      </c>
+      <c r="I405">
+        <v>2</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>2</v>
+      </c>
+      <c r="L405">
+        <v>2</v>
+      </c>
+      <c r="M405">
+        <v>0</v>
+      </c>
+      <c r="N405">
+        <v>2</v>
+      </c>
+      <c r="O405" t="s">
+        <v>318</v>
+      </c>
+      <c r="P405" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q405">
+        <v>2</v>
+      </c>
+      <c r="R405">
+        <v>1</v>
+      </c>
+      <c r="S405">
+        <v>3</v>
+      </c>
+      <c r="T405">
+        <v>2.63</v>
+      </c>
+      <c r="U405">
+        <v>2.04</v>
+      </c>
+      <c r="V405">
+        <v>4.5</v>
+      </c>
+      <c r="W405">
+        <v>1.42</v>
+      </c>
+      <c r="X405">
+        <v>2.63</v>
+      </c>
+      <c r="Y405">
+        <v>3.3</v>
+      </c>
+      <c r="Z405">
+        <v>1.29</v>
+      </c>
+      <c r="AA405">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB405">
+        <v>1.03</v>
+      </c>
+      <c r="AC405">
+        <v>1.95</v>
+      </c>
+      <c r="AD405">
+        <v>3.2</v>
+      </c>
+      <c r="AE405">
+        <v>3.8</v>
+      </c>
+      <c r="AF405">
+        <v>1.05</v>
+      </c>
+      <c r="AG405">
+        <v>8</v>
+      </c>
+      <c r="AH405">
+        <v>1.37</v>
+      </c>
+      <c r="AI405">
+        <v>3</v>
+      </c>
+      <c r="AJ405">
+        <v>2.15</v>
+      </c>
+      <c r="AK405">
+        <v>1.6</v>
+      </c>
+      <c r="AL405">
+        <v>1.97</v>
+      </c>
+      <c r="AM405">
+        <v>1.77</v>
+      </c>
+      <c r="AN405">
+        <v>1.21</v>
+      </c>
+      <c r="AO405">
+        <v>1.3</v>
+      </c>
+      <c r="AP405">
+        <v>1.79</v>
+      </c>
+      <c r="AQ405">
+        <v>1.88</v>
+      </c>
+      <c r="AR405">
+        <v>1.47</v>
+      </c>
+      <c r="AS405">
+        <v>1.94</v>
+      </c>
+      <c r="AT405">
+        <v>1.38</v>
+      </c>
+      <c r="AU405">
+        <v>1.59</v>
+      </c>
+      <c r="AV405">
+        <v>1.4</v>
+      </c>
+      <c r="AW405">
+        <v>2.99</v>
+      </c>
+      <c r="AX405">
+        <v>1.45</v>
+      </c>
+      <c r="AY405">
+        <v>9</v>
+      </c>
+      <c r="AZ405">
+        <v>3.19</v>
+      </c>
+      <c r="BA405">
+        <v>1.2</v>
+      </c>
+      <c r="BB405">
+        <v>1.33</v>
+      </c>
+      <c r="BC405">
+        <v>1.61</v>
+      </c>
+      <c r="BD405">
+        <v>2.04</v>
+      </c>
+      <c r="BE405">
+        <v>2.65</v>
+      </c>
+      <c r="BF405">
+        <v>6</v>
+      </c>
+      <c r="BG405">
+        <v>2</v>
+      </c>
+      <c r="BH405">
+        <v>5</v>
+      </c>
+      <c r="BI405">
+        <v>2</v>
+      </c>
+      <c r="BJ405">
+        <v>11</v>
+      </c>
+      <c r="BK405">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="475">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -985,10 +985,10 @@
     <t>['27', '32']</t>
   </si>
   <si>
-    <t>['8', '44', '67']</t>
+    <t>['7', '14', '36']</t>
   </si>
   <si>
-    <t>['7', '14', '36']</t>
+    <t>['8', '44', '67']</t>
   </si>
   <si>
     <t>['28']</t>
@@ -997,13 +997,16 @@
     <t>['49', '78']</t>
   </si>
   <si>
-    <t>['22', '25', '71', '90+4']</t>
-  </si>
-  <si>
     <t>['50', '90+6']</t>
   </si>
   <si>
     <t>['12', '38', '59']</t>
+  </si>
+  <si>
+    <t>['22', '25', '71', '90+4']</t>
+  </si>
+  <si>
+    <t>['57', '70']</t>
   </si>
   <si>
     <t>['40', '84']</t>
@@ -1434,6 +1437,9 @@
   <si>
     <t>['2', '14', '74', '79']</t>
   </si>
+  <si>
+    <t>['45+6']</t>
+  </si>
 </sst>
 </file>
 
@@ -1794,7 +1800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK437"/>
+  <dimension ref="A1:BK440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2420,7 +2426,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q4">
         <v>5</v>
@@ -2993,7 +2999,7 @@
         <v>94</v>
       </c>
       <c r="P7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3083,7 +3089,7 @@
         <v>0.68</v>
       </c>
       <c r="AT7">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3184,7 +3190,7 @@
         <v>95</v>
       </c>
       <c r="P8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -4035,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT12">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -4139,7 +4145,7 @@
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -5563,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT20">
         <v>1.71</v>
@@ -5667,7 +5673,7 @@
         <v>104</v>
       </c>
       <c r="P21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -6139,7 +6145,7 @@
         <v>1.06</v>
       </c>
       <c r="AT23">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -6240,7 +6246,7 @@
         <v>107</v>
       </c>
       <c r="P24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -6518,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT25">
         <v>0.72</v>
@@ -6712,7 +6718,7 @@
         <v>1.68</v>
       </c>
       <c r="AT26">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU26">
         <v>0.99</v>
@@ -6813,7 +6819,7 @@
         <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -8428,7 +8434,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT35">
         <v>1.32</v>
@@ -8532,7 +8538,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -8622,7 +8628,7 @@
         <v>1.33</v>
       </c>
       <c r="AT36">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU36">
         <v>1.21</v>
@@ -8723,7 +8729,7 @@
         <v>118</v>
       </c>
       <c r="P37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -9296,7 +9302,7 @@
         <v>121</v>
       </c>
       <c r="P40" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -9487,7 +9493,7 @@
         <v>122</v>
       </c>
       <c r="P41" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -10060,7 +10066,7 @@
         <v>124</v>
       </c>
       <c r="P44" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q44">
         <v>10</v>
@@ -10251,7 +10257,7 @@
         <v>125</v>
       </c>
       <c r="P45" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10338,7 +10344,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT45">
         <v>1.72</v>
@@ -10633,7 +10639,7 @@
         <v>127</v>
       </c>
       <c r="P47" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -10824,7 +10830,7 @@
         <v>99</v>
       </c>
       <c r="P48" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q48">
         <v>11</v>
@@ -10911,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT48">
         <v>0.89</v>
@@ -11015,7 +11021,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11206,7 +11212,7 @@
         <v>129</v>
       </c>
       <c r="P50" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -11678,7 +11684,7 @@
         <v>2.39</v>
       </c>
       <c r="AT52">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU52">
         <v>1.83</v>
@@ -12248,7 +12254,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -12352,7 +12358,7 @@
         <v>133</v>
       </c>
       <c r="P56" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12543,7 +12549,7 @@
         <v>134</v>
       </c>
       <c r="P57" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12734,7 +12740,7 @@
         <v>99</v>
       </c>
       <c r="P58" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12821,7 +12827,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT58">
         <v>1</v>
@@ -12925,7 +12931,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13307,7 +13313,7 @@
         <v>98</v>
       </c>
       <c r="P61" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -14543,7 +14549,7 @@
         <v>1.84</v>
       </c>
       <c r="AT67">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU67">
         <v>1.68</v>
@@ -14644,7 +14650,7 @@
         <v>140</v>
       </c>
       <c r="P68" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14835,7 +14841,7 @@
         <v>99</v>
       </c>
       <c r="P69" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q69">
         <v>2</v>
@@ -15304,10 +15310,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT71">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU71">
         <v>1.84</v>
@@ -15408,7 +15414,7 @@
         <v>99</v>
       </c>
       <c r="P72" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -15981,7 +15987,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -16172,7 +16178,7 @@
         <v>99</v>
       </c>
       <c r="P76" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -16641,7 +16647,7 @@
         <v>0.67</v>
       </c>
       <c r="AS78">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT78">
         <v>1.32</v>
@@ -16936,7 +16942,7 @@
         <v>147</v>
       </c>
       <c r="P80" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q80">
         <v>11</v>
@@ -17318,7 +17324,7 @@
         <v>149</v>
       </c>
       <c r="P82" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -17509,7 +17515,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q83">
         <v>4</v>
@@ -17596,7 +17602,7 @@
         <v>1.33</v>
       </c>
       <c r="AS83">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT83">
         <v>1</v>
@@ -17700,7 +17706,7 @@
         <v>151</v>
       </c>
       <c r="P84" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -18363,7 +18369,7 @@
         <v>1.63</v>
       </c>
       <c r="AT87">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU87">
         <v>1.79</v>
@@ -18464,7 +18470,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18554,7 +18560,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT88">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU88">
         <v>1.03</v>
@@ -19037,7 +19043,7 @@
         <v>155</v>
       </c>
       <c r="P91" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -19124,7 +19130,7 @@
         <v>0</v>
       </c>
       <c r="AS91">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT91">
         <v>1.44</v>
@@ -19318,7 +19324,7 @@
         <v>1.67</v>
       </c>
       <c r="AT92">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU92">
         <v>1.57</v>
@@ -19419,7 +19425,7 @@
         <v>99</v>
       </c>
       <c r="P93" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -19801,7 +19807,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19992,7 +19998,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -20270,7 +20276,7 @@
         <v>1.75</v>
       </c>
       <c r="AS97">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT97">
         <v>1.33</v>
@@ -20565,7 +20571,7 @@
         <v>99</v>
       </c>
       <c r="P99" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q99">
         <v>4</v>
@@ -20756,7 +20762,7 @@
         <v>99</v>
       </c>
       <c r="P100" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20843,7 +20849,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT100">
         <v>1.58</v>
@@ -21138,7 +21144,7 @@
         <v>99</v>
       </c>
       <c r="P102" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -22093,7 +22099,7 @@
         <v>165</v>
       </c>
       <c r="P107" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q107">
         <v>11</v>
@@ -23138,7 +23144,7 @@
         <v>1</v>
       </c>
       <c r="AT112">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU112">
         <v>1.32</v>
@@ -23239,7 +23245,7 @@
         <v>168</v>
       </c>
       <c r="P113" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -23621,7 +23627,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24003,7 +24009,7 @@
         <v>171</v>
       </c>
       <c r="P117" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q117">
         <v>8</v>
@@ -24090,7 +24096,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT117">
         <v>1</v>
@@ -24194,7 +24200,7 @@
         <v>99</v>
       </c>
       <c r="P118" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q118">
         <v>7</v>
@@ -24385,7 +24391,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -24767,7 +24773,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -24857,7 +24863,7 @@
         <v>1.18</v>
       </c>
       <c r="AT121">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU121">
         <v>1.53</v>
@@ -24958,7 +24964,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q122">
         <v>11</v>
@@ -25149,7 +25155,7 @@
         <v>152</v>
       </c>
       <c r="P123" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -25340,7 +25346,7 @@
         <v>175</v>
       </c>
       <c r="P124" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25427,7 +25433,7 @@
         <v>1.4</v>
       </c>
       <c r="AS124">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT124">
         <v>1.33</v>
@@ -25618,7 +25624,7 @@
         <v>0.25</v>
       </c>
       <c r="AS125">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT125">
         <v>1</v>
@@ -25722,7 +25728,7 @@
         <v>177</v>
       </c>
       <c r="P126" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q126">
         <v>14</v>
@@ -25913,7 +25919,7 @@
         <v>178</v>
       </c>
       <c r="P127" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q127">
         <v>6</v>
@@ -26003,7 +26009,7 @@
         <v>0.68</v>
       </c>
       <c r="AT127">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU127">
         <v>1.42</v>
@@ -26868,7 +26874,7 @@
         <v>157</v>
       </c>
       <c r="P132" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q132">
         <v>10</v>
@@ -27149,7 +27155,7 @@
         <v>1.89</v>
       </c>
       <c r="AT133">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU133">
         <v>1.81</v>
@@ -27531,7 +27537,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT135">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU135">
         <v>1.16</v>
@@ -28396,7 +28402,7 @@
         <v>186</v>
       </c>
       <c r="P140" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -28486,7 +28492,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT140">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU140">
         <v>1.32</v>
@@ -28969,7 +28975,7 @@
         <v>99</v>
       </c>
       <c r="P143" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -29542,7 +29548,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -30202,7 +30208,7 @@
         <v>0</v>
       </c>
       <c r="AS149">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT149">
         <v>1.44</v>
@@ -30396,7 +30402,7 @@
         <v>1.53</v>
       </c>
       <c r="AT150">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU150">
         <v>1.36</v>
@@ -31070,7 +31076,7 @@
         <v>120</v>
       </c>
       <c r="P154" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -31730,7 +31736,7 @@
         <v>1.67</v>
       </c>
       <c r="AS157">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT157">
         <v>1.33</v>
@@ -31921,7 +31927,7 @@
         <v>1.17</v>
       </c>
       <c r="AS158">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT158">
         <v>1.32</v>
@@ -32025,7 +32031,7 @@
         <v>195</v>
       </c>
       <c r="P159" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -32497,7 +32503,7 @@
         <v>1.89</v>
       </c>
       <c r="AT161">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU161">
         <v>1.68</v>
@@ -32598,7 +32604,7 @@
         <v>197</v>
       </c>
       <c r="P162" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q162">
         <v>7</v>
@@ -32789,7 +32795,7 @@
         <v>198</v>
       </c>
       <c r="P163" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32980,7 +32986,7 @@
         <v>99</v>
       </c>
       <c r="P164" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -33171,7 +33177,7 @@
         <v>199</v>
       </c>
       <c r="P165" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q165">
         <v>3</v>
@@ -33553,7 +33559,7 @@
         <v>181</v>
       </c>
       <c r="P167" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q167">
         <v>6</v>
@@ -34022,7 +34028,7 @@
         <v>1.29</v>
       </c>
       <c r="AS169">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT169">
         <v>1.16</v>
@@ -34216,7 +34222,7 @@
         <v>1.42</v>
       </c>
       <c r="AT170">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU170">
         <v>1.15</v>
@@ -34317,7 +34323,7 @@
         <v>202</v>
       </c>
       <c r="P171" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -34404,7 +34410,7 @@
         <v>1.71</v>
       </c>
       <c r="AS171">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT171">
         <v>1.58</v>
@@ -34508,7 +34514,7 @@
         <v>203</v>
       </c>
       <c r="P172" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q172">
         <v>7</v>
@@ -34890,7 +34896,7 @@
         <v>99</v>
       </c>
       <c r="P174" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -35463,7 +35469,7 @@
         <v>206</v>
       </c>
       <c r="P177" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q177">
         <v>5</v>
@@ -35654,7 +35660,7 @@
         <v>207</v>
       </c>
       <c r="P178" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q178">
         <v>9</v>
@@ -35935,7 +35941,7 @@
         <v>1.79</v>
       </c>
       <c r="AT179">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU179">
         <v>1.84</v>
@@ -36227,7 +36233,7 @@
         <v>210</v>
       </c>
       <c r="P181" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q181">
         <v>6</v>
@@ -36696,7 +36702,7 @@
         <v>1.29</v>
       </c>
       <c r="AS183">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT183">
         <v>1.32</v>
@@ -36890,7 +36896,7 @@
         <v>1.33</v>
       </c>
       <c r="AT184">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU184">
         <v>1.24</v>
@@ -37460,7 +37466,7 @@
         <v>0.5</v>
       </c>
       <c r="AS187">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT187">
         <v>0.47</v>
@@ -38137,7 +38143,7 @@
         <v>216</v>
       </c>
       <c r="P191" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -38519,7 +38525,7 @@
         <v>99</v>
       </c>
       <c r="P193" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q193">
         <v>7</v>
@@ -38609,7 +38615,7 @@
         <v>1.53</v>
       </c>
       <c r="AT193">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU193">
         <v>1.53</v>
@@ -38901,7 +38907,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -39182,7 +39188,7 @@
         <v>1.67</v>
       </c>
       <c r="AT196">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU196">
         <v>1.6</v>
@@ -40047,7 +40053,7 @@
         <v>224</v>
       </c>
       <c r="P201" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q201">
         <v>6</v>
@@ -40137,7 +40143,7 @@
         <v>1.16</v>
       </c>
       <c r="AT201">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU201">
         <v>1.54</v>
@@ -40238,7 +40244,7 @@
         <v>94</v>
       </c>
       <c r="P202" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q202">
         <v>9</v>
@@ -40811,7 +40817,7 @@
         <v>99</v>
       </c>
       <c r="P205" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q205">
         <v>5</v>
@@ -41575,7 +41581,7 @@
         <v>114</v>
       </c>
       <c r="P209" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q209">
         <v>4</v>
@@ -41766,7 +41772,7 @@
         <v>99</v>
       </c>
       <c r="P210" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q210">
         <v>7</v>
@@ -41957,7 +41963,7 @@
         <v>112</v>
       </c>
       <c r="P211" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q211">
         <v>6</v>
@@ -42047,7 +42053,7 @@
         <v>1.18</v>
       </c>
       <c r="AT211">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU211">
         <v>1.64</v>
@@ -42148,7 +42154,7 @@
         <v>99</v>
       </c>
       <c r="P212" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q212">
         <v>3</v>
@@ -42235,7 +42241,7 @@
         <v>1.88</v>
       </c>
       <c r="AS212">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT212">
         <v>1.72</v>
@@ -42617,7 +42623,7 @@
         <v>1.25</v>
       </c>
       <c r="AS214">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT214">
         <v>1.16</v>
@@ -43002,7 +43008,7 @@
         <v>1.53</v>
       </c>
       <c r="AT216">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU216">
         <v>1.63</v>
@@ -43103,7 +43109,7 @@
         <v>99</v>
       </c>
       <c r="P217" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q217">
         <v>7</v>
@@ -43485,7 +43491,7 @@
         <v>98</v>
       </c>
       <c r="P219" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q219">
         <v>2</v>
@@ -43676,7 +43682,7 @@
         <v>227</v>
       </c>
       <c r="P220" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q220">
         <v>8</v>
@@ -43766,7 +43772,7 @@
         <v>1.68</v>
       </c>
       <c r="AT220">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU220">
         <v>1.45</v>
@@ -44530,7 +44536,7 @@
         <v>1.06</v>
       </c>
       <c r="AT224">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU224">
         <v>1.13</v>
@@ -44631,7 +44637,7 @@
         <v>231</v>
       </c>
       <c r="P225" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -44718,7 +44724,7 @@
         <v>2</v>
       </c>
       <c r="AS225">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT225">
         <v>1.72</v>
@@ -45291,7 +45297,7 @@
         <v>0.33</v>
       </c>
       <c r="AS228">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT228">
         <v>0.68</v>
@@ -45395,7 +45401,7 @@
         <v>99</v>
       </c>
       <c r="P229" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q229">
         <v>5</v>
@@ -45586,7 +45592,7 @@
         <v>110</v>
       </c>
       <c r="P230" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q230">
         <v>2</v>
@@ -46159,7 +46165,7 @@
         <v>99</v>
       </c>
       <c r="P233" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q233">
         <v>7</v>
@@ -46246,7 +46252,7 @@
         <v>1.78</v>
       </c>
       <c r="AS233">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT233">
         <v>1.5</v>
@@ -46819,7 +46825,7 @@
         <v>1.44</v>
       </c>
       <c r="AS236">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT236">
         <v>1.32</v>
@@ -46923,7 +46929,7 @@
         <v>99</v>
       </c>
       <c r="P237" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q237">
         <v>1</v>
@@ -47114,7 +47120,7 @@
         <v>237</v>
       </c>
       <c r="P238" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q238">
         <v>1</v>
@@ -47496,7 +47502,7 @@
         <v>154</v>
       </c>
       <c r="P240" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q240">
         <v>6</v>
@@ -47687,7 +47693,7 @@
         <v>99</v>
       </c>
       <c r="P241" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q241">
         <v>3</v>
@@ -47774,7 +47780,7 @@
         <v>0.2</v>
       </c>
       <c r="AS241">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT241">
         <v>0.74</v>
@@ -48732,7 +48738,7 @@
         <v>1</v>
       </c>
       <c r="AT246">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU246">
         <v>1.3</v>
@@ -49305,7 +49311,7 @@
         <v>1.84</v>
       </c>
       <c r="AT249">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU249">
         <v>1.46</v>
@@ -49406,7 +49412,7 @@
         <v>242</v>
       </c>
       <c r="P250" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q250">
         <v>3</v>
@@ -49684,7 +49690,7 @@
         <v>0.09</v>
       </c>
       <c r="AS251">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT251">
         <v>0.89</v>
@@ -50069,7 +50075,7 @@
         <v>1.79</v>
       </c>
       <c r="AT253">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU253">
         <v>1.84</v>
@@ -50170,7 +50176,7 @@
         <v>153</v>
       </c>
       <c r="P254" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q254">
         <v>4</v>
@@ -50361,7 +50367,7 @@
         <v>245</v>
       </c>
       <c r="P255" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q255">
         <v>4</v>
@@ -50448,7 +50454,7 @@
         <v>0.55</v>
       </c>
       <c r="AS255">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT255">
         <v>1</v>
@@ -51125,7 +51131,7 @@
         <v>102</v>
       </c>
       <c r="P259" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q259">
         <v>6</v>
@@ -51406,7 +51412,7 @@
         <v>1.53</v>
       </c>
       <c r="AT260">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU260">
         <v>1.42</v>
@@ -51698,7 +51704,7 @@
         <v>99</v>
       </c>
       <c r="P262" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q262">
         <v>6</v>
@@ -51788,7 +51794,7 @@
         <v>1.42</v>
       </c>
       <c r="AT262">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU262">
         <v>1.23</v>
@@ -51889,7 +51895,7 @@
         <v>248</v>
       </c>
       <c r="P263" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q263">
         <v>7</v>
@@ -52080,7 +52086,7 @@
         <v>139</v>
       </c>
       <c r="P264" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q264">
         <v>15</v>
@@ -52271,7 +52277,7 @@
         <v>91</v>
       </c>
       <c r="P265" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q265">
         <v>4</v>
@@ -52549,7 +52555,7 @@
         <v>0.7</v>
       </c>
       <c r="AS266">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT266">
         <v>0.89</v>
@@ -52653,7 +52659,7 @@
         <v>226</v>
       </c>
       <c r="P267" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q267">
         <v>5</v>
@@ -53035,7 +53041,7 @@
         <v>99</v>
       </c>
       <c r="P269" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q269">
         <v>7</v>
@@ -53226,7 +53232,7 @@
         <v>251</v>
       </c>
       <c r="P270" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q270">
         <v>6</v>
@@ -53417,7 +53423,7 @@
         <v>106</v>
       </c>
       <c r="P271" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q271">
         <v>3</v>
@@ -53608,7 +53614,7 @@
         <v>252</v>
       </c>
       <c r="P272" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q272">
         <v>7</v>
@@ -54372,7 +54378,7 @@
         <v>253</v>
       </c>
       <c r="P276" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q276">
         <v>5</v>
@@ -54462,7 +54468,7 @@
         <v>1.72</v>
       </c>
       <c r="AT276">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU276">
         <v>1.41</v>
@@ -54754,7 +54760,7 @@
         <v>254</v>
       </c>
       <c r="P278" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q278">
         <v>2</v>
@@ -55327,7 +55333,7 @@
         <v>257</v>
       </c>
       <c r="P281" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q281">
         <v>4</v>
@@ -55414,7 +55420,7 @@
         <v>2</v>
       </c>
       <c r="AS281">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT281">
         <v>1.5</v>
@@ -56091,7 +56097,7 @@
         <v>259</v>
       </c>
       <c r="P285" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q285">
         <v>6</v>
@@ -56473,7 +56479,7 @@
         <v>246</v>
       </c>
       <c r="P287" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q287">
         <v>3</v>
@@ -56664,7 +56670,7 @@
         <v>261</v>
       </c>
       <c r="P288" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q288">
         <v>4</v>
@@ -56945,7 +56951,7 @@
         <v>2.32</v>
       </c>
       <c r="AT289">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU289">
         <v>1.61</v>
@@ -57046,7 +57052,7 @@
         <v>263</v>
       </c>
       <c r="P290" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q290">
         <v>9</v>
@@ -57237,7 +57243,7 @@
         <v>264</v>
       </c>
       <c r="P291" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q291">
         <v>6</v>
@@ -57619,7 +57625,7 @@
         <v>265</v>
       </c>
       <c r="P293" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q293">
         <v>5</v>
@@ -57706,7 +57712,7 @@
         <v>0.75</v>
       </c>
       <c r="AS293">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT293">
         <v>0.72</v>
@@ -58088,7 +58094,7 @@
         <v>0.67</v>
       </c>
       <c r="AS295">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT295">
         <v>0.74</v>
@@ -58473,7 +58479,7 @@
         <v>1.63</v>
       </c>
       <c r="AT297">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU297">
         <v>1.54</v>
@@ -58574,7 +58580,7 @@
         <v>269</v>
       </c>
       <c r="P298" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q298">
         <v>6</v>
@@ -60293,7 +60299,7 @@
         <v>99</v>
       </c>
       <c r="P307" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q307">
         <v>8</v>
@@ -61248,7 +61254,7 @@
         <v>99</v>
       </c>
       <c r="P312" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q312">
         <v>3</v>
@@ -61439,7 +61445,7 @@
         <v>277</v>
       </c>
       <c r="P313" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q313">
         <v>3</v>
@@ -61526,7 +61532,7 @@
         <v>1.77</v>
       </c>
       <c r="AS313">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT313">
         <v>1.5</v>
@@ -61630,7 +61636,7 @@
         <v>99</v>
       </c>
       <c r="P314" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q314">
         <v>7</v>
@@ -61821,7 +61827,7 @@
         <v>278</v>
       </c>
       <c r="P315" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q315">
         <v>7</v>
@@ -62203,7 +62209,7 @@
         <v>279</v>
       </c>
       <c r="P317" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q317">
         <v>7</v>
@@ -62394,7 +62400,7 @@
         <v>280</v>
       </c>
       <c r="P318" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q318">
         <v>4</v>
@@ -62484,7 +62490,7 @@
         <v>1.63</v>
       </c>
       <c r="AT318">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU318">
         <v>1.56</v>
@@ -62585,7 +62591,7 @@
         <v>99</v>
       </c>
       <c r="P319" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q319">
         <v>1</v>
@@ -62675,7 +62681,7 @@
         <v>0.68</v>
       </c>
       <c r="AT319">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU319">
         <v>1.26</v>
@@ -63627,7 +63633,7 @@
         <v>0.5</v>
       </c>
       <c r="AS324">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT324">
         <v>0.47</v>
@@ -64113,7 +64119,7 @@
         <v>284</v>
       </c>
       <c r="P327" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q327">
         <v>3</v>
@@ -64686,7 +64692,7 @@
         <v>99</v>
       </c>
       <c r="P330" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q330">
         <v>8</v>
@@ -64877,7 +64883,7 @@
         <v>135</v>
       </c>
       <c r="P331" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q331">
         <v>8</v>
@@ -65026,7 +65032,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>2581006</v>
+        <v>2581007</v>
       </c>
       <c r="C332" t="s">
         <v>63</v>
@@ -65041,175 +65047,175 @@
         <v>30</v>
       </c>
       <c r="G332" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H332" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332">
         <v>0</v>
       </c>
       <c r="K332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M332">
         <v>1</v>
       </c>
       <c r="N332">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O332" t="s">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="P332" t="s">
-        <v>176</v>
+        <v>278</v>
       </c>
       <c r="Q332">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R332">
+        <v>2</v>
+      </c>
+      <c r="S332">
+        <v>12</v>
+      </c>
+      <c r="T332">
+        <v>2.3</v>
+      </c>
+      <c r="U332">
+        <v>2.15</v>
+      </c>
+      <c r="V332">
+        <v>4.4</v>
+      </c>
+      <c r="W332">
+        <v>1.4</v>
+      </c>
+      <c r="X332">
+        <v>2.8</v>
+      </c>
+      <c r="Y332">
+        <v>2.8</v>
+      </c>
+      <c r="Z332">
+        <v>1.38</v>
+      </c>
+      <c r="AA332">
+        <v>7.75</v>
+      </c>
+      <c r="AB332">
+        <v>1.08</v>
+      </c>
+      <c r="AC332">
+        <v>1.76</v>
+      </c>
+      <c r="AD332">
+        <v>3.6</v>
+      </c>
+      <c r="AE332">
+        <v>4.4</v>
+      </c>
+      <c r="AF332">
+        <v>1.05</v>
+      </c>
+      <c r="AG332">
+        <v>11.5</v>
+      </c>
+      <c r="AH332">
+        <v>1.28</v>
+      </c>
+      <c r="AI332">
+        <v>3.3</v>
+      </c>
+      <c r="AJ332">
+        <v>1.94</v>
+      </c>
+      <c r="AK332">
+        <v>1.84</v>
+      </c>
+      <c r="AL332">
+        <v>1.85</v>
+      </c>
+      <c r="AM332">
+        <v>1.85</v>
+      </c>
+      <c r="AN332">
+        <v>1.17</v>
+      </c>
+      <c r="AO332">
+        <v>1.3</v>
+      </c>
+      <c r="AP332">
+        <v>2</v>
+      </c>
+      <c r="AQ332">
+        <v>2.07</v>
+      </c>
+      <c r="AR332">
+        <v>0.67</v>
+      </c>
+      <c r="AS332">
+        <v>1.89</v>
+      </c>
+      <c r="AT332">
+        <v>0.89</v>
+      </c>
+      <c r="AU332">
+        <v>1.6</v>
+      </c>
+      <c r="AV332">
+        <v>1.08</v>
+      </c>
+      <c r="AW332">
+        <v>2.68</v>
+      </c>
+      <c r="AX332">
+        <v>1.37</v>
+      </c>
+      <c r="AY332">
+        <v>9.6</v>
+      </c>
+      <c r="AZ332">
+        <v>3.98</v>
+      </c>
+      <c r="BA332">
+        <v>1.21</v>
+      </c>
+      <c r="BB332">
+        <v>1.42</v>
+      </c>
+      <c r="BC332">
+        <v>1.74</v>
+      </c>
+      <c r="BD332">
+        <v>2.17</v>
+      </c>
+      <c r="BE332">
+        <v>2.84</v>
+      </c>
+      <c r="BF332">
+        <v>5</v>
+      </c>
+      <c r="BG332">
+        <v>2</v>
+      </c>
+      <c r="BH332">
+        <v>15</v>
+      </c>
+      <c r="BI332">
         <v>4</v>
       </c>
-      <c r="S332">
-        <v>13</v>
-      </c>
-      <c r="T332">
-        <v>3.25</v>
-      </c>
-      <c r="U332">
-        <v>1.98</v>
-      </c>
-      <c r="V332">
-        <v>3.55</v>
-      </c>
-      <c r="W332">
-        <v>1.44</v>
-      </c>
-      <c r="X332">
-        <v>2.6</v>
-      </c>
-      <c r="Y332">
-        <v>3.35</v>
-      </c>
-      <c r="Z332">
-        <v>1.28</v>
-      </c>
-      <c r="AA332">
-        <v>7.9</v>
-      </c>
-      <c r="AB332">
-        <v>1.05</v>
-      </c>
-      <c r="AC332">
-        <v>2.55</v>
-      </c>
-      <c r="AD332">
-        <v>3.15</v>
-      </c>
-      <c r="AE332">
-        <v>2.75</v>
-      </c>
-      <c r="AF332">
-        <v>1.06</v>
-      </c>
-      <c r="AG332">
-        <v>7.5</v>
-      </c>
-      <c r="AH332">
-        <v>1.38</v>
-      </c>
-      <c r="AI332">
-        <v>2.95</v>
-      </c>
-      <c r="AJ332">
-        <v>1.97</v>
-      </c>
-      <c r="AK332">
-        <v>1.81</v>
-      </c>
-      <c r="AL332">
-        <v>1.9</v>
-      </c>
-      <c r="AM332">
-        <v>1.83</v>
-      </c>
-      <c r="AN332">
-        <v>1.38</v>
-      </c>
-      <c r="AO332">
-        <v>1.33</v>
-      </c>
-      <c r="AP332">
-        <v>1.47</v>
-      </c>
-      <c r="AQ332">
-        <v>1.54</v>
-      </c>
-      <c r="AR332">
-        <v>1.46</v>
-      </c>
-      <c r="AS332">
-        <v>1.56</v>
-      </c>
-      <c r="AT332">
-        <v>1.58</v>
-      </c>
-      <c r="AU332">
-        <v>1.46</v>
-      </c>
-      <c r="AV332">
-        <v>1.53</v>
-      </c>
-      <c r="AW332">
-        <v>2.99</v>
-      </c>
-      <c r="AX332">
-        <v>2.47</v>
-      </c>
-      <c r="AY332">
-        <v>7.8</v>
-      </c>
-      <c r="AZ332">
-        <v>1.81</v>
-      </c>
-      <c r="BA332">
-        <v>1.2</v>
-      </c>
-      <c r="BB332">
-        <v>1.41</v>
-      </c>
-      <c r="BC332">
-        <v>1.75</v>
-      </c>
-      <c r="BD332">
-        <v>2.19</v>
-      </c>
-      <c r="BE332">
-        <v>2.93</v>
-      </c>
-      <c r="BF332">
-        <v>2</v>
-      </c>
-      <c r="BG332">
-        <v>5</v>
-      </c>
-      <c r="BH332">
-        <v>11</v>
-      </c>
-      <c r="BI332">
-        <v>7</v>
-      </c>
       <c r="BJ332">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BK332">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:63">
@@ -65408,7 +65414,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>2581007</v>
+        <v>2581006</v>
       </c>
       <c r="C334" t="s">
         <v>63</v>
@@ -65423,175 +65429,175 @@
         <v>30</v>
       </c>
       <c r="G334" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H334" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334">
         <v>0</v>
       </c>
       <c r="K334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M334">
         <v>1</v>
       </c>
       <c r="N334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O334" t="s">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="P334" t="s">
-        <v>278</v>
+        <v>176</v>
       </c>
       <c r="Q334">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R334">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S334">
+        <v>13</v>
+      </c>
+      <c r="T334">
+        <v>3.25</v>
+      </c>
+      <c r="U334">
+        <v>1.98</v>
+      </c>
+      <c r="V334">
+        <v>3.55</v>
+      </c>
+      <c r="W334">
+        <v>1.44</v>
+      </c>
+      <c r="X334">
+        <v>2.6</v>
+      </c>
+      <c r="Y334">
+        <v>3.35</v>
+      </c>
+      <c r="Z334">
+        <v>1.28</v>
+      </c>
+      <c r="AA334">
+        <v>7.9</v>
+      </c>
+      <c r="AB334">
+        <v>1.05</v>
+      </c>
+      <c r="AC334">
+        <v>2.55</v>
+      </c>
+      <c r="AD334">
+        <v>3.15</v>
+      </c>
+      <c r="AE334">
+        <v>2.75</v>
+      </c>
+      <c r="AF334">
+        <v>1.06</v>
+      </c>
+      <c r="AG334">
+        <v>7.5</v>
+      </c>
+      <c r="AH334">
+        <v>1.38</v>
+      </c>
+      <c r="AI334">
+        <v>2.95</v>
+      </c>
+      <c r="AJ334">
+        <v>1.97</v>
+      </c>
+      <c r="AK334">
+        <v>1.81</v>
+      </c>
+      <c r="AL334">
+        <v>1.9</v>
+      </c>
+      <c r="AM334">
+        <v>1.83</v>
+      </c>
+      <c r="AN334">
+        <v>1.38</v>
+      </c>
+      <c r="AO334">
+        <v>1.33</v>
+      </c>
+      <c r="AP334">
+        <v>1.47</v>
+      </c>
+      <c r="AQ334">
+        <v>1.54</v>
+      </c>
+      <c r="AR334">
+        <v>1.46</v>
+      </c>
+      <c r="AS334">
+        <v>1.53</v>
+      </c>
+      <c r="AT334">
+        <v>1.58</v>
+      </c>
+      <c r="AU334">
+        <v>1.46</v>
+      </c>
+      <c r="AV334">
+        <v>1.53</v>
+      </c>
+      <c r="AW334">
+        <v>2.99</v>
+      </c>
+      <c r="AX334">
+        <v>2.47</v>
+      </c>
+      <c r="AY334">
+        <v>7.8</v>
+      </c>
+      <c r="AZ334">
+        <v>1.81</v>
+      </c>
+      <c r="BA334">
+        <v>1.2</v>
+      </c>
+      <c r="BB334">
+        <v>1.41</v>
+      </c>
+      <c r="BC334">
+        <v>1.75</v>
+      </c>
+      <c r="BD334">
+        <v>2.19</v>
+      </c>
+      <c r="BE334">
+        <v>2.93</v>
+      </c>
+      <c r="BF334">
+        <v>2</v>
+      </c>
+      <c r="BG334">
+        <v>5</v>
+      </c>
+      <c r="BH334">
+        <v>11</v>
+      </c>
+      <c r="BI334">
+        <v>7</v>
+      </c>
+      <c r="BJ334">
+        <v>13</v>
+      </c>
+      <c r="BK334">
         <v>12</v>
-      </c>
-      <c r="T334">
-        <v>2.3</v>
-      </c>
-      <c r="U334">
-        <v>2.15</v>
-      </c>
-      <c r="V334">
-        <v>4.4</v>
-      </c>
-      <c r="W334">
-        <v>1.4</v>
-      </c>
-      <c r="X334">
-        <v>2.8</v>
-      </c>
-      <c r="Y334">
-        <v>2.8</v>
-      </c>
-      <c r="Z334">
-        <v>1.38</v>
-      </c>
-      <c r="AA334">
-        <v>7.75</v>
-      </c>
-      <c r="AB334">
-        <v>1.08</v>
-      </c>
-      <c r="AC334">
-        <v>1.76</v>
-      </c>
-      <c r="AD334">
-        <v>3.6</v>
-      </c>
-      <c r="AE334">
-        <v>4.4</v>
-      </c>
-      <c r="AF334">
-        <v>1.05</v>
-      </c>
-      <c r="AG334">
-        <v>11.5</v>
-      </c>
-      <c r="AH334">
-        <v>1.28</v>
-      </c>
-      <c r="AI334">
-        <v>3.3</v>
-      </c>
-      <c r="AJ334">
-        <v>1.94</v>
-      </c>
-      <c r="AK334">
-        <v>1.84</v>
-      </c>
-      <c r="AL334">
-        <v>1.85</v>
-      </c>
-      <c r="AM334">
-        <v>1.85</v>
-      </c>
-      <c r="AN334">
-        <v>1.17</v>
-      </c>
-      <c r="AO334">
-        <v>1.3</v>
-      </c>
-      <c r="AP334">
-        <v>2</v>
-      </c>
-      <c r="AQ334">
-        <v>2.07</v>
-      </c>
-      <c r="AR334">
-        <v>0.67</v>
-      </c>
-      <c r="AS334">
-        <v>1.89</v>
-      </c>
-      <c r="AT334">
-        <v>0.89</v>
-      </c>
-      <c r="AU334">
-        <v>1.6</v>
-      </c>
-      <c r="AV334">
-        <v>1.08</v>
-      </c>
-      <c r="AW334">
-        <v>2.68</v>
-      </c>
-      <c r="AX334">
-        <v>1.37</v>
-      </c>
-      <c r="AY334">
-        <v>9.6</v>
-      </c>
-      <c r="AZ334">
-        <v>3.98</v>
-      </c>
-      <c r="BA334">
-        <v>1.21</v>
-      </c>
-      <c r="BB334">
-        <v>1.42</v>
-      </c>
-      <c r="BC334">
-        <v>1.74</v>
-      </c>
-      <c r="BD334">
-        <v>2.17</v>
-      </c>
-      <c r="BE334">
-        <v>2.84</v>
-      </c>
-      <c r="BF334">
-        <v>5</v>
-      </c>
-      <c r="BG334">
-        <v>2</v>
-      </c>
-      <c r="BH334">
-        <v>15</v>
-      </c>
-      <c r="BI334">
-        <v>4</v>
-      </c>
-      <c r="BJ334">
-        <v>20</v>
-      </c>
-      <c r="BK334">
-        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:63">
@@ -65832,7 +65838,7 @@
         <v>99</v>
       </c>
       <c r="P336" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q336">
         <v>4</v>
@@ -66113,7 +66119,7 @@
         <v>1.33</v>
       </c>
       <c r="AT337">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU337">
         <v>1.28</v>
@@ -66214,7 +66220,7 @@
         <v>286</v>
       </c>
       <c r="P338" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q338">
         <v>7</v>
@@ -66301,10 +66307,10 @@
         <v>1</v>
       </c>
       <c r="AS338">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT338">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU338">
         <v>1.13</v>
@@ -66596,7 +66602,7 @@
         <v>115</v>
       </c>
       <c r="P340" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q340">
         <v>5</v>
@@ -66787,7 +66793,7 @@
         <v>287</v>
       </c>
       <c r="P341" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q341">
         <v>3</v>
@@ -67169,7 +67175,7 @@
         <v>227</v>
       </c>
       <c r="P343" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q343">
         <v>4</v>
@@ -67360,7 +67366,7 @@
         <v>289</v>
       </c>
       <c r="P344" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q344">
         <v>7</v>
@@ -67551,7 +67557,7 @@
         <v>99</v>
       </c>
       <c r="P345" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q345">
         <v>5</v>
@@ -67641,7 +67647,7 @@
         <v>1.53</v>
       </c>
       <c r="AT345">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU345">
         <v>1.73</v>
@@ -67933,7 +67939,7 @@
         <v>291</v>
       </c>
       <c r="P347" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q347">
         <v>4</v>
@@ -68315,7 +68321,7 @@
         <v>99</v>
       </c>
       <c r="P349" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q349">
         <v>5</v>
@@ -68975,7 +68981,7 @@
         <v>1.46</v>
       </c>
       <c r="AS352">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT352">
         <v>1.47</v>
@@ -69079,7 +69085,7 @@
         <v>294</v>
       </c>
       <c r="P353" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q353">
         <v>6</v>
@@ -69270,7 +69276,7 @@
         <v>295</v>
       </c>
       <c r="P354" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q354">
         <v>3</v>
@@ -70503,7 +70509,7 @@
         <v>1.07</v>
       </c>
       <c r="AS360">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT360">
         <v>1.06</v>
@@ -70607,7 +70613,7 @@
         <v>299</v>
       </c>
       <c r="P361" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q361">
         <v>6</v>
@@ -70888,7 +70894,7 @@
         <v>1.95</v>
       </c>
       <c r="AT362">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU362">
         <v>1.64</v>
@@ -71076,7 +71082,7 @@
         <v>1</v>
       </c>
       <c r="AS363">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT363">
         <v>1.16</v>
@@ -71180,7 +71186,7 @@
         <v>119</v>
       </c>
       <c r="P364" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q364">
         <v>6</v>
@@ -71371,7 +71377,7 @@
         <v>99</v>
       </c>
       <c r="P365" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q365">
         <v>5</v>
@@ -71562,7 +71568,7 @@
         <v>99</v>
       </c>
       <c r="P366" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q366">
         <v>4</v>
@@ -71711,7 +71717,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>2581044</v>
+        <v>2581053</v>
       </c>
       <c r="C367" t="s">
         <v>63</v>
@@ -71726,10 +71732,10 @@
         <v>33</v>
       </c>
       <c r="G367" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H367" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I367">
         <v>1</v>
@@ -71744,73 +71750,73 @@
         <v>1</v>
       </c>
       <c r="M367">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N367">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O367" t="s">
-        <v>119</v>
+        <v>302</v>
       </c>
       <c r="P367" t="s">
-        <v>99</v>
+        <v>272</v>
       </c>
       <c r="Q367">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R367">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S367">
         <v>6</v>
       </c>
       <c r="T367">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="U367">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V367">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="W367">
         <v>1.44</v>
       </c>
       <c r="X367">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="Y367">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Z367">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AA367">
-        <v>8.35</v>
+        <v>10</v>
       </c>
       <c r="AB367">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC367">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AD367">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AE367">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="AF367">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="AG367">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH367">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AI367">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AJ367">
         <v>2.18</v>
@@ -71819,82 +71825,82 @@
         <v>1.62</v>
       </c>
       <c r="AL367">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AM367">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AN367">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AO367">
+        <v>1.32</v>
+      </c>
+      <c r="AP367">
+        <v>1.6</v>
+      </c>
+      <c r="AQ367">
+        <v>1.85</v>
+      </c>
+      <c r="AR367">
+        <v>1.21</v>
+      </c>
+      <c r="AS367">
+        <v>1.63</v>
+      </c>
+      <c r="AT367">
+        <v>1.32</v>
+      </c>
+      <c r="AU367">
+        <v>1.55</v>
+      </c>
+      <c r="AV367">
         <v>1.25</v>
       </c>
-      <c r="AP367">
-        <v>1.95</v>
-      </c>
-      <c r="AQ367">
-        <v>1.81</v>
-      </c>
-      <c r="AR367">
-        <v>1</v>
-      </c>
-      <c r="AS367">
-        <v>1.89</v>
-      </c>
-      <c r="AT367">
-        <v>0.89</v>
-      </c>
-      <c r="AU367">
-        <v>1.63</v>
-      </c>
-      <c r="AV367">
-        <v>0.9</v>
-      </c>
       <c r="AW367">
-        <v>2.53</v>
+        <v>2.8</v>
       </c>
       <c r="AX367">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="AY367">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ367">
-        <v>2.89</v>
+        <v>2.63</v>
       </c>
       <c r="BA367">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="BB367">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BC367">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="BD367">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="BE367">
-        <v>2.98</v>
+        <v>4</v>
       </c>
       <c r="BF367">
+        <v>5</v>
+      </c>
+      <c r="BG367">
+        <v>3</v>
+      </c>
+      <c r="BH367">
+        <v>0</v>
+      </c>
+      <c r="BI367">
         <v>4</v>
       </c>
-      <c r="BG367">
-        <v>0</v>
-      </c>
-      <c r="BH367">
-        <v>3</v>
-      </c>
-      <c r="BI367">
-        <v>6</v>
-      </c>
       <c r="BJ367">
+        <v>5</v>
+      </c>
+      <c r="BK367">
         <v>7</v>
-      </c>
-      <c r="BK367">
-        <v>6</v>
       </c>
     </row>
     <row r="368" spans="1:63">
@@ -71902,7 +71908,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>2581053</v>
+        <v>2581044</v>
       </c>
       <c r="C368" t="s">
         <v>63</v>
@@ -71917,10 +71923,10 @@
         <v>33</v>
       </c>
       <c r="G368" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H368" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I368">
         <v>1</v>
@@ -71935,73 +71941,73 @@
         <v>1</v>
       </c>
       <c r="M368">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N368">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O368" t="s">
-        <v>302</v>
+        <v>119</v>
       </c>
       <c r="P368" t="s">
-        <v>272</v>
+        <v>99</v>
       </c>
       <c r="Q368">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R368">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S368">
         <v>6</v>
       </c>
       <c r="T368">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="U368">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V368">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="W368">
         <v>1.44</v>
       </c>
       <c r="X368">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="Y368">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Z368">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AA368">
-        <v>10</v>
+        <v>8.35</v>
       </c>
       <c r="AB368">
+        <v>1.05</v>
+      </c>
+      <c r="AC368">
+        <v>2</v>
+      </c>
+      <c r="AD368">
+        <v>3.45</v>
+      </c>
+      <c r="AE368">
+        <v>3.55</v>
+      </c>
+      <c r="AF368">
         <v>1.06</v>
       </c>
-      <c r="AC368">
-        <v>2.25</v>
-      </c>
-      <c r="AD368">
-        <v>3.35</v>
-      </c>
-      <c r="AE368">
-        <v>3.05</v>
-      </c>
-      <c r="AF368">
-        <v>1.1</v>
-      </c>
       <c r="AG368">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH368">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AI368">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AJ368">
         <v>2.18</v>
@@ -72010,82 +72016,82 @@
         <v>1.62</v>
       </c>
       <c r="AL368">
+        <v>2</v>
+      </c>
+      <c r="AM368">
+        <v>1.8</v>
+      </c>
+      <c r="AN368">
+        <v>1.22</v>
+      </c>
+      <c r="AO368">
+        <v>1.25</v>
+      </c>
+      <c r="AP368">
+        <v>1.95</v>
+      </c>
+      <c r="AQ368">
+        <v>1.81</v>
+      </c>
+      <c r="AR368">
+        <v>1</v>
+      </c>
+      <c r="AS368">
+        <v>1.89</v>
+      </c>
+      <c r="AT368">
+        <v>0.89</v>
+      </c>
+      <c r="AU368">
+        <v>1.63</v>
+      </c>
+      <c r="AV368">
+        <v>0.9</v>
+      </c>
+      <c r="AW368">
+        <v>2.53</v>
+      </c>
+      <c r="AX368">
+        <v>1.59</v>
+      </c>
+      <c r="AY368">
+        <v>8.5</v>
+      </c>
+      <c r="AZ368">
+        <v>2.89</v>
+      </c>
+      <c r="BA368">
+        <v>1.23</v>
+      </c>
+      <c r="BB368">
+        <v>1.5</v>
+      </c>
+      <c r="BC368">
         <v>1.83</v>
       </c>
-      <c r="AM368">
-        <v>1.83</v>
-      </c>
-      <c r="AN368">
-        <v>1.35</v>
-      </c>
-      <c r="AO368">
-        <v>1.32</v>
-      </c>
-      <c r="AP368">
-        <v>1.6</v>
-      </c>
-      <c r="AQ368">
-        <v>1.85</v>
-      </c>
-      <c r="AR368">
-        <v>1.21</v>
-      </c>
-      <c r="AS368">
-        <v>1.63</v>
-      </c>
-      <c r="AT368">
-        <v>1.32</v>
-      </c>
-      <c r="AU368">
-        <v>1.55</v>
-      </c>
-      <c r="AV368">
-        <v>1.25</v>
-      </c>
-      <c r="AW368">
-        <v>2.8</v>
-      </c>
-      <c r="AX368">
-        <v>1.69</v>
-      </c>
-      <c r="AY368">
-        <v>8</v>
-      </c>
-      <c r="AZ368">
-        <v>2.63</v>
-      </c>
-      <c r="BA368">
-        <v>1.32</v>
-      </c>
-      <c r="BB368">
-        <v>1.6</v>
-      </c>
-      <c r="BC368">
-        <v>2.05</v>
-      </c>
       <c r="BD368">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="BE368">
+        <v>2.98</v>
+      </c>
+      <c r="BF368">
         <v>4</v>
       </c>
-      <c r="BF368">
-        <v>5</v>
-      </c>
       <c r="BG368">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH368">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI368">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ368">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BK368">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="369" spans="1:63">
@@ -72135,7 +72141,7 @@
         <v>303</v>
       </c>
       <c r="P369" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q369">
         <v>11</v>
@@ -72225,7 +72231,7 @@
         <v>1.16</v>
       </c>
       <c r="AT369">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU369">
         <v>1.5</v>
@@ -72517,7 +72523,7 @@
         <v>305</v>
       </c>
       <c r="P371" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q371">
         <v>3</v>
@@ -73180,7 +73186,7 @@
         <v>1.63</v>
       </c>
       <c r="AT374">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU374">
         <v>1.51</v>
@@ -73281,7 +73287,7 @@
         <v>306</v>
       </c>
       <c r="P375" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q375">
         <v>5</v>
@@ -74236,7 +74242,7 @@
         <v>307</v>
       </c>
       <c r="P380" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q380">
         <v>3</v>
@@ -74323,10 +74329,10 @@
         <v>1.53</v>
       </c>
       <c r="AS380">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AT380">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AU380">
         <v>1.16</v>
@@ -74427,7 +74433,7 @@
         <v>99</v>
       </c>
       <c r="P381" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q381">
         <v>3</v>
@@ -74705,7 +74711,7 @@
         <v>1.13</v>
       </c>
       <c r="AS382">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT382">
         <v>1</v>
@@ -74809,7 +74815,7 @@
         <v>309</v>
       </c>
       <c r="P383" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q383">
         <v>1</v>
@@ -75000,7 +75006,7 @@
         <v>310</v>
       </c>
       <c r="P384" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q384">
         <v>5</v>
@@ -75191,7 +75197,7 @@
         <v>311</v>
       </c>
       <c r="P385" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q385">
         <v>6</v>
@@ -75764,7 +75770,7 @@
         <v>99</v>
       </c>
       <c r="P388" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q388">
         <v>6</v>
@@ -76337,7 +76343,7 @@
         <v>99</v>
       </c>
       <c r="P391" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q391">
         <v>3</v>
@@ -76424,7 +76430,7 @@
         <v>1.8</v>
       </c>
       <c r="AS391">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT391">
         <v>1.78</v>
@@ -76528,7 +76534,7 @@
         <v>314</v>
       </c>
       <c r="P392" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q392">
         <v>3</v>
@@ -76910,7 +76916,7 @@
         <v>168</v>
       </c>
       <c r="P394" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q394">
         <v>2</v>
@@ -77188,7 +77194,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS395">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT395">
         <v>0.89</v>
@@ -77441,7 +77447,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>2581071</v>
+        <v>2581070</v>
       </c>
       <c r="C397" t="s">
         <v>63</v>
@@ -77456,175 +77462,175 @@
         <v>35</v>
       </c>
       <c r="G397" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H397" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J397">
         <v>0</v>
       </c>
       <c r="K397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L397">
         <v>1</v>
       </c>
       <c r="M397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N397">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O397" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="P397" t="s">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="Q397">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R397">
+        <v>2</v>
+      </c>
+      <c r="S397">
+        <v>14</v>
+      </c>
+      <c r="T397">
+        <v>2.7</v>
+      </c>
+      <c r="U397">
+        <v>2</v>
+      </c>
+      <c r="V397">
+        <v>4.4</v>
+      </c>
+      <c r="W397">
+        <v>1.44</v>
+      </c>
+      <c r="X397">
+        <v>2.55</v>
+      </c>
+      <c r="Y397">
+        <v>3.4</v>
+      </c>
+      <c r="Z397">
+        <v>1.27</v>
+      </c>
+      <c r="AA397">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB397">
+        <v>1.03</v>
+      </c>
+      <c r="AC397">
+        <v>1.9</v>
+      </c>
+      <c r="AD397">
+        <v>3.1</v>
+      </c>
+      <c r="AE397">
+        <v>4.2</v>
+      </c>
+      <c r="AF397">
+        <v>1.06</v>
+      </c>
+      <c r="AG397">
+        <v>7.5</v>
+      </c>
+      <c r="AH397">
+        <v>1.38</v>
+      </c>
+      <c r="AI397">
+        <v>2.88</v>
+      </c>
+      <c r="AJ397">
+        <v>2.15</v>
+      </c>
+      <c r="AK397">
+        <v>1.6</v>
+      </c>
+      <c r="AL397">
+        <v>1.98</v>
+      </c>
+      <c r="AM397">
+        <v>1.75</v>
+      </c>
+      <c r="AN397">
+        <v>1.22</v>
+      </c>
+      <c r="AO397">
+        <v>1.3</v>
+      </c>
+      <c r="AP397">
+        <v>1.75</v>
+      </c>
+      <c r="AQ397">
+        <v>2.47</v>
+      </c>
+      <c r="AR397">
+        <v>1.38</v>
+      </c>
+      <c r="AS397">
+        <v>2.32</v>
+      </c>
+      <c r="AT397">
+        <v>1.32</v>
+      </c>
+      <c r="AU397">
+        <v>1.61</v>
+      </c>
+      <c r="AV397">
+        <v>1.39</v>
+      </c>
+      <c r="AW397">
+        <v>3</v>
+      </c>
+      <c r="AX397">
+        <v>1.64</v>
+      </c>
+      <c r="AY397">
+        <v>8</v>
+      </c>
+      <c r="AZ397">
+        <v>2.67</v>
+      </c>
+      <c r="BA397">
+        <v>1.27</v>
+      </c>
+      <c r="BB397">
+        <v>1.52</v>
+      </c>
+      <c r="BC397">
+        <v>2</v>
+      </c>
+      <c r="BD397">
+        <v>2.49</v>
+      </c>
+      <c r="BE397">
+        <v>3.42</v>
+      </c>
+      <c r="BF397">
         <v>5</v>
       </c>
-      <c r="S397">
-        <v>12</v>
-      </c>
-      <c r="T397">
-        <v>2.1</v>
-      </c>
-      <c r="U397">
-        <v>2.25</v>
-      </c>
-      <c r="V397">
-        <v>6.5</v>
-      </c>
-      <c r="W397">
-        <v>1.4</v>
-      </c>
-      <c r="X397">
-        <v>2.75</v>
-      </c>
-      <c r="Y397">
-        <v>3</v>
-      </c>
-      <c r="Z397">
-        <v>1.36</v>
-      </c>
-      <c r="AA397">
-        <v>8</v>
-      </c>
-      <c r="AB397">
-        <v>1.08</v>
-      </c>
-      <c r="AC397">
-        <v>1.53</v>
-      </c>
-      <c r="AD397">
-        <v>3.8</v>
-      </c>
-      <c r="AE397">
-        <v>6</v>
-      </c>
-      <c r="AF397">
-        <v>1.04</v>
-      </c>
-      <c r="AG397">
-        <v>11</v>
-      </c>
-      <c r="AH397">
-        <v>1.33</v>
-      </c>
-      <c r="AI397">
-        <v>3.3</v>
-      </c>
-      <c r="AJ397">
-        <v>1.82</v>
-      </c>
-      <c r="AK397">
-        <v>1.85</v>
-      </c>
-      <c r="AL397">
-        <v>2.1</v>
-      </c>
-      <c r="AM397">
-        <v>1.67</v>
-      </c>
-      <c r="AN397">
-        <v>1.1</v>
-      </c>
-      <c r="AO397">
-        <v>1.17</v>
-      </c>
-      <c r="AP397">
-        <v>2.65</v>
-      </c>
-      <c r="AQ397">
-        <v>1.63</v>
-      </c>
-      <c r="AR397">
-        <v>0.38</v>
-      </c>
-      <c r="AS397">
-        <v>1.84</v>
-      </c>
-      <c r="AT397">
-        <v>0.47</v>
-      </c>
-      <c r="AU397">
-        <v>1.44</v>
-      </c>
-      <c r="AV397">
-        <v>1.07</v>
-      </c>
-      <c r="AW397">
-        <v>2.51</v>
-      </c>
-      <c r="AX397">
-        <v>1.31</v>
-      </c>
-      <c r="AY397">
-        <v>9.5</v>
-      </c>
-      <c r="AZ397">
-        <v>4.12</v>
-      </c>
-      <c r="BA397">
-        <v>1.25</v>
-      </c>
-      <c r="BB397">
-        <v>1.48</v>
-      </c>
-      <c r="BC397">
-        <v>1.88</v>
-      </c>
-      <c r="BD397">
-        <v>2.41</v>
-      </c>
-      <c r="BE397">
-        <v>3.28</v>
-      </c>
-      <c r="BF397">
-        <v>7</v>
-      </c>
       <c r="BG397">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH397">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI397">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ397">
+        <v>10</v>
+      </c>
+      <c r="BK397">
         <v>9</v>
-      </c>
-      <c r="BK397">
-        <v>5</v>
       </c>
     </row>
     <row r="398" spans="1:63">
@@ -78146,7 +78152,7 @@
         <v>1.79</v>
       </c>
       <c r="AT400">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU400">
         <v>1.73</v>
@@ -78337,7 +78343,7 @@
         <v>1.95</v>
       </c>
       <c r="AT401">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="AU401">
         <v>1.64</v>
@@ -78778,7 +78784,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>2581070</v>
+        <v>2581071</v>
       </c>
       <c r="C404" t="s">
         <v>63</v>
@@ -78793,175 +78799,175 @@
         <v>35</v>
       </c>
       <c r="G404" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H404" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J404">
         <v>0</v>
       </c>
       <c r="K404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L404">
         <v>1</v>
       </c>
       <c r="M404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N404">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O404" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="P404" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="Q404">
+        <v>7</v>
+      </c>
+      <c r="R404">
+        <v>5</v>
+      </c>
+      <c r="S404">
         <v>12</v>
       </c>
-      <c r="R404">
-        <v>2</v>
-      </c>
-      <c r="S404">
-        <v>14</v>
-      </c>
       <c r="T404">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="U404">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="V404">
-        <v>4.4</v>
+        <v>6.5</v>
       </c>
       <c r="W404">
+        <v>1.4</v>
+      </c>
+      <c r="X404">
+        <v>2.75</v>
+      </c>
+      <c r="Y404">
+        <v>3</v>
+      </c>
+      <c r="Z404">
+        <v>1.36</v>
+      </c>
+      <c r="AA404">
+        <v>8</v>
+      </c>
+      <c r="AB404">
+        <v>1.08</v>
+      </c>
+      <c r="AC404">
+        <v>1.53</v>
+      </c>
+      <c r="AD404">
+        <v>3.8</v>
+      </c>
+      <c r="AE404">
+        <v>6</v>
+      </c>
+      <c r="AF404">
+        <v>1.04</v>
+      </c>
+      <c r="AG404">
+        <v>11</v>
+      </c>
+      <c r="AH404">
+        <v>1.33</v>
+      </c>
+      <c r="AI404">
+        <v>3.3</v>
+      </c>
+      <c r="AJ404">
+        <v>1.82</v>
+      </c>
+      <c r="AK404">
+        <v>1.85</v>
+      </c>
+      <c r="AL404">
+        <v>2.1</v>
+      </c>
+      <c r="AM404">
+        <v>1.67</v>
+      </c>
+      <c r="AN404">
+        <v>1.1</v>
+      </c>
+      <c r="AO404">
+        <v>1.17</v>
+      </c>
+      <c r="AP404">
+        <v>2.65</v>
+      </c>
+      <c r="AQ404">
+        <v>1.63</v>
+      </c>
+      <c r="AR404">
+        <v>0.38</v>
+      </c>
+      <c r="AS404">
+        <v>1.84</v>
+      </c>
+      <c r="AT404">
+        <v>0.47</v>
+      </c>
+      <c r="AU404">
         <v>1.44</v>
       </c>
-      <c r="X404">
-        <v>2.55</v>
-      </c>
-      <c r="Y404">
-        <v>3.4</v>
-      </c>
-      <c r="Z404">
-        <v>1.27</v>
-      </c>
-      <c r="AA404">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AB404">
-        <v>1.03</v>
-      </c>
-      <c r="AC404">
-        <v>1.9</v>
-      </c>
-      <c r="AD404">
-        <v>3.1</v>
-      </c>
-      <c r="AE404">
-        <v>4.2</v>
-      </c>
-      <c r="AF404">
-        <v>1.06</v>
-      </c>
-      <c r="AG404">
-        <v>7.5</v>
-      </c>
-      <c r="AH404">
-        <v>1.38</v>
-      </c>
-      <c r="AI404">
-        <v>2.88</v>
-      </c>
-      <c r="AJ404">
-        <v>2.15</v>
-      </c>
-      <c r="AK404">
-        <v>1.6</v>
-      </c>
-      <c r="AL404">
-        <v>1.98</v>
-      </c>
-      <c r="AM404">
-        <v>1.75</v>
-      </c>
-      <c r="AN404">
-        <v>1.22</v>
-      </c>
-      <c r="AO404">
-        <v>1.3</v>
-      </c>
-      <c r="AP404">
-        <v>1.75</v>
-      </c>
-      <c r="AQ404">
-        <v>2.47</v>
-      </c>
-      <c r="AR404">
-        <v>1.38</v>
-      </c>
-      <c r="AS404">
-        <v>2.32</v>
-      </c>
-      <c r="AT404">
-        <v>1.32</v>
-      </c>
-      <c r="AU404">
-        <v>1.61</v>
-      </c>
       <c r="AV404">
-        <v>1.39</v>
+        <v>1.07</v>
       </c>
       <c r="AW404">
-        <v>3</v>
+        <v>2.51</v>
       </c>
       <c r="AX404">
-        <v>1.64</v>
+        <v>1.31</v>
       </c>
       <c r="AY404">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AZ404">
-        <v>2.67</v>
+        <v>4.12</v>
       </c>
       <c r="BA404">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="BB404">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BC404">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="BD404">
-        <v>2.49</v>
+        <v>2.41</v>
       </c>
       <c r="BE404">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="BF404">
+        <v>7</v>
+      </c>
+      <c r="BG404">
+        <v>2</v>
+      </c>
+      <c r="BH404">
+        <v>2</v>
+      </c>
+      <c r="BI404">
+        <v>3</v>
+      </c>
+      <c r="BJ404">
+        <v>9</v>
+      </c>
+      <c r="BK404">
         <v>5</v>
-      </c>
-      <c r="BG404">
-        <v>5</v>
-      </c>
-      <c r="BH404">
-        <v>5</v>
-      </c>
-      <c r="BI404">
-        <v>4</v>
-      </c>
-      <c r="BJ404">
-        <v>10</v>
-      </c>
-      <c r="BK404">
-        <v>9</v>
       </c>
     </row>
     <row r="405" spans="1:63">
@@ -79202,7 +79208,7 @@
         <v>99</v>
       </c>
       <c r="P406" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q406">
         <v>4</v>
@@ -79733,7 +79739,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>2580992</v>
+        <v>2580997</v>
       </c>
       <c r="C409" t="s">
         <v>63</v>
@@ -79745,13 +79751,13 @@
         <v>44992.69791666666</v>
       </c>
       <c r="F409">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G409" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H409" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I409">
         <v>1</v>
@@ -79763,160 +79769,160 @@
         <v>1</v>
       </c>
       <c r="L409">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M409">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N409">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O409" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="P409" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="Q409">
+        <v>5</v>
+      </c>
+      <c r="R409">
+        <v>4</v>
+      </c>
+      <c r="S409">
         <v>9</v>
       </c>
-      <c r="R409">
-        <v>5</v>
-      </c>
-      <c r="S409">
-        <v>14</v>
-      </c>
       <c r="T409">
+        <v>2.86</v>
+      </c>
+      <c r="U409">
+        <v>1.98</v>
+      </c>
+      <c r="V409">
+        <v>4.34</v>
+      </c>
+      <c r="W409">
+        <v>1.51</v>
+      </c>
+      <c r="X409">
+        <v>2.46</v>
+      </c>
+      <c r="Y409">
+        <v>3.34</v>
+      </c>
+      <c r="Z409">
+        <v>1.3</v>
+      </c>
+      <c r="AA409">
+        <v>9.1</v>
+      </c>
+      <c r="AB409">
+        <v>1.04</v>
+      </c>
+      <c r="AC409">
+        <v>2.15</v>
+      </c>
+      <c r="AD409">
+        <v>3.02</v>
+      </c>
+      <c r="AE409">
+        <v>3.4</v>
+      </c>
+      <c r="AF409">
+        <v>1.1</v>
+      </c>
+      <c r="AG409">
+        <v>6.5</v>
+      </c>
+      <c r="AH409">
+        <v>1.44</v>
+      </c>
+      <c r="AI409">
+        <v>2.62</v>
+      </c>
+      <c r="AJ409">
         <v>2.3</v>
       </c>
-      <c r="U409">
-        <v>2.15</v>
-      </c>
-      <c r="V409">
-        <v>4.4</v>
-      </c>
-      <c r="W409">
-        <v>1.4</v>
-      </c>
-      <c r="X409">
-        <v>2.7</v>
-      </c>
-      <c r="Y409">
-        <v>2.9</v>
-      </c>
-      <c r="Z409">
-        <v>1.35</v>
-      </c>
-      <c r="AA409">
-        <v>6.8</v>
-      </c>
-      <c r="AB409">
+      <c r="AK409">
+        <v>1.55</v>
+      </c>
+      <c r="AL409">
+        <v>2.01</v>
+      </c>
+      <c r="AM409">
+        <v>1.76</v>
+      </c>
+      <c r="AN409">
+        <v>1.3</v>
+      </c>
+      <c r="AO409">
+        <v>1.34</v>
+      </c>
+      <c r="AP409">
+        <v>1.68</v>
+      </c>
+      <c r="AQ409">
         <v>1.07</v>
       </c>
-      <c r="AC409">
-        <v>1.55</v>
-      </c>
-      <c r="AD409">
-        <v>3.7</v>
-      </c>
-      <c r="AE409">
-        <v>5.8</v>
-      </c>
-      <c r="AF409">
-        <v>1.06</v>
-      </c>
-      <c r="AG409">
+      <c r="AR409">
+        <v>1.24</v>
+      </c>
+      <c r="AS409">
+        <v>1.18</v>
+      </c>
+      <c r="AT409">
+        <v>1.32</v>
+      </c>
+      <c r="AU409">
+        <v>1.69</v>
+      </c>
+      <c r="AV409">
+        <v>1.27</v>
+      </c>
+      <c r="AW409">
+        <v>2.96</v>
+      </c>
+      <c r="AX409">
+        <v>1.79</v>
+      </c>
+      <c r="AY409">
         <v>7.5</v>
       </c>
-      <c r="AH409">
-        <v>1.3</v>
-      </c>
-      <c r="AI409">
-        <v>3.2</v>
-      </c>
-      <c r="AJ409">
-        <v>1.95</v>
-      </c>
-      <c r="AK409">
-        <v>1.78</v>
-      </c>
-      <c r="AL409">
-        <v>1.85</v>
-      </c>
-      <c r="AM409">
-        <v>1.85</v>
-      </c>
-      <c r="AN409">
-        <v>1.17</v>
-      </c>
-      <c r="AO409">
-        <v>1.27</v>
-      </c>
-      <c r="AP409">
-        <v>1.9</v>
-      </c>
-      <c r="AQ409">
-        <v>2</v>
-      </c>
-      <c r="AR409">
-        <v>0.35</v>
-      </c>
-      <c r="AS409">
-        <v>1.95</v>
-      </c>
-      <c r="AT409">
-        <v>0.47</v>
-      </c>
-      <c r="AU409">
-        <v>1.65</v>
-      </c>
-      <c r="AV409">
-        <v>1.06</v>
-      </c>
-      <c r="AW409">
-        <v>2.71</v>
-      </c>
-      <c r="AX409">
-        <v>1.55</v>
-      </c>
-      <c r="AY409">
+      <c r="AZ409">
+        <v>2.49</v>
+      </c>
+      <c r="BA409">
+        <v>1.32</v>
+      </c>
+      <c r="BB409">
+        <v>1.61</v>
+      </c>
+      <c r="BC409">
+        <v>2.09</v>
+      </c>
+      <c r="BD409">
+        <v>2.76</v>
+      </c>
+      <c r="BE409">
+        <v>3.86</v>
+      </c>
+      <c r="BF409">
+        <v>3</v>
+      </c>
+      <c r="BG409">
+        <v>6</v>
+      </c>
+      <c r="BH409">
+        <v>4</v>
+      </c>
+      <c r="BI409">
+        <v>2</v>
+      </c>
+      <c r="BJ409">
+        <v>7</v>
+      </c>
+      <c r="BK409">
         <v>8</v>
-      </c>
-      <c r="AZ409">
-        <v>2.92</v>
-      </c>
-      <c r="BA409">
-        <v>1.27</v>
-      </c>
-      <c r="BB409">
-        <v>1.5</v>
-      </c>
-      <c r="BC409">
-        <v>2</v>
-      </c>
-      <c r="BD409">
-        <v>2.5</v>
-      </c>
-      <c r="BE409">
-        <v>3.5</v>
-      </c>
-      <c r="BF409">
-        <v>6</v>
-      </c>
-      <c r="BG409">
-        <v>4</v>
-      </c>
-      <c r="BH409">
-        <v>6</v>
-      </c>
-      <c r="BI409">
-        <v>8</v>
-      </c>
-      <c r="BJ409">
-        <v>12</v>
-      </c>
-      <c r="BK409">
-        <v>12</v>
       </c>
     </row>
     <row r="410" spans="1:63">
@@ -79924,7 +79930,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>2580997</v>
+        <v>2580992</v>
       </c>
       <c r="C410" t="s">
         <v>63</v>
@@ -79936,13 +79942,13 @@
         <v>44992.69791666666</v>
       </c>
       <c r="F410">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G410" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="H410" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I410">
         <v>1</v>
@@ -79954,160 +79960,160 @@
         <v>1</v>
       </c>
       <c r="L410">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N410">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O410" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="P410" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="Q410">
+        <v>9</v>
+      </c>
+      <c r="R410">
         <v>5</v>
       </c>
-      <c r="R410">
+      <c r="S410">
+        <v>14</v>
+      </c>
+      <c r="T410">
+        <v>2.3</v>
+      </c>
+      <c r="U410">
+        <v>2.15</v>
+      </c>
+      <c r="V410">
+        <v>4.4</v>
+      </c>
+      <c r="W410">
+        <v>1.4</v>
+      </c>
+      <c r="X410">
+        <v>2.7</v>
+      </c>
+      <c r="Y410">
+        <v>2.9</v>
+      </c>
+      <c r="Z410">
+        <v>1.35</v>
+      </c>
+      <c r="AA410">
+        <v>6.8</v>
+      </c>
+      <c r="AB410">
+        <v>1.07</v>
+      </c>
+      <c r="AC410">
+        <v>1.55</v>
+      </c>
+      <c r="AD410">
+        <v>3.7</v>
+      </c>
+      <c r="AE410">
+        <v>5.8</v>
+      </c>
+      <c r="AF410">
+        <v>1.06</v>
+      </c>
+      <c r="AG410">
+        <v>7.5</v>
+      </c>
+      <c r="AH410">
+        <v>1.3</v>
+      </c>
+      <c r="AI410">
+        <v>3.2</v>
+      </c>
+      <c r="AJ410">
+        <v>1.95</v>
+      </c>
+      <c r="AK410">
+        <v>1.78</v>
+      </c>
+      <c r="AL410">
+        <v>1.85</v>
+      </c>
+      <c r="AM410">
+        <v>1.85</v>
+      </c>
+      <c r="AN410">
+        <v>1.17</v>
+      </c>
+      <c r="AO410">
+        <v>1.27</v>
+      </c>
+      <c r="AP410">
+        <v>1.9</v>
+      </c>
+      <c r="AQ410">
+        <v>2</v>
+      </c>
+      <c r="AR410">
+        <v>0.35</v>
+      </c>
+      <c r="AS410">
+        <v>1.95</v>
+      </c>
+      <c r="AT410">
+        <v>0.47</v>
+      </c>
+      <c r="AU410">
+        <v>1.65</v>
+      </c>
+      <c r="AV410">
+        <v>1.06</v>
+      </c>
+      <c r="AW410">
+        <v>2.71</v>
+      </c>
+      <c r="AX410">
+        <v>1.55</v>
+      </c>
+      <c r="AY410">
+        <v>8</v>
+      </c>
+      <c r="AZ410">
+        <v>2.92</v>
+      </c>
+      <c r="BA410">
+        <v>1.27</v>
+      </c>
+      <c r="BB410">
+        <v>1.5</v>
+      </c>
+      <c r="BC410">
+        <v>2</v>
+      </c>
+      <c r="BD410">
+        <v>2.5</v>
+      </c>
+      <c r="BE410">
+        <v>3.5</v>
+      </c>
+      <c r="BF410">
+        <v>6</v>
+      </c>
+      <c r="BG410">
         <v>4</v>
       </c>
-      <c r="S410">
-        <v>9</v>
-      </c>
-      <c r="T410">
-        <v>2.86</v>
-      </c>
-      <c r="U410">
-        <v>1.98</v>
-      </c>
-      <c r="V410">
-        <v>4.34</v>
-      </c>
-      <c r="W410">
-        <v>1.51</v>
-      </c>
-      <c r="X410">
-        <v>2.46</v>
-      </c>
-      <c r="Y410">
-        <v>3.34</v>
-      </c>
-      <c r="Z410">
-        <v>1.3</v>
-      </c>
-      <c r="AA410">
-        <v>9.1</v>
-      </c>
-      <c r="AB410">
-        <v>1.04</v>
-      </c>
-      <c r="AC410">
-        <v>2.15</v>
-      </c>
-      <c r="AD410">
-        <v>3.02</v>
-      </c>
-      <c r="AE410">
-        <v>3.4</v>
-      </c>
-      <c r="AF410">
-        <v>1.1</v>
-      </c>
-      <c r="AG410">
-        <v>6.5</v>
-      </c>
-      <c r="AH410">
-        <v>1.44</v>
-      </c>
-      <c r="AI410">
-        <v>2.62</v>
-      </c>
-      <c r="AJ410">
-        <v>2.3</v>
-      </c>
-      <c r="AK410">
-        <v>1.55</v>
-      </c>
-      <c r="AL410">
-        <v>2.01</v>
-      </c>
-      <c r="AM410">
-        <v>1.76</v>
-      </c>
-      <c r="AN410">
-        <v>1.3</v>
-      </c>
-      <c r="AO410">
-        <v>1.34</v>
-      </c>
-      <c r="AP410">
-        <v>1.68</v>
-      </c>
-      <c r="AQ410">
-        <v>1.07</v>
-      </c>
-      <c r="AR410">
-        <v>1.24</v>
-      </c>
-      <c r="AS410">
-        <v>1.18</v>
-      </c>
-      <c r="AT410">
-        <v>1.32</v>
-      </c>
-      <c r="AU410">
-        <v>1.69</v>
-      </c>
-      <c r="AV410">
-        <v>1.27</v>
-      </c>
-      <c r="AW410">
-        <v>2.96</v>
-      </c>
-      <c r="AX410">
-        <v>1.79</v>
-      </c>
-      <c r="AY410">
-        <v>7.5</v>
-      </c>
-      <c r="AZ410">
-        <v>2.49</v>
-      </c>
-      <c r="BA410">
-        <v>1.32</v>
-      </c>
-      <c r="BB410">
-        <v>1.61</v>
-      </c>
-      <c r="BC410">
-        <v>2.09</v>
-      </c>
-      <c r="BD410">
-        <v>2.76</v>
-      </c>
-      <c r="BE410">
-        <v>3.86</v>
-      </c>
-      <c r="BF410">
-        <v>3</v>
-      </c>
-      <c r="BG410">
+      <c r="BH410">
         <v>6</v>
       </c>
-      <c r="BH410">
-        <v>4</v>
-      </c>
       <c r="BI410">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BJ410">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BK410">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411" spans="1:63">
@@ -80157,7 +80163,7 @@
         <v>320</v>
       </c>
       <c r="P411" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q411">
         <v>2</v>
@@ -80306,7 +80312,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>2581087</v>
+        <v>2581085</v>
       </c>
       <c r="C412" t="s">
         <v>63</v>
@@ -80321,16 +80327,16 @@
         <v>36</v>
       </c>
       <c r="G412" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H412" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K412">
         <v>1</v>
@@ -80345,151 +80351,151 @@
         <v>2</v>
       </c>
       <c r="O412" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="P412" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="Q412">
+        <v>6</v>
+      </c>
+      <c r="R412">
+        <v>4</v>
+      </c>
+      <c r="S412">
+        <v>10</v>
+      </c>
+      <c r="T412">
+        <v>4.33</v>
+      </c>
+      <c r="U412">
+        <v>2.1</v>
+      </c>
+      <c r="V412">
+        <v>2.7</v>
+      </c>
+      <c r="W412">
+        <v>1.42</v>
+      </c>
+      <c r="X412">
+        <v>2.65</v>
+      </c>
+      <c r="Y412">
+        <v>3.05</v>
+      </c>
+      <c r="Z412">
+        <v>1.33</v>
+      </c>
+      <c r="AA412">
+        <v>7.9</v>
+      </c>
+      <c r="AB412">
+        <v>1.05</v>
+      </c>
+      <c r="AC412">
+        <v>3.65</v>
+      </c>
+      <c r="AD412">
+        <v>3.35</v>
+      </c>
+      <c r="AE412">
+        <v>2.01</v>
+      </c>
+      <c r="AF412">
+        <v>1.06</v>
+      </c>
+      <c r="AG412">
+        <v>9.5</v>
+      </c>
+      <c r="AH412">
+        <v>1.36</v>
+      </c>
+      <c r="AI412">
+        <v>3.1</v>
+      </c>
+      <c r="AJ412">
+        <v>2.1</v>
+      </c>
+      <c r="AK412">
+        <v>1.65</v>
+      </c>
+      <c r="AL412">
+        <v>1.9</v>
+      </c>
+      <c r="AM412">
+        <v>1.87</v>
+      </c>
+      <c r="AN412">
+        <v>1.83</v>
+      </c>
+      <c r="AO412">
+        <v>1.25</v>
+      </c>
+      <c r="AP412">
+        <v>1.25</v>
+      </c>
+      <c r="AQ412">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR412">
+        <v>1.76</v>
+      </c>
+      <c r="AS412">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT412">
+        <v>1.72</v>
+      </c>
+      <c r="AU412">
+        <v>1.43</v>
+      </c>
+      <c r="AV412">
+        <v>1.42</v>
+      </c>
+      <c r="AW412">
+        <v>2.85</v>
+      </c>
+      <c r="AX412">
+        <v>2.29</v>
+      </c>
+      <c r="AY412">
+        <v>7.4</v>
+      </c>
+      <c r="AZ412">
+        <v>1.92</v>
+      </c>
+      <c r="BA412">
+        <v>1.32</v>
+      </c>
+      <c r="BB412">
+        <v>1.61</v>
+      </c>
+      <c r="BC412">
+        <v>2.09</v>
+      </c>
+      <c r="BD412">
+        <v>2.76</v>
+      </c>
+      <c r="BE412">
+        <v>3.86</v>
+      </c>
+      <c r="BF412">
+        <v>5</v>
+      </c>
+      <c r="BG412">
         <v>7</v>
       </c>
-      <c r="R412">
-        <v>2</v>
-      </c>
-      <c r="S412">
-        <v>9</v>
-      </c>
-      <c r="T412">
-        <v>3.1</v>
-      </c>
-      <c r="U412">
-        <v>2</v>
-      </c>
-      <c r="V412">
+      <c r="BH412">
         <v>4</v>
       </c>
-      <c r="W412">
-        <v>1.5</v>
-      </c>
-      <c r="X412">
-        <v>2.4</v>
-      </c>
-      <c r="Y412">
-        <v>3.45</v>
-      </c>
-      <c r="Z412">
-        <v>1.27</v>
-      </c>
-      <c r="AA412">
-        <v>9.85</v>
-      </c>
-      <c r="AB412">
-        <v>1.03</v>
-      </c>
-      <c r="AC412">
-        <v>2.37</v>
-      </c>
-      <c r="AD412">
-        <v>3.15</v>
-      </c>
-      <c r="AE412">
-        <v>3.05</v>
-      </c>
-      <c r="AF412">
-        <v>1.09</v>
-      </c>
-      <c r="AG412">
-        <v>8</v>
-      </c>
-      <c r="AH412">
-        <v>1.47</v>
-      </c>
-      <c r="AI412">
-        <v>2.7</v>
-      </c>
-      <c r="AJ412">
-        <v>2.3</v>
-      </c>
-      <c r="AK412">
-        <v>1.55</v>
-      </c>
-      <c r="AL412">
-        <v>2.05</v>
-      </c>
-      <c r="AM412">
-        <v>1.75</v>
-      </c>
-      <c r="AN412">
-        <v>1.36</v>
-      </c>
-      <c r="AO412">
-        <v>1.3</v>
-      </c>
-      <c r="AP412">
-        <v>1.6</v>
-      </c>
-      <c r="AQ412">
-        <v>1</v>
-      </c>
-      <c r="AR412">
-        <v>1.82</v>
-      </c>
-      <c r="AS412">
-        <v>1</v>
-      </c>
-      <c r="AT412">
-        <v>1.78</v>
-      </c>
-      <c r="AU412">
-        <v>1.46</v>
-      </c>
-      <c r="AV412">
-        <v>1.15</v>
-      </c>
-      <c r="AW412">
-        <v>2.61</v>
-      </c>
-      <c r="AX412">
-        <v>1.62</v>
-      </c>
-      <c r="AY412">
-        <v>7.9</v>
-      </c>
-      <c r="AZ412">
-        <v>2.88</v>
-      </c>
-      <c r="BA412">
-        <v>1.27</v>
-      </c>
-      <c r="BB412">
-        <v>1.52</v>
-      </c>
-      <c r="BC412">
-        <v>1.92</v>
-      </c>
-      <c r="BD412">
-        <v>2.49</v>
-      </c>
-      <c r="BE412">
-        <v>3.42</v>
-      </c>
-      <c r="BF412">
-        <v>3</v>
-      </c>
-      <c r="BG412">
-        <v>4</v>
-      </c>
-      <c r="BH412">
-        <v>6</v>
-      </c>
       <c r="BI412">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BJ412">
         <v>9</v>
       </c>
       <c r="BK412">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="413" spans="1:63">
@@ -80497,7 +80503,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>2581085</v>
+        <v>2581084</v>
       </c>
       <c r="C413" t="s">
         <v>63</v>
@@ -80512,175 +80518,175 @@
         <v>36</v>
       </c>
       <c r="G413" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H413" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J413">
         <v>0</v>
       </c>
       <c r="K413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L413">
         <v>1</v>
       </c>
       <c r="M413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N413">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O413" t="s">
-        <v>181</v>
+        <v>262</v>
       </c>
       <c r="P413" t="s">
-        <v>296</v>
+        <v>99</v>
       </c>
       <c r="Q413">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R413">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S413">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T413">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="U413">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V413">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="W413">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="X413">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="Y413">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="Z413">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AA413">
-        <v>7.9</v>
+        <v>9.4</v>
       </c>
       <c r="AB413">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AC413">
-        <v>3.65</v>
+        <v>1.75</v>
       </c>
       <c r="AD413">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AE413">
-        <v>2.01</v>
+        <v>4.9</v>
       </c>
       <c r="AF413">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AG413">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AH413">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AI413">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AJ413">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AK413">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AL413">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AM413">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="AN413">
-        <v>1.83</v>
+        <v>1.18</v>
       </c>
       <c r="AO413">
         <v>1.25</v>
       </c>
       <c r="AP413">
+        <v>2.05</v>
+      </c>
+      <c r="AQ413">
+        <v>1.06</v>
+      </c>
+      <c r="AR413">
+        <v>0.76</v>
+      </c>
+      <c r="AS413">
+        <v>1.18</v>
+      </c>
+      <c r="AT413">
+        <v>0.72</v>
+      </c>
+      <c r="AU413">
+        <v>1.64</v>
+      </c>
+      <c r="AV413">
+        <v>1.09</v>
+      </c>
+      <c r="AW413">
+        <v>2.73</v>
+      </c>
+      <c r="AX413">
+        <v>1.48</v>
+      </c>
+      <c r="AY413">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ413">
+        <v>3.36</v>
+      </c>
+      <c r="BA413">
         <v>1.25</v>
       </c>
-      <c r="AQ413">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AR413">
-        <v>1.76</v>
-      </c>
-      <c r="AS413">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AT413">
-        <v>1.72</v>
-      </c>
-      <c r="AU413">
-        <v>1.43</v>
-      </c>
-      <c r="AV413">
-        <v>1.42</v>
-      </c>
-      <c r="AW413">
-        <v>2.85</v>
-      </c>
-      <c r="AX413">
-        <v>2.29</v>
-      </c>
-      <c r="AY413">
-        <v>7.4</v>
-      </c>
-      <c r="AZ413">
-        <v>1.92</v>
-      </c>
-      <c r="BA413">
-        <v>1.32</v>
-      </c>
       <c r="BB413">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="BC413">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="BD413">
-        <v>2.76</v>
+        <v>2.41</v>
       </c>
       <c r="BE413">
-        <v>3.86</v>
+        <v>3.28</v>
       </c>
       <c r="BF413">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG413">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BH413">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI413">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ413">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK413">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:63">
@@ -80688,7 +80694,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>2581084</v>
+        <v>2581083</v>
       </c>
       <c r="C414" t="s">
         <v>63</v>
@@ -80703,142 +80709,142 @@
         <v>36</v>
       </c>
       <c r="G414" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H414" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J414">
         <v>0</v>
       </c>
       <c r="K414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M414">
         <v>0</v>
       </c>
       <c r="N414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O414" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="P414" t="s">
         <v>99</v>
       </c>
       <c r="Q414">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R414">
         <v>3</v>
       </c>
       <c r="S414">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T414">
+        <v>3.5</v>
+      </c>
+      <c r="U414">
+        <v>1.9</v>
+      </c>
+      <c r="V414">
+        <v>3.75</v>
+      </c>
+      <c r="W414">
+        <v>1.54</v>
+      </c>
+      <c r="X414">
+        <v>2.35</v>
+      </c>
+      <c r="Y414">
+        <v>3.7</v>
+      </c>
+      <c r="Z414">
+        <v>1.24</v>
+      </c>
+      <c r="AA414">
+        <v>10.5</v>
+      </c>
+      <c r="AB414">
+        <v>1.02</v>
+      </c>
+      <c r="AC414">
+        <v>2.6</v>
+      </c>
+      <c r="AD414">
+        <v>3</v>
+      </c>
+      <c r="AE414">
+        <v>2.85</v>
+      </c>
+      <c r="AF414">
+        <v>1.1</v>
+      </c>
+      <c r="AG414">
+        <v>7</v>
+      </c>
+      <c r="AH414">
+        <v>1.5</v>
+      </c>
+      <c r="AI414">
         <v>2.5</v>
       </c>
-      <c r="U414">
-        <v>2.05</v>
-      </c>
-      <c r="V414">
-        <v>5.5</v>
-      </c>
-      <c r="W414">
-        <v>1.48</v>
-      </c>
-      <c r="X414">
-        <v>2.45</v>
-      </c>
-      <c r="Y414">
-        <v>3.4</v>
-      </c>
-      <c r="Z414">
+      <c r="AJ414">
+        <v>2.55</v>
+      </c>
+      <c r="AK414">
+        <v>1.45</v>
+      </c>
+      <c r="AL414">
+        <v>2.1</v>
+      </c>
+      <c r="AM414">
+        <v>1.72</v>
+      </c>
+      <c r="AN414">
+        <v>1.42</v>
+      </c>
+      <c r="AO414">
+        <v>1.33</v>
+      </c>
+      <c r="AP414">
+        <v>1.5</v>
+      </c>
+      <c r="AQ414">
+        <v>1.38</v>
+      </c>
+      <c r="AR414">
+        <v>1.12</v>
+      </c>
+      <c r="AS414">
+        <v>1.56</v>
+      </c>
+      <c r="AT414">
+        <v>1.06</v>
+      </c>
+      <c r="AU414">
+        <v>1.25</v>
+      </c>
+      <c r="AV414">
         <v>1.28</v>
       </c>
-      <c r="AA414">
-        <v>9.4</v>
-      </c>
-      <c r="AB414">
-        <v>1.03</v>
-      </c>
-      <c r="AC414">
-        <v>1.75</v>
-      </c>
-      <c r="AD414">
-        <v>3.4</v>
-      </c>
-      <c r="AE414">
-        <v>4.9</v>
-      </c>
-      <c r="AF414">
-        <v>1.08</v>
-      </c>
-      <c r="AG414">
-        <v>8</v>
-      </c>
-      <c r="AH414">
-        <v>1.45</v>
-      </c>
-      <c r="AI414">
-        <v>2.75</v>
-      </c>
-      <c r="AJ414">
-        <v>2.25</v>
-      </c>
-      <c r="AK414">
-        <v>1.57</v>
-      </c>
-      <c r="AL414">
-        <v>2.2</v>
-      </c>
-      <c r="AM414">
-        <v>1.66</v>
-      </c>
-      <c r="AN414">
-        <v>1.18</v>
-      </c>
-      <c r="AO414">
-        <v>1.25</v>
-      </c>
-      <c r="AP414">
-        <v>2.05</v>
-      </c>
-      <c r="AQ414">
-        <v>1.06</v>
-      </c>
-      <c r="AR414">
-        <v>0.76</v>
-      </c>
-      <c r="AS414">
-        <v>1.18</v>
-      </c>
-      <c r="AT414">
-        <v>0.72</v>
-      </c>
-      <c r="AU414">
-        <v>1.64</v>
-      </c>
-      <c r="AV414">
-        <v>1.09</v>
-      </c>
       <c r="AW414">
-        <v>2.73</v>
+        <v>2.53</v>
       </c>
       <c r="AX414">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="AY414">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AZ414">
-        <v>3.36</v>
+        <v>2.17</v>
       </c>
       <c r="BA414">
         <v>1.25</v>
@@ -80850,28 +80856,28 @@
         <v>1.87</v>
       </c>
       <c r="BD414">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="BE414">
         <v>3.28</v>
       </c>
       <c r="BF414">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH414">
         <v>6</v>
       </c>
       <c r="BI414">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ414">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BK414">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="415" spans="1:63">
@@ -80879,7 +80885,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>2581083</v>
+        <v>2581082</v>
       </c>
       <c r="C415" t="s">
         <v>63</v>
@@ -80894,175 +80900,175 @@
         <v>36</v>
       </c>
       <c r="G415" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H415" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I415">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K415">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L415">
         <v>2</v>
       </c>
       <c r="M415">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N415">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O415" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P415" t="s">
-        <v>99</v>
+        <v>299</v>
       </c>
       <c r="Q415">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R415">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S415">
         <v>11</v>
       </c>
       <c r="T415">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="U415">
+        <v>2.05</v>
+      </c>
+      <c r="V415">
+        <v>4</v>
+      </c>
+      <c r="W415">
+        <v>1.44</v>
+      </c>
+      <c r="X415">
+        <v>2.6</v>
+      </c>
+      <c r="Y415">
+        <v>3.2</v>
+      </c>
+      <c r="Z415">
+        <v>1.31</v>
+      </c>
+      <c r="AA415">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB415">
+        <v>1.04</v>
+      </c>
+      <c r="AC415">
+        <v>2.11</v>
+      </c>
+      <c r="AD415">
+        <v>3.25</v>
+      </c>
+      <c r="AE415">
+        <v>3.45</v>
+      </c>
+      <c r="AF415">
+        <v>1.07</v>
+      </c>
+      <c r="AG415">
+        <v>9</v>
+      </c>
+      <c r="AH415">
+        <v>1.4</v>
+      </c>
+      <c r="AI415">
+        <v>2.95</v>
+      </c>
+      <c r="AJ415">
+        <v>2.25</v>
+      </c>
+      <c r="AK415">
+        <v>1.57</v>
+      </c>
+      <c r="AL415">
         <v>1.9</v>
       </c>
-      <c r="V415">
-        <v>3.75</v>
-      </c>
-      <c r="W415">
-        <v>1.54</v>
-      </c>
-      <c r="X415">
-        <v>2.35</v>
-      </c>
-      <c r="Y415">
-        <v>3.7</v>
-      </c>
-      <c r="Z415">
-        <v>1.24</v>
-      </c>
-      <c r="AA415">
-        <v>10.5</v>
-      </c>
-      <c r="AB415">
-        <v>1.02</v>
-      </c>
-      <c r="AC415">
-        <v>2.6</v>
-      </c>
-      <c r="AD415">
-        <v>3</v>
-      </c>
-      <c r="AE415">
-        <v>2.85</v>
-      </c>
-      <c r="AF415">
-        <v>1.1</v>
-      </c>
-      <c r="AG415">
+      <c r="AM415">
+        <v>1.83</v>
+      </c>
+      <c r="AN415">
+        <v>1.3</v>
+      </c>
+      <c r="AO415">
+        <v>1.28</v>
+      </c>
+      <c r="AP415">
+        <v>1.72</v>
+      </c>
+      <c r="AQ415">
+        <v>1.65</v>
+      </c>
+      <c r="AR415">
+        <v>1.06</v>
+      </c>
+      <c r="AS415">
+        <v>1.72</v>
+      </c>
+      <c r="AT415">
+        <v>1</v>
+      </c>
+      <c r="AU415">
+        <v>1.33</v>
+      </c>
+      <c r="AV415">
+        <v>1.11</v>
+      </c>
+      <c r="AW415">
+        <v>2.44</v>
+      </c>
+      <c r="AX415">
+        <v>1.48</v>
+      </c>
+      <c r="AY415">
+        <v>8.1</v>
+      </c>
+      <c r="AZ415">
+        <v>3.4</v>
+      </c>
+      <c r="BA415">
+        <v>1.3</v>
+      </c>
+      <c r="BB415">
+        <v>1.57</v>
+      </c>
+      <c r="BC415">
+        <v>2.01</v>
+      </c>
+      <c r="BD415">
+        <v>2.65</v>
+      </c>
+      <c r="BE415">
+        <v>3.64</v>
+      </c>
+      <c r="BF415">
+        <v>4</v>
+      </c>
+      <c r="BG415">
         <v>7</v>
       </c>
-      <c r="AH415">
-        <v>1.5</v>
-      </c>
-      <c r="AI415">
-        <v>2.5</v>
-      </c>
-      <c r="AJ415">
-        <v>2.55</v>
-      </c>
-      <c r="AK415">
-        <v>1.45</v>
-      </c>
-      <c r="AL415">
-        <v>2.1</v>
-      </c>
-      <c r="AM415">
-        <v>1.72</v>
-      </c>
-      <c r="AN415">
-        <v>1.42</v>
-      </c>
-      <c r="AO415">
-        <v>1.33</v>
-      </c>
-      <c r="AP415">
-        <v>1.5</v>
-      </c>
-      <c r="AQ415">
-        <v>1.38</v>
-      </c>
-      <c r="AR415">
-        <v>1.12</v>
-      </c>
-      <c r="AS415">
-        <v>1.47</v>
-      </c>
-      <c r="AT415">
-        <v>1.06</v>
-      </c>
-      <c r="AU415">
-        <v>1.25</v>
-      </c>
-      <c r="AV415">
-        <v>1.28</v>
-      </c>
-      <c r="AW415">
-        <v>2.53</v>
-      </c>
-      <c r="AX415">
-        <v>2</v>
-      </c>
-      <c r="AY415">
-        <v>7.6</v>
-      </c>
-      <c r="AZ415">
-        <v>2.17</v>
-      </c>
-      <c r="BA415">
-        <v>1.25</v>
-      </c>
-      <c r="BB415">
-        <v>1.48</v>
-      </c>
-      <c r="BC415">
-        <v>1.87</v>
-      </c>
-      <c r="BD415">
-        <v>2.39</v>
-      </c>
-      <c r="BE415">
-        <v>3.28</v>
-      </c>
-      <c r="BF415">
+      <c r="BH415">
+        <v>3</v>
+      </c>
+      <c r="BI415">
+        <v>3</v>
+      </c>
+      <c r="BJ415">
         <v>7</v>
       </c>
-      <c r="BG415">
-        <v>3</v>
-      </c>
-      <c r="BH415">
-        <v>6</v>
-      </c>
-      <c r="BI415">
-        <v>4</v>
-      </c>
-      <c r="BJ415">
-        <v>13</v>
-      </c>
       <c r="BK415">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416" spans="1:63">
@@ -81070,7 +81076,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>2581082</v>
+        <v>2581089</v>
       </c>
       <c r="C416" t="s">
         <v>63</v>
@@ -81085,175 +81091,175 @@
         <v>36</v>
       </c>
       <c r="G416" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H416" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I416">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K416">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L416">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N416">
         <v>3</v>
       </c>
       <c r="O416" t="s">
-        <v>322</v>
+        <v>225</v>
       </c>
       <c r="P416" t="s">
-        <v>299</v>
+        <v>469</v>
       </c>
       <c r="Q416">
+        <v>3</v>
+      </c>
+      <c r="R416">
+        <v>6</v>
+      </c>
+      <c r="S416">
         <v>9</v>
       </c>
-      <c r="R416">
-        <v>2</v>
-      </c>
-      <c r="S416">
-        <v>11</v>
-      </c>
       <c r="T416">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="U416">
         <v>2.05</v>
       </c>
       <c r="V416">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="W416">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X416">
+        <v>2.65</v>
+      </c>
+      <c r="Y416">
+        <v>2.95</v>
+      </c>
+      <c r="Z416">
+        <v>1.35</v>
+      </c>
+      <c r="AA416">
+        <v>7.85</v>
+      </c>
+      <c r="AB416">
+        <v>1.05</v>
+      </c>
+      <c r="AC416">
         <v>2.6</v>
-      </c>
-      <c r="Y416">
-        <v>3.2</v>
-      </c>
-      <c r="Z416">
-        <v>1.31</v>
-      </c>
-      <c r="AA416">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AB416">
-        <v>1.04</v>
-      </c>
-      <c r="AC416">
-        <v>2.11</v>
       </c>
       <c r="AD416">
         <v>3.25</v>
       </c>
       <c r="AE416">
-        <v>3.45</v>
+        <v>2.65</v>
       </c>
       <c r="AF416">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AG416">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH416">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AI416">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AJ416">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="AK416">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AL416">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AM416">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AN416">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AO416">
         <v>1.28</v>
       </c>
       <c r="AP416">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="AQ416">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AR416">
-        <v>1.06</v>
+        <v>1.63</v>
       </c>
       <c r="AS416">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AT416">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU416">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="AV416">
-        <v>1.11</v>
+        <v>1.39</v>
       </c>
       <c r="AW416">
-        <v>2.44</v>
+        <v>3.08</v>
       </c>
       <c r="AX416">
-        <v>1.48</v>
+        <v>2.17</v>
       </c>
       <c r="AY416">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="AZ416">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="BA416">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="BB416">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="BC416">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="BD416">
-        <v>2.65</v>
+        <v>2.32</v>
       </c>
       <c r="BE416">
-        <v>3.64</v>
+        <v>3.08</v>
       </c>
       <c r="BF416">
+        <v>3</v>
+      </c>
+      <c r="BG416">
         <v>4</v>
       </c>
-      <c r="BG416">
-        <v>7</v>
-      </c>
       <c r="BH416">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI416">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BJ416">
         <v>7</v>
       </c>
       <c r="BK416">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:63">
@@ -81261,7 +81267,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>2581080</v>
+        <v>2581079</v>
       </c>
       <c r="C417" t="s">
         <v>63</v>
@@ -81276,175 +81282,175 @@
         <v>36</v>
       </c>
       <c r="G417" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H417" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I417">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J417">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K417">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L417">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M417">
         <v>1</v>
       </c>
       <c r="N417">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O417" t="s">
-        <v>323</v>
+        <v>99</v>
       </c>
       <c r="P417" t="s">
-        <v>245</v>
+        <v>181</v>
       </c>
       <c r="Q417">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R417">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S417">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T417">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="U417">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V417">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="W417">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="X417">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y417">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="Z417">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AA417">
-        <v>7.4</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="AB417">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AC417">
-        <v>2.32</v>
+        <v>3.95</v>
       </c>
       <c r="AD417">
         <v>3.3</v>
       </c>
       <c r="AE417">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="AF417">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AG417">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AH417">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AI417">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="AJ417">
-        <v>1.99</v>
+        <v>2.25</v>
       </c>
       <c r="AK417">
+        <v>1.57</v>
+      </c>
+      <c r="AL417">
+        <v>1.95</v>
+      </c>
+      <c r="AM417">
         <v>1.8</v>
       </c>
-      <c r="AL417">
-        <v>1.8</v>
-      </c>
-      <c r="AM417">
-        <v>2</v>
-      </c>
       <c r="AN417">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="AO417">
         <v>1.28</v>
       </c>
       <c r="AP417">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ417">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="AR417">
-        <v>0.9399999999999999</v>
+        <v>1.35</v>
       </c>
       <c r="AS417">
+        <v>1.06</v>
+      </c>
+      <c r="AT417">
         <v>1.44</v>
       </c>
-      <c r="AT417">
-        <v>0.89</v>
-      </c>
       <c r="AU417">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AV417">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="AW417">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="AX417">
-        <v>1.68</v>
+        <v>2.54</v>
       </c>
       <c r="AY417">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AZ417">
-        <v>2.78</v>
+        <v>1.69</v>
       </c>
       <c r="BA417">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="BB417">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="BC417">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="BD417">
-        <v>2.69</v>
+        <v>2.32</v>
       </c>
       <c r="BE417">
-        <v>3.64</v>
+        <v>3.08</v>
       </c>
       <c r="BF417">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BG417">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH417">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI417">
+        <v>5</v>
+      </c>
+      <c r="BJ417">
         <v>6</v>
       </c>
-      <c r="BJ417">
-        <v>10</v>
-      </c>
       <c r="BK417">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="418" spans="1:63">
@@ -81452,7 +81458,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>2581079</v>
+        <v>2581078</v>
       </c>
       <c r="C418" t="s">
         <v>63</v>
@@ -81467,175 +81473,175 @@
         <v>36</v>
       </c>
       <c r="G418" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H418" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I418">
         <v>0</v>
       </c>
       <c r="J418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L418">
         <v>0</v>
       </c>
       <c r="M418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N418">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O418" t="s">
         <v>99</v>
       </c>
       <c r="P418" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="Q418">
+        <v>4</v>
+      </c>
+      <c r="R418">
+        <v>4</v>
+      </c>
+      <c r="S418">
+        <v>8</v>
+      </c>
+      <c r="T418">
+        <v>3.3</v>
+      </c>
+      <c r="U418">
+        <v>2</v>
+      </c>
+      <c r="V418">
+        <v>3.6</v>
+      </c>
+      <c r="W418">
+        <v>1.5</v>
+      </c>
+      <c r="X418">
+        <v>2.4</v>
+      </c>
+      <c r="Y418">
+        <v>3.45</v>
+      </c>
+      <c r="Z418">
+        <v>1.27</v>
+      </c>
+      <c r="AA418">
+        <v>9.4</v>
+      </c>
+      <c r="AB418">
+        <v>1.03</v>
+      </c>
+      <c r="AC418">
+        <v>2.47</v>
+      </c>
+      <c r="AD418">
+        <v>3.15</v>
+      </c>
+      <c r="AE418">
+        <v>2.9</v>
+      </c>
+      <c r="AF418">
+        <v>1.09</v>
+      </c>
+      <c r="AG418">
+        <v>8</v>
+      </c>
+      <c r="AH418">
+        <v>1.47</v>
+      </c>
+      <c r="AI418">
+        <v>2.75</v>
+      </c>
+      <c r="AJ418">
+        <v>2.35</v>
+      </c>
+      <c r="AK418">
+        <v>1.53</v>
+      </c>
+      <c r="AL418">
+        <v>2</v>
+      </c>
+      <c r="AM418">
+        <v>1.75</v>
+      </c>
+      <c r="AN418">
+        <v>1.42</v>
+      </c>
+      <c r="AO418">
+        <v>1.3</v>
+      </c>
+      <c r="AP418">
+        <v>1.53</v>
+      </c>
+      <c r="AQ418">
+        <v>1.71</v>
+      </c>
+      <c r="AR418">
+        <v>1</v>
+      </c>
+      <c r="AS418">
+        <v>1.67</v>
+      </c>
+      <c r="AT418">
+        <v>1</v>
+      </c>
+      <c r="AU418">
+        <v>1.46</v>
+      </c>
+      <c r="AV418">
+        <v>1.33</v>
+      </c>
+      <c r="AW418">
+        <v>2.79</v>
+      </c>
+      <c r="AX418">
+        <v>1.73</v>
+      </c>
+      <c r="AY418">
+        <v>7.8</v>
+      </c>
+      <c r="AZ418">
+        <v>2.59</v>
+      </c>
+      <c r="BA418">
+        <v>1.21</v>
+      </c>
+      <c r="BB418">
+        <v>1.41</v>
+      </c>
+      <c r="BC418">
+        <v>1.75</v>
+      </c>
+      <c r="BD418">
+        <v>2.19</v>
+      </c>
+      <c r="BE418">
+        <v>2.93</v>
+      </c>
+      <c r="BF418">
+        <v>2</v>
+      </c>
+      <c r="BG418">
+        <v>0</v>
+      </c>
+      <c r="BH418">
+        <v>5</v>
+      </c>
+      <c r="BI418">
+        <v>6</v>
+      </c>
+      <c r="BJ418">
         <v>7</v>
       </c>
-      <c r="R418">
-        <v>7</v>
-      </c>
-      <c r="S418">
-        <v>14</v>
-      </c>
-      <c r="T418">
-        <v>4.5</v>
-      </c>
-      <c r="U418">
-        <v>2.05</v>
-      </c>
-      <c r="V418">
-        <v>2.7</v>
-      </c>
-      <c r="W418">
-        <v>1.47</v>
-      </c>
-      <c r="X418">
-        <v>2.5</v>
-      </c>
-      <c r="Y418">
-        <v>3.2</v>
-      </c>
-      <c r="Z418">
-        <v>1.31</v>
-      </c>
-      <c r="AA418">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="AB418">
-        <v>1.04</v>
-      </c>
-      <c r="AC418">
-        <v>3.95</v>
-      </c>
-      <c r="AD418">
-        <v>3.3</v>
-      </c>
-      <c r="AE418">
-        <v>1.96</v>
-      </c>
-      <c r="AF418">
-        <v>1.08</v>
-      </c>
-      <c r="AG418">
-        <v>8.5</v>
-      </c>
-      <c r="AH418">
-        <v>1.4</v>
-      </c>
-      <c r="AI418">
-        <v>2.95</v>
-      </c>
-      <c r="AJ418">
-        <v>2.25</v>
-      </c>
-      <c r="AK418">
-        <v>1.57</v>
-      </c>
-      <c r="AL418">
-        <v>1.95</v>
-      </c>
-      <c r="AM418">
-        <v>1.8</v>
-      </c>
-      <c r="AN418">
-        <v>1.83</v>
-      </c>
-      <c r="AO418">
-        <v>1.28</v>
-      </c>
-      <c r="AP418">
-        <v>1.25</v>
-      </c>
-      <c r="AQ418">
-        <v>1.12</v>
-      </c>
-      <c r="AR418">
-        <v>1.35</v>
-      </c>
-      <c r="AS418">
-        <v>1.06</v>
-      </c>
-      <c r="AT418">
-        <v>1.44</v>
-      </c>
-      <c r="AU418">
-        <v>1.18</v>
-      </c>
-      <c r="AV418">
-        <v>1.42</v>
-      </c>
-      <c r="AW418">
-        <v>2.6</v>
-      </c>
-      <c r="AX418">
-        <v>2.54</v>
-      </c>
-      <c r="AY418">
-        <v>8</v>
-      </c>
-      <c r="AZ418">
-        <v>1.69</v>
-      </c>
-      <c r="BA418">
-        <v>1.23</v>
-      </c>
-      <c r="BB418">
-        <v>1.45</v>
-      </c>
-      <c r="BC418">
-        <v>1.8</v>
-      </c>
-      <c r="BD418">
-        <v>2.32</v>
-      </c>
-      <c r="BE418">
-        <v>3.08</v>
-      </c>
-      <c r="BF418">
-        <v>0</v>
-      </c>
-      <c r="BG418">
+      <c r="BK418">
         <v>6</v>
-      </c>
-      <c r="BH418">
-        <v>6</v>
-      </c>
-      <c r="BI418">
-        <v>5</v>
-      </c>
-      <c r="BJ418">
-        <v>6</v>
-      </c>
-      <c r="BK418">
-        <v>11</v>
       </c>
     </row>
     <row r="419" spans="1:63">
@@ -81643,7 +81649,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>2581078</v>
+        <v>2581088</v>
       </c>
       <c r="C419" t="s">
         <v>63</v>
@@ -81658,175 +81664,175 @@
         <v>36</v>
       </c>
       <c r="G419" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H419" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I419">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K419">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L419">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N419">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O419" t="s">
-        <v>99</v>
+        <v>323</v>
       </c>
       <c r="P419" t="s">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="Q419">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R419">
         <v>4</v>
       </c>
       <c r="S419">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T419">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="U419">
         <v>2</v>
       </c>
       <c r="V419">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="W419">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X419">
         <v>2.4</v>
       </c>
       <c r="Y419">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="Z419">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AA419">
-        <v>9.4</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AB419">
         <v>1.03</v>
       </c>
       <c r="AC419">
-        <v>2.47</v>
+        <v>1.75</v>
       </c>
       <c r="AD419">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="AE419">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="AF419">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AG419">
+        <v>7.5</v>
+      </c>
+      <c r="AH419">
+        <v>1.5</v>
+      </c>
+      <c r="AI419">
+        <v>2.5</v>
+      </c>
+      <c r="AJ419">
+        <v>2.3</v>
+      </c>
+      <c r="AK419">
+        <v>1.55</v>
+      </c>
+      <c r="AL419">
+        <v>2.35</v>
+      </c>
+      <c r="AM419">
+        <v>1.57</v>
+      </c>
+      <c r="AN419">
+        <v>1.16</v>
+      </c>
+      <c r="AO419">
+        <v>1.25</v>
+      </c>
+      <c r="AP419">
+        <v>2.05</v>
+      </c>
+      <c r="AQ419">
+        <v>2.31</v>
+      </c>
+      <c r="AR419">
+        <v>1.06</v>
+      </c>
+      <c r="AS419">
+        <v>2.39</v>
+      </c>
+      <c r="AT419">
+        <v>1</v>
+      </c>
+      <c r="AU419">
+        <v>1.78</v>
+      </c>
+      <c r="AV419">
+        <v>1.14</v>
+      </c>
+      <c r="AW419">
+        <v>2.92</v>
+      </c>
+      <c r="AX419">
+        <v>1.48</v>
+      </c>
+      <c r="AY419">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ419">
+        <v>3.38</v>
+      </c>
+      <c r="BA419">
+        <v>1.27</v>
+      </c>
+      <c r="BB419">
+        <v>1.52</v>
+      </c>
+      <c r="BC419">
+        <v>1.92</v>
+      </c>
+      <c r="BD419">
+        <v>2.49</v>
+      </c>
+      <c r="BE419">
+        <v>3.42</v>
+      </c>
+      <c r="BF419">
         <v>8</v>
       </c>
-      <c r="AH419">
-        <v>1.47</v>
-      </c>
-      <c r="AI419">
-        <v>2.75</v>
-      </c>
-      <c r="AJ419">
-        <v>2.35</v>
-      </c>
-      <c r="AK419">
-        <v>1.53</v>
-      </c>
-      <c r="AL419">
-        <v>2</v>
-      </c>
-      <c r="AM419">
-        <v>1.75</v>
-      </c>
-      <c r="AN419">
-        <v>1.42</v>
-      </c>
-      <c r="AO419">
-        <v>1.3</v>
-      </c>
-      <c r="AP419">
-        <v>1.53</v>
-      </c>
-      <c r="AQ419">
-        <v>1.71</v>
-      </c>
-      <c r="AR419">
-        <v>1</v>
-      </c>
-      <c r="AS419">
-        <v>1.67</v>
-      </c>
-      <c r="AT419">
-        <v>1</v>
-      </c>
-      <c r="AU419">
-        <v>1.46</v>
-      </c>
-      <c r="AV419">
-        <v>1.33</v>
-      </c>
-      <c r="AW419">
-        <v>2.79</v>
-      </c>
-      <c r="AX419">
-        <v>1.73</v>
-      </c>
-      <c r="AY419">
-        <v>7.8</v>
-      </c>
-      <c r="AZ419">
-        <v>2.59</v>
-      </c>
-      <c r="BA419">
-        <v>1.21</v>
-      </c>
-      <c r="BB419">
-        <v>1.41</v>
-      </c>
-      <c r="BC419">
-        <v>1.75</v>
-      </c>
-      <c r="BD419">
-        <v>2.19</v>
-      </c>
-      <c r="BE419">
-        <v>2.93</v>
-      </c>
-      <c r="BF419">
-        <v>2</v>
-      </c>
       <c r="BG419">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH419">
+        <v>7</v>
+      </c>
+      <c r="BI419">
         <v>5</v>
       </c>
-      <c r="BI419">
-        <v>6</v>
-      </c>
       <c r="BJ419">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BK419">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="420" spans="1:63">
@@ -81834,7 +81840,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>2581089</v>
+        <v>2581080</v>
       </c>
       <c r="C420" t="s">
         <v>63</v>
@@ -81849,58 +81855,58 @@
         <v>36</v>
       </c>
       <c r="G420" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H420" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I420">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J420">
         <v>0</v>
       </c>
       <c r="K420">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L420">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M420">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N420">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O420" t="s">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="P420" t="s">
-        <v>468</v>
+        <v>245</v>
       </c>
       <c r="Q420">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R420">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S420">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T420">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="U420">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V420">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="W420">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="X420">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="Y420">
         <v>2.95</v>
@@ -81909,34 +81915,34 @@
         <v>1.35</v>
       </c>
       <c r="AA420">
-        <v>7.85</v>
+        <v>7.4</v>
       </c>
       <c r="AB420">
+        <v>1.06</v>
+      </c>
+      <c r="AC420">
+        <v>2.32</v>
+      </c>
+      <c r="AD420">
+        <v>3.3</v>
+      </c>
+      <c r="AE420">
+        <v>3</v>
+      </c>
+      <c r="AF420">
         <v>1.05</v>
       </c>
-      <c r="AC420">
-        <v>2.6</v>
-      </c>
-      <c r="AD420">
+      <c r="AG420">
+        <v>10</v>
+      </c>
+      <c r="AH420">
+        <v>1.33</v>
+      </c>
+      <c r="AI420">
         <v>3.25</v>
       </c>
-      <c r="AE420">
-        <v>2.65</v>
-      </c>
-      <c r="AF420">
-        <v>1.06</v>
-      </c>
-      <c r="AG420">
-        <v>9.5</v>
-      </c>
-      <c r="AH420">
-        <v>1.35</v>
-      </c>
-      <c r="AI420">
-        <v>3.2</v>
-      </c>
       <c r="AJ420">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="AK420">
         <v>1.8</v>
@@ -81945,79 +81951,79 @@
         <v>1.8</v>
       </c>
       <c r="AM420">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AN420">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AO420">
         <v>1.28</v>
       </c>
       <c r="AP420">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ420">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AR420">
-        <v>1.63</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS420">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="AT420">
-        <v>1.71</v>
+        <v>0.89</v>
       </c>
       <c r="AU420">
-        <v>1.69</v>
+        <v>1.19</v>
       </c>
       <c r="AV420">
-        <v>1.39</v>
+        <v>1.09</v>
       </c>
       <c r="AW420">
-        <v>3.08</v>
+        <v>2.28</v>
       </c>
       <c r="AX420">
-        <v>2.17</v>
+        <v>1.68</v>
       </c>
       <c r="AY420">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AZ420">
-        <v>2</v>
+        <v>2.78</v>
       </c>
       <c r="BA420">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="BB420">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="BC420">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="BD420">
-        <v>2.32</v>
+        <v>2.69</v>
       </c>
       <c r="BE420">
-        <v>3.08</v>
+        <v>3.64</v>
       </c>
       <c r="BF420">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG420">
         <v>4</v>
       </c>
       <c r="BH420">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI420">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BJ420">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BK420">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="421" spans="1:63">
@@ -82025,7 +82031,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>2581088</v>
+        <v>2581087</v>
       </c>
       <c r="C421" t="s">
         <v>63</v>
@@ -82040,91 +82046,91 @@
         <v>36</v>
       </c>
       <c r="G421" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H421" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I421">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J421">
         <v>1</v>
       </c>
       <c r="K421">
+        <v>1</v>
+      </c>
+      <c r="L421">
+        <v>1</v>
+      </c>
+      <c r="M421">
+        <v>1</v>
+      </c>
+      <c r="N421">
+        <v>2</v>
+      </c>
+      <c r="O421" t="s">
+        <v>157</v>
+      </c>
+      <c r="P421" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q421">
+        <v>7</v>
+      </c>
+      <c r="R421">
+        <v>2</v>
+      </c>
+      <c r="S421">
+        <v>9</v>
+      </c>
+      <c r="T421">
+        <v>3.1</v>
+      </c>
+      <c r="U421">
+        <v>2</v>
+      </c>
+      <c r="V421">
         <v>4</v>
       </c>
-      <c r="L421">
-        <v>3</v>
-      </c>
-      <c r="M421">
-        <v>1</v>
-      </c>
-      <c r="N421">
-        <v>4</v>
-      </c>
-      <c r="O421" t="s">
-        <v>324</v>
-      </c>
-      <c r="P421" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q421">
-        <v>6</v>
-      </c>
-      <c r="R421">
-        <v>4</v>
-      </c>
-      <c r="S421">
-        <v>10</v>
-      </c>
-      <c r="T421">
-        <v>2.5</v>
-      </c>
-      <c r="U421">
-        <v>2</v>
-      </c>
-      <c r="V421">
-        <v>5.5</v>
-      </c>
       <c r="W421">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X421">
         <v>2.4</v>
       </c>
       <c r="Y421">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="Z421">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AA421">
-        <v>9.949999999999999</v>
+        <v>9.85</v>
       </c>
       <c r="AB421">
         <v>1.03</v>
       </c>
       <c r="AC421">
-        <v>1.75</v>
+        <v>2.37</v>
       </c>
       <c r="AD421">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="AE421">
-        <v>4.9</v>
+        <v>3.05</v>
       </c>
       <c r="AF421">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AG421">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH421">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AI421">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AJ421">
         <v>2.3</v>
@@ -82133,49 +82139,49 @@
         <v>1.55</v>
       </c>
       <c r="AL421">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="AM421">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AN421">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="AO421">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AP421">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="AQ421">
-        <v>2.31</v>
+        <v>1</v>
       </c>
       <c r="AR421">
-        <v>1.06</v>
+        <v>1.82</v>
       </c>
       <c r="AS421">
-        <v>2.39</v>
+        <v>1</v>
       </c>
       <c r="AT421">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="AU421">
-        <v>1.78</v>
+        <v>1.46</v>
       </c>
       <c r="AV421">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AW421">
-        <v>2.92</v>
+        <v>2.61</v>
       </c>
       <c r="AX421">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="AY421">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="AZ421">
-        <v>3.38</v>
+        <v>2.88</v>
       </c>
       <c r="BA421">
         <v>1.27</v>
@@ -82193,22 +82199,22 @@
         <v>3.42</v>
       </c>
       <c r="BF421">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BG421">
         <v>4</v>
       </c>
       <c r="BH421">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BI421">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BJ421">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BK421">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422" spans="1:63">
@@ -82216,7 +82222,7 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>2580993</v>
+        <v>2581002</v>
       </c>
       <c r="C422" t="s">
         <v>63</v>
@@ -82228,13 +82234,13 @@
         <v>44999.69791666666</v>
       </c>
       <c r="F422">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G422" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="H422" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I422">
         <v>0</v>
@@ -82246,160 +82252,160 @@
         <v>0</v>
       </c>
       <c r="L422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M422">
         <v>0</v>
       </c>
       <c r="N422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O422" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="P422" t="s">
         <v>99</v>
       </c>
       <c r="Q422">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="R422">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S422">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T422">
-        <v>2.85</v>
+        <v>1.82</v>
       </c>
       <c r="U422">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="V422">
+        <v>7.3</v>
+      </c>
+      <c r="W422">
+        <v>1.34</v>
+      </c>
+      <c r="X422">
+        <v>3</v>
+      </c>
+      <c r="Y422">
+        <v>2.75</v>
+      </c>
+      <c r="Z422">
+        <v>1.4</v>
+      </c>
+      <c r="AA422">
+        <v>6.95</v>
+      </c>
+      <c r="AB422">
+        <v>1.07</v>
+      </c>
+      <c r="AC422">
+        <v>1.38</v>
+      </c>
+      <c r="AD422">
+        <v>4.64</v>
+      </c>
+      <c r="AE422">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AF422">
+        <v>1.04</v>
+      </c>
+      <c r="AG422">
+        <v>12</v>
+      </c>
+      <c r="AH422">
+        <v>1.28</v>
+      </c>
+      <c r="AI422">
         <v>3.6</v>
       </c>
-      <c r="W422">
-        <v>1.45</v>
-      </c>
-      <c r="X422">
-        <v>2.5</v>
-      </c>
-      <c r="Y422">
-        <v>3.2</v>
-      </c>
-      <c r="Z422">
-        <v>1.3</v>
-      </c>
-      <c r="AA422">
-        <v>7.5</v>
-      </c>
-      <c r="AB422">
-        <v>1.06</v>
-      </c>
-      <c r="AC422">
-        <v>2.07</v>
-      </c>
-      <c r="AD422">
-        <v>3.38</v>
-      </c>
-      <c r="AE422">
-        <v>3.6</v>
-      </c>
-      <c r="AF422">
-        <v>1.08</v>
-      </c>
-      <c r="AG422">
-        <v>6.5</v>
-      </c>
-      <c r="AH422">
-        <v>1.35</v>
-      </c>
-      <c r="AI422">
-        <v>2.9</v>
-      </c>
       <c r="AJ422">
+        <v>1.9</v>
+      </c>
+      <c r="AK422">
+        <v>1.87</v>
+      </c>
+      <c r="AL422">
+        <v>2.2</v>
+      </c>
+      <c r="AM422">
+        <v>1.64</v>
+      </c>
+      <c r="AN422">
+        <v>1.05</v>
+      </c>
+      <c r="AO422">
+        <v>1.14</v>
+      </c>
+      <c r="AP422">
+        <v>3.1</v>
+      </c>
+      <c r="AQ422">
+        <v>2.35</v>
+      </c>
+      <c r="AR422">
+        <v>1</v>
+      </c>
+      <c r="AS422">
+        <v>2.39</v>
+      </c>
+      <c r="AT422">
+        <v>0.83</v>
+      </c>
+      <c r="AU422">
+        <v>1.78</v>
+      </c>
+      <c r="AV422">
+        <v>0.96</v>
+      </c>
+      <c r="AW422">
+        <v>2.74</v>
+      </c>
+      <c r="AX422">
+        <v>1.13</v>
+      </c>
+      <c r="AY422">
+        <v>14</v>
+      </c>
+      <c r="AZ422">
+        <v>7.7</v>
+      </c>
+      <c r="BA422">
+        <v>1.25</v>
+      </c>
+      <c r="BB422">
+        <v>1.55</v>
+      </c>
+      <c r="BC422">
+        <v>1.88</v>
+      </c>
+      <c r="BD422">
         <v>2.3</v>
-      </c>
-      <c r="AK422">
-        <v>1.6</v>
-      </c>
-      <c r="AL422">
-        <v>1.85</v>
-      </c>
-      <c r="AM422">
-        <v>1.85</v>
-      </c>
-      <c r="AN422">
-        <v>1.28</v>
-      </c>
-      <c r="AO422">
-        <v>1.37</v>
-      </c>
-      <c r="AP422">
-        <v>1.52</v>
-      </c>
-      <c r="AQ422">
-        <v>1.59</v>
-      </c>
-      <c r="AR422">
-        <v>1.35</v>
-      </c>
-      <c r="AS422">
-        <v>1.63</v>
-      </c>
-      <c r="AT422">
-        <v>1.32</v>
-      </c>
-      <c r="AU422">
-        <v>1.53</v>
-      </c>
-      <c r="AV422">
-        <v>1.37</v>
-      </c>
-      <c r="AW422">
-        <v>2.9</v>
-      </c>
-      <c r="AX422">
-        <v>1.82</v>
-      </c>
-      <c r="AY422">
-        <v>8</v>
-      </c>
-      <c r="AZ422">
-        <v>2.33</v>
-      </c>
-      <c r="BA422">
-        <v>1.24</v>
-      </c>
-      <c r="BB422">
-        <v>1.45</v>
-      </c>
-      <c r="BC422">
-        <v>1.83</v>
-      </c>
-      <c r="BD422">
-        <v>2.35</v>
       </c>
       <c r="BE422">
         <v>3.2</v>
       </c>
       <c r="BF422">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG422">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH422">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BI422">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BJ422">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BK422">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:63">
@@ -82980,7 +82986,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>2581002</v>
+        <v>2580993</v>
       </c>
       <c r="C426" t="s">
         <v>63</v>
@@ -82992,13 +82998,13 @@
         <v>44999.69791666666</v>
       </c>
       <c r="F426">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G426" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H426" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I426">
         <v>0</v>
@@ -83010,160 +83016,160 @@
         <v>0</v>
       </c>
       <c r="L426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M426">
         <v>0</v>
       </c>
       <c r="N426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O426" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="P426" t="s">
         <v>99</v>
       </c>
       <c r="Q426">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="R426">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S426">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="T426">
+        <v>2.85</v>
+      </c>
+      <c r="U426">
+        <v>2</v>
+      </c>
+      <c r="V426">
+        <v>3.6</v>
+      </c>
+      <c r="W426">
+        <v>1.45</v>
+      </c>
+      <c r="X426">
+        <v>2.5</v>
+      </c>
+      <c r="Y426">
+        <v>3.2</v>
+      </c>
+      <c r="Z426">
+        <v>1.3</v>
+      </c>
+      <c r="AA426">
+        <v>7.5</v>
+      </c>
+      <c r="AB426">
+        <v>1.06</v>
+      </c>
+      <c r="AC426">
+        <v>2.07</v>
+      </c>
+      <c r="AD426">
+        <v>3.38</v>
+      </c>
+      <c r="AE426">
+        <v>3.6</v>
+      </c>
+      <c r="AF426">
+        <v>1.08</v>
+      </c>
+      <c r="AG426">
+        <v>6.5</v>
+      </c>
+      <c r="AH426">
+        <v>1.35</v>
+      </c>
+      <c r="AI426">
+        <v>2.9</v>
+      </c>
+      <c r="AJ426">
+        <v>2.3</v>
+      </c>
+      <c r="AK426">
+        <v>1.6</v>
+      </c>
+      <c r="AL426">
+        <v>1.85</v>
+      </c>
+      <c r="AM426">
+        <v>1.85</v>
+      </c>
+      <c r="AN426">
+        <v>1.28</v>
+      </c>
+      <c r="AO426">
+        <v>1.37</v>
+      </c>
+      <c r="AP426">
+        <v>1.52</v>
+      </c>
+      <c r="AQ426">
+        <v>1.59</v>
+      </c>
+      <c r="AR426">
+        <v>1.35</v>
+      </c>
+      <c r="AS426">
+        <v>1.63</v>
+      </c>
+      <c r="AT426">
+        <v>1.32</v>
+      </c>
+      <c r="AU426">
+        <v>1.53</v>
+      </c>
+      <c r="AV426">
+        <v>1.37</v>
+      </c>
+      <c r="AW426">
+        <v>2.9</v>
+      </c>
+      <c r="AX426">
         <v>1.82</v>
       </c>
-      <c r="U426">
-        <v>2.38</v>
-      </c>
-      <c r="V426">
-        <v>7.3</v>
-      </c>
-      <c r="W426">
-        <v>1.34</v>
-      </c>
-      <c r="X426">
-        <v>3</v>
-      </c>
-      <c r="Y426">
-        <v>2.75</v>
-      </c>
-      <c r="Z426">
-        <v>1.4</v>
-      </c>
-      <c r="AA426">
-        <v>6.95</v>
-      </c>
-      <c r="AB426">
-        <v>1.07</v>
-      </c>
-      <c r="AC426">
-        <v>1.38</v>
-      </c>
-      <c r="AD426">
-        <v>4.64</v>
-      </c>
-      <c r="AE426">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AF426">
-        <v>1.04</v>
-      </c>
-      <c r="AG426">
-        <v>12</v>
-      </c>
-      <c r="AH426">
-        <v>1.28</v>
-      </c>
-      <c r="AI426">
-        <v>3.6</v>
-      </c>
-      <c r="AJ426">
-        <v>1.9</v>
-      </c>
-      <c r="AK426">
-        <v>1.87</v>
-      </c>
-      <c r="AL426">
-        <v>2.2</v>
-      </c>
-      <c r="AM426">
-        <v>1.64</v>
-      </c>
-      <c r="AN426">
-        <v>1.05</v>
-      </c>
-      <c r="AO426">
-        <v>1.14</v>
-      </c>
-      <c r="AP426">
-        <v>3.1</v>
-      </c>
-      <c r="AQ426">
+      <c r="AY426">
+        <v>8</v>
+      </c>
+      <c r="AZ426">
+        <v>2.33</v>
+      </c>
+      <c r="BA426">
+        <v>1.24</v>
+      </c>
+      <c r="BB426">
+        <v>1.45</v>
+      </c>
+      <c r="BC426">
+        <v>1.83</v>
+      </c>
+      <c r="BD426">
         <v>2.35</v>
-      </c>
-      <c r="AR426">
-        <v>1</v>
-      </c>
-      <c r="AS426">
-        <v>2.39</v>
-      </c>
-      <c r="AT426">
-        <v>0.88</v>
-      </c>
-      <c r="AU426">
-        <v>1.78</v>
-      </c>
-      <c r="AV426">
-        <v>0.96</v>
-      </c>
-      <c r="AW426">
-        <v>2.74</v>
-      </c>
-      <c r="AX426">
-        <v>1.13</v>
-      </c>
-      <c r="AY426">
-        <v>14</v>
-      </c>
-      <c r="AZ426">
-        <v>7.7</v>
-      </c>
-      <c r="BA426">
-        <v>1.25</v>
-      </c>
-      <c r="BB426">
-        <v>1.55</v>
-      </c>
-      <c r="BC426">
-        <v>1.88</v>
-      </c>
-      <c r="BD426">
-        <v>2.3</v>
       </c>
       <c r="BE426">
         <v>3.2</v>
       </c>
       <c r="BF426">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BG426">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH426">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BI426">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BJ426">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="BK426">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="427" spans="1:63">
@@ -83213,7 +83219,7 @@
         <v>326</v>
       </c>
       <c r="P427" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q427">
         <v>2</v>
@@ -83300,7 +83306,7 @@
         <v>0.72</v>
       </c>
       <c r="AS427">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT427">
         <v>0.74</v>
@@ -83977,7 +83983,7 @@
         <v>271</v>
       </c>
       <c r="P431" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q431">
         <v>1</v>
@@ -84126,7 +84132,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>2581095</v>
+        <v>2581100</v>
       </c>
       <c r="C432" t="s">
         <v>63</v>
@@ -84141,64 +84147,64 @@
         <v>37</v>
       </c>
       <c r="G432" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H432" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I432">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J432">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K432">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L432">
         <v>1</v>
       </c>
       <c r="M432">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N432">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O432" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="P432" t="s">
-        <v>99</v>
+        <v>472</v>
       </c>
       <c r="Q432">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S432">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T432">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="U432">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V432">
-        <v>6.25</v>
+        <v>4</v>
       </c>
       <c r="W432">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X432">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y432">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Z432">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AA432">
         <v>10</v>
@@ -84207,109 +84213,109 @@
         <v>1.06</v>
       </c>
       <c r="AC432">
+        <v>2.55</v>
+      </c>
+      <c r="AD432">
+        <v>2.9</v>
+      </c>
+      <c r="AE432">
+        <v>2.75</v>
+      </c>
+      <c r="AF432">
+        <v>1.05</v>
+      </c>
+      <c r="AG432">
+        <v>7.2</v>
+      </c>
+      <c r="AH432">
+        <v>1.4</v>
+      </c>
+      <c r="AI432">
+        <v>2.68</v>
+      </c>
+      <c r="AJ432">
+        <v>2.2</v>
+      </c>
+      <c r="AK432">
+        <v>1.6</v>
+      </c>
+      <c r="AL432">
+        <v>2</v>
+      </c>
+      <c r="AM432">
+        <v>1.73</v>
+      </c>
+      <c r="AN432">
+        <v>1.33</v>
+      </c>
+      <c r="AO432">
+        <v>1.28</v>
+      </c>
+      <c r="AP432">
+        <v>1.66</v>
+      </c>
+      <c r="AQ432">
+        <v>1.61</v>
+      </c>
+      <c r="AR432">
+        <v>1.22</v>
+      </c>
+      <c r="AS432">
         <v>1.53</v>
       </c>
-      <c r="AD432">
-        <v>3.9</v>
-      </c>
-      <c r="AE432">
+      <c r="AT432">
+        <v>1.32</v>
+      </c>
+      <c r="AU432">
+        <v>1.39</v>
+      </c>
+      <c r="AV432">
+        <v>1.27</v>
+      </c>
+      <c r="AW432">
+        <v>2.66</v>
+      </c>
+      <c r="AX432">
+        <v>1.91</v>
+      </c>
+      <c r="AY432">
+        <v>8</v>
+      </c>
+      <c r="AZ432">
+        <v>2.2</v>
+      </c>
+      <c r="BA432">
+        <v>1.26</v>
+      </c>
+      <c r="BB432">
+        <v>1.49</v>
+      </c>
+      <c r="BC432">
+        <v>2</v>
+      </c>
+      <c r="BD432">
+        <v>2.45</v>
+      </c>
+      <c r="BE432">
+        <v>3.5</v>
+      </c>
+      <c r="BF432">
         <v>6</v>
       </c>
-      <c r="AF432">
-        <v>1.06</v>
-      </c>
-      <c r="AG432">
-        <v>7.5</v>
-      </c>
-      <c r="AH432">
-        <v>1.36</v>
-      </c>
-      <c r="AI432">
-        <v>2.9</v>
-      </c>
-      <c r="AJ432">
-        <v>2.1</v>
-      </c>
-      <c r="AK432">
-        <v>1.65</v>
-      </c>
-      <c r="AL432">
-        <v>2.1</v>
-      </c>
-      <c r="AM432">
-        <v>1.67</v>
-      </c>
-      <c r="AN432">
-        <v>1.12</v>
-      </c>
-      <c r="AO432">
-        <v>1.23</v>
-      </c>
-      <c r="AP432">
-        <v>2.3</v>
-      </c>
-      <c r="AQ432">
-        <v>1.78</v>
-      </c>
-      <c r="AR432">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AS432">
-        <v>1.84</v>
-      </c>
-      <c r="AT432">
-        <v>0.88</v>
-      </c>
-      <c r="AU432">
-        <v>1.45</v>
-      </c>
-      <c r="AV432">
-        <v>0.93</v>
-      </c>
-      <c r="AW432">
-        <v>2.38</v>
-      </c>
-      <c r="AX432">
-        <v>1.26</v>
-      </c>
-      <c r="AY432">
-        <v>10</v>
-      </c>
-      <c r="AZ432">
-        <v>4.64</v>
-      </c>
-      <c r="BA432">
-        <v>1.23</v>
-      </c>
-      <c r="BB432">
-        <v>1.43</v>
-      </c>
-      <c r="BC432">
-        <v>1.8</v>
-      </c>
-      <c r="BD432">
-        <v>2.3</v>
-      </c>
-      <c r="BE432">
-        <v>3.2</v>
-      </c>
-      <c r="BF432">
-        <v>9</v>
-      </c>
       <c r="BG432">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH432">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI432">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BJ432">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BK432">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="433" spans="1:63">
@@ -84317,7 +84323,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>2581100</v>
+        <v>2581101</v>
       </c>
       <c r="C433" t="s">
         <v>63</v>
@@ -84332,40 +84338,40 @@
         <v>37</v>
       </c>
       <c r="G433" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H433" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I433">
         <v>0</v>
       </c>
       <c r="J433">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K433">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L433">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M433">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N433">
+        <v>2</v>
+      </c>
+      <c r="O433" t="s">
+        <v>327</v>
+      </c>
+      <c r="P433" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q433">
+        <v>7</v>
+      </c>
+      <c r="R433">
         <v>4</v>
-      </c>
-      <c r="O433" t="s">
-        <v>231</v>
-      </c>
-      <c r="P433" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q433">
-        <v>10</v>
-      </c>
-      <c r="R433">
-        <v>1</v>
       </c>
       <c r="S433">
         <v>11</v>
@@ -84392,37 +84398,37 @@
         <v>1.29</v>
       </c>
       <c r="AA433">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB433">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC433">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="AD433">
         <v>2.9</v>
       </c>
       <c r="AE433">
-        <v>2.75</v>
+        <v>3.35</v>
       </c>
       <c r="AF433">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AG433">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AH433">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="AI433">
-        <v>2.68</v>
+        <v>2.38</v>
       </c>
       <c r="AJ433">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AK433">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AL433">
         <v>2</v>
@@ -84434,73 +84440,73 @@
         <v>1.33</v>
       </c>
       <c r="AO433">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AP433">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="AQ433">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AR433">
-        <v>1.22</v>
+        <v>0.72</v>
       </c>
       <c r="AS433">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AT433">
-        <v>1.32</v>
+        <v>0.68</v>
       </c>
       <c r="AU433">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="AV433">
-        <v>1.27</v>
+        <v>1.05</v>
       </c>
       <c r="AW433">
-        <v>2.66</v>
+        <v>2.57</v>
       </c>
       <c r="AX433">
-        <v>1.91</v>
+        <v>1.59</v>
       </c>
       <c r="AY433">
         <v>8</v>
       </c>
       <c r="AZ433">
+        <v>2.9</v>
+      </c>
+      <c r="BA433">
+        <v>1.44</v>
+      </c>
+      <c r="BB433">
+        <v>1.73</v>
+      </c>
+      <c r="BC433">
         <v>2.2</v>
       </c>
-      <c r="BA433">
-        <v>1.26</v>
-      </c>
-      <c r="BB433">
-        <v>1.49</v>
-      </c>
-      <c r="BC433">
-        <v>2</v>
-      </c>
       <c r="BD433">
-        <v>2.45</v>
+        <v>2.98</v>
       </c>
       <c r="BE433">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="BF433">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG433">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH433">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BI433">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ433">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BK433">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="434" spans="1:63">
@@ -84508,7 +84514,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>2581096</v>
+        <v>2581095</v>
       </c>
       <c r="C434" t="s">
         <v>63</v>
@@ -84523,91 +84529,91 @@
         <v>37</v>
       </c>
       <c r="G434" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H434" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I434">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J434">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K434">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L434">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M434">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N434">
+        <v>1</v>
+      </c>
+      <c r="O434" t="s">
+        <v>258</v>
+      </c>
+      <c r="P434" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q434">
         <v>8</v>
       </c>
-      <c r="O434" t="s">
-        <v>327</v>
-      </c>
-      <c r="P434" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q434">
+      <c r="R434">
+        <v>0</v>
+      </c>
+      <c r="S434">
+        <v>8</v>
+      </c>
+      <c r="T434">
+        <v>2.15</v>
+      </c>
+      <c r="U434">
+        <v>2.1</v>
+      </c>
+      <c r="V434">
+        <v>6.25</v>
+      </c>
+      <c r="W434">
+        <v>1.44</v>
+      </c>
+      <c r="X434">
+        <v>2.63</v>
+      </c>
+      <c r="Y434">
+        <v>3.25</v>
+      </c>
+      <c r="Z434">
+        <v>1.33</v>
+      </c>
+      <c r="AA434">
+        <v>10</v>
+      </c>
+      <c r="AB434">
+        <v>1.06</v>
+      </c>
+      <c r="AC434">
+        <v>1.53</v>
+      </c>
+      <c r="AD434">
+        <v>3.9</v>
+      </c>
+      <c r="AE434">
         <v>6</v>
-      </c>
-      <c r="R434">
-        <v>5</v>
-      </c>
-      <c r="S434">
-        <v>11</v>
-      </c>
-      <c r="T434">
-        <v>3.6</v>
-      </c>
-      <c r="U434">
-        <v>2.05</v>
-      </c>
-      <c r="V434">
-        <v>2.9</v>
-      </c>
-      <c r="W434">
-        <v>1.42</v>
-      </c>
-      <c r="X434">
-        <v>2.65</v>
-      </c>
-      <c r="Y434">
-        <v>2.95</v>
-      </c>
-      <c r="Z434">
-        <v>1.35</v>
-      </c>
-      <c r="AA434">
-        <v>7.85</v>
-      </c>
-      <c r="AB434">
-        <v>1.05</v>
-      </c>
-      <c r="AC434">
-        <v>3.15</v>
-      </c>
-      <c r="AD434">
-        <v>3.15</v>
-      </c>
-      <c r="AE434">
-        <v>2.2</v>
       </c>
       <c r="AF434">
         <v>1.06</v>
       </c>
       <c r="AG434">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH434">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AI434">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AJ434">
         <v>2.1</v>
@@ -84616,82 +84622,82 @@
         <v>1.65</v>
       </c>
       <c r="AL434">
+        <v>2.1</v>
+      </c>
+      <c r="AM434">
+        <v>1.67</v>
+      </c>
+      <c r="AN434">
+        <v>1.12</v>
+      </c>
+      <c r="AO434">
+        <v>1.23</v>
+      </c>
+      <c r="AP434">
+        <v>2.3</v>
+      </c>
+      <c r="AQ434">
+        <v>1.78</v>
+      </c>
+      <c r="AR434">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS434">
+        <v>1.84</v>
+      </c>
+      <c r="AT434">
+        <v>0.83</v>
+      </c>
+      <c r="AU434">
+        <v>1.45</v>
+      </c>
+      <c r="AV434">
+        <v>0.93</v>
+      </c>
+      <c r="AW434">
+        <v>2.38</v>
+      </c>
+      <c r="AX434">
+        <v>1.26</v>
+      </c>
+      <c r="AY434">
+        <v>10</v>
+      </c>
+      <c r="AZ434">
+        <v>4.64</v>
+      </c>
+      <c r="BA434">
+        <v>1.23</v>
+      </c>
+      <c r="BB434">
+        <v>1.43</v>
+      </c>
+      <c r="BC434">
         <v>1.8</v>
       </c>
-      <c r="AM434">
-        <v>1.91</v>
-      </c>
-      <c r="AN434">
-        <v>1.57</v>
-      </c>
-      <c r="AO434">
-        <v>1.28</v>
-      </c>
-      <c r="AP434">
-        <v>1.38</v>
-      </c>
-      <c r="AQ434">
-        <v>0.67</v>
-      </c>
-      <c r="AR434">
-        <v>1.33</v>
-      </c>
-      <c r="AS434">
-        <v>0.68</v>
-      </c>
-      <c r="AT434">
-        <v>1.32</v>
-      </c>
-      <c r="AU434">
-        <v>1.23</v>
-      </c>
-      <c r="AV434">
-        <v>1.37</v>
-      </c>
-      <c r="AW434">
-        <v>2.6</v>
-      </c>
-      <c r="AX434">
-        <v>2.1</v>
-      </c>
-      <c r="AY434">
-        <v>8</v>
-      </c>
-      <c r="AZ434">
-        <v>1.95</v>
-      </c>
-      <c r="BA434">
-        <v>1.24</v>
-      </c>
-      <c r="BB434">
-        <v>1.46</v>
-      </c>
-      <c r="BC434">
-        <v>1.93</v>
-      </c>
       <c r="BD434">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="BE434">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BF434">
         <v>9</v>
       </c>
       <c r="BG434">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BH434">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BI434">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BJ434">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BK434">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="435" spans="1:63">
@@ -84890,7 +84896,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>2581101</v>
+        <v>2581097</v>
       </c>
       <c r="C436" t="s">
         <v>63</v>
@@ -84905,175 +84911,175 @@
         <v>37</v>
       </c>
       <c r="G436" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H436" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I436">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K436">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L436">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N436">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O436" t="s">
         <v>328</v>
       </c>
       <c r="P436" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
       <c r="Q436">
+        <v>9</v>
+      </c>
+      <c r="R436">
+        <v>5</v>
+      </c>
+      <c r="S436">
+        <v>14</v>
+      </c>
+      <c r="T436">
+        <v>2.55</v>
+      </c>
+      <c r="U436">
+        <v>2.15</v>
+      </c>
+      <c r="V436">
+        <v>4.5</v>
+      </c>
+      <c r="W436">
+        <v>1.4</v>
+      </c>
+      <c r="X436">
+        <v>2.75</v>
+      </c>
+      <c r="Y436">
+        <v>2.75</v>
+      </c>
+      <c r="Z436">
+        <v>1.4</v>
+      </c>
+      <c r="AA436">
         <v>7</v>
       </c>
-      <c r="R436">
-        <v>4</v>
-      </c>
-      <c r="S436">
-        <v>11</v>
-      </c>
-      <c r="T436">
-        <v>3</v>
-      </c>
-      <c r="U436">
-        <v>2</v>
-      </c>
-      <c r="V436">
-        <v>4</v>
-      </c>
-      <c r="W436">
-        <v>1.5</v>
-      </c>
-      <c r="X436">
-        <v>2.5</v>
-      </c>
-      <c r="Y436">
-        <v>3.5</v>
-      </c>
-      <c r="Z436">
-        <v>1.29</v>
-      </c>
-      <c r="AA436">
-        <v>11</v>
-      </c>
       <c r="AB436">
+        <v>1.08</v>
+      </c>
+      <c r="AC436">
+        <v>1.9</v>
+      </c>
+      <c r="AD436">
+        <v>3.45</v>
+      </c>
+      <c r="AE436">
+        <v>3.8</v>
+      </c>
+      <c r="AF436">
+        <v>1.07</v>
+      </c>
+      <c r="AG436">
+        <v>7.5</v>
+      </c>
+      <c r="AH436">
+        <v>1.36</v>
+      </c>
+      <c r="AI436">
+        <v>3</v>
+      </c>
+      <c r="AJ436">
+        <v>2.1</v>
+      </c>
+      <c r="AK436">
+        <v>1.65</v>
+      </c>
+      <c r="AL436">
+        <v>1.91</v>
+      </c>
+      <c r="AM436">
+        <v>1.8</v>
+      </c>
+      <c r="AN436">
+        <v>1.2</v>
+      </c>
+      <c r="AO436">
+        <v>1.3</v>
+      </c>
+      <c r="AP436">
+        <v>1.91</v>
+      </c>
+      <c r="AQ436">
+        <v>1.61</v>
+      </c>
+      <c r="AR436">
+        <v>1.12</v>
+      </c>
+      <c r="AS436">
+        <v>1.68</v>
+      </c>
+      <c r="AT436">
         <v>1.05</v>
-      </c>
-      <c r="AC436">
-        <v>2.2</v>
-      </c>
-      <c r="AD436">
-        <v>2.9</v>
-      </c>
-      <c r="AE436">
-        <v>3.35</v>
-      </c>
-      <c r="AF436">
-        <v>1.06</v>
-      </c>
-      <c r="AG436">
-        <v>6.8</v>
-      </c>
-      <c r="AH436">
-        <v>1.52</v>
-      </c>
-      <c r="AI436">
-        <v>2.38</v>
-      </c>
-      <c r="AJ436">
-        <v>2.15</v>
-      </c>
-      <c r="AK436">
-        <v>1.62</v>
-      </c>
-      <c r="AL436">
-        <v>2</v>
-      </c>
-      <c r="AM436">
-        <v>1.73</v>
-      </c>
-      <c r="AN436">
-        <v>1.33</v>
-      </c>
-      <c r="AO436">
-        <v>1.35</v>
-      </c>
-      <c r="AP436">
-        <v>1.64</v>
-      </c>
-      <c r="AQ436">
-        <v>1.56</v>
-      </c>
-      <c r="AR436">
-        <v>0.72</v>
-      </c>
-      <c r="AS436">
-        <v>1.63</v>
-      </c>
-      <c r="AT436">
-        <v>0.68</v>
       </c>
       <c r="AU436">
         <v>1.52</v>
       </c>
       <c r="AV436">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AW436">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="AX436">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="AY436">
         <v>8</v>
       </c>
       <c r="AZ436">
-        <v>2.9</v>
+        <v>2.44</v>
       </c>
       <c r="BA436">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="BB436">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="BC436">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="BD436">
-        <v>2.98</v>
+        <v>2.4</v>
       </c>
       <c r="BE436">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BF436">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BG436">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH436">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BI436">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BJ436">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BK436">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="437" spans="1:63">
@@ -85081,7 +85087,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>2581097</v>
+        <v>2581096</v>
       </c>
       <c r="C437" t="s">
         <v>63</v>
@@ -85096,91 +85102,91 @@
         <v>37</v>
       </c>
       <c r="G437" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H437" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I437">
         <v>2</v>
       </c>
       <c r="J437">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K437">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L437">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M437">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N437">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O437" t="s">
         <v>329</v>
       </c>
       <c r="P437" t="s">
-        <v>201</v>
+        <v>473</v>
       </c>
       <c r="Q437">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R437">
         <v>5</v>
       </c>
       <c r="S437">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="T437">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="U437">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="V437">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="W437">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X437">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="Y437">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="Z437">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AA437">
-        <v>7</v>
+        <v>7.85</v>
       </c>
       <c r="AB437">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AC437">
-        <v>1.9</v>
+        <v>3.15</v>
       </c>
       <c r="AD437">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="AE437">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="AF437">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AG437">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH437">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AI437">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AJ437">
         <v>2.1</v>
@@ -85189,49 +85195,49 @@
         <v>1.65</v>
       </c>
       <c r="AL437">
+        <v>1.8</v>
+      </c>
+      <c r="AM437">
         <v>1.91</v>
       </c>
-      <c r="AM437">
-        <v>1.8</v>
-      </c>
       <c r="AN437">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="AO437">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AP437">
-        <v>1.91</v>
+        <v>1.38</v>
       </c>
       <c r="AQ437">
-        <v>1.61</v>
+        <v>0.67</v>
       </c>
       <c r="AR437">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="AS437">
-        <v>1.68</v>
+        <v>0.68</v>
       </c>
       <c r="AT437">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="AU437">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="AV437">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="AW437">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="AX437">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AY437">
         <v>8</v>
       </c>
       <c r="AZ437">
-        <v>2.44</v>
+        <v>1.95</v>
       </c>
       <c r="BA437">
         <v>1.24</v>
@@ -85240,7 +85246,7 @@
         <v>1.46</v>
       </c>
       <c r="BC437">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="BD437">
         <v>2.4</v>
@@ -85249,22 +85255,595 @@
         <v>3.3</v>
       </c>
       <c r="BF437">
+        <v>9</v>
+      </c>
+      <c r="BG437">
         <v>8</v>
       </c>
-      <c r="BG437">
-        <v>2</v>
-      </c>
       <c r="BH437">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI437">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ437">
         <v>17</v>
       </c>
       <c r="BK437">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="438" spans="1:63">
+      <c r="A438" s="1">
+        <v>437</v>
+      </c>
+      <c r="B438">
+        <v>2580983</v>
+      </c>
+      <c r="C438" t="s">
+        <v>63</v>
+      </c>
+      <c r="D438" t="s">
+        <v>64</v>
+      </c>
+      <c r="E438" s="2">
+        <v>45006.69791666666</v>
+      </c>
+      <c r="F438">
+        <v>28</v>
+      </c>
+      <c r="G438" t="s">
+        <v>75</v>
+      </c>
+      <c r="H438" t="s">
+        <v>74</v>
+      </c>
+      <c r="I438">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>0</v>
+      </c>
+      <c r="L438">
+        <v>0</v>
+      </c>
+      <c r="M438">
+        <v>0</v>
+      </c>
+      <c r="N438">
+        <v>0</v>
+      </c>
+      <c r="O438" t="s">
+        <v>99</v>
+      </c>
+      <c r="P438" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q438">
+        <v>3</v>
+      </c>
+      <c r="R438">
+        <v>4</v>
+      </c>
+      <c r="S438">
+        <v>7</v>
+      </c>
+      <c r="T438">
+        <v>2.9</v>
+      </c>
+      <c r="U438">
+        <v>2.1</v>
+      </c>
+      <c r="V438">
+        <v>4</v>
+      </c>
+      <c r="W438">
+        <v>1.41</v>
+      </c>
+      <c r="X438">
+        <v>2.7</v>
+      </c>
+      <c r="Y438">
+        <v>3.05</v>
+      </c>
+      <c r="Z438">
+        <v>1.34</v>
+      </c>
+      <c r="AA438">
+        <v>7.9</v>
+      </c>
+      <c r="AB438">
+        <v>1.05</v>
+      </c>
+      <c r="AC438">
+        <v>2.4</v>
+      </c>
+      <c r="AD438">
+        <v>3</v>
+      </c>
+      <c r="AE438">
+        <v>2.9</v>
+      </c>
+      <c r="AF438">
+        <v>1.06</v>
+      </c>
+      <c r="AG438">
+        <v>10</v>
+      </c>
+      <c r="AH438">
+        <v>1.36</v>
+      </c>
+      <c r="AI438">
+        <v>3.1</v>
+      </c>
+      <c r="AJ438">
+        <v>2.15</v>
+      </c>
+      <c r="AK438">
+        <v>1.61</v>
+      </c>
+      <c r="AL438">
+        <v>1.87</v>
+      </c>
+      <c r="AM438">
+        <v>1.9</v>
+      </c>
+      <c r="AN438">
+        <v>1.33</v>
+      </c>
+      <c r="AO438">
+        <v>1.25</v>
+      </c>
+      <c r="AP438">
+        <v>1.7</v>
+      </c>
+      <c r="AQ438">
+        <v>1.56</v>
+      </c>
+      <c r="AR438">
+        <v>1.71</v>
+      </c>
+      <c r="AS438">
+        <v>1.53</v>
+      </c>
+      <c r="AT438">
+        <v>1.67</v>
+      </c>
+      <c r="AU438">
+        <v>1.44</v>
+      </c>
+      <c r="AV438">
+        <v>1.36</v>
+      </c>
+      <c r="AW438">
+        <v>2.8</v>
+      </c>
+      <c r="AX438">
+        <v>2.1</v>
+      </c>
+      <c r="AY438">
+        <v>8</v>
+      </c>
+      <c r="AZ438">
+        <v>1.91</v>
+      </c>
+      <c r="BA438">
+        <v>1.19</v>
+      </c>
+      <c r="BB438">
+        <v>1.36</v>
+      </c>
+      <c r="BC438">
+        <v>1.65</v>
+      </c>
+      <c r="BD438">
+        <v>2.1</v>
+      </c>
+      <c r="BE438">
+        <v>2.8</v>
+      </c>
+      <c r="BF438">
+        <v>3</v>
+      </c>
+      <c r="BG438">
+        <v>2</v>
+      </c>
+      <c r="BH438">
         <v>6</v>
+      </c>
+      <c r="BI438">
+        <v>10</v>
+      </c>
+      <c r="BJ438">
+        <v>9</v>
+      </c>
+      <c r="BK438">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="439" spans="1:63">
+      <c r="A439" s="1">
+        <v>438</v>
+      </c>
+      <c r="B439">
+        <v>2580972</v>
+      </c>
+      <c r="C439" t="s">
+        <v>63</v>
+      </c>
+      <c r="D439" t="s">
+        <v>64</v>
+      </c>
+      <c r="E439" s="2">
+        <v>45006.69791666666</v>
+      </c>
+      <c r="F439">
+        <v>27</v>
+      </c>
+      <c r="G439" t="s">
+        <v>83</v>
+      </c>
+      <c r="H439" t="s">
+        <v>84</v>
+      </c>
+      <c r="I439">
+        <v>0</v>
+      </c>
+      <c r="J439">
+        <v>1</v>
+      </c>
+      <c r="K439">
+        <v>1</v>
+      </c>
+      <c r="L439">
+        <v>1</v>
+      </c>
+      <c r="M439">
+        <v>1</v>
+      </c>
+      <c r="N439">
+        <v>2</v>
+      </c>
+      <c r="O439" t="s">
+        <v>278</v>
+      </c>
+      <c r="P439" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q439">
+        <v>9</v>
+      </c>
+      <c r="R439">
+        <v>0</v>
+      </c>
+      <c r="S439">
+        <v>9</v>
+      </c>
+      <c r="T439">
+        <v>3.5</v>
+      </c>
+      <c r="U439">
+        <v>2.15</v>
+      </c>
+      <c r="V439">
+        <v>3.1</v>
+      </c>
+      <c r="W439">
+        <v>1.39</v>
+      </c>
+      <c r="X439">
+        <v>2.8</v>
+      </c>
+      <c r="Y439">
+        <v>2.9</v>
+      </c>
+      <c r="Z439">
+        <v>1.37</v>
+      </c>
+      <c r="AA439">
+        <v>7.35</v>
+      </c>
+      <c r="AB439">
+        <v>1.06</v>
+      </c>
+      <c r="AC439">
+        <v>2.7</v>
+      </c>
+      <c r="AD439">
+        <v>3.05</v>
+      </c>
+      <c r="AE439">
+        <v>2.5</v>
+      </c>
+      <c r="AF439">
+        <v>1.05</v>
+      </c>
+      <c r="AG439">
+        <v>11</v>
+      </c>
+      <c r="AH439">
+        <v>1.33</v>
+      </c>
+      <c r="AI439">
+        <v>3.3</v>
+      </c>
+      <c r="AJ439">
+        <v>1.91</v>
+      </c>
+      <c r="AK439">
+        <v>1.8</v>
+      </c>
+      <c r="AL439">
+        <v>1.78</v>
+      </c>
+      <c r="AM439">
+        <v>2</v>
+      </c>
+      <c r="AN439">
+        <v>1.57</v>
+      </c>
+      <c r="AO439">
+        <v>1.25</v>
+      </c>
+      <c r="AP439">
+        <v>1.42</v>
+      </c>
+      <c r="AQ439">
+        <v>1.44</v>
+      </c>
+      <c r="AR439">
+        <v>1.06</v>
+      </c>
+      <c r="AS439">
+        <v>1.41</v>
+      </c>
+      <c r="AT439">
+        <v>1.05</v>
+      </c>
+      <c r="AU439">
+        <v>1.21</v>
+      </c>
+      <c r="AV439">
+        <v>1.12</v>
+      </c>
+      <c r="AW439">
+        <v>2.33</v>
+      </c>
+      <c r="AX439">
+        <v>2.1</v>
+      </c>
+      <c r="AY439">
+        <v>8</v>
+      </c>
+      <c r="AZ439">
+        <v>1.95</v>
+      </c>
+      <c r="BA439">
+        <v>1.27</v>
+      </c>
+      <c r="BB439">
+        <v>1.5</v>
+      </c>
+      <c r="BC439">
+        <v>1.98</v>
+      </c>
+      <c r="BD439">
+        <v>2.5</v>
+      </c>
+      <c r="BE439">
+        <v>3.5</v>
+      </c>
+      <c r="BF439">
+        <v>8</v>
+      </c>
+      <c r="BG439">
+        <v>2</v>
+      </c>
+      <c r="BH439">
+        <v>10</v>
+      </c>
+      <c r="BI439">
+        <v>1</v>
+      </c>
+      <c r="BJ439">
+        <v>18</v>
+      </c>
+      <c r="BK439">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:63">
+      <c r="A440" s="1">
+        <v>439</v>
+      </c>
+      <c r="B440">
+        <v>2580961</v>
+      </c>
+      <c r="C440" t="s">
+        <v>63</v>
+      </c>
+      <c r="D440" t="s">
+        <v>64</v>
+      </c>
+      <c r="E440" s="2">
+        <v>45006.69791666666</v>
+      </c>
+      <c r="F440">
+        <v>26</v>
+      </c>
+      <c r="G440" t="s">
+        <v>88</v>
+      </c>
+      <c r="H440" t="s">
+        <v>85</v>
+      </c>
+      <c r="I440">
+        <v>0</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+      <c r="K440">
+        <v>0</v>
+      </c>
+      <c r="L440">
+        <v>2</v>
+      </c>
+      <c r="M440">
+        <v>1</v>
+      </c>
+      <c r="N440">
+        <v>3</v>
+      </c>
+      <c r="O440" t="s">
+        <v>330</v>
+      </c>
+      <c r="P440" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q440">
+        <v>3</v>
+      </c>
+      <c r="R440">
+        <v>3</v>
+      </c>
+      <c r="S440">
+        <v>6</v>
+      </c>
+      <c r="T440">
+        <v>2.65</v>
+      </c>
+      <c r="U440">
+        <v>2</v>
+      </c>
+      <c r="V440">
+        <v>4.38</v>
+      </c>
+      <c r="W440">
+        <v>1.52</v>
+      </c>
+      <c r="X440">
+        <v>2.4</v>
+      </c>
+      <c r="Y440">
+        <v>3.3</v>
+      </c>
+      <c r="Z440">
+        <v>1.28</v>
+      </c>
+      <c r="AA440">
+        <v>10.5</v>
+      </c>
+      <c r="AB440">
+        <v>1.05</v>
+      </c>
+      <c r="AC440">
+        <v>1.71</v>
+      </c>
+      <c r="AD440">
+        <v>3.25</v>
+      </c>
+      <c r="AE440">
+        <v>4.9</v>
+      </c>
+      <c r="AF440">
+        <v>1.08</v>
+      </c>
+      <c r="AG440">
+        <v>8</v>
+      </c>
+      <c r="AH440">
+        <v>1.42</v>
+      </c>
+      <c r="AI440">
+        <v>2.65</v>
+      </c>
+      <c r="AJ440">
+        <v>2.15</v>
+      </c>
+      <c r="AK440">
+        <v>1.61</v>
+      </c>
+      <c r="AL440">
+        <v>2.05</v>
+      </c>
+      <c r="AM440">
+        <v>1.75</v>
+      </c>
+      <c r="AN440">
+        <v>1.25</v>
+      </c>
+      <c r="AO440">
+        <v>1.28</v>
+      </c>
+      <c r="AP440">
+        <v>1.8</v>
+      </c>
+      <c r="AQ440">
+        <v>1.47</v>
+      </c>
+      <c r="AR440">
+        <v>0.88</v>
+      </c>
+      <c r="AS440">
+        <v>1.56</v>
+      </c>
+      <c r="AT440">
+        <v>0.83</v>
+      </c>
+      <c r="AU440">
+        <v>1.28</v>
+      </c>
+      <c r="AV440">
+        <v>0.91</v>
+      </c>
+      <c r="AW440">
+        <v>2.19</v>
+      </c>
+      <c r="AX440">
+        <v>1.32</v>
+      </c>
+      <c r="AY440">
+        <v>7</v>
+      </c>
+      <c r="AZ440">
+        <v>4.05</v>
+      </c>
+      <c r="BA440">
+        <v>1.24</v>
+      </c>
+      <c r="BB440">
+        <v>1.51</v>
+      </c>
+      <c r="BC440">
+        <v>1.84</v>
+      </c>
+      <c r="BD440">
+        <v>2.25</v>
+      </c>
+      <c r="BE440">
+        <v>3.2</v>
+      </c>
+      <c r="BF440">
+        <v>3</v>
+      </c>
+      <c r="BG440">
+        <v>5</v>
+      </c>
+      <c r="BH440">
+        <v>7</v>
+      </c>
+      <c r="BI440">
+        <v>8</v>
+      </c>
+      <c r="BJ440">
+        <v>10</v>
+      </c>
+      <c r="BK440">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/England EFL League Two_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="475">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1800,7 +1800,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK440"/>
+  <dimension ref="A1:BK441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3471,7 +3471,7 @@
         <v>2.32</v>
       </c>
       <c r="AT9">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT18">
         <v>1.06</v>
@@ -7673,7 +7673,7 @@
         <v>0.68</v>
       </c>
       <c r="AT31">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU31">
         <v>1.34</v>
@@ -9580,7 +9580,7 @@
         <v>1</v>
       </c>
       <c r="AS41">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT41">
         <v>1</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT50">
         <v>1.44</v>
@@ -13403,7 +13403,7 @@
         <v>1.63</v>
       </c>
       <c r="AT61">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU61">
         <v>1.65</v>
@@ -16268,7 +16268,7 @@
         <v>1</v>
       </c>
       <c r="AT76">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU76">
         <v>1.28</v>
@@ -18366,7 +18366,7 @@
         <v>0.5</v>
       </c>
       <c r="AS87">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT87">
         <v>1.67</v>
@@ -22380,7 +22380,7 @@
         <v>1.06</v>
       </c>
       <c r="AT108">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU108">
         <v>1.24</v>
@@ -25051,7 +25051,7 @@
         <v>0.2</v>
       </c>
       <c r="AS122">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT122">
         <v>0.74</v>
@@ -26200,7 +26200,7 @@
         <v>1.68</v>
       </c>
       <c r="AT128">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU128">
         <v>1.51</v>
@@ -30781,7 +30781,7 @@
         <v>0.83</v>
       </c>
       <c r="AS152">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT152">
         <v>1</v>
@@ -31166,7 +31166,7 @@
         <v>1.79</v>
       </c>
       <c r="AT154">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU154">
         <v>1.91</v>
@@ -35365,7 +35365,7 @@
         <v>1</v>
       </c>
       <c r="AS176">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT176">
         <v>1.32</v>
@@ -37087,7 +37087,7 @@
         <v>1.67</v>
       </c>
       <c r="AT185">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU185">
         <v>1.6</v>
@@ -37851,7 +37851,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT189">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU189">
         <v>1.37</v>
@@ -38230,7 +38230,7 @@
         <v>1.25</v>
       </c>
       <c r="AS191">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT191">
         <v>1.32</v>
@@ -40331,7 +40331,7 @@
         <v>1.86</v>
       </c>
       <c r="AS202">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT202">
         <v>1.78</v>
@@ -46064,7 +46064,7 @@
         <v>1.33</v>
       </c>
       <c r="AT232">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU232">
         <v>1.28</v>
@@ -47207,7 +47207,7 @@
         <v>0.11</v>
       </c>
       <c r="AS238">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT238">
         <v>0.89</v>
@@ -49502,7 +49502,7 @@
         <v>1.16</v>
       </c>
       <c r="AT250">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU250">
         <v>1.58</v>
@@ -51027,7 +51027,7 @@
         <v>2.1</v>
       </c>
       <c r="AS258">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT258">
         <v>1.72</v>
@@ -56757,7 +56757,7 @@
         <v>1</v>
       </c>
       <c r="AS288">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT288">
         <v>1.16</v>
@@ -58476,7 +58476,7 @@
         <v>1</v>
       </c>
       <c r="AS297">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT297">
         <v>0.83</v>
@@ -59816,7 +59816,7 @@
         <v>1.53</v>
       </c>
       <c r="AT304">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU304">
         <v>1.66</v>
@@ -62487,7 +62487,7 @@
         <v>1.15</v>
       </c>
       <c r="AS318">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT318">
         <v>1.05</v>
@@ -64782,7 +64782,7 @@
         <v>1.42</v>
       </c>
       <c r="AT330">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU330">
         <v>1.23</v>
@@ -67071,7 +67071,7 @@
         <v>0.57</v>
       </c>
       <c r="AS342">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT342">
         <v>0.68</v>
@@ -68984,7 +68984,7 @@
         <v>1.56</v>
       </c>
       <c r="AT352">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU352">
         <v>1.22</v>
@@ -70703,7 +70703,7 @@
         <v>1.84</v>
       </c>
       <c r="AT361">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU361">
         <v>1.46</v>
@@ -75284,7 +75284,7 @@
         <v>1.53</v>
       </c>
       <c r="AS385">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT385">
         <v>1.5</v>
@@ -77388,7 +77388,7 @@
         <v>1.89</v>
       </c>
       <c r="AT396">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU396">
         <v>1.59</v>
@@ -82927,7 +82927,7 @@
         <v>1.95</v>
       </c>
       <c r="AT425">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AU425">
         <v>1.65</v>
@@ -85844,6 +85844,197 @@
       </c>
       <c r="BK440">
         <v>13</v>
+      </c>
+    </row>
+    <row r="441" spans="1:63">
+      <c r="A441" s="1">
+        <v>440</v>
+      </c>
+      <c r="B441">
+        <v>2580917</v>
+      </c>
+      <c r="C441" t="s">
+        <v>63</v>
+      </c>
+      <c r="D441" t="s">
+        <v>64</v>
+      </c>
+      <c r="E441" s="2">
+        <v>45007.69791666666</v>
+      </c>
+      <c r="F441">
+        <v>22</v>
+      </c>
+      <c r="G441" t="s">
+        <v>81</v>
+      </c>
+      <c r="H441" t="s">
+        <v>82</v>
+      </c>
+      <c r="I441">
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441">
+        <v>0</v>
+      </c>
+      <c r="L441">
+        <v>0</v>
+      </c>
+      <c r="M441">
+        <v>0</v>
+      </c>
+      <c r="N441">
+        <v>0</v>
+      </c>
+      <c r="O441" t="s">
+        <v>99</v>
+      </c>
+      <c r="P441" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q441">
+        <v>9</v>
+      </c>
+      <c r="R441">
+        <v>8</v>
+      </c>
+      <c r="S441">
+        <v>17</v>
+      </c>
+      <c r="T441">
+        <v>2.52</v>
+      </c>
+      <c r="U441">
+        <v>2.11</v>
+      </c>
+      <c r="V441">
+        <v>4.65</v>
+      </c>
+      <c r="W441">
+        <v>1.44</v>
+      </c>
+      <c r="X441">
+        <v>2.7</v>
+      </c>
+      <c r="Y441">
+        <v>3.04</v>
+      </c>
+      <c r="Z441">
+        <v>1.36</v>
+      </c>
+      <c r="AA441">
+        <v>7.9</v>
+      </c>
+      <c r="AB441">
+        <v>1.07</v>
+      </c>
+      <c r="AC441">
+        <v>1.98</v>
+      </c>
+      <c r="AD441">
+        <v>3.56</v>
+      </c>
+      <c r="AE441">
+        <v>3.72</v>
+      </c>
+      <c r="AF441">
+        <v>1.03</v>
+      </c>
+      <c r="AG441">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH441">
+        <v>1.33</v>
+      </c>
+      <c r="AI441">
+        <v>3.08</v>
+      </c>
+      <c r="AJ441">
+        <v>1.89</v>
+      </c>
+      <c r="AK441">
+        <v>1.76</v>
+      </c>
+      <c r="AL441">
+        <v>1.9</v>
+      </c>
+      <c r="AM441">
+        <v>1.86</v>
+      </c>
+      <c r="AN441">
+        <v>1.26</v>
+      </c>
+      <c r="AO441">
+        <v>1.33</v>
+      </c>
+      <c r="AP441">
+        <v>1.93</v>
+      </c>
+      <c r="AQ441">
+        <v>1.63</v>
+      </c>
+      <c r="AR441">
+        <v>1.47</v>
+      </c>
+      <c r="AS441">
+        <v>1.59</v>
+      </c>
+      <c r="AT441">
+        <v>1.44</v>
+      </c>
+      <c r="AU441">
+        <v>1.63</v>
+      </c>
+      <c r="AV441">
+        <v>1.33</v>
+      </c>
+      <c r="AW441">
+        <v>2.96</v>
+      </c>
+      <c r="AX441">
+        <v>1.38</v>
+      </c>
+      <c r="AY441">
+        <v>9.1</v>
+      </c>
+      <c r="AZ441">
+        <v>3.95</v>
+      </c>
+      <c r="BA441">
+        <v>1.18</v>
+      </c>
+      <c r="BB441">
+        <v>1.37</v>
+      </c>
+      <c r="BC441">
+        <v>1.69</v>
+      </c>
+      <c r="BD441">
+        <v>2.11</v>
+      </c>
+      <c r="BE441">
+        <v>2.75</v>
+      </c>
+      <c r="BF441">
+        <v>2</v>
+      </c>
+      <c r="BG441">
+        <v>4</v>
+      </c>
+      <c r="BH441">
+        <v>7</v>
+      </c>
+      <c r="BI441">
+        <v>6</v>
+      </c>
+      <c r="BJ441">
+        <v>9</v>
+      </c>
+      <c r="BK441">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
